--- a/products_categories/Merge.xlsx
+++ b/products_categories/Merge.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="740">
   <si>
     <t>h1</t>
   </si>
@@ -2580,6 +2580,39 @@
   </si>
   <si>
     <t>https://thealoeveraco.shop/QkywOMRR</t>
+  </si>
+  <si>
+    <t>Forever CardioHealth</t>
+  </si>
+  <si>
+    <t>Форевър кардио здраве</t>
+  </si>
+  <si>
+    <t>Отлична хранителна добавка с коензим Q10 и специална прахообразна формула, създадена за разтваряне в гела от алое на Форевър.</t>
+  </si>
+  <si>
+    <t>Източник на три важни съставки, които подкрепят здравето на сърдечносъдовата система. Витамините от В комплекса поддържат здравословни нива на хомоцистеина в организма, коензимът Q10 допринася за функциите на клетките, а антиоксидантите се борят със свободните радикали. Заедно тези съставки имат потенциала да подпомагат правилното функциониране на сърдечносъдовата система.
+Q10 представлява ензим, произвеждан от човешкия организъм и необходим за основните функции на клетките, включително и на тези в сърцето и кръвоносните съдове. Според изследванията, нивата на коензим Q10 се понижават с напредване на възрастта, а ние именно тогава имаме най-голяма нужда от него. Освен незаменимите функции, свързани с енергийната ефективност на тялото, коензим Q10 има доказани свойства на антиоксидант и предпазва клетките от увреждащото действие на свободните радикали. Допълнителните източници на коензима, какъвто е Форевър кардио здраве, имат потенциал да повишат чувството за енергия, издръжливост и добро общо състояние.
+Хранителната добавка на Форевър подкрепя функциите на сърдечносъдовата система, като допринася за поддържане на здравословни нива на хомоцистеина в кръвта. Доказано е, че витамините В6, В12 и фолиевата киселина имат свойството да задържат нивата на хомоцистеина в полезните за здравето ниски стойности. Това на свой ред подпомага правилното функциониране на сърцето и кръвоносните съдове.</t>
+  </si>
+  <si>
+    <t>Витамин С (аскорбинова киселина), витамин Е (смесени токофероли), витамин В6 (пиридоксин хидрохлорид), фолат (фолиева киселина), витамин В12 (цианкобаламин), магнезий (магнезиев цитрат), хром (хромен хлорид), коензим Q10, екстракт от гроздови семки, екстракт от куркума (Curcuma longa), прах (корен), екстракт от бозвелия (Boswellia serrata) (смола), екстракт от маслинени листа, соев лецитин.
+ДРУГИ СЪСТАВКИ
+Фруктоза, микрокристална целулоза и силициев диоксид. Съдържа соя.</t>
+  </si>
+  <si>
+    <t>ПРЕПОРЪЧИТЕЛНА УПОТРЕБА
+Старателно разтваряйте съдържанието на едно пакетче в 120 мл гел от алое вера (или друга течност). Изпивайте по едно пакетче на ден.
+ОСНОВНИ ХАРАКТЕРИСТИКИ
+Създаден за лесно разтваряне в гел от алое вера.
+Доставя коензим Q10, който е допринася за основните клетъчни функции.
+Съдържа полезни за сърцето билкови екстракти, минерали, лецитин и антиоксидантни витамини.</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/JptRfR0w</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/yZhugDoJ</t>
   </si>
 </sst>
 </file>
@@ -2694,7 +2727,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2810,6 +2843,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -3091,10 +3133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S97"/>
+  <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3204,7 +3246,7 @@
         <v>41.677999999999997</v>
       </c>
       <c r="K2" s="5" t="str">
-        <f t="shared" ref="K2:K33" si="0">D2 &amp; ".html"</f>
+        <f t="shared" ref="K2:K34" si="0">D2 &amp; ".html"</f>
         <v>1000.html</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -3223,15 +3265,15 @@
         <v>18</v>
       </c>
       <c r="Q2" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D2:D97 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D2:D98 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1000.jpg</v>
       </c>
       <c r="R2" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D2:D97 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D2:D98 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1000a.jpg</v>
       </c>
       <c r="S2" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D2:D97 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D2:D98 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1000b.jpg</v>
       </c>
     </row>
@@ -3261,11 +3303,11 @@
         <v>59.54</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I66" si="1">H3 * 0.95</f>
+        <f t="shared" ref="I3:I67" si="1">H3 * 0.95</f>
         <v>56.562999999999995</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" ref="J3:J66" si="2">H3 * 0.7</f>
+        <f t="shared" ref="J3:J67" si="2">H3 * 0.7</f>
         <v>41.677999999999997</v>
       </c>
       <c r="K3" s="5" t="str">
@@ -3288,11 +3330,11 @@
         <v>18</v>
       </c>
       <c r="Q3" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D3:D77 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D3:D78 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1001.jpg</v>
       </c>
       <c r="R3" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D3:D77 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D3:D78 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1001a.jpg</v>
       </c>
       <c r="S3" s="1" t="str">
@@ -3353,11 +3395,11 @@
         <v>30</v>
       </c>
       <c r="Q4" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D4:D78 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D4:D79 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1075.jpg</v>
       </c>
       <c r="R4" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D4:D78 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D4:D79 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1075a.jpg</v>
       </c>
       <c r="S4" s="1" t="str">
@@ -3418,15 +3460,15 @@
         <v>43</v>
       </c>
       <c r="Q5" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D78 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D79 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1002.jpg</v>
       </c>
       <c r="R5" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D78 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D79 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1002a.jpg</v>
       </c>
       <c r="S5" s="1" t="str">
-        <f t="shared" ref="S5:S12" si="3" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D101 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D101 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1002b.jpg</v>
       </c>
     </row>
@@ -3485,7 +3527,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D6:D102 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1003b.jpg</v>
       </c>
     </row>
@@ -3544,7 +3586,7 @@
       <c r="Q7" s="10"/>
       <c r="R7" s="8"/>
       <c r="S7" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D7:D103 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1004b.jpg</v>
       </c>
     </row>
@@ -3603,12 +3645,12 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D8:D104 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1005b.jpg</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -3660,7 +3702,7 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D9:D105 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1084b.jpg</v>
       </c>
     </row>
@@ -3717,15 +3759,15 @@
         <v>30</v>
       </c>
       <c r="Q10" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D10:D82 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D10:D83 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1006.jpg</v>
       </c>
       <c r="R10" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D10:D82 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D10:D83 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1006a.jpg</v>
       </c>
       <c r="S10" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D10:D106 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1006b.jpg</v>
       </c>
     </row>
@@ -3782,15 +3824,15 @@
         <v>71</v>
       </c>
       <c r="Q11" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D11:D83 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D11:D84 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1007.jpg</v>
       </c>
       <c r="R11" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D11:D83 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D11:D84 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1007a.jpg</v>
       </c>
       <c r="S11" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D11:D107 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1007b.jpg</v>
       </c>
     </row>
@@ -3847,12 +3889,12 @@
         <v>43</v>
       </c>
       <c r="Q12" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D12:D84 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D12:D85 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1008.jpg</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D12:D108 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1008b.jpg</v>
       </c>
     </row>
@@ -3907,11 +3949,11 @@
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D13:D86 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D13:D87 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1010.jpg</v>
       </c>
       <c r="R13" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D13:D86 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D13:D87 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1010a.jpg</v>
       </c>
       <c r="S13" s="1" t="str">
@@ -3972,7 +4014,7 @@
         <v>82</v>
       </c>
       <c r="Q14" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D14:D85 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D14:D86 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1009.jpg</v>
       </c>
       <c r="R14" s="1"/>
@@ -4034,11 +4076,11 @@
         <v>37</v>
       </c>
       <c r="Q15" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D79 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D80 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1082.jpg</v>
       </c>
       <c r="R15" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D79 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D80 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1082a.jpg</v>
       </c>
       <c r="S15" s="1" t="str">
@@ -4097,11 +4139,11 @@
       </c>
       <c r="P16" s="8"/>
       <c r="Q16" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D13:D86 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D13:D87 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1076.jpg</v>
       </c>
       <c r="R16" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D13:D86 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D13:D87 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1076a.jpg</v>
       </c>
       <c r="S16" s="1" t="str">
@@ -4160,15 +4202,15 @@
       </c>
       <c r="P17" s="20"/>
       <c r="Q17" s="39" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D17:D87 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D17:D88 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1011.jpg</v>
       </c>
       <c r="R17" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D17:D87 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D17:D88 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1011a.jpg</v>
       </c>
       <c r="S17" s="1" t="str">
-        <f t="shared" ref="S17:S48" si="4" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D17:D112 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D17:D112 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1011b.jpg</v>
       </c>
     </row>
@@ -4223,12 +4265,12 @@
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D18:D88 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D18:D89 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1012.jpg</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D18:D113 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1012b.jpg</v>
       </c>
     </row>
@@ -4283,15 +4325,15 @@
       </c>
       <c r="P19" s="8"/>
       <c r="Q19" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D19:D89 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D19:D90 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1078.jpg</v>
       </c>
       <c r="R19" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D19:D89 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D19:D90 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1078a.jpg</v>
       </c>
       <c r="S19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D19:D114 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1078b.jpg</v>
       </c>
     </row>
@@ -4346,12 +4388,12 @@
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D20:D89 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D20:D90 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1013.jpg</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D20:D115 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1013b.jpg</v>
       </c>
     </row>
@@ -4406,12 +4448,12 @@
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D21:D90 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D21:D91 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1014.jpg</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D21:D116 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1014b.jpg</v>
       </c>
     </row>
@@ -4466,15 +4508,15 @@
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D22:D90 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D22:D91 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1015.jpg</v>
       </c>
       <c r="R22" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D22:D90 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D22:D91 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1015a.jpg</v>
       </c>
       <c r="S22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D22:D117 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1015b.jpg</v>
       </c>
     </row>
@@ -4529,12 +4571,12 @@
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D23:D90 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D23:D91 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1016.jpg</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D23:D118 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1016b.jpg</v>
       </c>
     </row>
@@ -4589,12 +4631,12 @@
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D24:D90 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D24:D91 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1017.jpg</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D24:D119 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1017b.jpg</v>
       </c>
     </row>
@@ -4649,12 +4691,12 @@
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D25:D90 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D25:D91 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1018.jpg</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D25:D120 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1018b.jpg</v>
       </c>
     </row>
@@ -4709,12 +4751,12 @@
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D26:D90 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D26:D91 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1019.jpg</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D26:D121 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1019b.jpg</v>
       </c>
     </row>
@@ -4771,7 +4813,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D27:D122 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1020b.jpg</v>
       </c>
     </row>
@@ -4826,17 +4868,17 @@
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D28:D90 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D28:D91 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1021.jpg</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D28:D123 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1021b.jpg</v>
       </c>
     </row>
     <row r="29" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="14" t="s">
@@ -4886,12 +4928,12 @@
       </c>
       <c r="P29" s="14"/>
       <c r="Q29" s="16" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D29:D90 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D29:D91 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1085.jpg</v>
       </c>
       <c r="R29" s="14"/>
       <c r="S29" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D29:D124 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1085b.jpg</v>
       </c>
     </row>
@@ -4946,15 +4988,15 @@
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D30:D90 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D30:D91 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1022.jpg</v>
       </c>
       <c r="R30" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D30:D90 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D30:D91 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1022a.jpg</v>
       </c>
       <c r="S30" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D30:D125 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1022b.jpg</v>
       </c>
     </row>
@@ -5009,76 +5051,69 @@
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D31:D90 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D31:D91 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1023.jpg</v>
       </c>
       <c r="R31" s="1"/>
       <c r="S31" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D31:D126 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1023b.jpg</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="26">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1024</v>
-      </c>
-      <c r="E32" t="s">
-        <v>191</v>
-      </c>
-      <c r="F32" s="43" t="s">
-        <v>667</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H32" s="5">
-        <v>187.14</v>
-      </c>
-      <c r="I32" s="6">
-        <f t="shared" si="1"/>
-        <v>177.78299999999999</v>
-      </c>
-      <c r="J32" s="6">
-        <f t="shared" si="2"/>
-        <v>130.99799999999999</v>
-      </c>
-      <c r="K32" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1024.html</v>
-      </c>
-      <c r="L32" s="5" t="s">
+      <c r="B32" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="D32" s="15">
+        <v>1097</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>738</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>734</v>
+      </c>
+      <c r="H32" s="47">
+        <v>68.680000000000007</v>
+      </c>
+      <c r="I32" s="24">
+        <f>H32 * 0.95</f>
+        <v>65.246000000000009</v>
+      </c>
+      <c r="J32" s="24">
+        <f>H32 * 0.7</f>
+        <v>48.076000000000001</v>
+      </c>
+      <c r="K32" s="48" t="str">
+        <f>D32 &amp; ".html"</f>
+        <v>1097.html</v>
+      </c>
+      <c r="L32" s="18" t="s">
         <v>625</v>
       </c>
-      <c r="M32" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D32:D90 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1024.jpg</v>
-      </c>
-      <c r="R32" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D32:D90 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1024a.jpg</v>
-      </c>
-      <c r="S32" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1024b.jpg</v>
+      <c r="M32" s="49" t="s">
+        <v>735</v>
+      </c>
+      <c r="N32" s="49" t="s">
+        <v>736</v>
+      </c>
+      <c r="O32" s="49" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D32:D193 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1097b.jpg</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5086,62 +5121,62 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D33" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E33" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F33" s="43" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H33" s="5">
-        <v>60.68</v>
+        <v>187.14</v>
       </c>
       <c r="I33" s="6">
         <f t="shared" si="1"/>
-        <v>57.645999999999994</v>
+        <v>177.78299999999999</v>
       </c>
       <c r="J33" s="6">
         <f t="shared" si="2"/>
-        <v>42.475999999999999</v>
+        <v>130.99799999999999</v>
       </c>
       <c r="K33" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>1025.html</v>
+        <v>1024.html</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>625</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D33:D90 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1025.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D33:D91 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1024.jpg</v>
       </c>
       <c r="R33" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D33:D90 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1025a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D33:D91 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1024a.jpg</v>
       </c>
       <c r="S33" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1025b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D33:D127 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1024b.jpg</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5149,59 +5184,62 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D34" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H34" s="5">
-        <v>75.58</v>
+        <v>60.68</v>
       </c>
       <c r="I34" s="6">
         <f t="shared" si="1"/>
-        <v>71.801000000000002</v>
+        <v>57.645999999999994</v>
       </c>
       <c r="J34" s="6">
         <f t="shared" si="2"/>
-        <v>52.905999999999999</v>
+        <v>42.475999999999999</v>
       </c>
       <c r="K34" s="5" t="str">
-        <f t="shared" ref="K34:K65" si="5">D34 &amp; ".html"</f>
-        <v>1026.html</v>
+        <f t="shared" si="0"/>
+        <v>1025.html</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>625</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D34:D90 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1026.jpg</v>
-      </c>
-      <c r="R34" s="1"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D34:D91 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1025.jpg</v>
+      </c>
+      <c r="R34" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D34:D91 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1025a.jpg</v>
+      </c>
       <c r="S34" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1026b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D34:D128 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1025b.jpg</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5209,62 +5247,59 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D35" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E35" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H35" s="5">
-        <v>88.12</v>
+        <v>75.58</v>
       </c>
       <c r="I35" s="6">
         <f t="shared" si="1"/>
-        <v>83.713999999999999</v>
+        <v>71.801000000000002</v>
       </c>
       <c r="J35" s="6">
         <f t="shared" si="2"/>
-        <v>61.683999999999997</v>
+        <v>52.905999999999999</v>
       </c>
       <c r="K35" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1027.html</v>
+        <f t="shared" ref="K35:K66" si="3">D35 &amp; ".html"</f>
+        <v>1026.html</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>625</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D35:D90 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1027.jpg</v>
-      </c>
-      <c r="R35" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D35:D90 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1027a.jpg</v>
-      </c>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D35:D91 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1026.jpg</v>
+      </c>
+      <c r="R35" s="1"/>
       <c r="S35" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1027b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D35:D129 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1026b.jpg</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5272,59 +5307,62 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D36" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E36" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H36" s="5">
-        <v>68.680000000000007</v>
+        <v>88.12</v>
       </c>
       <c r="I36" s="6">
         <f t="shared" si="1"/>
-        <v>65.246000000000009</v>
+        <v>83.713999999999999</v>
       </c>
       <c r="J36" s="6">
         <f t="shared" si="2"/>
-        <v>48.076000000000001</v>
+        <v>61.683999999999997</v>
       </c>
       <c r="K36" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1028.html</v>
+        <f t="shared" si="3"/>
+        <v>1027.html</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>625</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D36:D90 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1028.jpg</v>
-      </c>
-      <c r="R36" s="1"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D36:D91 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1027.jpg</v>
+      </c>
+      <c r="R36" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D36:D91 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1027a.jpg</v>
+      </c>
       <c r="S36" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1028b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D36:D130 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1027b.jpg</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5332,185 +5370,182 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D37" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E37" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H37" s="5">
-        <v>72.680000000000007</v>
+        <v>68.680000000000007</v>
       </c>
       <c r="I37" s="6">
         <f t="shared" si="1"/>
-        <v>69.046000000000006</v>
+        <v>65.246000000000009</v>
       </c>
       <c r="J37" s="6">
         <f t="shared" si="2"/>
-        <v>50.876000000000005</v>
+        <v>48.076000000000001</v>
       </c>
       <c r="K37" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1029.html</v>
+        <f t="shared" si="3"/>
+        <v>1028.html</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>625</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D37:D90 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1029.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D37:D91 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1028.jpg</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1029b.jpg</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D37:D131 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1028b.jpg</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1029</v>
+      </c>
+      <c r="E38" t="s">
+        <v>221</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>672</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H38" s="5">
+        <v>72.680000000000007</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="1"/>
+        <v>69.046000000000006</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" si="2"/>
+        <v>50.876000000000005</v>
+      </c>
+      <c r="K38" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>1029.html</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D38:D91 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1029.jpg</v>
+      </c>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D38:D132 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1029b.jpg</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C39" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="D38" s="37">
+      <c r="D39" s="37">
         <v>1030</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E39" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="F38" s="43" t="s">
+      <c r="F39" s="43" t="s">
         <v>673</v>
       </c>
-      <c r="G38" s="38" t="s">
+      <c r="G39" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H39" s="21">
         <v>118.46</v>
       </c>
-      <c r="I38" s="40">
+      <c r="I39" s="40">
         <f t="shared" si="1"/>
         <v>112.53699999999999</v>
       </c>
-      <c r="J38" s="40">
+      <c r="J39" s="40">
         <f t="shared" si="2"/>
         <v>82.921999999999997</v>
       </c>
-      <c r="K38" s="21" t="str">
-        <f t="shared" si="5"/>
+      <c r="K39" s="21" t="str">
+        <f t="shared" si="3"/>
         <v>1030.html</v>
       </c>
-      <c r="L38" s="21" t="s">
+      <c r="L39" s="21" t="s">
         <v>625</v>
       </c>
-      <c r="M38" s="21" t="s">
+      <c r="M39" s="21" t="s">
         <v>577</v>
       </c>
-      <c r="N38" s="20" t="s">
+      <c r="N39" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="O38" s="20" t="s">
+      <c r="O39" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="39" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D38:D90 &amp;".jpg"</f>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="39" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D39:D91 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1030.jpg</v>
       </c>
-      <c r="R38" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D38:D90 &amp;"a" &amp;".jpg"</f>
+      <c r="R39" s="20" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D39:D91 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1030a.jpg</v>
       </c>
-      <c r="S38" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="S39" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D39:D133 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1030b.jpg</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1031</v>
-      </c>
-      <c r="E39" t="s">
-        <v>233</v>
-      </c>
-      <c r="F39" s="43" t="s">
-        <v>674</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H39" s="5">
-        <v>36.61</v>
-      </c>
-      <c r="I39" s="6">
-        <f t="shared" si="1"/>
-        <v>34.779499999999999</v>
-      </c>
-      <c r="J39" s="6">
-        <f t="shared" si="2"/>
-        <v>25.626999999999999</v>
-      </c>
-      <c r="K39" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1031.html</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D39:D90 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1031.jpg</v>
-      </c>
-      <c r="R39" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D39:D90 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1031a.jpg</v>
-      </c>
-      <c r="S39" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1031b.jpg</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5518,62 +5553,62 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D40" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E40" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H40" s="5">
-        <v>41.79</v>
+        <v>36.61</v>
       </c>
       <c r="I40" s="6">
         <f t="shared" si="1"/>
-        <v>39.700499999999998</v>
+        <v>34.779499999999999</v>
       </c>
       <c r="J40" s="6">
         <f t="shared" si="2"/>
-        <v>29.252999999999997</v>
+        <v>25.626999999999999</v>
       </c>
       <c r="K40" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1032.html</v>
+        <f t="shared" si="3"/>
+        <v>1031.html</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D40:D90 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1032.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D40:D91 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1031.jpg</v>
       </c>
       <c r="R40" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D40:D90 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1032a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D40:D91 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1031a.jpg</v>
       </c>
       <c r="S40" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1032b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D40:D134 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1031b.jpg</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5581,185 +5616,188 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D41" s="2">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E41" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H41" s="5">
-        <v>49.78</v>
+        <v>41.79</v>
       </c>
       <c r="I41" s="6">
         <f t="shared" si="1"/>
-        <v>47.290999999999997</v>
+        <v>39.700499999999998</v>
       </c>
       <c r="J41" s="6">
         <f t="shared" si="2"/>
-        <v>34.845999999999997</v>
+        <v>29.252999999999997</v>
       </c>
       <c r="K41" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1033.html</v>
+        <f t="shared" si="3"/>
+        <v>1032.html</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D41:D90 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1033.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D41:D91 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1032.jpg</v>
       </c>
       <c r="R41" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D41:D90 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1033a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D41:D91 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1032a.jpg</v>
       </c>
       <c r="S41" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1033b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D41:D135 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1032b.jpg</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="D42" s="9">
-        <v>1077</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>251</v>
+      <c r="B42" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1033</v>
+      </c>
+      <c r="E42" t="s">
+        <v>245</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>677</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="H42" s="12">
-        <v>72.680000000000007</v>
+        <v>676</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H42" s="5">
+        <v>49.78</v>
       </c>
       <c r="I42" s="6">
         <f t="shared" si="1"/>
-        <v>69.046000000000006</v>
+        <v>47.290999999999997</v>
       </c>
       <c r="J42" s="6">
         <f t="shared" si="2"/>
-        <v>50.876000000000005</v>
+        <v>34.845999999999997</v>
       </c>
       <c r="K42" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1077.html</v>
-      </c>
-      <c r="L42" s="12" t="s">
+        <f t="shared" si="3"/>
+        <v>1033.html</v>
+      </c>
+      <c r="L42" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M42" s="12" t="s">
-        <v>581</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="O42" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D42:D90 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1077.jpg</v>
-      </c>
-      <c r="R42" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D42:D90 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1077a.jpg</v>
+      <c r="M42" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D42:D91 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1033.jpg</v>
+      </c>
+      <c r="R42" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D42:D91 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1033a.jpg</v>
       </c>
       <c r="S42" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1077b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D42:D136 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1033b.jpg</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1034</v>
-      </c>
-      <c r="E43" t="s">
-        <v>257</v>
+      <c r="B43" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D43" s="9">
+        <v>1077</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>678</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="H43" s="5">
-        <v>8</v>
+        <v>677</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="H43" s="12">
+        <v>72.680000000000007</v>
       </c>
       <c r="I43" s="6">
         <f t="shared" si="1"/>
-        <v>7.6</v>
+        <v>69.046000000000006</v>
       </c>
       <c r="J43" s="6">
         <f t="shared" si="2"/>
-        <v>5.6</v>
+        <v>50.876000000000005</v>
       </c>
       <c r="K43" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1034.html</v>
-      </c>
-      <c r="L43" s="5" t="s">
+        <f t="shared" si="3"/>
+        <v>1077.html</v>
+      </c>
+      <c r="L43" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="M43" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D43:D90 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1034.jpg</v>
-      </c>
-      <c r="R43" s="1"/>
+      <c r="M43" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O43" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="10" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D43:D91 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1077.jpg</v>
+      </c>
+      <c r="R43" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D43:D91 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1077a.jpg</v>
+      </c>
       <c r="S43" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1034b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D43:D137 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1077b.jpg</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5767,59 +5805,59 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D44" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E44" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H44" s="5">
-        <v>36.08</v>
+        <v>8</v>
       </c>
       <c r="I44" s="6">
         <f t="shared" si="1"/>
-        <v>34.275999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="J44" s="6">
         <f t="shared" si="2"/>
-        <v>25.255999999999997</v>
+        <v>5.6</v>
       </c>
       <c r="K44" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1035.html</v>
+        <f t="shared" si="3"/>
+        <v>1034.html</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D44:D90 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1035.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D44:D91 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1034.jpg</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1035b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D44:D138 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1034b.jpg</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5827,58 +5865,59 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D45" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E45" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F45" s="43" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H45" s="5">
-        <v>400.64</v>
+        <v>36.08</v>
       </c>
       <c r="I45" s="6">
         <f t="shared" si="1"/>
-        <v>380.60799999999995</v>
+        <v>34.275999999999996</v>
       </c>
       <c r="J45" s="6">
         <f t="shared" si="2"/>
-        <v>280.44799999999998</v>
+        <v>25.255999999999997</v>
       </c>
       <c r="K45" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1036.html</v>
+        <f t="shared" si="3"/>
+        <v>1035.html</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
+        <v>583</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D45:D90 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1036.jpg</v>
-      </c>
-      <c r="R45" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D45:D90 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1036a.jpg</v>
-      </c>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D45:D91 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1035.jpg</v>
+      </c>
+      <c r="R45" s="1"/>
       <c r="S45" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1036b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D45:D139 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1035b.jpg</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5886,62 +5925,58 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D46" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E46" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F46" s="43" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H46" s="5">
-        <v>80.12</v>
+        <v>400.64</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>76.114000000000004</v>
+        <v>380.60799999999995</v>
       </c>
       <c r="J46" s="6">
         <f t="shared" si="2"/>
-        <v>56.083999999999996</v>
+        <v>280.44799999999998</v>
       </c>
       <c r="K46" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1037.html</v>
+        <f t="shared" si="3"/>
+        <v>1036.html</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>272</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D46:D90 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1037.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D46:D91 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1036.jpg</v>
       </c>
       <c r="R46" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D46:D90 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1037a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D46:D91 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1036a.jpg</v>
       </c>
       <c r="S46" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1037b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D46:D140 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1036b.jpg</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5949,59 +5984,62 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D47" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E47" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F47" s="43" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H47" s="5">
-        <v>119.05</v>
+        <v>80.12</v>
       </c>
       <c r="I47" s="6">
         <f t="shared" si="1"/>
-        <v>113.0975</v>
+        <v>76.114000000000004</v>
       </c>
       <c r="J47" s="6">
         <f t="shared" si="2"/>
-        <v>83.334999999999994</v>
+        <v>56.083999999999996</v>
       </c>
       <c r="K47" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1038.html</v>
+        <f t="shared" si="3"/>
+        <v>1037.html</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D47:D90 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1038.jpg</v>
-      </c>
-      <c r="R47" s="1"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D47:D91 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1037.jpg</v>
+      </c>
+      <c r="R47" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D47:D91 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1037a.jpg</v>
+      </c>
       <c r="S47" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1038b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D47:D141 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1037b.jpg</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6009,62 +6047,59 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D48" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E48" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F48" s="43" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H48" s="5">
-        <v>60.11</v>
+        <v>119.05</v>
       </c>
       <c r="I48" s="6">
         <f t="shared" si="1"/>
-        <v>57.104499999999994</v>
+        <v>113.0975</v>
       </c>
       <c r="J48" s="6">
         <f t="shared" si="2"/>
-        <v>42.076999999999998</v>
+        <v>83.334999999999994</v>
       </c>
       <c r="K48" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1039.html</v>
+        <f t="shared" si="3"/>
+        <v>1038.html</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="3" t="str">
-        <f t="shared" ref="Q48:Q67" si="6" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D48:D97 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1039.jpg</v>
-      </c>
-      <c r="R48" s="1" t="str">
-        <f t="shared" ref="R48:R63" si="7" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D48:D97 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1039a.jpg</v>
-      </c>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D48:D91 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1038.jpg</v>
+      </c>
+      <c r="R48" s="1"/>
       <c r="S48" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1039b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D48:D142 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1038b.jpg</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6072,62 +6107,62 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D49" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E49" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H49" s="5">
-        <v>132.77000000000001</v>
+        <v>60.11</v>
       </c>
       <c r="I49" s="6">
         <f t="shared" si="1"/>
-        <v>126.1315</v>
+        <v>57.104499999999994</v>
       </c>
       <c r="J49" s="6">
         <f t="shared" si="2"/>
-        <v>92.939000000000007</v>
+        <v>42.076999999999998</v>
       </c>
       <c r="K49" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1040.html</v>
+        <f t="shared" si="3"/>
+        <v>1039.html</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1040.jpg</v>
+        <f t="shared" ref="Q49" si="4" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D49:D98 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1039.jpg</v>
       </c>
       <c r="R49" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1040a.jpg</v>
+        <f t="shared" ref="R49" si="5" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D49:D98 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1039a.jpg</v>
       </c>
       <c r="S49" s="1" t="str">
-        <f t="shared" ref="S49:S74" si="8" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D49:D144 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1040b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D49:D143 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1039b.jpg</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6135,62 +6170,62 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D50" s="2">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E50" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H50" s="5">
-        <v>83.57</v>
+        <v>132.77000000000001</v>
       </c>
       <c r="I50" s="6">
         <f t="shared" si="1"/>
-        <v>79.391499999999994</v>
+        <v>126.1315</v>
       </c>
       <c r="J50" s="6">
         <f t="shared" si="2"/>
-        <v>58.498999999999988</v>
+        <v>92.939000000000007</v>
       </c>
       <c r="K50" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1041.html</v>
+        <f t="shared" si="3"/>
+        <v>1040.html</v>
       </c>
       <c r="L50" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1041.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D50:D98 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1040.jpg</v>
       </c>
       <c r="R50" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1041a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D50:D98 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1040a.jpg</v>
       </c>
       <c r="S50" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1041b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D50:D144 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1040b.jpg</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6198,62 +6233,62 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D51" s="2">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E51" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F51" s="43" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H51" s="5">
-        <v>41.79</v>
+        <v>83.57</v>
       </c>
       <c r="I51" s="6">
         <f t="shared" si="1"/>
-        <v>39.700499999999998</v>
+        <v>79.391499999999994</v>
       </c>
       <c r="J51" s="6">
         <f t="shared" si="2"/>
-        <v>29.252999999999997</v>
+        <v>58.498999999999988</v>
       </c>
       <c r="K51" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1042.html</v>
+        <f t="shared" si="3"/>
+        <v>1041.html</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1042.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D51:D99 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1041.jpg</v>
       </c>
       <c r="R51" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1042a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D51:D99 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1041a.jpg</v>
       </c>
       <c r="S51" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1042b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D51:D145 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1041b.jpg</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6261,58 +6296,62 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D52" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E52" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F52" s="43" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H52" s="5">
-        <v>195.18</v>
+        <v>41.79</v>
       </c>
       <c r="I52" s="6">
         <f t="shared" si="1"/>
-        <v>185.42099999999999</v>
+        <v>39.700499999999998</v>
       </c>
       <c r="J52" s="6">
         <f t="shared" si="2"/>
-        <v>136.626</v>
+        <v>29.252999999999997</v>
       </c>
       <c r="K52" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1043.html</v>
+        <f t="shared" si="3"/>
+        <v>1042.html</v>
       </c>
       <c r="L52" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
+        <v>590</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1043.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D52:D100 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1042.jpg</v>
       </c>
       <c r="R52" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1043a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D52:D100 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1042a.jpg</v>
       </c>
       <c r="S52" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1043b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D52:D146 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1042b.jpg</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6320,62 +6359,58 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D53" s="2">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E53" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F53" s="43" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H53" s="5">
-        <v>50.92</v>
+        <v>195.18</v>
       </c>
       <c r="I53" s="6">
         <f t="shared" si="1"/>
-        <v>48.374000000000002</v>
+        <v>185.42099999999999</v>
       </c>
       <c r="J53" s="6">
         <f t="shared" si="2"/>
-        <v>35.643999999999998</v>
+        <v>136.626</v>
       </c>
       <c r="K53" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1044.html</v>
+        <f t="shared" si="3"/>
+        <v>1043.html</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>312</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1044.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D53:D101 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1043.jpg</v>
       </c>
       <c r="R53" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1044a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D53:D101 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1043a.jpg</v>
       </c>
       <c r="S53" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1044b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D53:D147 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1043b.jpg</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6383,62 +6418,62 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D54" s="2">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E54" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F54" s="43" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H54" s="5">
-        <v>53.82</v>
+        <v>50.92</v>
       </c>
       <c r="I54" s="6">
         <f t="shared" si="1"/>
-        <v>51.128999999999998</v>
+        <v>48.374000000000002</v>
       </c>
       <c r="J54" s="6">
         <f t="shared" si="2"/>
-        <v>37.673999999999999</v>
+        <v>35.643999999999998</v>
       </c>
       <c r="K54" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1045.html</v>
+        <f t="shared" si="3"/>
+        <v>1044.html</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P54" s="1"/>
       <c r="Q54" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1045.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D54:D102 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1044.jpg</v>
       </c>
       <c r="R54" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1045a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D54:D102 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1044a.jpg</v>
       </c>
       <c r="S54" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1045b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D54:D148 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1044b.jpg</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6446,22 +6481,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D55" s="2">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E55" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F55" s="43" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H55" s="5">
         <v>53.82</v>
@@ -6475,159 +6510,159 @@
         <v>37.673999999999999</v>
       </c>
       <c r="K55" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1046.html</v>
+        <f t="shared" si="3"/>
+        <v>1045.html</v>
       </c>
       <c r="L55" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P55" s="1"/>
       <c r="Q55" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1046.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D55:D103 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1045.jpg</v>
       </c>
       <c r="R55" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1046a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D55:D103 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1045a.jpg</v>
       </c>
       <c r="S55" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1046b.jpg</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D55:D149 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1045b.jpg</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1046</v>
+      </c>
+      <c r="E56" t="s">
+        <v>325</v>
+      </c>
+      <c r="F56" s="43" t="s">
+        <v>690</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H56" s="5">
+        <v>53.82</v>
+      </c>
+      <c r="I56" s="6">
+        <f t="shared" si="1"/>
+        <v>51.128999999999998</v>
+      </c>
+      <c r="J56" s="6">
+        <f t="shared" si="2"/>
+        <v>37.673999999999999</v>
+      </c>
+      <c r="K56" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>1046.html</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D56:D104 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1046.jpg</v>
+      </c>
+      <c r="R56" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D56:D104 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1046a.jpg</v>
+      </c>
+      <c r="S56" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D56:D150 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1046b.jpg</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C57" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="D56" s="37">
+      <c r="D57" s="37">
         <v>1047</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E57" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="F56" s="43" t="s">
+      <c r="F57" s="43" t="s">
         <v>691</v>
       </c>
-      <c r="G56" s="38" t="s">
+      <c r="G57" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H57" s="21">
         <v>58.96</v>
       </c>
-      <c r="I56" s="40">
+      <c r="I57" s="40">
         <f t="shared" si="1"/>
         <v>56.012</v>
       </c>
-      <c r="J56" s="40">
+      <c r="J57" s="40">
         <f t="shared" si="2"/>
         <v>41.271999999999998</v>
       </c>
-      <c r="K56" s="21" t="str">
-        <f t="shared" si="5"/>
+      <c r="K57" s="21" t="str">
+        <f t="shared" si="3"/>
         <v>1047.html</v>
       </c>
-      <c r="L56" s="21" t="s">
+      <c r="L57" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="M56" s="21" t="s">
+      <c r="M57" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="N56" s="20" t="s">
+      <c r="N57" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="O56" s="20" t="s">
+      <c r="O57" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="39" t="str">
-        <f t="shared" si="6"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="39" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D57:D105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1047.jpg</v>
       </c>
-      <c r="R56" s="20" t="str">
-        <f t="shared" si="7"/>
+      <c r="R57" s="20" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D57:D105 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1047a.jpg</v>
       </c>
-      <c r="S56" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="S57" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D57:D151 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1047b.jpg</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1048</v>
-      </c>
-      <c r="E57" t="s">
-        <v>337</v>
-      </c>
-      <c r="F57" s="43" t="s">
-        <v>692</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="H57" s="5">
-        <v>34.340000000000003</v>
-      </c>
-      <c r="I57" s="6">
-        <f t="shared" si="1"/>
-        <v>32.623000000000005</v>
-      </c>
-      <c r="J57" s="6">
-        <f t="shared" si="2"/>
-        <v>24.038</v>
-      </c>
-      <c r="K57" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1048.html</v>
-      </c>
-      <c r="L57" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="M57" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1048.jpg</v>
-      </c>
-      <c r="R57" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1048a.jpg</v>
-      </c>
-      <c r="S57" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1048b.jpg</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6635,22 +6670,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D58" s="2">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E58" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F58" s="43" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H58" s="5">
         <v>34.340000000000003</v>
@@ -6664,33 +6699,33 @@
         <v>24.038</v>
       </c>
       <c r="K58" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1049.html</v>
+        <f t="shared" si="3"/>
+        <v>1048.html</v>
       </c>
       <c r="L58" s="5" t="s">
         <v>627</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P58" s="1"/>
       <c r="Q58" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1049.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D58:D106 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1048.jpg</v>
       </c>
       <c r="R58" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1049a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D58:D106 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1048a.jpg</v>
       </c>
       <c r="S58" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1049b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D58:D152 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1048b.jpg</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6698,62 +6733,62 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D59" s="2">
-        <v>1050</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>349</v>
+        <v>1049</v>
+      </c>
+      <c r="E59" t="s">
+        <v>343</v>
       </c>
       <c r="F59" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H59" s="5">
-        <v>45.24</v>
+        <v>34.340000000000003</v>
       </c>
       <c r="I59" s="6">
         <f t="shared" si="1"/>
-        <v>42.978000000000002</v>
+        <v>32.623000000000005</v>
       </c>
       <c r="J59" s="6">
         <f t="shared" si="2"/>
-        <v>31.667999999999999</v>
+        <v>24.038</v>
       </c>
       <c r="K59" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1050.html</v>
+        <f t="shared" si="3"/>
+        <v>1049.html</v>
       </c>
       <c r="L59" s="5" t="s">
         <v>627</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="P59" s="1"/>
       <c r="Q59" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1050.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D59:D107 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1049.jpg</v>
       </c>
       <c r="R59" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1050a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D59:D107 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1049a.jpg</v>
       </c>
       <c r="S59" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1050b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D59:D153 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1049b.jpg</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6761,62 +6796,62 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D60" s="2">
-        <v>1051</v>
-      </c>
-      <c r="E60" t="s">
-        <v>355</v>
+        <v>1050</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>349</v>
       </c>
       <c r="F60" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H60" s="5">
-        <v>52.68</v>
+        <v>45.24</v>
       </c>
       <c r="I60" s="6">
         <f t="shared" si="1"/>
-        <v>50.045999999999999</v>
+        <v>42.978000000000002</v>
       </c>
       <c r="J60" s="6">
         <f t="shared" si="2"/>
-        <v>36.875999999999998</v>
+        <v>31.667999999999999</v>
       </c>
       <c r="K60" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1051.html</v>
+        <f t="shared" si="3"/>
+        <v>1050.html</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>627</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P60" s="1"/>
       <c r="Q60" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1051.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D60:D108 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1050.jpg</v>
       </c>
       <c r="R60" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1051a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D60:D108 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1050a.jpg</v>
       </c>
       <c r="S60" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1051b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D60:D154 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1050b.jpg</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6824,62 +6859,62 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D61" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E61" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F61" s="43" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H61" s="5">
-        <v>45.24</v>
+        <v>52.68</v>
       </c>
       <c r="I61" s="6">
         <f t="shared" si="1"/>
-        <v>42.978000000000002</v>
+        <v>50.045999999999999</v>
       </c>
       <c r="J61" s="6">
         <f t="shared" si="2"/>
-        <v>31.667999999999999</v>
+        <v>36.875999999999998</v>
       </c>
       <c r="K61" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1052.html</v>
+        <f t="shared" si="3"/>
+        <v>1051.html</v>
       </c>
       <c r="L61" s="5" t="s">
         <v>627</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="P61" s="1"/>
       <c r="Q61" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1052.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D61:D109 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1051.jpg</v>
       </c>
       <c r="R61" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1052a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D61:D109 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1051a.jpg</v>
       </c>
       <c r="S61" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1052b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D61:D155 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1051b.jpg</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6887,248 +6922,248 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D62" s="2">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E62" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F62" s="43" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H62" s="5">
-        <v>47.53</v>
+        <v>45.24</v>
       </c>
       <c r="I62" s="6">
         <f t="shared" si="1"/>
-        <v>45.153500000000001</v>
+        <v>42.978000000000002</v>
       </c>
       <c r="J62" s="6">
         <f t="shared" si="2"/>
-        <v>33.271000000000001</v>
+        <v>31.667999999999999</v>
       </c>
       <c r="K62" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1053.html</v>
+        <f t="shared" si="3"/>
+        <v>1052.html</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>627</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1053.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D62:D110 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1052.jpg</v>
       </c>
       <c r="R62" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1053a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D62:D110 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1052a.jpg</v>
       </c>
       <c r="S62" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1053b.jpg</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D62:D156 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1052b.jpg</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1053</v>
+      </c>
+      <c r="E63" t="s">
+        <v>367</v>
+      </c>
+      <c r="F63" s="43" t="s">
+        <v>697</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="H63" s="5">
+        <v>47.53</v>
+      </c>
+      <c r="I63" s="6">
+        <f t="shared" si="1"/>
+        <v>45.153500000000001</v>
+      </c>
+      <c r="J63" s="6">
+        <f t="shared" si="2"/>
+        <v>33.271000000000001</v>
+      </c>
+      <c r="K63" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>1053.html</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D63:D111 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1053.jpg</v>
+      </c>
+      <c r="R63" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D63:D111 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1053a.jpg</v>
+      </c>
+      <c r="S63" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D63:D157 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1053b.jpg</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C64" s="20" t="s">
         <v>633</v>
       </c>
-      <c r="D63" s="37">
+      <c r="D64" s="37">
         <v>1054</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E64" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="F63" s="43" t="s">
+      <c r="F64" s="43" t="s">
         <v>698</v>
       </c>
-      <c r="G63" s="38" t="s">
+      <c r="G64" s="38" t="s">
         <v>369</v>
       </c>
-      <c r="H63" s="21">
+      <c r="H64" s="21">
         <v>34.340000000000003</v>
       </c>
-      <c r="I63" s="40">
+      <c r="I64" s="40">
         <f t="shared" si="1"/>
         <v>32.623000000000005</v>
       </c>
-      <c r="J63" s="40">
+      <c r="J64" s="40">
         <f t="shared" si="2"/>
         <v>24.038</v>
       </c>
-      <c r="K63" s="21" t="str">
-        <f t="shared" si="5"/>
+      <c r="K64" s="21" t="str">
+        <f t="shared" si="3"/>
         <v>1054.html</v>
       </c>
-      <c r="L63" s="21" t="s">
+      <c r="L64" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="M63" s="21" t="s">
+      <c r="M64" s="21" t="s">
         <v>602</v>
       </c>
-      <c r="N63" s="20" t="s">
+      <c r="N64" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="O63" s="20" t="s">
+      <c r="O64" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="39" t="str">
-        <f t="shared" si="6"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="39" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D64:D112 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1054.jpg</v>
       </c>
-      <c r="R63" s="20" t="str">
-        <f t="shared" si="7"/>
+      <c r="R64" s="20" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D64:D112 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1054a.jpg</v>
       </c>
-      <c r="S63" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="S64" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D64:D158 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1054b.jpg</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D64" s="2">
-        <v>1055</v>
-      </c>
-      <c r="E64" t="s">
-        <v>378</v>
-      </c>
-      <c r="F64" s="43" t="s">
-        <v>699</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="H64" s="5">
-        <v>13.76</v>
-      </c>
-      <c r="I64" s="6">
-        <f t="shared" si="1"/>
-        <v>13.071999999999999</v>
-      </c>
-      <c r="J64" s="6">
-        <f t="shared" si="2"/>
-        <v>9.6319999999999997</v>
-      </c>
-      <c r="K64" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1055.html</v>
-      </c>
-      <c r="L64" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="M64" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1055.jpg</v>
-      </c>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1055b.jpg</v>
       </c>
     </row>
     <row r="65" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="D65" s="9">
-        <v>1079</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>384</v>
+      <c r="B65" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1055</v>
+      </c>
+      <c r="E65" t="s">
+        <v>378</v>
       </c>
       <c r="F65" s="43" t="s">
-        <v>700</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="H65" s="12">
-        <v>76.69</v>
+        <v>699</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H65" s="5">
+        <v>13.76</v>
       </c>
       <c r="I65" s="6">
         <f t="shared" si="1"/>
-        <v>72.855499999999992</v>
+        <v>13.071999999999999</v>
       </c>
       <c r="J65" s="6">
         <f t="shared" si="2"/>
-        <v>53.682999999999993</v>
+        <v>9.6319999999999997</v>
       </c>
       <c r="K65" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>1079.html</v>
-      </c>
-      <c r="L65" s="12" t="s">
+        <f t="shared" si="3"/>
+        <v>1055.html</v>
+      </c>
+      <c r="L65" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="M65" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="N65" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="O65" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1079.jpg</v>
-      </c>
-      <c r="R65" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D65:D114 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1079a.jpg</v>
-      </c>
+      <c r="M65" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D65:D113 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1055.jpg</v>
+      </c>
+      <c r="R65" s="1"/>
       <c r="S65" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1079b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D65:D159 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1055b.jpg</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7136,22 +7171,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>386</v>
+        <v>379</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>380</v>
       </c>
       <c r="D66" s="9">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F66" s="43" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H66" s="12">
         <v>76.69</v>
@@ -7165,8 +7200,8 @@
         <v>53.682999999999993</v>
       </c>
       <c r="K66" s="5" t="str">
-        <f t="shared" ref="K66:K97" si="9">D66 &amp; ".html"</f>
-        <v>1080.html</v>
+        <f t="shared" si="3"/>
+        <v>1079.html</v>
       </c>
       <c r="L66" s="12" t="s">
         <v>628</v>
@@ -7175,23 +7210,23 @@
         <v>604</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="O66" s="8" t="s">
         <v>383</v>
       </c>
       <c r="P66" s="8"/>
       <c r="Q66" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1080.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D66:D114 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1079.jpg</v>
       </c>
       <c r="R66" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D66:D115 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1080a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D66:D114 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1079a.jpg</v>
       </c>
       <c r="S66" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1080b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D66:D160 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1079b.jpg</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7199,125 +7234,125 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>386</v>
       </c>
       <c r="D67" s="9">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F67" s="43" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H67" s="12">
-        <v>63.52</v>
+        <v>76.69</v>
       </c>
       <c r="I67" s="6">
-        <f t="shared" ref="I67:I97" si="10">H67 * 0.95</f>
-        <v>60.344000000000001</v>
+        <f t="shared" si="1"/>
+        <v>72.855499999999992</v>
       </c>
       <c r="J67" s="6">
-        <f t="shared" ref="J67:J97" si="11">H67 * 0.7</f>
-        <v>44.463999999999999</v>
+        <f t="shared" si="2"/>
+        <v>53.682999999999993</v>
       </c>
       <c r="K67" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>1081.html</v>
+        <f t="shared" ref="K67:K98" si="6">D67 &amp; ".html"</f>
+        <v>1080.html</v>
       </c>
       <c r="L67" s="12" t="s">
         <v>628</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="P67" s="8"/>
       <c r="Q67" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1081.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D67:D115 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1080.jpg</v>
       </c>
       <c r="R67" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D67:D116 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1081a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D67:D115 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1080a.jpg</v>
       </c>
       <c r="S67" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1081b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D67:D161 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1080b.jpg</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D68" s="2">
-        <v>1056</v>
-      </c>
-      <c r="E68" t="s">
-        <v>401</v>
+      <c r="B68" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D68" s="9">
+        <v>1081</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>395</v>
       </c>
       <c r="F68" s="43" t="s">
-        <v>703</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="H68" s="5">
-        <v>51.49</v>
+        <v>702</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H68" s="12">
+        <v>63.52</v>
       </c>
       <c r="I68" s="6">
-        <f t="shared" si="10"/>
-        <v>48.915500000000002</v>
+        <f t="shared" ref="I68:I98" si="7">H68 * 0.95</f>
+        <v>60.344000000000001</v>
       </c>
       <c r="J68" s="6">
-        <f t="shared" si="11"/>
-        <v>36.042999999999999</v>
+        <f t="shared" ref="J68:J98" si="8">H68 * 0.7</f>
+        <v>44.463999999999999</v>
       </c>
       <c r="K68" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>1056.html</v>
-      </c>
-      <c r="L68" s="5" t="s">
+        <f t="shared" si="6"/>
+        <v>1081.html</v>
+      </c>
+      <c r="L68" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="M68" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="3" t="str">
-        <f t="shared" ref="Q68:Q74" si="12" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D68:D114 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1056.jpg</v>
-      </c>
-      <c r="R68" s="1" t="str">
-        <f t="shared" ref="R68:R73" si="13" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D68:D114 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1056a.jpg</v>
+      <c r="M68" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="O68" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="10" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D68:D116 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1081.jpg</v>
+      </c>
+      <c r="R68" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D68:D116 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1081a.jpg</v>
       </c>
       <c r="S68" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1056b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D68:D162 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1081b.jpg</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7325,62 +7360,62 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D69" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E69" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F69" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H69" s="5">
-        <v>42.92</v>
+        <v>51.49</v>
       </c>
       <c r="I69" s="6">
-        <f t="shared" si="10"/>
-        <v>40.774000000000001</v>
+        <f t="shared" si="7"/>
+        <v>48.915500000000002</v>
       </c>
       <c r="J69" s="6">
-        <f t="shared" si="11"/>
-        <v>30.044</v>
+        <f t="shared" si="8"/>
+        <v>36.042999999999999</v>
       </c>
       <c r="K69" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>1057.html</v>
+        <f t="shared" si="6"/>
+        <v>1056.html</v>
       </c>
       <c r="L69" s="5" t="s">
         <v>628</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1057.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D69:D114 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1056.jpg</v>
       </c>
       <c r="R69" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1057a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D69:D114 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1056a.jpg</v>
       </c>
       <c r="S69" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1057b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D69:D163 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1056b.jpg</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7388,62 +7423,62 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D70" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E70" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F70" s="43" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H70" s="5">
-        <v>49.78</v>
+        <v>42.92</v>
       </c>
       <c r="I70" s="6">
-        <f t="shared" si="10"/>
-        <v>47.290999999999997</v>
+        <f t="shared" si="7"/>
+        <v>40.774000000000001</v>
       </c>
       <c r="J70" s="6">
-        <f t="shared" si="11"/>
-        <v>34.845999999999997</v>
+        <f t="shared" si="8"/>
+        <v>30.044</v>
       </c>
       <c r="K70" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>1058.html</v>
+        <f t="shared" si="6"/>
+        <v>1057.html</v>
       </c>
       <c r="L70" s="5" t="s">
         <v>628</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1058.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D70:D115 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1057.jpg</v>
       </c>
       <c r="R70" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1058a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D70:D115 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1057a.jpg</v>
       </c>
       <c r="S70" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1058b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D70:D164 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1057b.jpg</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7451,62 +7486,62 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D71" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E71" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F71" s="43" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H71" s="5">
-        <v>53.25</v>
+        <v>49.78</v>
       </c>
       <c r="I71" s="6">
-        <f t="shared" si="10"/>
-        <v>50.587499999999999</v>
+        <f t="shared" si="7"/>
+        <v>47.290999999999997</v>
       </c>
       <c r="J71" s="6">
-        <f t="shared" si="11"/>
-        <v>37.274999999999999</v>
+        <f t="shared" si="8"/>
+        <v>34.845999999999997</v>
       </c>
       <c r="K71" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>1059.html</v>
+        <f t="shared" si="6"/>
+        <v>1058.html</v>
       </c>
       <c r="L71" s="5" t="s">
         <v>628</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1059.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D71:D116 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1058.jpg</v>
       </c>
       <c r="R71" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1059a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D71:D116 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1058a.jpg</v>
       </c>
       <c r="S71" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1059b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D71:D165 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1058b.jpg</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7514,369 +7549,375 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D72" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E72" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F72" s="43" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H72" s="5">
-        <v>17.739999999999998</v>
+        <v>53.25</v>
       </c>
       <c r="I72" s="6">
-        <f t="shared" si="10"/>
-        <v>16.852999999999998</v>
+        <f t="shared" si="7"/>
+        <v>50.587499999999999</v>
       </c>
       <c r="J72" s="6">
-        <f t="shared" si="11"/>
-        <v>12.417999999999997</v>
+        <f t="shared" si="8"/>
+        <v>37.274999999999999</v>
       </c>
       <c r="K72" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>1060.html</v>
+        <f t="shared" si="6"/>
+        <v>1059.html</v>
       </c>
       <c r="L72" s="5" t="s">
         <v>628</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1060.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D72:D117 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1059.jpg</v>
       </c>
       <c r="R72" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1060a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D72:D117 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1059a.jpg</v>
       </c>
       <c r="S72" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1060b.jpg</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D72:D166 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1059b.jpg</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="D73" s="37">
-        <v>1061</v>
-      </c>
-      <c r="E73" s="22" t="s">
-        <v>431</v>
+      <c r="B73" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1060</v>
+      </c>
+      <c r="E73" t="s">
+        <v>425</v>
       </c>
       <c r="F73" s="43" t="s">
-        <v>708</v>
-      </c>
-      <c r="G73" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="H73" s="21">
-        <v>34.340000000000003</v>
-      </c>
-      <c r="I73" s="40">
-        <f t="shared" si="10"/>
-        <v>32.623000000000005</v>
-      </c>
-      <c r="J73" s="40">
-        <f t="shared" si="11"/>
-        <v>24.038</v>
-      </c>
-      <c r="K73" s="21" t="str">
-        <f t="shared" si="9"/>
-        <v>1061.html</v>
-      </c>
-      <c r="L73" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="H73" s="5">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="I73" s="6">
+        <f t="shared" si="7"/>
+        <v>16.852999999999998</v>
+      </c>
+      <c r="J73" s="6">
+        <f t="shared" si="8"/>
+        <v>12.417999999999997</v>
+      </c>
+      <c r="K73" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>1060.html</v>
+      </c>
+      <c r="L73" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="M73" s="21" t="s">
-        <v>611</v>
-      </c>
-      <c r="N73" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="O73" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="P73" s="20"/>
-      <c r="Q73" s="39" t="str">
-        <f t="shared" si="12"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1061.jpg</v>
-      </c>
-      <c r="R73" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1061a.jpg</v>
+      <c r="M73" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D73:D118 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1060.jpg</v>
+      </c>
+      <c r="R73" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D73:D118 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1060a.jpg</v>
       </c>
       <c r="S73" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1061b.jpg</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D73:D167 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1060b.jpg</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D74" s="2">
-        <v>1063</v>
-      </c>
-      <c r="E74" t="s">
-        <v>435</v>
+      <c r="B74" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="D74" s="37">
+        <v>1061</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>431</v>
       </c>
       <c r="F74" s="43" t="s">
-        <v>709</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="H74" s="5">
-        <v>1116.3399999999999</v>
-      </c>
-      <c r="I74" s="6">
-        <f t="shared" si="10"/>
-        <v>1060.5229999999999</v>
-      </c>
-      <c r="J74" s="6">
-        <f t="shared" si="11"/>
-        <v>781.43799999999987</v>
-      </c>
-      <c r="K74" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>1063.html</v>
-      </c>
-      <c r="L74" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="M74" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1063.jpg</v>
-      </c>
-      <c r="R74" s="1"/>
+        <v>708</v>
+      </c>
+      <c r="G74" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="H74" s="21">
+        <v>34.340000000000003</v>
+      </c>
+      <c r="I74" s="40">
+        <f t="shared" si="7"/>
+        <v>32.623000000000005</v>
+      </c>
+      <c r="J74" s="40">
+        <f t="shared" si="8"/>
+        <v>24.038</v>
+      </c>
+      <c r="K74" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>1061.html</v>
+      </c>
+      <c r="L74" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="M74" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="N74" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="O74" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="39" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D74:D119 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1061.jpg</v>
+      </c>
+      <c r="R74" s="20" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D74:D119 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1061a.jpg</v>
+      </c>
       <c r="S74" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1063b.jpg</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D74:D168 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1061b.jpg</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="D75" s="9">
-        <v>1065</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>443</v>
+      <c r="B75" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1063</v>
+      </c>
+      <c r="E75" t="s">
+        <v>435</v>
       </c>
       <c r="F75" s="43" t="s">
-        <v>711</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="H75" s="12">
-        <v>823.36</v>
-      </c>
-      <c r="I75" s="12">
-        <v>823.36</v>
-      </c>
-      <c r="J75" s="12">
-        <v>823.36</v>
-      </c>
-      <c r="K75" s="12" t="str">
-        <f t="shared" si="9"/>
-        <v>1065.html</v>
-      </c>
-      <c r="L75" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="H75" s="5">
+        <v>1116.3399999999999</v>
+      </c>
+      <c r="I75" s="6">
+        <f t="shared" si="7"/>
+        <v>1060.5229999999999</v>
+      </c>
+      <c r="J75" s="6">
+        <f t="shared" si="8"/>
+        <v>781.43799999999987</v>
+      </c>
+      <c r="K75" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>1063.html</v>
+      </c>
+      <c r="L75" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="M75" s="12"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D75:D122 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1065.jpg</v>
-      </c>
-      <c r="R75" s="8"/>
+      <c r="M75" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D75:D120 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1063.jpg</v>
+      </c>
+      <c r="R75" s="1"/>
       <c r="S75" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D75:D171 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1065b.jpg</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D75:D169 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1063b.jpg</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="D76" s="9">
+        <v>1065</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F76" s="43" t="s">
+        <v>711</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="H76" s="12">
+        <v>823.36</v>
+      </c>
+      <c r="I76" s="12">
+        <v>823.36</v>
+      </c>
+      <c r="J76" s="12">
+        <v>823.36</v>
+      </c>
+      <c r="K76" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>1065.html</v>
+      </c>
+      <c r="L76" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="M76" s="12"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="10" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D76:D122 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1065.jpg</v>
+      </c>
+      <c r="R76" s="8"/>
+      <c r="S76" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D76:D171 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1065b.jpg</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D77" s="2">
         <v>1064</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E77" t="s">
         <v>439</v>
       </c>
-      <c r="F76" s="43" t="s">
+      <c r="F77" s="43" t="s">
         <v>710</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G77" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="H76" s="5">
+      <c r="H77" s="5">
         <v>75.19</v>
       </c>
-      <c r="I76" s="6">
-        <f>H76 * 0.95</f>
+      <c r="I77" s="6">
+        <f>H77 * 0.95</f>
         <v>71.430499999999995</v>
       </c>
-      <c r="J76" s="6">
-        <f>H76 * 0.7</f>
+      <c r="J77" s="6">
+        <f>H77 * 0.7</f>
         <v>52.632999999999996</v>
       </c>
-      <c r="K76" s="5" t="str">
-        <f>D76 &amp; ".html"</f>
+      <c r="K77" s="5" t="str">
+        <f>D77 &amp; ".html"</f>
         <v>1064.html</v>
       </c>
-      <c r="L76" s="5" t="s">
+      <c r="L77" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="M76" s="5" t="s">
+      <c r="M77" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D75:D121 &amp;".jpg"</f>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D76:D121 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1064.jpg</v>
       </c>
-      <c r="R76" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D75:D121 &amp;"a" &amp;".jpg"</f>
+      <c r="R77" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D76:D121 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1064a.jpg</v>
       </c>
-      <c r="S76" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D75:D170 &amp;"b" &amp;".jpg"</f>
+      <c r="S77" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D76:D170 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1064b.jpg</v>
       </c>
     </row>
-    <row r="77" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="26">
-        <v>76</v>
-      </c>
-      <c r="B77" s="26" t="s">
+    <row r="78" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="26" t="s">
         <v>484</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C78" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D78" s="15">
         <v>1083</v>
       </c>
-      <c r="E77" s="26" t="s">
+      <c r="E78" s="26" t="s">
         <v>489</v>
       </c>
-      <c r="F77" s="46" t="s">
+      <c r="F78" s="46" t="s">
         <v>638</v>
-      </c>
-      <c r="G77" s="17" t="s">
-        <v>486</v>
-      </c>
-      <c r="H77" s="18">
-        <v>555.54</v>
-      </c>
-      <c r="I77" s="24">
-        <f t="shared" si="10"/>
-        <v>527.76299999999992</v>
-      </c>
-      <c r="J77" s="24">
-        <f t="shared" si="11"/>
-        <v>388.87799999999993</v>
-      </c>
-      <c r="K77" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>1083.html</v>
-      </c>
-      <c r="L77" s="27" t="s">
-        <v>624</v>
-      </c>
-      <c r="M77" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="N77" s="17" t="s">
-        <v>487</v>
-      </c>
-      <c r="O77" s="23" t="s">
-        <v>488</v>
-      </c>
-      <c r="P77" s="14"/>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="14"/>
-      <c r="S77" s="14" t="str">
-        <f t="shared" ref="S77:S97" si="14" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D77:D172 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1083b.jpg</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="26">
-        <v>77</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="D78" s="15">
-        <v>1096</v>
-      </c>
-      <c r="E78" s="26" t="s">
-        <v>493</v>
-      </c>
-      <c r="F78" s="46" t="s">
-        <v>639</v>
       </c>
       <c r="G78" s="17" t="s">
         <v>486</v>
@@ -7885,16 +7926,16 @@
         <v>555.54</v>
       </c>
       <c r="I78" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>527.76299999999992</v>
       </c>
       <c r="J78" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>388.87799999999993</v>
       </c>
       <c r="K78" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>1096.html</v>
+        <f t="shared" si="6"/>
+        <v>1083.html</v>
       </c>
       <c r="L78" s="27" t="s">
         <v>624</v>
@@ -7903,7 +7944,7 @@
         <v>615</v>
       </c>
       <c r="N78" s="17" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="O78" s="23" t="s">
         <v>488</v>
@@ -7912,46 +7953,46 @@
       <c r="Q78" s="16"/>
       <c r="R78" s="14"/>
       <c r="S78" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1096b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D78:D172 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1083b.jpg</v>
       </c>
     </row>
     <row r="79" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="26">
+      <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D79" s="15">
-        <v>1074</v>
+        <v>1096</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F79" s="46" t="s">
-        <v>640</v>
-      </c>
-      <c r="G79" s="28" t="s">
-        <v>496</v>
+        <v>639</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>486</v>
       </c>
       <c r="H79" s="18">
-        <v>337.32</v>
+        <v>555.54</v>
       </c>
       <c r="I79" s="24">
-        <f t="shared" si="10"/>
-        <v>320.45399999999995</v>
+        <f t="shared" si="7"/>
+        <v>527.76299999999992</v>
       </c>
       <c r="J79" s="24">
-        <f t="shared" si="11"/>
-        <v>236.12399999999997</v>
+        <f t="shared" si="8"/>
+        <v>388.87799999999993</v>
       </c>
       <c r="K79" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>1074.html</v>
+        <f t="shared" si="6"/>
+        <v>1096.html</v>
       </c>
       <c r="L79" s="27" t="s">
         <v>624</v>
@@ -7960,37 +8001,37 @@
         <v>615</v>
       </c>
       <c r="N79" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="O79" s="14" t="s">
-        <v>498</v>
+        <v>492</v>
+      </c>
+      <c r="O79" s="23" t="s">
+        <v>488</v>
       </c>
       <c r="P79" s="14"/>
       <c r="Q79" s="16"/>
       <c r="R79" s="14"/>
       <c r="S79" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D79:D174 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1074b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D79:D173 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1096b.jpg</v>
       </c>
     </row>
     <row r="80" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="26">
+      <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D80" s="15">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F80" s="46" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G80" s="28" t="s">
         <v>496</v>
@@ -7999,16 +8040,16 @@
         <v>337.32</v>
       </c>
       <c r="I80" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>320.45399999999995</v>
       </c>
       <c r="J80" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K80" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>1086.html</v>
+        <f t="shared" si="6"/>
+        <v>1074.html</v>
       </c>
       <c r="L80" s="27" t="s">
         <v>624</v>
@@ -8026,84 +8067,85 @@
       <c r="Q80" s="16"/>
       <c r="R80" s="14"/>
       <c r="S80" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1086b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D80:D174 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1074b.jpg</v>
       </c>
     </row>
     <row r="81" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="26">
+      <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D81" s="15">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F81" s="46" t="s">
-        <v>642</v>
-      </c>
-      <c r="G81" s="17" t="s">
-        <v>505</v>
+        <v>641</v>
+      </c>
+      <c r="G81" s="28" t="s">
+        <v>496</v>
       </c>
       <c r="H81" s="18">
         <v>337.32</v>
       </c>
       <c r="I81" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>320.45399999999995</v>
       </c>
       <c r="J81" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K81" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>1087.html</v>
+        <f t="shared" si="6"/>
+        <v>1086.html</v>
       </c>
       <c r="L81" s="27" t="s">
         <v>624</v>
       </c>
       <c r="M81" s="27" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="N81" s="17" t="s">
         <v>497</v>
       </c>
       <c r="O81" s="14" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="P81" s="14"/>
       <c r="Q81" s="16"/>
       <c r="R81" s="14"/>
-      <c r="S81" s="23" t="s">
-        <v>630</v>
+      <c r="S81" s="14" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D81:D175 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1086b.jpg</v>
       </c>
     </row>
     <row r="82" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="26">
+      <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D82" s="15">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F82" s="46" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G82" s="17" t="s">
         <v>505</v>
@@ -8112,16 +8154,16 @@
         <v>337.32</v>
       </c>
       <c r="I82" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>320.45399999999995</v>
       </c>
       <c r="J82" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K82" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>1088.html</v>
+        <f t="shared" si="6"/>
+        <v>1087.html</v>
       </c>
       <c r="L82" s="27" t="s">
         <v>624</v>
@@ -8139,45 +8181,45 @@
       <c r="Q82" s="16"/>
       <c r="R82" s="14"/>
       <c r="S82" s="23" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="83" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="26">
+      <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D83" s="15">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F83" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="H83" s="18">
         <v>337.32</v>
       </c>
       <c r="I83" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>320.45399999999995</v>
       </c>
       <c r="J83" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K83" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>1089.html</v>
+        <f t="shared" si="6"/>
+        <v>1088.html</v>
       </c>
       <c r="L83" s="27" t="s">
         <v>624</v>
@@ -8189,33 +8231,33 @@
         <v>497</v>
       </c>
       <c r="O83" s="14" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="P83" s="14"/>
       <c r="Q83" s="16"/>
       <c r="R83" s="14"/>
       <c r="S83" s="23" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="84" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="26">
+      <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D84" s="15">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F84" s="46" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G84" s="17" t="s">
         <v>513</v>
@@ -8224,16 +8266,16 @@
         <v>337.32</v>
       </c>
       <c r="I84" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>320.45399999999995</v>
       </c>
       <c r="J84" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K84" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>1090.html</v>
+        <f t="shared" si="6"/>
+        <v>1089.html</v>
       </c>
       <c r="L84" s="27" t="s">
         <v>624</v>
@@ -8251,45 +8293,45 @@
       <c r="Q84" s="16"/>
       <c r="R84" s="14"/>
       <c r="S84" s="23" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="85" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="26">
+      <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D85" s="15">
-        <v>1073</v>
+        <v>1090</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F85" s="46" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="H85" s="18">
-        <v>270.32</v>
+        <v>337.32</v>
       </c>
       <c r="I85" s="24">
-        <f t="shared" si="10"/>
-        <v>256.80399999999997</v>
+        <f t="shared" si="7"/>
+        <v>320.45399999999995</v>
       </c>
       <c r="J85" s="24">
-        <f t="shared" si="11"/>
-        <v>189.22399999999999</v>
+        <f t="shared" si="8"/>
+        <v>236.12399999999997</v>
       </c>
       <c r="K85" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>1073.html</v>
+        <f t="shared" si="6"/>
+        <v>1090.html</v>
       </c>
       <c r="L85" s="27" t="s">
         <v>624</v>
@@ -8298,37 +8340,36 @@
         <v>616</v>
       </c>
       <c r="N85" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="O85" s="29" t="s">
-        <v>523</v>
+        <v>497</v>
+      </c>
+      <c r="O85" s="14" t="s">
+        <v>514</v>
       </c>
       <c r="P85" s="14"/>
       <c r="Q85" s="16"/>
       <c r="R85" s="14"/>
-      <c r="S85" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
+      <c r="S85" s="23" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="86" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="26">
+      <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D86" s="15">
-        <v>1091</v>
+        <v>1073</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F86" s="46" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G86" s="17" t="s">
         <v>521</v>
@@ -8337,16 +8378,16 @@
         <v>270.32</v>
       </c>
       <c r="I86" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>256.80399999999997</v>
       </c>
       <c r="J86" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K86" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>1091.html</v>
+        <f t="shared" si="6"/>
+        <v>1073.html</v>
       </c>
       <c r="L86" s="27" t="s">
         <v>624</v>
@@ -8364,28 +8405,28 @@
       <c r="Q86" s="16"/>
       <c r="R86" s="14"/>
       <c r="S86" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1091b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D86:D180 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
       </c>
     </row>
     <row r="87" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="26">
+      <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D87" s="15">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F87" s="46" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G87" s="17" t="s">
         <v>521</v>
@@ -8394,22 +8435,22 @@
         <v>270.32</v>
       </c>
       <c r="I87" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>256.80399999999997</v>
       </c>
       <c r="J87" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K87" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>1092.html</v>
+        <f t="shared" si="6"/>
+        <v>1091.html</v>
       </c>
       <c r="L87" s="27" t="s">
         <v>624</v>
       </c>
       <c r="M87" s="27" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N87" s="17" t="s">
         <v>522</v>
@@ -8421,28 +8462,28 @@
       <c r="Q87" s="16"/>
       <c r="R87" s="14"/>
       <c r="S87" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1092b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D87:D181 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1091b.jpg</v>
       </c>
     </row>
     <row r="88" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="26">
+      <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D88" s="15">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F88" s="46" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G88" s="17" t="s">
         <v>521</v>
@@ -8451,22 +8492,22 @@
         <v>270.32</v>
       </c>
       <c r="I88" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>256.80399999999997</v>
       </c>
       <c r="J88" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K88" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>1093.html</v>
+        <f t="shared" si="6"/>
+        <v>1092.html</v>
       </c>
       <c r="L88" s="27" t="s">
         <v>624</v>
       </c>
       <c r="M88" s="27" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N88" s="17" t="s">
         <v>522</v>
@@ -8478,28 +8519,28 @@
       <c r="Q88" s="16"/>
       <c r="R88" s="14"/>
       <c r="S88" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1093b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D88:D182 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1092b.jpg</v>
       </c>
     </row>
     <row r="89" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="26">
+      <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D89" s="15">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F89" s="46" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G89" s="17" t="s">
         <v>521</v>
@@ -8508,22 +8549,22 @@
         <v>270.32</v>
       </c>
       <c r="I89" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>256.80399999999997</v>
       </c>
       <c r="J89" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K89" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>1094.html</v>
+        <f t="shared" si="6"/>
+        <v>1093.html</v>
       </c>
       <c r="L89" s="27" t="s">
         <v>624</v>
       </c>
       <c r="M89" s="27" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N89" s="17" t="s">
         <v>522</v>
@@ -8535,28 +8576,28 @@
       <c r="Q89" s="16"/>
       <c r="R89" s="14"/>
       <c r="S89" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1094b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D89:D183 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1093b.jpg</v>
       </c>
     </row>
     <row r="90" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="26">
+      <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D90" s="15">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F90" s="46" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G90" s="17" t="s">
         <v>521</v>
@@ -8565,22 +8606,22 @@
         <v>270.32</v>
       </c>
       <c r="I90" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>256.80399999999997</v>
       </c>
       <c r="J90" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K90" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>1095.html</v>
+        <f t="shared" si="6"/>
+        <v>1094.html</v>
       </c>
       <c r="L90" s="27" t="s">
         <v>624</v>
       </c>
       <c r="M90" s="27" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N90" s="17" t="s">
         <v>522</v>
@@ -8592,131 +8633,128 @@
       <c r="Q90" s="16"/>
       <c r="R90" s="14"/>
       <c r="S90" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1095b.jpg</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D90:D184 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1094b.jpg</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="20" t="s">
-        <v>478</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="D91" s="37">
-        <v>1072</v>
-      </c>
-      <c r="E91" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="F91" s="45" t="s">
-        <v>718</v>
-      </c>
-      <c r="G91" s="38" t="s">
-        <v>480</v>
-      </c>
-      <c r="H91" s="21">
-        <v>320.5</v>
-      </c>
-      <c r="I91" s="40">
-        <f t="shared" si="10"/>
-        <v>304.47499999999997</v>
-      </c>
-      <c r="J91" s="40">
-        <f t="shared" ref="J91" si="15">H91 * 0.7</f>
-        <v>224.35</v>
-      </c>
-      <c r="K91" s="21" t="str">
-        <f t="shared" si="9"/>
-        <v>1072.html</v>
-      </c>
-      <c r="L91" s="41" t="s">
+      <c r="B91" s="26" t="s">
+        <v>537</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="D91" s="15">
+        <v>1095</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="F91" s="46" t="s">
+        <v>651</v>
+      </c>
+      <c r="G91" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="H91" s="18">
+        <v>270.32</v>
+      </c>
+      <c r="I91" s="24">
+        <f t="shared" si="7"/>
+        <v>256.80399999999997</v>
+      </c>
+      <c r="J91" s="24">
+        <f t="shared" si="8"/>
+        <v>189.22399999999999</v>
+      </c>
+      <c r="K91" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>1095.html</v>
+      </c>
+      <c r="L91" s="27" t="s">
         <v>624</v>
       </c>
-      <c r="M91" s="21" t="s">
-        <v>615</v>
-      </c>
-      <c r="N91" s="38" t="s">
-        <v>481</v>
-      </c>
-      <c r="O91" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="P91" s="20"/>
-      <c r="Q91" s="39" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D91:D122 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1072.jpg</v>
-      </c>
-      <c r="R91" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D91:D122 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1072a.jpg</v>
-      </c>
-      <c r="S91" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1072b.jpg</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M91" s="27" t="s">
+        <v>620</v>
+      </c>
+      <c r="N91" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="O91" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="P91" s="14"/>
+      <c r="Q91" s="16"/>
+      <c r="R91" s="14"/>
+      <c r="S91" s="14" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D91:D185 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1095b.jpg</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="D92" s="2">
-        <v>1066</v>
-      </c>
-      <c r="E92" t="s">
-        <v>449</v>
+      <c r="B92" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="D92" s="37">
+        <v>1072</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>483</v>
       </c>
       <c r="F92" s="45" t="s">
-        <v>712</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="H92" s="5">
-        <v>57.23</v>
-      </c>
-      <c r="I92" s="6">
-        <f t="shared" si="10"/>
-        <v>54.368499999999997</v>
-      </c>
-      <c r="J92" s="6">
-        <f t="shared" si="11"/>
-        <v>40.060999999999993</v>
-      </c>
-      <c r="K92" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>1066.html</v>
-      </c>
-      <c r="L92" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="M92" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D77:D123 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1066.jpg</v>
-      </c>
-      <c r="R92" s="1"/>
+        <v>718</v>
+      </c>
+      <c r="G92" s="38" t="s">
+        <v>480</v>
+      </c>
+      <c r="H92" s="21">
+        <v>320.5</v>
+      </c>
+      <c r="I92" s="40">
+        <f t="shared" si="7"/>
+        <v>304.47499999999997</v>
+      </c>
+      <c r="J92" s="40">
+        <f t="shared" ref="J92" si="9">H92 * 0.7</f>
+        <v>224.35</v>
+      </c>
+      <c r="K92" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>1072.html</v>
+      </c>
+      <c r="L92" s="41" t="s">
+        <v>624</v>
+      </c>
+      <c r="M92" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="N92" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="O92" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="P92" s="20"/>
+      <c r="Q92" s="39" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D92:D122 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1072.jpg</v>
+      </c>
+      <c r="R92" s="20" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D92:D122 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1072a.jpg</v>
+      </c>
       <c r="S92" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1066b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D92:D186 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1072b.jpg</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8724,19 +8762,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D93" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E93" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F93" s="45" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>446</v>
@@ -8745,38 +8783,38 @@
         <v>57.23</v>
       </c>
       <c r="I93" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>54.368499999999997</v>
       </c>
       <c r="J93" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>40.060999999999993</v>
       </c>
       <c r="K93" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>1067.html</v>
+        <f t="shared" si="6"/>
+        <v>1066.html</v>
       </c>
       <c r="L93" s="5" t="s">
         <v>629</v>
       </c>
       <c r="M93" s="5" t="s">
-        <v>612</v>
+        <v>549</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="O93" s="1" t="s">
         <v>448</v>
       </c>
       <c r="P93" s="1"/>
       <c r="Q93" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D93:D124 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1067.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D78:D123 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1066.jpg</v>
       </c>
       <c r="R93" s="1"/>
       <c r="S93" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1067b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D93:D187 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1066b.jpg</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8784,62 +8822,59 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D94" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E94" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F94" s="45" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="H94" s="5">
-        <v>127.62</v>
+        <v>57.23</v>
       </c>
       <c r="I94" s="6">
-        <f t="shared" si="10"/>
-        <v>121.239</v>
+        <f t="shared" si="7"/>
+        <v>54.368499999999997</v>
       </c>
       <c r="J94" s="6">
-        <f t="shared" si="11"/>
-        <v>89.334000000000003</v>
+        <f t="shared" si="8"/>
+        <v>40.060999999999993</v>
       </c>
       <c r="K94" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>1068.html</v>
+        <f t="shared" si="6"/>
+        <v>1067.html</v>
       </c>
       <c r="L94" s="5" t="s">
         <v>629</v>
       </c>
       <c r="M94" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="P94" s="1"/>
       <c r="Q94" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D94:D125 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1068.jpg</v>
-      </c>
-      <c r="R94" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D94:D125 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1068a.jpg</v>
-      </c>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D94:D124 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1067.jpg</v>
+      </c>
+      <c r="R94" s="1"/>
       <c r="S94" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1068b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D94:D188 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1067b.jpg</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8847,62 +8882,62 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D95" s="2">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E95" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F95" s="45" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H95" s="5">
-        <v>60.11</v>
+        <v>127.62</v>
       </c>
       <c r="I95" s="6">
-        <f t="shared" si="10"/>
-        <v>57.104499999999994</v>
+        <f t="shared" si="7"/>
+        <v>121.239</v>
       </c>
       <c r="J95" s="6">
-        <f t="shared" si="11"/>
-        <v>42.076999999999998</v>
+        <f t="shared" si="8"/>
+        <v>89.334000000000003</v>
       </c>
       <c r="K95" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>1069.html</v>
+        <f t="shared" si="6"/>
+        <v>1068.html</v>
       </c>
       <c r="L95" s="5" t="s">
         <v>629</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="P95" s="1"/>
       <c r="Q95" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D95:D126 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1069.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D95:D125 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1068.jpg</v>
       </c>
       <c r="R95" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D95:D126 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1069a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D95:D125 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1068a.jpg</v>
       </c>
       <c r="S95" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1069b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D95:D189 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1068b.jpg</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8910,37 +8945,37 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D96" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E96" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F96" s="45" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H96" s="5">
-        <v>86.44</v>
+        <v>60.11</v>
       </c>
       <c r="I96" s="6">
-        <f t="shared" si="10"/>
-        <v>82.117999999999995</v>
+        <f t="shared" si="7"/>
+        <v>57.104499999999994</v>
       </c>
       <c r="J96" s="6">
-        <f t="shared" si="11"/>
-        <v>60.507999999999996</v>
+        <f t="shared" si="8"/>
+        <v>42.076999999999998</v>
       </c>
       <c r="K96" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>1070.html</v>
+        <f t="shared" si="6"/>
+        <v>1069.html</v>
       </c>
       <c r="L96" s="5" t="s">
         <v>629</v>
@@ -8949,23 +8984,23 @@
         <v>614</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="P96" s="1"/>
       <c r="Q96" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D96:D127 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1070.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D96:D126 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1069.jpg</v>
       </c>
       <c r="R96" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D96:D127 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1070a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D96:D126 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1069a.jpg</v>
       </c>
       <c r="S96" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1070b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D96:D190 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1069b.jpg</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8973,98 +9008,161 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D97" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E97" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F97" s="45" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="H97" s="5">
-        <v>10.31</v>
+        <v>86.44</v>
       </c>
       <c r="I97" s="6">
-        <f t="shared" si="10"/>
-        <v>9.7944999999999993</v>
+        <f t="shared" si="7"/>
+        <v>82.117999999999995</v>
       </c>
       <c r="J97" s="6">
-        <f t="shared" si="11"/>
-        <v>7.2169999999999996</v>
+        <f t="shared" si="8"/>
+        <v>60.507999999999996</v>
       </c>
       <c r="K97" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>1071.html</v>
+        <f t="shared" si="6"/>
+        <v>1070.html</v>
       </c>
       <c r="L97" s="5" t="s">
         <v>629</v>
       </c>
       <c r="M97" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="P97" s="1"/>
       <c r="Q97" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D97:D128 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D97:D127 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1070.jpg</v>
+      </c>
+      <c r="R97" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D97:D127 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1070a.jpg</v>
+      </c>
+      <c r="S97" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D97:D191 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1070b.jpg</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D98" s="2">
+        <v>1071</v>
+      </c>
+      <c r="E98" t="s">
+        <v>477</v>
+      </c>
+      <c r="F98" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="H98" s="5">
+        <v>10.31</v>
+      </c>
+      <c r="I98" s="6">
+        <f t="shared" si="7"/>
+        <v>9.7944999999999993</v>
+      </c>
+      <c r="J98" s="6">
+        <f t="shared" si="8"/>
+        <v>7.2169999999999996</v>
+      </c>
+      <c r="K98" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>1071.html</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="M98" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D98:D128 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1071.jpg</v>
       </c>
-      <c r="R97" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D97:D128 &amp;"a" &amp;".jpg"</f>
+      <c r="R98" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D98:D128 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1071a.jpg</v>
       </c>
-      <c r="S97" s="1" t="str">
-        <f t="shared" si="14"/>
+      <c r="S98" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D98:D192 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1071b.jpg</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E59" r:id="rId1"/>
+    <hyperlink ref="E60" r:id="rId1"/>
     <hyperlink ref="E21" r:id="rId2"/>
-    <hyperlink ref="O77" r:id="rId3"/>
-    <hyperlink ref="O78" r:id="rId4"/>
-    <hyperlink ref="O85" r:id="rId5"/>
-    <hyperlink ref="O86" r:id="rId6"/>
-    <hyperlink ref="O87" r:id="rId7"/>
-    <hyperlink ref="O88" r:id="rId8"/>
-    <hyperlink ref="O89" r:id="rId9"/>
-    <hyperlink ref="O90" r:id="rId10"/>
+    <hyperlink ref="O78" r:id="rId3"/>
+    <hyperlink ref="O79" r:id="rId4"/>
+    <hyperlink ref="O86" r:id="rId5"/>
+    <hyperlink ref="O87" r:id="rId6"/>
+    <hyperlink ref="O88" r:id="rId7"/>
+    <hyperlink ref="O89" r:id="rId8"/>
+    <hyperlink ref="O90" r:id="rId9"/>
+    <hyperlink ref="O91" r:id="rId10"/>
     <hyperlink ref="E29" r:id="rId11"/>
     <hyperlink ref="E9" r:id="rId12"/>
-    <hyperlink ref="S81" r:id="rId13"/>
-    <hyperlink ref="S82" r:id="rId14"/>
-    <hyperlink ref="S83" r:id="rId15"/>
-    <hyperlink ref="S84" r:id="rId16"/>
+    <hyperlink ref="S82" r:id="rId13"/>
+    <hyperlink ref="S83" r:id="rId14"/>
+    <hyperlink ref="S84" r:id="rId15"/>
+    <hyperlink ref="S85" r:id="rId16"/>
     <hyperlink ref="F29" r:id="rId17"/>
     <hyperlink ref="F9" r:id="rId18"/>
-    <hyperlink ref="F77" r:id="rId19"/>
-    <hyperlink ref="F78" r:id="rId20"/>
-    <hyperlink ref="F79" r:id="rId21"/>
-    <hyperlink ref="F80" r:id="rId22"/>
-    <hyperlink ref="F81" r:id="rId23"/>
-    <hyperlink ref="F82" r:id="rId24"/>
-    <hyperlink ref="F83" r:id="rId25"/>
-    <hyperlink ref="F84" r:id="rId26"/>
-    <hyperlink ref="F85" r:id="rId27"/>
-    <hyperlink ref="F86" r:id="rId28"/>
-    <hyperlink ref="F87" r:id="rId29"/>
-    <hyperlink ref="F88" r:id="rId30"/>
-    <hyperlink ref="F89" r:id="rId31"/>
-    <hyperlink ref="F90" r:id="rId32"/>
+    <hyperlink ref="F78" r:id="rId19"/>
+    <hyperlink ref="F79" r:id="rId20"/>
+    <hyperlink ref="F80" r:id="rId21"/>
+    <hyperlink ref="F81" r:id="rId22"/>
+    <hyperlink ref="F82" r:id="rId23"/>
+    <hyperlink ref="F83" r:id="rId24"/>
+    <hyperlink ref="F84" r:id="rId25"/>
+    <hyperlink ref="F85" r:id="rId26"/>
+    <hyperlink ref="F86" r:id="rId27"/>
+    <hyperlink ref="F87" r:id="rId28"/>
+    <hyperlink ref="F88" r:id="rId29"/>
+    <hyperlink ref="F89" r:id="rId30"/>
+    <hyperlink ref="F90" r:id="rId31"/>
+    <hyperlink ref="F91" r:id="rId32"/>
     <hyperlink ref="F2" r:id="rId33"/>
     <hyperlink ref="F3" r:id="rId34"/>
     <hyperlink ref="F4" r:id="rId35"/>
@@ -9080,51 +9178,51 @@
     <hyperlink ref="F19" r:id="rId45"/>
     <hyperlink ref="F30" r:id="rId46"/>
     <hyperlink ref="F31" r:id="rId47"/>
-    <hyperlink ref="F32" r:id="rId48"/>
-    <hyperlink ref="F33" r:id="rId49"/>
-    <hyperlink ref="F34" r:id="rId50"/>
-    <hyperlink ref="F35" r:id="rId51"/>
-    <hyperlink ref="F36" r:id="rId52"/>
-    <hyperlink ref="F37" r:id="rId53"/>
-    <hyperlink ref="F38" r:id="rId54"/>
-    <hyperlink ref="F39" r:id="rId55"/>
-    <hyperlink ref="F40" r:id="rId56"/>
-    <hyperlink ref="F41" r:id="rId57"/>
-    <hyperlink ref="F43" r:id="rId58"/>
-    <hyperlink ref="F44" r:id="rId59"/>
-    <hyperlink ref="F45" r:id="rId60"/>
-    <hyperlink ref="F46" r:id="rId61"/>
-    <hyperlink ref="F47" r:id="rId62"/>
-    <hyperlink ref="F48" r:id="rId63"/>
-    <hyperlink ref="F49" r:id="rId64"/>
-    <hyperlink ref="F50" r:id="rId65"/>
-    <hyperlink ref="F51" r:id="rId66"/>
-    <hyperlink ref="F52" r:id="rId67"/>
-    <hyperlink ref="F53" r:id="rId68"/>
-    <hyperlink ref="F54" r:id="rId69"/>
-    <hyperlink ref="F55" r:id="rId70"/>
-    <hyperlink ref="F56" r:id="rId71"/>
-    <hyperlink ref="F57" r:id="rId72"/>
-    <hyperlink ref="F58" r:id="rId73"/>
-    <hyperlink ref="F59" r:id="rId74"/>
-    <hyperlink ref="F60" r:id="rId75"/>
-    <hyperlink ref="F61" r:id="rId76"/>
-    <hyperlink ref="F62" r:id="rId77"/>
-    <hyperlink ref="F63" r:id="rId78"/>
-    <hyperlink ref="F64" r:id="rId79"/>
-    <hyperlink ref="F68" r:id="rId80"/>
-    <hyperlink ref="F69" r:id="rId81"/>
-    <hyperlink ref="F70" r:id="rId82"/>
-    <hyperlink ref="F71" r:id="rId83"/>
-    <hyperlink ref="F72" r:id="rId84"/>
-    <hyperlink ref="F73" r:id="rId85"/>
-    <hyperlink ref="F42" r:id="rId86"/>
-    <hyperlink ref="F65" r:id="rId87"/>
-    <hyperlink ref="F66" r:id="rId88"/>
-    <hyperlink ref="F67" r:id="rId89"/>
-    <hyperlink ref="F74" r:id="rId90"/>
-    <hyperlink ref="F75" r:id="rId91"/>
-    <hyperlink ref="F76" r:id="rId92"/>
+    <hyperlink ref="F33" r:id="rId48"/>
+    <hyperlink ref="F34" r:id="rId49"/>
+    <hyperlink ref="F35" r:id="rId50"/>
+    <hyperlink ref="F36" r:id="rId51"/>
+    <hyperlink ref="F37" r:id="rId52"/>
+    <hyperlink ref="F38" r:id="rId53"/>
+    <hyperlink ref="F39" r:id="rId54"/>
+    <hyperlink ref="F40" r:id="rId55"/>
+    <hyperlink ref="F41" r:id="rId56"/>
+    <hyperlink ref="F42" r:id="rId57"/>
+    <hyperlink ref="F44" r:id="rId58"/>
+    <hyperlink ref="F45" r:id="rId59"/>
+    <hyperlink ref="F46" r:id="rId60"/>
+    <hyperlink ref="F47" r:id="rId61"/>
+    <hyperlink ref="F48" r:id="rId62"/>
+    <hyperlink ref="F49" r:id="rId63"/>
+    <hyperlink ref="F50" r:id="rId64"/>
+    <hyperlink ref="F51" r:id="rId65"/>
+    <hyperlink ref="F52" r:id="rId66"/>
+    <hyperlink ref="F53" r:id="rId67"/>
+    <hyperlink ref="F54" r:id="rId68"/>
+    <hyperlink ref="F55" r:id="rId69"/>
+    <hyperlink ref="F56" r:id="rId70"/>
+    <hyperlink ref="F57" r:id="rId71"/>
+    <hyperlink ref="F58" r:id="rId72"/>
+    <hyperlink ref="F59" r:id="rId73"/>
+    <hyperlink ref="F60" r:id="rId74"/>
+    <hyperlink ref="F61" r:id="rId75"/>
+    <hyperlink ref="F62" r:id="rId76"/>
+    <hyperlink ref="F63" r:id="rId77"/>
+    <hyperlink ref="F64" r:id="rId78"/>
+    <hyperlink ref="F65" r:id="rId79"/>
+    <hyperlink ref="F69" r:id="rId80"/>
+    <hyperlink ref="F70" r:id="rId81"/>
+    <hyperlink ref="F71" r:id="rId82"/>
+    <hyperlink ref="F72" r:id="rId83"/>
+    <hyperlink ref="F73" r:id="rId84"/>
+    <hyperlink ref="F74" r:id="rId85"/>
+    <hyperlink ref="F43" r:id="rId86"/>
+    <hyperlink ref="F66" r:id="rId87"/>
+    <hyperlink ref="F67" r:id="rId88"/>
+    <hyperlink ref="F68" r:id="rId89"/>
+    <hyperlink ref="F75" r:id="rId90"/>
+    <hyperlink ref="F76" r:id="rId91"/>
+    <hyperlink ref="F77" r:id="rId92"/>
     <hyperlink ref="F5" r:id="rId93"/>
     <hyperlink ref="F6" r:id="rId94"/>
     <hyperlink ref="F7" r:id="rId95"/>
@@ -9136,8 +9234,10 @@
     <hyperlink ref="F14" r:id="rId101"/>
     <hyperlink ref="F15" r:id="rId102"/>
     <hyperlink ref="F16" r:id="rId103"/>
+    <hyperlink ref="F32" r:id="rId104"/>
+    <hyperlink ref="E32" r:id="rId105"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId104"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId106"/>
 </worksheet>
 </file>
--- a/products_categories/Merge.xlsx
+++ b/products_categories/Merge.xlsx
@@ -2588,19 +2588,6 @@
     <t>Форевър кардио здраве</t>
   </si>
   <si>
-    <t>Отлична хранителна добавка с коензим Q10 и специална прахообразна формула, създадена за разтваряне в гела от алое на Форевър.</t>
-  </si>
-  <si>
-    <t>Източник на три важни съставки, които подкрепят здравето на сърдечносъдовата система. Витамините от В комплекса поддържат здравословни нива на хомоцистеина в организма, коензимът Q10 допринася за функциите на клетките, а антиоксидантите се борят със свободните радикали. Заедно тези съставки имат потенциала да подпомагат правилното функциониране на сърдечносъдовата система.
-Q10 представлява ензим, произвеждан от човешкия организъм и необходим за основните функции на клетките, включително и на тези в сърцето и кръвоносните съдове. Според изследванията, нивата на коензим Q10 се понижават с напредване на възрастта, а ние именно тогава имаме най-голяма нужда от него. Освен незаменимите функции, свързани с енергийната ефективност на тялото, коензим Q10 има доказани свойства на антиоксидант и предпазва клетките от увреждащото действие на свободните радикали. Допълнителните източници на коензима, какъвто е Форевър кардио здраве, имат потенциал да повишат чувството за енергия, издръжливост и добро общо състояние.
-Хранителната добавка на Форевър подкрепя функциите на сърдечносъдовата система, като допринася за поддържане на здравословни нива на хомоцистеина в кръвта. Доказано е, че витамините В6, В12 и фолиевата киселина имат свойството да задържат нивата на хомоцистеина в полезните за здравето ниски стойности. Това на свой ред подпомага правилното функциониране на сърцето и кръвоносните съдове.</t>
-  </si>
-  <si>
-    <t>Витамин С (аскорбинова киселина), витамин Е (смесени токофероли), витамин В6 (пиридоксин хидрохлорид), фолат (фолиева киселина), витамин В12 (цианкобаламин), магнезий (магнезиев цитрат), хром (хромен хлорид), коензим Q10, екстракт от гроздови семки, екстракт от куркума (Curcuma longa), прах (корен), екстракт от бозвелия (Boswellia serrata) (смола), екстракт от маслинени листа, соев лецитин.
-ДРУГИ СЪСТАВКИ
-Фруктоза, микрокристална целулоза и силициев диоксид. Съдържа соя.</t>
-  </si>
-  <si>
     <t>ПРЕПОРЪЧИТЕЛНА УПОТРЕБА
 Старателно разтваряйте съдържанието на едно пакетче в 120 мл гел от алое вера (или друга течност). Изпивайте по едно пакетче на ден.
 ОСНОВНИ ХАРАКТЕРИСТИКИ
@@ -2613,6 +2600,29 @@
   </si>
   <si>
     <t>https://thealoeveraco.shop/yZhugDoJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Код: 312
+30 пакетчета в кутия
+ПЦП: 68,68 лв.
+Forever CardioHealth with CoQ10
+Форевър кардио здраве
+ОПИСАНИЕ
+Отлична хранителна добавка с коензим Q10 и специална прахообразна формула, създадена за разтваряне в гела от алое на Форевър.</t>
+  </si>
+  <si>
+    <t>Източник на три важни съставки, които подкрепят здравето на сърдечносъдовата система. Витамините от В комплекса поддържат здравословни нива на хомоцистеина в организма, коензимът Q10 допринася за функциите на клетките, а антиоксидантите се борят със свободните радикали. Заедно тези съставки имат потенциала да подпомагат правилното функциониране на сърдечносъдовата система.
+Q10 представлява ензим, произвеждан от човешкия организъм и необходим за основните функции на клетките, включително и на тези в сърцето и кръвоносните съдове. Според изследванията, нивата на коензим Q10 се понижават с напредване на възрастта, а ние именно тогава имаме най-голяма нужда от него. Освен незаменимите функции, свързани с енергийната ефективност на тялото, коензим Q10 има доказани свойства на антиоксидант и предпазва клетките от увреждащото действие на свободните радикали. Допълнителните източници на коензима, какъвто е Форевър кардио здраве, имат потенциал да повишат чувството за енергия, издръжливост и добро общо състояние.
+Хранителната добавка на Форевър подкрепя функциите на сърдечносъдовата система, като допринася за поддържане на здравословни нива на хомоцистеина в кръвта. Доказано е, че витамините В6, В12 и фолиевата киселина имат свойството да задържат нивата на хомоцистеина в полезните за здравето ниски стойности. Това на свой ред подпомага правилното функциониране на сърцето и кръвоносните съдове.
+Форевър кардио здраве съдържа още подбрани билкови екстракти – от гроздови семки, куркума, бозвелия и маслинови листа. Според различни изследвания тези растителни извлеци с антиоксидантни свойства също действат благотворно върху сърдечносъдовото здраве. Към всичко изброено, добавихме и минералите магнезий и хром, плюс лецитин, известен със свойствата си да смазва вътрешността на кръвоносните съдове и да раздвижва мастните натрупвания в тях, както и мощните антиоксидантни витамини С и Е.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОСНОВНИ СЪСТАВКИ
+Витамин С (аскорбинова киселина), витамин Е (смесени токофероли), витамин В6 (пиридоксин хидрохлорид), фолат (фолиева киселина), витамин В12 (цианкобаламин), магнезий (магнезиев цитрат), хром (хромен хлорид), коензим Q10, екстракт от гроздови семки, екстракт от куркума (Curcuma longa), прах (корен), екстракт от бозвелия (Boswellia serrata) (смола), екстракт от маслинени листа, соев лецитин.
+ДРУГИ СЪСТАВКИ
+Фруктоза, микрокристална целулоза и силициев диоксид. Съдържа соя.
+</t>
   </si>
 </sst>
 </file>
@@ -3135,8 +3145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3468,7 +3478,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1002a.jpg</v>
       </c>
       <c r="S5" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D101 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" ref="S5:S12" si="3" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D101 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1002b.jpg</v>
       </c>
     </row>
@@ -3527,7 +3537,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D6:D102 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="3"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1003b.jpg</v>
       </c>
     </row>
@@ -3586,7 +3596,7 @@
       <c r="Q7" s="10"/>
       <c r="R7" s="8"/>
       <c r="S7" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D7:D103 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="3"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1004b.jpg</v>
       </c>
     </row>
@@ -3645,7 +3655,7 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D8:D104 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="3"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1005b.jpg</v>
       </c>
     </row>
@@ -3702,7 +3712,7 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D9:D105 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="3"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1084b.jpg</v>
       </c>
     </row>
@@ -3767,7 +3777,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1006a.jpg</v>
       </c>
       <c r="S10" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D10:D106 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="3"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1006b.jpg</v>
       </c>
     </row>
@@ -3832,7 +3842,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1007a.jpg</v>
       </c>
       <c r="S11" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D11:D107 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="3"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1007b.jpg</v>
       </c>
     </row>
@@ -3894,7 +3904,7 @@
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D12:D108 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="3"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1008b.jpg</v>
       </c>
     </row>
@@ -4210,7 +4220,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1011a.jpg</v>
       </c>
       <c r="S17" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D17:D112 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" ref="S17:S31" si="4" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D17:D112 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1011b.jpg</v>
       </c>
     </row>
@@ -4270,7 +4280,7 @@
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D18:D113 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1012b.jpg</v>
       </c>
     </row>
@@ -4333,7 +4343,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1078a.jpg</v>
       </c>
       <c r="S19" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D19:D114 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1078b.jpg</v>
       </c>
     </row>
@@ -4393,7 +4403,7 @@
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D20:D115 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1013b.jpg</v>
       </c>
     </row>
@@ -4453,7 +4463,7 @@
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D21:D116 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1014b.jpg</v>
       </c>
     </row>
@@ -4516,7 +4526,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1015a.jpg</v>
       </c>
       <c r="S22" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D22:D117 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1015b.jpg</v>
       </c>
     </row>
@@ -4576,7 +4586,7 @@
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D23:D118 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1016b.jpg</v>
       </c>
     </row>
@@ -4636,7 +4646,7 @@
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D24:D119 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1017b.jpg</v>
       </c>
     </row>
@@ -4696,7 +4706,7 @@
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D25:D120 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1018b.jpg</v>
       </c>
     </row>
@@ -4756,7 +4766,7 @@
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D26:D121 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1019b.jpg</v>
       </c>
     </row>
@@ -4813,7 +4823,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D27:D122 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1020b.jpg</v>
       </c>
     </row>
@@ -4873,7 +4883,7 @@
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D28:D123 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1021b.jpg</v>
       </c>
     </row>
@@ -4933,7 +4943,7 @@
       </c>
       <c r="R29" s="14"/>
       <c r="S29" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D29:D124 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1085b.jpg</v>
       </c>
     </row>
@@ -4996,7 +5006,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1022a.jpg</v>
       </c>
       <c r="S30" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D30:D125 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1022b.jpg</v>
       </c>
     </row>
@@ -5056,7 +5066,7 @@
       </c>
       <c r="R31" s="1"/>
       <c r="S31" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D31:D126 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1023b.jpg</v>
       </c>
     </row>
@@ -5074,13 +5084,13 @@
         <v>1097</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="H32" s="47">
         <v>68.680000000000007</v>
@@ -5101,13 +5111,13 @@
         <v>625</v>
       </c>
       <c r="M32" s="49" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="N32" s="49" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="O32" s="49" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="Q32" s="16"/>
       <c r="R32" s="14"/>
@@ -5175,7 +5185,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1024a.jpg</v>
       </c>
       <c r="S33" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D33:D127 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" ref="S33:S75" si="5" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D33:D127 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1024b.jpg</v>
       </c>
     </row>
@@ -5238,7 +5248,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1025a.jpg</v>
       </c>
       <c r="S34" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D34:D128 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1025b.jpg</v>
       </c>
     </row>
@@ -5276,7 +5286,7 @@
         <v>52.905999999999999</v>
       </c>
       <c r="K35" s="5" t="str">
-        <f t="shared" ref="K35:K66" si="3">D35 &amp; ".html"</f>
+        <f t="shared" ref="K35:K66" si="6">D35 &amp; ".html"</f>
         <v>1026.html</v>
       </c>
       <c r="L35" s="5" t="s">
@@ -5298,7 +5308,7 @@
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D35:D129 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1026b.jpg</v>
       </c>
     </row>
@@ -5336,7 +5346,7 @@
         <v>61.683999999999997</v>
       </c>
       <c r="K36" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1027.html</v>
       </c>
       <c r="L36" s="5" t="s">
@@ -5361,7 +5371,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1027a.jpg</v>
       </c>
       <c r="S36" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D36:D130 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1027b.jpg</v>
       </c>
     </row>
@@ -5399,7 +5409,7 @@
         <v>48.076000000000001</v>
       </c>
       <c r="K37" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1028.html</v>
       </c>
       <c r="L37" s="5" t="s">
@@ -5421,7 +5431,7 @@
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D37:D131 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1028b.jpg</v>
       </c>
     </row>
@@ -5459,7 +5469,7 @@
         <v>50.876000000000005</v>
       </c>
       <c r="K38" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1029.html</v>
       </c>
       <c r="L38" s="5" t="s">
@@ -5481,7 +5491,7 @@
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D38:D132 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1029b.jpg</v>
       </c>
     </row>
@@ -5519,7 +5529,7 @@
         <v>82.921999999999997</v>
       </c>
       <c r="K39" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1030.html</v>
       </c>
       <c r="L39" s="21" t="s">
@@ -5544,7 +5554,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1030a.jpg</v>
       </c>
       <c r="S39" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D39:D133 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1030b.jpg</v>
       </c>
     </row>
@@ -5582,7 +5592,7 @@
         <v>25.626999999999999</v>
       </c>
       <c r="K40" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1031.html</v>
       </c>
       <c r="L40" s="5" t="s">
@@ -5607,7 +5617,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1031a.jpg</v>
       </c>
       <c r="S40" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D40:D134 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1031b.jpg</v>
       </c>
     </row>
@@ -5645,7 +5655,7 @@
         <v>29.252999999999997</v>
       </c>
       <c r="K41" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1032.html</v>
       </c>
       <c r="L41" s="5" t="s">
@@ -5670,7 +5680,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1032a.jpg</v>
       </c>
       <c r="S41" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D41:D135 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1032b.jpg</v>
       </c>
     </row>
@@ -5708,7 +5718,7 @@
         <v>34.845999999999997</v>
       </c>
       <c r="K42" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1033.html</v>
       </c>
       <c r="L42" s="5" t="s">
@@ -5733,7 +5743,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1033a.jpg</v>
       </c>
       <c r="S42" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D42:D136 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1033b.jpg</v>
       </c>
     </row>
@@ -5771,7 +5781,7 @@
         <v>50.876000000000005</v>
       </c>
       <c r="K43" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1077.html</v>
       </c>
       <c r="L43" s="12" t="s">
@@ -5796,7 +5806,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1077a.jpg</v>
       </c>
       <c r="S43" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D43:D137 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1077b.jpg</v>
       </c>
     </row>
@@ -5834,7 +5844,7 @@
         <v>5.6</v>
       </c>
       <c r="K44" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1034.html</v>
       </c>
       <c r="L44" s="5" t="s">
@@ -5856,7 +5866,7 @@
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D44:D138 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1034b.jpg</v>
       </c>
     </row>
@@ -5894,7 +5904,7 @@
         <v>25.255999999999997</v>
       </c>
       <c r="K45" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1035.html</v>
       </c>
       <c r="L45" s="5" t="s">
@@ -5916,7 +5926,7 @@
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D45:D139 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1035b.jpg</v>
       </c>
     </row>
@@ -5954,7 +5964,7 @@
         <v>280.44799999999998</v>
       </c>
       <c r="K46" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1036.html</v>
       </c>
       <c r="L46" s="5" t="s">
@@ -5975,7 +5985,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1036a.jpg</v>
       </c>
       <c r="S46" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D46:D140 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1036b.jpg</v>
       </c>
     </row>
@@ -6013,7 +6023,7 @@
         <v>56.083999999999996</v>
       </c>
       <c r="K47" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1037.html</v>
       </c>
       <c r="L47" s="5" t="s">
@@ -6038,7 +6048,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1037a.jpg</v>
       </c>
       <c r="S47" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D47:D141 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1037b.jpg</v>
       </c>
     </row>
@@ -6076,7 +6086,7 @@
         <v>83.334999999999994</v>
       </c>
       <c r="K48" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1038.html</v>
       </c>
       <c r="L48" s="5" t="s">
@@ -6098,7 +6108,7 @@
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D48:D142 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1038b.jpg</v>
       </c>
     </row>
@@ -6136,7 +6146,7 @@
         <v>42.076999999999998</v>
       </c>
       <c r="K49" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1039.html</v>
       </c>
       <c r="L49" s="5" t="s">
@@ -6153,15 +6163,15 @@
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="3" t="str">
-        <f t="shared" ref="Q49" si="4" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D49:D98 &amp;".jpg"</f>
+        <f t="shared" ref="Q49" si="7" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D49:D98 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1039.jpg</v>
       </c>
       <c r="R49" s="1" t="str">
-        <f t="shared" ref="R49" si="5" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D49:D98 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" ref="R49" si="8" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D49:D98 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1039a.jpg</v>
       </c>
       <c r="S49" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D49:D143 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1039b.jpg</v>
       </c>
     </row>
@@ -6199,7 +6209,7 @@
         <v>92.939000000000007</v>
       </c>
       <c r="K50" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1040.html</v>
       </c>
       <c r="L50" s="5" t="s">
@@ -6216,15 +6226,15 @@
       </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D50:D98 &amp;".jpg"</f>
+        <f t="shared" ref="Q50:Q68" si="9" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D50:D98 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1040.jpg</v>
       </c>
       <c r="R50" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D50:D98 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" ref="R50:R64" si="10" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D50:D98 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1040a.jpg</v>
       </c>
       <c r="S50" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D50:D144 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1040b.jpg</v>
       </c>
     </row>
@@ -6262,7 +6272,7 @@
         <v>58.498999999999988</v>
       </c>
       <c r="K51" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1041.html</v>
       </c>
       <c r="L51" s="5" t="s">
@@ -6279,15 +6289,15 @@
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D51:D99 &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1041.jpg</v>
       </c>
       <c r="R51" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D51:D99 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1041a.jpg</v>
       </c>
       <c r="S51" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D51:D145 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1041b.jpg</v>
       </c>
     </row>
@@ -6325,7 +6335,7 @@
         <v>29.252999999999997</v>
       </c>
       <c r="K52" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1042.html</v>
       </c>
       <c r="L52" s="5" t="s">
@@ -6342,15 +6352,15 @@
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D52:D100 &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1042.jpg</v>
       </c>
       <c r="R52" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D52:D100 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1042a.jpg</v>
       </c>
       <c r="S52" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D52:D146 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1042b.jpg</v>
       </c>
     </row>
@@ -6388,7 +6398,7 @@
         <v>136.626</v>
       </c>
       <c r="K53" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1043.html</v>
       </c>
       <c r="L53" s="5" t="s">
@@ -6401,15 +6411,15 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D53:D101 &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1043.jpg</v>
       </c>
       <c r="R53" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D53:D101 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1043a.jpg</v>
       </c>
       <c r="S53" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D53:D147 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1043b.jpg</v>
       </c>
     </row>
@@ -6447,7 +6457,7 @@
         <v>35.643999999999998</v>
       </c>
       <c r="K54" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1044.html</v>
       </c>
       <c r="L54" s="5" t="s">
@@ -6464,15 +6474,15 @@
       </c>
       <c r="P54" s="1"/>
       <c r="Q54" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D54:D102 &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1044.jpg</v>
       </c>
       <c r="R54" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D54:D102 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1044a.jpg</v>
       </c>
       <c r="S54" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D54:D148 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1044b.jpg</v>
       </c>
     </row>
@@ -6510,7 +6520,7 @@
         <v>37.673999999999999</v>
       </c>
       <c r="K55" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1045.html</v>
       </c>
       <c r="L55" s="5" t="s">
@@ -6527,15 +6537,15 @@
       </c>
       <c r="P55" s="1"/>
       <c r="Q55" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D55:D103 &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1045.jpg</v>
       </c>
       <c r="R55" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D55:D103 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1045a.jpg</v>
       </c>
       <c r="S55" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D55:D149 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1045b.jpg</v>
       </c>
     </row>
@@ -6573,7 +6583,7 @@
         <v>37.673999999999999</v>
       </c>
       <c r="K56" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1046.html</v>
       </c>
       <c r="L56" s="5" t="s">
@@ -6590,15 +6600,15 @@
       </c>
       <c r="P56" s="1"/>
       <c r="Q56" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D56:D104 &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1046.jpg</v>
       </c>
       <c r="R56" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D56:D104 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1046a.jpg</v>
       </c>
       <c r="S56" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D56:D150 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1046b.jpg</v>
       </c>
     </row>
@@ -6636,7 +6646,7 @@
         <v>41.271999999999998</v>
       </c>
       <c r="K57" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1047.html</v>
       </c>
       <c r="L57" s="21" t="s">
@@ -6653,15 +6663,15 @@
       </c>
       <c r="P57" s="20"/>
       <c r="Q57" s="39" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D57:D105 &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1047.jpg</v>
       </c>
       <c r="R57" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D57:D105 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1047a.jpg</v>
       </c>
       <c r="S57" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D57:D151 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1047b.jpg</v>
       </c>
     </row>
@@ -6699,7 +6709,7 @@
         <v>24.038</v>
       </c>
       <c r="K58" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1048.html</v>
       </c>
       <c r="L58" s="5" t="s">
@@ -6716,15 +6726,15 @@
       </c>
       <c r="P58" s="1"/>
       <c r="Q58" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D58:D106 &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1048.jpg</v>
       </c>
       <c r="R58" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D58:D106 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1048a.jpg</v>
       </c>
       <c r="S58" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D58:D152 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1048b.jpg</v>
       </c>
     </row>
@@ -6762,7 +6772,7 @@
         <v>24.038</v>
       </c>
       <c r="K59" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1049.html</v>
       </c>
       <c r="L59" s="5" t="s">
@@ -6779,15 +6789,15 @@
       </c>
       <c r="P59" s="1"/>
       <c r="Q59" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D59:D107 &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1049.jpg</v>
       </c>
       <c r="R59" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D59:D107 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1049a.jpg</v>
       </c>
       <c r="S59" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D59:D153 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1049b.jpg</v>
       </c>
     </row>
@@ -6825,7 +6835,7 @@
         <v>31.667999999999999</v>
       </c>
       <c r="K60" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1050.html</v>
       </c>
       <c r="L60" s="5" t="s">
@@ -6842,15 +6852,15 @@
       </c>
       <c r="P60" s="1"/>
       <c r="Q60" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D60:D108 &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1050.jpg</v>
       </c>
       <c r="R60" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D60:D108 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1050a.jpg</v>
       </c>
       <c r="S60" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D60:D154 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1050b.jpg</v>
       </c>
     </row>
@@ -6888,7 +6898,7 @@
         <v>36.875999999999998</v>
       </c>
       <c r="K61" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1051.html</v>
       </c>
       <c r="L61" s="5" t="s">
@@ -6905,15 +6915,15 @@
       </c>
       <c r="P61" s="1"/>
       <c r="Q61" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D61:D109 &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1051.jpg</v>
       </c>
       <c r="R61" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D61:D109 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1051a.jpg</v>
       </c>
       <c r="S61" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D61:D155 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1051b.jpg</v>
       </c>
     </row>
@@ -6951,7 +6961,7 @@
         <v>31.667999999999999</v>
       </c>
       <c r="K62" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1052.html</v>
       </c>
       <c r="L62" s="5" t="s">
@@ -6968,15 +6978,15 @@
       </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D62:D110 &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1052.jpg</v>
       </c>
       <c r="R62" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D62:D110 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1052a.jpg</v>
       </c>
       <c r="S62" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D62:D156 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1052b.jpg</v>
       </c>
     </row>
@@ -7014,7 +7024,7 @@
         <v>33.271000000000001</v>
       </c>
       <c r="K63" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1053.html</v>
       </c>
       <c r="L63" s="5" t="s">
@@ -7031,15 +7041,15 @@
       </c>
       <c r="P63" s="1"/>
       <c r="Q63" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D63:D111 &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1053.jpg</v>
       </c>
       <c r="R63" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D63:D111 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1053a.jpg</v>
       </c>
       <c r="S63" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D63:D157 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1053b.jpg</v>
       </c>
     </row>
@@ -7077,7 +7087,7 @@
         <v>24.038</v>
       </c>
       <c r="K64" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1054.html</v>
       </c>
       <c r="L64" s="21" t="s">
@@ -7094,15 +7104,15 @@
       </c>
       <c r="P64" s="20"/>
       <c r="Q64" s="39" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D64:D112 &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1054.jpg</v>
       </c>
       <c r="R64" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D64:D112 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1054a.jpg</v>
       </c>
       <c r="S64" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D64:D158 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1054b.jpg</v>
       </c>
     </row>
@@ -7140,7 +7150,7 @@
         <v>9.6319999999999997</v>
       </c>
       <c r="K65" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1055.html</v>
       </c>
       <c r="L65" s="5" t="s">
@@ -7157,12 +7167,12 @@
       </c>
       <c r="P65" s="1"/>
       <c r="Q65" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D65:D113 &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1055.jpg</v>
       </c>
       <c r="R65" s="1"/>
       <c r="S65" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D65:D159 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1055b.jpg</v>
       </c>
     </row>
@@ -7200,7 +7210,7 @@
         <v>53.682999999999993</v>
       </c>
       <c r="K66" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1079.html</v>
       </c>
       <c r="L66" s="12" t="s">
@@ -7217,7 +7227,7 @@
       </c>
       <c r="P66" s="8"/>
       <c r="Q66" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D66:D114 &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1079.jpg</v>
       </c>
       <c r="R66" s="8" t="str">
@@ -7225,7 +7235,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1079a.jpg</v>
       </c>
       <c r="S66" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D66:D160 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1079b.jpg</v>
       </c>
     </row>
@@ -7263,7 +7273,7 @@
         <v>53.682999999999993</v>
       </c>
       <c r="K67" s="5" t="str">
-        <f t="shared" ref="K67:K98" si="6">D67 &amp; ".html"</f>
+        <f t="shared" ref="K67:K98" si="11">D67 &amp; ".html"</f>
         <v>1080.html</v>
       </c>
       <c r="L67" s="12" t="s">
@@ -7280,7 +7290,7 @@
       </c>
       <c r="P67" s="8"/>
       <c r="Q67" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D67:D115 &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1080.jpg</v>
       </c>
       <c r="R67" s="8" t="str">
@@ -7288,7 +7298,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1080a.jpg</v>
       </c>
       <c r="S67" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D67:D161 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1080b.jpg</v>
       </c>
     </row>
@@ -7318,15 +7328,15 @@
         <v>63.52</v>
       </c>
       <c r="I68" s="6">
-        <f t="shared" ref="I68:I98" si="7">H68 * 0.95</f>
+        <f t="shared" ref="I68:I98" si="12">H68 * 0.95</f>
         <v>60.344000000000001</v>
       </c>
       <c r="J68" s="6">
-        <f t="shared" ref="J68:J98" si="8">H68 * 0.7</f>
+        <f t="shared" ref="J68:J98" si="13">H68 * 0.7</f>
         <v>44.463999999999999</v>
       </c>
       <c r="K68" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1081.html</v>
       </c>
       <c r="L68" s="12" t="s">
@@ -7343,7 +7353,7 @@
       </c>
       <c r="P68" s="8"/>
       <c r="Q68" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D68:D116 &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1081.jpg</v>
       </c>
       <c r="R68" s="8" t="str">
@@ -7351,7 +7361,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1081a.jpg</v>
       </c>
       <c r="S68" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D68:D162 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1081b.jpg</v>
       </c>
     </row>
@@ -7381,15 +7391,15 @@
         <v>51.49</v>
       </c>
       <c r="I69" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>48.915500000000002</v>
       </c>
       <c r="J69" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>36.042999999999999</v>
       </c>
       <c r="K69" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1056.html</v>
       </c>
       <c r="L69" s="5" t="s">
@@ -7406,15 +7416,15 @@
       </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D69:D114 &amp;".jpg"</f>
+        <f t="shared" ref="Q69:Q75" si="14" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D69:D114 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1056.jpg</v>
       </c>
       <c r="R69" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D69:D114 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" ref="R69:R74" si="15" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D69:D114 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1056a.jpg</v>
       </c>
       <c r="S69" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D69:D163 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1056b.jpg</v>
       </c>
     </row>
@@ -7444,15 +7454,15 @@
         <v>42.92</v>
       </c>
       <c r="I70" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>40.774000000000001</v>
       </c>
       <c r="J70" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>30.044</v>
       </c>
       <c r="K70" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1057.html</v>
       </c>
       <c r="L70" s="5" t="s">
@@ -7469,15 +7479,15 @@
       </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D70:D115 &amp;".jpg"</f>
+        <f t="shared" si="14"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1057.jpg</v>
       </c>
       <c r="R70" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D70:D115 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="15"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1057a.jpg</v>
       </c>
       <c r="S70" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D70:D164 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1057b.jpg</v>
       </c>
     </row>
@@ -7507,15 +7517,15 @@
         <v>49.78</v>
       </c>
       <c r="I71" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>47.290999999999997</v>
       </c>
       <c r="J71" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>34.845999999999997</v>
       </c>
       <c r="K71" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1058.html</v>
       </c>
       <c r="L71" s="5" t="s">
@@ -7532,15 +7542,15 @@
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D71:D116 &amp;".jpg"</f>
+        <f t="shared" si="14"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1058.jpg</v>
       </c>
       <c r="R71" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D71:D116 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="15"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1058a.jpg</v>
       </c>
       <c r="S71" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D71:D165 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1058b.jpg</v>
       </c>
     </row>
@@ -7570,15 +7580,15 @@
         <v>53.25</v>
       </c>
       <c r="I72" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>50.587499999999999</v>
       </c>
       <c r="J72" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>37.274999999999999</v>
       </c>
       <c r="K72" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1059.html</v>
       </c>
       <c r="L72" s="5" t="s">
@@ -7595,15 +7605,15 @@
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D72:D117 &amp;".jpg"</f>
+        <f t="shared" si="14"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1059.jpg</v>
       </c>
       <c r="R72" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D72:D117 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="15"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1059a.jpg</v>
       </c>
       <c r="S72" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D72:D166 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1059b.jpg</v>
       </c>
     </row>
@@ -7633,15 +7643,15 @@
         <v>17.739999999999998</v>
       </c>
       <c r="I73" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>16.852999999999998</v>
       </c>
       <c r="J73" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>12.417999999999997</v>
       </c>
       <c r="K73" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1060.html</v>
       </c>
       <c r="L73" s="5" t="s">
@@ -7658,15 +7668,15 @@
       </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D73:D118 &amp;".jpg"</f>
+        <f t="shared" si="14"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1060.jpg</v>
       </c>
       <c r="R73" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D73:D118 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="15"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1060a.jpg</v>
       </c>
       <c r="S73" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D73:D167 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1060b.jpg</v>
       </c>
     </row>
@@ -7696,15 +7706,15 @@
         <v>34.340000000000003</v>
       </c>
       <c r="I74" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>32.623000000000005</v>
       </c>
       <c r="J74" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>24.038</v>
       </c>
       <c r="K74" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1061.html</v>
       </c>
       <c r="L74" s="21" t="s">
@@ -7721,15 +7731,15 @@
       </c>
       <c r="P74" s="20"/>
       <c r="Q74" s="39" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D74:D119 &amp;".jpg"</f>
+        <f t="shared" si="14"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1061.jpg</v>
       </c>
       <c r="R74" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D74:D119 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="15"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1061a.jpg</v>
       </c>
       <c r="S74" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D74:D168 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1061b.jpg</v>
       </c>
     </row>
@@ -7759,15 +7769,15 @@
         <v>1116.3399999999999</v>
       </c>
       <c r="I75" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1060.5229999999999</v>
       </c>
       <c r="J75" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>781.43799999999987</v>
       </c>
       <c r="K75" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1063.html</v>
       </c>
       <c r="L75" s="5" t="s">
@@ -7780,12 +7790,12 @@
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D75:D120 &amp;".jpg"</f>
+        <f t="shared" si="14"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1063.jpg</v>
       </c>
       <c r="R75" s="1"/>
       <c r="S75" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D75:D169 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1063b.jpg</v>
       </c>
     </row>
@@ -7821,7 +7831,7 @@
         <v>823.36</v>
       </c>
       <c r="K76" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1065.html</v>
       </c>
       <c r="L76" s="12" t="s">
@@ -7926,15 +7936,15 @@
         <v>555.54</v>
       </c>
       <c r="I78" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>527.76299999999992</v>
       </c>
       <c r="J78" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>388.87799999999993</v>
       </c>
       <c r="K78" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1083.html</v>
       </c>
       <c r="L78" s="27" t="s">
@@ -7983,15 +7993,15 @@
         <v>555.54</v>
       </c>
       <c r="I79" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>527.76299999999992</v>
       </c>
       <c r="J79" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>388.87799999999993</v>
       </c>
       <c r="K79" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1096.html</v>
       </c>
       <c r="L79" s="27" t="s">
@@ -8040,15 +8050,15 @@
         <v>337.32</v>
       </c>
       <c r="I80" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>320.45399999999995</v>
       </c>
       <c r="J80" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K80" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1074.html</v>
       </c>
       <c r="L80" s="27" t="s">
@@ -8097,15 +8107,15 @@
         <v>337.32</v>
       </c>
       <c r="I81" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>320.45399999999995</v>
       </c>
       <c r="J81" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K81" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1086.html</v>
       </c>
       <c r="L81" s="27" t="s">
@@ -8154,15 +8164,15 @@
         <v>337.32</v>
       </c>
       <c r="I82" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>320.45399999999995</v>
       </c>
       <c r="J82" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K82" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1087.html</v>
       </c>
       <c r="L82" s="27" t="s">
@@ -8210,15 +8220,15 @@
         <v>337.32</v>
       </c>
       <c r="I83" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>320.45399999999995</v>
       </c>
       <c r="J83" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K83" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1088.html</v>
       </c>
       <c r="L83" s="27" t="s">
@@ -8266,15 +8276,15 @@
         <v>337.32</v>
       </c>
       <c r="I84" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>320.45399999999995</v>
       </c>
       <c r="J84" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K84" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1089.html</v>
       </c>
       <c r="L84" s="27" t="s">
@@ -8322,15 +8332,15 @@
         <v>337.32</v>
       </c>
       <c r="I85" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>320.45399999999995</v>
       </c>
       <c r="J85" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K85" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1090.html</v>
       </c>
       <c r="L85" s="27" t="s">
@@ -8378,15 +8388,15 @@
         <v>270.32</v>
       </c>
       <c r="I86" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>256.80399999999997</v>
       </c>
       <c r="J86" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K86" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1073.html</v>
       </c>
       <c r="L86" s="27" t="s">
@@ -8405,7 +8415,7 @@
       <c r="Q86" s="16"/>
       <c r="R86" s="14"/>
       <c r="S86" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D86:D180 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" ref="S86:S98" si="16" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D86:D180 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
       </c>
     </row>
@@ -8435,15 +8445,15 @@
         <v>270.32</v>
       </c>
       <c r="I87" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>256.80399999999997</v>
       </c>
       <c r="J87" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K87" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1091.html</v>
       </c>
       <c r="L87" s="27" t="s">
@@ -8462,7 +8472,7 @@
       <c r="Q87" s="16"/>
       <c r="R87" s="14"/>
       <c r="S87" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D87:D181 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="16"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1091b.jpg</v>
       </c>
     </row>
@@ -8492,15 +8502,15 @@
         <v>270.32</v>
       </c>
       <c r="I88" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>256.80399999999997</v>
       </c>
       <c r="J88" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K88" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1092.html</v>
       </c>
       <c r="L88" s="27" t="s">
@@ -8519,7 +8529,7 @@
       <c r="Q88" s="16"/>
       <c r="R88" s="14"/>
       <c r="S88" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D88:D182 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="16"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1092b.jpg</v>
       </c>
     </row>
@@ -8549,15 +8559,15 @@
         <v>270.32</v>
       </c>
       <c r="I89" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>256.80399999999997</v>
       </c>
       <c r="J89" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K89" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1093.html</v>
       </c>
       <c r="L89" s="27" t="s">
@@ -8576,7 +8586,7 @@
       <c r="Q89" s="16"/>
       <c r="R89" s="14"/>
       <c r="S89" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D89:D183 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="16"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1093b.jpg</v>
       </c>
     </row>
@@ -8606,15 +8616,15 @@
         <v>270.32</v>
       </c>
       <c r="I90" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>256.80399999999997</v>
       </c>
       <c r="J90" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K90" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1094.html</v>
       </c>
       <c r="L90" s="27" t="s">
@@ -8633,7 +8643,7 @@
       <c r="Q90" s="16"/>
       <c r="R90" s="14"/>
       <c r="S90" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D90:D184 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="16"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1094b.jpg</v>
       </c>
     </row>
@@ -8663,15 +8673,15 @@
         <v>270.32</v>
       </c>
       <c r="I91" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>256.80399999999997</v>
       </c>
       <c r="J91" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K91" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1095.html</v>
       </c>
       <c r="L91" s="27" t="s">
@@ -8690,7 +8700,7 @@
       <c r="Q91" s="16"/>
       <c r="R91" s="14"/>
       <c r="S91" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D91:D185 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="16"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1095b.jpg</v>
       </c>
     </row>
@@ -8720,15 +8730,15 @@
         <v>320.5</v>
       </c>
       <c r="I92" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>304.47499999999997</v>
       </c>
       <c r="J92" s="40">
-        <f t="shared" ref="J92" si="9">H92 * 0.7</f>
+        <f t="shared" ref="J92" si="17">H92 * 0.7</f>
         <v>224.35</v>
       </c>
       <c r="K92" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1072.html</v>
       </c>
       <c r="L92" s="41" t="s">
@@ -8753,7 +8763,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1072a.jpg</v>
       </c>
       <c r="S92" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D92:D186 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="16"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1072b.jpg</v>
       </c>
     </row>
@@ -8783,15 +8793,15 @@
         <v>57.23</v>
       </c>
       <c r="I93" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>54.368499999999997</v>
       </c>
       <c r="J93" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>40.060999999999993</v>
       </c>
       <c r="K93" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1066.html</v>
       </c>
       <c r="L93" s="5" t="s">
@@ -8813,7 +8823,7 @@
       </c>
       <c r="R93" s="1"/>
       <c r="S93" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D93:D187 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="16"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1066b.jpg</v>
       </c>
     </row>
@@ -8843,15 +8853,15 @@
         <v>57.23</v>
       </c>
       <c r="I94" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>54.368499999999997</v>
       </c>
       <c r="J94" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>40.060999999999993</v>
       </c>
       <c r="K94" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1067.html</v>
       </c>
       <c r="L94" s="5" t="s">
@@ -8873,7 +8883,7 @@
       </c>
       <c r="R94" s="1"/>
       <c r="S94" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D94:D188 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="16"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1067b.jpg</v>
       </c>
     </row>
@@ -8903,15 +8913,15 @@
         <v>127.62</v>
       </c>
       <c r="I95" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>121.239</v>
       </c>
       <c r="J95" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>89.334000000000003</v>
       </c>
       <c r="K95" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1068.html</v>
       </c>
       <c r="L95" s="5" t="s">
@@ -8936,7 +8946,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1068a.jpg</v>
       </c>
       <c r="S95" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D95:D189 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="16"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1068b.jpg</v>
       </c>
     </row>
@@ -8966,15 +8976,15 @@
         <v>60.11</v>
       </c>
       <c r="I96" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>57.104499999999994</v>
       </c>
       <c r="J96" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>42.076999999999998</v>
       </c>
       <c r="K96" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1069.html</v>
       </c>
       <c r="L96" s="5" t="s">
@@ -8999,7 +9009,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1069a.jpg</v>
       </c>
       <c r="S96" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D96:D190 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="16"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1069b.jpg</v>
       </c>
     </row>
@@ -9029,15 +9039,15 @@
         <v>86.44</v>
       </c>
       <c r="I97" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>82.117999999999995</v>
       </c>
       <c r="J97" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>60.507999999999996</v>
       </c>
       <c r="K97" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1070.html</v>
       </c>
       <c r="L97" s="5" t="s">
@@ -9062,7 +9072,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1070a.jpg</v>
       </c>
       <c r="S97" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D97:D191 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="16"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1070b.jpg</v>
       </c>
     </row>
@@ -9092,15 +9102,15 @@
         <v>10.31</v>
       </c>
       <c r="I98" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>9.7944999999999993</v>
       </c>
       <c r="J98" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>7.2169999999999996</v>
       </c>
       <c r="K98" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1071.html</v>
       </c>
       <c r="L98" s="5" t="s">
@@ -9125,7 +9135,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1071a.jpg</v>
       </c>
       <c r="S98" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D98:D192 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="16"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1071b.jpg</v>
       </c>
     </row>

--- a/products_categories/Merge.xlsx
+++ b/products_categories/Merge.xlsx
@@ -2602,16 +2602,6 @@
     <t>https://thealoeveraco.shop/yZhugDoJ</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Код: 312
-30 пакетчета в кутия
-ПЦП: 68,68 лв.
-Forever CardioHealth with CoQ10
-Форевър кардио здраве
-ОПИСАНИЕ
-Отлична хранителна добавка с коензим Q10 и специална прахообразна формула, създадена за разтваряне в гела от алое на Форевър.</t>
-  </si>
-  <si>
     <t>Източник на три важни съставки, които подкрепят здравето на сърдечносъдовата система. Витамините от В комплекса поддържат здравословни нива на хомоцистеина в организма, коензимът Q10 допринася за функциите на клетките, а антиоксидантите се борят със свободните радикали. Заедно тези съставки имат потенциала да подпомагат правилното функциониране на сърдечносъдовата система.
 Q10 представлява ензим, произвеждан от човешкия организъм и необходим за основните функции на клетките, включително и на тези в сърцето и кръвоносните съдове. Според изследванията, нивата на коензим Q10 се понижават с напредване на възрастта, а ние именно тогава имаме най-голяма нужда от него. Освен незаменимите функции, свързани с енергийната ефективност на тялото, коензим Q10 има доказани свойства на антиоксидант и предпазва клетките от увреждащото действие на свободните радикали. Допълнителните източници на коензима, какъвто е Форевър кардио здраве, имат потенциал да повишат чувството за енергия, издръжливост и добро общо състояние.
 Хранителната добавка на Форевър подкрепя функциите на сърдечносъдовата система, като допринася за поддържане на здравословни нива на хомоцистеина в кръвта. Доказано е, че витамините В6, В12 и фолиевата киселина имат свойството да задържат нивата на хомоцистеина в полезните за здравето ниски стойности. Това на свой ред подпомага правилното функциониране на сърцето и кръвоносните съдове.
@@ -2623,6 +2613,9 @@
 ДРУГИ СЪСТАВКИ
 Фруктоза, микрокристална целулоза и силициев диоксид. Съдържа соя.
 </t>
+  </si>
+  <si>
+    <t>Отлична хранителна добавка с коензим Q10 и специална прахообразна формула, създадена за разтваряне в гела от алое на Форевър.</t>
   </si>
 </sst>
 </file>
@@ -3145,8 +3138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3182,8 +3175,8 @@
       <c r="F1" s="42" t="s">
         <v>635</v>
       </c>
-      <c r="G1" s="32" t="s">
-        <v>6</v>
+      <c r="G1" s="33" t="s">
+        <v>540</v>
       </c>
       <c r="H1" s="35" t="s">
         <v>7</v>
@@ -3200,8 +3193,8 @@
       <c r="L1" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="M1" s="33" t="s">
-        <v>540</v>
+      <c r="M1" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="N1" s="32" t="s">
         <v>8</v>
@@ -3241,8 +3234,8 @@
       <c r="F2" s="43" t="s">
         <v>652</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
+      <c r="G2" s="5" t="s">
+        <v>541</v>
       </c>
       <c r="H2" s="5">
         <v>59.54</v>
@@ -3256,14 +3249,14 @@
         <v>41.677999999999997</v>
       </c>
       <c r="K2" s="5" t="str">
-        <f t="shared" ref="K2:K34" si="0">D2 &amp; ".html"</f>
+        <f>D2 &amp; ".html"</f>
         <v>1000.html</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>541</v>
+      <c r="M2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>16</v>
@@ -3306,29 +3299,29 @@
       <c r="F3" s="43" t="s">
         <v>653</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>22</v>
+      <c r="G3" s="5" t="s">
+        <v>542</v>
       </c>
       <c r="H3" s="5">
         <v>59.54</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I67" si="1">H3 * 0.95</f>
+        <f t="shared" ref="I3:I67" si="0">H3 * 0.95</f>
         <v>56.562999999999995</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" ref="J3:J67" si="2">H3 * 0.7</f>
+        <f t="shared" ref="J3:J67" si="1">H3 * 0.7</f>
         <v>41.677999999999997</v>
       </c>
       <c r="K3" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D3 &amp; ".html"</f>
         <v>1001.html</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>542</v>
+      <c r="M3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>23</v>
@@ -3371,29 +3364,29 @@
       <c r="F4" s="43" t="s">
         <v>654</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>28</v>
+      <c r="G4" s="12" t="s">
+        <v>543</v>
       </c>
       <c r="H4" s="12">
         <v>59.54</v>
       </c>
       <c r="I4" s="6">
+        <f t="shared" si="0"/>
+        <v>56.562999999999995</v>
+      </c>
+      <c r="J4" s="6">
         <f t="shared" si="1"/>
-        <v>56.562999999999995</v>
-      </c>
-      <c r="J4" s="6">
-        <f t="shared" si="2"/>
         <v>41.677999999999997</v>
       </c>
       <c r="K4" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D4 &amp; ".html"</f>
         <v>1075.html</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="M4" s="12" t="s">
-        <v>543</v>
+      <c r="M4" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>29</v>
@@ -3436,29 +3429,29 @@
       <c r="F5" s="43" t="s">
         <v>719</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>41</v>
+      <c r="G5" s="5" t="s">
+        <v>545</v>
       </c>
       <c r="H5" s="5">
         <v>59.54</v>
       </c>
       <c r="I5" s="6">
+        <f t="shared" si="0"/>
+        <v>56.562999999999995</v>
+      </c>
+      <c r="J5" s="6">
         <f t="shared" si="1"/>
-        <v>56.562999999999995</v>
-      </c>
-      <c r="J5" s="6">
-        <f t="shared" si="2"/>
         <v>41.677999999999997</v>
       </c>
       <c r="K5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D5 &amp; ".html"</f>
         <v>1002.html</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>545</v>
+      <c r="M5" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>42</v>
@@ -3478,7 +3471,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1002a.jpg</v>
       </c>
       <c r="S5" s="1" t="str">
-        <f t="shared" ref="S5:S12" si="3" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D101 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D101 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1002b.jpg</v>
       </c>
     </row>
@@ -3501,29 +3494,29 @@
       <c r="F6" s="43" t="s">
         <v>720</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>47</v>
+      <c r="G6" s="5" t="s">
+        <v>546</v>
       </c>
       <c r="H6" s="5">
         <v>178.61</v>
       </c>
       <c r="I6" s="6">
+        <f t="shared" si="0"/>
+        <v>169.67950000000002</v>
+      </c>
+      <c r="J6" s="6">
         <f t="shared" si="1"/>
-        <v>169.67950000000002</v>
-      </c>
-      <c r="J6" s="6">
-        <f t="shared" si="2"/>
         <v>125.027</v>
       </c>
       <c r="K6" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D6 &amp; ".html"</f>
         <v>1003.html</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>546</v>
+      <c r="M6" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>16</v>
@@ -3537,7 +3530,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D6:D102 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1003b.jpg</v>
       </c>
     </row>
@@ -3560,29 +3553,29 @@
       <c r="F7" s="44" t="s">
         <v>721</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>51</v>
+      <c r="G7" s="12" t="s">
+        <v>547</v>
       </c>
       <c r="H7" s="12">
         <v>178.61</v>
       </c>
       <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>169.67950000000002</v>
+      </c>
+      <c r="J7" s="6">
         <f t="shared" si="1"/>
-        <v>169.67950000000002</v>
-      </c>
-      <c r="J7" s="6">
-        <f t="shared" si="2"/>
         <v>125.027</v>
       </c>
       <c r="K7" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D7 &amp; ".html"</f>
         <v>1004.html</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="M7" s="12" t="s">
-        <v>547</v>
+      <c r="M7" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>29</v>
@@ -3596,7 +3589,7 @@
       <c r="Q7" s="10"/>
       <c r="R7" s="8"/>
       <c r="S7" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D7:D103 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1004b.jpg</v>
       </c>
     </row>
@@ -3619,29 +3612,29 @@
       <c r="F8" s="43" t="s">
         <v>722</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>55</v>
+      <c r="G8" s="5" t="s">
+        <v>548</v>
       </c>
       <c r="H8" s="5">
         <v>178.61</v>
       </c>
       <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>169.67950000000002</v>
+      </c>
+      <c r="J8" s="6">
         <f t="shared" si="1"/>
-        <v>169.67950000000002</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="2"/>
         <v>125.027</v>
       </c>
       <c r="K8" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D8 &amp; ".html"</f>
         <v>1005.html</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>548</v>
+      <c r="M8" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>42</v>
@@ -3655,7 +3648,7 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D8:D104 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1005b.jpg</v>
       </c>
     </row>
@@ -3678,29 +3671,29 @@
       <c r="F9" s="46" t="s">
         <v>637</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>59</v>
+      <c r="G9" s="18" t="s">
+        <v>549</v>
       </c>
       <c r="H9" s="18">
         <v>178.61</v>
       </c>
       <c r="I9" s="24">
+        <f t="shared" si="0"/>
+        <v>169.67950000000002</v>
+      </c>
+      <c r="J9" s="24">
         <f t="shared" si="1"/>
-        <v>169.67950000000002</v>
-      </c>
-      <c r="J9" s="24">
-        <f t="shared" si="2"/>
         <v>125.027</v>
       </c>
       <c r="K9" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>D9 &amp; ".html"</f>
         <v>1084.html</v>
       </c>
       <c r="L9" s="18" t="s">
         <v>623</v>
       </c>
-      <c r="M9" s="18" t="s">
-        <v>549</v>
+      <c r="M9" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="14" t="s">
@@ -3712,7 +3705,7 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D9:D105 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1084b.jpg</v>
       </c>
     </row>
@@ -3735,29 +3728,29 @@
       <c r="F10" s="43" t="s">
         <v>723</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>65</v>
+      <c r="G10" s="5" t="s">
+        <v>550</v>
       </c>
       <c r="H10" s="5">
         <v>238.12</v>
       </c>
       <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>226.214</v>
+      </c>
+      <c r="J10" s="6">
         <f t="shared" si="1"/>
-        <v>226.214</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" si="2"/>
         <v>166.684</v>
       </c>
       <c r="K10" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D10 &amp; ".html"</f>
         <v>1006.html</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>550</v>
+      <c r="M10" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>16</v>
@@ -3777,7 +3770,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1006a.jpg</v>
       </c>
       <c r="S10" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D10:D106 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1006b.jpg</v>
       </c>
     </row>
@@ -3800,29 +3793,29 @@
       <c r="F11" s="43" t="s">
         <v>724</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>69</v>
+      <c r="G11" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="H11" s="5">
         <v>238.12</v>
       </c>
       <c r="I11" s="6">
+        <f t="shared" si="0"/>
+        <v>226.214</v>
+      </c>
+      <c r="J11" s="6">
         <f t="shared" si="1"/>
-        <v>226.214</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" si="2"/>
         <v>166.684</v>
       </c>
       <c r="K11" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D11 &amp; ".html"</f>
         <v>1007.html</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>551</v>
+      <c r="M11" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>70</v>
@@ -3842,7 +3835,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1007a.jpg</v>
       </c>
       <c r="S11" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D11:D107 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1007b.jpg</v>
       </c>
     </row>
@@ -3865,29 +3858,29 @@
       <c r="F12" s="43" t="s">
         <v>725</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>75</v>
+      <c r="G12" s="5" t="s">
+        <v>552</v>
       </c>
       <c r="H12" s="5">
         <v>238.12</v>
       </c>
       <c r="I12" s="6">
+        <f t="shared" si="0"/>
+        <v>226.214</v>
+      </c>
+      <c r="J12" s="6">
         <f t="shared" si="1"/>
-        <v>226.214</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" si="2"/>
         <v>166.684</v>
       </c>
       <c r="K12" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D12 &amp; ".html"</f>
         <v>1008.html</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>552</v>
+      <c r="M12" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>42</v>
@@ -3904,7 +3897,7 @@
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D12:D108 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1008b.jpg</v>
       </c>
     </row>
@@ -3927,8 +3920,8 @@
       <c r="F13" s="43" t="s">
         <v>726</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>92</v>
+      <c r="G13" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="H13" s="5">
         <v>40.06</v>
@@ -3948,8 +3941,8 @@
       <c r="L13" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>555</v>
+      <c r="M13" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>93</v>
@@ -3990,29 +3983,29 @@
       <c r="F14" s="43" t="s">
         <v>727</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>79</v>
+      <c r="G14" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="H14" s="5">
         <v>81.36</v>
       </c>
       <c r="I14" s="6">
+        <f t="shared" si="0"/>
+        <v>77.292000000000002</v>
+      </c>
+      <c r="J14" s="6">
         <f t="shared" si="1"/>
-        <v>77.292000000000002</v>
-      </c>
-      <c r="J14" s="6">
-        <f t="shared" si="2"/>
         <v>56.951999999999998</v>
       </c>
       <c r="K14" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D14 &amp; ".html"</f>
         <v>1009.html</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>553</v>
+      <c r="M14" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>80</v>
@@ -4052,8 +4045,8 @@
       <c r="F15" s="43" t="s">
         <v>728</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>34</v>
+      <c r="G15" s="12" t="s">
+        <v>544</v>
       </c>
       <c r="H15" s="12">
         <v>55.51</v>
@@ -4073,8 +4066,8 @@
       <c r="L15" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="M15" s="12" t="s">
-        <v>544</v>
+      <c r="M15" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>35</v>
@@ -4117,8 +4110,8 @@
       <c r="F16" s="43" t="s">
         <v>729</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>86</v>
+      <c r="G16" s="12" t="s">
+        <v>554</v>
       </c>
       <c r="H16" s="12">
         <v>8.58</v>
@@ -4138,8 +4131,8 @@
       <c r="L16" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="M16" s="12" t="s">
-        <v>554</v>
+      <c r="M16" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="N16" s="8" t="s">
         <v>87</v>
@@ -4180,29 +4173,29 @@
       <c r="F17" s="45" t="s">
         <v>730</v>
       </c>
-      <c r="G17" s="38" t="s">
-        <v>98</v>
+      <c r="G17" s="21" t="s">
+        <v>556</v>
       </c>
       <c r="H17" s="21">
         <v>8.58</v>
       </c>
       <c r="I17" s="40">
+        <f t="shared" si="0"/>
+        <v>8.1509999999999998</v>
+      </c>
+      <c r="J17" s="40">
         <f t="shared" si="1"/>
-        <v>8.1509999999999998</v>
-      </c>
-      <c r="J17" s="40">
-        <f t="shared" si="2"/>
         <v>6.0059999999999993</v>
       </c>
       <c r="K17" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>D17 &amp; ".html"</f>
         <v>1011.html</v>
       </c>
       <c r="L17" s="21" t="s">
         <v>623</v>
       </c>
-      <c r="M17" s="21" t="s">
-        <v>556</v>
+      <c r="M17" s="38" t="s">
+        <v>98</v>
       </c>
       <c r="N17" s="20" t="s">
         <v>99</v>
@@ -4220,7 +4213,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1011a.jpg</v>
       </c>
       <c r="S17" s="1" t="str">
-        <f t="shared" ref="S17:S31" si="4" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D17:D112 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D17:D112 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1011b.jpg</v>
       </c>
     </row>
@@ -4243,29 +4236,29 @@
       <c r="F18" s="45" t="s">
         <v>731</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>104</v>
+      <c r="G18" s="5" t="s">
+        <v>557</v>
       </c>
       <c r="H18" s="5">
         <v>27.48</v>
       </c>
       <c r="I18" s="6">
+        <f t="shared" si="0"/>
+        <v>26.105999999999998</v>
+      </c>
+      <c r="J18" s="6">
         <f t="shared" si="1"/>
-        <v>26.105999999999998</v>
-      </c>
-      <c r="J18" s="6">
-        <f t="shared" si="2"/>
         <v>19.236000000000001</v>
       </c>
       <c r="K18" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D18 &amp; ".html"</f>
         <v>1012.html</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>557</v>
+      <c r="M18" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>105</v>
@@ -4280,7 +4273,7 @@
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D18:D113 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1012b.jpg</v>
       </c>
     </row>
@@ -4303,29 +4296,29 @@
       <c r="F19" s="43" t="s">
         <v>655</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>110</v>
+      <c r="G19" s="12" t="s">
+        <v>558</v>
       </c>
       <c r="H19" s="12">
         <v>32.61</v>
       </c>
       <c r="I19" s="6">
+        <f t="shared" si="0"/>
+        <v>30.979499999999998</v>
+      </c>
+      <c r="J19" s="6">
         <f t="shared" si="1"/>
-        <v>30.979499999999998</v>
-      </c>
-      <c r="J19" s="6">
-        <f t="shared" si="2"/>
         <v>22.826999999999998</v>
       </c>
       <c r="K19" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D19 &amp; ".html"</f>
         <v>1078.html</v>
       </c>
       <c r="L19" s="12" t="s">
         <v>625</v>
       </c>
-      <c r="M19" s="12" t="s">
-        <v>558</v>
+      <c r="M19" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>111</v>
@@ -4343,7 +4336,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1078a.jpg</v>
       </c>
       <c r="S19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D19:D114 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1078b.jpg</v>
       </c>
     </row>
@@ -4366,29 +4359,29 @@
       <c r="F20" s="43" t="s">
         <v>656</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>116</v>
+      <c r="G20" s="5" t="s">
+        <v>559</v>
       </c>
       <c r="H20" s="5">
         <v>40.06</v>
       </c>
       <c r="I20" s="6">
+        <f t="shared" si="0"/>
+        <v>38.057000000000002</v>
+      </c>
+      <c r="J20" s="6">
         <f t="shared" si="1"/>
-        <v>38.057000000000002</v>
-      </c>
-      <c r="J20" s="6">
-        <f t="shared" si="2"/>
         <v>28.041999999999998</v>
       </c>
       <c r="K20" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D20 &amp; ".html"</f>
         <v>1013.html</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M20" s="5" t="s">
-        <v>559</v>
+      <c r="M20" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>117</v>
@@ -4403,7 +4396,7 @@
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D20:D115 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1013b.jpg</v>
       </c>
     </row>
@@ -4426,29 +4419,29 @@
       <c r="F21" s="43" t="s">
         <v>657</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>122</v>
+      <c r="G21" s="5" t="s">
+        <v>560</v>
       </c>
       <c r="H21" s="5">
         <v>72.680000000000007</v>
       </c>
       <c r="I21" s="6">
+        <f t="shared" si="0"/>
+        <v>69.046000000000006</v>
+      </c>
+      <c r="J21" s="6">
         <f t="shared" si="1"/>
-        <v>69.046000000000006</v>
-      </c>
-      <c r="J21" s="6">
-        <f t="shared" si="2"/>
         <v>50.876000000000005</v>
       </c>
       <c r="K21" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D21 &amp; ".html"</f>
         <v>1014.html</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M21" s="5" t="s">
-        <v>560</v>
+      <c r="M21" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>123</v>
@@ -4463,7 +4456,7 @@
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D21:D116 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1014b.jpg</v>
       </c>
     </row>
@@ -4486,29 +4479,29 @@
       <c r="F22" s="43" t="s">
         <v>658</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>128</v>
+      <c r="G22" s="5" t="s">
+        <v>561</v>
       </c>
       <c r="H22" s="5">
         <v>156.84</v>
       </c>
       <c r="I22" s="6">
+        <f t="shared" si="0"/>
+        <v>148.99799999999999</v>
+      </c>
+      <c r="J22" s="6">
         <f t="shared" si="1"/>
-        <v>148.99799999999999</v>
-      </c>
-      <c r="J22" s="6">
-        <f t="shared" si="2"/>
         <v>109.788</v>
       </c>
       <c r="K22" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D22 &amp; ".html"</f>
         <v>1015.html</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>561</v>
+      <c r="M22" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>129</v>
@@ -4526,7 +4519,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1015a.jpg</v>
       </c>
       <c r="S22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D22:D117 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1015b.jpg</v>
       </c>
     </row>
@@ -4549,29 +4542,29 @@
       <c r="F23" s="43" t="s">
         <v>659</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>134</v>
+      <c r="G23" s="5" t="s">
+        <v>562</v>
       </c>
       <c r="H23" s="5">
         <v>35.5</v>
       </c>
       <c r="I23" s="6">
+        <f t="shared" si="0"/>
+        <v>33.725000000000001</v>
+      </c>
+      <c r="J23" s="6">
         <f t="shared" si="1"/>
-        <v>33.725000000000001</v>
-      </c>
-      <c r="J23" s="6">
-        <f t="shared" si="2"/>
         <v>24.849999999999998</v>
       </c>
       <c r="K23" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D23 &amp; ".html"</f>
         <v>1016.html</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>562</v>
+      <c r="M23" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>135</v>
@@ -4586,7 +4579,7 @@
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D23:D118 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1016b.jpg</v>
       </c>
     </row>
@@ -4609,29 +4602,29 @@
       <c r="F24" s="43" t="s">
         <v>660</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>140</v>
+      <c r="G24" s="5" t="s">
+        <v>563</v>
       </c>
       <c r="H24" s="5">
         <v>34.909999999999997</v>
       </c>
       <c r="I24" s="6">
+        <f t="shared" si="0"/>
+        <v>33.164499999999997</v>
+      </c>
+      <c r="J24" s="6">
         <f t="shared" si="1"/>
-        <v>33.164499999999997</v>
-      </c>
-      <c r="J24" s="6">
-        <f t="shared" si="2"/>
         <v>24.436999999999998</v>
       </c>
       <c r="K24" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D24 &amp; ".html"</f>
         <v>1017.html</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M24" s="5" t="s">
-        <v>563</v>
+      <c r="M24" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>141</v>
@@ -4646,7 +4639,7 @@
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D24:D119 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1017b.jpg</v>
       </c>
     </row>
@@ -4669,29 +4662,29 @@
       <c r="F25" s="43" t="s">
         <v>661</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>146</v>
+      <c r="G25" s="5" t="s">
+        <v>564</v>
       </c>
       <c r="H25" s="5">
         <v>72.680000000000007</v>
       </c>
       <c r="I25" s="6">
+        <f t="shared" si="0"/>
+        <v>69.046000000000006</v>
+      </c>
+      <c r="J25" s="6">
         <f t="shared" si="1"/>
-        <v>69.046000000000006</v>
-      </c>
-      <c r="J25" s="6">
-        <f t="shared" si="2"/>
         <v>50.876000000000005</v>
       </c>
       <c r="K25" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D25 &amp; ".html"</f>
         <v>1018.html</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M25" s="5" t="s">
-        <v>564</v>
+      <c r="M25" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>147</v>
@@ -4706,7 +4699,7 @@
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D25:D120 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1018b.jpg</v>
       </c>
     </row>
@@ -4729,29 +4722,29 @@
       <c r="F26" s="43" t="s">
         <v>662</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>152</v>
+      <c r="G26" s="5" t="s">
+        <v>565</v>
       </c>
       <c r="H26" s="5">
         <v>54.94</v>
       </c>
       <c r="I26" s="6">
+        <f t="shared" si="0"/>
+        <v>52.192999999999998</v>
+      </c>
+      <c r="J26" s="6">
         <f t="shared" si="1"/>
-        <v>52.192999999999998</v>
-      </c>
-      <c r="J26" s="6">
-        <f t="shared" si="2"/>
         <v>38.457999999999998</v>
       </c>
       <c r="K26" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D26 &amp; ".html"</f>
         <v>1019.html</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M26" s="5" t="s">
-        <v>565</v>
+      <c r="M26" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>153</v>
@@ -4766,7 +4759,7 @@
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D26:D121 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1019b.jpg</v>
       </c>
     </row>
@@ -4789,29 +4782,29 @@
       <c r="F27" s="43" t="s">
         <v>663</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>158</v>
+      <c r="G27" s="5" t="s">
+        <v>566</v>
       </c>
       <c r="H27" s="5">
         <v>41.79</v>
       </c>
       <c r="I27" s="6">
+        <f t="shared" si="0"/>
+        <v>39.700499999999998</v>
+      </c>
+      <c r="J27" s="6">
         <f t="shared" si="1"/>
-        <v>39.700499999999998</v>
-      </c>
-      <c r="J27" s="6">
-        <f t="shared" si="2"/>
         <v>29.252999999999997</v>
       </c>
       <c r="K27" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D27 &amp; ".html"</f>
         <v>1020.html</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M27" s="5" t="s">
-        <v>566</v>
+      <c r="M27" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>159</v>
@@ -4823,7 +4816,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D27:D122 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1020b.jpg</v>
       </c>
     </row>
@@ -4846,29 +4839,29 @@
       <c r="F28" s="43" t="s">
         <v>664</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>164</v>
+      <c r="G28" s="5" t="s">
+        <v>567</v>
       </c>
       <c r="H28" s="5">
         <v>48.08</v>
       </c>
       <c r="I28" s="6">
+        <f t="shared" si="0"/>
+        <v>45.675999999999995</v>
+      </c>
+      <c r="J28" s="6">
         <f t="shared" si="1"/>
-        <v>45.675999999999995</v>
-      </c>
-      <c r="J28" s="6">
-        <f t="shared" si="2"/>
         <v>33.655999999999999</v>
       </c>
       <c r="K28" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D28 &amp; ".html"</f>
         <v>1021.html</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M28" s="5" t="s">
-        <v>567</v>
+      <c r="M28" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>165</v>
@@ -4883,7 +4876,7 @@
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D28:D123 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1021b.jpg</v>
       </c>
     </row>
@@ -4906,29 +4899,29 @@
       <c r="F29" s="23" t="s">
         <v>636</v>
       </c>
-      <c r="G29" s="17" t="s">
-        <v>170</v>
+      <c r="G29" s="18" t="s">
+        <v>568</v>
       </c>
       <c r="H29" s="18">
         <v>14.9</v>
       </c>
       <c r="I29" s="24">
+        <f t="shared" si="0"/>
+        <v>14.154999999999999</v>
+      </c>
+      <c r="J29" s="24">
         <f t="shared" si="1"/>
-        <v>14.154999999999999</v>
-      </c>
-      <c r="J29" s="24">
-        <f t="shared" si="2"/>
         <v>10.43</v>
       </c>
       <c r="K29" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>D29 &amp; ".html"</f>
         <v>1085.html</v>
       </c>
       <c r="L29" s="18" t="s">
         <v>625</v>
       </c>
-      <c r="M29" s="18" t="s">
-        <v>568</v>
+      <c r="M29" s="17" t="s">
+        <v>170</v>
       </c>
       <c r="N29" s="14" t="s">
         <v>171</v>
@@ -4943,7 +4936,7 @@
       </c>
       <c r="R29" s="14"/>
       <c r="S29" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D29:D124 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1085b.jpg</v>
       </c>
     </row>
@@ -4966,29 +4959,29 @@
       <c r="F30" s="43" t="s">
         <v>665</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>176</v>
+      <c r="G30" s="5" t="s">
+        <v>569</v>
       </c>
       <c r="H30" s="5">
         <v>84.69</v>
       </c>
       <c r="I30" s="6">
+        <f t="shared" si="0"/>
+        <v>80.455500000000001</v>
+      </c>
+      <c r="J30" s="6">
         <f t="shared" si="1"/>
-        <v>80.455500000000001</v>
-      </c>
-      <c r="J30" s="6">
-        <f t="shared" si="2"/>
         <v>59.282999999999994</v>
       </c>
       <c r="K30" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D30 &amp; ".html"</f>
         <v>1022.html</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M30" s="5" t="s">
-        <v>569</v>
+      <c r="M30" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>177</v>
@@ -5006,7 +4999,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1022a.jpg</v>
       </c>
       <c r="S30" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D30:D125 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1022b.jpg</v>
       </c>
     </row>
@@ -5029,29 +5022,29 @@
       <c r="F31" s="43" t="s">
         <v>666</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>182</v>
+      <c r="G31" s="5" t="s">
+        <v>570</v>
       </c>
       <c r="H31" s="5">
         <v>80.12</v>
       </c>
       <c r="I31" s="6">
+        <f t="shared" si="0"/>
+        <v>76.114000000000004</v>
+      </c>
+      <c r="J31" s="6">
         <f t="shared" si="1"/>
-        <v>76.114000000000004</v>
-      </c>
-      <c r="J31" s="6">
-        <f t="shared" si="2"/>
         <v>56.083999999999996</v>
       </c>
       <c r="K31" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D31 &amp; ".html"</f>
         <v>1023.html</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M31" s="5" t="s">
-        <v>570</v>
+      <c r="M31" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>183</v>
@@ -5066,7 +5059,7 @@
       </c>
       <c r="R31" s="1"/>
       <c r="S31" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D31:D126 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1023b.jpg</v>
       </c>
     </row>
@@ -5089,8 +5082,8 @@
       <c r="F32" s="19" t="s">
         <v>735</v>
       </c>
-      <c r="G32" s="17" t="s">
-        <v>737</v>
+      <c r="G32" s="26" t="s">
+        <v>739</v>
       </c>
       <c r="H32" s="47">
         <v>68.680000000000007</v>
@@ -5111,10 +5104,10 @@
         <v>625</v>
       </c>
       <c r="M32" s="49" t="s">
+        <v>737</v>
+      </c>
+      <c r="N32" s="49" t="s">
         <v>738</v>
-      </c>
-      <c r="N32" s="49" t="s">
-        <v>739</v>
       </c>
       <c r="O32" s="49" t="s">
         <v>734</v>
@@ -5145,29 +5138,29 @@
       <c r="F33" s="43" t="s">
         <v>667</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>188</v>
+      <c r="G33" s="5" t="s">
+        <v>571</v>
       </c>
       <c r="H33" s="5">
         <v>187.14</v>
       </c>
       <c r="I33" s="6">
+        <f t="shared" si="0"/>
+        <v>177.78299999999999</v>
+      </c>
+      <c r="J33" s="6">
         <f t="shared" si="1"/>
-        <v>177.78299999999999</v>
-      </c>
-      <c r="J33" s="6">
-        <f t="shared" si="2"/>
         <v>130.99799999999999</v>
       </c>
       <c r="K33" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D33 &amp; ".html"</f>
         <v>1024.html</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M33" s="5" t="s">
-        <v>571</v>
+      <c r="M33" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>189</v>
@@ -5185,7 +5178,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1024a.jpg</v>
       </c>
       <c r="S33" s="1" t="str">
-        <f t="shared" ref="S33:S75" si="5" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D33:D127 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D33:D127 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1024b.jpg</v>
       </c>
     </row>
@@ -5208,29 +5201,29 @@
       <c r="F34" s="43" t="s">
         <v>668</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>194</v>
+      <c r="G34" s="5" t="s">
+        <v>572</v>
       </c>
       <c r="H34" s="5">
         <v>60.68</v>
       </c>
       <c r="I34" s="6">
+        <f t="shared" si="0"/>
+        <v>57.645999999999994</v>
+      </c>
+      <c r="J34" s="6">
         <f t="shared" si="1"/>
-        <v>57.645999999999994</v>
-      </c>
-      <c r="J34" s="6">
-        <f t="shared" si="2"/>
         <v>42.475999999999999</v>
       </c>
       <c r="K34" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>D34 &amp; ".html"</f>
         <v>1025.html</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M34" s="5" t="s">
-        <v>572</v>
+      <c r="M34" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>195</v>
@@ -5248,7 +5241,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1025a.jpg</v>
       </c>
       <c r="S34" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D34:D128 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1025b.jpg</v>
       </c>
     </row>
@@ -5271,29 +5264,29 @@
       <c r="F35" s="43" t="s">
         <v>669</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>200</v>
+      <c r="G35" s="5" t="s">
+        <v>573</v>
       </c>
       <c r="H35" s="5">
         <v>75.58</v>
       </c>
       <c r="I35" s="6">
+        <f t="shared" si="0"/>
+        <v>71.801000000000002</v>
+      </c>
+      <c r="J35" s="6">
         <f t="shared" si="1"/>
-        <v>71.801000000000002</v>
-      </c>
-      <c r="J35" s="6">
-        <f t="shared" si="2"/>
         <v>52.905999999999999</v>
       </c>
       <c r="K35" s="5" t="str">
-        <f t="shared" ref="K35:K66" si="6">D35 &amp; ".html"</f>
+        <f>D35 &amp; ".html"</f>
         <v>1026.html</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M35" s="5" t="s">
-        <v>573</v>
+      <c r="M35" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>201</v>
@@ -5308,7 +5301,7 @@
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D35:D129 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1026b.jpg</v>
       </c>
     </row>
@@ -5331,29 +5324,29 @@
       <c r="F36" s="43" t="s">
         <v>670</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>206</v>
+      <c r="G36" s="5" t="s">
+        <v>574</v>
       </c>
       <c r="H36" s="5">
         <v>88.12</v>
       </c>
       <c r="I36" s="6">
+        <f t="shared" si="0"/>
+        <v>83.713999999999999</v>
+      </c>
+      <c r="J36" s="6">
         <f t="shared" si="1"/>
-        <v>83.713999999999999</v>
-      </c>
-      <c r="J36" s="6">
-        <f t="shared" si="2"/>
         <v>61.683999999999997</v>
       </c>
       <c r="K36" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D36 &amp; ".html"</f>
         <v>1027.html</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M36" s="5" t="s">
-        <v>574</v>
+      <c r="M36" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>207</v>
@@ -5371,7 +5364,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1027a.jpg</v>
       </c>
       <c r="S36" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D36:D130 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1027b.jpg</v>
       </c>
     </row>
@@ -5394,29 +5387,29 @@
       <c r="F37" s="43" t="s">
         <v>671</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>212</v>
+      <c r="G37" s="5" t="s">
+        <v>575</v>
       </c>
       <c r="H37" s="5">
         <v>68.680000000000007</v>
       </c>
       <c r="I37" s="6">
+        <f t="shared" si="0"/>
+        <v>65.246000000000009</v>
+      </c>
+      <c r="J37" s="6">
         <f t="shared" si="1"/>
-        <v>65.246000000000009</v>
-      </c>
-      <c r="J37" s="6">
-        <f t="shared" si="2"/>
         <v>48.076000000000001</v>
       </c>
       <c r="K37" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D37 &amp; ".html"</f>
         <v>1028.html</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M37" s="5" t="s">
-        <v>575</v>
+      <c r="M37" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>213</v>
@@ -5431,7 +5424,7 @@
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D37:D131 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1028b.jpg</v>
       </c>
     </row>
@@ -5454,29 +5447,29 @@
       <c r="F38" s="43" t="s">
         <v>672</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>218</v>
+      <c r="G38" s="5" t="s">
+        <v>576</v>
       </c>
       <c r="H38" s="5">
         <v>72.680000000000007</v>
       </c>
       <c r="I38" s="6">
+        <f t="shared" si="0"/>
+        <v>69.046000000000006</v>
+      </c>
+      <c r="J38" s="6">
         <f t="shared" si="1"/>
-        <v>69.046000000000006</v>
-      </c>
-      <c r="J38" s="6">
-        <f t="shared" si="2"/>
         <v>50.876000000000005</v>
       </c>
       <c r="K38" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D38 &amp; ".html"</f>
         <v>1029.html</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M38" s="5" t="s">
-        <v>576</v>
+      <c r="M38" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>219</v>
@@ -5491,7 +5484,7 @@
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D38:D132 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1029b.jpg</v>
       </c>
     </row>
@@ -5514,29 +5507,29 @@
       <c r="F39" s="43" t="s">
         <v>673</v>
       </c>
-      <c r="G39" s="38" t="s">
-        <v>224</v>
+      <c r="G39" s="21" t="s">
+        <v>577</v>
       </c>
       <c r="H39" s="21">
         <v>118.46</v>
       </c>
       <c r="I39" s="40">
+        <f t="shared" si="0"/>
+        <v>112.53699999999999</v>
+      </c>
+      <c r="J39" s="40">
         <f t="shared" si="1"/>
-        <v>112.53699999999999</v>
-      </c>
-      <c r="J39" s="40">
-        <f t="shared" si="2"/>
         <v>82.921999999999997</v>
       </c>
       <c r="K39" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>D39 &amp; ".html"</f>
         <v>1030.html</v>
       </c>
       <c r="L39" s="21" t="s">
         <v>625</v>
       </c>
-      <c r="M39" s="21" t="s">
-        <v>577</v>
+      <c r="M39" s="38" t="s">
+        <v>224</v>
       </c>
       <c r="N39" s="20" t="s">
         <v>225</v>
@@ -5554,7 +5547,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1030a.jpg</v>
       </c>
       <c r="S39" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D39:D133 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1030b.jpg</v>
       </c>
     </row>
@@ -5577,29 +5570,29 @@
       <c r="F40" s="43" t="s">
         <v>674</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>230</v>
+      <c r="G40" s="5" t="s">
+        <v>578</v>
       </c>
       <c r="H40" s="5">
         <v>36.61</v>
       </c>
       <c r="I40" s="6">
+        <f t="shared" si="0"/>
+        <v>34.779499999999999</v>
+      </c>
+      <c r="J40" s="6">
         <f t="shared" si="1"/>
-        <v>34.779499999999999</v>
-      </c>
-      <c r="J40" s="6">
-        <f t="shared" si="2"/>
         <v>25.626999999999999</v>
       </c>
       <c r="K40" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D40 &amp; ".html"</f>
         <v>1031.html</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M40" s="5" t="s">
-        <v>578</v>
+      <c r="M40" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>231</v>
@@ -5617,7 +5610,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1031a.jpg</v>
       </c>
       <c r="S40" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D40:D134 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1031b.jpg</v>
       </c>
     </row>
@@ -5640,29 +5633,29 @@
       <c r="F41" s="43" t="s">
         <v>675</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>236</v>
+      <c r="G41" s="5" t="s">
+        <v>579</v>
       </c>
       <c r="H41" s="5">
         <v>41.79</v>
       </c>
       <c r="I41" s="6">
+        <f t="shared" si="0"/>
+        <v>39.700499999999998</v>
+      </c>
+      <c r="J41" s="6">
         <f t="shared" si="1"/>
-        <v>39.700499999999998</v>
-      </c>
-      <c r="J41" s="6">
-        <f t="shared" si="2"/>
         <v>29.252999999999997</v>
       </c>
       <c r="K41" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D41 &amp; ".html"</f>
         <v>1032.html</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M41" s="5" t="s">
-        <v>579</v>
+      <c r="M41" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>237</v>
@@ -5680,7 +5673,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1032a.jpg</v>
       </c>
       <c r="S41" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D41:D135 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1032b.jpg</v>
       </c>
     </row>
@@ -5703,29 +5696,29 @@
       <c r="F42" s="43" t="s">
         <v>676</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>242</v>
+      <c r="G42" s="5" t="s">
+        <v>580</v>
       </c>
       <c r="H42" s="5">
         <v>49.78</v>
       </c>
       <c r="I42" s="6">
+        <f t="shared" si="0"/>
+        <v>47.290999999999997</v>
+      </c>
+      <c r="J42" s="6">
         <f t="shared" si="1"/>
-        <v>47.290999999999997</v>
-      </c>
-      <c r="J42" s="6">
-        <f t="shared" si="2"/>
         <v>34.845999999999997</v>
       </c>
       <c r="K42" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D42 &amp; ".html"</f>
         <v>1033.html</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M42" s="5" t="s">
-        <v>580</v>
+      <c r="M42" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>243</v>
@@ -5743,7 +5736,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1033a.jpg</v>
       </c>
       <c r="S42" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D42:D136 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1033b.jpg</v>
       </c>
     </row>
@@ -5766,29 +5759,29 @@
       <c r="F43" s="43" t="s">
         <v>677</v>
       </c>
-      <c r="G43" s="11" t="s">
-        <v>248</v>
+      <c r="G43" s="12" t="s">
+        <v>581</v>
       </c>
       <c r="H43" s="12">
         <v>72.680000000000007</v>
       </c>
       <c r="I43" s="6">
+        <f t="shared" si="0"/>
+        <v>69.046000000000006</v>
+      </c>
+      <c r="J43" s="6">
         <f t="shared" si="1"/>
-        <v>69.046000000000006</v>
-      </c>
-      <c r="J43" s="6">
-        <f t="shared" si="2"/>
         <v>50.876000000000005</v>
       </c>
       <c r="K43" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D43 &amp; ".html"</f>
         <v>1077.html</v>
       </c>
       <c r="L43" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="M43" s="12" t="s">
-        <v>581</v>
+      <c r="M43" s="11" t="s">
+        <v>248</v>
       </c>
       <c r="N43" s="8" t="s">
         <v>249</v>
@@ -5806,7 +5799,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1077a.jpg</v>
       </c>
       <c r="S43" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D43:D137 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1077b.jpg</v>
       </c>
     </row>
@@ -5829,29 +5822,29 @@
       <c r="F44" s="43" t="s">
         <v>678</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>254</v>
+      <c r="G44" s="5" t="s">
+        <v>582</v>
       </c>
       <c r="H44" s="5">
         <v>8</v>
       </c>
       <c r="I44" s="6">
+        <f t="shared" si="0"/>
+        <v>7.6</v>
+      </c>
+      <c r="J44" s="6">
         <f t="shared" si="1"/>
-        <v>7.6</v>
-      </c>
-      <c r="J44" s="6">
-        <f t="shared" si="2"/>
         <v>5.6</v>
       </c>
       <c r="K44" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D44 &amp; ".html"</f>
         <v>1034.html</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M44" s="5" t="s">
-        <v>582</v>
+      <c r="M44" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>255</v>
@@ -5866,7 +5859,7 @@
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D44:D138 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1034b.jpg</v>
       </c>
     </row>
@@ -5889,29 +5882,29 @@
       <c r="F45" s="43" t="s">
         <v>679</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>260</v>
+      <c r="G45" s="5" t="s">
+        <v>583</v>
       </c>
       <c r="H45" s="5">
         <v>36.08</v>
       </c>
       <c r="I45" s="6">
+        <f t="shared" si="0"/>
+        <v>34.275999999999996</v>
+      </c>
+      <c r="J45" s="6">
         <f t="shared" si="1"/>
-        <v>34.275999999999996</v>
-      </c>
-      <c r="J45" s="6">
-        <f t="shared" si="2"/>
         <v>25.255999999999997</v>
       </c>
       <c r="K45" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D45 &amp; ".html"</f>
         <v>1035.html</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M45" s="5" t="s">
-        <v>583</v>
+      <c r="M45" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>261</v>
@@ -5926,7 +5919,7 @@
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D45:D139 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1035b.jpg</v>
       </c>
     </row>
@@ -5949,29 +5942,29 @@
       <c r="F46" s="43" t="s">
         <v>680</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>266</v>
+      <c r="G46" s="5" t="s">
+        <v>584</v>
       </c>
       <c r="H46" s="5">
         <v>400.64</v>
       </c>
       <c r="I46" s="6">
+        <f t="shared" si="0"/>
+        <v>380.60799999999995</v>
+      </c>
+      <c r="J46" s="6">
         <f t="shared" si="1"/>
-        <v>380.60799999999995</v>
-      </c>
-      <c r="J46" s="6">
-        <f t="shared" si="2"/>
         <v>280.44799999999998</v>
       </c>
       <c r="K46" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D46 &amp; ".html"</f>
         <v>1036.html</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M46" s="5" t="s">
-        <v>584</v>
+      <c r="M46" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -5985,7 +5978,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1036a.jpg</v>
       </c>
       <c r="S46" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D46:D140 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1036b.jpg</v>
       </c>
     </row>
@@ -6008,29 +6001,29 @@
       <c r="F47" s="43" t="s">
         <v>681</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>270</v>
+      <c r="G47" s="5" t="s">
+        <v>585</v>
       </c>
       <c r="H47" s="5">
         <v>80.12</v>
       </c>
       <c r="I47" s="6">
+        <f t="shared" si="0"/>
+        <v>76.114000000000004</v>
+      </c>
+      <c r="J47" s="6">
         <f t="shared" si="1"/>
-        <v>76.114000000000004</v>
-      </c>
-      <c r="J47" s="6">
-        <f t="shared" si="2"/>
         <v>56.083999999999996</v>
       </c>
       <c r="K47" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D47 &amp; ".html"</f>
         <v>1037.html</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>585</v>
+      <c r="M47" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>271</v>
@@ -6048,7 +6041,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1037a.jpg</v>
       </c>
       <c r="S47" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D47:D141 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1037b.jpg</v>
       </c>
     </row>
@@ -6071,29 +6064,29 @@
       <c r="F48" s="43" t="s">
         <v>682</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>276</v>
+      <c r="G48" s="5" t="s">
+        <v>586</v>
       </c>
       <c r="H48" s="5">
         <v>119.05</v>
       </c>
       <c r="I48" s="6">
+        <f t="shared" si="0"/>
+        <v>113.0975</v>
+      </c>
+      <c r="J48" s="6">
         <f t="shared" si="1"/>
-        <v>113.0975</v>
-      </c>
-      <c r="J48" s="6">
-        <f t="shared" si="2"/>
         <v>83.334999999999994</v>
       </c>
       <c r="K48" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D48 &amp; ".html"</f>
         <v>1038.html</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M48" s="5" t="s">
-        <v>586</v>
+      <c r="M48" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>277</v>
@@ -6108,7 +6101,7 @@
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D48:D142 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1038b.jpg</v>
       </c>
     </row>
@@ -6131,29 +6124,29 @@
       <c r="F49" s="43" t="s">
         <v>683</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>282</v>
+      <c r="G49" s="5" t="s">
+        <v>587</v>
       </c>
       <c r="H49" s="5">
         <v>60.11</v>
       </c>
       <c r="I49" s="6">
+        <f t="shared" si="0"/>
+        <v>57.104499999999994</v>
+      </c>
+      <c r="J49" s="6">
         <f t="shared" si="1"/>
-        <v>57.104499999999994</v>
-      </c>
-      <c r="J49" s="6">
-        <f t="shared" si="2"/>
         <v>42.076999999999998</v>
       </c>
       <c r="K49" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D49 &amp; ".html"</f>
         <v>1039.html</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M49" s="5" t="s">
-        <v>587</v>
+      <c r="M49" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>283</v>
@@ -6163,15 +6156,15 @@
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="3" t="str">
-        <f t="shared" ref="Q49" si="7" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D49:D98 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D49:D98 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1039.jpg</v>
       </c>
       <c r="R49" s="1" t="str">
-        <f t="shared" ref="R49" si="8" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D49:D98 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D49:D98 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1039a.jpg</v>
       </c>
       <c r="S49" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D49:D143 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1039b.jpg</v>
       </c>
     </row>
@@ -6194,29 +6187,29 @@
       <c r="F50" s="43" t="s">
         <v>684</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>288</v>
+      <c r="G50" s="5" t="s">
+        <v>588</v>
       </c>
       <c r="H50" s="5">
         <v>132.77000000000001</v>
       </c>
       <c r="I50" s="6">
+        <f t="shared" si="0"/>
+        <v>126.1315</v>
+      </c>
+      <c r="J50" s="6">
         <f t="shared" si="1"/>
-        <v>126.1315</v>
-      </c>
-      <c r="J50" s="6">
-        <f t="shared" si="2"/>
         <v>92.939000000000007</v>
       </c>
       <c r="K50" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D50 &amp; ".html"</f>
         <v>1040.html</v>
       </c>
       <c r="L50" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M50" s="5" t="s">
-        <v>588</v>
+      <c r="M50" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>289</v>
@@ -6226,15 +6219,15 @@
       </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="3" t="str">
-        <f t="shared" ref="Q50:Q68" si="9" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D50:D98 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D50:D98 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1040.jpg</v>
       </c>
       <c r="R50" s="1" t="str">
-        <f t="shared" ref="R50:R64" si="10" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D50:D98 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D50:D98 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1040a.jpg</v>
       </c>
       <c r="S50" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D50:D144 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1040b.jpg</v>
       </c>
     </row>
@@ -6257,29 +6250,29 @@
       <c r="F51" s="43" t="s">
         <v>685</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>294</v>
+      <c r="G51" s="5" t="s">
+        <v>589</v>
       </c>
       <c r="H51" s="5">
         <v>83.57</v>
       </c>
       <c r="I51" s="6">
+        <f t="shared" si="0"/>
+        <v>79.391499999999994</v>
+      </c>
+      <c r="J51" s="6">
         <f t="shared" si="1"/>
-        <v>79.391499999999994</v>
-      </c>
-      <c r="J51" s="6">
-        <f t="shared" si="2"/>
         <v>58.498999999999988</v>
       </c>
       <c r="K51" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D51 &amp; ".html"</f>
         <v>1041.html</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M51" s="5" t="s">
-        <v>589</v>
+      <c r="M51" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>295</v>
@@ -6289,15 +6282,15 @@
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D51:D99 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1041.jpg</v>
       </c>
       <c r="R51" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D51:D99 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1041a.jpg</v>
       </c>
       <c r="S51" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D51:D145 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1041b.jpg</v>
       </c>
     </row>
@@ -6320,29 +6313,29 @@
       <c r="F52" s="43" t="s">
         <v>686</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>300</v>
+      <c r="G52" s="5" t="s">
+        <v>590</v>
       </c>
       <c r="H52" s="5">
         <v>41.79</v>
       </c>
       <c r="I52" s="6">
+        <f t="shared" si="0"/>
+        <v>39.700499999999998</v>
+      </c>
+      <c r="J52" s="6">
         <f t="shared" si="1"/>
-        <v>39.700499999999998</v>
-      </c>
-      <c r="J52" s="6">
-        <f t="shared" si="2"/>
         <v>29.252999999999997</v>
       </c>
       <c r="K52" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D52 &amp; ".html"</f>
         <v>1042.html</v>
       </c>
       <c r="L52" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M52" s="5" t="s">
-        <v>590</v>
+      <c r="M52" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>301</v>
@@ -6352,15 +6345,15 @@
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D52:D100 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1042.jpg</v>
       </c>
       <c r="R52" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D52:D100 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1042a.jpg</v>
       </c>
       <c r="S52" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D52:D146 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1042b.jpg</v>
       </c>
     </row>
@@ -6383,43 +6376,43 @@
       <c r="F53" s="43" t="s">
         <v>687</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>306</v>
+      <c r="G53" s="5" t="s">
+        <v>591</v>
       </c>
       <c r="H53" s="5">
         <v>195.18</v>
       </c>
       <c r="I53" s="6">
+        <f t="shared" si="0"/>
+        <v>185.42099999999999</v>
+      </c>
+      <c r="J53" s="6">
         <f t="shared" si="1"/>
-        <v>185.42099999999999</v>
-      </c>
-      <c r="J53" s="6">
-        <f t="shared" si="2"/>
         <v>136.626</v>
       </c>
       <c r="K53" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D53 &amp; ".html"</f>
         <v>1043.html</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M53" s="5" t="s">
-        <v>591</v>
+      <c r="M53" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D53:D101 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1043.jpg</v>
       </c>
       <c r="R53" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D53:D101 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1043a.jpg</v>
       </c>
       <c r="S53" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D53:D147 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1043b.jpg</v>
       </c>
     </row>
@@ -6442,29 +6435,29 @@
       <c r="F54" s="43" t="s">
         <v>688</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>310</v>
+      <c r="G54" s="5" t="s">
+        <v>592</v>
       </c>
       <c r="H54" s="5">
         <v>50.92</v>
       </c>
       <c r="I54" s="6">
+        <f t="shared" si="0"/>
+        <v>48.374000000000002</v>
+      </c>
+      <c r="J54" s="6">
         <f t="shared" si="1"/>
-        <v>48.374000000000002</v>
-      </c>
-      <c r="J54" s="6">
-        <f t="shared" si="2"/>
         <v>35.643999999999998</v>
       </c>
       <c r="K54" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D54 &amp; ".html"</f>
         <v>1044.html</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M54" s="5" t="s">
-        <v>592</v>
+      <c r="M54" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>311</v>
@@ -6474,15 +6467,15 @@
       </c>
       <c r="P54" s="1"/>
       <c r="Q54" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D54:D102 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1044.jpg</v>
       </c>
       <c r="R54" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D54:D102 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1044a.jpg</v>
       </c>
       <c r="S54" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D54:D148 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1044b.jpg</v>
       </c>
     </row>
@@ -6505,29 +6498,29 @@
       <c r="F55" s="43" t="s">
         <v>689</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>316</v>
+      <c r="G55" s="5" t="s">
+        <v>593</v>
       </c>
       <c r="H55" s="5">
         <v>53.82</v>
       </c>
       <c r="I55" s="6">
+        <f t="shared" si="0"/>
+        <v>51.128999999999998</v>
+      </c>
+      <c r="J55" s="6">
         <f t="shared" si="1"/>
-        <v>51.128999999999998</v>
-      </c>
-      <c r="J55" s="6">
-        <f t="shared" si="2"/>
         <v>37.673999999999999</v>
       </c>
       <c r="K55" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D55 &amp; ".html"</f>
         <v>1045.html</v>
       </c>
       <c r="L55" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M55" s="5" t="s">
-        <v>593</v>
+      <c r="M55" s="4" t="s">
+        <v>316</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>317</v>
@@ -6537,15 +6530,15 @@
       </c>
       <c r="P55" s="1"/>
       <c r="Q55" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D55:D103 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1045.jpg</v>
       </c>
       <c r="R55" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D55:D103 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1045a.jpg</v>
       </c>
       <c r="S55" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D55:D149 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1045b.jpg</v>
       </c>
     </row>
@@ -6568,29 +6561,29 @@
       <c r="F56" s="43" t="s">
         <v>690</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>322</v>
+      <c r="G56" s="5" t="s">
+        <v>594</v>
       </c>
       <c r="H56" s="5">
         <v>53.82</v>
       </c>
       <c r="I56" s="6">
+        <f t="shared" si="0"/>
+        <v>51.128999999999998</v>
+      </c>
+      <c r="J56" s="6">
         <f t="shared" si="1"/>
-        <v>51.128999999999998</v>
-      </c>
-      <c r="J56" s="6">
-        <f t="shared" si="2"/>
         <v>37.673999999999999</v>
       </c>
       <c r="K56" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D56 &amp; ".html"</f>
         <v>1046.html</v>
       </c>
       <c r="L56" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M56" s="5" t="s">
-        <v>594</v>
+      <c r="M56" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>323</v>
@@ -6600,15 +6593,15 @@
       </c>
       <c r="P56" s="1"/>
       <c r="Q56" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D56:D104 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1046.jpg</v>
       </c>
       <c r="R56" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D56:D104 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1046a.jpg</v>
       </c>
       <c r="S56" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D56:D150 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1046b.jpg</v>
       </c>
     </row>
@@ -6631,29 +6624,29 @@
       <c r="F57" s="43" t="s">
         <v>691</v>
       </c>
-      <c r="G57" s="38" t="s">
-        <v>328</v>
+      <c r="G57" s="21" t="s">
+        <v>595</v>
       </c>
       <c r="H57" s="21">
         <v>58.96</v>
       </c>
       <c r="I57" s="40">
+        <f t="shared" si="0"/>
+        <v>56.012</v>
+      </c>
+      <c r="J57" s="40">
         <f t="shared" si="1"/>
-        <v>56.012</v>
-      </c>
-      <c r="J57" s="40">
-        <f t="shared" si="2"/>
         <v>41.271999999999998</v>
       </c>
       <c r="K57" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>D57 &amp; ".html"</f>
         <v>1047.html</v>
       </c>
       <c r="L57" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="M57" s="21" t="s">
-        <v>595</v>
+      <c r="M57" s="38" t="s">
+        <v>328</v>
       </c>
       <c r="N57" s="20" t="s">
         <v>329</v>
@@ -6663,15 +6656,15 @@
       </c>
       <c r="P57" s="20"/>
       <c r="Q57" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D57:D105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1047.jpg</v>
       </c>
       <c r="R57" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D57:D105 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1047a.jpg</v>
       </c>
       <c r="S57" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D57:D151 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1047b.jpg</v>
       </c>
     </row>
@@ -6694,29 +6687,29 @@
       <c r="F58" s="43" t="s">
         <v>692</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>334</v>
+      <c r="G58" s="5" t="s">
+        <v>596</v>
       </c>
       <c r="H58" s="5">
         <v>34.340000000000003</v>
       </c>
       <c r="I58" s="6">
+        <f t="shared" si="0"/>
+        <v>32.623000000000005</v>
+      </c>
+      <c r="J58" s="6">
         <f t="shared" si="1"/>
-        <v>32.623000000000005</v>
-      </c>
-      <c r="J58" s="6">
-        <f t="shared" si="2"/>
         <v>24.038</v>
       </c>
       <c r="K58" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D58 &amp; ".html"</f>
         <v>1048.html</v>
       </c>
       <c r="L58" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="M58" s="5" t="s">
-        <v>596</v>
+      <c r="M58" s="4" t="s">
+        <v>334</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>335</v>
@@ -6726,15 +6719,15 @@
       </c>
       <c r="P58" s="1"/>
       <c r="Q58" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D58:D106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1048.jpg</v>
       </c>
       <c r="R58" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D58:D106 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1048a.jpg</v>
       </c>
       <c r="S58" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D58:D152 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1048b.jpg</v>
       </c>
     </row>
@@ -6757,29 +6750,29 @@
       <c r="F59" s="43" t="s">
         <v>693</v>
       </c>
-      <c r="G59" s="4" t="s">
-        <v>340</v>
+      <c r="G59" s="5" t="s">
+        <v>597</v>
       </c>
       <c r="H59" s="5">
         <v>34.340000000000003</v>
       </c>
       <c r="I59" s="6">
+        <f t="shared" si="0"/>
+        <v>32.623000000000005</v>
+      </c>
+      <c r="J59" s="6">
         <f t="shared" si="1"/>
-        <v>32.623000000000005</v>
-      </c>
-      <c r="J59" s="6">
-        <f t="shared" si="2"/>
         <v>24.038</v>
       </c>
       <c r="K59" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D59 &amp; ".html"</f>
         <v>1049.html</v>
       </c>
       <c r="L59" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="M59" s="5" t="s">
-        <v>597</v>
+      <c r="M59" s="4" t="s">
+        <v>340</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>341</v>
@@ -6789,15 +6782,15 @@
       </c>
       <c r="P59" s="1"/>
       <c r="Q59" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D59:D107 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1049.jpg</v>
       </c>
       <c r="R59" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D59:D107 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1049a.jpg</v>
       </c>
       <c r="S59" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D59:D153 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1049b.jpg</v>
       </c>
     </row>
@@ -6820,29 +6813,29 @@
       <c r="F60" s="43" t="s">
         <v>694</v>
       </c>
-      <c r="G60" s="4" t="s">
-        <v>346</v>
+      <c r="G60" s="5" t="s">
+        <v>598</v>
       </c>
       <c r="H60" s="5">
         <v>45.24</v>
       </c>
       <c r="I60" s="6">
+        <f t="shared" si="0"/>
+        <v>42.978000000000002</v>
+      </c>
+      <c r="J60" s="6">
         <f t="shared" si="1"/>
-        <v>42.978000000000002</v>
-      </c>
-      <c r="J60" s="6">
-        <f t="shared" si="2"/>
         <v>31.667999999999999</v>
       </c>
       <c r="K60" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D60 &amp; ".html"</f>
         <v>1050.html</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="M60" s="5" t="s">
-        <v>598</v>
+      <c r="M60" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>347</v>
@@ -6852,15 +6845,15 @@
       </c>
       <c r="P60" s="1"/>
       <c r="Q60" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D60:D108 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1050.jpg</v>
       </c>
       <c r="R60" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D60:D108 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1050a.jpg</v>
       </c>
       <c r="S60" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D60:D154 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1050b.jpg</v>
       </c>
     </row>
@@ -6883,29 +6876,29 @@
       <c r="F61" s="43" t="s">
         <v>695</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>352</v>
+      <c r="G61" s="5" t="s">
+        <v>599</v>
       </c>
       <c r="H61" s="5">
         <v>52.68</v>
       </c>
       <c r="I61" s="6">
+        <f t="shared" si="0"/>
+        <v>50.045999999999999</v>
+      </c>
+      <c r="J61" s="6">
         <f t="shared" si="1"/>
-        <v>50.045999999999999</v>
-      </c>
-      <c r="J61" s="6">
-        <f t="shared" si="2"/>
         <v>36.875999999999998</v>
       </c>
       <c r="K61" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D61 &amp; ".html"</f>
         <v>1051.html</v>
       </c>
       <c r="L61" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="M61" s="5" t="s">
-        <v>599</v>
+      <c r="M61" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>353</v>
@@ -6915,15 +6908,15 @@
       </c>
       <c r="P61" s="1"/>
       <c r="Q61" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D61:D109 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1051.jpg</v>
       </c>
       <c r="R61" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D61:D109 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1051a.jpg</v>
       </c>
       <c r="S61" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D61:D155 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1051b.jpg</v>
       </c>
     </row>
@@ -6946,29 +6939,29 @@
       <c r="F62" s="43" t="s">
         <v>696</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>358</v>
+      <c r="G62" s="5" t="s">
+        <v>600</v>
       </c>
       <c r="H62" s="5">
         <v>45.24</v>
       </c>
       <c r="I62" s="6">
+        <f t="shared" si="0"/>
+        <v>42.978000000000002</v>
+      </c>
+      <c r="J62" s="6">
         <f t="shared" si="1"/>
-        <v>42.978000000000002</v>
-      </c>
-      <c r="J62" s="6">
-        <f t="shared" si="2"/>
         <v>31.667999999999999</v>
       </c>
       <c r="K62" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D62 &amp; ".html"</f>
         <v>1052.html</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="M62" s="5" t="s">
-        <v>600</v>
+      <c r="M62" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>359</v>
@@ -6978,15 +6971,15 @@
       </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D62:D110 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1052.jpg</v>
       </c>
       <c r="R62" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D62:D110 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1052a.jpg</v>
       </c>
       <c r="S62" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D62:D156 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1052b.jpg</v>
       </c>
     </row>
@@ -7009,29 +7002,29 @@
       <c r="F63" s="43" t="s">
         <v>697</v>
       </c>
-      <c r="G63" s="4" t="s">
-        <v>364</v>
+      <c r="G63" s="5" t="s">
+        <v>601</v>
       </c>
       <c r="H63" s="5">
         <v>47.53</v>
       </c>
       <c r="I63" s="6">
+        <f t="shared" si="0"/>
+        <v>45.153500000000001</v>
+      </c>
+      <c r="J63" s="6">
         <f t="shared" si="1"/>
-        <v>45.153500000000001</v>
-      </c>
-      <c r="J63" s="6">
-        <f t="shared" si="2"/>
         <v>33.271000000000001</v>
       </c>
       <c r="K63" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D63 &amp; ".html"</f>
         <v>1053.html</v>
       </c>
       <c r="L63" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="M63" s="5" t="s">
-        <v>601</v>
+      <c r="M63" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>365</v>
@@ -7041,15 +7034,15 @@
       </c>
       <c r="P63" s="1"/>
       <c r="Q63" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D63:D111 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1053.jpg</v>
       </c>
       <c r="R63" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D63:D111 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1053a.jpg</v>
       </c>
       <c r="S63" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D63:D157 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1053b.jpg</v>
       </c>
     </row>
@@ -7072,29 +7065,29 @@
       <c r="F64" s="43" t="s">
         <v>698</v>
       </c>
-      <c r="G64" s="38" t="s">
-        <v>369</v>
+      <c r="G64" s="21" t="s">
+        <v>602</v>
       </c>
       <c r="H64" s="21">
         <v>34.340000000000003</v>
       </c>
       <c r="I64" s="40">
+        <f t="shared" si="0"/>
+        <v>32.623000000000005</v>
+      </c>
+      <c r="J64" s="40">
         <f t="shared" si="1"/>
-        <v>32.623000000000005</v>
-      </c>
-      <c r="J64" s="40">
-        <f t="shared" si="2"/>
         <v>24.038</v>
       </c>
       <c r="K64" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>D64 &amp; ".html"</f>
         <v>1054.html</v>
       </c>
       <c r="L64" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="M64" s="21" t="s">
-        <v>602</v>
+      <c r="M64" s="38" t="s">
+        <v>369</v>
       </c>
       <c r="N64" s="20" t="s">
         <v>370</v>
@@ -7104,15 +7097,15 @@
       </c>
       <c r="P64" s="20"/>
       <c r="Q64" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D64:D112 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1054.jpg</v>
       </c>
       <c r="R64" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D64:D112 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1054a.jpg</v>
       </c>
       <c r="S64" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D64:D158 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1054b.jpg</v>
       </c>
     </row>
@@ -7135,29 +7128,29 @@
       <c r="F65" s="43" t="s">
         <v>699</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>375</v>
+      <c r="G65" s="5" t="s">
+        <v>603</v>
       </c>
       <c r="H65" s="5">
         <v>13.76</v>
       </c>
       <c r="I65" s="6">
+        <f t="shared" si="0"/>
+        <v>13.071999999999999</v>
+      </c>
+      <c r="J65" s="6">
         <f t="shared" si="1"/>
-        <v>13.071999999999999</v>
-      </c>
-      <c r="J65" s="6">
-        <f t="shared" si="2"/>
         <v>9.6319999999999997</v>
       </c>
       <c r="K65" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D65 &amp; ".html"</f>
         <v>1055.html</v>
       </c>
       <c r="L65" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="M65" s="5" t="s">
-        <v>603</v>
+      <c r="M65" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>376</v>
@@ -7167,12 +7160,12 @@
       </c>
       <c r="P65" s="1"/>
       <c r="Q65" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D65:D113 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1055.jpg</v>
       </c>
       <c r="R65" s="1"/>
       <c r="S65" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D65:D159 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1055b.jpg</v>
       </c>
     </row>
@@ -7195,29 +7188,29 @@
       <c r="F66" s="43" t="s">
         <v>700</v>
       </c>
-      <c r="G66" s="11" t="s">
-        <v>381</v>
+      <c r="G66" s="12" t="s">
+        <v>604</v>
       </c>
       <c r="H66" s="12">
         <v>76.69</v>
       </c>
       <c r="I66" s="6">
+        <f t="shared" si="0"/>
+        <v>72.855499999999992</v>
+      </c>
+      <c r="J66" s="6">
         <f t="shared" si="1"/>
-        <v>72.855499999999992</v>
-      </c>
-      <c r="J66" s="6">
-        <f t="shared" si="2"/>
         <v>53.682999999999993</v>
       </c>
       <c r="K66" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f>D66 &amp; ".html"</f>
         <v>1079.html</v>
       </c>
       <c r="L66" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="M66" s="12" t="s">
-        <v>604</v>
+      <c r="M66" s="11" t="s">
+        <v>381</v>
       </c>
       <c r="N66" s="8" t="s">
         <v>382</v>
@@ -7227,7 +7220,7 @@
       </c>
       <c r="P66" s="8"/>
       <c r="Q66" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D66:D114 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1079.jpg</v>
       </c>
       <c r="R66" s="8" t="str">
@@ -7235,7 +7228,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1079a.jpg</v>
       </c>
       <c r="S66" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D66:D160 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1079b.jpg</v>
       </c>
     </row>
@@ -7258,29 +7251,29 @@
       <c r="F67" s="43" t="s">
         <v>701</v>
       </c>
-      <c r="G67" s="11" t="s">
-        <v>387</v>
+      <c r="G67" s="12" t="s">
+        <v>604</v>
       </c>
       <c r="H67" s="12">
         <v>76.69</v>
       </c>
       <c r="I67" s="6">
+        <f t="shared" si="0"/>
+        <v>72.855499999999992</v>
+      </c>
+      <c r="J67" s="6">
         <f t="shared" si="1"/>
-        <v>72.855499999999992</v>
-      </c>
-      <c r="J67" s="6">
-        <f t="shared" si="2"/>
         <v>53.682999999999993</v>
       </c>
       <c r="K67" s="5" t="str">
-        <f t="shared" ref="K67:K98" si="11">D67 &amp; ".html"</f>
+        <f>D67 &amp; ".html"</f>
         <v>1080.html</v>
       </c>
       <c r="L67" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="M67" s="12" t="s">
-        <v>604</v>
+      <c r="M67" s="11" t="s">
+        <v>387</v>
       </c>
       <c r="N67" s="8" t="s">
         <v>388</v>
@@ -7290,7 +7283,7 @@
       </c>
       <c r="P67" s="8"/>
       <c r="Q67" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D67:D115 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1080.jpg</v>
       </c>
       <c r="R67" s="8" t="str">
@@ -7298,7 +7291,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1080a.jpg</v>
       </c>
       <c r="S67" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D67:D161 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1080b.jpg</v>
       </c>
     </row>
@@ -7321,29 +7314,29 @@
       <c r="F68" s="43" t="s">
         <v>702</v>
       </c>
-      <c r="G68" s="11" t="s">
-        <v>392</v>
+      <c r="G68" s="12" t="s">
+        <v>605</v>
       </c>
       <c r="H68" s="12">
         <v>63.52</v>
       </c>
       <c r="I68" s="6">
-        <f t="shared" ref="I68:I98" si="12">H68 * 0.95</f>
+        <f t="shared" ref="I68:I98" si="2">H68 * 0.95</f>
         <v>60.344000000000001</v>
       </c>
       <c r="J68" s="6">
-        <f t="shared" ref="J68:J98" si="13">H68 * 0.7</f>
+        <f t="shared" ref="J68:J98" si="3">H68 * 0.7</f>
         <v>44.463999999999999</v>
       </c>
       <c r="K68" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f>D68 &amp; ".html"</f>
         <v>1081.html</v>
       </c>
       <c r="L68" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="M68" s="12" t="s">
-        <v>605</v>
+      <c r="M68" s="11" t="s">
+        <v>392</v>
       </c>
       <c r="N68" s="8" t="s">
         <v>393</v>
@@ -7353,7 +7346,7 @@
       </c>
       <c r="P68" s="8"/>
       <c r="Q68" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D68:D116 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1081.jpg</v>
       </c>
       <c r="R68" s="8" t="str">
@@ -7361,7 +7354,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1081a.jpg</v>
       </c>
       <c r="S68" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D68:D162 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1081b.jpg</v>
       </c>
     </row>
@@ -7384,29 +7377,29 @@
       <c r="F69" s="43" t="s">
         <v>703</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>398</v>
+      <c r="G69" s="5" t="s">
+        <v>606</v>
       </c>
       <c r="H69" s="5">
         <v>51.49</v>
       </c>
       <c r="I69" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>48.915500000000002</v>
       </c>
       <c r="J69" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>36.042999999999999</v>
       </c>
       <c r="K69" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f>D69 &amp; ".html"</f>
         <v>1056.html</v>
       </c>
       <c r="L69" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="M69" s="5" t="s">
-        <v>606</v>
+      <c r="M69" s="4" t="s">
+        <v>398</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>399</v>
@@ -7416,15 +7409,15 @@
       </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="3" t="str">
-        <f t="shared" ref="Q69:Q75" si="14" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D69:D114 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D69:D114 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1056.jpg</v>
       </c>
       <c r="R69" s="1" t="str">
-        <f t="shared" ref="R69:R74" si="15" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D69:D114 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D69:D114 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1056a.jpg</v>
       </c>
       <c r="S69" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D69:D163 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1056b.jpg</v>
       </c>
     </row>
@@ -7447,29 +7440,29 @@
       <c r="F70" s="43" t="s">
         <v>704</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>404</v>
+      <c r="G70" s="5" t="s">
+        <v>607</v>
       </c>
       <c r="H70" s="5">
         <v>42.92</v>
       </c>
       <c r="I70" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>40.774000000000001</v>
       </c>
       <c r="J70" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>30.044</v>
       </c>
       <c r="K70" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f>D70 &amp; ".html"</f>
         <v>1057.html</v>
       </c>
       <c r="L70" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="M70" s="5" t="s">
-        <v>607</v>
+      <c r="M70" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>405</v>
@@ -7479,15 +7472,15 @@
       </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D70:D115 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1057.jpg</v>
       </c>
       <c r="R70" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D70:D115 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1057a.jpg</v>
       </c>
       <c r="S70" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D70:D164 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1057b.jpg</v>
       </c>
     </row>
@@ -7510,29 +7503,29 @@
       <c r="F71" s="43" t="s">
         <v>705</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>410</v>
+      <c r="G71" s="5" t="s">
+        <v>608</v>
       </c>
       <c r="H71" s="5">
         <v>49.78</v>
       </c>
       <c r="I71" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>47.290999999999997</v>
       </c>
       <c r="J71" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>34.845999999999997</v>
       </c>
       <c r="K71" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f>D71 &amp; ".html"</f>
         <v>1058.html</v>
       </c>
       <c r="L71" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="M71" s="5" t="s">
-        <v>608</v>
+      <c r="M71" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>411</v>
@@ -7542,15 +7535,15 @@
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D71:D116 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1058.jpg</v>
       </c>
       <c r="R71" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D71:D116 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1058a.jpg</v>
       </c>
       <c r="S71" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D71:D165 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1058b.jpg</v>
       </c>
     </row>
@@ -7573,29 +7566,29 @@
       <c r="F72" s="43" t="s">
         <v>706</v>
       </c>
-      <c r="G72" s="4" t="s">
-        <v>416</v>
+      <c r="G72" s="5" t="s">
+        <v>609</v>
       </c>
       <c r="H72" s="5">
         <v>53.25</v>
       </c>
       <c r="I72" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>50.587499999999999</v>
       </c>
       <c r="J72" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>37.274999999999999</v>
       </c>
       <c r="K72" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f>D72 &amp; ".html"</f>
         <v>1059.html</v>
       </c>
       <c r="L72" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="M72" s="5" t="s">
-        <v>609</v>
+      <c r="M72" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>417</v>
@@ -7605,15 +7598,15 @@
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D72:D117 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1059.jpg</v>
       </c>
       <c r="R72" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D72:D117 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1059a.jpg</v>
       </c>
       <c r="S72" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D72:D166 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1059b.jpg</v>
       </c>
     </row>
@@ -7636,29 +7629,29 @@
       <c r="F73" s="43" t="s">
         <v>707</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>422</v>
+      <c r="G73" s="5" t="s">
+        <v>610</v>
       </c>
       <c r="H73" s="5">
         <v>17.739999999999998</v>
       </c>
       <c r="I73" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>16.852999999999998</v>
       </c>
       <c r="J73" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>12.417999999999997</v>
       </c>
       <c r="K73" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f>D73 &amp; ".html"</f>
         <v>1060.html</v>
       </c>
       <c r="L73" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="M73" s="5" t="s">
-        <v>610</v>
+      <c r="M73" s="4" t="s">
+        <v>422</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>423</v>
@@ -7668,15 +7661,15 @@
       </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D73:D118 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1060.jpg</v>
       </c>
       <c r="R73" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D73:D118 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1060a.jpg</v>
       </c>
       <c r="S73" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D73:D167 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1060b.jpg</v>
       </c>
     </row>
@@ -7699,29 +7692,29 @@
       <c r="F74" s="43" t="s">
         <v>708</v>
       </c>
-      <c r="G74" s="38" t="s">
-        <v>428</v>
+      <c r="G74" s="21" t="s">
+        <v>611</v>
       </c>
       <c r="H74" s="21">
         <v>34.340000000000003</v>
       </c>
       <c r="I74" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>32.623000000000005</v>
       </c>
       <c r="J74" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>24.038</v>
       </c>
       <c r="K74" s="21" t="str">
-        <f t="shared" si="11"/>
+        <f>D74 &amp; ".html"</f>
         <v>1061.html</v>
       </c>
       <c r="L74" s="21" t="s">
         <v>628</v>
       </c>
-      <c r="M74" s="21" t="s">
-        <v>611</v>
+      <c r="M74" s="38" t="s">
+        <v>428</v>
       </c>
       <c r="N74" s="20" t="s">
         <v>429</v>
@@ -7731,15 +7724,15 @@
       </c>
       <c r="P74" s="20"/>
       <c r="Q74" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D74:D119 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1061.jpg</v>
       </c>
       <c r="R74" s="20" t="str">
-        <f t="shared" si="15"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D74:D119 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1061a.jpg</v>
       </c>
       <c r="S74" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D74:D168 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1061b.jpg</v>
       </c>
     </row>
@@ -7762,40 +7755,40 @@
       <c r="F75" s="43" t="s">
         <v>709</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>434</v>
+      <c r="G75" s="5" t="s">
+        <v>546</v>
       </c>
       <c r="H75" s="5">
         <v>1116.3399999999999</v>
       </c>
       <c r="I75" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>1060.5229999999999</v>
       </c>
       <c r="J75" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>781.43799999999987</v>
       </c>
       <c r="K75" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f>D75 &amp; ".html"</f>
         <v>1063.html</v>
       </c>
       <c r="L75" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="M75" s="5" t="s">
-        <v>546</v>
+      <c r="M75" s="4" t="s">
+        <v>434</v>
       </c>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D75:D120 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1063.jpg</v>
       </c>
       <c r="R75" s="1"/>
       <c r="S75" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D75:D169 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1063b.jpg</v>
       </c>
     </row>
@@ -7818,9 +7811,7 @@
       <c r="F76" s="43" t="s">
         <v>711</v>
       </c>
-      <c r="G76" s="11" t="s">
-        <v>442</v>
-      </c>
+      <c r="G76" s="12"/>
       <c r="H76" s="12">
         <v>823.36</v>
       </c>
@@ -7831,13 +7822,15 @@
         <v>823.36</v>
       </c>
       <c r="K76" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f>D76 &amp; ".html"</f>
         <v>1065.html</v>
       </c>
       <c r="L76" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="M76" s="12"/>
+      <c r="M76" s="11" t="s">
+        <v>442</v>
+      </c>
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
       <c r="P76" s="8"/>
@@ -7870,8 +7863,8 @@
       <c r="F77" s="43" t="s">
         <v>710</v>
       </c>
-      <c r="G77" s="4" t="s">
-        <v>438</v>
+      <c r="G77" s="5" t="s">
+        <v>547</v>
       </c>
       <c r="H77" s="5">
         <v>75.19</v>
@@ -7891,8 +7884,8 @@
       <c r="L77" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="M77" s="5" t="s">
-        <v>547</v>
+      <c r="M77" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
@@ -7929,29 +7922,29 @@
       <c r="F78" s="46" t="s">
         <v>638</v>
       </c>
-      <c r="G78" s="17" t="s">
-        <v>486</v>
+      <c r="G78" s="27" t="s">
+        <v>615</v>
       </c>
       <c r="H78" s="18">
         <v>555.54</v>
       </c>
       <c r="I78" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>527.76299999999992</v>
       </c>
       <c r="J78" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>388.87799999999993</v>
       </c>
       <c r="K78" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f>D78 &amp; ".html"</f>
         <v>1083.html</v>
       </c>
       <c r="L78" s="27" t="s">
         <v>624</v>
       </c>
-      <c r="M78" s="27" t="s">
-        <v>615</v>
+      <c r="M78" s="17" t="s">
+        <v>486</v>
       </c>
       <c r="N78" s="17" t="s">
         <v>487</v>
@@ -7986,29 +7979,29 @@
       <c r="F79" s="46" t="s">
         <v>639</v>
       </c>
-      <c r="G79" s="17" t="s">
-        <v>486</v>
+      <c r="G79" s="27" t="s">
+        <v>615</v>
       </c>
       <c r="H79" s="18">
         <v>555.54</v>
       </c>
       <c r="I79" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>527.76299999999992</v>
       </c>
       <c r="J79" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>388.87799999999993</v>
       </c>
       <c r="K79" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f>D79 &amp; ".html"</f>
         <v>1096.html</v>
       </c>
       <c r="L79" s="27" t="s">
         <v>624</v>
       </c>
-      <c r="M79" s="27" t="s">
-        <v>615</v>
+      <c r="M79" s="17" t="s">
+        <v>486</v>
       </c>
       <c r="N79" s="17" t="s">
         <v>492</v>
@@ -8043,29 +8036,29 @@
       <c r="F80" s="46" t="s">
         <v>640</v>
       </c>
-      <c r="G80" s="28" t="s">
-        <v>496</v>
+      <c r="G80" s="27" t="s">
+        <v>615</v>
       </c>
       <c r="H80" s="18">
         <v>337.32</v>
       </c>
       <c r="I80" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>320.45399999999995</v>
       </c>
       <c r="J80" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K80" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f>D80 &amp; ".html"</f>
         <v>1074.html</v>
       </c>
       <c r="L80" s="27" t="s">
         <v>624</v>
       </c>
-      <c r="M80" s="27" t="s">
-        <v>615</v>
+      <c r="M80" s="28" t="s">
+        <v>496</v>
       </c>
       <c r="N80" s="17" t="s">
         <v>497</v>
@@ -8100,29 +8093,29 @@
       <c r="F81" s="46" t="s">
         <v>641</v>
       </c>
-      <c r="G81" s="28" t="s">
-        <v>496</v>
+      <c r="G81" s="27" t="s">
+        <v>615</v>
       </c>
       <c r="H81" s="18">
         <v>337.32</v>
       </c>
       <c r="I81" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>320.45399999999995</v>
       </c>
       <c r="J81" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K81" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f>D81 &amp; ".html"</f>
         <v>1086.html</v>
       </c>
       <c r="L81" s="27" t="s">
         <v>624</v>
       </c>
-      <c r="M81" s="27" t="s">
-        <v>615</v>
+      <c r="M81" s="28" t="s">
+        <v>496</v>
       </c>
       <c r="N81" s="17" t="s">
         <v>497</v>
@@ -8157,29 +8150,29 @@
       <c r="F82" s="46" t="s">
         <v>642</v>
       </c>
-      <c r="G82" s="17" t="s">
-        <v>505</v>
+      <c r="G82" s="27" t="s">
+        <v>616</v>
       </c>
       <c r="H82" s="18">
         <v>337.32</v>
       </c>
       <c r="I82" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>320.45399999999995</v>
       </c>
       <c r="J82" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K82" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f>D82 &amp; ".html"</f>
         <v>1087.html</v>
       </c>
       <c r="L82" s="27" t="s">
         <v>624</v>
       </c>
-      <c r="M82" s="27" t="s">
-        <v>616</v>
+      <c r="M82" s="17" t="s">
+        <v>505</v>
       </c>
       <c r="N82" s="17" t="s">
         <v>497</v>
@@ -8213,29 +8206,29 @@
       <c r="F83" s="46" t="s">
         <v>643</v>
       </c>
-      <c r="G83" s="17" t="s">
-        <v>505</v>
+      <c r="G83" s="27" t="s">
+        <v>616</v>
       </c>
       <c r="H83" s="18">
         <v>337.32</v>
       </c>
       <c r="I83" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>320.45399999999995</v>
       </c>
       <c r="J83" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K83" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f>D83 &amp; ".html"</f>
         <v>1088.html</v>
       </c>
       <c r="L83" s="27" t="s">
         <v>624</v>
       </c>
-      <c r="M83" s="27" t="s">
-        <v>616</v>
+      <c r="M83" s="17" t="s">
+        <v>505</v>
       </c>
       <c r="N83" s="17" t="s">
         <v>497</v>
@@ -8269,29 +8262,29 @@
       <c r="F84" s="46" t="s">
         <v>644</v>
       </c>
-      <c r="G84" s="17" t="s">
-        <v>513</v>
+      <c r="G84" s="27" t="s">
+        <v>616</v>
       </c>
       <c r="H84" s="18">
         <v>337.32</v>
       </c>
       <c r="I84" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>320.45399999999995</v>
       </c>
       <c r="J84" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K84" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f>D84 &amp; ".html"</f>
         <v>1089.html</v>
       </c>
       <c r="L84" s="27" t="s">
         <v>624</v>
       </c>
-      <c r="M84" s="27" t="s">
-        <v>616</v>
+      <c r="M84" s="17" t="s">
+        <v>513</v>
       </c>
       <c r="N84" s="17" t="s">
         <v>497</v>
@@ -8325,29 +8318,29 @@
       <c r="F85" s="46" t="s">
         <v>645</v>
       </c>
-      <c r="G85" s="17" t="s">
-        <v>513</v>
+      <c r="G85" s="27" t="s">
+        <v>616</v>
       </c>
       <c r="H85" s="18">
         <v>337.32</v>
       </c>
       <c r="I85" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>320.45399999999995</v>
       </c>
       <c r="J85" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K85" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f>D85 &amp; ".html"</f>
         <v>1090.html</v>
       </c>
       <c r="L85" s="27" t="s">
         <v>624</v>
       </c>
-      <c r="M85" s="27" t="s">
-        <v>616</v>
+      <c r="M85" s="17" t="s">
+        <v>513</v>
       </c>
       <c r="N85" s="17" t="s">
         <v>497</v>
@@ -8381,29 +8374,29 @@
       <c r="F86" s="46" t="s">
         <v>646</v>
       </c>
-      <c r="G86" s="17" t="s">
-        <v>521</v>
+      <c r="G86" s="27" t="s">
+        <v>616</v>
       </c>
       <c r="H86" s="18">
         <v>270.32</v>
       </c>
       <c r="I86" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>256.80399999999997</v>
       </c>
       <c r="J86" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K86" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f>D86 &amp; ".html"</f>
         <v>1073.html</v>
       </c>
       <c r="L86" s="27" t="s">
         <v>624</v>
       </c>
-      <c r="M86" s="27" t="s">
-        <v>616</v>
+      <c r="M86" s="17" t="s">
+        <v>521</v>
       </c>
       <c r="N86" s="17" t="s">
         <v>522</v>
@@ -8415,7 +8408,7 @@
       <c r="Q86" s="16"/>
       <c r="R86" s="14"/>
       <c r="S86" s="14" t="str">
-        <f t="shared" ref="S86:S98" si="16" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D86:D180 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D86:D180 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
       </c>
     </row>
@@ -8438,29 +8431,29 @@
       <c r="F87" s="46" t="s">
         <v>647</v>
       </c>
-      <c r="G87" s="17" t="s">
-        <v>521</v>
+      <c r="G87" s="27" t="s">
+        <v>616</v>
       </c>
       <c r="H87" s="18">
         <v>270.32</v>
       </c>
       <c r="I87" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>256.80399999999997</v>
       </c>
       <c r="J87" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K87" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f>D87 &amp; ".html"</f>
         <v>1091.html</v>
       </c>
       <c r="L87" s="27" t="s">
         <v>624</v>
       </c>
-      <c r="M87" s="27" t="s">
-        <v>616</v>
+      <c r="M87" s="17" t="s">
+        <v>521</v>
       </c>
       <c r="N87" s="17" t="s">
         <v>522</v>
@@ -8472,7 +8465,7 @@
       <c r="Q87" s="16"/>
       <c r="R87" s="14"/>
       <c r="S87" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D87:D181 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1091b.jpg</v>
       </c>
     </row>
@@ -8495,29 +8488,29 @@
       <c r="F88" s="46" t="s">
         <v>648</v>
       </c>
-      <c r="G88" s="17" t="s">
-        <v>521</v>
+      <c r="G88" s="27" t="s">
+        <v>617</v>
       </c>
       <c r="H88" s="18">
         <v>270.32</v>
       </c>
       <c r="I88" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>256.80399999999997</v>
       </c>
       <c r="J88" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K88" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f>D88 &amp; ".html"</f>
         <v>1092.html</v>
       </c>
       <c r="L88" s="27" t="s">
         <v>624</v>
       </c>
-      <c r="M88" s="27" t="s">
-        <v>617</v>
+      <c r="M88" s="17" t="s">
+        <v>521</v>
       </c>
       <c r="N88" s="17" t="s">
         <v>522</v>
@@ -8529,7 +8522,7 @@
       <c r="Q88" s="16"/>
       <c r="R88" s="14"/>
       <c r="S88" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D88:D182 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1092b.jpg</v>
       </c>
     </row>
@@ -8552,29 +8545,29 @@
       <c r="F89" s="46" t="s">
         <v>649</v>
       </c>
-      <c r="G89" s="17" t="s">
-        <v>521</v>
+      <c r="G89" s="27" t="s">
+        <v>618</v>
       </c>
       <c r="H89" s="18">
         <v>270.32</v>
       </c>
       <c r="I89" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>256.80399999999997</v>
       </c>
       <c r="J89" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K89" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f>D89 &amp; ".html"</f>
         <v>1093.html</v>
       </c>
       <c r="L89" s="27" t="s">
         <v>624</v>
       </c>
-      <c r="M89" s="27" t="s">
-        <v>618</v>
+      <c r="M89" s="17" t="s">
+        <v>521</v>
       </c>
       <c r="N89" s="17" t="s">
         <v>522</v>
@@ -8586,7 +8579,7 @@
       <c r="Q89" s="16"/>
       <c r="R89" s="14"/>
       <c r="S89" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D89:D183 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1093b.jpg</v>
       </c>
     </row>
@@ -8609,29 +8602,29 @@
       <c r="F90" s="46" t="s">
         <v>650</v>
       </c>
-      <c r="G90" s="17" t="s">
-        <v>521</v>
+      <c r="G90" s="27" t="s">
+        <v>619</v>
       </c>
       <c r="H90" s="18">
         <v>270.32</v>
       </c>
       <c r="I90" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>256.80399999999997</v>
       </c>
       <c r="J90" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K90" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f>D90 &amp; ".html"</f>
         <v>1094.html</v>
       </c>
       <c r="L90" s="27" t="s">
         <v>624</v>
       </c>
-      <c r="M90" s="27" t="s">
-        <v>619</v>
+      <c r="M90" s="17" t="s">
+        <v>521</v>
       </c>
       <c r="N90" s="17" t="s">
         <v>522</v>
@@ -8643,7 +8636,7 @@
       <c r="Q90" s="16"/>
       <c r="R90" s="14"/>
       <c r="S90" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D90:D184 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1094b.jpg</v>
       </c>
     </row>
@@ -8666,29 +8659,29 @@
       <c r="F91" s="46" t="s">
         <v>651</v>
       </c>
-      <c r="G91" s="17" t="s">
-        <v>521</v>
+      <c r="G91" s="27" t="s">
+        <v>620</v>
       </c>
       <c r="H91" s="18">
         <v>270.32</v>
       </c>
       <c r="I91" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>256.80399999999997</v>
       </c>
       <c r="J91" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K91" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f>D91 &amp; ".html"</f>
         <v>1095.html</v>
       </c>
       <c r="L91" s="27" t="s">
         <v>624</v>
       </c>
-      <c r="M91" s="27" t="s">
-        <v>620</v>
+      <c r="M91" s="17" t="s">
+        <v>521</v>
       </c>
       <c r="N91" s="17" t="s">
         <v>522</v>
@@ -8700,7 +8693,7 @@
       <c r="Q91" s="16"/>
       <c r="R91" s="14"/>
       <c r="S91" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D91:D185 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1095b.jpg</v>
       </c>
     </row>
@@ -8723,29 +8716,29 @@
       <c r="F92" s="45" t="s">
         <v>718</v>
       </c>
-      <c r="G92" s="38" t="s">
-        <v>480</v>
+      <c r="G92" s="21" t="s">
+        <v>615</v>
       </c>
       <c r="H92" s="21">
         <v>320.5</v>
       </c>
       <c r="I92" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>304.47499999999997</v>
       </c>
       <c r="J92" s="40">
-        <f t="shared" ref="J92" si="17">H92 * 0.7</f>
+        <f t="shared" ref="J92" si="4">H92 * 0.7</f>
         <v>224.35</v>
       </c>
       <c r="K92" s="21" t="str">
-        <f t="shared" si="11"/>
+        <f>D92 &amp; ".html"</f>
         <v>1072.html</v>
       </c>
       <c r="L92" s="41" t="s">
         <v>624</v>
       </c>
-      <c r="M92" s="21" t="s">
-        <v>615</v>
+      <c r="M92" s="38" t="s">
+        <v>480</v>
       </c>
       <c r="N92" s="38" t="s">
         <v>481</v>
@@ -8763,7 +8756,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1072a.jpg</v>
       </c>
       <c r="S92" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D92:D186 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1072b.jpg</v>
       </c>
     </row>
@@ -8786,29 +8779,29 @@
       <c r="F93" s="45" t="s">
         <v>712</v>
       </c>
-      <c r="G93" s="4" t="s">
-        <v>446</v>
+      <c r="G93" s="5" t="s">
+        <v>549</v>
       </c>
       <c r="H93" s="5">
         <v>57.23</v>
       </c>
       <c r="I93" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>54.368499999999997</v>
       </c>
       <c r="J93" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>40.060999999999993</v>
       </c>
       <c r="K93" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f>D93 &amp; ".html"</f>
         <v>1066.html</v>
       </c>
       <c r="L93" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="M93" s="5" t="s">
-        <v>549</v>
+      <c r="M93" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>447</v>
@@ -8823,7 +8816,7 @@
       </c>
       <c r="R93" s="1"/>
       <c r="S93" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D93:D187 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1066b.jpg</v>
       </c>
     </row>
@@ -8846,29 +8839,29 @@
       <c r="F94" s="45" t="s">
         <v>713</v>
       </c>
-      <c r="G94" s="4" t="s">
-        <v>446</v>
+      <c r="G94" s="5" t="s">
+        <v>612</v>
       </c>
       <c r="H94" s="5">
         <v>57.23</v>
       </c>
       <c r="I94" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>54.368499999999997</v>
       </c>
       <c r="J94" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>40.060999999999993</v>
       </c>
       <c r="K94" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f>D94 &amp; ".html"</f>
         <v>1067.html</v>
       </c>
       <c r="L94" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="M94" s="5" t="s">
-        <v>612</v>
+      <c r="M94" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>452</v>
@@ -8883,7 +8876,7 @@
       </c>
       <c r="R94" s="1"/>
       <c r="S94" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D94:D188 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1067b.jpg</v>
       </c>
     </row>
@@ -8906,29 +8899,29 @@
       <c r="F95" s="45" t="s">
         <v>714</v>
       </c>
-      <c r="G95" s="4" t="s">
-        <v>456</v>
+      <c r="G95" s="5" t="s">
+        <v>613</v>
       </c>
       <c r="H95" s="5">
         <v>127.62</v>
       </c>
       <c r="I95" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>121.239</v>
       </c>
       <c r="J95" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>89.334000000000003</v>
       </c>
       <c r="K95" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f>D95 &amp; ".html"</f>
         <v>1068.html</v>
       </c>
       <c r="L95" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="M95" s="5" t="s">
-        <v>613</v>
+      <c r="M95" s="4" t="s">
+        <v>456</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>457</v>
@@ -8946,7 +8939,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1068a.jpg</v>
       </c>
       <c r="S95" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D95:D189 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1068b.jpg</v>
       </c>
     </row>
@@ -8969,29 +8962,29 @@
       <c r="F96" s="45" t="s">
         <v>715</v>
       </c>
-      <c r="G96" s="4" t="s">
-        <v>462</v>
+      <c r="G96" s="5" t="s">
+        <v>614</v>
       </c>
       <c r="H96" s="5">
         <v>60.11</v>
       </c>
       <c r="I96" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>57.104499999999994</v>
       </c>
       <c r="J96" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>42.076999999999998</v>
       </c>
       <c r="K96" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f>D96 &amp; ".html"</f>
         <v>1069.html</v>
       </c>
       <c r="L96" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="M96" s="5" t="s">
-        <v>614</v>
+      <c r="M96" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>463</v>
@@ -9009,7 +9002,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1069a.jpg</v>
       </c>
       <c r="S96" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D96:D190 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1069b.jpg</v>
       </c>
     </row>
@@ -9032,29 +9025,29 @@
       <c r="F97" s="45" t="s">
         <v>716</v>
       </c>
-      <c r="G97" s="4" t="s">
-        <v>468</v>
+      <c r="G97" s="5" t="s">
+        <v>614</v>
       </c>
       <c r="H97" s="5">
         <v>86.44</v>
       </c>
       <c r="I97" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>82.117999999999995</v>
       </c>
       <c r="J97" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>60.507999999999996</v>
       </c>
       <c r="K97" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f>D97 &amp; ".html"</f>
         <v>1070.html</v>
       </c>
       <c r="L97" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="M97" s="5" t="s">
-        <v>614</v>
+      <c r="M97" s="4" t="s">
+        <v>468</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>469</v>
@@ -9072,7 +9065,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1070a.jpg</v>
       </c>
       <c r="S97" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D97:D191 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1070b.jpg</v>
       </c>
     </row>
@@ -9095,29 +9088,29 @@
       <c r="F98" s="45" t="s">
         <v>717</v>
       </c>
-      <c r="G98" s="4" t="s">
-        <v>474</v>
+      <c r="G98" s="5" t="s">
+        <v>615</v>
       </c>
       <c r="H98" s="5">
         <v>10.31</v>
       </c>
       <c r="I98" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>9.7944999999999993</v>
       </c>
       <c r="J98" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>7.2169999999999996</v>
       </c>
       <c r="K98" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f>D98 &amp; ".html"</f>
         <v>1071.html</v>
       </c>
       <c r="L98" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="M98" s="5" t="s">
-        <v>615</v>
+      <c r="M98" s="4" t="s">
+        <v>474</v>
       </c>
       <c r="N98" s="1" t="s">
         <v>475</v>
@@ -9135,7 +9128,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1071a.jpg</v>
       </c>
       <c r="S98" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D98:D192 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1071b.jpg</v>
       </c>
     </row>

--- a/products_categories/Merge.xlsx
+++ b/products_categories/Merge.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="748">
   <si>
     <t>h1</t>
   </si>
@@ -2617,6 +2617,35 @@
   <si>
     <t>Отлична хранителна добавка с коензим Q10 и специална прахообразна формула, създадена за разтваряне в гела от алое на Форевър.</t>
   </si>
+  <si>
+    <t>Forever Active HA</t>
+  </si>
+  <si>
+    <t>Форевър активна ХК</t>
+  </si>
+  <si>
+    <t>Уникална форма на хиалуронова киселина с ниско молекулярно тегло.</t>
+  </si>
+  <si>
+    <t>Комплекс хиалуронова киселина (осигурява 9% хиалуронова киселина с ниско молекулярно тегло от натриев хиалуронат), джинджифил (Zingiber officinale) масло (корен), куркума (Curcuma longa) на прах (корен) (95% куркумин), соево масло, желатин, глицерин, сгъстител (жълт пчелен восък), пълнител (малтодекстрин), пречистена вода, цинков оксид, емулгатор (лецитин).</t>
+  </si>
+  <si>
+    <t>ПРЕПОРЪЧИТЕЛНА УПОТРЕБА
+По една гел-капсула два пъти на ден.</t>
+  </si>
+  <si>
+    <t>С напредване на възрастта в различни части на тялото ни започват да се проявяват признаци на стареене и често липсата на подвижност води до затруднено извършване на някои физически дейности. Това се случва, когато мускулите ни са изморени, а ставите просто не функционират както трябва. Намалената подвижност ни пречи да се радваме на любимите си занимания и да водим активен живот както по-рано. Всичко това може да се промени с революционния продукт на Форевър Ливинг Продъктс – Форевър активна ХК.
+Нашето тяло, най-общо казано, представлява една голяма биомеханична машина с 230 подвижни стави. От момента, в който станем сутрин докато си легнем вечер, тези стави са в движение. Това непрекъснато натоварване година след година, може да доведе до намалената им подвижност. Организмът произвежда специален протеин, наречен хиалуронова киселина (ХК), който смазва и омекотява ставите и мускулите. С напредване на възрастта се произвежда все по-малко ХК. Това води до недостиг в естествената лубрикация на ставите и до изсушаване и загрубяване на кожата. Също както автомобилът има нужда от масло в двигателя, за да функционира, така и тялото ни има нужда от смазка за ставите. На помощ идва Форевър активна ХК! ОСНОВНИ ХАРАКТЕРИСТИКИ
+Смазва ставите и овлажнява кожата.
+Уникална форма на хиалуронова киселина с ниско молекулярно тегло.
+Съдържа джинджифил и куркума – билки полезни за здрави стави.</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/xmZOmmnQ</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/jOgZJWqY</t>
+  </si>
 </sst>
 </file>
 
@@ -2626,7 +2655,7 @@
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;лв.&quot;;[Red]\-#,##0.00\ &quot;лв.&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;лв.&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2708,6 +2737,28 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2730,7 +2781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2798,15 +2849,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2854,6 +2896,48 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3136,10 +3220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S98"/>
+  <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3148,70 +3232,70 @@
     <col min="2" max="2" width="28.88671875" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="35.33203125" customWidth="1"/>
-    <col min="6" max="6" width="33.21875" style="45" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" style="31"/>
-    <col min="11" max="12" width="17.21875" style="30"/>
+    <col min="6" max="6" width="33.21875" style="42" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" style="28"/>
+    <col min="11" max="12" width="17.21875" style="27"/>
     <col min="17" max="17" width="8" customWidth="1"/>
     <col min="18" max="18" width="7.88671875" customWidth="1"/>
     <col min="19" max="19" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="34" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:19" s="31" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>632</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="31" t="s">
         <v>634</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="39" t="s">
         <v>635</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="30" t="s">
         <v>540</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="30" t="s">
         <v>621</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="30" t="s">
         <v>622</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="29" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3231,7 +3315,7 @@
       <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="40" t="s">
         <v>652</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -3249,7 +3333,7 @@
         <v>41.677999999999997</v>
       </c>
       <c r="K2" s="5" t="str">
-        <f>D2 &amp; ".html"</f>
+        <f t="shared" ref="K2:K34" si="0">D2 &amp; ".html"</f>
         <v>1000.html</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -3268,15 +3352,15 @@
         <v>18</v>
       </c>
       <c r="Q2" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D2:D98 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D2:D99 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1000.jpg</v>
       </c>
       <c r="R2" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D2:D98 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D2:D99 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1000a.jpg</v>
       </c>
       <c r="S2" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D2:D98 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D2:D99 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1000b.jpg</v>
       </c>
     </row>
@@ -3296,7 +3380,7 @@
       <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="40" t="s">
         <v>653</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -3306,15 +3390,15 @@
         <v>59.54</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I67" si="0">H3 * 0.95</f>
+        <f t="shared" ref="I3:I68" si="1">H3 * 0.95</f>
         <v>56.562999999999995</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" ref="J3:J67" si="1">H3 * 0.7</f>
+        <f t="shared" ref="J3:J68" si="2">H3 * 0.7</f>
         <v>41.677999999999997</v>
       </c>
       <c r="K3" s="5" t="str">
-        <f>D3 &amp; ".html"</f>
+        <f t="shared" si="0"/>
         <v>1001.html</v>
       </c>
       <c r="L3" s="5" t="s">
@@ -3333,15 +3417,15 @@
         <v>18</v>
       </c>
       <c r="Q3" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D3:D78 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D3:D79 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1001.jpg</v>
       </c>
       <c r="R3" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D3:D78 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D3:D79 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1001a.jpg</v>
       </c>
       <c r="S3" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D3:D98 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D3:D99 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1001b.jpg</v>
       </c>
     </row>
@@ -3361,7 +3445,7 @@
       <c r="E4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="40" t="s">
         <v>654</v>
       </c>
       <c r="G4" s="12" t="s">
@@ -3371,15 +3455,15 @@
         <v>59.54</v>
       </c>
       <c r="I4" s="6">
+        <f t="shared" si="1"/>
+        <v>56.562999999999995</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" si="2"/>
+        <v>41.677999999999997</v>
+      </c>
+      <c r="K4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>56.562999999999995</v>
-      </c>
-      <c r="J4" s="6">
-        <f t="shared" si="1"/>
-        <v>41.677999999999997</v>
-      </c>
-      <c r="K4" s="5" t="str">
-        <f>D4 &amp; ".html"</f>
         <v>1075.html</v>
       </c>
       <c r="L4" s="12" t="s">
@@ -3398,11 +3482,11 @@
         <v>30</v>
       </c>
       <c r="Q4" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D4:D79 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D4:D80 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1075.jpg</v>
       </c>
       <c r="R4" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D4:D79 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D4:D80 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1075a.jpg</v>
       </c>
       <c r="S4" s="1" t="str">
@@ -3426,7 +3510,7 @@
       <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="40" t="s">
         <v>719</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -3436,15 +3520,15 @@
         <v>59.54</v>
       </c>
       <c r="I5" s="6">
+        <f t="shared" si="1"/>
+        <v>56.562999999999995</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="2"/>
+        <v>41.677999999999997</v>
+      </c>
+      <c r="K5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>56.562999999999995</v>
-      </c>
-      <c r="J5" s="6">
-        <f t="shared" si="1"/>
-        <v>41.677999999999997</v>
-      </c>
-      <c r="K5" s="5" t="str">
-        <f>D5 &amp; ".html"</f>
         <v>1002.html</v>
       </c>
       <c r="L5" s="5" t="s">
@@ -3463,11 +3547,11 @@
         <v>43</v>
       </c>
       <c r="Q5" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D79 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D80 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1002.jpg</v>
       </c>
       <c r="R5" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D79 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D80 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1002a.jpg</v>
       </c>
       <c r="S5" s="1" t="str">
@@ -3491,7 +3575,7 @@
       <c r="E6" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="40" t="s">
         <v>720</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -3501,15 +3585,15 @@
         <v>178.61</v>
       </c>
       <c r="I6" s="6">
+        <f t="shared" si="1"/>
+        <v>169.67950000000002</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="2"/>
+        <v>125.027</v>
+      </c>
+      <c r="K6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>169.67950000000002</v>
-      </c>
-      <c r="J6" s="6">
-        <f t="shared" si="1"/>
-        <v>125.027</v>
-      </c>
-      <c r="K6" s="5" t="str">
-        <f>D6 &amp; ".html"</f>
         <v>1003.html</v>
       </c>
       <c r="L6" s="5" t="s">
@@ -3550,7 +3634,7 @@
       <c r="E7" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="41" t="s">
         <v>721</v>
       </c>
       <c r="G7" s="12" t="s">
@@ -3560,15 +3644,15 @@
         <v>178.61</v>
       </c>
       <c r="I7" s="6">
+        <f t="shared" si="1"/>
+        <v>169.67950000000002</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="2"/>
+        <v>125.027</v>
+      </c>
+      <c r="K7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>169.67950000000002</v>
-      </c>
-      <c r="J7" s="6">
-        <f t="shared" si="1"/>
-        <v>125.027</v>
-      </c>
-      <c r="K7" s="5" t="str">
-        <f>D7 &amp; ".html"</f>
         <v>1004.html</v>
       </c>
       <c r="L7" s="12" t="s">
@@ -3609,7 +3693,7 @@
       <c r="E8" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="40" t="s">
         <v>722</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -3619,15 +3703,15 @@
         <v>178.61</v>
       </c>
       <c r="I8" s="6">
+        <f t="shared" si="1"/>
+        <v>169.67950000000002</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="2"/>
+        <v>125.027</v>
+      </c>
+      <c r="K8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>169.67950000000002</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="1"/>
-        <v>125.027</v>
-      </c>
-      <c r="K8" s="5" t="str">
-        <f>D8 &amp; ".html"</f>
         <v>1005.html</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -3665,10 +3749,10 @@
       <c r="D9" s="15">
         <v>1084</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="43" t="s">
         <v>637</v>
       </c>
       <c r="G9" s="18" t="s">
@@ -3678,15 +3762,15 @@
         <v>178.61</v>
       </c>
       <c r="I9" s="24">
+        <f t="shared" si="1"/>
+        <v>169.67950000000002</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="2"/>
+        <v>125.027</v>
+      </c>
+      <c r="K9" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>169.67950000000002</v>
-      </c>
-      <c r="J9" s="24">
-        <f t="shared" si="1"/>
-        <v>125.027</v>
-      </c>
-      <c r="K9" s="18" t="str">
-        <f>D9 &amp; ".html"</f>
         <v>1084.html</v>
       </c>
       <c r="L9" s="18" t="s">
@@ -3725,7 +3809,7 @@
       <c r="E10" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="40" t="s">
         <v>723</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -3735,15 +3819,15 @@
         <v>238.12</v>
       </c>
       <c r="I10" s="6">
+        <f t="shared" si="1"/>
+        <v>226.214</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="2"/>
+        <v>166.684</v>
+      </c>
+      <c r="K10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>226.214</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" si="1"/>
-        <v>166.684</v>
-      </c>
-      <c r="K10" s="5" t="str">
-        <f>D10 &amp; ".html"</f>
         <v>1006.html</v>
       </c>
       <c r="L10" s="5" t="s">
@@ -3762,11 +3846,11 @@
         <v>30</v>
       </c>
       <c r="Q10" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D10:D83 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D10:D84 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1006.jpg</v>
       </c>
       <c r="R10" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D10:D83 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D10:D84 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1006a.jpg</v>
       </c>
       <c r="S10" s="1" t="str">
@@ -3790,7 +3874,7 @@
       <c r="E11" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="40" t="s">
         <v>724</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -3800,15 +3884,15 @@
         <v>238.12</v>
       </c>
       <c r="I11" s="6">
+        <f t="shared" si="1"/>
+        <v>226.214</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="2"/>
+        <v>166.684</v>
+      </c>
+      <c r="K11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>226.214</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" si="1"/>
-        <v>166.684</v>
-      </c>
-      <c r="K11" s="5" t="str">
-        <f>D11 &amp; ".html"</f>
         <v>1007.html</v>
       </c>
       <c r="L11" s="5" t="s">
@@ -3827,11 +3911,11 @@
         <v>71</v>
       </c>
       <c r="Q11" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D11:D84 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D11:D85 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1007.jpg</v>
       </c>
       <c r="R11" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D11:D84 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D11:D85 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1007a.jpg</v>
       </c>
       <c r="S11" s="1" t="str">
@@ -3855,7 +3939,7 @@
       <c r="E12" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="40" t="s">
         <v>725</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -3865,15 +3949,15 @@
         <v>238.12</v>
       </c>
       <c r="I12" s="6">
+        <f t="shared" si="1"/>
+        <v>226.214</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="2"/>
+        <v>166.684</v>
+      </c>
+      <c r="K12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>226.214</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" si="1"/>
-        <v>166.684</v>
-      </c>
-      <c r="K12" s="5" t="str">
-        <f>D12 &amp; ".html"</f>
         <v>1008.html</v>
       </c>
       <c r="L12" s="5" t="s">
@@ -3892,7 +3976,7 @@
         <v>43</v>
       </c>
       <c r="Q12" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D12:D85 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D12:D86 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1008.jpg</v>
       </c>
       <c r="R12" s="1"/>
@@ -3917,7 +4001,7 @@
       <c r="E13" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="40" t="s">
         <v>726</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -3935,7 +4019,7 @@
         <v>28.041999999999998</v>
       </c>
       <c r="K13" s="5" t="str">
-        <f>D13 &amp; ".html"</f>
+        <f t="shared" si="0"/>
         <v>1010.html</v>
       </c>
       <c r="L13" s="5" t="s">
@@ -3952,11 +4036,11 @@
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D13:D87 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D13:D88 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1010.jpg</v>
       </c>
       <c r="R13" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D13:D87 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D13:D88 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1010a.jpg</v>
       </c>
       <c r="S13" s="1" t="str">
@@ -3980,7 +4064,7 @@
       <c r="E14" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="40" t="s">
         <v>727</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -3990,15 +4074,15 @@
         <v>81.36</v>
       </c>
       <c r="I14" s="6">
+        <f t="shared" si="1"/>
+        <v>77.292000000000002</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="2"/>
+        <v>56.951999999999998</v>
+      </c>
+      <c r="K14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>77.292000000000002</v>
-      </c>
-      <c r="J14" s="6">
-        <f t="shared" si="1"/>
-        <v>56.951999999999998</v>
-      </c>
-      <c r="K14" s="5" t="str">
-        <f>D14 &amp; ".html"</f>
         <v>1009.html</v>
       </c>
       <c r="L14" s="5" t="s">
@@ -4017,7 +4101,7 @@
         <v>82</v>
       </c>
       <c r="Q14" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D14:D86 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D14:D87 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1009.jpg</v>
       </c>
       <c r="R14" s="1"/>
@@ -4042,7 +4126,7 @@
       <c r="E15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="40" t="s">
         <v>728</v>
       </c>
       <c r="G15" s="12" t="s">
@@ -4060,7 +4144,7 @@
         <v>38.856999999999999</v>
       </c>
       <c r="K15" s="5" t="str">
-        <f>D15 &amp; ".html"</f>
+        <f t="shared" si="0"/>
         <v>1082.html</v>
       </c>
       <c r="L15" s="12" t="s">
@@ -4079,11 +4163,11 @@
         <v>37</v>
       </c>
       <c r="Q15" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D80 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D81 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1082.jpg</v>
       </c>
       <c r="R15" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D80 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D81 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1082a.jpg</v>
       </c>
       <c r="S15" s="1" t="str">
@@ -4107,7 +4191,7 @@
       <c r="E16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="40" t="s">
         <v>729</v>
       </c>
       <c r="G16" s="12" t="s">
@@ -4125,7 +4209,7 @@
         <v>6.0059999999999993</v>
       </c>
       <c r="K16" s="5" t="str">
-        <f>D16 &amp; ".html"</f>
+        <f t="shared" si="0"/>
         <v>1076.html</v>
       </c>
       <c r="L16" s="12" t="s">
@@ -4142,11 +4226,11 @@
       </c>
       <c r="P16" s="8"/>
       <c r="Q16" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D13:D87 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D13:D88 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1076.jpg</v>
       </c>
       <c r="R16" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D13:D87 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D13:D88 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1076a.jpg</v>
       </c>
       <c r="S16" s="1" t="str">
@@ -4164,13 +4248,13 @@
       <c r="C17" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="34">
         <v>1011</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="42" t="s">
         <v>730</v>
       </c>
       <c r="G17" s="21" t="s">
@@ -4179,22 +4263,22 @@
       <c r="H17" s="21">
         <v>8.58</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="37">
+        <f t="shared" si="1"/>
+        <v>8.1509999999999998</v>
+      </c>
+      <c r="J17" s="37">
+        <f t="shared" si="2"/>
+        <v>6.0059999999999993</v>
+      </c>
+      <c r="K17" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>8.1509999999999998</v>
-      </c>
-      <c r="J17" s="40">
-        <f t="shared" si="1"/>
-        <v>6.0059999999999993</v>
-      </c>
-      <c r="K17" s="21" t="str">
-        <f>D17 &amp; ".html"</f>
         <v>1011.html</v>
       </c>
       <c r="L17" s="21" t="s">
         <v>623</v>
       </c>
-      <c r="M17" s="38" t="s">
+      <c r="M17" s="35" t="s">
         <v>98</v>
       </c>
       <c r="N17" s="20" t="s">
@@ -4204,12 +4288,12 @@
         <v>100</v>
       </c>
       <c r="P17" s="20"/>
-      <c r="Q17" s="39" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D17:D88 &amp;".jpg"</f>
+      <c r="Q17" s="36" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D17:D89 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1011.jpg</v>
       </c>
       <c r="R17" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D17:D88 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D17:D89 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1011a.jpg</v>
       </c>
       <c r="S17" s="1" t="str">
@@ -4233,7 +4317,7 @@
       <c r="E18" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="42" t="s">
         <v>731</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -4243,15 +4327,15 @@
         <v>27.48</v>
       </c>
       <c r="I18" s="6">
+        <f t="shared" si="1"/>
+        <v>26.105999999999998</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="2"/>
+        <v>19.236000000000001</v>
+      </c>
+      <c r="K18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>26.105999999999998</v>
-      </c>
-      <c r="J18" s="6">
-        <f t="shared" si="1"/>
-        <v>19.236000000000001</v>
-      </c>
-      <c r="K18" s="5" t="str">
-        <f>D18 &amp; ".html"</f>
         <v>1012.html</v>
       </c>
       <c r="L18" s="5" t="s">
@@ -4268,7 +4352,7 @@
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D18:D89 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D18:D90 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1012.jpg</v>
       </c>
       <c r="R18" s="1"/>
@@ -4293,7 +4377,7 @@
       <c r="E19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="40" t="s">
         <v>655</v>
       </c>
       <c r="G19" s="12" t="s">
@@ -4303,15 +4387,15 @@
         <v>32.61</v>
       </c>
       <c r="I19" s="6">
+        <f t="shared" si="1"/>
+        <v>30.979499999999998</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="2"/>
+        <v>22.826999999999998</v>
+      </c>
+      <c r="K19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>30.979499999999998</v>
-      </c>
-      <c r="J19" s="6">
-        <f t="shared" si="1"/>
-        <v>22.826999999999998</v>
-      </c>
-      <c r="K19" s="5" t="str">
-        <f>D19 &amp; ".html"</f>
         <v>1078.html</v>
       </c>
       <c r="L19" s="12" t="s">
@@ -4328,11 +4412,11 @@
       </c>
       <c r="P19" s="8"/>
       <c r="Q19" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D19:D90 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D19:D91 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1078.jpg</v>
       </c>
       <c r="R19" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D19:D90 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D19:D91 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1078a.jpg</v>
       </c>
       <c r="S19" s="1" t="str">
@@ -4356,7 +4440,7 @@
       <c r="E20" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="40" t="s">
         <v>656</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -4366,15 +4450,15 @@
         <v>40.06</v>
       </c>
       <c r="I20" s="6">
+        <f t="shared" si="1"/>
+        <v>38.057000000000002</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="2"/>
+        <v>28.041999999999998</v>
+      </c>
+      <c r="K20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>38.057000000000002</v>
-      </c>
-      <c r="J20" s="6">
-        <f t="shared" si="1"/>
-        <v>28.041999999999998</v>
-      </c>
-      <c r="K20" s="5" t="str">
-        <f>D20 &amp; ".html"</f>
         <v>1013.html</v>
       </c>
       <c r="L20" s="5" t="s">
@@ -4391,7 +4475,7 @@
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D20:D90 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D20:D91 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1013.jpg</v>
       </c>
       <c r="R20" s="1"/>
@@ -4416,7 +4500,7 @@
       <c r="E21" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="40" t="s">
         <v>657</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -4426,15 +4510,15 @@
         <v>72.680000000000007</v>
       </c>
       <c r="I21" s="6">
+        <f t="shared" si="1"/>
+        <v>69.046000000000006</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="2"/>
+        <v>50.876000000000005</v>
+      </c>
+      <c r="K21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>69.046000000000006</v>
-      </c>
-      <c r="J21" s="6">
-        <f t="shared" si="1"/>
-        <v>50.876000000000005</v>
-      </c>
-      <c r="K21" s="5" t="str">
-        <f>D21 &amp; ".html"</f>
         <v>1014.html</v>
       </c>
       <c r="L21" s="5" t="s">
@@ -4451,7 +4535,7 @@
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D21:D91 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D21:D92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1014.jpg</v>
       </c>
       <c r="R21" s="1"/>
@@ -4476,7 +4560,7 @@
       <c r="E22" t="s">
         <v>131</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="40" t="s">
         <v>658</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -4486,15 +4570,15 @@
         <v>156.84</v>
       </c>
       <c r="I22" s="6">
+        <f t="shared" si="1"/>
+        <v>148.99799999999999</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="2"/>
+        <v>109.788</v>
+      </c>
+      <c r="K22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>148.99799999999999</v>
-      </c>
-      <c r="J22" s="6">
-        <f t="shared" si="1"/>
-        <v>109.788</v>
-      </c>
-      <c r="K22" s="5" t="str">
-        <f>D22 &amp; ".html"</f>
         <v>1015.html</v>
       </c>
       <c r="L22" s="5" t="s">
@@ -4511,11 +4595,11 @@
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D22:D91 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D22:D92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1015.jpg</v>
       </c>
       <c r="R22" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D22:D91 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D22:D92 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1015a.jpg</v>
       </c>
       <c r="S22" s="1" t="str">
@@ -4539,7 +4623,7 @@
       <c r="E23" t="s">
         <v>137</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="40" t="s">
         <v>659</v>
       </c>
       <c r="G23" s="5" t="s">
@@ -4549,15 +4633,15 @@
         <v>35.5</v>
       </c>
       <c r="I23" s="6">
+        <f t="shared" si="1"/>
+        <v>33.725000000000001</v>
+      </c>
+      <c r="J23" s="6">
+        <f t="shared" si="2"/>
+        <v>24.849999999999998</v>
+      </c>
+      <c r="K23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>33.725000000000001</v>
-      </c>
-      <c r="J23" s="6">
-        <f t="shared" si="1"/>
-        <v>24.849999999999998</v>
-      </c>
-      <c r="K23" s="5" t="str">
-        <f>D23 &amp; ".html"</f>
         <v>1016.html</v>
       </c>
       <c r="L23" s="5" t="s">
@@ -4574,7 +4658,7 @@
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D23:D91 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D23:D92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1016.jpg</v>
       </c>
       <c r="R23" s="1"/>
@@ -4599,7 +4683,7 @@
       <c r="E24" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="40" t="s">
         <v>660</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -4609,15 +4693,15 @@
         <v>34.909999999999997</v>
       </c>
       <c r="I24" s="6">
+        <f t="shared" si="1"/>
+        <v>33.164499999999997</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="2"/>
+        <v>24.436999999999998</v>
+      </c>
+      <c r="K24" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>33.164499999999997</v>
-      </c>
-      <c r="J24" s="6">
-        <f t="shared" si="1"/>
-        <v>24.436999999999998</v>
-      </c>
-      <c r="K24" s="5" t="str">
-        <f>D24 &amp; ".html"</f>
         <v>1017.html</v>
       </c>
       <c r="L24" s="5" t="s">
@@ -4634,7 +4718,7 @@
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D24:D91 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D24:D92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1017.jpg</v>
       </c>
       <c r="R24" s="1"/>
@@ -4659,7 +4743,7 @@
       <c r="E25" t="s">
         <v>149</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="40" t="s">
         <v>661</v>
       </c>
       <c r="G25" s="5" t="s">
@@ -4669,15 +4753,15 @@
         <v>72.680000000000007</v>
       </c>
       <c r="I25" s="6">
+        <f t="shared" si="1"/>
+        <v>69.046000000000006</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="2"/>
+        <v>50.876000000000005</v>
+      </c>
+      <c r="K25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>69.046000000000006</v>
-      </c>
-      <c r="J25" s="6">
-        <f t="shared" si="1"/>
-        <v>50.876000000000005</v>
-      </c>
-      <c r="K25" s="5" t="str">
-        <f>D25 &amp; ".html"</f>
         <v>1018.html</v>
       </c>
       <c r="L25" s="5" t="s">
@@ -4694,7 +4778,7 @@
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D25:D91 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D25:D92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1018.jpg</v>
       </c>
       <c r="R25" s="1"/>
@@ -4719,7 +4803,7 @@
       <c r="E26" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="40" t="s">
         <v>662</v>
       </c>
       <c r="G26" s="5" t="s">
@@ -4729,15 +4813,15 @@
         <v>54.94</v>
       </c>
       <c r="I26" s="6">
+        <f t="shared" si="1"/>
+        <v>52.192999999999998</v>
+      </c>
+      <c r="J26" s="6">
+        <f t="shared" si="2"/>
+        <v>38.457999999999998</v>
+      </c>
+      <c r="K26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>52.192999999999998</v>
-      </c>
-      <c r="J26" s="6">
-        <f t="shared" si="1"/>
-        <v>38.457999999999998</v>
-      </c>
-      <c r="K26" s="5" t="str">
-        <f>D26 &amp; ".html"</f>
         <v>1019.html</v>
       </c>
       <c r="L26" s="5" t="s">
@@ -4754,7 +4838,7 @@
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D26:D91 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D26:D92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1019.jpg</v>
       </c>
       <c r="R26" s="1"/>
@@ -4779,7 +4863,7 @@
       <c r="E27" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="40" t="s">
         <v>663</v>
       </c>
       <c r="G27" s="5" t="s">
@@ -4789,15 +4873,15 @@
         <v>41.79</v>
       </c>
       <c r="I27" s="6">
+        <f t="shared" si="1"/>
+        <v>39.700499999999998</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" si="2"/>
+        <v>29.252999999999997</v>
+      </c>
+      <c r="K27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>39.700499999999998</v>
-      </c>
-      <c r="J27" s="6">
-        <f t="shared" si="1"/>
-        <v>29.252999999999997</v>
-      </c>
-      <c r="K27" s="5" t="str">
-        <f>D27 &amp; ".html"</f>
         <v>1020.html</v>
       </c>
       <c r="L27" s="5" t="s">
@@ -4836,7 +4920,7 @@
       <c r="E28" t="s">
         <v>167</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="40" t="s">
         <v>664</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -4846,15 +4930,15 @@
         <v>48.08</v>
       </c>
       <c r="I28" s="6">
+        <f t="shared" si="1"/>
+        <v>45.675999999999995</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" si="2"/>
+        <v>33.655999999999999</v>
+      </c>
+      <c r="K28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>45.675999999999995</v>
-      </c>
-      <c r="J28" s="6">
-        <f t="shared" si="1"/>
-        <v>33.655999999999999</v>
-      </c>
-      <c r="K28" s="5" t="str">
-        <f>D28 &amp; ".html"</f>
         <v>1021.html</v>
       </c>
       <c r="L28" s="5" t="s">
@@ -4871,7 +4955,7 @@
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D28:D91 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D28:D92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1021.jpg</v>
       </c>
       <c r="R28" s="1"/>
@@ -4906,15 +4990,15 @@
         <v>14.9</v>
       </c>
       <c r="I29" s="24">
+        <f t="shared" si="1"/>
+        <v>14.154999999999999</v>
+      </c>
+      <c r="J29" s="24">
+        <f t="shared" si="2"/>
+        <v>10.43</v>
+      </c>
+      <c r="K29" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>14.154999999999999</v>
-      </c>
-      <c r="J29" s="24">
-        <f t="shared" si="1"/>
-        <v>10.43</v>
-      </c>
-      <c r="K29" s="18" t="str">
-        <f>D29 &amp; ".html"</f>
         <v>1085.html</v>
       </c>
       <c r="L29" s="18" t="s">
@@ -4931,7 +5015,7 @@
       </c>
       <c r="P29" s="14"/>
       <c r="Q29" s="16" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D29:D91 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D29:D92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1085.jpg</v>
       </c>
       <c r="R29" s="14"/>
@@ -4956,7 +5040,7 @@
       <c r="E30" t="s">
         <v>179</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="40" t="s">
         <v>665</v>
       </c>
       <c r="G30" s="5" t="s">
@@ -4966,15 +5050,15 @@
         <v>84.69</v>
       </c>
       <c r="I30" s="6">
+        <f t="shared" si="1"/>
+        <v>80.455500000000001</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" si="2"/>
+        <v>59.282999999999994</v>
+      </c>
+      <c r="K30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>80.455500000000001</v>
-      </c>
-      <c r="J30" s="6">
-        <f t="shared" si="1"/>
-        <v>59.282999999999994</v>
-      </c>
-      <c r="K30" s="5" t="str">
-        <f>D30 &amp; ".html"</f>
         <v>1022.html</v>
       </c>
       <c r="L30" s="5" t="s">
@@ -4991,11 +5075,11 @@
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D30:D91 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D30:D92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1022.jpg</v>
       </c>
       <c r="R30" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D30:D91 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D30:D92 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1022a.jpg</v>
       </c>
       <c r="S30" s="1" t="str">
@@ -5019,7 +5103,7 @@
       <c r="E31" t="s">
         <v>185</v>
       </c>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="40" t="s">
         <v>666</v>
       </c>
       <c r="G31" s="5" t="s">
@@ -5029,15 +5113,15 @@
         <v>80.12</v>
       </c>
       <c r="I31" s="6">
+        <f t="shared" si="1"/>
+        <v>76.114000000000004</v>
+      </c>
+      <c r="J31" s="6">
+        <f t="shared" si="2"/>
+        <v>56.083999999999996</v>
+      </c>
+      <c r="K31" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>76.114000000000004</v>
-      </c>
-      <c r="J31" s="6">
-        <f t="shared" si="1"/>
-        <v>56.083999999999996</v>
-      </c>
-      <c r="K31" s="5" t="str">
-        <f>D31 &amp; ".html"</f>
         <v>1023.html</v>
       </c>
       <c r="L31" s="5" t="s">
@@ -5054,7 +5138,7 @@
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D31:D91 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D31:D92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1023.jpg</v>
       </c>
       <c r="R31" s="1"/>
@@ -5064,7 +5148,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="14" t="s">
@@ -5085,7 +5169,7 @@
       <c r="G32" s="26" t="s">
         <v>739</v>
       </c>
-      <c r="H32" s="47">
+      <c r="H32" s="44">
         <v>68.680000000000007</v>
       </c>
       <c r="I32" s="24">
@@ -5096,20 +5180,20 @@
         <f>H32 * 0.7</f>
         <v>48.076000000000001</v>
       </c>
-      <c r="K32" s="48" t="str">
-        <f>D32 &amp; ".html"</f>
+      <c r="K32" s="45" t="str">
+        <f t="shared" si="0"/>
         <v>1097.html</v>
       </c>
       <c r="L32" s="18" t="s">
         <v>625</v>
       </c>
-      <c r="M32" s="49" t="s">
+      <c r="M32" s="46" t="s">
         <v>737</v>
       </c>
-      <c r="N32" s="49" t="s">
+      <c r="N32" s="46" t="s">
         <v>738</v>
       </c>
-      <c r="O32" s="49" t="s">
+      <c r="O32" s="46" t="s">
         <v>734</v>
       </c>
       <c r="Q32" s="16"/>
@@ -5119,67 +5203,66 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1097b.jpg</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:19" s="53" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="53">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1024</v>
-      </c>
-      <c r="E33" t="s">
-        <v>191</v>
-      </c>
-      <c r="F33" s="43" t="s">
-        <v>667</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="H33" s="5">
-        <v>187.14</v>
-      </c>
-      <c r="I33" s="6">
-        <f t="shared" si="0"/>
-        <v>177.78299999999999</v>
-      </c>
-      <c r="J33" s="6">
-        <f t="shared" si="1"/>
-        <v>130.99799999999999</v>
-      </c>
-      <c r="K33" s="5" t="str">
+      <c r="B33" s="54" t="s">
+        <v>740</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>741</v>
+      </c>
+      <c r="D33" s="55">
+        <v>1098</v>
+      </c>
+      <c r="E33" s="56" t="s">
+        <v>746</v>
+      </c>
+      <c r="F33" s="56" t="s">
+        <v>747</v>
+      </c>
+      <c r="G33" s="57" t="s">
+        <v>742</v>
+      </c>
+      <c r="H33" s="58">
+        <v>69.27</v>
+      </c>
+      <c r="I33" s="59">
+        <f>H33 * 0.95</f>
+        <v>65.8065</v>
+      </c>
+      <c r="J33" s="59">
+        <f>H33 * 0.7</f>
+        <v>48.488999999999997</v>
+      </c>
+      <c r="K33" s="60" t="str">
         <f>D33 &amp; ".html"</f>
-        <v>1024.html</v>
-      </c>
-      <c r="L33" s="5" t="s">
+        <v>1098.html</v>
+      </c>
+      <c r="L33" s="57" t="s">
         <v>625</v>
       </c>
-      <c r="M33" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D33:D91 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1024.jpg</v>
-      </c>
-      <c r="R33" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D33:D91 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1024a.jpg</v>
-      </c>
-      <c r="S33" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D33:D127 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1024b.jpg</v>
+      <c r="M33" s="61" t="s">
+        <v>745</v>
+      </c>
+      <c r="N33" s="54" t="s">
+        <v>743</v>
+      </c>
+      <c r="O33" s="61" t="s">
+        <v>744</v>
+      </c>
+      <c r="Q33" s="62" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D33:D129 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1098.jpg</v>
+      </c>
+      <c r="R33" s="54" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D33:D129 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1098a.jpg</v>
+      </c>
+      <c r="S33" s="54" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D33:D193 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1098b.jpg</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5187,62 +5270,62 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D34" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E34" t="s">
-        <v>197</v>
-      </c>
-      <c r="F34" s="43" t="s">
-        <v>668</v>
+        <v>191</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>667</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H34" s="5">
-        <v>60.68</v>
+        <v>187.14</v>
       </c>
       <c r="I34" s="6">
+        <f t="shared" si="1"/>
+        <v>177.78299999999999</v>
+      </c>
+      <c r="J34" s="6">
+        <f t="shared" si="2"/>
+        <v>130.99799999999999</v>
+      </c>
+      <c r="K34" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>57.645999999999994</v>
-      </c>
-      <c r="J34" s="6">
-        <f t="shared" si="1"/>
-        <v>42.475999999999999</v>
-      </c>
-      <c r="K34" s="5" t="str">
-        <f>D34 &amp; ".html"</f>
-        <v>1025.html</v>
+        <v>1024.html</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>625</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D34:D91 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1025.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D34:D92 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1024.jpg</v>
       </c>
       <c r="R34" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D34:D91 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1025a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D34:D92 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1024a.jpg</v>
       </c>
       <c r="S34" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D34:D128 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1025b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D34:D127 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1024b.jpg</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5250,59 +5333,62 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D35" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E35" t="s">
-        <v>203</v>
-      </c>
-      <c r="F35" s="43" t="s">
-        <v>669</v>
+        <v>197</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>668</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H35" s="5">
-        <v>75.58</v>
+        <v>60.68</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" si="0"/>
-        <v>71.801000000000002</v>
+        <f t="shared" si="1"/>
+        <v>57.645999999999994</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="1"/>
-        <v>52.905999999999999</v>
+        <f t="shared" si="2"/>
+        <v>42.475999999999999</v>
       </c>
       <c r="K35" s="5" t="str">
-        <f>D35 &amp; ".html"</f>
-        <v>1026.html</v>
+        <f t="shared" ref="K35:K66" si="3">D35 &amp; ".html"</f>
+        <v>1025.html</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>625</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D35:D91 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1026.jpg</v>
-      </c>
-      <c r="R35" s="1"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D35:D92 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1025.jpg</v>
+      </c>
+      <c r="R35" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D35:D92 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1025a.jpg</v>
+      </c>
       <c r="S35" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D35:D129 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1026b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D35:D128 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1025b.jpg</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5310,62 +5396,59 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D36" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E36" t="s">
-        <v>209</v>
-      </c>
-      <c r="F36" s="43" t="s">
-        <v>670</v>
+        <v>203</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>669</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H36" s="5">
-        <v>88.12</v>
+        <v>75.58</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" si="0"/>
-        <v>83.713999999999999</v>
+        <f t="shared" si="1"/>
+        <v>71.801000000000002</v>
       </c>
       <c r="J36" s="6">
-        <f t="shared" si="1"/>
-        <v>61.683999999999997</v>
+        <f t="shared" si="2"/>
+        <v>52.905999999999999</v>
       </c>
       <c r="K36" s="5" t="str">
-        <f>D36 &amp; ".html"</f>
-        <v>1027.html</v>
+        <f t="shared" si="3"/>
+        <v>1026.html</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>625</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D36:D91 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1027.jpg</v>
-      </c>
-      <c r="R36" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D36:D91 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1027a.jpg</v>
-      </c>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D36:D92 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1026.jpg</v>
+      </c>
+      <c r="R36" s="1"/>
       <c r="S36" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D36:D130 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1027b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D36:D129 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1026b.jpg</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5373,59 +5456,62 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D37" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E37" t="s">
-        <v>215</v>
-      </c>
-      <c r="F37" s="43" t="s">
-        <v>671</v>
+        <v>209</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>670</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H37" s="5">
-        <v>68.680000000000007</v>
+        <v>88.12</v>
       </c>
       <c r="I37" s="6">
-        <f t="shared" si="0"/>
-        <v>65.246000000000009</v>
+        <f t="shared" si="1"/>
+        <v>83.713999999999999</v>
       </c>
       <c r="J37" s="6">
-        <f t="shared" si="1"/>
-        <v>48.076000000000001</v>
+        <f t="shared" si="2"/>
+        <v>61.683999999999997</v>
       </c>
       <c r="K37" s="5" t="str">
-        <f>D37 &amp; ".html"</f>
-        <v>1028.html</v>
+        <f t="shared" si="3"/>
+        <v>1027.html</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>625</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D37:D91 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1028.jpg</v>
-      </c>
-      <c r="R37" s="1"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D37:D92 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1027.jpg</v>
+      </c>
+      <c r="R37" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D37:D92 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1027a.jpg</v>
+      </c>
       <c r="S37" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D37:D131 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1028b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D37:D130 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1027b.jpg</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5433,185 +5519,182 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D38" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E38" t="s">
-        <v>221</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>672</v>
+        <v>215</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>671</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H38" s="5">
-        <v>72.680000000000007</v>
+        <v>68.680000000000007</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="0"/>
-        <v>69.046000000000006</v>
+        <f t="shared" si="1"/>
+        <v>65.246000000000009</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" si="1"/>
-        <v>50.876000000000005</v>
+        <f t="shared" si="2"/>
+        <v>48.076000000000001</v>
       </c>
       <c r="K38" s="5" t="str">
-        <f>D38 &amp; ".html"</f>
-        <v>1029.html</v>
+        <f t="shared" si="3"/>
+        <v>1028.html</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>625</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D38:D91 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1029.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D38:D92 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1028.jpg</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D38:D132 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1029b.jpg</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D38:D131 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1028b.jpg</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="D39" s="37">
-        <v>1030</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="F39" s="43" t="s">
-        <v>673</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="H39" s="21">
-        <v>118.46</v>
-      </c>
-      <c r="I39" s="40">
-        <f t="shared" si="0"/>
-        <v>112.53699999999999</v>
-      </c>
-      <c r="J39" s="40">
+      <c r="B39" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1029</v>
+      </c>
+      <c r="E39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>672</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="H39" s="5">
+        <v>72.680000000000007</v>
+      </c>
+      <c r="I39" s="6">
         <f t="shared" si="1"/>
-        <v>82.921999999999997</v>
-      </c>
-      <c r="K39" s="21" t="str">
-        <f>D39 &amp; ".html"</f>
-        <v>1030.html</v>
-      </c>
-      <c r="L39" s="21" t="s">
+        <v>69.046000000000006</v>
+      </c>
+      <c r="J39" s="6">
+        <f t="shared" si="2"/>
+        <v>50.876000000000005</v>
+      </c>
+      <c r="K39" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>1029.html</v>
+      </c>
+      <c r="L39" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M39" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="N39" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="O39" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="39" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D39:D91 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1030.jpg</v>
-      </c>
-      <c r="R39" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D39:D91 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1030a.jpg</v>
-      </c>
+      <c r="M39" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D39:D92 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1029.jpg</v>
+      </c>
+      <c r="R39" s="1"/>
       <c r="S39" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D39:D133 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1030b.jpg</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D39:D132 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1029b.jpg</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1031</v>
-      </c>
-      <c r="E40" t="s">
-        <v>233</v>
-      </c>
-      <c r="F40" s="43" t="s">
-        <v>674</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="H40" s="5">
-        <v>36.61</v>
-      </c>
-      <c r="I40" s="6">
-        <f t="shared" si="0"/>
-        <v>34.779499999999999</v>
-      </c>
-      <c r="J40" s="6">
+      <c r="B40" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D40" s="34">
+        <v>1030</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>673</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="H40" s="21">
+        <v>118.46</v>
+      </c>
+      <c r="I40" s="37">
         <f t="shared" si="1"/>
-        <v>25.626999999999999</v>
-      </c>
-      <c r="K40" s="5" t="str">
-        <f>D40 &amp; ".html"</f>
-        <v>1031.html</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D40:D91 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1031.jpg</v>
-      </c>
-      <c r="R40" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D40:D91 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1031a.jpg</v>
+        <v>112.53699999999999</v>
+      </c>
+      <c r="J40" s="37">
+        <f t="shared" si="2"/>
+        <v>82.921999999999997</v>
+      </c>
+      <c r="K40" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>1030.html</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="M40" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="N40" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="O40" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="36" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D40:D92 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1030.jpg</v>
+      </c>
+      <c r="R40" s="20" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D40:D92 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1030a.jpg</v>
       </c>
       <c r="S40" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D40:D134 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1031b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D40:D133 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1030b.jpg</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5619,62 +5702,62 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D41" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E41" t="s">
-        <v>239</v>
-      </c>
-      <c r="F41" s="43" t="s">
-        <v>675</v>
+        <v>233</v>
+      </c>
+      <c r="F41" s="40" t="s">
+        <v>674</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H41" s="5">
-        <v>41.79</v>
+        <v>36.61</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" si="0"/>
-        <v>39.700499999999998</v>
+        <f t="shared" si="1"/>
+        <v>34.779499999999999</v>
       </c>
       <c r="J41" s="6">
-        <f t="shared" si="1"/>
-        <v>29.252999999999997</v>
+        <f t="shared" si="2"/>
+        <v>25.626999999999999</v>
       </c>
       <c r="K41" s="5" t="str">
-        <f>D41 &amp; ".html"</f>
-        <v>1032.html</v>
+        <f t="shared" si="3"/>
+        <v>1031.html</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D41:D91 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1032.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D41:D92 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1031.jpg</v>
       </c>
       <c r="R41" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D41:D91 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1032a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D41:D92 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1031a.jpg</v>
       </c>
       <c r="S41" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D41:D135 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1032b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D41:D134 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1031b.jpg</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5682,185 +5765,188 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D42" s="2">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E42" t="s">
-        <v>245</v>
-      </c>
-      <c r="F42" s="43" t="s">
-        <v>676</v>
+        <v>239</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>675</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H42" s="5">
-        <v>49.78</v>
+        <v>41.79</v>
       </c>
       <c r="I42" s="6">
-        <f t="shared" si="0"/>
-        <v>47.290999999999997</v>
+        <f t="shared" si="1"/>
+        <v>39.700499999999998</v>
       </c>
       <c r="J42" s="6">
-        <f t="shared" si="1"/>
-        <v>34.845999999999997</v>
+        <f t="shared" si="2"/>
+        <v>29.252999999999997</v>
       </c>
       <c r="K42" s="5" t="str">
-        <f>D42 &amp; ".html"</f>
-        <v>1033.html</v>
+        <f t="shared" si="3"/>
+        <v>1032.html</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D42:D91 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1033.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D42:D92 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1032.jpg</v>
       </c>
       <c r="R42" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D42:D91 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1033a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D42:D92 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1032a.jpg</v>
       </c>
       <c r="S42" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D42:D136 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1033b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D42:D135 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1032b.jpg</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="D43" s="9">
-        <v>1077</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F43" s="43" t="s">
-        <v>677</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>581</v>
-      </c>
-      <c r="H43" s="12">
-        <v>72.680000000000007</v>
+      <c r="B43" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1033</v>
+      </c>
+      <c r="E43" t="s">
+        <v>245</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>676</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="H43" s="5">
+        <v>49.78</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" si="0"/>
-        <v>69.046000000000006</v>
+        <f t="shared" si="1"/>
+        <v>47.290999999999997</v>
       </c>
       <c r="J43" s="6">
-        <f t="shared" si="1"/>
-        <v>50.876000000000005</v>
+        <f t="shared" si="2"/>
+        <v>34.845999999999997</v>
       </c>
       <c r="K43" s="5" t="str">
-        <f>D43 &amp; ".html"</f>
-        <v>1077.html</v>
-      </c>
-      <c r="L43" s="12" t="s">
+        <f t="shared" si="3"/>
+        <v>1033.html</v>
+      </c>
+      <c r="L43" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M43" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="O43" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D43:D91 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1077.jpg</v>
-      </c>
-      <c r="R43" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D43:D91 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1077a.jpg</v>
+      <c r="M43" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D43:D92 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1033.jpg</v>
+      </c>
+      <c r="R43" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D43:D92 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1033a.jpg</v>
       </c>
       <c r="S43" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D43:D137 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1077b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D43:D136 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1033b.jpg</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1034</v>
-      </c>
-      <c r="E44" t="s">
-        <v>257</v>
-      </c>
-      <c r="F44" s="43" t="s">
-        <v>678</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="H44" s="5">
-        <v>8</v>
+      <c r="B44" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D44" s="9">
+        <v>1077</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="H44" s="12">
+        <v>72.680000000000007</v>
       </c>
       <c r="I44" s="6">
-        <f t="shared" si="0"/>
-        <v>7.6</v>
+        <f t="shared" si="1"/>
+        <v>69.046000000000006</v>
       </c>
       <c r="J44" s="6">
-        <f t="shared" si="1"/>
-        <v>5.6</v>
+        <f t="shared" si="2"/>
+        <v>50.876000000000005</v>
       </c>
       <c r="K44" s="5" t="str">
-        <f>D44 &amp; ".html"</f>
-        <v>1034.html</v>
-      </c>
-      <c r="L44" s="5" t="s">
+        <f t="shared" si="3"/>
+        <v>1077.html</v>
+      </c>
+      <c r="L44" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="M44" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D44:D91 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1034.jpg</v>
-      </c>
-      <c r="R44" s="1"/>
+      <c r="M44" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O44" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="10" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D44:D92 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1077.jpg</v>
+      </c>
+      <c r="R44" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D44:D92 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1077a.jpg</v>
+      </c>
       <c r="S44" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D44:D138 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1034b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D44:D137 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1077b.jpg</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5868,59 +5954,59 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D45" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E45" t="s">
-        <v>263</v>
-      </c>
-      <c r="F45" s="43" t="s">
-        <v>679</v>
+        <v>257</v>
+      </c>
+      <c r="F45" s="40" t="s">
+        <v>678</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H45" s="5">
-        <v>36.08</v>
+        <v>8</v>
       </c>
       <c r="I45" s="6">
-        <f t="shared" si="0"/>
-        <v>34.275999999999996</v>
+        <f t="shared" si="1"/>
+        <v>7.6</v>
       </c>
       <c r="J45" s="6">
-        <f t="shared" si="1"/>
-        <v>25.255999999999997</v>
+        <f t="shared" si="2"/>
+        <v>5.6</v>
       </c>
       <c r="K45" s="5" t="str">
-        <f>D45 &amp; ".html"</f>
-        <v>1035.html</v>
+        <f t="shared" si="3"/>
+        <v>1034.html</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D45:D91 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1035.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D45:D92 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1034.jpg</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D45:D139 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1035b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D45:D138 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1034b.jpg</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5928,58 +6014,59 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D46" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E46" t="s">
-        <v>267</v>
-      </c>
-      <c r="F46" s="43" t="s">
-        <v>680</v>
+        <v>263</v>
+      </c>
+      <c r="F46" s="40" t="s">
+        <v>679</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H46" s="5">
-        <v>400.64</v>
+        <v>36.08</v>
       </c>
       <c r="I46" s="6">
-        <f t="shared" si="0"/>
-        <v>380.60799999999995</v>
+        <f t="shared" si="1"/>
+        <v>34.275999999999996</v>
       </c>
       <c r="J46" s="6">
-        <f t="shared" si="1"/>
-        <v>280.44799999999998</v>
+        <f t="shared" si="2"/>
+        <v>25.255999999999997</v>
       </c>
       <c r="K46" s="5" t="str">
-        <f>D46 &amp; ".html"</f>
-        <v>1036.html</v>
+        <f t="shared" si="3"/>
+        <v>1035.html</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
+        <v>260</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D46:D91 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1036.jpg</v>
-      </c>
-      <c r="R46" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D46:D91 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1036a.jpg</v>
-      </c>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D46:D92 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1035.jpg</v>
+      </c>
+      <c r="R46" s="1"/>
       <c r="S46" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D46:D140 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1036b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D46:D139 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1035b.jpg</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5987,62 +6074,58 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D47" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F47" s="43" t="s">
-        <v>681</v>
+        <v>267</v>
+      </c>
+      <c r="F47" s="40" t="s">
+        <v>680</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H47" s="5">
-        <v>80.12</v>
+        <v>400.64</v>
       </c>
       <c r="I47" s="6">
-        <f t="shared" si="0"/>
-        <v>76.114000000000004</v>
+        <f t="shared" si="1"/>
+        <v>380.60799999999995</v>
       </c>
       <c r="J47" s="6">
-        <f t="shared" si="1"/>
-        <v>56.083999999999996</v>
+        <f t="shared" si="2"/>
+        <v>280.44799999999998</v>
       </c>
       <c r="K47" s="5" t="str">
-        <f>D47 &amp; ".html"</f>
-        <v>1037.html</v>
+        <f t="shared" si="3"/>
+        <v>1036.html</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>272</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D47:D91 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1037.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D47:D92 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1036.jpg</v>
       </c>
       <c r="R47" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D47:D91 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1037a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D47:D92 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1036a.jpg</v>
       </c>
       <c r="S47" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D47:D141 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1037b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D47:D140 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1036b.jpg</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6050,59 +6133,62 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D48" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E48" t="s">
-        <v>279</v>
-      </c>
-      <c r="F48" s="43" t="s">
-        <v>682</v>
+        <v>273</v>
+      </c>
+      <c r="F48" s="40" t="s">
+        <v>681</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H48" s="5">
-        <v>119.05</v>
+        <v>80.12</v>
       </c>
       <c r="I48" s="6">
-        <f t="shared" si="0"/>
-        <v>113.0975</v>
+        <f t="shared" si="1"/>
+        <v>76.114000000000004</v>
       </c>
       <c r="J48" s="6">
-        <f t="shared" si="1"/>
-        <v>83.334999999999994</v>
+        <f t="shared" si="2"/>
+        <v>56.083999999999996</v>
       </c>
       <c r="K48" s="5" t="str">
-        <f>D48 &amp; ".html"</f>
-        <v>1038.html</v>
+        <f t="shared" si="3"/>
+        <v>1037.html</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D48:D91 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1038.jpg</v>
-      </c>
-      <c r="R48" s="1"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D48:D92 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1037.jpg</v>
+      </c>
+      <c r="R48" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D48:D92 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1037a.jpg</v>
+      </c>
       <c r="S48" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D48:D142 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1038b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D48:D141 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1037b.jpg</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6110,62 +6196,59 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D49" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E49" t="s">
-        <v>285</v>
-      </c>
-      <c r="F49" s="43" t="s">
-        <v>683</v>
+        <v>279</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>682</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H49" s="5">
-        <v>60.11</v>
+        <v>119.05</v>
       </c>
       <c r="I49" s="6">
-        <f t="shared" si="0"/>
-        <v>57.104499999999994</v>
+        <f t="shared" si="1"/>
+        <v>113.0975</v>
       </c>
       <c r="J49" s="6">
-        <f t="shared" si="1"/>
-        <v>42.076999999999998</v>
+        <f t="shared" si="2"/>
+        <v>83.334999999999994</v>
       </c>
       <c r="K49" s="5" t="str">
-        <f>D49 &amp; ".html"</f>
-        <v>1039.html</v>
+        <f t="shared" si="3"/>
+        <v>1038.html</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D49:D98 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1039.jpg</v>
-      </c>
-      <c r="R49" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D49:D98 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1039a.jpg</v>
-      </c>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D49:D92 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1038.jpg</v>
+      </c>
+      <c r="R49" s="1"/>
       <c r="S49" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D49:D143 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1039b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D49:D142 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1038b.jpg</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6173,62 +6256,62 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D50" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E50" t="s">
-        <v>291</v>
-      </c>
-      <c r="F50" s="43" t="s">
-        <v>684</v>
+        <v>285</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>683</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H50" s="5">
-        <v>132.77000000000001</v>
+        <v>60.11</v>
       </c>
       <c r="I50" s="6">
-        <f t="shared" si="0"/>
-        <v>126.1315</v>
+        <f t="shared" si="1"/>
+        <v>57.104499999999994</v>
       </c>
       <c r="J50" s="6">
-        <f t="shared" si="1"/>
-        <v>92.939000000000007</v>
+        <f t="shared" si="2"/>
+        <v>42.076999999999998</v>
       </c>
       <c r="K50" s="5" t="str">
-        <f>D50 &amp; ".html"</f>
-        <v>1040.html</v>
+        <f t="shared" si="3"/>
+        <v>1039.html</v>
       </c>
       <c r="L50" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D50:D98 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1040.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D50:D99 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1039.jpg</v>
       </c>
       <c r="R50" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D50:D98 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1040a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D50:D99 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1039a.jpg</v>
       </c>
       <c r="S50" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D50:D144 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1040b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D50:D143 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1039b.jpg</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6236,62 +6319,62 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D51" s="2">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E51" t="s">
-        <v>297</v>
-      </c>
-      <c r="F51" s="43" t="s">
-        <v>685</v>
+        <v>291</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>684</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H51" s="5">
-        <v>83.57</v>
+        <v>132.77000000000001</v>
       </c>
       <c r="I51" s="6">
-        <f t="shared" si="0"/>
-        <v>79.391499999999994</v>
+        <f t="shared" si="1"/>
+        <v>126.1315</v>
       </c>
       <c r="J51" s="6">
-        <f t="shared" si="1"/>
-        <v>58.498999999999988</v>
+        <f t="shared" si="2"/>
+        <v>92.939000000000007</v>
       </c>
       <c r="K51" s="5" t="str">
-        <f>D51 &amp; ".html"</f>
-        <v>1041.html</v>
+        <f t="shared" si="3"/>
+        <v>1040.html</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D51:D99 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1041.jpg</v>
+        <f t="shared" ref="Q51" si="4" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D51:D99 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1040.jpg</v>
       </c>
       <c r="R51" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D51:D99 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1041a.jpg</v>
+        <f t="shared" ref="R51" si="5" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D51:D99 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1040a.jpg</v>
       </c>
       <c r="S51" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D51:D145 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1041b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D51:D144 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1040b.jpg</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6299,62 +6382,62 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D52" s="2">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E52" t="s">
-        <v>303</v>
-      </c>
-      <c r="F52" s="43" t="s">
-        <v>686</v>
+        <v>297</v>
+      </c>
+      <c r="F52" s="40" t="s">
+        <v>685</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H52" s="5">
-        <v>41.79</v>
+        <v>83.57</v>
       </c>
       <c r="I52" s="6">
-        <f t="shared" si="0"/>
-        <v>39.700499999999998</v>
+        <f t="shared" si="1"/>
+        <v>79.391499999999994</v>
       </c>
       <c r="J52" s="6">
-        <f t="shared" si="1"/>
-        <v>29.252999999999997</v>
+        <f t="shared" si="2"/>
+        <v>58.498999999999988</v>
       </c>
       <c r="K52" s="5" t="str">
-        <f>D52 &amp; ".html"</f>
-        <v>1042.html</v>
+        <f t="shared" si="3"/>
+        <v>1041.html</v>
       </c>
       <c r="L52" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D52:D100 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1042.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D52:D99 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1041.jpg</v>
       </c>
       <c r="R52" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D52:D100 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1042a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D52:D99 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1041a.jpg</v>
       </c>
       <c r="S52" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D52:D146 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1042b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D52:D145 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1041b.jpg</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6362,58 +6445,62 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D53" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E53" t="s">
-        <v>307</v>
-      </c>
-      <c r="F53" s="43" t="s">
-        <v>687</v>
+        <v>303</v>
+      </c>
+      <c r="F53" s="40" t="s">
+        <v>686</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H53" s="5">
-        <v>195.18</v>
+        <v>41.79</v>
       </c>
       <c r="I53" s="6">
-        <f t="shared" si="0"/>
-        <v>185.42099999999999</v>
+        <f t="shared" si="1"/>
+        <v>39.700499999999998</v>
       </c>
       <c r="J53" s="6">
-        <f t="shared" si="1"/>
-        <v>136.626</v>
+        <f t="shared" si="2"/>
+        <v>29.252999999999997</v>
       </c>
       <c r="K53" s="5" t="str">
-        <f>D53 &amp; ".html"</f>
-        <v>1043.html</v>
+        <f t="shared" si="3"/>
+        <v>1042.html</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
+        <v>300</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="P53" s="1"/>
       <c r="Q53" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D53:D101 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1043.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D53:D100 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1042.jpg</v>
       </c>
       <c r="R53" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D53:D101 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1043a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D53:D100 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1042a.jpg</v>
       </c>
       <c r="S53" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D53:D147 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1043b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D53:D146 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1042b.jpg</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6421,62 +6508,58 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D54" s="2">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E54" t="s">
-        <v>313</v>
-      </c>
-      <c r="F54" s="43" t="s">
-        <v>688</v>
+        <v>307</v>
+      </c>
+      <c r="F54" s="40" t="s">
+        <v>687</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H54" s="5">
-        <v>50.92</v>
+        <v>195.18</v>
       </c>
       <c r="I54" s="6">
-        <f t="shared" si="0"/>
-        <v>48.374000000000002</v>
+        <f t="shared" si="1"/>
+        <v>185.42099999999999</v>
       </c>
       <c r="J54" s="6">
-        <f t="shared" si="1"/>
-        <v>35.643999999999998</v>
+        <f t="shared" si="2"/>
+        <v>136.626</v>
       </c>
       <c r="K54" s="5" t="str">
-        <f>D54 &amp; ".html"</f>
-        <v>1044.html</v>
+        <f t="shared" si="3"/>
+        <v>1043.html</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>312</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D54:D102 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1044.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D54:D101 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1043.jpg</v>
       </c>
       <c r="R54" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D54:D102 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1044a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D54:D101 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1043a.jpg</v>
       </c>
       <c r="S54" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D54:D148 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1044b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D54:D147 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1043b.jpg</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6484,62 +6567,62 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D55" s="2">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E55" t="s">
-        <v>319</v>
-      </c>
-      <c r="F55" s="43" t="s">
-        <v>689</v>
+        <v>313</v>
+      </c>
+      <c r="F55" s="40" t="s">
+        <v>688</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H55" s="5">
-        <v>53.82</v>
+        <v>50.92</v>
       </c>
       <c r="I55" s="6">
-        <f t="shared" si="0"/>
-        <v>51.128999999999998</v>
+        <f t="shared" si="1"/>
+        <v>48.374000000000002</v>
       </c>
       <c r="J55" s="6">
-        <f t="shared" si="1"/>
-        <v>37.673999999999999</v>
+        <f t="shared" si="2"/>
+        <v>35.643999999999998</v>
       </c>
       <c r="K55" s="5" t="str">
-        <f>D55 &amp; ".html"</f>
-        <v>1045.html</v>
+        <f t="shared" si="3"/>
+        <v>1044.html</v>
       </c>
       <c r="L55" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P55" s="1"/>
       <c r="Q55" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D55:D103 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1045.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D55:D102 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1044.jpg</v>
       </c>
       <c r="R55" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D55:D103 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1045a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D55:D102 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1044a.jpg</v>
       </c>
       <c r="S55" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D55:D149 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1045b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D55:D148 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1044b.jpg</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6547,188 +6630,188 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D56" s="2">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E56" t="s">
-        <v>325</v>
-      </c>
-      <c r="F56" s="43" t="s">
-        <v>690</v>
+        <v>319</v>
+      </c>
+      <c r="F56" s="40" t="s">
+        <v>689</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H56" s="5">
         <v>53.82</v>
       </c>
       <c r="I56" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51.128999999999998</v>
       </c>
       <c r="J56" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37.673999999999999</v>
       </c>
       <c r="K56" s="5" t="str">
-        <f>D56 &amp; ".html"</f>
-        <v>1046.html</v>
+        <f t="shared" si="3"/>
+        <v>1045.html</v>
       </c>
       <c r="L56" s="5" t="s">
         <v>626</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P56" s="1"/>
       <c r="Q56" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D56:D104 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1046.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D56:D103 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1045.jpg</v>
       </c>
       <c r="R56" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D56:D104 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1046a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D56:D103 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1045a.jpg</v>
       </c>
       <c r="S56" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D56:D150 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1046b.jpg</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D56:D149 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1045b.jpg</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="D57" s="37">
-        <v>1047</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="F57" s="43" t="s">
-        <v>691</v>
-      </c>
-      <c r="G57" s="21" t="s">
-        <v>595</v>
-      </c>
-      <c r="H57" s="21">
-        <v>58.96</v>
-      </c>
-      <c r="I57" s="40">
-        <f t="shared" si="0"/>
-        <v>56.012</v>
-      </c>
-      <c r="J57" s="40">
+      <c r="B57" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1046</v>
+      </c>
+      <c r="E57" t="s">
+        <v>325</v>
+      </c>
+      <c r="F57" s="40" t="s">
+        <v>690</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="H57" s="5">
+        <v>53.82</v>
+      </c>
+      <c r="I57" s="6">
         <f t="shared" si="1"/>
-        <v>41.271999999999998</v>
-      </c>
-      <c r="K57" s="21" t="str">
-        <f>D57 &amp; ".html"</f>
-        <v>1047.html</v>
-      </c>
-      <c r="L57" s="21" t="s">
+        <v>51.128999999999998</v>
+      </c>
+      <c r="J57" s="6">
+        <f t="shared" si="2"/>
+        <v>37.673999999999999</v>
+      </c>
+      <c r="K57" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>1046.html</v>
+      </c>
+      <c r="L57" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M57" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="N57" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="O57" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="39" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D57:D105 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1047.jpg</v>
-      </c>
-      <c r="R57" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D57:D105 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1047a.jpg</v>
+      <c r="M57" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D57:D104 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1046.jpg</v>
+      </c>
+      <c r="R57" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D57:D104 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1046a.jpg</v>
       </c>
       <c r="S57" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D57:D151 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1047b.jpg</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D57:D150 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1046b.jpg</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1048</v>
-      </c>
-      <c r="E58" t="s">
-        <v>337</v>
-      </c>
-      <c r="F58" s="43" t="s">
-        <v>692</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="H58" s="5">
-        <v>34.340000000000003</v>
-      </c>
-      <c r="I58" s="6">
-        <f t="shared" si="0"/>
-        <v>32.623000000000005</v>
-      </c>
-      <c r="J58" s="6">
+      <c r="B58" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D58" s="34">
+        <v>1047</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="F58" s="40" t="s">
+        <v>691</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="H58" s="21">
+        <v>58.96</v>
+      </c>
+      <c r="I58" s="37">
         <f t="shared" si="1"/>
-        <v>24.038</v>
-      </c>
-      <c r="K58" s="5" t="str">
-        <f>D58 &amp; ".html"</f>
-        <v>1048.html</v>
-      </c>
-      <c r="L58" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D58:D106 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1048.jpg</v>
-      </c>
-      <c r="R58" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D58:D106 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1048a.jpg</v>
+        <v>56.012</v>
+      </c>
+      <c r="J58" s="37">
+        <f t="shared" si="2"/>
+        <v>41.271999999999998</v>
+      </c>
+      <c r="K58" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>1047.html</v>
+      </c>
+      <c r="L58" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="M58" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="N58" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="O58" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="36" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D58:D105 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1047.jpg</v>
+      </c>
+      <c r="R58" s="20" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D58:D105 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1047a.jpg</v>
       </c>
       <c r="S58" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D58:D152 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1048b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D58:D151 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1047b.jpg</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6736,62 +6819,62 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D59" s="2">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E59" t="s">
-        <v>343</v>
-      </c>
-      <c r="F59" s="43" t="s">
-        <v>693</v>
+        <v>337</v>
+      </c>
+      <c r="F59" s="40" t="s">
+        <v>692</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H59" s="5">
         <v>34.340000000000003</v>
       </c>
       <c r="I59" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32.623000000000005</v>
       </c>
       <c r="J59" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.038</v>
       </c>
       <c r="K59" s="5" t="str">
-        <f>D59 &amp; ".html"</f>
-        <v>1049.html</v>
+        <f t="shared" si="3"/>
+        <v>1048.html</v>
       </c>
       <c r="L59" s="5" t="s">
         <v>627</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P59" s="1"/>
       <c r="Q59" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D59:D107 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1049.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D59:D106 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1048.jpg</v>
       </c>
       <c r="R59" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D59:D107 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1049a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D59:D106 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1048a.jpg</v>
       </c>
       <c r="S59" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D59:D153 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1049b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D59:D152 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1048b.jpg</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6799,62 +6882,62 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D60" s="2">
-        <v>1050</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="F60" s="43" t="s">
-        <v>694</v>
+        <v>1049</v>
+      </c>
+      <c r="E60" t="s">
+        <v>343</v>
+      </c>
+      <c r="F60" s="40" t="s">
+        <v>693</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H60" s="5">
-        <v>45.24</v>
+        <v>34.340000000000003</v>
       </c>
       <c r="I60" s="6">
-        <f t="shared" si="0"/>
-        <v>42.978000000000002</v>
+        <f t="shared" si="1"/>
+        <v>32.623000000000005</v>
       </c>
       <c r="J60" s="6">
-        <f t="shared" si="1"/>
-        <v>31.667999999999999</v>
+        <f t="shared" si="2"/>
+        <v>24.038</v>
       </c>
       <c r="K60" s="5" t="str">
-        <f>D60 &amp; ".html"</f>
-        <v>1050.html</v>
+        <f t="shared" si="3"/>
+        <v>1049.html</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>627</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="P60" s="1"/>
       <c r="Q60" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D60:D108 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1050.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D60:D107 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1049.jpg</v>
       </c>
       <c r="R60" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D60:D108 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1050a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D60:D107 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1049a.jpg</v>
       </c>
       <c r="S60" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D60:D154 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1050b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D60:D153 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1049b.jpg</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6862,62 +6945,62 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D61" s="2">
-        <v>1051</v>
-      </c>
-      <c r="E61" t="s">
-        <v>355</v>
-      </c>
-      <c r="F61" s="43" t="s">
-        <v>695</v>
+        <v>1050</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="F61" s="40" t="s">
+        <v>694</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H61" s="5">
-        <v>52.68</v>
+        <v>45.24</v>
       </c>
       <c r="I61" s="6">
-        <f t="shared" si="0"/>
-        <v>50.045999999999999</v>
+        <f t="shared" si="1"/>
+        <v>42.978000000000002</v>
       </c>
       <c r="J61" s="6">
-        <f t="shared" si="1"/>
-        <v>36.875999999999998</v>
+        <f t="shared" si="2"/>
+        <v>31.667999999999999</v>
       </c>
       <c r="K61" s="5" t="str">
-        <f>D61 &amp; ".html"</f>
-        <v>1051.html</v>
+        <f t="shared" si="3"/>
+        <v>1050.html</v>
       </c>
       <c r="L61" s="5" t="s">
         <v>627</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P61" s="1"/>
       <c r="Q61" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D61:D109 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1051.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D61:D108 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1050.jpg</v>
       </c>
       <c r="R61" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D61:D109 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1051a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D61:D108 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1050a.jpg</v>
       </c>
       <c r="S61" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D61:D155 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1051b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D61:D154 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1050b.jpg</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6925,62 +7008,62 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D62" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E62" t="s">
-        <v>361</v>
-      </c>
-      <c r="F62" s="43" t="s">
-        <v>696</v>
+        <v>355</v>
+      </c>
+      <c r="F62" s="40" t="s">
+        <v>695</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H62" s="5">
-        <v>45.24</v>
+        <v>52.68</v>
       </c>
       <c r="I62" s="6">
-        <f t="shared" si="0"/>
-        <v>42.978000000000002</v>
+        <f t="shared" si="1"/>
+        <v>50.045999999999999</v>
       </c>
       <c r="J62" s="6">
-        <f t="shared" si="1"/>
-        <v>31.667999999999999</v>
+        <f t="shared" si="2"/>
+        <v>36.875999999999998</v>
       </c>
       <c r="K62" s="5" t="str">
-        <f>D62 &amp; ".html"</f>
-        <v>1052.html</v>
+        <f t="shared" si="3"/>
+        <v>1051.html</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>627</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D62:D110 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1052.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D62:D109 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1051.jpg</v>
       </c>
       <c r="R62" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D62:D110 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1052a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D62:D109 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1051a.jpg</v>
       </c>
       <c r="S62" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D62:D156 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1052b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D62:D155 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1051b.jpg</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6988,248 +7071,248 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D63" s="2">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E63" t="s">
-        <v>367</v>
-      </c>
-      <c r="F63" s="43" t="s">
-        <v>697</v>
+        <v>361</v>
+      </c>
+      <c r="F63" s="40" t="s">
+        <v>696</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H63" s="5">
-        <v>47.53</v>
+        <v>45.24</v>
       </c>
       <c r="I63" s="6">
-        <f t="shared" si="0"/>
-        <v>45.153500000000001</v>
+        <f t="shared" si="1"/>
+        <v>42.978000000000002</v>
       </c>
       <c r="J63" s="6">
-        <f t="shared" si="1"/>
-        <v>33.271000000000001</v>
+        <f t="shared" si="2"/>
+        <v>31.667999999999999</v>
       </c>
       <c r="K63" s="5" t="str">
-        <f>D63 &amp; ".html"</f>
-        <v>1053.html</v>
+        <f t="shared" si="3"/>
+        <v>1052.html</v>
       </c>
       <c r="L63" s="5" t="s">
         <v>627</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P63" s="1"/>
       <c r="Q63" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D63:D111 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1053.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D63:D110 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1052.jpg</v>
       </c>
       <c r="R63" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D63:D111 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1053a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D63:D110 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1052a.jpg</v>
       </c>
       <c r="S63" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D63:D157 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1053b.jpg</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D63:D156 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1052b.jpg</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>633</v>
-      </c>
-      <c r="D64" s="37">
-        <v>1054</v>
-      </c>
-      <c r="E64" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="F64" s="43" t="s">
-        <v>698</v>
-      </c>
-      <c r="G64" s="21" t="s">
-        <v>602</v>
-      </c>
-      <c r="H64" s="21">
-        <v>34.340000000000003</v>
-      </c>
-      <c r="I64" s="40">
-        <f t="shared" si="0"/>
-        <v>32.623000000000005</v>
-      </c>
-      <c r="J64" s="40">
+      <c r="B64" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1053</v>
+      </c>
+      <c r="E64" t="s">
+        <v>367</v>
+      </c>
+      <c r="F64" s="40" t="s">
+        <v>697</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="H64" s="5">
+        <v>47.53</v>
+      </c>
+      <c r="I64" s="6">
         <f t="shared" si="1"/>
-        <v>24.038</v>
-      </c>
-      <c r="K64" s="21" t="str">
-        <f>D64 &amp; ".html"</f>
-        <v>1054.html</v>
-      </c>
-      <c r="L64" s="21" t="s">
+        <v>45.153500000000001</v>
+      </c>
+      <c r="J64" s="6">
+        <f t="shared" si="2"/>
+        <v>33.271000000000001</v>
+      </c>
+      <c r="K64" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>1053.html</v>
+      </c>
+      <c r="L64" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="M64" s="38" t="s">
-        <v>369</v>
-      </c>
-      <c r="N64" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="O64" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="39" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D64:D112 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1054.jpg</v>
-      </c>
-      <c r="R64" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D64:D112 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1054a.jpg</v>
+      <c r="M64" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D64:D111 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1053.jpg</v>
+      </c>
+      <c r="R64" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D64:D111 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1053a.jpg</v>
       </c>
       <c r="S64" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D64:D158 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1054b.jpg</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D64:D157 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1053b.jpg</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1055</v>
-      </c>
-      <c r="E65" t="s">
-        <v>378</v>
-      </c>
-      <c r="F65" s="43" t="s">
-        <v>699</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="H65" s="5">
-        <v>13.76</v>
-      </c>
-      <c r="I65" s="6">
-        <f t="shared" si="0"/>
-        <v>13.071999999999999</v>
-      </c>
-      <c r="J65" s="6">
+      <c r="B65" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>633</v>
+      </c>
+      <c r="D65" s="34">
+        <v>1054</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="F65" s="40" t="s">
+        <v>698</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="H65" s="21">
+        <v>34.340000000000003</v>
+      </c>
+      <c r="I65" s="37">
         <f t="shared" si="1"/>
-        <v>9.6319999999999997</v>
-      </c>
-      <c r="K65" s="5" t="str">
-        <f>D65 &amp; ".html"</f>
-        <v>1055.html</v>
-      </c>
-      <c r="L65" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D65:D113 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1055.jpg</v>
-      </c>
-      <c r="R65" s="1"/>
+        <v>32.623000000000005</v>
+      </c>
+      <c r="J65" s="37">
+        <f t="shared" si="2"/>
+        <v>24.038</v>
+      </c>
+      <c r="K65" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>1054.html</v>
+      </c>
+      <c r="L65" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="M65" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="N65" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="O65" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="36" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D65:D112 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1054.jpg</v>
+      </c>
+      <c r="R65" s="20" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D65:D112 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1054a.jpg</v>
+      </c>
       <c r="S65" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D65:D159 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1055b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D65:D158 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1054b.jpg</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="D66" s="9">
-        <v>1079</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F66" s="43" t="s">
-        <v>700</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="H66" s="12">
-        <v>76.69</v>
+      <c r="B66" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1055</v>
+      </c>
+      <c r="E66" t="s">
+        <v>378</v>
+      </c>
+      <c r="F66" s="40" t="s">
+        <v>699</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="H66" s="5">
+        <v>13.76</v>
       </c>
       <c r="I66" s="6">
-        <f t="shared" si="0"/>
-        <v>72.855499999999992</v>
+        <f t="shared" si="1"/>
+        <v>13.071999999999999</v>
       </c>
       <c r="J66" s="6">
-        <f t="shared" si="1"/>
-        <v>53.682999999999993</v>
+        <f t="shared" si="2"/>
+        <v>9.6319999999999997</v>
       </c>
       <c r="K66" s="5" t="str">
-        <f>D66 &amp; ".html"</f>
-        <v>1079.html</v>
-      </c>
-      <c r="L66" s="12" t="s">
+        <f t="shared" si="3"/>
+        <v>1055.html</v>
+      </c>
+      <c r="L66" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="M66" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="N66" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="O66" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D66:D114 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1079.jpg</v>
-      </c>
-      <c r="R66" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D66:D114 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1079a.jpg</v>
-      </c>
+      <c r="M66" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D66:D113 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1055.jpg</v>
+      </c>
+      <c r="R66" s="1"/>
       <c r="S66" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D66:D160 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1079b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D66:D159 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1055b.jpg</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7237,19 +7320,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>386</v>
+        <v>379</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>380</v>
       </c>
       <c r="D67" s="9">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="F67" s="43" t="s">
-        <v>701</v>
+        <v>384</v>
+      </c>
+      <c r="F67" s="40" t="s">
+        <v>700</v>
       </c>
       <c r="G67" s="12" t="s">
         <v>604</v>
@@ -7258,41 +7341,41 @@
         <v>76.69</v>
       </c>
       <c r="I67" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72.855499999999992</v>
       </c>
       <c r="J67" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53.682999999999993</v>
       </c>
       <c r="K67" s="5" t="str">
-        <f>D67 &amp; ".html"</f>
-        <v>1080.html</v>
+        <f t="shared" ref="K67:K99" si="6">D67 &amp; ".html"</f>
+        <v>1079.html</v>
       </c>
       <c r="L67" s="12" t="s">
         <v>628</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="O67" s="8" t="s">
         <v>383</v>
       </c>
       <c r="P67" s="8"/>
       <c r="Q67" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D67:D115 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1080.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D67:D114 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1079.jpg</v>
       </c>
       <c r="R67" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D67:D115 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1080a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D67:D114 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1079a.jpg</v>
       </c>
       <c r="S67" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D67:D161 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1080b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D67:D160 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1079b.jpg</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7300,125 +7383,125 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>386</v>
       </c>
       <c r="D68" s="9">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F68" s="43" t="s">
-        <v>702</v>
+        <v>389</v>
+      </c>
+      <c r="F68" s="40" t="s">
+        <v>701</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H68" s="12">
-        <v>63.52</v>
+        <v>76.69</v>
       </c>
       <c r="I68" s="6">
-        <f t="shared" ref="I68:I98" si="2">H68 * 0.95</f>
-        <v>60.344000000000001</v>
+        <f t="shared" si="1"/>
+        <v>72.855499999999992</v>
       </c>
       <c r="J68" s="6">
-        <f t="shared" ref="J68:J98" si="3">H68 * 0.7</f>
-        <v>44.463999999999999</v>
+        <f t="shared" si="2"/>
+        <v>53.682999999999993</v>
       </c>
       <c r="K68" s="5" t="str">
-        <f>D68 &amp; ".html"</f>
-        <v>1081.html</v>
+        <f t="shared" si="6"/>
+        <v>1080.html</v>
       </c>
       <c r="L68" s="12" t="s">
         <v>628</v>
       </c>
       <c r="M68" s="11" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="P68" s="8"/>
       <c r="Q68" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D68:D116 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1081.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D68:D115 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1080.jpg</v>
       </c>
       <c r="R68" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D68:D116 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1081a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D68:D115 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1080a.jpg</v>
       </c>
       <c r="S68" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D68:D162 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1081b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D68:D161 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1080b.jpg</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D69" s="2">
-        <v>1056</v>
-      </c>
-      <c r="E69" t="s">
-        <v>401</v>
-      </c>
-      <c r="F69" s="43" t="s">
-        <v>703</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="H69" s="5">
-        <v>51.49</v>
+      <c r="B69" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D69" s="9">
+        <v>1081</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F69" s="40" t="s">
+        <v>702</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="H69" s="12">
+        <v>63.52</v>
       </c>
       <c r="I69" s="6">
-        <f t="shared" si="2"/>
-        <v>48.915500000000002</v>
+        <f t="shared" ref="I69:I99" si="7">H69 * 0.95</f>
+        <v>60.344000000000001</v>
       </c>
       <c r="J69" s="6">
-        <f t="shared" si="3"/>
-        <v>36.042999999999999</v>
+        <f t="shared" ref="J69:J99" si="8">H69 * 0.7</f>
+        <v>44.463999999999999</v>
       </c>
       <c r="K69" s="5" t="str">
-        <f>D69 &amp; ".html"</f>
-        <v>1056.html</v>
-      </c>
-      <c r="L69" s="5" t="s">
+        <f t="shared" si="6"/>
+        <v>1081.html</v>
+      </c>
+      <c r="L69" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="M69" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D69:D114 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1056.jpg</v>
-      </c>
-      <c r="R69" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D69:D114 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1056a.jpg</v>
+      <c r="M69" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="O69" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="10" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D69:D116 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1081.jpg</v>
+      </c>
+      <c r="R69" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D69:D116 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1081a.jpg</v>
       </c>
       <c r="S69" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D69:D163 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1056b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D69:D162 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1081b.jpg</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7426,62 +7509,62 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D70" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E70" t="s">
-        <v>407</v>
-      </c>
-      <c r="F70" s="43" t="s">
-        <v>704</v>
+        <v>401</v>
+      </c>
+      <c r="F70" s="40" t="s">
+        <v>703</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H70" s="5">
-        <v>42.92</v>
+        <v>51.49</v>
       </c>
       <c r="I70" s="6">
-        <f t="shared" si="2"/>
-        <v>40.774000000000001</v>
+        <f t="shared" si="7"/>
+        <v>48.915500000000002</v>
       </c>
       <c r="J70" s="6">
-        <f t="shared" si="3"/>
-        <v>30.044</v>
+        <f t="shared" si="8"/>
+        <v>36.042999999999999</v>
       </c>
       <c r="K70" s="5" t="str">
-        <f>D70 &amp; ".html"</f>
-        <v>1057.html</v>
+        <f t="shared" si="6"/>
+        <v>1056.html</v>
       </c>
       <c r="L70" s="5" t="s">
         <v>628</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D70:D115 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1057.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D70:D114 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1056.jpg</v>
       </c>
       <c r="R70" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D70:D115 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1057a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D70:D114 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1056a.jpg</v>
       </c>
       <c r="S70" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D70:D164 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1057b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D70:D163 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1056b.jpg</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7489,62 +7572,62 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D71" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E71" t="s">
-        <v>413</v>
-      </c>
-      <c r="F71" s="43" t="s">
-        <v>705</v>
+        <v>407</v>
+      </c>
+      <c r="F71" s="40" t="s">
+        <v>704</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H71" s="5">
-        <v>49.78</v>
+        <v>42.92</v>
       </c>
       <c r="I71" s="6">
-        <f t="shared" si="2"/>
-        <v>47.290999999999997</v>
+        <f t="shared" si="7"/>
+        <v>40.774000000000001</v>
       </c>
       <c r="J71" s="6">
-        <f t="shared" si="3"/>
-        <v>34.845999999999997</v>
+        <f t="shared" si="8"/>
+        <v>30.044</v>
       </c>
       <c r="K71" s="5" t="str">
-        <f>D71 &amp; ".html"</f>
-        <v>1058.html</v>
+        <f t="shared" si="6"/>
+        <v>1057.html</v>
       </c>
       <c r="L71" s="5" t="s">
         <v>628</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D71:D116 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1058.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D71:D115 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1057.jpg</v>
       </c>
       <c r="R71" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D71:D116 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1058a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D71:D115 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1057a.jpg</v>
       </c>
       <c r="S71" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D71:D165 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1058b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D71:D164 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1057b.jpg</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7552,62 +7635,62 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D72" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E72" t="s">
-        <v>419</v>
-      </c>
-      <c r="F72" s="43" t="s">
-        <v>706</v>
+        <v>413</v>
+      </c>
+      <c r="F72" s="40" t="s">
+        <v>705</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H72" s="5">
-        <v>53.25</v>
+        <v>49.78</v>
       </c>
       <c r="I72" s="6">
-        <f t="shared" si="2"/>
-        <v>50.587499999999999</v>
+        <f t="shared" si="7"/>
+        <v>47.290999999999997</v>
       </c>
       <c r="J72" s="6">
-        <f t="shared" si="3"/>
-        <v>37.274999999999999</v>
+        <f t="shared" si="8"/>
+        <v>34.845999999999997</v>
       </c>
       <c r="K72" s="5" t="str">
-        <f>D72 &amp; ".html"</f>
-        <v>1059.html</v>
+        <f t="shared" si="6"/>
+        <v>1058.html</v>
       </c>
       <c r="L72" s="5" t="s">
         <v>628</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D72:D117 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1059.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D72:D116 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1058.jpg</v>
       </c>
       <c r="R72" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D72:D117 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1059a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D72:D116 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1058a.jpg</v>
       </c>
       <c r="S72" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D72:D166 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1059b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D72:D165 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1058b.jpg</v>
       </c>
     </row>
     <row r="73" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7615,1209 +7698,1212 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D73" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E73" t="s">
-        <v>425</v>
-      </c>
-      <c r="F73" s="43" t="s">
-        <v>707</v>
+        <v>419</v>
+      </c>
+      <c r="F73" s="40" t="s">
+        <v>706</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H73" s="5">
-        <v>17.739999999999998</v>
+        <v>53.25</v>
       </c>
       <c r="I73" s="6">
-        <f t="shared" si="2"/>
-        <v>16.852999999999998</v>
+        <f t="shared" si="7"/>
+        <v>50.587499999999999</v>
       </c>
       <c r="J73" s="6">
-        <f t="shared" si="3"/>
-        <v>12.417999999999997</v>
+        <f t="shared" si="8"/>
+        <v>37.274999999999999</v>
       </c>
       <c r="K73" s="5" t="str">
-        <f>D73 &amp; ".html"</f>
-        <v>1060.html</v>
+        <f t="shared" si="6"/>
+        <v>1059.html</v>
       </c>
       <c r="L73" s="5" t="s">
         <v>628</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D73:D118 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1060.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D73:D117 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1059.jpg</v>
       </c>
       <c r="R73" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D73:D118 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1060a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D73:D117 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1059a.jpg</v>
       </c>
       <c r="S73" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D73:D167 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1060b.jpg</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D73:D166 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1059b.jpg</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="D74" s="37">
-        <v>1061</v>
-      </c>
-      <c r="E74" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="F74" s="43" t="s">
-        <v>708</v>
-      </c>
-      <c r="G74" s="21" t="s">
-        <v>611</v>
-      </c>
-      <c r="H74" s="21">
-        <v>34.340000000000003</v>
-      </c>
-      <c r="I74" s="40">
-        <f t="shared" si="2"/>
-        <v>32.623000000000005</v>
-      </c>
-      <c r="J74" s="40">
-        <f t="shared" si="3"/>
-        <v>24.038</v>
-      </c>
-      <c r="K74" s="21" t="str">
-        <f>D74 &amp; ".html"</f>
-        <v>1061.html</v>
-      </c>
-      <c r="L74" s="21" t="s">
+      <c r="B74" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1060</v>
+      </c>
+      <c r="E74" t="s">
+        <v>425</v>
+      </c>
+      <c r="F74" s="40" t="s">
+        <v>707</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="H74" s="5">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="I74" s="6">
+        <f t="shared" si="7"/>
+        <v>16.852999999999998</v>
+      </c>
+      <c r="J74" s="6">
+        <f t="shared" si="8"/>
+        <v>12.417999999999997</v>
+      </c>
+      <c r="K74" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>1060.html</v>
+      </c>
+      <c r="L74" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="M74" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="N74" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="O74" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="P74" s="20"/>
-      <c r="Q74" s="39" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D74:D119 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1061.jpg</v>
-      </c>
-      <c r="R74" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D74:D119 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1061a.jpg</v>
+      <c r="M74" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D74:D118 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1060.jpg</v>
+      </c>
+      <c r="R74" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D74:D118 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1060a.jpg</v>
       </c>
       <c r="S74" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D74:D168 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1061b.jpg</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D74:D167 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1060b.jpg</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D75" s="2">
-        <v>1063</v>
-      </c>
-      <c r="E75" t="s">
-        <v>435</v>
-      </c>
-      <c r="F75" s="43" t="s">
-        <v>709</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="H75" s="5">
-        <v>1116.3399999999999</v>
-      </c>
-      <c r="I75" s="6">
-        <f t="shared" si="2"/>
-        <v>1060.5229999999999</v>
-      </c>
-      <c r="J75" s="6">
-        <f t="shared" si="3"/>
-        <v>781.43799999999987</v>
-      </c>
-      <c r="K75" s="5" t="str">
-        <f>D75 &amp; ".html"</f>
-        <v>1063.html</v>
-      </c>
-      <c r="L75" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D75:D120 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1063.jpg</v>
-      </c>
-      <c r="R75" s="1"/>
+      <c r="B75" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="D75" s="34">
+        <v>1061</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="F75" s="40" t="s">
+        <v>708</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="H75" s="21">
+        <v>34.340000000000003</v>
+      </c>
+      <c r="I75" s="37">
+        <f t="shared" si="7"/>
+        <v>32.623000000000005</v>
+      </c>
+      <c r="J75" s="37">
+        <f t="shared" si="8"/>
+        <v>24.038</v>
+      </c>
+      <c r="K75" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>1061.html</v>
+      </c>
+      <c r="L75" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="M75" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="N75" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="O75" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="P75" s="20"/>
+      <c r="Q75" s="36" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D75:D119 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1061.jpg</v>
+      </c>
+      <c r="R75" s="20" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D75:D119 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1061a.jpg</v>
+      </c>
       <c r="S75" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D75:D169 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1063b.jpg</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D75:D168 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1061b.jpg</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="D76" s="9">
-        <v>1065</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F76" s="43" t="s">
-        <v>711</v>
-      </c>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12">
-        <v>823.36</v>
-      </c>
-      <c r="I76" s="12">
-        <v>823.36</v>
-      </c>
-      <c r="J76" s="12">
-        <v>823.36</v>
-      </c>
-      <c r="K76" s="12" t="str">
-        <f>D76 &amp; ".html"</f>
-        <v>1065.html</v>
-      </c>
-      <c r="L76" s="12" t="s">
+      <c r="B76" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1063</v>
+      </c>
+      <c r="E76" t="s">
+        <v>435</v>
+      </c>
+      <c r="F76" s="40" t="s">
+        <v>709</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="H76" s="5">
+        <v>1116.3399999999999</v>
+      </c>
+      <c r="I76" s="6">
+        <f t="shared" si="7"/>
+        <v>1060.5229999999999</v>
+      </c>
+      <c r="J76" s="6">
+        <f t="shared" si="8"/>
+        <v>781.43799999999987</v>
+      </c>
+      <c r="K76" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>1063.html</v>
+      </c>
+      <c r="L76" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="M76" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D76:D122 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1065.jpg</v>
-      </c>
-      <c r="R76" s="8"/>
+      <c r="M76" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D76:D120 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1063.jpg</v>
+      </c>
+      <c r="R76" s="1"/>
       <c r="S76" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D76:D171 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1065b.jpg</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D76:D169 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1063b.jpg</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D77" s="2">
-        <v>1064</v>
-      </c>
-      <c r="E77" t="s">
-        <v>439</v>
-      </c>
-      <c r="F77" s="43" t="s">
-        <v>710</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="H77" s="5">
-        <v>75.19</v>
-      </c>
-      <c r="I77" s="6">
-        <f>H77 * 0.95</f>
-        <v>71.430499999999995</v>
-      </c>
-      <c r="J77" s="6">
-        <f>H77 * 0.7</f>
-        <v>52.632999999999996</v>
-      </c>
-      <c r="K77" s="5" t="str">
-        <f>D77 &amp; ".html"</f>
-        <v>1064.html</v>
-      </c>
-      <c r="L77" s="5" t="s">
+      <c r="B77" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="D77" s="9">
+        <v>1065</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F77" s="40" t="s">
+        <v>711</v>
+      </c>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12">
+        <v>823.36</v>
+      </c>
+      <c r="I77" s="12">
+        <v>823.36</v>
+      </c>
+      <c r="J77" s="12">
+        <v>823.36</v>
+      </c>
+      <c r="K77" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>1065.html</v>
+      </c>
+      <c r="L77" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="M77" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D76:D121 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1064.jpg</v>
-      </c>
-      <c r="R77" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D76:D121 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1064a.jpg</v>
-      </c>
+      <c r="M77" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="10" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D77:D122 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1065.jpg</v>
+      </c>
+      <c r="R77" s="8"/>
       <c r="S77" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D76:D170 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1064b.jpg</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D77:D171 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1065b.jpg</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="D78" s="15">
-        <v>1083</v>
-      </c>
-      <c r="E78" s="26" t="s">
-        <v>489</v>
-      </c>
-      <c r="F78" s="46" t="s">
-        <v>638</v>
-      </c>
-      <c r="G78" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="H78" s="18">
-        <v>555.54</v>
-      </c>
-      <c r="I78" s="24">
-        <f t="shared" si="2"/>
-        <v>527.76299999999992</v>
-      </c>
-      <c r="J78" s="24">
-        <f t="shared" si="3"/>
-        <v>388.87799999999993</v>
-      </c>
-      <c r="K78" s="18" t="str">
-        <f>D78 &amp; ".html"</f>
-        <v>1083.html</v>
-      </c>
-      <c r="L78" s="27" t="s">
+      <c r="B78" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1064</v>
+      </c>
+      <c r="E78" t="s">
+        <v>439</v>
+      </c>
+      <c r="F78" s="40" t="s">
+        <v>710</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="H78" s="5">
+        <v>75.19</v>
+      </c>
+      <c r="I78" s="6">
+        <f>H78 * 0.95</f>
+        <v>71.430499999999995</v>
+      </c>
+      <c r="J78" s="6">
+        <f>H78 * 0.7</f>
+        <v>52.632999999999996</v>
+      </c>
+      <c r="K78" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>1064.html</v>
+      </c>
+      <c r="L78" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="M78" s="17" t="s">
-        <v>486</v>
-      </c>
-      <c r="N78" s="17" t="s">
-        <v>487</v>
-      </c>
-      <c r="O78" s="23" t="s">
-        <v>488</v>
-      </c>
-      <c r="P78" s="14"/>
-      <c r="Q78" s="16"/>
-      <c r="R78" s="14"/>
-      <c r="S78" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D78:D172 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1083b.jpg</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M78" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D77:D121 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1064.jpg</v>
+      </c>
+      <c r="R78" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D77:D121 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1064a.jpg</v>
+      </c>
+      <c r="S78" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D77:D170 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1064b.jpg</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="D79" s="15">
-        <v>1096</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>493</v>
-      </c>
-      <c r="F79" s="46" t="s">
-        <v>639</v>
-      </c>
-      <c r="G79" s="27" t="s">
+      <c r="B79" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="D79" s="9">
+        <v>1083</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F79" s="47" t="s">
+        <v>638</v>
+      </c>
+      <c r="G79" s="48" t="s">
         <v>615</v>
       </c>
-      <c r="H79" s="18">
+      <c r="H79" s="12">
         <v>555.54</v>
       </c>
-      <c r="I79" s="24">
-        <f t="shared" si="2"/>
+      <c r="I79" s="49">
+        <f t="shared" si="7"/>
         <v>527.76299999999992</v>
       </c>
-      <c r="J79" s="24">
-        <f t="shared" si="3"/>
+      <c r="J79" s="49">
+        <f t="shared" si="8"/>
         <v>388.87799999999993</v>
       </c>
-      <c r="K79" s="18" t="str">
-        <f>D79 &amp; ".html"</f>
-        <v>1096.html</v>
-      </c>
-      <c r="L79" s="27" t="s">
+      <c r="K79" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>1083.html</v>
+      </c>
+      <c r="L79" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M79" s="17" t="s">
+      <c r="M79" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="N79" s="17" t="s">
-        <v>492</v>
-      </c>
-      <c r="O79" s="23" t="s">
+      <c r="N79" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="O79" s="50" t="s">
         <v>488</v>
       </c>
-      <c r="P79" s="14"/>
-      <c r="Q79" s="16"/>
-      <c r="R79" s="14"/>
-      <c r="S79" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D79:D173 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1096b.jpg</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P79" s="8"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D79:D172 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1083b.jpg</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="26" t="s">
-        <v>494</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>495</v>
-      </c>
-      <c r="D80" s="15">
-        <v>1074</v>
-      </c>
-      <c r="E80" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="F80" s="46" t="s">
-        <v>640</v>
-      </c>
-      <c r="G80" s="27" t="s">
+      <c r="B80" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="D80" s="9">
+        <v>1096</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F80" s="47" t="s">
+        <v>639</v>
+      </c>
+      <c r="G80" s="48" t="s">
         <v>615</v>
       </c>
-      <c r="H80" s="18">
-        <v>337.32</v>
-      </c>
-      <c r="I80" s="24">
-        <f t="shared" si="2"/>
-        <v>320.45399999999995</v>
-      </c>
-      <c r="J80" s="24">
-        <f t="shared" si="3"/>
-        <v>236.12399999999997</v>
-      </c>
-      <c r="K80" s="18" t="str">
-        <f>D80 &amp; ".html"</f>
-        <v>1074.html</v>
-      </c>
-      <c r="L80" s="27" t="s">
+      <c r="H80" s="12">
+        <v>555.54</v>
+      </c>
+      <c r="I80" s="49">
+        <f t="shared" si="7"/>
+        <v>527.76299999999992</v>
+      </c>
+      <c r="J80" s="49">
+        <f t="shared" si="8"/>
+        <v>388.87799999999993</v>
+      </c>
+      <c r="K80" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>1096.html</v>
+      </c>
+      <c r="L80" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M80" s="28" t="s">
-        <v>496</v>
-      </c>
-      <c r="N80" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="O80" s="14" t="s">
-        <v>498</v>
-      </c>
-      <c r="P80" s="14"/>
-      <c r="Q80" s="16"/>
-      <c r="R80" s="14"/>
-      <c r="S80" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D80:D174 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1074b.jpg</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M80" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="N80" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="O80" s="50" t="s">
+        <v>488</v>
+      </c>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D80:D173 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1096b.jpg</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="D81" s="15">
-        <v>1086</v>
-      </c>
-      <c r="E81" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="F81" s="46" t="s">
-        <v>641</v>
-      </c>
-      <c r="G81" s="27" t="s">
+      <c r="B81" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="D81" s="9">
+        <v>1074</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F81" s="47" t="s">
+        <v>640</v>
+      </c>
+      <c r="G81" s="48" t="s">
         <v>615</v>
       </c>
-      <c r="H81" s="18">
+      <c r="H81" s="12">
         <v>337.32</v>
       </c>
-      <c r="I81" s="24">
-        <f t="shared" si="2"/>
+      <c r="I81" s="49">
+        <f t="shared" si="7"/>
         <v>320.45399999999995</v>
       </c>
-      <c r="J81" s="24">
-        <f t="shared" si="3"/>
+      <c r="J81" s="49">
+        <f t="shared" si="8"/>
         <v>236.12399999999997</v>
       </c>
-      <c r="K81" s="18" t="str">
-        <f>D81 &amp; ".html"</f>
-        <v>1086.html</v>
-      </c>
-      <c r="L81" s="27" t="s">
+      <c r="K81" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>1074.html</v>
+      </c>
+      <c r="L81" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M81" s="28" t="s">
+      <c r="M81" s="51" t="s">
         <v>496</v>
       </c>
-      <c r="N81" s="17" t="s">
+      <c r="N81" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="O81" s="14" t="s">
+      <c r="O81" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="P81" s="14"/>
-      <c r="Q81" s="16"/>
-      <c r="R81" s="14"/>
-      <c r="S81" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D81:D175 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1086b.jpg</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P81" s="8"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D81:D174 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1074b.jpg</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>504</v>
-      </c>
-      <c r="D82" s="15">
-        <v>1087</v>
-      </c>
-      <c r="E82" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="F82" s="46" t="s">
-        <v>642</v>
-      </c>
-      <c r="G82" s="27" t="s">
-        <v>616</v>
-      </c>
-      <c r="H82" s="18">
+      <c r="B82" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="D82" s="9">
+        <v>1086</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F82" s="47" t="s">
+        <v>641</v>
+      </c>
+      <c r="G82" s="48" t="s">
+        <v>615</v>
+      </c>
+      <c r="H82" s="12">
         <v>337.32</v>
       </c>
-      <c r="I82" s="24">
-        <f t="shared" si="2"/>
+      <c r="I82" s="49">
+        <f t="shared" si="7"/>
         <v>320.45399999999995</v>
       </c>
-      <c r="J82" s="24">
-        <f t="shared" si="3"/>
+      <c r="J82" s="49">
+        <f t="shared" si="8"/>
         <v>236.12399999999997</v>
       </c>
-      <c r="K82" s="18" t="str">
-        <f>D82 &amp; ".html"</f>
-        <v>1087.html</v>
-      </c>
-      <c r="L82" s="27" t="s">
+      <c r="K82" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>1086.html</v>
+      </c>
+      <c r="L82" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M82" s="17" t="s">
-        <v>505</v>
-      </c>
-      <c r="N82" s="17" t="s">
+      <c r="M82" s="51" t="s">
+        <v>496</v>
+      </c>
+      <c r="N82" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="O82" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="P82" s="14"/>
-      <c r="Q82" s="16"/>
-      <c r="R82" s="14"/>
-      <c r="S82" s="23" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O82" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="10"/>
+      <c r="R82" s="8"/>
+      <c r="S82" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D82:D175 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1086b.jpg</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>509</v>
-      </c>
-      <c r="D83" s="15">
-        <v>1088</v>
-      </c>
-      <c r="E83" s="26" t="s">
-        <v>510</v>
-      </c>
-      <c r="F83" s="46" t="s">
-        <v>643</v>
-      </c>
-      <c r="G83" s="27" t="s">
+      <c r="B83" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="D83" s="9">
+        <v>1087</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F83" s="47" t="s">
+        <v>642</v>
+      </c>
+      <c r="G83" s="48" t="s">
         <v>616</v>
       </c>
-      <c r="H83" s="18">
+      <c r="H83" s="12">
         <v>337.32</v>
       </c>
-      <c r="I83" s="24">
-        <f t="shared" si="2"/>
+      <c r="I83" s="49">
+        <f t="shared" si="7"/>
         <v>320.45399999999995</v>
       </c>
-      <c r="J83" s="24">
-        <f t="shared" si="3"/>
+      <c r="J83" s="49">
+        <f t="shared" si="8"/>
         <v>236.12399999999997</v>
       </c>
-      <c r="K83" s="18" t="str">
-        <f>D83 &amp; ".html"</f>
-        <v>1088.html</v>
-      </c>
-      <c r="L83" s="27" t="s">
+      <c r="K83" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>1087.html</v>
+      </c>
+      <c r="L83" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M83" s="17" t="s">
+      <c r="M83" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="N83" s="17" t="s">
+      <c r="N83" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="O83" s="14" t="s">
+      <c r="O83" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="P83" s="14"/>
-      <c r="Q83" s="16"/>
-      <c r="R83" s="14"/>
-      <c r="S83" s="23" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P83" s="8"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="8"/>
+      <c r="S83" s="50" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="D84" s="15">
-        <v>1089</v>
-      </c>
-      <c r="E84" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="F84" s="46" t="s">
-        <v>644</v>
-      </c>
-      <c r="G84" s="27" t="s">
+      <c r="B84" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="D84" s="9">
+        <v>1088</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F84" s="47" t="s">
+        <v>643</v>
+      </c>
+      <c r="G84" s="48" t="s">
         <v>616</v>
       </c>
-      <c r="H84" s="18">
+      <c r="H84" s="12">
         <v>337.32</v>
       </c>
-      <c r="I84" s="24">
-        <f t="shared" si="2"/>
+      <c r="I84" s="49">
+        <f t="shared" si="7"/>
         <v>320.45399999999995</v>
       </c>
-      <c r="J84" s="24">
-        <f t="shared" si="3"/>
+      <c r="J84" s="49">
+        <f t="shared" si="8"/>
         <v>236.12399999999997</v>
       </c>
-      <c r="K84" s="18" t="str">
-        <f>D84 &amp; ".html"</f>
-        <v>1089.html</v>
-      </c>
-      <c r="L84" s="27" t="s">
+      <c r="K84" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>1088.html</v>
+      </c>
+      <c r="L84" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M84" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="N84" s="17" t="s">
+      <c r="M84" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="N84" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="O84" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="P84" s="14"/>
-      <c r="Q84" s="16"/>
-      <c r="R84" s="14"/>
-      <c r="S84" s="23" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O84" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="50" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="26" t="s">
-        <v>516</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>517</v>
-      </c>
-      <c r="D85" s="15">
-        <v>1090</v>
-      </c>
-      <c r="E85" s="26" t="s">
-        <v>518</v>
-      </c>
-      <c r="F85" s="46" t="s">
-        <v>645</v>
-      </c>
-      <c r="G85" s="27" t="s">
+      <c r="B85" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="D85" s="9">
+        <v>1089</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F85" s="47" t="s">
+        <v>644</v>
+      </c>
+      <c r="G85" s="48" t="s">
         <v>616</v>
       </c>
-      <c r="H85" s="18">
+      <c r="H85" s="12">
         <v>337.32</v>
       </c>
-      <c r="I85" s="24">
-        <f t="shared" si="2"/>
+      <c r="I85" s="49">
+        <f t="shared" si="7"/>
         <v>320.45399999999995</v>
       </c>
-      <c r="J85" s="24">
-        <f t="shared" si="3"/>
+      <c r="J85" s="49">
+        <f t="shared" si="8"/>
         <v>236.12399999999997</v>
       </c>
-      <c r="K85" s="18" t="str">
-        <f>D85 &amp; ".html"</f>
-        <v>1090.html</v>
-      </c>
-      <c r="L85" s="27" t="s">
+      <c r="K85" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>1089.html</v>
+      </c>
+      <c r="L85" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M85" s="17" t="s">
+      <c r="M85" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="N85" s="17" t="s">
+      <c r="N85" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="O85" s="14" t="s">
+      <c r="O85" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="P85" s="14"/>
-      <c r="Q85" s="16"/>
-      <c r="R85" s="14"/>
-      <c r="S85" s="23" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P85" s="8"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="8"/>
+      <c r="S85" s="50" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="26" t="s">
-        <v>519</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="D86" s="15">
-        <v>1073</v>
-      </c>
-      <c r="E86" s="26" t="s">
-        <v>524</v>
-      </c>
-      <c r="F86" s="46" t="s">
-        <v>646</v>
-      </c>
-      <c r="G86" s="27" t="s">
+      <c r="B86" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="D86" s="9">
+        <v>1090</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F86" s="47" t="s">
+        <v>645</v>
+      </c>
+      <c r="G86" s="48" t="s">
         <v>616</v>
       </c>
-      <c r="H86" s="18">
-        <v>270.32</v>
-      </c>
-      <c r="I86" s="24">
-        <f t="shared" si="2"/>
-        <v>256.80399999999997</v>
-      </c>
-      <c r="J86" s="24">
-        <f t="shared" si="3"/>
-        <v>189.22399999999999</v>
-      </c>
-      <c r="K86" s="18" t="str">
-        <f>D86 &amp; ".html"</f>
-        <v>1073.html</v>
-      </c>
-      <c r="L86" s="27" t="s">
+      <c r="H86" s="12">
+        <v>337.32</v>
+      </c>
+      <c r="I86" s="49">
+        <f t="shared" si="7"/>
+        <v>320.45399999999995</v>
+      </c>
+      <c r="J86" s="49">
+        <f t="shared" si="8"/>
+        <v>236.12399999999997</v>
+      </c>
+      <c r="K86" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>1090.html</v>
+      </c>
+      <c r="L86" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M86" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="N86" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="O86" s="29" t="s">
-        <v>523</v>
-      </c>
-      <c r="P86" s="14"/>
-      <c r="Q86" s="16"/>
-      <c r="R86" s="14"/>
-      <c r="S86" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D86:D180 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M86" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O86" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="10"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="50" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="26" t="s">
-        <v>525</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>526</v>
-      </c>
-      <c r="D87" s="15">
-        <v>1091</v>
-      </c>
-      <c r="E87" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="F87" s="46" t="s">
-        <v>647</v>
-      </c>
-      <c r="G87" s="27" t="s">
+      <c r="B87" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="D87" s="9">
+        <v>1073</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="F87" s="47" t="s">
+        <v>646</v>
+      </c>
+      <c r="G87" s="48" t="s">
         <v>616</v>
       </c>
-      <c r="H87" s="18">
+      <c r="H87" s="12">
         <v>270.32</v>
       </c>
-      <c r="I87" s="24">
-        <f t="shared" si="2"/>
+      <c r="I87" s="49">
+        <f t="shared" si="7"/>
         <v>256.80399999999997</v>
       </c>
-      <c r="J87" s="24">
-        <f t="shared" si="3"/>
+      <c r="J87" s="49">
+        <f t="shared" si="8"/>
         <v>189.22399999999999</v>
       </c>
-      <c r="K87" s="18" t="str">
-        <f>D87 &amp; ".html"</f>
-        <v>1091.html</v>
-      </c>
-      <c r="L87" s="27" t="s">
+      <c r="K87" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>1073.html</v>
+      </c>
+      <c r="L87" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M87" s="17" t="s">
+      <c r="M87" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="N87" s="17" t="s">
+      <c r="N87" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="O87" s="29" t="s">
+      <c r="O87" s="52" t="s">
         <v>523</v>
       </c>
-      <c r="P87" s="14"/>
-      <c r="Q87" s="16"/>
-      <c r="R87" s="14"/>
-      <c r="S87" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D87:D181 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1091b.jpg</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P87" s="8"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="8"/>
+      <c r="S87" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D87:D180 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="26" t="s">
-        <v>528</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="D88" s="15">
-        <v>1092</v>
-      </c>
-      <c r="E88" s="26" t="s">
-        <v>530</v>
-      </c>
-      <c r="F88" s="46" t="s">
-        <v>648</v>
-      </c>
-      <c r="G88" s="27" t="s">
-        <v>617</v>
-      </c>
-      <c r="H88" s="18">
+      <c r="B88" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="D88" s="9">
+        <v>1091</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F88" s="47" t="s">
+        <v>647</v>
+      </c>
+      <c r="G88" s="48" t="s">
+        <v>616</v>
+      </c>
+      <c r="H88" s="12">
         <v>270.32</v>
       </c>
-      <c r="I88" s="24">
-        <f t="shared" si="2"/>
+      <c r="I88" s="49">
+        <f t="shared" si="7"/>
         <v>256.80399999999997</v>
       </c>
-      <c r="J88" s="24">
-        <f t="shared" si="3"/>
+      <c r="J88" s="49">
+        <f t="shared" si="8"/>
         <v>189.22399999999999</v>
       </c>
-      <c r="K88" s="18" t="str">
-        <f>D88 &amp; ".html"</f>
-        <v>1092.html</v>
-      </c>
-      <c r="L88" s="27" t="s">
+      <c r="K88" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>1091.html</v>
+      </c>
+      <c r="L88" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M88" s="17" t="s">
+      <c r="M88" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="N88" s="17" t="s">
+      <c r="N88" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="O88" s="29" t="s">
+      <c r="O88" s="52" t="s">
         <v>523</v>
       </c>
-      <c r="P88" s="14"/>
-      <c r="Q88" s="16"/>
-      <c r="R88" s="14"/>
-      <c r="S88" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D88:D182 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1092b.jpg</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P88" s="8"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D88:D181 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1091b.jpg</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="26" t="s">
-        <v>531</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>532</v>
-      </c>
-      <c r="D89" s="15">
-        <v>1093</v>
-      </c>
-      <c r="E89" s="26" t="s">
-        <v>533</v>
-      </c>
-      <c r="F89" s="46" t="s">
-        <v>649</v>
-      </c>
-      <c r="G89" s="27" t="s">
-        <v>618</v>
-      </c>
-      <c r="H89" s="18">
+      <c r="B89" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="D89" s="9">
+        <v>1092</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F89" s="47" t="s">
+        <v>648</v>
+      </c>
+      <c r="G89" s="48" t="s">
+        <v>617</v>
+      </c>
+      <c r="H89" s="12">
         <v>270.32</v>
       </c>
-      <c r="I89" s="24">
-        <f t="shared" si="2"/>
+      <c r="I89" s="49">
+        <f t="shared" si="7"/>
         <v>256.80399999999997</v>
       </c>
-      <c r="J89" s="24">
-        <f t="shared" si="3"/>
+      <c r="J89" s="49">
+        <f t="shared" si="8"/>
         <v>189.22399999999999</v>
       </c>
-      <c r="K89" s="18" t="str">
-        <f>D89 &amp; ".html"</f>
-        <v>1093.html</v>
-      </c>
-      <c r="L89" s="27" t="s">
+      <c r="K89" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>1092.html</v>
+      </c>
+      <c r="L89" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M89" s="17" t="s">
+      <c r="M89" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="N89" s="17" t="s">
+      <c r="N89" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="O89" s="29" t="s">
+      <c r="O89" s="52" t="s">
         <v>523</v>
       </c>
-      <c r="P89" s="14"/>
-      <c r="Q89" s="16"/>
-      <c r="R89" s="14"/>
-      <c r="S89" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D89:D183 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1093b.jpg</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P89" s="8"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="8"/>
+      <c r="S89" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D89:D182 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1092b.jpg</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="26" t="s">
-        <v>534</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="D90" s="15">
-        <v>1094</v>
-      </c>
-      <c r="E90" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="F90" s="46" t="s">
-        <v>650</v>
-      </c>
-      <c r="G90" s="27" t="s">
-        <v>619</v>
-      </c>
-      <c r="H90" s="18">
+      <c r="B90" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="D90" s="9">
+        <v>1093</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="F90" s="47" t="s">
+        <v>649</v>
+      </c>
+      <c r="G90" s="48" t="s">
+        <v>618</v>
+      </c>
+      <c r="H90" s="12">
         <v>270.32</v>
       </c>
-      <c r="I90" s="24">
-        <f t="shared" si="2"/>
+      <c r="I90" s="49">
+        <f t="shared" si="7"/>
         <v>256.80399999999997</v>
       </c>
-      <c r="J90" s="24">
-        <f t="shared" si="3"/>
+      <c r="J90" s="49">
+        <f t="shared" si="8"/>
         <v>189.22399999999999</v>
       </c>
-      <c r="K90" s="18" t="str">
-        <f>D90 &amp; ".html"</f>
-        <v>1094.html</v>
-      </c>
-      <c r="L90" s="27" t="s">
+      <c r="K90" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>1093.html</v>
+      </c>
+      <c r="L90" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M90" s="17" t="s">
+      <c r="M90" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="N90" s="17" t="s">
+      <c r="N90" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="O90" s="29" t="s">
+      <c r="O90" s="52" t="s">
         <v>523</v>
       </c>
-      <c r="P90" s="14"/>
-      <c r="Q90" s="16"/>
-      <c r="R90" s="14"/>
-      <c r="S90" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D90:D184 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1094b.jpg</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P90" s="8"/>
+      <c r="Q90" s="10"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D90:D183 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1093b.jpg</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="26" t="s">
-        <v>537</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>538</v>
-      </c>
-      <c r="D91" s="15">
-        <v>1095</v>
-      </c>
-      <c r="E91" s="26" t="s">
-        <v>539</v>
-      </c>
-      <c r="F91" s="46" t="s">
-        <v>651</v>
-      </c>
-      <c r="G91" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="H91" s="18">
+      <c r="B91" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="D91" s="9">
+        <v>1094</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F91" s="47" t="s">
+        <v>650</v>
+      </c>
+      <c r="G91" s="48" t="s">
+        <v>619</v>
+      </c>
+      <c r="H91" s="12">
         <v>270.32</v>
       </c>
-      <c r="I91" s="24">
-        <f t="shared" si="2"/>
+      <c r="I91" s="49">
+        <f t="shared" si="7"/>
         <v>256.80399999999997</v>
       </c>
-      <c r="J91" s="24">
-        <f t="shared" si="3"/>
+      <c r="J91" s="49">
+        <f t="shared" si="8"/>
         <v>189.22399999999999</v>
       </c>
-      <c r="K91" s="18" t="str">
-        <f>D91 &amp; ".html"</f>
-        <v>1095.html</v>
-      </c>
-      <c r="L91" s="27" t="s">
+      <c r="K91" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>1094.html</v>
+      </c>
+      <c r="L91" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M91" s="17" t="s">
+      <c r="M91" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="N91" s="17" t="s">
+      <c r="N91" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="O91" s="29" t="s">
+      <c r="O91" s="52" t="s">
         <v>523</v>
       </c>
-      <c r="P91" s="14"/>
-      <c r="Q91" s="16"/>
-      <c r="R91" s="14"/>
-      <c r="S91" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D91:D185 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1095b.jpg</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P91" s="8"/>
+      <c r="Q91" s="10"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D91:D184 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1094b.jpg</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="20" t="s">
-        <v>478</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="D92" s="37">
-        <v>1072</v>
-      </c>
-      <c r="E92" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="F92" s="45" t="s">
-        <v>718</v>
-      </c>
-      <c r="G92" s="21" t="s">
-        <v>615</v>
-      </c>
-      <c r="H92" s="21">
-        <v>320.5</v>
-      </c>
-      <c r="I92" s="40">
-        <f t="shared" si="2"/>
-        <v>304.47499999999997</v>
-      </c>
-      <c r="J92" s="40">
-        <f t="shared" ref="J92" si="4">H92 * 0.7</f>
-        <v>224.35</v>
-      </c>
-      <c r="K92" s="21" t="str">
-        <f>D92 &amp; ".html"</f>
-        <v>1072.html</v>
-      </c>
-      <c r="L92" s="41" t="s">
+      <c r="B92" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D92" s="9">
+        <v>1095</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F92" s="47" t="s">
+        <v>651</v>
+      </c>
+      <c r="G92" s="48" t="s">
+        <v>620</v>
+      </c>
+      <c r="H92" s="12">
+        <v>270.32</v>
+      </c>
+      <c r="I92" s="49">
+        <f t="shared" si="7"/>
+        <v>256.80399999999997</v>
+      </c>
+      <c r="J92" s="49">
+        <f t="shared" si="8"/>
+        <v>189.22399999999999</v>
+      </c>
+      <c r="K92" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>1095.html</v>
+      </c>
+      <c r="L92" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M92" s="38" t="s">
-        <v>480</v>
-      </c>
-      <c r="N92" s="38" t="s">
-        <v>481</v>
-      </c>
-      <c r="O92" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="P92" s="20"/>
-      <c r="Q92" s="39" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D92:D122 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1072.jpg</v>
-      </c>
-      <c r="R92" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D92:D122 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1072a.jpg</v>
-      </c>
-      <c r="S92" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D92:D186 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1072b.jpg</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M92" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="O92" s="52" t="s">
+        <v>523</v>
+      </c>
+      <c r="P92" s="8"/>
+      <c r="Q92" s="10"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D92:D185 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1095b.jpg</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="D93" s="2">
-        <v>1066</v>
-      </c>
-      <c r="E93" t="s">
-        <v>449</v>
-      </c>
-      <c r="F93" s="45" t="s">
-        <v>712</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="H93" s="5">
-        <v>57.23</v>
-      </c>
-      <c r="I93" s="6">
-        <f t="shared" si="2"/>
-        <v>54.368499999999997</v>
-      </c>
-      <c r="J93" s="6">
-        <f t="shared" si="3"/>
-        <v>40.060999999999993</v>
-      </c>
-      <c r="K93" s="5" t="str">
-        <f>D93 &amp; ".html"</f>
-        <v>1066.html</v>
-      </c>
-      <c r="L93" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="M93" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D78:D123 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1066.jpg</v>
-      </c>
-      <c r="R93" s="1"/>
+      <c r="B93" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="D93" s="34">
+        <v>1072</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="F93" s="42" t="s">
+        <v>718</v>
+      </c>
+      <c r="G93" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="H93" s="21">
+        <v>320.5</v>
+      </c>
+      <c r="I93" s="37">
+        <f t="shared" si="7"/>
+        <v>304.47499999999997</v>
+      </c>
+      <c r="J93" s="37">
+        <f t="shared" ref="J93" si="9">H93 * 0.7</f>
+        <v>224.35</v>
+      </c>
+      <c r="K93" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>1072.html</v>
+      </c>
+      <c r="L93" s="38" t="s">
+        <v>624</v>
+      </c>
+      <c r="M93" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="N93" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="O93" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="P93" s="20"/>
+      <c r="Q93" s="36" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D93:D122 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1072.jpg</v>
+      </c>
+      <c r="R93" s="20" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D93:D122 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1072a.jpg</v>
+      </c>
       <c r="S93" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D93:D187 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1066b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D93:D186 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1072b.jpg</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8825,37 +8911,37 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D94" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E94" t="s">
-        <v>453</v>
-      </c>
-      <c r="F94" s="45" t="s">
-        <v>713</v>
+        <v>449</v>
+      </c>
+      <c r="F94" s="42" t="s">
+        <v>712</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>612</v>
+        <v>549</v>
       </c>
       <c r="H94" s="5">
         <v>57.23</v>
       </c>
       <c r="I94" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>54.368499999999997</v>
       </c>
       <c r="J94" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>40.060999999999993</v>
       </c>
       <c r="K94" s="5" t="str">
-        <f>D94 &amp; ".html"</f>
-        <v>1067.html</v>
+        <f t="shared" si="6"/>
+        <v>1066.html</v>
       </c>
       <c r="L94" s="5" t="s">
         <v>629</v>
@@ -8864,20 +8950,20 @@
         <v>446</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="O94" s="1" t="s">
         <v>448</v>
       </c>
       <c r="P94" s="1"/>
       <c r="Q94" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D94:D124 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1067.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D79:D123 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1066.jpg</v>
       </c>
       <c r="R94" s="1"/>
       <c r="S94" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D94:D188 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1067b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D94:D187 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1066b.jpg</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8885,62 +8971,59 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D95" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E95" t="s">
-        <v>459</v>
-      </c>
-      <c r="F95" s="45" t="s">
-        <v>714</v>
+        <v>453</v>
+      </c>
+      <c r="F95" s="42" t="s">
+        <v>713</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H95" s="5">
-        <v>127.62</v>
+        <v>57.23</v>
       </c>
       <c r="I95" s="6">
-        <f t="shared" si="2"/>
-        <v>121.239</v>
+        <f t="shared" si="7"/>
+        <v>54.368499999999997</v>
       </c>
       <c r="J95" s="6">
-        <f t="shared" si="3"/>
-        <v>89.334000000000003</v>
+        <f t="shared" si="8"/>
+        <v>40.060999999999993</v>
       </c>
       <c r="K95" s="5" t="str">
-        <f>D95 &amp; ".html"</f>
-        <v>1068.html</v>
+        <f t="shared" si="6"/>
+        <v>1067.html</v>
       </c>
       <c r="L95" s="5" t="s">
         <v>629</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="P95" s="1"/>
       <c r="Q95" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D95:D125 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1068.jpg</v>
-      </c>
-      <c r="R95" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D95:D125 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1068a.jpg</v>
-      </c>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D95:D124 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1067.jpg</v>
+      </c>
+      <c r="R95" s="1"/>
       <c r="S95" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D95:D189 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1068b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D95:D188 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1067b.jpg</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8948,62 +9031,62 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D96" s="2">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E96" t="s">
-        <v>465</v>
-      </c>
-      <c r="F96" s="45" t="s">
-        <v>715</v>
+        <v>459</v>
+      </c>
+      <c r="F96" s="42" t="s">
+        <v>714</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H96" s="5">
-        <v>60.11</v>
+        <v>127.62</v>
       </c>
       <c r="I96" s="6">
-        <f t="shared" si="2"/>
-        <v>57.104499999999994</v>
+        <f t="shared" si="7"/>
+        <v>121.239</v>
       </c>
       <c r="J96" s="6">
-        <f t="shared" si="3"/>
-        <v>42.076999999999998</v>
+        <f t="shared" si="8"/>
+        <v>89.334000000000003</v>
       </c>
       <c r="K96" s="5" t="str">
-        <f>D96 &amp; ".html"</f>
-        <v>1069.html</v>
+        <f t="shared" si="6"/>
+        <v>1068.html</v>
       </c>
       <c r="L96" s="5" t="s">
         <v>629</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="P96" s="1"/>
       <c r="Q96" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D96:D126 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1069.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D96:D125 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1068.jpg</v>
       </c>
       <c r="R96" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D96:D126 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1069a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D96:D125 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1068a.jpg</v>
       </c>
       <c r="S96" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D96:D190 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1069b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D96:D189 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1068b.jpg</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9011,62 +9094,62 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D97" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E97" t="s">
-        <v>471</v>
-      </c>
-      <c r="F97" s="45" t="s">
-        <v>716</v>
+        <v>465</v>
+      </c>
+      <c r="F97" s="42" t="s">
+        <v>715</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>614</v>
       </c>
       <c r="H97" s="5">
-        <v>86.44</v>
+        <v>60.11</v>
       </c>
       <c r="I97" s="6">
-        <f t="shared" si="2"/>
-        <v>82.117999999999995</v>
+        <f t="shared" si="7"/>
+        <v>57.104499999999994</v>
       </c>
       <c r="J97" s="6">
-        <f t="shared" si="3"/>
-        <v>60.507999999999996</v>
+        <f t="shared" si="8"/>
+        <v>42.076999999999998</v>
       </c>
       <c r="K97" s="5" t="str">
-        <f>D97 &amp; ".html"</f>
-        <v>1070.html</v>
+        <f t="shared" si="6"/>
+        <v>1069.html</v>
       </c>
       <c r="L97" s="5" t="s">
         <v>629</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="P97" s="1"/>
       <c r="Q97" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D97:D127 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1070.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D97:D126 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1069.jpg</v>
       </c>
       <c r="R97" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D97:D127 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1070a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D97:D126 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1069a.jpg</v>
       </c>
       <c r="S97" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D97:D191 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1070b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D97:D190 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1069b.jpg</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9074,98 +9157,161 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D98" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E98" t="s">
-        <v>477</v>
-      </c>
-      <c r="F98" s="45" t="s">
-        <v>717</v>
+        <v>471</v>
+      </c>
+      <c r="F98" s="42" t="s">
+        <v>716</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H98" s="5">
-        <v>10.31</v>
+        <v>86.44</v>
       </c>
       <c r="I98" s="6">
-        <f t="shared" si="2"/>
-        <v>9.7944999999999993</v>
+        <f t="shared" si="7"/>
+        <v>82.117999999999995</v>
       </c>
       <c r="J98" s="6">
-        <f t="shared" si="3"/>
-        <v>7.2169999999999996</v>
+        <f t="shared" si="8"/>
+        <v>60.507999999999996</v>
       </c>
       <c r="K98" s="5" t="str">
-        <f>D98 &amp; ".html"</f>
-        <v>1071.html</v>
+        <f t="shared" si="6"/>
+        <v>1070.html</v>
       </c>
       <c r="L98" s="5" t="s">
         <v>629</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="P98" s="1"/>
       <c r="Q98" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D98:D128 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D98:D127 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1070.jpg</v>
+      </c>
+      <c r="R98" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D98:D127 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1070a.jpg</v>
+      </c>
+      <c r="S98" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D98:D191 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1070b.jpg</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1071</v>
+      </c>
+      <c r="E99" t="s">
+        <v>477</v>
+      </c>
+      <c r="F99" s="42" t="s">
+        <v>717</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="H99" s="5">
+        <v>10.31</v>
+      </c>
+      <c r="I99" s="6">
+        <f t="shared" si="7"/>
+        <v>9.7944999999999993</v>
+      </c>
+      <c r="J99" s="6">
+        <f t="shared" si="8"/>
+        <v>7.2169999999999996</v>
+      </c>
+      <c r="K99" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>1071.html</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D99:D128 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1071.jpg</v>
       </c>
-      <c r="R98" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D98:D128 &amp;"a" &amp;".jpg"</f>
+      <c r="R99" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D99:D128 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1071a.jpg</v>
       </c>
-      <c r="S98" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D98:D192 &amp;"b" &amp;".jpg"</f>
+      <c r="S99" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D99:D192 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1071b.jpg</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E60" r:id="rId1"/>
+    <hyperlink ref="E61" r:id="rId1"/>
     <hyperlink ref="E21" r:id="rId2"/>
-    <hyperlink ref="O78" r:id="rId3"/>
-    <hyperlink ref="O79" r:id="rId4"/>
-    <hyperlink ref="O86" r:id="rId5"/>
-    <hyperlink ref="O87" r:id="rId6"/>
-    <hyperlink ref="O88" r:id="rId7"/>
-    <hyperlink ref="O89" r:id="rId8"/>
-    <hyperlink ref="O90" r:id="rId9"/>
-    <hyperlink ref="O91" r:id="rId10"/>
+    <hyperlink ref="O79" r:id="rId3"/>
+    <hyperlink ref="O80" r:id="rId4"/>
+    <hyperlink ref="O87" r:id="rId5"/>
+    <hyperlink ref="O88" r:id="rId6"/>
+    <hyperlink ref="O89" r:id="rId7"/>
+    <hyperlink ref="O90" r:id="rId8"/>
+    <hyperlink ref="O91" r:id="rId9"/>
+    <hyperlink ref="O92" r:id="rId10"/>
     <hyperlink ref="E29" r:id="rId11"/>
     <hyperlink ref="E9" r:id="rId12"/>
-    <hyperlink ref="S82" r:id="rId13"/>
-    <hyperlink ref="S83" r:id="rId14"/>
-    <hyperlink ref="S84" r:id="rId15"/>
-    <hyperlink ref="S85" r:id="rId16"/>
+    <hyperlink ref="S83" r:id="rId13"/>
+    <hyperlink ref="S84" r:id="rId14"/>
+    <hyperlink ref="S85" r:id="rId15"/>
+    <hyperlink ref="S86" r:id="rId16"/>
     <hyperlink ref="F29" r:id="rId17"/>
     <hyperlink ref="F9" r:id="rId18"/>
-    <hyperlink ref="F78" r:id="rId19"/>
-    <hyperlink ref="F79" r:id="rId20"/>
-    <hyperlink ref="F80" r:id="rId21"/>
-    <hyperlink ref="F81" r:id="rId22"/>
-    <hyperlink ref="F82" r:id="rId23"/>
-    <hyperlink ref="F83" r:id="rId24"/>
-    <hyperlink ref="F84" r:id="rId25"/>
-    <hyperlink ref="F85" r:id="rId26"/>
-    <hyperlink ref="F86" r:id="rId27"/>
-    <hyperlink ref="F87" r:id="rId28"/>
-    <hyperlink ref="F88" r:id="rId29"/>
-    <hyperlink ref="F89" r:id="rId30"/>
-    <hyperlink ref="F90" r:id="rId31"/>
-    <hyperlink ref="F91" r:id="rId32"/>
+    <hyperlink ref="F79" r:id="rId19"/>
+    <hyperlink ref="F80" r:id="rId20"/>
+    <hyperlink ref="F81" r:id="rId21"/>
+    <hyperlink ref="F82" r:id="rId22"/>
+    <hyperlink ref="F83" r:id="rId23"/>
+    <hyperlink ref="F84" r:id="rId24"/>
+    <hyperlink ref="F85" r:id="rId25"/>
+    <hyperlink ref="F86" r:id="rId26"/>
+    <hyperlink ref="F87" r:id="rId27"/>
+    <hyperlink ref="F88" r:id="rId28"/>
+    <hyperlink ref="F89" r:id="rId29"/>
+    <hyperlink ref="F90" r:id="rId30"/>
+    <hyperlink ref="F91" r:id="rId31"/>
+    <hyperlink ref="F92" r:id="rId32"/>
     <hyperlink ref="F2" r:id="rId33"/>
     <hyperlink ref="F3" r:id="rId34"/>
     <hyperlink ref="F4" r:id="rId35"/>
@@ -9181,51 +9327,51 @@
     <hyperlink ref="F19" r:id="rId45"/>
     <hyperlink ref="F30" r:id="rId46"/>
     <hyperlink ref="F31" r:id="rId47"/>
-    <hyperlink ref="F33" r:id="rId48"/>
-    <hyperlink ref="F34" r:id="rId49"/>
-    <hyperlink ref="F35" r:id="rId50"/>
-    <hyperlink ref="F36" r:id="rId51"/>
-    <hyperlink ref="F37" r:id="rId52"/>
-    <hyperlink ref="F38" r:id="rId53"/>
-    <hyperlink ref="F39" r:id="rId54"/>
-    <hyperlink ref="F40" r:id="rId55"/>
-    <hyperlink ref="F41" r:id="rId56"/>
-    <hyperlink ref="F42" r:id="rId57"/>
-    <hyperlink ref="F44" r:id="rId58"/>
-    <hyperlink ref="F45" r:id="rId59"/>
-    <hyperlink ref="F46" r:id="rId60"/>
-    <hyperlink ref="F47" r:id="rId61"/>
-    <hyperlink ref="F48" r:id="rId62"/>
-    <hyperlink ref="F49" r:id="rId63"/>
-    <hyperlink ref="F50" r:id="rId64"/>
-    <hyperlink ref="F51" r:id="rId65"/>
-    <hyperlink ref="F52" r:id="rId66"/>
-    <hyperlink ref="F53" r:id="rId67"/>
-    <hyperlink ref="F54" r:id="rId68"/>
-    <hyperlink ref="F55" r:id="rId69"/>
-    <hyperlink ref="F56" r:id="rId70"/>
-    <hyperlink ref="F57" r:id="rId71"/>
-    <hyperlink ref="F58" r:id="rId72"/>
-    <hyperlink ref="F59" r:id="rId73"/>
-    <hyperlink ref="F60" r:id="rId74"/>
-    <hyperlink ref="F61" r:id="rId75"/>
-    <hyperlink ref="F62" r:id="rId76"/>
-    <hyperlink ref="F63" r:id="rId77"/>
-    <hyperlink ref="F64" r:id="rId78"/>
-    <hyperlink ref="F65" r:id="rId79"/>
-    <hyperlink ref="F69" r:id="rId80"/>
-    <hyperlink ref="F70" r:id="rId81"/>
-    <hyperlink ref="F71" r:id="rId82"/>
-    <hyperlink ref="F72" r:id="rId83"/>
-    <hyperlink ref="F73" r:id="rId84"/>
-    <hyperlink ref="F74" r:id="rId85"/>
-    <hyperlink ref="F43" r:id="rId86"/>
-    <hyperlink ref="F66" r:id="rId87"/>
-    <hyperlink ref="F67" r:id="rId88"/>
-    <hyperlink ref="F68" r:id="rId89"/>
-    <hyperlink ref="F75" r:id="rId90"/>
-    <hyperlink ref="F76" r:id="rId91"/>
-    <hyperlink ref="F77" r:id="rId92"/>
+    <hyperlink ref="F34" r:id="rId48"/>
+    <hyperlink ref="F35" r:id="rId49"/>
+    <hyperlink ref="F36" r:id="rId50"/>
+    <hyperlink ref="F37" r:id="rId51"/>
+    <hyperlink ref="F38" r:id="rId52"/>
+    <hyperlink ref="F39" r:id="rId53"/>
+    <hyperlink ref="F40" r:id="rId54"/>
+    <hyperlink ref="F41" r:id="rId55"/>
+    <hyperlink ref="F42" r:id="rId56"/>
+    <hyperlink ref="F43" r:id="rId57"/>
+    <hyperlink ref="F45" r:id="rId58"/>
+    <hyperlink ref="F46" r:id="rId59"/>
+    <hyperlink ref="F47" r:id="rId60"/>
+    <hyperlink ref="F48" r:id="rId61"/>
+    <hyperlink ref="F49" r:id="rId62"/>
+    <hyperlink ref="F50" r:id="rId63"/>
+    <hyperlink ref="F51" r:id="rId64"/>
+    <hyperlink ref="F52" r:id="rId65"/>
+    <hyperlink ref="F53" r:id="rId66"/>
+    <hyperlink ref="F54" r:id="rId67"/>
+    <hyperlink ref="F55" r:id="rId68"/>
+    <hyperlink ref="F56" r:id="rId69"/>
+    <hyperlink ref="F57" r:id="rId70"/>
+    <hyperlink ref="F58" r:id="rId71"/>
+    <hyperlink ref="F59" r:id="rId72"/>
+    <hyperlink ref="F60" r:id="rId73"/>
+    <hyperlink ref="F61" r:id="rId74"/>
+    <hyperlink ref="F62" r:id="rId75"/>
+    <hyperlink ref="F63" r:id="rId76"/>
+    <hyperlink ref="F64" r:id="rId77"/>
+    <hyperlink ref="F65" r:id="rId78"/>
+    <hyperlink ref="F66" r:id="rId79"/>
+    <hyperlink ref="F70" r:id="rId80"/>
+    <hyperlink ref="F71" r:id="rId81"/>
+    <hyperlink ref="F72" r:id="rId82"/>
+    <hyperlink ref="F73" r:id="rId83"/>
+    <hyperlink ref="F74" r:id="rId84"/>
+    <hyperlink ref="F75" r:id="rId85"/>
+    <hyperlink ref="F44" r:id="rId86"/>
+    <hyperlink ref="F67" r:id="rId87"/>
+    <hyperlink ref="F68" r:id="rId88"/>
+    <hyperlink ref="F69" r:id="rId89"/>
+    <hyperlink ref="F76" r:id="rId90"/>
+    <hyperlink ref="F77" r:id="rId91"/>
+    <hyperlink ref="F78" r:id="rId92"/>
     <hyperlink ref="F5" r:id="rId93"/>
     <hyperlink ref="F6" r:id="rId94"/>
     <hyperlink ref="F7" r:id="rId95"/>
@@ -9239,8 +9385,10 @@
     <hyperlink ref="F16" r:id="rId103"/>
     <hyperlink ref="F32" r:id="rId104"/>
     <hyperlink ref="E32" r:id="rId105"/>
+    <hyperlink ref="E33" r:id="rId106"/>
+    <hyperlink ref="F33" r:id="rId107"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId106"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId108"/>
 </worksheet>
 </file>
--- a/products_categories/Merge.xlsx
+++ b/products_categories/Merge.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="847">
   <si>
     <t>h1</t>
   </si>
@@ -2645,6 +2645,303 @@
   </si>
   <si>
     <t>https://thealoeveraco.shop/jOgZJWqY</t>
+  </si>
+  <si>
+    <t>815-ALOE-VERA-GEL</t>
+  </si>
+  <si>
+    <t>836-FOREVER-ALOE-MANGO</t>
+  </si>
+  <si>
+    <t>877-ALOE-PEACH</t>
+  </si>
+  <si>
+    <t>834-ALOE-BERRY-NECTAR</t>
+  </si>
+  <si>
+    <t>8153-TRIPACK-ALOE-VERA-GEL</t>
+  </si>
+  <si>
+    <t>8773-TRIPACK-ALOE-PEACH</t>
+  </si>
+  <si>
+    <t>8343-TRIPACK-ALOE-BERRY-NECTAR</t>
+  </si>
+  <si>
+    <t>8333-TRIPACK-ALOE-COMBO</t>
+  </si>
+  <si>
+    <t>71612-ALOE-VERA-GEL-330ML-12-PACK</t>
+  </si>
+  <si>
+    <t>77812-ALOE-PEACHES-330ML-PACK-OF-12</t>
+  </si>
+  <si>
+    <t>73512-ALOE-BERRY-NECTAR-330ML</t>
+  </si>
+  <si>
+    <t>200-ALOE-BLOSSOM-HERBAL-TEA</t>
+  </si>
+  <si>
+    <t>196-FOREVER-FREEDOM</t>
+  </si>
+  <si>
+    <t>670-FOREVER-MOR</t>
+  </si>
+  <si>
+    <t>822-FAB-X-ENERGY-DRINK</t>
+  </si>
+  <si>
+    <t>721-FAB-ENERGY-DRINK</t>
+  </si>
+  <si>
+    <t>068-FIELDS-OF-GREENS</t>
+  </si>
+  <si>
+    <t>672-ABSORBENT-D</t>
+  </si>
+  <si>
+    <t>048-ABSORBENT-C</t>
+  </si>
+  <si>
+    <t>376-FOREVER-SUPER-ARCTIC-SEA</t>
+  </si>
+  <si>
+    <t>473-FORVER-ARGI-POUCH</t>
+  </si>
+  <si>
+    <t>188-FOREVER-B-12-PLUS</t>
+  </si>
+  <si>
+    <t>026-FOREVER-BEE-POLLEN</t>
+  </si>
+  <si>
+    <t>027-FOREVER-BEE-PROPOLIS</t>
+  </si>
+  <si>
+    <t>206-FOREVER-CALCIUM</t>
+  </si>
+  <si>
+    <t>065-GARLIC---TYME</t>
+  </si>
+  <si>
+    <t>355-FOREVER-IMMUBLEND</t>
+  </si>
+  <si>
+    <t>676-FOREVER-TURM</t>
+  </si>
+  <si>
+    <t>566-FOREVER-IMMUNE-GUMMY</t>
+  </si>
+  <si>
+    <t>624-FOREVER-IVISION</t>
+  </si>
+  <si>
+    <t>312-FOREVER-CARDIOHEALTH</t>
+  </si>
+  <si>
+    <t>264-FOREVER-ACTIVE-HA</t>
+  </si>
+  <si>
+    <t>613-FOREVER-MARINE-COLLAGEN</t>
+  </si>
+  <si>
+    <t>215-FOREVER-MULTI-MACA</t>
+  </si>
+  <si>
+    <t>036-FOREVER-ROYAL-JELLY</t>
+  </si>
+  <si>
+    <t>621-SUPERGREENS</t>
+  </si>
+  <si>
+    <t>374-VITOLIZE-MEN</t>
+  </si>
+  <si>
+    <t>375-VITOLIZE-WOMEN</t>
+  </si>
+  <si>
+    <t>556-INFINITE-FIRMING-COMPLEX</t>
+  </si>
+  <si>
+    <t>612-ALOE-ACTIVATOR-2018</t>
+  </si>
+  <si>
+    <t>561-AWAKENING-EYE-CREAM</t>
+  </si>
+  <si>
+    <t>560-BALANCING-TONER</t>
+  </si>
+  <si>
+    <t>664-FOREVER-BIO-CELLULOSE-MASK-X3</t>
+  </si>
+  <si>
+    <t>022-ALOE-LIPS-</t>
+  </si>
+  <si>
+    <t>238-FOREVER-ALOE-SCRUB</t>
+  </si>
+  <si>
+    <t>553-INFINITE-SKIN-CARE-KIT</t>
+  </si>
+  <si>
+    <t>618-HYDRATING-SERUM</t>
+  </si>
+  <si>
+    <t>555-INFINITE-FIRMING-SERUM</t>
+  </si>
+  <si>
+    <t>554-INFINITE-HYDRATING-CLEANSER</t>
+  </si>
+  <si>
+    <t>558-INFINITE-RESTORING-CREAM</t>
+  </si>
+  <si>
+    <t>645-PROTECTING-DAY-LOTION</t>
+  </si>
+  <si>
+    <t>559-SMOOTHING-EXFOLIATOR</t>
+  </si>
+  <si>
+    <t>609-SONYA-DAILY-SKINCARE-KIT</t>
+  </si>
+  <si>
+    <t>606-SONYA-ILLUMINATING-GEL</t>
+  </si>
+  <si>
+    <t>607-SONYA-REFINING-GEL-MASK</t>
+  </si>
+  <si>
+    <t>605-SONYA-REFRESHING-GEL-CLEANSER</t>
+  </si>
+  <si>
+    <t>608-SONYA-SOOTHING-GEL-MOISTURIZER</t>
+  </si>
+  <si>
+    <t>647-ALOE-BODY-LOTION</t>
+  </si>
+  <si>
+    <t>564-ALOE-COOLING-LOTION</t>
+  </si>
+  <si>
+    <t>040-ALOE-FIRST-SPRAY</t>
+  </si>
+  <si>
+    <t>205-ALOE-MSM-GEL</t>
+  </si>
+  <si>
+    <t>051-ALOE-PROPOLIS-CREME</t>
+  </si>
+  <si>
+    <t>617-SUNSCREEN-LOTION-MIT-FREE</t>
+  </si>
+  <si>
+    <t>061-ALOE-VERA-GELLY</t>
+  </si>
+  <si>
+    <t>284-AVOCADO-SOAP</t>
+  </si>
+  <si>
+    <t>644-MALOSI-MENS-COLOGNE</t>
+  </si>
+  <si>
+    <t>643-ALOFA-WOMENS-PERFUME</t>
+  </si>
+  <si>
+    <t>642-NOURISHING-HAIR-OIL</t>
+  </si>
+  <si>
+    <t>646-ALOE-BODY-WASH</t>
+  </si>
+  <si>
+    <t>633-ALOE-LIQUID-SOAP-</t>
+  </si>
+  <si>
+    <t>640-ALOE-JOJOBA-SHAMPOO</t>
+  </si>
+  <si>
+    <t>641-ALOE-JOJOBA-CONDITIONER</t>
+  </si>
+  <si>
+    <t>028-FOREVER-BRIGHT-TOOTH-GEL</t>
+  </si>
+  <si>
+    <t>070-GENTLEMANS-PRIDE-AFTERSHAVE</t>
+  </si>
+  <si>
+    <t>001-A-TOUCH-OF-FOREVER</t>
+  </si>
+  <si>
+    <t>71633-ARGI-AND-ALOE-MINI-TRIPACK</t>
+  </si>
+  <si>
+    <t>456-VITAL-5</t>
+  </si>
+  <si>
+    <t>457-VITAL-5-BERRY</t>
+  </si>
+  <si>
+    <t>529-F15-BEGINNER-12-CHOCOLATE</t>
+  </si>
+  <si>
+    <t>528-F15-BEGINNER-12-VANILLA</t>
+  </si>
+  <si>
+    <t>533-F15-INTEBEGINNER-12-CHOCOLATE</t>
+  </si>
+  <si>
+    <t>532-F15-INTERMEDIATE-12-VANILLA</t>
+  </si>
+  <si>
+    <t>537-F15-ADVANCED-12-CHOCOLATE</t>
+  </si>
+  <si>
+    <t>536-F15-ADVANCED-12-VANILLA</t>
+  </si>
+  <si>
+    <t>475-C9-GEL-VANILLA</t>
+  </si>
+  <si>
+    <t>476-C9-GEL-CHOCOLATE</t>
+  </si>
+  <si>
+    <t>625-C9-BERRY-VANILLA</t>
+  </si>
+  <si>
+    <t>626-C9-BERRY-CHOCOLATE</t>
+  </si>
+  <si>
+    <t>629-C9-PEACH-VANILLA</t>
+  </si>
+  <si>
+    <t>630-C9-PEACH-CHOCOLATE</t>
+  </si>
+  <si>
+    <t>659-DX-4</t>
+  </si>
+  <si>
+    <t>471-FOREVER-LITE-ULTRA-CHOCOLAT-15</t>
+  </si>
+  <si>
+    <t>470-FOREVER-LITE-ULTRA-VANILLA-15</t>
+  </si>
+  <si>
+    <t>656-FOREVER-PLANT-PROTEIN-POUCH</t>
+  </si>
+  <si>
+    <t>665-FOREVER-SENSATIABLE</t>
+  </si>
+  <si>
+    <t>289-FOREVER-LEAN</t>
+  </si>
+  <si>
+    <t>520-FAST-BREAK-BARS</t>
+  </si>
+  <si>
+    <t>forever_name</t>
+  </si>
+  <si>
+    <t>discount15</t>
   </si>
 </sst>
 </file>
@@ -3220,6173 +3517,6863 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S99"/>
+  <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" customWidth="1"/>
-    <col min="6" max="6" width="33.21875" style="42" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" style="28"/>
-    <col min="11" max="12" width="17.21875" style="27"/>
-    <col min="17" max="17" width="8" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" customWidth="1"/>
-    <col min="19" max="19" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="7" max="7" width="33.21875" style="42" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" style="28"/>
+    <col min="13" max="14" width="17.21875" style="27"/>
+    <col min="19" max="19" width="8" customWidth="1"/>
+    <col min="20" max="20" width="7.88671875" customWidth="1"/>
+    <col min="21" max="21" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="31" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="31" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>632</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="39" t="s">
+        <v>845</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>634</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="G1" s="39" t="s">
         <v>635</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>540</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="K1" s="29" t="s">
+        <v>846</v>
+      </c>
+      <c r="L1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>621</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="N1" s="30" t="s">
         <v>622</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="O1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="P1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="Q1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="R1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="S1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="T1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="U1" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>1000</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="G2" s="40" t="s">
         <v>652</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="5">
         <v>59.54</v>
       </c>
-      <c r="I2" s="6">
-        <f>H2 * 0.95</f>
+      <c r="J2" s="6">
+        <f>I2 * 0.95</f>
         <v>56.562999999999995</v>
       </c>
-      <c r="J2" s="6">
-        <f>H2 * 0.7</f>
+      <c r="K2" s="6">
+        <f>I2 * 0.85</f>
+        <v>50.608999999999995</v>
+      </c>
+      <c r="L2" s="6">
+        <f>I2 * 0.7</f>
         <v>41.677999999999997</v>
       </c>
-      <c r="K2" s="5" t="str">
-        <f t="shared" ref="K2:K34" si="0">D2 &amp; ".html"</f>
+      <c r="M2" s="5" t="str">
+        <f t="shared" ref="M2:M34" si="0">E2 &amp; ".html"</f>
         <v>1000.html</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D2:D99 &amp;".jpg"</f>
+      <c r="S2" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E2:E99 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1000.jpg</v>
       </c>
-      <c r="R2" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D2:D99 &amp;"a" &amp;".jpg"</f>
+      <c r="T2" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E2:E99 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1000a.jpg</v>
       </c>
-      <c r="S2" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D2:D99 &amp;"b" &amp;".jpg"</f>
+      <c r="U2" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E2:E99 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1000b.jpg</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>1001</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="G3" s="40" t="s">
         <v>653</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>59.54</v>
       </c>
-      <c r="I3" s="6">
-        <f t="shared" ref="I3:I68" si="1">H3 * 0.95</f>
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J68" si="1">I3 * 0.95</f>
         <v>56.562999999999995</v>
       </c>
-      <c r="J3" s="6">
-        <f t="shared" ref="J3:J68" si="2">H3 * 0.7</f>
+      <c r="K3" s="6">
+        <f t="shared" ref="K3:K66" si="2">I3 * 0.85</f>
+        <v>50.608999999999995</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" ref="K3:L68" si="3">I3 * 0.7</f>
         <v>41.677999999999997</v>
       </c>
-      <c r="K3" s="5" t="str">
+      <c r="M3" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1001.html</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D3:D79 &amp;".jpg"</f>
+      <c r="S3" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E3:E79 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1001.jpg</v>
       </c>
-      <c r="R3" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D3:D79 &amp;"a" &amp;".jpg"</f>
+      <c r="T3" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E3:E79 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1001a.jpg</v>
       </c>
-      <c r="S3" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D3:D99 &amp;"b" &amp;".jpg"</f>
+      <c r="U3" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E3:E99 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1001b.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="9">
+      <c r="E4" s="9">
         <v>1075</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="G4" s="40" t="s">
         <v>654</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="H4" s="12">
+      <c r="I4" s="12">
         <v>59.54</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <f t="shared" si="1"/>
         <v>56.562999999999995</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="6">
         <f t="shared" si="2"/>
+        <v>50.608999999999995</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" si="3"/>
         <v>41.677999999999997</v>
       </c>
-      <c r="K4" s="5" t="str">
+      <c r="M4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1075.html</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="N4" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="O4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="R4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D4:D80 &amp;".jpg"</f>
+      <c r="S4" s="10" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E4:E80 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1075.jpg</v>
       </c>
-      <c r="R4" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D4:D80 &amp;"a" &amp;".jpg"</f>
+      <c r="T4" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E4:E80 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1075a.jpg</v>
       </c>
-      <c r="S4" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D4:D99 &amp;"b" &amp;".jpg"</f>
+      <c r="U4" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E4:E99 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1075b.jpg</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>1002</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="G5" s="40" t="s">
         <v>719</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>59.54</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <f t="shared" si="1"/>
         <v>56.562999999999995</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="6">
         <f t="shared" si="2"/>
+        <v>50.608999999999995</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="3"/>
         <v>41.677999999999997</v>
       </c>
-      <c r="K5" s="5" t="str">
+      <c r="M5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1002.html</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D80 &amp;".jpg"</f>
+      <c r="S5" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E5:E80 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1002.jpg</v>
       </c>
-      <c r="R5" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D80 &amp;"a" &amp;".jpg"</f>
+      <c r="T5" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E5:E80 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1002a.jpg</v>
       </c>
-      <c r="S5" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D101 &amp;"b" &amp;".jpg"</f>
+      <c r="U5" s="1" t="str">
+        <f t="shared" ref="U5:U12" si="4" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E5:E101 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1002b.jpg</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>1003</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="G6" s="40" t="s">
         <v>720</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>178.61</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <f t="shared" si="1"/>
         <v>169.67950000000002</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="6">
         <f t="shared" si="2"/>
+        <v>151.8185</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="3"/>
         <v>125.027</v>
       </c>
-      <c r="K6" s="5" t="str">
+      <c r="M6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1003.html</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D6:D102 &amp;"b" &amp;".jpg"</f>
+      <c r="S6" s="3"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1003b.jpg</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="9">
+      <c r="E7" s="9">
         <v>1004</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="G7" s="41" t="s">
         <v>721</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="H7" s="12">
+      <c r="I7" s="12">
         <v>178.61</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <f t="shared" si="1"/>
         <v>169.67950000000002</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <f t="shared" si="2"/>
+        <v>151.8185</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="3"/>
         <v>125.027</v>
       </c>
-      <c r="K7" s="5" t="str">
+      <c r="M7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1004.html</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="N7" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="O7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="P7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="Q7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="R7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D7:D103 &amp;"b" &amp;".jpg"</f>
+      <c r="S7" s="10"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1004b.jpg</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>1005</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="G8" s="40" t="s">
         <v>722</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>178.61</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <f t="shared" si="1"/>
         <v>169.67950000000002</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="6">
         <f t="shared" si="2"/>
+        <v>151.8185</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="3"/>
         <v>125.027</v>
       </c>
-      <c r="K8" s="5" t="str">
+      <c r="M8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1005.html</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D8:D104 &amp;"b" &amp;".jpg"</f>
+      <c r="S8" s="3"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1005b.jpg</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="15">
+      <c r="E9" s="15">
         <v>1084</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="F9" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="G9" s="43" t="s">
         <v>637</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="H9" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="H9" s="18">
+      <c r="I9" s="18">
         <v>178.61</v>
       </c>
-      <c r="I9" s="24">
+      <c r="J9" s="24">
         <f t="shared" si="1"/>
         <v>169.67950000000002</v>
       </c>
-      <c r="J9" s="24">
+      <c r="K9" s="6">
         <f t="shared" si="2"/>
+        <v>151.8185</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" si="3"/>
         <v>125.027</v>
       </c>
-      <c r="K9" s="18" t="str">
+      <c r="M9" s="18" t="str">
         <f t="shared" si="0"/>
         <v>1084.html</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="N9" s="18" t="s">
         <v>623</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="O9" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14" t="s">
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="R9" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D9:D105 &amp;"b" &amp;".jpg"</f>
+      <c r="S9" s="16"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14" t="str">
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1084b.jpg</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>1006</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="G10" s="40" t="s">
         <v>723</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>238.12</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <f t="shared" si="1"/>
         <v>226.214</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="6">
         <f t="shared" si="2"/>
+        <v>202.40199999999999</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="3"/>
         <v>166.684</v>
       </c>
-      <c r="K10" s="5" t="str">
+      <c r="M10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1006.html</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="N10" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q10" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D10:D84 &amp;".jpg"</f>
+      <c r="S10" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E10:E84 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1006.jpg</v>
       </c>
-      <c r="R10" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D10:D84 &amp;"a" &amp;".jpg"</f>
+      <c r="T10" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E10:E84 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1006a.jpg</v>
       </c>
-      <c r="S10" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D10:D106 &amp;"b" &amp;".jpg"</f>
+      <c r="U10" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1006b.jpg</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>1007</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="G11" s="40" t="s">
         <v>724</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5">
         <v>238.12</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <f t="shared" si="1"/>
         <v>226.214</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K11" s="6">
         <f t="shared" si="2"/>
+        <v>202.40199999999999</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="3"/>
         <v>166.684</v>
       </c>
-      <c r="K11" s="5" t="str">
+      <c r="M11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1007.html</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="N11" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q11" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D11:D85 &amp;".jpg"</f>
+      <c r="S11" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E11:E85 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1007.jpg</v>
       </c>
-      <c r="R11" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D11:D85 &amp;"a" &amp;".jpg"</f>
+      <c r="T11" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E11:E85 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1007a.jpg</v>
       </c>
-      <c r="S11" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D11:D107 &amp;"b" &amp;".jpg"</f>
+      <c r="U11" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1007b.jpg</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>1008</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="G12" s="40" t="s">
         <v>725</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>238.12</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <f t="shared" si="1"/>
         <v>226.214</v>
       </c>
-      <c r="J12" s="6">
+      <c r="K12" s="6">
         <f t="shared" si="2"/>
+        <v>202.40199999999999</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="3"/>
         <v>166.684</v>
       </c>
-      <c r="K12" s="5" t="str">
+      <c r="M12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1008.html</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="N12" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q12" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D12:D86 &amp;".jpg"</f>
+      <c r="S12" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E12:E86 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1008.jpg</v>
       </c>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D12:D108 &amp;"b" &amp;".jpg"</f>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1008b.jpg</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>1010</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="G13" s="40" t="s">
         <v>726</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5">
         <v>40.06</v>
       </c>
-      <c r="I13" s="6">
-        <f>H13 * 0.95</f>
+      <c r="J13" s="6">
+        <f>I13 * 0.95</f>
         <v>38.057000000000002</v>
       </c>
-      <c r="J13" s="6">
-        <f>H13 * 0.7</f>
+      <c r="K13" s="6">
+        <f t="shared" si="2"/>
+        <v>34.051000000000002</v>
+      </c>
+      <c r="L13" s="6">
+        <f>I13 * 0.7</f>
         <v>28.041999999999998</v>
       </c>
-      <c r="K13" s="5" t="str">
+      <c r="M13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1010.html</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="N13" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D13:D88 &amp;".jpg"</f>
+      <c r="R13" s="1"/>
+      <c r="S13" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E13:E88 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1010.jpg</v>
       </c>
-      <c r="R13" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D13:D88 &amp;"a" &amp;".jpg"</f>
+      <c r="T13" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E13:E88 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1010a.jpg</v>
       </c>
-      <c r="S13" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D13:D111 &amp;"b" &amp;".jpg"</f>
+      <c r="U13" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E13:E111 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1010b.jpg</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>1009</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="G14" s="40" t="s">
         <v>727</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
         <v>81.36</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <f t="shared" si="1"/>
         <v>77.292000000000002</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="6">
         <f t="shared" si="2"/>
+        <v>69.155999999999992</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="3"/>
         <v>56.951999999999998</v>
       </c>
-      <c r="K14" s="5" t="str">
+      <c r="M14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1009.html</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="N14" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q14" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D14:D87 &amp;".jpg"</f>
+      <c r="S14" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E14:E87 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1009.jpg</v>
       </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D14:D109 &amp;"b" &amp;".jpg"</f>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E14:E109 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1009b.jpg</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="9">
+      <c r="E15" s="9">
         <v>1082</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="G15" s="40" t="s">
         <v>728</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="H15" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="H15" s="12">
+      <c r="I15" s="12">
         <v>55.51</v>
       </c>
-      <c r="I15" s="6">
-        <f>H15 * 0.95</f>
+      <c r="J15" s="6">
+        <f>I15 * 0.95</f>
         <v>52.734499999999997</v>
       </c>
-      <c r="J15" s="6">
-        <f>H15 * 0.7</f>
+      <c r="K15" s="6">
+        <f t="shared" si="2"/>
+        <v>47.183499999999995</v>
+      </c>
+      <c r="L15" s="6">
+        <f>I15 * 0.7</f>
         <v>38.856999999999999</v>
       </c>
-      <c r="K15" s="5" t="str">
+      <c r="M15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1082.html</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="N15" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="O15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="P15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="Q15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="R15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D81 &amp;".jpg"</f>
+      <c r="S15" s="10" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E5:E81 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1082.jpg</v>
       </c>
-      <c r="R15" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D81 &amp;"a" &amp;".jpg"</f>
+      <c r="T15" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E5:E81 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1082a.jpg</v>
       </c>
-      <c r="S15" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D5:D100 &amp;"b" &amp;".jpg"</f>
+      <c r="U15" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E5:E100 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1082b.jpg</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="9">
+      <c r="E16" s="9">
         <v>1076</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="G16" s="40" t="s">
         <v>729</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="H16" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="H16" s="12">
+      <c r="I16" s="12">
         <v>8.58</v>
       </c>
-      <c r="I16" s="6">
-        <f>H16 * 0.95</f>
+      <c r="J16" s="6">
+        <f>I16 * 0.95</f>
         <v>8.1509999999999998</v>
       </c>
-      <c r="J16" s="6">
-        <f>H16 * 0.7</f>
+      <c r="K16" s="6">
+        <f t="shared" si="2"/>
+        <v>7.2930000000000001</v>
+      </c>
+      <c r="L16" s="6">
+        <f>I16 * 0.7</f>
         <v>6.0059999999999993</v>
       </c>
-      <c r="K16" s="5" t="str">
+      <c r="M16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1076.html</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="N16" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="O16" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="P16" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="Q16" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D13:D88 &amp;".jpg"</f>
+      <c r="R16" s="8"/>
+      <c r="S16" s="10" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E13:E88 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1076.jpg</v>
       </c>
-      <c r="R16" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D13:D88 &amp;"a" &amp;".jpg"</f>
+      <c r="T16" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E13:E88 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1076a.jpg</v>
       </c>
-      <c r="S16" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D13:D110 &amp;"b" &amp;".jpg"</f>
+      <c r="U16" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E13:E110 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1076b.jpg</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="D17" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="34">
+      <c r="E17" s="34">
         <v>1011</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="F17" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="42" t="s">
+      <c r="G17" s="42" t="s">
         <v>730</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="H17" s="21" t="s">
         <v>556</v>
       </c>
-      <c r="H17" s="21">
+      <c r="I17" s="21">
         <v>8.58</v>
       </c>
-      <c r="I17" s="37">
+      <c r="J17" s="37">
         <f t="shared" si="1"/>
         <v>8.1509999999999998</v>
       </c>
-      <c r="J17" s="37">
+      <c r="K17" s="6">
         <f t="shared" si="2"/>
+        <v>7.2930000000000001</v>
+      </c>
+      <c r="L17" s="37">
+        <f t="shared" si="3"/>
         <v>6.0059999999999993</v>
       </c>
-      <c r="K17" s="21" t="str">
+      <c r="M17" s="21" t="str">
         <f t="shared" si="0"/>
         <v>1011.html</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="N17" s="21" t="s">
         <v>623</v>
       </c>
-      <c r="M17" s="35" t="s">
+      <c r="O17" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="P17" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="O17" s="20" t="s">
+      <c r="Q17" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="36" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D17:D89 &amp;".jpg"</f>
+      <c r="R17" s="20"/>
+      <c r="S17" s="36" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E17:E89 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1011.jpg</v>
       </c>
-      <c r="R17" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D17:D89 &amp;"a" &amp;".jpg"</f>
+      <c r="T17" s="20" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E17:E89 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1011a.jpg</v>
       </c>
-      <c r="S17" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D17:D112 &amp;"b" &amp;".jpg"</f>
+      <c r="U17" s="1" t="str">
+        <f t="shared" ref="U17:U31" si="5" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E17:E112 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1011b.jpg</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>1012</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="G18" s="42" t="s">
         <v>731</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I18" s="5">
         <v>27.48</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="6">
         <f t="shared" si="1"/>
         <v>26.105999999999998</v>
       </c>
-      <c r="J18" s="6">
+      <c r="K18" s="6">
         <f t="shared" si="2"/>
+        <v>23.358000000000001</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="3"/>
         <v>19.236000000000001</v>
       </c>
-      <c r="K18" s="5" t="str">
+      <c r="M18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1012.html</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="N18" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D18:D90 &amp;".jpg"</f>
+      <c r="R18" s="1"/>
+      <c r="S18" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E18:E90 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1012.jpg</v>
       </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D18:D113 &amp;"b" &amp;".jpg"</f>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1012b.jpg</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="9">
+      <c r="E19" s="9">
         <v>1078</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="G19" s="40" t="s">
         <v>655</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="H19" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="H19" s="12">
+      <c r="I19" s="12">
         <v>32.61</v>
       </c>
-      <c r="I19" s="6">
+      <c r="J19" s="6">
         <f t="shared" si="1"/>
         <v>30.979499999999998</v>
       </c>
-      <c r="J19" s="6">
+      <c r="K19" s="6">
         <f t="shared" si="2"/>
+        <v>27.718499999999999</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="3"/>
         <v>22.826999999999998</v>
       </c>
-      <c r="K19" s="5" t="str">
+      <c r="M19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1078.html</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="N19" s="12" t="s">
         <v>625</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="O19" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="P19" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="Q19" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D19:D91 &amp;".jpg"</f>
+      <c r="R19" s="8"/>
+      <c r="S19" s="10" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E19:E91 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1078.jpg</v>
       </c>
-      <c r="R19" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D19:D91 &amp;"a" &amp;".jpg"</f>
+      <c r="T19" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E19:E91 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1078a.jpg</v>
       </c>
-      <c r="S19" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D19:D114 &amp;"b" &amp;".jpg"</f>
+      <c r="U19" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1078b.jpg</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>1013</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="G20" s="40" t="s">
         <v>656</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="H20" s="5">
+      <c r="I20" s="5">
         <v>40.06</v>
       </c>
-      <c r="I20" s="6">
+      <c r="J20" s="6">
         <f t="shared" si="1"/>
         <v>38.057000000000002</v>
       </c>
-      <c r="J20" s="6">
+      <c r="K20" s="6">
         <f t="shared" si="2"/>
+        <v>34.051000000000002</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="3"/>
         <v>28.041999999999998</v>
       </c>
-      <c r="K20" s="5" t="str">
+      <c r="M20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1013.html</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="N20" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D20:D91 &amp;".jpg"</f>
+      <c r="R20" s="1"/>
+      <c r="S20" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E20:E91 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1013.jpg</v>
       </c>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D20:D115 &amp;"b" &amp;".jpg"</f>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1013b.jpg</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>1014</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="F21" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="G21" s="40" t="s">
         <v>657</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="H21" s="5">
+      <c r="I21" s="5">
         <v>72.680000000000007</v>
       </c>
-      <c r="I21" s="6">
+      <c r="J21" s="6">
         <f t="shared" si="1"/>
         <v>69.046000000000006</v>
       </c>
-      <c r="J21" s="6">
+      <c r="K21" s="6">
         <f t="shared" si="2"/>
+        <v>61.778000000000006</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="3"/>
         <v>50.876000000000005</v>
       </c>
-      <c r="K21" s="5" t="str">
+      <c r="M21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1014.html</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="N21" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="O21" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D21:D92 &amp;".jpg"</f>
+      <c r="R21" s="1"/>
+      <c r="S21" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E21:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1014.jpg</v>
       </c>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D21:D116 &amp;"b" &amp;".jpg"</f>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1014b.jpg</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>1015</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>131</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="G22" s="40" t="s">
         <v>658</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="H22" s="5">
+      <c r="I22" s="5">
         <v>156.84</v>
       </c>
-      <c r="I22" s="6">
+      <c r="J22" s="6">
         <f t="shared" si="1"/>
         <v>148.99799999999999</v>
       </c>
-      <c r="J22" s="6">
+      <c r="K22" s="6">
         <f t="shared" si="2"/>
+        <v>133.31399999999999</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="3"/>
         <v>109.788</v>
       </c>
-      <c r="K22" s="5" t="str">
+      <c r="M22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1015.html</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="N22" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="O22" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D22:D92 &amp;".jpg"</f>
+      <c r="R22" s="1"/>
+      <c r="S22" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E22:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1015.jpg</v>
       </c>
-      <c r="R22" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D22:D92 &amp;"a" &amp;".jpg"</f>
+      <c r="T22" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E22:E92 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1015a.jpg</v>
       </c>
-      <c r="S22" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D22:D117 &amp;"b" &amp;".jpg"</f>
+      <c r="U22" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1015b.jpg</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>1016</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>137</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="G23" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="H23" s="5">
+      <c r="I23" s="5">
         <v>35.5</v>
       </c>
-      <c r="I23" s="6">
+      <c r="J23" s="6">
         <f t="shared" si="1"/>
         <v>33.725000000000001</v>
       </c>
-      <c r="J23" s="6">
+      <c r="K23" s="6">
         <f t="shared" si="2"/>
+        <v>30.175000000000001</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="3"/>
         <v>24.849999999999998</v>
       </c>
-      <c r="K23" s="5" t="str">
+      <c r="M23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1016.html</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="N23" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D23:D92 &amp;".jpg"</f>
+      <c r="R23" s="1"/>
+      <c r="S23" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E23:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1016.jpg</v>
       </c>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D23:D118 &amp;"b" &amp;".jpg"</f>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1016b.jpg</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>1017</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="G24" s="40" t="s">
         <v>660</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="H24" s="5">
+      <c r="I24" s="5">
         <v>34.909999999999997</v>
       </c>
-      <c r="I24" s="6">
+      <c r="J24" s="6">
         <f t="shared" si="1"/>
         <v>33.164499999999997</v>
       </c>
-      <c r="J24" s="6">
+      <c r="K24" s="6">
         <f t="shared" si="2"/>
+        <v>29.673499999999997</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="3"/>
         <v>24.436999999999998</v>
       </c>
-      <c r="K24" s="5" t="str">
+      <c r="M24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1017.html</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="N24" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="O24" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D24:D92 &amp;".jpg"</f>
+      <c r="R24" s="1"/>
+      <c r="S24" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E24:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1017.jpg</v>
       </c>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D24:D119 &amp;"b" &amp;".jpg"</f>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1017b.jpg</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>1018</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>149</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="G25" s="40" t="s">
         <v>661</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="H25" s="5">
+      <c r="I25" s="5">
         <v>72.680000000000007</v>
       </c>
-      <c r="I25" s="6">
+      <c r="J25" s="6">
         <f t="shared" si="1"/>
         <v>69.046000000000006</v>
       </c>
-      <c r="J25" s="6">
+      <c r="K25" s="6">
         <f t="shared" si="2"/>
+        <v>61.778000000000006</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="3"/>
         <v>50.876000000000005</v>
       </c>
-      <c r="K25" s="5" t="str">
+      <c r="M25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1018.html</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="N25" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="O25" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="Q25" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D25:D92 &amp;".jpg"</f>
+      <c r="R25" s="1"/>
+      <c r="S25" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E25:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1018.jpg</v>
       </c>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D25:D120 &amp;"b" &amp;".jpg"</f>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1018b.jpg</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>1019</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="G26" s="40" t="s">
         <v>662</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="H26" s="5">
+      <c r="I26" s="5">
         <v>54.94</v>
       </c>
-      <c r="I26" s="6">
+      <c r="J26" s="6">
         <f t="shared" si="1"/>
         <v>52.192999999999998</v>
       </c>
-      <c r="J26" s="6">
+      <c r="K26" s="6">
         <f t="shared" si="2"/>
+        <v>46.698999999999998</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="3"/>
         <v>38.457999999999998</v>
       </c>
-      <c r="K26" s="5" t="str">
+      <c r="M26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1019.html</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="N26" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="O26" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D26:D92 &amp;".jpg"</f>
+      <c r="R26" s="1"/>
+      <c r="S26" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E26:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1019.jpg</v>
       </c>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D26:D121 &amp;"b" &amp;".jpg"</f>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1019b.jpg</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <v>1020</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="G27" s="40" t="s">
         <v>663</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="H27" s="5">
+      <c r="I27" s="5">
         <v>41.79</v>
       </c>
-      <c r="I27" s="6">
+      <c r="J27" s="6">
         <f t="shared" si="1"/>
         <v>39.700499999999998</v>
       </c>
-      <c r="J27" s="6">
+      <c r="K27" s="6">
         <f t="shared" si="2"/>
+        <v>35.521499999999996</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="3"/>
         <v>29.252999999999997</v>
       </c>
-      <c r="K27" s="5" t="str">
+      <c r="M27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1020.html</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="N27" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="O27" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="Q27" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="S27" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D27:D122 &amp;"b" &amp;".jpg"</f>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1020b.jpg</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <v>1021</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>167</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="G28" s="40" t="s">
         <v>664</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="H28" s="5">
+      <c r="I28" s="5">
         <v>48.08</v>
       </c>
-      <c r="I28" s="6">
+      <c r="J28" s="6">
         <f t="shared" si="1"/>
         <v>45.675999999999995</v>
       </c>
-      <c r="J28" s="6">
+      <c r="K28" s="6">
         <f t="shared" si="2"/>
+        <v>40.867999999999995</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="3"/>
         <v>33.655999999999999</v>
       </c>
-      <c r="K28" s="5" t="str">
+      <c r="M28" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1021.html</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="N28" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="O28" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D28:D92 &amp;".jpg"</f>
+      <c r="R28" s="1"/>
+      <c r="S28" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E28:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1021.jpg</v>
       </c>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D28:D123 &amp;"b" &amp;".jpg"</f>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1021b.jpg</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="D29" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D29" s="15">
+      <c r="E29" s="15">
         <v>1085</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="F29" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="G29" s="23" t="s">
         <v>636</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="H29" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="H29" s="18">
+      <c r="I29" s="18">
         <v>14.9</v>
       </c>
-      <c r="I29" s="24">
+      <c r="J29" s="24">
         <f t="shared" si="1"/>
         <v>14.154999999999999</v>
       </c>
-      <c r="J29" s="24">
+      <c r="K29" s="6">
         <f t="shared" si="2"/>
+        <v>12.664999999999999</v>
+      </c>
+      <c r="L29" s="24">
+        <f t="shared" si="3"/>
         <v>10.43</v>
       </c>
-      <c r="K29" s="18" t="str">
+      <c r="M29" s="18" t="str">
         <f t="shared" si="0"/>
         <v>1085.html</v>
       </c>
-      <c r="L29" s="18" t="s">
+      <c r="N29" s="18" t="s">
         <v>625</v>
       </c>
-      <c r="M29" s="17" t="s">
+      <c r="O29" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="N29" s="14" t="s">
+      <c r="P29" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="O29" s="14" t="s">
+      <c r="Q29" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="16" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D29:D92 &amp;".jpg"</f>
+      <c r="R29" s="14"/>
+      <c r="S29" s="16" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E29:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1085.jpg</v>
       </c>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D29:D124 &amp;"b" &amp;".jpg"</f>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1085b.jpg</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>1022</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>179</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="G30" s="40" t="s">
         <v>665</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="H30" s="5">
+      <c r="I30" s="5">
         <v>84.69</v>
       </c>
-      <c r="I30" s="6">
+      <c r="J30" s="6">
         <f t="shared" si="1"/>
         <v>80.455500000000001</v>
       </c>
-      <c r="J30" s="6">
+      <c r="K30" s="6">
         <f t="shared" si="2"/>
+        <v>71.986499999999992</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="3"/>
         <v>59.282999999999994</v>
       </c>
-      <c r="K30" s="5" t="str">
+      <c r="M30" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1022.html</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="N30" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="O30" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="Q30" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D30:D92 &amp;".jpg"</f>
+      <c r="R30" s="1"/>
+      <c r="S30" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E30:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1022.jpg</v>
       </c>
-      <c r="R30" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D30:D92 &amp;"a" &amp;".jpg"</f>
+      <c r="T30" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E30:E92 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1022a.jpg</v>
       </c>
-      <c r="S30" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D30:D125 &amp;"b" &amp;".jpg"</f>
+      <c r="U30" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1022b.jpg</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31" s="2">
         <v>1023</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>185</v>
       </c>
-      <c r="F31" s="40" t="s">
+      <c r="G31" s="40" t="s">
         <v>666</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="H31" s="5">
+      <c r="I31" s="5">
         <v>80.12</v>
       </c>
-      <c r="I31" s="6">
+      <c r="J31" s="6">
         <f t="shared" si="1"/>
         <v>76.114000000000004</v>
       </c>
-      <c r="J31" s="6">
+      <c r="K31" s="6">
         <f t="shared" si="2"/>
+        <v>68.102000000000004</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="3"/>
         <v>56.083999999999996</v>
       </c>
-      <c r="K31" s="5" t="str">
+      <c r="M31" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1023.html</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="N31" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="O31" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="Q31" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D31:D92 &amp;".jpg"</f>
+      <c r="R31" s="1"/>
+      <c r="S31" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E31:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1023.jpg</v>
       </c>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D31:D126 &amp;"b" &amp;".jpg"</f>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1023b.jpg</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>732</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="D32" s="14" t="s">
         <v>733</v>
       </c>
-      <c r="D32" s="15">
+      <c r="E32" s="15">
         <v>1097</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="F32" s="19" t="s">
         <v>736</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="G32" s="19" t="s">
         <v>735</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="H32" s="26" t="s">
         <v>739</v>
       </c>
-      <c r="H32" s="44">
+      <c r="I32" s="44">
         <v>68.680000000000007</v>
       </c>
-      <c r="I32" s="24">
-        <f>H32 * 0.95</f>
+      <c r="J32" s="24">
+        <f>I32 * 0.95</f>
         <v>65.246000000000009</v>
       </c>
-      <c r="J32" s="24">
-        <f>H32 * 0.7</f>
+      <c r="K32" s="6">
+        <f t="shared" si="2"/>
+        <v>58.378000000000007</v>
+      </c>
+      <c r="L32" s="24">
+        <f>I32 * 0.7</f>
         <v>48.076000000000001</v>
       </c>
-      <c r="K32" s="45" t="str">
+      <c r="M32" s="45" t="str">
         <f t="shared" si="0"/>
         <v>1097.html</v>
       </c>
-      <c r="L32" s="18" t="s">
+      <c r="N32" s="18" t="s">
         <v>625</v>
       </c>
-      <c r="M32" s="46" t="s">
+      <c r="O32" s="46" t="s">
         <v>737</v>
       </c>
-      <c r="N32" s="46" t="s">
+      <c r="P32" s="46" t="s">
         <v>738</v>
       </c>
-      <c r="O32" s="46" t="s">
+      <c r="Q32" s="46" t="s">
         <v>734</v>
       </c>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D32:D193 &amp;"b" &amp;".jpg"</f>
+      <c r="S32" s="16"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E32:E193 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1097b.jpg</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="53" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" s="53" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="53">
         <v>32</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="C33" s="54" t="s">
         <v>740</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="D33" s="54" t="s">
         <v>741</v>
       </c>
-      <c r="D33" s="55">
+      <c r="E33" s="55">
         <v>1098</v>
       </c>
-      <c r="E33" s="56" t="s">
+      <c r="F33" s="56" t="s">
         <v>746</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="G33" s="56" t="s">
         <v>747</v>
       </c>
-      <c r="G33" s="57" t="s">
+      <c r="H33" s="57" t="s">
         <v>742</v>
       </c>
-      <c r="H33" s="58">
+      <c r="I33" s="58">
         <v>69.27</v>
       </c>
-      <c r="I33" s="59">
-        <f>H33 * 0.95</f>
+      <c r="J33" s="59">
+        <f>I33 * 0.95</f>
         <v>65.8065</v>
       </c>
-      <c r="J33" s="59">
-        <f>H33 * 0.7</f>
+      <c r="K33" s="6">
+        <f t="shared" si="2"/>
+        <v>58.879499999999993</v>
+      </c>
+      <c r="L33" s="59">
+        <f>I33 * 0.7</f>
         <v>48.488999999999997</v>
       </c>
-      <c r="K33" s="60" t="str">
-        <f>D33 &amp; ".html"</f>
+      <c r="M33" s="60" t="str">
+        <f>E33 &amp; ".html"</f>
         <v>1098.html</v>
       </c>
-      <c r="L33" s="57" t="s">
+      <c r="N33" s="57" t="s">
         <v>625</v>
       </c>
-      <c r="M33" s="61" t="s">
+      <c r="O33" s="61" t="s">
         <v>745</v>
       </c>
-      <c r="N33" s="54" t="s">
+      <c r="P33" s="54" t="s">
         <v>743</v>
       </c>
-      <c r="O33" s="61" t="s">
+      <c r="Q33" s="61" t="s">
         <v>744</v>
       </c>
-      <c r="Q33" s="62" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D33:D129 &amp;".jpg"</f>
+      <c r="S33" s="62" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E33:E129 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1098.jpg</v>
       </c>
-      <c r="R33" s="54" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D33:D129 &amp;"a" &amp;".jpg"</f>
+      <c r="T33" s="54" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E33:E129 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1098a.jpg</v>
       </c>
-      <c r="S33" s="54" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D33:D193 &amp;"b" &amp;".jpg"</f>
+      <c r="U33" s="54" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E33:E193 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1098b.jpg</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D34" s="2">
+      <c r="E34" s="2">
         <v>1024</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>191</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="G34" s="40" t="s">
         <v>667</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="H34" s="5">
+      <c r="I34" s="5">
         <v>187.14</v>
       </c>
-      <c r="I34" s="6">
+      <c r="J34" s="6">
         <f t="shared" si="1"/>
         <v>177.78299999999999</v>
       </c>
-      <c r="J34" s="6">
+      <c r="K34" s="6">
         <f t="shared" si="2"/>
+        <v>159.06899999999999</v>
+      </c>
+      <c r="L34" s="6">
+        <f t="shared" si="3"/>
         <v>130.99799999999999</v>
       </c>
-      <c r="K34" s="5" t="str">
+      <c r="M34" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1024.html</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="N34" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="O34" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="P34" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="Q34" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D34:D92 &amp;".jpg"</f>
+      <c r="R34" s="1"/>
+      <c r="S34" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E34:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1024.jpg</v>
       </c>
-      <c r="R34" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D34:D92 &amp;"a" &amp;".jpg"</f>
+      <c r="T34" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E34:E92 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1024a.jpg</v>
       </c>
-      <c r="S34" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D34:D127 &amp;"b" &amp;".jpg"</f>
+      <c r="U34" s="1" t="str">
+        <f t="shared" ref="U34:U76" si="6" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E34:E127 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1024b.jpg</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D35" s="2">
+      <c r="E35" s="2">
         <v>1025</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>197</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="G35" s="40" t="s">
         <v>668</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="H35" s="5">
+      <c r="I35" s="5">
         <v>60.68</v>
       </c>
-      <c r="I35" s="6">
+      <c r="J35" s="6">
         <f t="shared" si="1"/>
         <v>57.645999999999994</v>
       </c>
-      <c r="J35" s="6">
+      <c r="K35" s="6">
         <f t="shared" si="2"/>
+        <v>51.577999999999996</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="3"/>
         <v>42.475999999999999</v>
       </c>
-      <c r="K35" s="5" t="str">
-        <f t="shared" ref="K35:K66" si="3">D35 &amp; ".html"</f>
+      <c r="M35" s="5" t="str">
+        <f t="shared" ref="M35:M66" si="7">E35 &amp; ".html"</f>
         <v>1025.html</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="N35" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="O35" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="P35" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="Q35" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D35:D92 &amp;".jpg"</f>
+      <c r="R35" s="1"/>
+      <c r="S35" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E35:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1025.jpg</v>
       </c>
-      <c r="R35" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D35:D92 &amp;"a" &amp;".jpg"</f>
+      <c r="T35" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E35:E92 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1025a.jpg</v>
       </c>
-      <c r="S35" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D35:D128 &amp;"b" &amp;".jpg"</f>
+      <c r="U35" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1025b.jpg</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D36" s="2">
+      <c r="E36" s="2">
         <v>1026</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>203</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="G36" s="40" t="s">
         <v>669</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="H36" s="5">
+      <c r="I36" s="5">
         <v>75.58</v>
       </c>
-      <c r="I36" s="6">
+      <c r="J36" s="6">
         <f t="shared" si="1"/>
         <v>71.801000000000002</v>
       </c>
-      <c r="J36" s="6">
+      <c r="K36" s="6">
         <f t="shared" si="2"/>
+        <v>64.242999999999995</v>
+      </c>
+      <c r="L36" s="6">
+        <f t="shared" si="3"/>
         <v>52.905999999999999</v>
       </c>
-      <c r="K36" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M36" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1026.html</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="N36" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="O36" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="P36" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="Q36" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D36:D92 &amp;".jpg"</f>
+      <c r="R36" s="1"/>
+      <c r="S36" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E36:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1026.jpg</v>
       </c>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D36:D129 &amp;"b" &amp;".jpg"</f>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1026b.jpg</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D37" s="2">
+      <c r="E37" s="2">
         <v>1027</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>209</v>
       </c>
-      <c r="F37" s="40" t="s">
+      <c r="G37" s="40" t="s">
         <v>670</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="H37" s="5">
+      <c r="I37" s="5">
         <v>88.12</v>
       </c>
-      <c r="I37" s="6">
+      <c r="J37" s="6">
         <f t="shared" si="1"/>
         <v>83.713999999999999</v>
       </c>
-      <c r="J37" s="6">
+      <c r="K37" s="6">
         <f t="shared" si="2"/>
+        <v>74.902000000000001</v>
+      </c>
+      <c r="L37" s="6">
+        <f t="shared" si="3"/>
         <v>61.683999999999997</v>
       </c>
-      <c r="K37" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M37" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1027.html</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="N37" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="O37" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="P37" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="Q37" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D37:D92 &amp;".jpg"</f>
+      <c r="R37" s="1"/>
+      <c r="S37" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E37:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1027.jpg</v>
       </c>
-      <c r="R37" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D37:D92 &amp;"a" &amp;".jpg"</f>
+      <c r="T37" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E37:E92 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1027a.jpg</v>
       </c>
-      <c r="S37" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D37:D130 &amp;"b" &amp;".jpg"</f>
+      <c r="U37" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1027b.jpg</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D38" s="2">
+      <c r="E38" s="2">
         <v>1028</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>215</v>
       </c>
-      <c r="F38" s="40" t="s">
+      <c r="G38" s="40" t="s">
         <v>671</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="H38" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="H38" s="5">
+      <c r="I38" s="5">
         <v>68.680000000000007</v>
       </c>
-      <c r="I38" s="6">
+      <c r="J38" s="6">
         <f t="shared" si="1"/>
         <v>65.246000000000009</v>
       </c>
-      <c r="J38" s="6">
+      <c r="K38" s="6">
         <f t="shared" si="2"/>
+        <v>58.378000000000007</v>
+      </c>
+      <c r="L38" s="6">
+        <f t="shared" si="3"/>
         <v>48.076000000000001</v>
       </c>
-      <c r="K38" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M38" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1028.html</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="N38" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="O38" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="P38" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="Q38" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D38:D92 &amp;".jpg"</f>
+      <c r="R38" s="1"/>
+      <c r="S38" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E38:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1028.jpg</v>
       </c>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D38:D131 &amp;"b" &amp;".jpg"</f>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1028b.jpg</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D39" s="2">
+      <c r="E39" s="2">
         <v>1029</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>221</v>
       </c>
-      <c r="F39" s="40" t="s">
+      <c r="G39" s="40" t="s">
         <v>672</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="H39" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="H39" s="5">
+      <c r="I39" s="5">
         <v>72.680000000000007</v>
       </c>
-      <c r="I39" s="6">
+      <c r="J39" s="6">
         <f t="shared" si="1"/>
         <v>69.046000000000006</v>
       </c>
-      <c r="J39" s="6">
+      <c r="K39" s="6">
         <f t="shared" si="2"/>
+        <v>61.778000000000006</v>
+      </c>
+      <c r="L39" s="6">
+        <f t="shared" si="3"/>
         <v>50.876000000000005</v>
       </c>
-      <c r="K39" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M39" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1029.html</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="N39" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="O39" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="P39" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="Q39" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D39:D92 &amp;".jpg"</f>
+      <c r="R39" s="1"/>
+      <c r="S39" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E39:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1029.jpg</v>
       </c>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D39:D132 &amp;"b" &amp;".jpg"</f>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1029b.jpg</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="C40" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="D40" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="D40" s="34">
+      <c r="E40" s="34">
         <v>1030</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="F40" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="F40" s="40" t="s">
+      <c r="G40" s="40" t="s">
         <v>673</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="H40" s="21" t="s">
         <v>577</v>
       </c>
-      <c r="H40" s="21">
+      <c r="I40" s="21">
         <v>118.46</v>
       </c>
-      <c r="I40" s="37">
+      <c r="J40" s="37">
         <f t="shared" si="1"/>
         <v>112.53699999999999</v>
       </c>
-      <c r="J40" s="37">
+      <c r="K40" s="6">
         <f t="shared" si="2"/>
+        <v>100.69099999999999</v>
+      </c>
+      <c r="L40" s="37">
+        <f t="shared" si="3"/>
         <v>82.921999999999997</v>
       </c>
-      <c r="K40" s="21" t="str">
-        <f t="shared" si="3"/>
+      <c r="M40" s="21" t="str">
+        <f t="shared" si="7"/>
         <v>1030.html</v>
       </c>
-      <c r="L40" s="21" t="s">
+      <c r="N40" s="21" t="s">
         <v>625</v>
       </c>
-      <c r="M40" s="35" t="s">
+      <c r="O40" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="N40" s="20" t="s">
+      <c r="P40" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="O40" s="20" t="s">
+      <c r="Q40" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="36" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D40:D92 &amp;".jpg"</f>
+      <c r="R40" s="20"/>
+      <c r="S40" s="36" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E40:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1030.jpg</v>
       </c>
-      <c r="R40" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D40:D92 &amp;"a" &amp;".jpg"</f>
+      <c r="T40" s="20" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E40:E92 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1030a.jpg</v>
       </c>
-      <c r="S40" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D40:D133 &amp;"b" &amp;".jpg"</f>
+      <c r="U40" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1030b.jpg</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D41" s="2">
+      <c r="E41" s="2">
         <v>1031</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>233</v>
       </c>
-      <c r="F41" s="40" t="s">
+      <c r="G41" s="40" t="s">
         <v>674</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="H41" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="H41" s="5">
+      <c r="I41" s="5">
         <v>36.61</v>
       </c>
-      <c r="I41" s="6">
+      <c r="J41" s="6">
         <f t="shared" si="1"/>
         <v>34.779499999999999</v>
       </c>
-      <c r="J41" s="6">
+      <c r="K41" s="6">
         <f t="shared" si="2"/>
+        <v>31.118499999999997</v>
+      </c>
+      <c r="L41" s="6">
+        <f t="shared" si="3"/>
         <v>25.626999999999999</v>
       </c>
-      <c r="K41" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M41" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1031.html</v>
       </c>
-      <c r="L41" s="5" t="s">
+      <c r="N41" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="O41" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="P41" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="Q41" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D41:D92 &amp;".jpg"</f>
+      <c r="R41" s="1"/>
+      <c r="S41" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E41:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1031.jpg</v>
       </c>
-      <c r="R41" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D41:D92 &amp;"a" &amp;".jpg"</f>
+      <c r="T41" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E41:E92 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1031a.jpg</v>
       </c>
-      <c r="S41" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D41:D134 &amp;"b" &amp;".jpg"</f>
+      <c r="U41" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1031b.jpg</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D42" s="2">
+      <c r="E42" s="2">
         <v>1032</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>239</v>
       </c>
-      <c r="F42" s="40" t="s">
+      <c r="G42" s="40" t="s">
         <v>675</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="H42" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="H42" s="5">
+      <c r="I42" s="5">
         <v>41.79</v>
       </c>
-      <c r="I42" s="6">
+      <c r="J42" s="6">
         <f t="shared" si="1"/>
         <v>39.700499999999998</v>
       </c>
-      <c r="J42" s="6">
+      <c r="K42" s="6">
         <f t="shared" si="2"/>
+        <v>35.521499999999996</v>
+      </c>
+      <c r="L42" s="6">
+        <f t="shared" si="3"/>
         <v>29.252999999999997</v>
       </c>
-      <c r="K42" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M42" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1032.html</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="N42" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="O42" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="P42" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="Q42" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D42:D92 &amp;".jpg"</f>
+      <c r="R42" s="1"/>
+      <c r="S42" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E42:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1032.jpg</v>
       </c>
-      <c r="R42" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D42:D92 &amp;"a" &amp;".jpg"</f>
+      <c r="T42" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E42:E92 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1032a.jpg</v>
       </c>
-      <c r="S42" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D42:D135 &amp;"b" &amp;".jpg"</f>
+      <c r="U42" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1032b.jpg</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D43" s="2">
+      <c r="E43" s="2">
         <v>1033</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>245</v>
       </c>
-      <c r="F43" s="40" t="s">
+      <c r="G43" s="40" t="s">
         <v>676</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="H43" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="H43" s="5">
+      <c r="I43" s="5">
         <v>49.78</v>
       </c>
-      <c r="I43" s="6">
+      <c r="J43" s="6">
         <f t="shared" si="1"/>
         <v>47.290999999999997</v>
       </c>
-      <c r="J43" s="6">
+      <c r="K43" s="6">
         <f t="shared" si="2"/>
+        <v>42.313000000000002</v>
+      </c>
+      <c r="L43" s="6">
+        <f t="shared" si="3"/>
         <v>34.845999999999997</v>
       </c>
-      <c r="K43" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M43" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1033.html</v>
       </c>
-      <c r="L43" s="5" t="s">
+      <c r="N43" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="O43" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="Q43" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D43:D92 &amp;".jpg"</f>
+      <c r="R43" s="1"/>
+      <c r="S43" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E43:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1033.jpg</v>
       </c>
-      <c r="R43" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D43:D92 &amp;"a" &amp;".jpg"</f>
+      <c r="T43" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E43:E92 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1033a.jpg</v>
       </c>
-      <c r="S43" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D43:D136 &amp;"b" &amp;".jpg"</f>
+      <c r="U43" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1033b.jpg</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="D44" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="D44" s="9">
+      <c r="E44" s="9">
         <v>1077</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="F44" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F44" s="40" t="s">
+      <c r="G44" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="H44" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="H44" s="12">
+      <c r="I44" s="12">
         <v>72.680000000000007</v>
       </c>
-      <c r="I44" s="6">
+      <c r="J44" s="6">
         <f t="shared" si="1"/>
         <v>69.046000000000006</v>
       </c>
-      <c r="J44" s="6">
+      <c r="K44" s="6">
         <f t="shared" si="2"/>
+        <v>61.778000000000006</v>
+      </c>
+      <c r="L44" s="6">
+        <f t="shared" si="3"/>
         <v>50.876000000000005</v>
       </c>
-      <c r="K44" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M44" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1077.html</v>
       </c>
-      <c r="L44" s="12" t="s">
+      <c r="N44" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="M44" s="11" t="s">
+      <c r="O44" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="N44" s="8" t="s">
+      <c r="P44" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="O44" s="11" t="s">
+      <c r="Q44" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D44:D92 &amp;".jpg"</f>
+      <c r="R44" s="8"/>
+      <c r="S44" s="10" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E44:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1077.jpg</v>
       </c>
-      <c r="R44" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D44:D92 &amp;"a" &amp;".jpg"</f>
+      <c r="T44" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E44:E92 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1077a.jpg</v>
       </c>
-      <c r="S44" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D44:D137 &amp;"b" &amp;".jpg"</f>
+      <c r="U44" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1077b.jpg</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D45" s="2">
+      <c r="E45" s="2">
         <v>1034</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>257</v>
       </c>
-      <c r="F45" s="40" t="s">
+      <c r="G45" s="40" t="s">
         <v>678</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="H45" s="5">
+      <c r="I45" s="5">
         <v>8</v>
       </c>
-      <c r="I45" s="6">
+      <c r="J45" s="6">
         <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
-      <c r="J45" s="6">
+      <c r="K45" s="6">
         <f t="shared" si="2"/>
+        <v>6.8</v>
+      </c>
+      <c r="L45" s="6">
+        <f t="shared" si="3"/>
         <v>5.6</v>
       </c>
-      <c r="K45" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M45" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1034.html</v>
       </c>
-      <c r="L45" s="5" t="s">
+      <c r="N45" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="O45" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="Q45" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D45:D92 &amp;".jpg"</f>
+      <c r="R45" s="1"/>
+      <c r="S45" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E45:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1034.jpg</v>
       </c>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D45:D138 &amp;"b" &amp;".jpg"</f>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1034b.jpg</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D46" s="2">
+      <c r="E46" s="2">
         <v>1035</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>263</v>
       </c>
-      <c r="F46" s="40" t="s">
+      <c r="G46" s="40" t="s">
         <v>679</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="H46" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="H46" s="5">
+      <c r="I46" s="5">
         <v>36.08</v>
       </c>
-      <c r="I46" s="6">
+      <c r="J46" s="6">
         <f t="shared" si="1"/>
         <v>34.275999999999996</v>
       </c>
-      <c r="J46" s="6">
+      <c r="K46" s="6">
         <f t="shared" si="2"/>
+        <v>30.667999999999999</v>
+      </c>
+      <c r="L46" s="6">
+        <f t="shared" si="3"/>
         <v>25.255999999999997</v>
       </c>
-      <c r="K46" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M46" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1035.html</v>
       </c>
-      <c r="L46" s="5" t="s">
+      <c r="N46" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M46" s="4" t="s">
+      <c r="O46" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="P46" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="Q46" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D46:D92 &amp;".jpg"</f>
+      <c r="R46" s="1"/>
+      <c r="S46" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E46:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1035.jpg</v>
       </c>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D46:D139 &amp;"b" &amp;".jpg"</f>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1035b.jpg</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D47" s="2">
+      <c r="E47" s="2">
         <v>1036</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>267</v>
       </c>
-      <c r="F47" s="40" t="s">
+      <c r="G47" s="40" t="s">
         <v>680</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="H47" s="5">
+      <c r="I47" s="5">
         <v>400.64</v>
       </c>
-      <c r="I47" s="6">
+      <c r="J47" s="6">
         <f t="shared" si="1"/>
         <v>380.60799999999995</v>
       </c>
-      <c r="J47" s="6">
+      <c r="K47" s="6">
         <f t="shared" si="2"/>
+        <v>340.54399999999998</v>
+      </c>
+      <c r="L47" s="6">
+        <f t="shared" si="3"/>
         <v>280.44799999999998</v>
       </c>
-      <c r="K47" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M47" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1036.html</v>
       </c>
-      <c r="L47" s="5" t="s">
+      <c r="N47" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M47" s="4" t="s">
+      <c r="O47" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-      <c r="Q47" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D47:D92 &amp;".jpg"</f>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E47:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1036.jpg</v>
       </c>
-      <c r="R47" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D47:D92 &amp;"a" &amp;".jpg"</f>
+      <c r="T47" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E47:E92 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1036a.jpg</v>
       </c>
-      <c r="S47" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D47:D140 &amp;"b" &amp;".jpg"</f>
+      <c r="U47" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1036b.jpg</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D48" s="2">
+      <c r="E48" s="2">
         <v>1037</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>273</v>
       </c>
-      <c r="F48" s="40" t="s">
+      <c r="G48" s="40" t="s">
         <v>681</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="H48" s="5">
+      <c r="I48" s="5">
         <v>80.12</v>
       </c>
-      <c r="I48" s="6">
+      <c r="J48" s="6">
         <f t="shared" si="1"/>
         <v>76.114000000000004</v>
       </c>
-      <c r="J48" s="6">
+      <c r="K48" s="6">
         <f t="shared" si="2"/>
+        <v>68.102000000000004</v>
+      </c>
+      <c r="L48" s="6">
+        <f t="shared" si="3"/>
         <v>56.083999999999996</v>
       </c>
-      <c r="K48" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M48" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1037.html</v>
       </c>
-      <c r="L48" s="5" t="s">
+      <c r="N48" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M48" s="4" t="s">
+      <c r="O48" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="P48" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="Q48" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D48:D92 &amp;".jpg"</f>
+      <c r="R48" s="1"/>
+      <c r="S48" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E48:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1037.jpg</v>
       </c>
-      <c r="R48" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D48:D92 &amp;"a" &amp;".jpg"</f>
+      <c r="T48" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E48:E92 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1037a.jpg</v>
       </c>
-      <c r="S48" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D48:D141 &amp;"b" &amp;".jpg"</f>
+      <c r="U48" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1037b.jpg</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D49" s="2">
+      <c r="E49" s="2">
         <v>1038</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>279</v>
       </c>
-      <c r="F49" s="40" t="s">
+      <c r="G49" s="40" t="s">
         <v>682</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="H49" s="5">
+      <c r="I49" s="5">
         <v>119.05</v>
       </c>
-      <c r="I49" s="6">
+      <c r="J49" s="6">
         <f t="shared" si="1"/>
         <v>113.0975</v>
       </c>
-      <c r="J49" s="6">
+      <c r="K49" s="6">
         <f t="shared" si="2"/>
+        <v>101.1925</v>
+      </c>
+      <c r="L49" s="6">
+        <f t="shared" si="3"/>
         <v>83.334999999999994</v>
       </c>
-      <c r="K49" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M49" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1038.html</v>
       </c>
-      <c r="L49" s="5" t="s">
+      <c r="N49" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M49" s="4" t="s">
+      <c r="O49" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="P49" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="Q49" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D49:D92 &amp;".jpg"</f>
+      <c r="R49" s="1"/>
+      <c r="S49" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E49:E92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1038.jpg</v>
       </c>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D49:D142 &amp;"b" &amp;".jpg"</f>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1038b.jpg</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D50" s="2">
+      <c r="E50" s="2">
         <v>1039</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>285</v>
       </c>
-      <c r="F50" s="40" t="s">
+      <c r="G50" s="40" t="s">
         <v>683</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="H50" s="5">
+      <c r="I50" s="5">
         <v>60.11</v>
       </c>
-      <c r="I50" s="6">
+      <c r="J50" s="6">
         <f t="shared" si="1"/>
         <v>57.104499999999994</v>
       </c>
-      <c r="J50" s="6">
+      <c r="K50" s="6">
         <f t="shared" si="2"/>
+        <v>51.093499999999999</v>
+      </c>
+      <c r="L50" s="6">
+        <f t="shared" si="3"/>
         <v>42.076999999999998</v>
       </c>
-      <c r="K50" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M50" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1039.html</v>
       </c>
-      <c r="L50" s="5" t="s">
+      <c r="N50" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M50" s="4" t="s">
+      <c r="O50" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="P50" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="Q50" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D50:D99 &amp;".jpg"</f>
+      <c r="R50" s="1"/>
+      <c r="S50" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E50:E99 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1039.jpg</v>
       </c>
-      <c r="R50" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D50:D99 &amp;"a" &amp;".jpg"</f>
+      <c r="T50" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E50:E99 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1039a.jpg</v>
       </c>
-      <c r="S50" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D50:D143 &amp;"b" &amp;".jpg"</f>
+      <c r="U50" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1039b.jpg</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D51" s="2">
+      <c r="E51" s="2">
         <v>1040</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>291</v>
       </c>
-      <c r="F51" s="40" t="s">
+      <c r="G51" s="40" t="s">
         <v>684</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="H51" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="H51" s="5">
+      <c r="I51" s="5">
         <v>132.77000000000001</v>
       </c>
-      <c r="I51" s="6">
+      <c r="J51" s="6">
         <f t="shared" si="1"/>
         <v>126.1315</v>
       </c>
-      <c r="J51" s="6">
+      <c r="K51" s="6">
         <f t="shared" si="2"/>
+        <v>112.8545</v>
+      </c>
+      <c r="L51" s="6">
+        <f t="shared" si="3"/>
         <v>92.939000000000007</v>
       </c>
-      <c r="K51" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M51" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1040.html</v>
       </c>
-      <c r="L51" s="5" t="s">
+      <c r="N51" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M51" s="4" t="s">
+      <c r="O51" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="P51" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="Q51" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="3" t="str">
-        <f t="shared" ref="Q51" si="4" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D51:D99 &amp;".jpg"</f>
+      <c r="R51" s="1"/>
+      <c r="S51" s="3" t="str">
+        <f t="shared" ref="S51" si="8" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E51:E99 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1040.jpg</v>
       </c>
-      <c r="R51" s="1" t="str">
-        <f t="shared" ref="R51" si="5" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D51:D99 &amp;"a" &amp;".jpg"</f>
+      <c r="T51" s="1" t="str">
+        <f t="shared" ref="T51" si="9" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E51:E99 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1040a.jpg</v>
       </c>
-      <c r="S51" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D51:D144 &amp;"b" &amp;".jpg"</f>
+      <c r="U51" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1040b.jpg</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D52" s="2">
+      <c r="E52" s="2">
         <v>1041</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>297</v>
       </c>
-      <c r="F52" s="40" t="s">
+      <c r="G52" s="40" t="s">
         <v>685</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="H52" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="H52" s="5">
+      <c r="I52" s="5">
         <v>83.57</v>
       </c>
-      <c r="I52" s="6">
+      <c r="J52" s="6">
         <f t="shared" si="1"/>
         <v>79.391499999999994</v>
       </c>
-      <c r="J52" s="6">
+      <c r="K52" s="6">
         <f t="shared" si="2"/>
+        <v>71.034499999999994</v>
+      </c>
+      <c r="L52" s="6">
+        <f t="shared" si="3"/>
         <v>58.498999999999988</v>
       </c>
-      <c r="K52" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M52" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1041.html</v>
       </c>
-      <c r="L52" s="5" t="s">
+      <c r="N52" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M52" s="4" t="s">
+      <c r="O52" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="P52" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="Q52" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D52:D99 &amp;".jpg"</f>
+      <c r="R52" s="1"/>
+      <c r="S52" s="3" t="str">
+        <f t="shared" ref="S52:S69" si="10" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E52:E99 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1041.jpg</v>
       </c>
-      <c r="R52" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D52:D99 &amp;"a" &amp;".jpg"</f>
+      <c r="T52" s="1" t="str">
+        <f t="shared" ref="T52:T65" si="11" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E52:E99 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1041a.jpg</v>
       </c>
-      <c r="S52" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D52:D145 &amp;"b" &amp;".jpg"</f>
+      <c r="U52" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1041b.jpg</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D53" s="2">
+      <c r="E53" s="2">
         <v>1042</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>303</v>
       </c>
-      <c r="F53" s="40" t="s">
+      <c r="G53" s="40" t="s">
         <v>686</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="H53" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="H53" s="5">
+      <c r="I53" s="5">
         <v>41.79</v>
       </c>
-      <c r="I53" s="6">
+      <c r="J53" s="6">
         <f t="shared" si="1"/>
         <v>39.700499999999998</v>
       </c>
-      <c r="J53" s="6">
+      <c r="K53" s="6">
         <f t="shared" si="2"/>
+        <v>35.521499999999996</v>
+      </c>
+      <c r="L53" s="6">
+        <f t="shared" si="3"/>
         <v>29.252999999999997</v>
       </c>
-      <c r="K53" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M53" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1042.html</v>
       </c>
-      <c r="L53" s="5" t="s">
+      <c r="N53" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M53" s="4" t="s">
+      <c r="O53" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="P53" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="O53" s="1" t="s">
+      <c r="Q53" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D53:D100 &amp;".jpg"</f>
+      <c r="R53" s="1"/>
+      <c r="S53" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1042.jpg</v>
       </c>
-      <c r="R53" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D53:D100 &amp;"a" &amp;".jpg"</f>
+      <c r="T53" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1042a.jpg</v>
       </c>
-      <c r="S53" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D53:D146 &amp;"b" &amp;".jpg"</f>
+      <c r="U53" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1042b.jpg</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D54" s="2">
+      <c r="E54" s="2">
         <v>1043</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>307</v>
       </c>
-      <c r="F54" s="40" t="s">
+      <c r="G54" s="40" t="s">
         <v>687</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="H54" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="H54" s="5">
+      <c r="I54" s="5">
         <v>195.18</v>
       </c>
-      <c r="I54" s="6">
+      <c r="J54" s="6">
         <f t="shared" si="1"/>
         <v>185.42099999999999</v>
       </c>
-      <c r="J54" s="6">
+      <c r="K54" s="6">
         <f t="shared" si="2"/>
+        <v>165.90299999999999</v>
+      </c>
+      <c r="L54" s="6">
+        <f t="shared" si="3"/>
         <v>136.626</v>
       </c>
-      <c r="K54" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M54" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1043.html</v>
       </c>
-      <c r="L54" s="5" t="s">
+      <c r="N54" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M54" s="4" t="s">
+      <c r="O54" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
       <c r="P54" s="1"/>
-      <c r="Q54" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D54:D101 &amp;".jpg"</f>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1043.jpg</v>
       </c>
-      <c r="R54" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D54:D101 &amp;"a" &amp;".jpg"</f>
+      <c r="T54" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1043a.jpg</v>
       </c>
-      <c r="S54" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D54:D147 &amp;"b" &amp;".jpg"</f>
+      <c r="U54" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1043b.jpg</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D55" s="2">
+      <c r="E55" s="2">
         <v>1044</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>313</v>
       </c>
-      <c r="F55" s="40" t="s">
+      <c r="G55" s="40" t="s">
         <v>688</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="H55" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="H55" s="5">
+      <c r="I55" s="5">
         <v>50.92</v>
       </c>
-      <c r="I55" s="6">
+      <c r="J55" s="6">
         <f t="shared" si="1"/>
         <v>48.374000000000002</v>
       </c>
-      <c r="J55" s="6">
+      <c r="K55" s="6">
         <f t="shared" si="2"/>
+        <v>43.282000000000004</v>
+      </c>
+      <c r="L55" s="6">
+        <f t="shared" si="3"/>
         <v>35.643999999999998</v>
       </c>
-      <c r="K55" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M55" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1044.html</v>
       </c>
-      <c r="L55" s="5" t="s">
+      <c r="N55" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M55" s="4" t="s">
+      <c r="O55" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="P55" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="Q55" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D55:D102 &amp;".jpg"</f>
+      <c r="R55" s="1"/>
+      <c r="S55" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1044.jpg</v>
       </c>
-      <c r="R55" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D55:D102 &amp;"a" &amp;".jpg"</f>
+      <c r="T55" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1044a.jpg</v>
       </c>
-      <c r="S55" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D55:D148 &amp;"b" &amp;".jpg"</f>
+      <c r="U55" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1044b.jpg</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D56" s="2">
+      <c r="E56" s="2">
         <v>1045</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>319</v>
       </c>
-      <c r="F56" s="40" t="s">
+      <c r="G56" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="H56" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="H56" s="5">
+      <c r="I56" s="5">
         <v>53.82</v>
       </c>
-      <c r="I56" s="6">
+      <c r="J56" s="6">
         <f t="shared" si="1"/>
         <v>51.128999999999998</v>
       </c>
-      <c r="J56" s="6">
+      <c r="K56" s="6">
         <f t="shared" si="2"/>
+        <v>45.747</v>
+      </c>
+      <c r="L56" s="6">
+        <f t="shared" si="3"/>
         <v>37.673999999999999</v>
       </c>
-      <c r="K56" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M56" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1045.html</v>
       </c>
-      <c r="L56" s="5" t="s">
+      <c r="N56" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M56" s="4" t="s">
+      <c r="O56" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="P56" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="O56" s="1" t="s">
+      <c r="Q56" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D56:D103 &amp;".jpg"</f>
+      <c r="R56" s="1"/>
+      <c r="S56" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1045.jpg</v>
       </c>
-      <c r="R56" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D56:D103 &amp;"a" &amp;".jpg"</f>
+      <c r="T56" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1045a.jpg</v>
       </c>
-      <c r="S56" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D56:D149 &amp;"b" &amp;".jpg"</f>
+      <c r="U56" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1045b.jpg</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D57" s="2">
+      <c r="E57" s="2">
         <v>1046</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>325</v>
       </c>
-      <c r="F57" s="40" t="s">
+      <c r="G57" s="40" t="s">
         <v>690</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="H57" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="H57" s="5">
+      <c r="I57" s="5">
         <v>53.82</v>
       </c>
-      <c r="I57" s="6">
+      <c r="J57" s="6">
         <f t="shared" si="1"/>
         <v>51.128999999999998</v>
       </c>
-      <c r="J57" s="6">
+      <c r="K57" s="6">
         <f t="shared" si="2"/>
+        <v>45.747</v>
+      </c>
+      <c r="L57" s="6">
+        <f t="shared" si="3"/>
         <v>37.673999999999999</v>
       </c>
-      <c r="K57" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M57" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1046.html</v>
       </c>
-      <c r="L57" s="5" t="s">
+      <c r="N57" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M57" s="4" t="s">
+      <c r="O57" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="N57" s="1" t="s">
+      <c r="P57" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="O57" s="1" t="s">
+      <c r="Q57" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D57:D104 &amp;".jpg"</f>
+      <c r="R57" s="1"/>
+      <c r="S57" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1046.jpg</v>
       </c>
-      <c r="R57" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D57:D104 &amp;"a" &amp;".jpg"</f>
+      <c r="T57" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1046a.jpg</v>
       </c>
-      <c r="S57" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D57:D150 &amp;"b" &amp;".jpg"</f>
+      <c r="U57" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1046b.jpg</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="C58" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="D58" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="D58" s="34">
+      <c r="E58" s="34">
         <v>1047</v>
       </c>
-      <c r="E58" s="22" t="s">
+      <c r="F58" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="F58" s="40" t="s">
+      <c r="G58" s="40" t="s">
         <v>691</v>
       </c>
-      <c r="G58" s="21" t="s">
+      <c r="H58" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="H58" s="21">
+      <c r="I58" s="21">
         <v>58.96</v>
       </c>
-      <c r="I58" s="37">
+      <c r="J58" s="37">
         <f t="shared" si="1"/>
         <v>56.012</v>
       </c>
-      <c r="J58" s="37">
+      <c r="K58" s="6">
         <f t="shared" si="2"/>
+        <v>50.116</v>
+      </c>
+      <c r="L58" s="37">
+        <f t="shared" si="3"/>
         <v>41.271999999999998</v>
       </c>
-      <c r="K58" s="21" t="str">
-        <f t="shared" si="3"/>
+      <c r="M58" s="21" t="str">
+        <f t="shared" si="7"/>
         <v>1047.html</v>
       </c>
-      <c r="L58" s="21" t="s">
+      <c r="N58" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="M58" s="35" t="s">
+      <c r="O58" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="N58" s="20" t="s">
+      <c r="P58" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="O58" s="20" t="s">
+      <c r="Q58" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="36" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D58:D105 &amp;".jpg"</f>
+      <c r="R58" s="20"/>
+      <c r="S58" s="36" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1047.jpg</v>
       </c>
-      <c r="R58" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D58:D105 &amp;"a" &amp;".jpg"</f>
+      <c r="T58" s="20" t="str">
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1047a.jpg</v>
       </c>
-      <c r="S58" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D58:D151 &amp;"b" &amp;".jpg"</f>
+      <c r="U58" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1047b.jpg</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D59" s="2">
+      <c r="E59" s="2">
         <v>1048</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>337</v>
       </c>
-      <c r="F59" s="40" t="s">
+      <c r="G59" s="40" t="s">
         <v>692</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="H59" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="H59" s="5">
+      <c r="I59" s="5">
         <v>34.340000000000003</v>
       </c>
-      <c r="I59" s="6">
+      <c r="J59" s="6">
         <f t="shared" si="1"/>
         <v>32.623000000000005</v>
       </c>
-      <c r="J59" s="6">
+      <c r="K59" s="6">
         <f t="shared" si="2"/>
+        <v>29.189000000000004</v>
+      </c>
+      <c r="L59" s="6">
+        <f t="shared" si="3"/>
         <v>24.038</v>
       </c>
-      <c r="K59" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M59" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1048.html</v>
       </c>
-      <c r="L59" s="5" t="s">
+      <c r="N59" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="M59" s="4" t="s">
+      <c r="O59" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="P59" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="O59" s="1" t="s">
+      <c r="Q59" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D59:D106 &amp;".jpg"</f>
+      <c r="R59" s="1"/>
+      <c r="S59" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1048.jpg</v>
       </c>
-      <c r="R59" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D59:D106 &amp;"a" &amp;".jpg"</f>
+      <c r="T59" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1048a.jpg</v>
       </c>
-      <c r="S59" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D59:D152 &amp;"b" &amp;".jpg"</f>
+      <c r="U59" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1048b.jpg</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D60" s="2">
+      <c r="E60" s="2">
         <v>1049</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>343</v>
       </c>
-      <c r="F60" s="40" t="s">
+      <c r="G60" s="40" t="s">
         <v>693</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="H60" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="H60" s="5">
+      <c r="I60" s="5">
         <v>34.340000000000003</v>
       </c>
-      <c r="I60" s="6">
+      <c r="J60" s="6">
         <f t="shared" si="1"/>
         <v>32.623000000000005</v>
       </c>
-      <c r="J60" s="6">
+      <c r="K60" s="6">
         <f t="shared" si="2"/>
+        <v>29.189000000000004</v>
+      </c>
+      <c r="L60" s="6">
+        <f t="shared" si="3"/>
         <v>24.038</v>
       </c>
-      <c r="K60" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M60" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1049.html</v>
       </c>
-      <c r="L60" s="5" t="s">
+      <c r="N60" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="M60" s="4" t="s">
+      <c r="O60" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="P60" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="Q60" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D60:D107 &amp;".jpg"</f>
+      <c r="R60" s="1"/>
+      <c r="S60" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1049.jpg</v>
       </c>
-      <c r="R60" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D60:D107 &amp;"a" &amp;".jpg"</f>
+      <c r="T60" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1049a.jpg</v>
       </c>
-      <c r="S60" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D60:D153 &amp;"b" &amp;".jpg"</f>
+      <c r="U60" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1049b.jpg</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D61" s="2">
+      <c r="E61" s="2">
         <v>1050</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="F61" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="F61" s="40" t="s">
+      <c r="G61" s="40" t="s">
         <v>694</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="H61" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="H61" s="5">
+      <c r="I61" s="5">
         <v>45.24</v>
       </c>
-      <c r="I61" s="6">
+      <c r="J61" s="6">
         <f t="shared" si="1"/>
         <v>42.978000000000002</v>
       </c>
-      <c r="J61" s="6">
+      <c r="K61" s="6">
         <f t="shared" si="2"/>
+        <v>38.454000000000001</v>
+      </c>
+      <c r="L61" s="6">
+        <f t="shared" si="3"/>
         <v>31.667999999999999</v>
       </c>
-      <c r="K61" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M61" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1050.html</v>
       </c>
-      <c r="L61" s="5" t="s">
+      <c r="N61" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="M61" s="4" t="s">
+      <c r="O61" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="P61" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="Q61" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D61:D108 &amp;".jpg"</f>
+      <c r="R61" s="1"/>
+      <c r="S61" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1050.jpg</v>
       </c>
-      <c r="R61" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D61:D108 &amp;"a" &amp;".jpg"</f>
+      <c r="T61" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1050a.jpg</v>
       </c>
-      <c r="S61" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D61:D154 &amp;"b" &amp;".jpg"</f>
+      <c r="U61" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1050b.jpg</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D62" s="2">
+      <c r="E62" s="2">
         <v>1051</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>355</v>
       </c>
-      <c r="F62" s="40" t="s">
+      <c r="G62" s="40" t="s">
         <v>695</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="H62" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="H62" s="5">
+      <c r="I62" s="5">
         <v>52.68</v>
       </c>
-      <c r="I62" s="6">
+      <c r="J62" s="6">
         <f t="shared" si="1"/>
         <v>50.045999999999999</v>
       </c>
-      <c r="J62" s="6">
+      <c r="K62" s="6">
         <f t="shared" si="2"/>
+        <v>44.777999999999999</v>
+      </c>
+      <c r="L62" s="6">
+        <f t="shared" si="3"/>
         <v>36.875999999999998</v>
       </c>
-      <c r="K62" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M62" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1051.html</v>
       </c>
-      <c r="L62" s="5" t="s">
+      <c r="N62" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="M62" s="4" t="s">
+      <c r="O62" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="P62" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="Q62" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D62:D109 &amp;".jpg"</f>
+      <c r="R62" s="1"/>
+      <c r="S62" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1051.jpg</v>
       </c>
-      <c r="R62" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D62:D109 &amp;"a" &amp;".jpg"</f>
+      <c r="T62" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1051a.jpg</v>
       </c>
-      <c r="S62" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D62:D155 &amp;"b" &amp;".jpg"</f>
+      <c r="U62" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1051b.jpg</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D63" s="2">
+      <c r="E63" s="2">
         <v>1052</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>361</v>
       </c>
-      <c r="F63" s="40" t="s">
+      <c r="G63" s="40" t="s">
         <v>696</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="H63" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="H63" s="5">
+      <c r="I63" s="5">
         <v>45.24</v>
       </c>
-      <c r="I63" s="6">
+      <c r="J63" s="6">
         <f t="shared" si="1"/>
         <v>42.978000000000002</v>
       </c>
-      <c r="J63" s="6">
+      <c r="K63" s="6">
         <f t="shared" si="2"/>
+        <v>38.454000000000001</v>
+      </c>
+      <c r="L63" s="6">
+        <f t="shared" si="3"/>
         <v>31.667999999999999</v>
       </c>
-      <c r="K63" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M63" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1052.html</v>
       </c>
-      <c r="L63" s="5" t="s">
+      <c r="N63" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="M63" s="4" t="s">
+      <c r="O63" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="N63" s="1" t="s">
+      <c r="P63" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="O63" s="1" t="s">
+      <c r="Q63" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D63:D110 &amp;".jpg"</f>
+      <c r="R63" s="1"/>
+      <c r="S63" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1052.jpg</v>
       </c>
-      <c r="R63" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D63:D110 &amp;"a" &amp;".jpg"</f>
+      <c r="T63" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1052a.jpg</v>
       </c>
-      <c r="S63" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D63:D156 &amp;"b" &amp;".jpg"</f>
+      <c r="U63" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1052b.jpg</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D64" s="2">
+      <c r="E64" s="2">
         <v>1053</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>367</v>
       </c>
-      <c r="F64" s="40" t="s">
+      <c r="G64" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="H64" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="H64" s="5">
+      <c r="I64" s="5">
         <v>47.53</v>
       </c>
-      <c r="I64" s="6">
+      <c r="J64" s="6">
         <f t="shared" si="1"/>
         <v>45.153500000000001</v>
       </c>
-      <c r="J64" s="6">
+      <c r="K64" s="6">
         <f t="shared" si="2"/>
+        <v>40.400500000000001</v>
+      </c>
+      <c r="L64" s="6">
+        <f t="shared" si="3"/>
         <v>33.271000000000001</v>
       </c>
-      <c r="K64" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M64" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1053.html</v>
       </c>
-      <c r="L64" s="5" t="s">
+      <c r="N64" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="M64" s="4" t="s">
+      <c r="O64" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="P64" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="O64" s="1" t="s">
+      <c r="Q64" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D64:D111 &amp;".jpg"</f>
+      <c r="R64" s="1"/>
+      <c r="S64" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1053.jpg</v>
       </c>
-      <c r="R64" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D64:D111 &amp;"a" &amp;".jpg"</f>
+      <c r="T64" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1053a.jpg</v>
       </c>
-      <c r="S64" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D64:D157 &amp;"b" &amp;".jpg"</f>
+      <c r="U64" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1053b.jpg</v>
       </c>
     </row>
-    <row r="65" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="C65" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="D65" s="20" t="s">
         <v>633</v>
       </c>
-      <c r="D65" s="34">
+      <c r="E65" s="34">
         <v>1054</v>
       </c>
-      <c r="E65" s="22" t="s">
+      <c r="F65" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="F65" s="40" t="s">
+      <c r="G65" s="40" t="s">
         <v>698</v>
       </c>
-      <c r="G65" s="21" t="s">
+      <c r="H65" s="21" t="s">
         <v>602</v>
       </c>
-      <c r="H65" s="21">
+      <c r="I65" s="21">
         <v>34.340000000000003</v>
       </c>
-      <c r="I65" s="37">
+      <c r="J65" s="37">
         <f t="shared" si="1"/>
         <v>32.623000000000005</v>
       </c>
-      <c r="J65" s="37">
+      <c r="K65" s="6">
         <f t="shared" si="2"/>
+        <v>29.189000000000004</v>
+      </c>
+      <c r="L65" s="37">
+        <f t="shared" si="3"/>
         <v>24.038</v>
       </c>
-      <c r="K65" s="21" t="str">
-        <f t="shared" si="3"/>
+      <c r="M65" s="21" t="str">
+        <f t="shared" si="7"/>
         <v>1054.html</v>
       </c>
-      <c r="L65" s="21" t="s">
+      <c r="N65" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="M65" s="35" t="s">
+      <c r="O65" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="N65" s="20" t="s">
+      <c r="P65" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="O65" s="20" t="s">
+      <c r="Q65" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="P65" s="20"/>
-      <c r="Q65" s="36" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D65:D112 &amp;".jpg"</f>
+      <c r="R65" s="20"/>
+      <c r="S65" s="36" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1054.jpg</v>
       </c>
-      <c r="R65" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D65:D112 &amp;"a" &amp;".jpg"</f>
+      <c r="T65" s="20" t="str">
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1054a.jpg</v>
       </c>
-      <c r="S65" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D65:D158 &amp;"b" &amp;".jpg"</f>
+      <c r="U65" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1054b.jpg</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D66" s="2">
+      <c r="E66" s="2">
         <v>1055</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>378</v>
       </c>
-      <c r="F66" s="40" t="s">
+      <c r="G66" s="40" t="s">
         <v>699</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="H66" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="H66" s="5">
+      <c r="I66" s="5">
         <v>13.76</v>
       </c>
-      <c r="I66" s="6">
+      <c r="J66" s="6">
         <f t="shared" si="1"/>
         <v>13.071999999999999</v>
       </c>
-      <c r="J66" s="6">
+      <c r="K66" s="6">
         <f t="shared" si="2"/>
+        <v>11.696</v>
+      </c>
+      <c r="L66" s="6">
+        <f t="shared" si="3"/>
         <v>9.6319999999999997</v>
       </c>
-      <c r="K66" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M66" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>1055.html</v>
       </c>
-      <c r="L66" s="5" t="s">
+      <c r="N66" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="M66" s="4" t="s">
+      <c r="O66" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="N66" s="1" t="s">
+      <c r="P66" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="O66" s="1" t="s">
+      <c r="Q66" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D66:D113 &amp;".jpg"</f>
+      <c r="R66" s="1"/>
+      <c r="S66" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1055.jpg</v>
       </c>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D66:D159 &amp;"b" &amp;".jpg"</f>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1055b.jpg</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="D67" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="D67" s="9">
+      <c r="E67" s="9">
         <v>1079</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="F67" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F67" s="40" t="s">
+      <c r="G67" s="40" t="s">
         <v>700</v>
       </c>
-      <c r="G67" s="12" t="s">
+      <c r="H67" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="H67" s="12">
+      <c r="I67" s="12">
         <v>76.69</v>
       </c>
-      <c r="I67" s="6">
+      <c r="J67" s="6">
         <f t="shared" si="1"/>
         <v>72.855499999999992</v>
       </c>
-      <c r="J67" s="6">
-        <f t="shared" si="2"/>
+      <c r="K67" s="6">
+        <f t="shared" ref="K67:K99" si="12">I67 * 0.85</f>
+        <v>65.186499999999995</v>
+      </c>
+      <c r="L67" s="6">
+        <f t="shared" si="3"/>
         <v>53.682999999999993</v>
       </c>
-      <c r="K67" s="5" t="str">
-        <f t="shared" ref="K67:K99" si="6">D67 &amp; ".html"</f>
+      <c r="M67" s="5" t="str">
+        <f t="shared" ref="M67:M99" si="13">E67 &amp; ".html"</f>
         <v>1079.html</v>
       </c>
-      <c r="L67" s="12" t="s">
+      <c r="N67" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="M67" s="11" t="s">
+      <c r="O67" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="N67" s="8" t="s">
+      <c r="P67" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="O67" s="8" t="s">
+      <c r="Q67" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D67:D114 &amp;".jpg"</f>
+      <c r="R67" s="8"/>
+      <c r="S67" s="10" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1079.jpg</v>
       </c>
-      <c r="R67" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D67:D114 &amp;"a" &amp;".jpg"</f>
+      <c r="T67" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E67:E114 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1079a.jpg</v>
       </c>
-      <c r="S67" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D67:D160 &amp;"b" &amp;".jpg"</f>
+      <c r="U67" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1079b.jpg</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="D68" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="D68" s="9">
+      <c r="E68" s="9">
         <v>1080</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="F68" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F68" s="40" t="s">
+      <c r="G68" s="40" t="s">
         <v>701</v>
       </c>
-      <c r="G68" s="12" t="s">
+      <c r="H68" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="H68" s="12">
+      <c r="I68" s="12">
         <v>76.69</v>
       </c>
-      <c r="I68" s="6">
+      <c r="J68" s="6">
         <f t="shared" si="1"/>
         <v>72.855499999999992</v>
       </c>
-      <c r="J68" s="6">
-        <f t="shared" si="2"/>
+      <c r="K68" s="6">
+        <f t="shared" si="12"/>
+        <v>65.186499999999995</v>
+      </c>
+      <c r="L68" s="6">
+        <f t="shared" si="3"/>
         <v>53.682999999999993</v>
       </c>
-      <c r="K68" s="5" t="str">
+      <c r="M68" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>1080.html</v>
+      </c>
+      <c r="N68" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="O68" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="P68" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q68" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="R68" s="8"/>
+      <c r="S68" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1080.jpg</v>
+      </c>
+      <c r="T68" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E68:E115 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1080a.jpg</v>
+      </c>
+      <c r="U68" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1080.html</v>
-      </c>
-      <c r="L68" s="12" t="s">
-        <v>628</v>
-      </c>
-      <c r="M68" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="N68" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="O68" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D68:D115 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1080.jpg</v>
-      </c>
-      <c r="R68" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D68:D115 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1080a.jpg</v>
-      </c>
-      <c r="S68" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D68:D161 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1080b.jpg</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="D69" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="D69" s="9">
+      <c r="E69" s="9">
         <v>1081</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="F69" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="F69" s="40" t="s">
+      <c r="G69" s="40" t="s">
         <v>702</v>
       </c>
-      <c r="G69" s="12" t="s">
+      <c r="H69" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="H69" s="12">
+      <c r="I69" s="12">
         <v>63.52</v>
       </c>
-      <c r="I69" s="6">
-        <f t="shared" ref="I69:I99" si="7">H69 * 0.95</f>
+      <c r="J69" s="6">
+        <f t="shared" ref="J69:J99" si="14">I69 * 0.95</f>
         <v>60.344000000000001</v>
       </c>
-      <c r="J69" s="6">
-        <f t="shared" ref="J69:J99" si="8">H69 * 0.7</f>
+      <c r="K69" s="6">
+        <f t="shared" si="12"/>
+        <v>53.992000000000004</v>
+      </c>
+      <c r="L69" s="6">
+        <f t="shared" ref="K69:L99" si="15">I69 * 0.7</f>
         <v>44.463999999999999</v>
       </c>
-      <c r="K69" s="5" t="str">
+      <c r="M69" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>1081.html</v>
+      </c>
+      <c r="N69" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="O69" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="P69" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q69" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="R69" s="8"/>
+      <c r="S69" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1081.jpg</v>
+      </c>
+      <c r="T69" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E69:E116 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1081a.jpg</v>
+      </c>
+      <c r="U69" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1081.html</v>
-      </c>
-      <c r="L69" s="12" t="s">
-        <v>628</v>
-      </c>
-      <c r="M69" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="N69" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="O69" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D69:D116 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1081.jpg</v>
-      </c>
-      <c r="R69" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D69:D116 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1081a.jpg</v>
-      </c>
-      <c r="S69" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D69:D162 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1081b.jpg</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D70" s="2">
+      <c r="E70" s="2">
         <v>1056</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>401</v>
       </c>
-      <c r="F70" s="40" t="s">
+      <c r="G70" s="40" t="s">
         <v>703</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="H70" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="H70" s="5">
+      <c r="I70" s="5">
         <v>51.49</v>
       </c>
-      <c r="I70" s="6">
-        <f t="shared" si="7"/>
+      <c r="J70" s="6">
+        <f t="shared" si="14"/>
         <v>48.915500000000002</v>
       </c>
-      <c r="J70" s="6">
-        <f t="shared" si="8"/>
+      <c r="K70" s="6">
+        <f t="shared" si="12"/>
+        <v>43.766500000000001</v>
+      </c>
+      <c r="L70" s="6">
+        <f t="shared" si="15"/>
         <v>36.042999999999999</v>
       </c>
-      <c r="K70" s="5" t="str">
+      <c r="M70" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>1056.html</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="R70" s="1"/>
+      <c r="S70" s="3" t="str">
+        <f t="shared" ref="S70:S76" si="16" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E70:E114 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1056.jpg</v>
+      </c>
+      <c r="T70" s="1" t="str">
+        <f t="shared" ref="T70:T75" si="17" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E70:E114 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1056a.jpg</v>
+      </c>
+      <c r="U70" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1056.html</v>
-      </c>
-      <c r="L70" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D70:D114 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1056.jpg</v>
-      </c>
-      <c r="R70" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D70:D114 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1056a.jpg</v>
-      </c>
-      <c r="S70" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D70:D163 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1056b.jpg</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D71" s="2">
+      <c r="E71" s="2">
         <v>1057</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>407</v>
       </c>
-      <c r="F71" s="40" t="s">
+      <c r="G71" s="40" t="s">
         <v>704</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="H71" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="H71" s="5">
+      <c r="I71" s="5">
         <v>42.92</v>
       </c>
-      <c r="I71" s="6">
-        <f t="shared" si="7"/>
+      <c r="J71" s="6">
+        <f t="shared" si="14"/>
         <v>40.774000000000001</v>
       </c>
-      <c r="J71" s="6">
-        <f t="shared" si="8"/>
+      <c r="K71" s="6">
+        <f t="shared" si="12"/>
+        <v>36.481999999999999</v>
+      </c>
+      <c r="L71" s="6">
+        <f t="shared" si="15"/>
         <v>30.044</v>
       </c>
-      <c r="K71" s="5" t="str">
+      <c r="M71" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>1057.html</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="R71" s="1"/>
+      <c r="S71" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1057.jpg</v>
+      </c>
+      <c r="T71" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1057a.jpg</v>
+      </c>
+      <c r="U71" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1057.html</v>
-      </c>
-      <c r="L71" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="M71" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D71:D115 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1057.jpg</v>
-      </c>
-      <c r="R71" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D71:D115 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1057a.jpg</v>
-      </c>
-      <c r="S71" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D71:D164 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1057b.jpg</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D72" s="2">
+      <c r="E72" s="2">
         <v>1058</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>413</v>
       </c>
-      <c r="F72" s="40" t="s">
+      <c r="G72" s="40" t="s">
         <v>705</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="H72" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="H72" s="5">
+      <c r="I72" s="5">
         <v>49.78</v>
       </c>
-      <c r="I72" s="6">
-        <f t="shared" si="7"/>
+      <c r="J72" s="6">
+        <f t="shared" si="14"/>
         <v>47.290999999999997</v>
       </c>
-      <c r="J72" s="6">
-        <f t="shared" si="8"/>
+      <c r="K72" s="6">
+        <f t="shared" si="12"/>
+        <v>42.313000000000002</v>
+      </c>
+      <c r="L72" s="6">
+        <f t="shared" si="15"/>
         <v>34.845999999999997</v>
       </c>
-      <c r="K72" s="5" t="str">
+      <c r="M72" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>1058.html</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="O72" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="R72" s="1"/>
+      <c r="S72" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1058.jpg</v>
+      </c>
+      <c r="T72" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1058a.jpg</v>
+      </c>
+      <c r="U72" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1058.html</v>
-      </c>
-      <c r="L72" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="M72" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D72:D116 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1058.jpg</v>
-      </c>
-      <c r="R72" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D72:D116 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1058a.jpg</v>
-      </c>
-      <c r="S72" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D72:D165 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1058b.jpg</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D73" s="2">
+      <c r="E73" s="2">
         <v>1059</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>419</v>
       </c>
-      <c r="F73" s="40" t="s">
+      <c r="G73" s="40" t="s">
         <v>706</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="H73" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="H73" s="5">
+      <c r="I73" s="5">
         <v>53.25</v>
       </c>
-      <c r="I73" s="6">
-        <f t="shared" si="7"/>
+      <c r="J73" s="6">
+        <f t="shared" si="14"/>
         <v>50.587499999999999</v>
       </c>
-      <c r="J73" s="6">
-        <f t="shared" si="8"/>
+      <c r="K73" s="6">
+        <f t="shared" si="12"/>
+        <v>45.262499999999996</v>
+      </c>
+      <c r="L73" s="6">
+        <f t="shared" si="15"/>
         <v>37.274999999999999</v>
       </c>
-      <c r="K73" s="5" t="str">
+      <c r="M73" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>1059.html</v>
+      </c>
+      <c r="N73" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="R73" s="1"/>
+      <c r="S73" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1059.jpg</v>
+      </c>
+      <c r="T73" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1059a.jpg</v>
+      </c>
+      <c r="U73" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1059.html</v>
-      </c>
-      <c r="L73" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="M73" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D73:D117 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1059.jpg</v>
-      </c>
-      <c r="R73" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D73:D117 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1059a.jpg</v>
-      </c>
-      <c r="S73" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D73:D166 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1059b.jpg</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D74" s="2">
+      <c r="E74" s="2">
         <v>1060</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>425</v>
       </c>
-      <c r="F74" s="40" t="s">
+      <c r="G74" s="40" t="s">
         <v>707</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="H74" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="H74" s="5">
+      <c r="I74" s="5">
         <v>17.739999999999998</v>
       </c>
-      <c r="I74" s="6">
-        <f t="shared" si="7"/>
+      <c r="J74" s="6">
+        <f t="shared" si="14"/>
         <v>16.852999999999998</v>
       </c>
-      <c r="J74" s="6">
-        <f t="shared" si="8"/>
+      <c r="K74" s="6">
+        <f t="shared" si="12"/>
+        <v>15.078999999999999</v>
+      </c>
+      <c r="L74" s="6">
+        <f t="shared" si="15"/>
         <v>12.417999999999997</v>
       </c>
-      <c r="K74" s="5" t="str">
+      <c r="M74" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>1060.html</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="R74" s="1"/>
+      <c r="S74" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1060.jpg</v>
+      </c>
+      <c r="T74" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1060a.jpg</v>
+      </c>
+      <c r="U74" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1060.html</v>
-      </c>
-      <c r="L74" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="M74" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D74:D118 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1060.jpg</v>
-      </c>
-      <c r="R74" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D74:D118 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1060a.jpg</v>
-      </c>
-      <c r="S74" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D74:D167 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1060b.jpg</v>
       </c>
     </row>
-    <row r="75" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="C75" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="D75" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="D75" s="34">
+      <c r="E75" s="34">
         <v>1061</v>
       </c>
-      <c r="E75" s="22" t="s">
+      <c r="F75" s="22" t="s">
         <v>431</v>
       </c>
-      <c r="F75" s="40" t="s">
+      <c r="G75" s="40" t="s">
         <v>708</v>
       </c>
-      <c r="G75" s="21" t="s">
+      <c r="H75" s="21" t="s">
         <v>611</v>
       </c>
-      <c r="H75" s="21">
+      <c r="I75" s="21">
         <v>34.340000000000003</v>
       </c>
-      <c r="I75" s="37">
-        <f t="shared" si="7"/>
+      <c r="J75" s="37">
+        <f t="shared" si="14"/>
         <v>32.623000000000005</v>
       </c>
-      <c r="J75" s="37">
-        <f t="shared" si="8"/>
+      <c r="K75" s="6">
+        <f t="shared" si="12"/>
+        <v>29.189000000000004</v>
+      </c>
+      <c r="L75" s="37">
+        <f t="shared" si="15"/>
         <v>24.038</v>
       </c>
-      <c r="K75" s="21" t="str">
+      <c r="M75" s="21" t="str">
+        <f t="shared" si="13"/>
+        <v>1061.html</v>
+      </c>
+      <c r="N75" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="O75" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="P75" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q75" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="R75" s="20"/>
+      <c r="S75" s="36" t="str">
+        <f t="shared" si="16"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1061.jpg</v>
+      </c>
+      <c r="T75" s="20" t="str">
+        <f t="shared" si="17"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1061a.jpg</v>
+      </c>
+      <c r="U75" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1061.html</v>
-      </c>
-      <c r="L75" s="21" t="s">
-        <v>628</v>
-      </c>
-      <c r="M75" s="35" t="s">
-        <v>428</v>
-      </c>
-      <c r="N75" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="O75" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="P75" s="20"/>
-      <c r="Q75" s="36" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D75:D119 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1061.jpg</v>
-      </c>
-      <c r="R75" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D75:D119 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1061a.jpg</v>
-      </c>
-      <c r="S75" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D75:D168 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1061b.jpg</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D76" s="2">
+      <c r="E76" s="2">
         <v>1063</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>435</v>
       </c>
-      <c r="F76" s="40" t="s">
+      <c r="G76" s="40" t="s">
         <v>709</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="H76" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="H76" s="5">
+      <c r="I76" s="5">
         <v>1116.3399999999999</v>
       </c>
-      <c r="I76" s="6">
-        <f t="shared" si="7"/>
+      <c r="J76" s="6">
+        <f t="shared" si="14"/>
         <v>1060.5229999999999</v>
       </c>
-      <c r="J76" s="6">
-        <f t="shared" si="8"/>
+      <c r="K76" s="6">
+        <f t="shared" si="12"/>
+        <v>948.8889999999999</v>
+      </c>
+      <c r="L76" s="6">
+        <f t="shared" si="15"/>
         <v>781.43799999999987</v>
       </c>
-      <c r="K76" s="5" t="str">
+      <c r="M76" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>1063.html</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="O76" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1063.jpg</v>
+      </c>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1063.html</v>
-      </c>
-      <c r="L76" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="M76" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D76:D120 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1063.jpg</v>
-      </c>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D76:D169 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1063b.jpg</v>
       </c>
     </row>
-    <row r="77" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="D77" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="D77" s="9">
+      <c r="E77" s="9">
         <v>1065</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="F77" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F77" s="40" t="s">
+      <c r="G77" s="40" t="s">
         <v>711</v>
       </c>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12">
-        <v>823.36</v>
-      </c>
+      <c r="H77" s="12"/>
       <c r="I77" s="12">
         <v>823.36</v>
       </c>
       <c r="J77" s="12">
         <v>823.36</v>
       </c>
-      <c r="K77" s="12" t="str">
-        <f t="shared" si="6"/>
+      <c r="K77" s="6">
+        <f t="shared" si="12"/>
+        <v>699.85599999999999</v>
+      </c>
+      <c r="L77" s="12">
+        <v>823.36</v>
+      </c>
+      <c r="M77" s="12" t="str">
+        <f t="shared" si="13"/>
         <v>1065.html</v>
       </c>
-      <c r="L77" s="12" t="s">
+      <c r="N77" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="M77" s="11" t="s">
+      <c r="O77" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
       <c r="P77" s="8"/>
-      <c r="Q77" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D77:D122 &amp;".jpg"</f>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="10" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E77:E122 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1065.jpg</v>
       </c>
-      <c r="R77" s="8"/>
-      <c r="S77" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D77:D171 &amp;"b" &amp;".jpg"</f>
+      <c r="T77" s="8"/>
+      <c r="U77" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E77:E171 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1065b.jpg</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D78" s="2">
+      <c r="E78" s="2">
         <v>1064</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>439</v>
       </c>
-      <c r="F78" s="40" t="s">
+      <c r="G78" s="40" t="s">
         <v>710</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="H78" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="H78" s="5">
+      <c r="I78" s="5">
         <v>75.19</v>
       </c>
-      <c r="I78" s="6">
-        <f>H78 * 0.95</f>
+      <c r="J78" s="6">
+        <f>I78 * 0.95</f>
         <v>71.430499999999995</v>
       </c>
-      <c r="J78" s="6">
-        <f>H78 * 0.7</f>
+      <c r="K78" s="6">
+        <f t="shared" si="12"/>
+        <v>63.911499999999997</v>
+      </c>
+      <c r="L78" s="6">
+        <f>I78 * 0.7</f>
         <v>52.632999999999996</v>
       </c>
-      <c r="K78" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="M78" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>1064.html</v>
       </c>
-      <c r="L78" s="5" t="s">
+      <c r="N78" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="M78" s="4" t="s">
+      <c r="O78" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
       <c r="P78" s="1"/>
-      <c r="Q78" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D77:D121 &amp;".jpg"</f>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E77:E121 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1064.jpg</v>
       </c>
-      <c r="R78" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D77:D121 &amp;"a" &amp;".jpg"</f>
+      <c r="T78" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E77:E121 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1064a.jpg</v>
       </c>
-      <c r="S78" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D77:D170 &amp;"b" &amp;".jpg"</f>
+      <c r="U78" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E77:E170 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1064b.jpg</v>
       </c>
     </row>
-    <row r="79" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="C79" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="D79" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="D79" s="9">
+      <c r="E79" s="9">
         <v>1083</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="F79" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="F79" s="47" t="s">
+      <c r="G79" s="47" t="s">
         <v>638</v>
       </c>
-      <c r="G79" s="48" t="s">
+      <c r="H79" s="48" t="s">
         <v>615</v>
       </c>
-      <c r="H79" s="12">
+      <c r="I79" s="12">
         <v>555.54</v>
       </c>
-      <c r="I79" s="49">
-        <f t="shared" si="7"/>
+      <c r="J79" s="49">
+        <f t="shared" si="14"/>
         <v>527.76299999999992</v>
       </c>
-      <c r="J79" s="49">
-        <f t="shared" si="8"/>
+      <c r="K79" s="6">
+        <f t="shared" si="12"/>
+        <v>472.20899999999995</v>
+      </c>
+      <c r="L79" s="49">
+        <f t="shared" si="15"/>
         <v>388.87799999999993</v>
       </c>
-      <c r="K79" s="12" t="str">
-        <f t="shared" si="6"/>
+      <c r="M79" s="12" t="str">
+        <f t="shared" si="13"/>
         <v>1083.html</v>
       </c>
-      <c r="L79" s="48" t="s">
+      <c r="N79" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M79" s="11" t="s">
+      <c r="O79" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="N79" s="11" t="s">
+      <c r="P79" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="O79" s="50" t="s">
+      <c r="Q79" s="50" t="s">
         <v>488</v>
       </c>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="10"/>
       <c r="R79" s="8"/>
-      <c r="S79" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D79:D172 &amp;"b" &amp;".jpg"</f>
+      <c r="S79" s="10"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E79:E172 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1083b.jpg</v>
       </c>
     </row>
-    <row r="80" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="C80" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="D80" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="D80" s="9">
+      <c r="E80" s="9">
         <v>1096</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="F80" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="F80" s="47" t="s">
+      <c r="G80" s="47" t="s">
         <v>639</v>
       </c>
-      <c r="G80" s="48" t="s">
+      <c r="H80" s="48" t="s">
         <v>615</v>
       </c>
-      <c r="H80" s="12">
+      <c r="I80" s="12">
         <v>555.54</v>
       </c>
-      <c r="I80" s="49">
-        <f t="shared" si="7"/>
+      <c r="J80" s="49">
+        <f t="shared" si="14"/>
         <v>527.76299999999992</v>
       </c>
-      <c r="J80" s="49">
-        <f t="shared" si="8"/>
+      <c r="K80" s="6">
+        <f t="shared" si="12"/>
+        <v>472.20899999999995</v>
+      </c>
+      <c r="L80" s="49">
+        <f t="shared" si="15"/>
         <v>388.87799999999993</v>
       </c>
-      <c r="K80" s="12" t="str">
-        <f t="shared" si="6"/>
+      <c r="M80" s="12" t="str">
+        <f t="shared" si="13"/>
         <v>1096.html</v>
       </c>
-      <c r="L80" s="48" t="s">
+      <c r="N80" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M80" s="11" t="s">
+      <c r="O80" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="N80" s="11" t="s">
+      <c r="P80" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="O80" s="50" t="s">
+      <c r="Q80" s="50" t="s">
         <v>488</v>
       </c>
-      <c r="P80" s="8"/>
-      <c r="Q80" s="10"/>
       <c r="R80" s="8"/>
-      <c r="S80" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D80:D173 &amp;"b" &amp;".jpg"</f>
+      <c r="S80" s="10"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E80:E173 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1096b.jpg</v>
       </c>
     </row>
-    <row r="81" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="C81" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="D81" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="D81" s="9">
+      <c r="E81" s="9">
         <v>1074</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="F81" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="F81" s="47" t="s">
+      <c r="G81" s="47" t="s">
         <v>640</v>
       </c>
-      <c r="G81" s="48" t="s">
+      <c r="H81" s="48" t="s">
         <v>615</v>
       </c>
-      <c r="H81" s="12">
+      <c r="I81" s="12">
         <v>337.32</v>
       </c>
-      <c r="I81" s="49">
-        <f t="shared" si="7"/>
+      <c r="J81" s="49">
+        <f t="shared" si="14"/>
         <v>320.45399999999995</v>
       </c>
-      <c r="J81" s="49">
-        <f t="shared" si="8"/>
+      <c r="K81" s="6">
+        <f t="shared" si="12"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="L81" s="49">
+        <f t="shared" si="15"/>
         <v>236.12399999999997</v>
       </c>
-      <c r="K81" s="12" t="str">
-        <f t="shared" si="6"/>
+      <c r="M81" s="12" t="str">
+        <f t="shared" si="13"/>
         <v>1074.html</v>
       </c>
-      <c r="L81" s="48" t="s">
+      <c r="N81" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M81" s="51" t="s">
+      <c r="O81" s="51" t="s">
         <v>496</v>
       </c>
-      <c r="N81" s="11" t="s">
+      <c r="P81" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="O81" s="8" t="s">
+      <c r="Q81" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="10"/>
       <c r="R81" s="8"/>
-      <c r="S81" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D81:D174 &amp;"b" &amp;".jpg"</f>
+      <c r="S81" s="10"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E81:E174 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1074b.jpg</v>
       </c>
     </row>
-    <row r="82" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="C82" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="D82" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="D82" s="9">
+      <c r="E82" s="9">
         <v>1086</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="F82" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="F82" s="47" t="s">
+      <c r="G82" s="47" t="s">
         <v>641</v>
       </c>
-      <c r="G82" s="48" t="s">
+      <c r="H82" s="48" t="s">
         <v>615</v>
       </c>
-      <c r="H82" s="12">
+      <c r="I82" s="12">
         <v>337.32</v>
       </c>
-      <c r="I82" s="49">
-        <f t="shared" si="7"/>
+      <c r="J82" s="49">
+        <f t="shared" si="14"/>
         <v>320.45399999999995</v>
       </c>
-      <c r="J82" s="49">
-        <f t="shared" si="8"/>
+      <c r="K82" s="6">
+        <f t="shared" si="12"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="L82" s="49">
+        <f t="shared" si="15"/>
         <v>236.12399999999997</v>
       </c>
-      <c r="K82" s="12" t="str">
-        <f t="shared" si="6"/>
+      <c r="M82" s="12" t="str">
+        <f t="shared" si="13"/>
         <v>1086.html</v>
       </c>
-      <c r="L82" s="48" t="s">
+      <c r="N82" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M82" s="51" t="s">
+      <c r="O82" s="51" t="s">
         <v>496</v>
       </c>
-      <c r="N82" s="11" t="s">
+      <c r="P82" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="O82" s="8" t="s">
+      <c r="Q82" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="P82" s="8"/>
-      <c r="Q82" s="10"/>
       <c r="R82" s="8"/>
-      <c r="S82" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D82:D175 &amp;"b" &amp;".jpg"</f>
+      <c r="S82" s="10"/>
+      <c r="T82" s="8"/>
+      <c r="U82" s="8" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E82:E175 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1086b.jpg</v>
       </c>
     </row>
-    <row r="83" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="C83" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="D83" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="D83" s="9">
+      <c r="E83" s="9">
         <v>1087</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="F83" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="F83" s="47" t="s">
+      <c r="G83" s="47" t="s">
         <v>642</v>
       </c>
-      <c r="G83" s="48" t="s">
+      <c r="H83" s="48" t="s">
         <v>616</v>
       </c>
-      <c r="H83" s="12">
+      <c r="I83" s="12">
         <v>337.32</v>
       </c>
-      <c r="I83" s="49">
-        <f t="shared" si="7"/>
+      <c r="J83" s="49">
+        <f t="shared" si="14"/>
         <v>320.45399999999995</v>
       </c>
-      <c r="J83" s="49">
-        <f t="shared" si="8"/>
+      <c r="K83" s="6">
+        <f t="shared" si="12"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="L83" s="49">
+        <f t="shared" si="15"/>
         <v>236.12399999999997</v>
       </c>
-      <c r="K83" s="12" t="str">
-        <f t="shared" si="6"/>
+      <c r="M83" s="12" t="str">
+        <f t="shared" si="13"/>
         <v>1087.html</v>
       </c>
-      <c r="L83" s="48" t="s">
+      <c r="N83" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M83" s="11" t="s">
+      <c r="O83" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="N83" s="11" t="s">
+      <c r="P83" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="O83" s="8" t="s">
+      <c r="Q83" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="P83" s="8"/>
-      <c r="Q83" s="10"/>
       <c r="R83" s="8"/>
-      <c r="S83" s="50" t="s">
+      <c r="S83" s="10"/>
+      <c r="T83" s="8"/>
+      <c r="U83" s="50" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="84" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="D84" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="D84" s="9">
+      <c r="E84" s="9">
         <v>1088</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="F84" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="F84" s="47" t="s">
+      <c r="G84" s="47" t="s">
         <v>643</v>
       </c>
-      <c r="G84" s="48" t="s">
+      <c r="H84" s="48" t="s">
         <v>616</v>
       </c>
-      <c r="H84" s="12">
+      <c r="I84" s="12">
         <v>337.32</v>
       </c>
-      <c r="I84" s="49">
-        <f t="shared" si="7"/>
+      <c r="J84" s="49">
+        <f t="shared" si="14"/>
         <v>320.45399999999995</v>
       </c>
-      <c r="J84" s="49">
-        <f t="shared" si="8"/>
+      <c r="K84" s="6">
+        <f t="shared" si="12"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="L84" s="49">
+        <f t="shared" si="15"/>
         <v>236.12399999999997</v>
       </c>
-      <c r="K84" s="12" t="str">
-        <f t="shared" si="6"/>
+      <c r="M84" s="12" t="str">
+        <f t="shared" si="13"/>
         <v>1088.html</v>
       </c>
-      <c r="L84" s="48" t="s">
+      <c r="N84" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M84" s="11" t="s">
+      <c r="O84" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="N84" s="11" t="s">
+      <c r="P84" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="O84" s="8" t="s">
+      <c r="Q84" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="P84" s="8"/>
-      <c r="Q84" s="10"/>
       <c r="R84" s="8"/>
-      <c r="S84" s="50" t="s">
+      <c r="S84" s="10"/>
+      <c r="T84" s="8"/>
+      <c r="U84" s="50" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="85" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="D85" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="D85" s="9">
+      <c r="E85" s="9">
         <v>1089</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="F85" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="F85" s="47" t="s">
+      <c r="G85" s="47" t="s">
         <v>644</v>
       </c>
-      <c r="G85" s="48" t="s">
+      <c r="H85" s="48" t="s">
         <v>616</v>
       </c>
-      <c r="H85" s="12">
+      <c r="I85" s="12">
         <v>337.32</v>
       </c>
-      <c r="I85" s="49">
-        <f t="shared" si="7"/>
+      <c r="J85" s="49">
+        <f t="shared" si="14"/>
         <v>320.45399999999995</v>
       </c>
-      <c r="J85" s="49">
-        <f t="shared" si="8"/>
+      <c r="K85" s="6">
+        <f t="shared" si="12"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="L85" s="49">
+        <f t="shared" si="15"/>
         <v>236.12399999999997</v>
       </c>
-      <c r="K85" s="12" t="str">
-        <f t="shared" si="6"/>
+      <c r="M85" s="12" t="str">
+        <f t="shared" si="13"/>
         <v>1089.html</v>
       </c>
-      <c r="L85" s="48" t="s">
+      <c r="N85" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M85" s="11" t="s">
+      <c r="O85" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="N85" s="11" t="s">
+      <c r="P85" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="O85" s="8" t="s">
+      <c r="Q85" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="P85" s="8"/>
-      <c r="Q85" s="10"/>
       <c r="R85" s="8"/>
-      <c r="S85" s="50" t="s">
+      <c r="S85" s="10"/>
+      <c r="T85" s="8"/>
+      <c r="U85" s="50" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="86" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="D86" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="D86" s="9">
+      <c r="E86" s="9">
         <v>1090</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="F86" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="F86" s="47" t="s">
+      <c r="G86" s="47" t="s">
         <v>645</v>
       </c>
-      <c r="G86" s="48" t="s">
+      <c r="H86" s="48" t="s">
         <v>616</v>
       </c>
-      <c r="H86" s="12">
+      <c r="I86" s="12">
         <v>337.32</v>
       </c>
-      <c r="I86" s="49">
-        <f t="shared" si="7"/>
+      <c r="J86" s="49">
+        <f t="shared" si="14"/>
         <v>320.45399999999995</v>
       </c>
-      <c r="J86" s="49">
-        <f t="shared" si="8"/>
+      <c r="K86" s="6">
+        <f t="shared" si="12"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="L86" s="49">
+        <f t="shared" si="15"/>
         <v>236.12399999999997</v>
       </c>
-      <c r="K86" s="12" t="str">
-        <f t="shared" si="6"/>
+      <c r="M86" s="12" t="str">
+        <f t="shared" si="13"/>
         <v>1090.html</v>
       </c>
-      <c r="L86" s="48" t="s">
+      <c r="N86" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M86" s="11" t="s">
+      <c r="O86" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="N86" s="11" t="s">
+      <c r="P86" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="O86" s="8" t="s">
+      <c r="Q86" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="P86" s="8"/>
-      <c r="Q86" s="10"/>
       <c r="R86" s="8"/>
-      <c r="S86" s="50" t="s">
+      <c r="S86" s="10"/>
+      <c r="T86" s="8"/>
+      <c r="U86" s="50" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="87" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="C87" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="D87" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="D87" s="9">
+      <c r="E87" s="9">
         <v>1073</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="F87" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="F87" s="47" t="s">
+      <c r="G87" s="47" t="s">
         <v>646</v>
       </c>
-      <c r="G87" s="48" t="s">
+      <c r="H87" s="48" t="s">
         <v>616</v>
       </c>
-      <c r="H87" s="12">
+      <c r="I87" s="12">
         <v>270.32</v>
       </c>
-      <c r="I87" s="49">
-        <f t="shared" si="7"/>
+      <c r="J87" s="49">
+        <f t="shared" si="14"/>
         <v>256.80399999999997</v>
       </c>
-      <c r="J87" s="49">
-        <f t="shared" si="8"/>
+      <c r="K87" s="6">
+        <f t="shared" si="12"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="L87" s="49">
+        <f t="shared" si="15"/>
         <v>189.22399999999999</v>
       </c>
-      <c r="K87" s="12" t="str">
-        <f t="shared" si="6"/>
+      <c r="M87" s="12" t="str">
+        <f t="shared" si="13"/>
         <v>1073.html</v>
       </c>
-      <c r="L87" s="48" t="s">
+      <c r="N87" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M87" s="11" t="s">
+      <c r="O87" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="N87" s="11" t="s">
+      <c r="P87" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="O87" s="52" t="s">
+      <c r="Q87" s="52" t="s">
         <v>523</v>
       </c>
-      <c r="P87" s="8"/>
-      <c r="Q87" s="10"/>
       <c r="R87" s="8"/>
-      <c r="S87" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D87:D180 &amp;"b" &amp;".jpg"</f>
+      <c r="S87" s="10"/>
+      <c r="T87" s="8"/>
+      <c r="U87" s="8" t="str">
+        <f t="shared" ref="U87:U99" si="18" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E87:E180 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
       </c>
     </row>
-    <row r="88" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="D88" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="D88" s="9">
+      <c r="E88" s="9">
         <v>1091</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="F88" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="F88" s="47" t="s">
+      <c r="G88" s="47" t="s">
         <v>647</v>
       </c>
-      <c r="G88" s="48" t="s">
+      <c r="H88" s="48" t="s">
         <v>616</v>
       </c>
-      <c r="H88" s="12">
+      <c r="I88" s="12">
         <v>270.32</v>
       </c>
-      <c r="I88" s="49">
-        <f t="shared" si="7"/>
+      <c r="J88" s="49">
+        <f t="shared" si="14"/>
         <v>256.80399999999997</v>
       </c>
-      <c r="J88" s="49">
-        <f t="shared" si="8"/>
+      <c r="K88" s="6">
+        <f t="shared" si="12"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="L88" s="49">
+        <f t="shared" si="15"/>
         <v>189.22399999999999</v>
       </c>
-      <c r="K88" s="12" t="str">
-        <f t="shared" si="6"/>
+      <c r="M88" s="12" t="str">
+        <f t="shared" si="13"/>
         <v>1091.html</v>
       </c>
-      <c r="L88" s="48" t="s">
+      <c r="N88" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M88" s="11" t="s">
+      <c r="O88" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="N88" s="11" t="s">
+      <c r="P88" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="O88" s="52" t="s">
+      <c r="Q88" s="52" t="s">
         <v>523</v>
       </c>
-      <c r="P88" s="8"/>
-      <c r="Q88" s="10"/>
       <c r="R88" s="8"/>
-      <c r="S88" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D88:D181 &amp;"b" &amp;".jpg"</f>
+      <c r="S88" s="10"/>
+      <c r="T88" s="8"/>
+      <c r="U88" s="8" t="str">
+        <f t="shared" si="18"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1091b.jpg</v>
       </c>
     </row>
-    <row r="89" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="D89" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="D89" s="9">
+      <c r="E89" s="9">
         <v>1092</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="F89" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="F89" s="47" t="s">
+      <c r="G89" s="47" t="s">
         <v>648</v>
       </c>
-      <c r="G89" s="48" t="s">
+      <c r="H89" s="48" t="s">
         <v>617</v>
       </c>
-      <c r="H89" s="12">
+      <c r="I89" s="12">
         <v>270.32</v>
       </c>
-      <c r="I89" s="49">
-        <f t="shared" si="7"/>
+      <c r="J89" s="49">
+        <f t="shared" si="14"/>
         <v>256.80399999999997</v>
       </c>
-      <c r="J89" s="49">
-        <f t="shared" si="8"/>
+      <c r="K89" s="6">
+        <f t="shared" si="12"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="L89" s="49">
+        <f t="shared" si="15"/>
         <v>189.22399999999999</v>
       </c>
-      <c r="K89" s="12" t="str">
-        <f t="shared" si="6"/>
+      <c r="M89" s="12" t="str">
+        <f t="shared" si="13"/>
         <v>1092.html</v>
       </c>
-      <c r="L89" s="48" t="s">
+      <c r="N89" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M89" s="11" t="s">
+      <c r="O89" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="N89" s="11" t="s">
+      <c r="P89" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="O89" s="52" t="s">
+      <c r="Q89" s="52" t="s">
         <v>523</v>
       </c>
-      <c r="P89" s="8"/>
-      <c r="Q89" s="10"/>
       <c r="R89" s="8"/>
-      <c r="S89" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D89:D182 &amp;"b" &amp;".jpg"</f>
+      <c r="S89" s="10"/>
+      <c r="T89" s="8"/>
+      <c r="U89" s="8" t="str">
+        <f t="shared" si="18"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1092b.jpg</v>
       </c>
     </row>
-    <row r="90" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="C90" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="D90" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="D90" s="9">
+      <c r="E90" s="9">
         <v>1093</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="F90" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="F90" s="47" t="s">
+      <c r="G90" s="47" t="s">
         <v>649</v>
       </c>
-      <c r="G90" s="48" t="s">
+      <c r="H90" s="48" t="s">
         <v>618</v>
       </c>
-      <c r="H90" s="12">
+      <c r="I90" s="12">
         <v>270.32</v>
       </c>
-      <c r="I90" s="49">
-        <f t="shared" si="7"/>
+      <c r="J90" s="49">
+        <f t="shared" si="14"/>
         <v>256.80399999999997</v>
       </c>
-      <c r="J90" s="49">
-        <f t="shared" si="8"/>
+      <c r="K90" s="6">
+        <f t="shared" si="12"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="L90" s="49">
+        <f t="shared" si="15"/>
         <v>189.22399999999999</v>
       </c>
-      <c r="K90" s="12" t="str">
-        <f t="shared" si="6"/>
+      <c r="M90" s="12" t="str">
+        <f t="shared" si="13"/>
         <v>1093.html</v>
       </c>
-      <c r="L90" s="48" t="s">
+      <c r="N90" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M90" s="11" t="s">
+      <c r="O90" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="N90" s="11" t="s">
+      <c r="P90" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="O90" s="52" t="s">
+      <c r="Q90" s="52" t="s">
         <v>523</v>
       </c>
-      <c r="P90" s="8"/>
-      <c r="Q90" s="10"/>
       <c r="R90" s="8"/>
-      <c r="S90" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D90:D183 &amp;"b" &amp;".jpg"</f>
+      <c r="S90" s="10"/>
+      <c r="T90" s="8"/>
+      <c r="U90" s="8" t="str">
+        <f t="shared" si="18"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1093b.jpg</v>
       </c>
     </row>
-    <row r="91" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="C91" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="D91" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="D91" s="9">
+      <c r="E91" s="9">
         <v>1094</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="F91" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="F91" s="47" t="s">
+      <c r="G91" s="47" t="s">
         <v>650</v>
       </c>
-      <c r="G91" s="48" t="s">
+      <c r="H91" s="48" t="s">
         <v>619</v>
       </c>
-      <c r="H91" s="12">
+      <c r="I91" s="12">
         <v>270.32</v>
       </c>
-      <c r="I91" s="49">
-        <f t="shared" si="7"/>
+      <c r="J91" s="49">
+        <f t="shared" si="14"/>
         <v>256.80399999999997</v>
       </c>
-      <c r="J91" s="49">
-        <f t="shared" si="8"/>
+      <c r="K91" s="6">
+        <f t="shared" si="12"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="L91" s="49">
+        <f t="shared" si="15"/>
         <v>189.22399999999999</v>
       </c>
-      <c r="K91" s="12" t="str">
-        <f t="shared" si="6"/>
+      <c r="M91" s="12" t="str">
+        <f t="shared" si="13"/>
         <v>1094.html</v>
       </c>
-      <c r="L91" s="48" t="s">
+      <c r="N91" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M91" s="11" t="s">
+      <c r="O91" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="N91" s="11" t="s">
+      <c r="P91" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="O91" s="52" t="s">
+      <c r="Q91" s="52" t="s">
         <v>523</v>
       </c>
-      <c r="P91" s="8"/>
-      <c r="Q91" s="10"/>
       <c r="R91" s="8"/>
-      <c r="S91" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D91:D184 &amp;"b" &amp;".jpg"</f>
+      <c r="S91" s="10"/>
+      <c r="T91" s="8"/>
+      <c r="U91" s="8" t="str">
+        <f t="shared" si="18"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1094b.jpg</v>
       </c>
     </row>
-    <row r="92" spans="1:19" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="D92" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="D92" s="9">
+      <c r="E92" s="9">
         <v>1095</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="F92" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="F92" s="47" t="s">
+      <c r="G92" s="47" t="s">
         <v>651</v>
       </c>
-      <c r="G92" s="48" t="s">
+      <c r="H92" s="48" t="s">
         <v>620</v>
       </c>
-      <c r="H92" s="12">
+      <c r="I92" s="12">
         <v>270.32</v>
       </c>
-      <c r="I92" s="49">
-        <f t="shared" si="7"/>
+      <c r="J92" s="49">
+        <f t="shared" si="14"/>
         <v>256.80399999999997</v>
       </c>
-      <c r="J92" s="49">
-        <f t="shared" si="8"/>
+      <c r="K92" s="6">
+        <f t="shared" si="12"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="L92" s="49">
+        <f t="shared" si="15"/>
         <v>189.22399999999999</v>
       </c>
-      <c r="K92" s="12" t="str">
-        <f t="shared" si="6"/>
+      <c r="M92" s="12" t="str">
+        <f t="shared" si="13"/>
         <v>1095.html</v>
       </c>
-      <c r="L92" s="48" t="s">
+      <c r="N92" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="M92" s="11" t="s">
+      <c r="O92" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="N92" s="11" t="s">
+      <c r="P92" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="O92" s="52" t="s">
+      <c r="Q92" s="52" t="s">
         <v>523</v>
       </c>
-      <c r="P92" s="8"/>
-      <c r="Q92" s="10"/>
       <c r="R92" s="8"/>
-      <c r="S92" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D92:D185 &amp;"b" &amp;".jpg"</f>
+      <c r="S92" s="10"/>
+      <c r="T92" s="8"/>
+      <c r="U92" s="8" t="str">
+        <f t="shared" si="18"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1095b.jpg</v>
       </c>
     </row>
-    <row r="93" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="20" t="s">
+      <c r="B93" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="C93" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="D93" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="D93" s="34">
+      <c r="E93" s="34">
         <v>1072</v>
       </c>
-      <c r="E93" s="22" t="s">
+      <c r="F93" s="22" t="s">
         <v>483</v>
       </c>
-      <c r="F93" s="42" t="s">
+      <c r="G93" s="42" t="s">
         <v>718</v>
       </c>
-      <c r="G93" s="21" t="s">
+      <c r="H93" s="21" t="s">
         <v>615</v>
       </c>
-      <c r="H93" s="21">
+      <c r="I93" s="21">
         <v>320.5</v>
       </c>
-      <c r="I93" s="37">
-        <f t="shared" si="7"/>
+      <c r="J93" s="37">
+        <f t="shared" si="14"/>
         <v>304.47499999999997</v>
       </c>
-      <c r="J93" s="37">
-        <f t="shared" ref="J93" si="9">H93 * 0.7</f>
+      <c r="K93" s="6">
+        <f t="shared" si="12"/>
+        <v>272.42500000000001</v>
+      </c>
+      <c r="L93" s="37">
+        <f t="shared" ref="K93:L93" si="19">I93 * 0.7</f>
         <v>224.35</v>
       </c>
-      <c r="K93" s="21" t="str">
-        <f t="shared" si="6"/>
+      <c r="M93" s="21" t="str">
+        <f t="shared" si="13"/>
         <v>1072.html</v>
       </c>
-      <c r="L93" s="38" t="s">
+      <c r="N93" s="38" t="s">
         <v>624</v>
       </c>
-      <c r="M93" s="35" t="s">
+      <c r="O93" s="35" t="s">
         <v>480</v>
       </c>
-      <c r="N93" s="35" t="s">
+      <c r="P93" s="35" t="s">
         <v>481</v>
       </c>
-      <c r="O93" s="35" t="s">
+      <c r="Q93" s="35" t="s">
         <v>482</v>
       </c>
-      <c r="P93" s="20"/>
-      <c r="Q93" s="36" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D93:D122 &amp;".jpg"</f>
+      <c r="R93" s="20"/>
+      <c r="S93" s="36" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E93:E122 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1072.jpg</v>
       </c>
-      <c r="R93" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D93:D122 &amp;"a" &amp;".jpg"</f>
+      <c r="T93" s="20" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E93:E122 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1072a.jpg</v>
       </c>
-      <c r="S93" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D93:D186 &amp;"b" &amp;".jpg"</f>
+      <c r="U93" s="1" t="str">
+        <f t="shared" si="18"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1072b.jpg</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D94" s="2">
+      <c r="E94" s="2">
         <v>1066</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>449</v>
       </c>
-      <c r="F94" s="42" t="s">
+      <c r="G94" s="42" t="s">
         <v>712</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="H94" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="H94" s="5">
+      <c r="I94" s="5">
         <v>57.23</v>
       </c>
-      <c r="I94" s="6">
-        <f t="shared" si="7"/>
+      <c r="J94" s="6">
+        <f t="shared" si="14"/>
         <v>54.368499999999997</v>
       </c>
-      <c r="J94" s="6">
-        <f t="shared" si="8"/>
+      <c r="K94" s="6">
+        <f t="shared" si="12"/>
+        <v>48.645499999999998</v>
+      </c>
+      <c r="L94" s="6">
+        <f t="shared" si="15"/>
         <v>40.060999999999993</v>
       </c>
-      <c r="K94" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="M94" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>1066.html</v>
       </c>
-      <c r="L94" s="5" t="s">
+      <c r="N94" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="M94" s="4" t="s">
+      <c r="O94" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N94" s="1" t="s">
+      <c r="P94" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="O94" s="1" t="s">
+      <c r="Q94" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D79:D123 &amp;".jpg"</f>
+      <c r="R94" s="1"/>
+      <c r="S94" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E79:E123 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1066.jpg</v>
       </c>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D94:D187 &amp;"b" &amp;".jpg"</f>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1" t="str">
+        <f t="shared" si="18"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1066b.jpg</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D95" s="2">
+      <c r="E95" s="2">
         <v>1067</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>453</v>
       </c>
-      <c r="F95" s="42" t="s">
+      <c r="G95" s="42" t="s">
         <v>713</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="H95" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="H95" s="5">
+      <c r="I95" s="5">
         <v>57.23</v>
       </c>
-      <c r="I95" s="6">
-        <f t="shared" si="7"/>
+      <c r="J95" s="6">
+        <f t="shared" si="14"/>
         <v>54.368499999999997</v>
       </c>
-      <c r="J95" s="6">
-        <f t="shared" si="8"/>
+      <c r="K95" s="6">
+        <f t="shared" si="12"/>
+        <v>48.645499999999998</v>
+      </c>
+      <c r="L95" s="6">
+        <f t="shared" si="15"/>
         <v>40.060999999999993</v>
       </c>
-      <c r="K95" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="M95" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>1067.html</v>
       </c>
-      <c r="L95" s="5" t="s">
+      <c r="N95" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="M95" s="4" t="s">
+      <c r="O95" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N95" s="1" t="s">
+      <c r="P95" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="O95" s="1" t="s">
+      <c r="Q95" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D95:D124 &amp;".jpg"</f>
+      <c r="R95" s="1"/>
+      <c r="S95" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E95:E124 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1067.jpg</v>
       </c>
-      <c r="R95" s="1"/>
-      <c r="S95" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D95:D188 &amp;"b" &amp;".jpg"</f>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1" t="str">
+        <f t="shared" si="18"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1067b.jpg</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D96" s="2">
+      <c r="E96" s="2">
         <v>1068</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>459</v>
       </c>
-      <c r="F96" s="42" t="s">
+      <c r="G96" s="42" t="s">
         <v>714</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="H96" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="H96" s="5">
+      <c r="I96" s="5">
         <v>127.62</v>
       </c>
-      <c r="I96" s="6">
-        <f t="shared" si="7"/>
+      <c r="J96" s="6">
+        <f t="shared" si="14"/>
         <v>121.239</v>
       </c>
-      <c r="J96" s="6">
-        <f t="shared" si="8"/>
+      <c r="K96" s="6">
+        <f t="shared" si="12"/>
+        <v>108.477</v>
+      </c>
+      <c r="L96" s="6">
+        <f t="shared" si="15"/>
         <v>89.334000000000003</v>
       </c>
-      <c r="K96" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="M96" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>1068.html</v>
       </c>
-      <c r="L96" s="5" t="s">
+      <c r="N96" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="M96" s="4" t="s">
+      <c r="O96" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N96" s="1" t="s">
+      <c r="P96" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="O96" s="1" t="s">
+      <c r="Q96" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D96:D125 &amp;".jpg"</f>
+      <c r="R96" s="1"/>
+      <c r="S96" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E96:E125 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1068.jpg</v>
       </c>
-      <c r="R96" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D96:D125 &amp;"a" &amp;".jpg"</f>
+      <c r="T96" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E96:E125 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1068a.jpg</v>
       </c>
-      <c r="S96" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D96:D189 &amp;"b" &amp;".jpg"</f>
+      <c r="U96" s="1" t="str">
+        <f t="shared" si="18"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1068b.jpg</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D97" s="2">
+      <c r="E97" s="2">
         <v>1069</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>465</v>
       </c>
-      <c r="F97" s="42" t="s">
+      <c r="G97" s="42" t="s">
         <v>715</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="H97" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="H97" s="5">
+      <c r="I97" s="5">
         <v>60.11</v>
       </c>
-      <c r="I97" s="6">
-        <f t="shared" si="7"/>
+      <c r="J97" s="6">
+        <f t="shared" si="14"/>
         <v>57.104499999999994</v>
       </c>
-      <c r="J97" s="6">
-        <f t="shared" si="8"/>
+      <c r="K97" s="6">
+        <f t="shared" si="12"/>
+        <v>51.093499999999999</v>
+      </c>
+      <c r="L97" s="6">
+        <f t="shared" si="15"/>
         <v>42.076999999999998</v>
       </c>
-      <c r="K97" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="M97" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>1069.html</v>
       </c>
-      <c r="L97" s="5" t="s">
+      <c r="N97" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="M97" s="4" t="s">
+      <c r="O97" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="N97" s="1" t="s">
+      <c r="P97" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="O97" s="1" t="s">
+      <c r="Q97" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D97:D126 &amp;".jpg"</f>
+      <c r="R97" s="1"/>
+      <c r="S97" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E97:E126 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1069.jpg</v>
       </c>
-      <c r="R97" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D97:D126 &amp;"a" &amp;".jpg"</f>
+      <c r="T97" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E97:E126 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1069a.jpg</v>
       </c>
-      <c r="S97" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D97:D190 &amp;"b" &amp;".jpg"</f>
+      <c r="U97" s="1" t="str">
+        <f t="shared" si="18"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1069b.jpg</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="D98" s="2">
+      <c r="E98" s="2">
         <v>1070</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>471</v>
       </c>
-      <c r="F98" s="42" t="s">
+      <c r="G98" s="42" t="s">
         <v>716</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="H98" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="H98" s="5">
+      <c r="I98" s="5">
         <v>86.44</v>
       </c>
-      <c r="I98" s="6">
-        <f t="shared" si="7"/>
+      <c r="J98" s="6">
+        <f t="shared" si="14"/>
         <v>82.117999999999995</v>
       </c>
-      <c r="J98" s="6">
-        <f t="shared" si="8"/>
+      <c r="K98" s="6">
+        <f t="shared" si="12"/>
+        <v>73.47399999999999</v>
+      </c>
+      <c r="L98" s="6">
+        <f t="shared" si="15"/>
         <v>60.507999999999996</v>
       </c>
-      <c r="K98" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="M98" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>1070.html</v>
       </c>
-      <c r="L98" s="5" t="s">
+      <c r="N98" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="M98" s="4" t="s">
+      <c r="O98" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="N98" s="1" t="s">
+      <c r="P98" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="O98" s="1" t="s">
+      <c r="Q98" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D98:D127 &amp;".jpg"</f>
+      <c r="R98" s="1"/>
+      <c r="S98" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E98:E127 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1070.jpg</v>
       </c>
-      <c r="R98" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D98:D127 &amp;"a" &amp;".jpg"</f>
+      <c r="T98" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E98:E127 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1070a.jpg</v>
       </c>
-      <c r="S98" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D98:D191 &amp;"b" &amp;".jpg"</f>
+      <c r="U98" s="1" t="str">
+        <f t="shared" si="18"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1070b.jpg</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D99" s="2">
+      <c r="E99" s="2">
         <v>1071</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>477</v>
       </c>
-      <c r="F99" s="42" t="s">
+      <c r="G99" s="42" t="s">
         <v>717</v>
       </c>
-      <c r="G99" s="5" t="s">
+      <c r="H99" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="H99" s="5">
+      <c r="I99" s="5">
         <v>10.31</v>
       </c>
-      <c r="I99" s="6">
-        <f t="shared" si="7"/>
+      <c r="J99" s="6">
+        <f t="shared" si="14"/>
         <v>9.7944999999999993</v>
       </c>
-      <c r="J99" s="6">
-        <f t="shared" si="8"/>
+      <c r="K99" s="6">
+        <f t="shared" si="12"/>
+        <v>8.7635000000000005</v>
+      </c>
+      <c r="L99" s="6">
+        <f t="shared" si="15"/>
         <v>7.2169999999999996</v>
       </c>
-      <c r="K99" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="M99" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>1071.html</v>
       </c>
-      <c r="L99" s="5" t="s">
+      <c r="N99" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="M99" s="4" t="s">
+      <c r="O99" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="N99" s="1" t="s">
+      <c r="P99" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="O99" s="1" t="s">
+      <c r="Q99" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D99:D128 &amp;".jpg"</f>
+      <c r="R99" s="1"/>
+      <c r="S99" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E99:E128 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1071.jpg</v>
       </c>
-      <c r="R99" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D99:D128 &amp;"a" &amp;".jpg"</f>
+      <c r="T99" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; E99:E128 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1071a.jpg</v>
       </c>
-      <c r="S99" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; D99:D192 &amp;"b" &amp;".jpg"</f>
+      <c r="U99" s="1" t="str">
+        <f t="shared" si="18"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1071b.jpg</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E61" r:id="rId1"/>
-    <hyperlink ref="E21" r:id="rId2"/>
-    <hyperlink ref="O79" r:id="rId3"/>
-    <hyperlink ref="O80" r:id="rId4"/>
-    <hyperlink ref="O87" r:id="rId5"/>
-    <hyperlink ref="O88" r:id="rId6"/>
-    <hyperlink ref="O89" r:id="rId7"/>
-    <hyperlink ref="O90" r:id="rId8"/>
-    <hyperlink ref="O91" r:id="rId9"/>
-    <hyperlink ref="O92" r:id="rId10"/>
-    <hyperlink ref="E29" r:id="rId11"/>
-    <hyperlink ref="E9" r:id="rId12"/>
-    <hyperlink ref="S83" r:id="rId13"/>
-    <hyperlink ref="S84" r:id="rId14"/>
-    <hyperlink ref="S85" r:id="rId15"/>
-    <hyperlink ref="S86" r:id="rId16"/>
-    <hyperlink ref="F29" r:id="rId17"/>
-    <hyperlink ref="F9" r:id="rId18"/>
-    <hyperlink ref="F79" r:id="rId19"/>
-    <hyperlink ref="F80" r:id="rId20"/>
-    <hyperlink ref="F81" r:id="rId21"/>
-    <hyperlink ref="F82" r:id="rId22"/>
-    <hyperlink ref="F83" r:id="rId23"/>
-    <hyperlink ref="F84" r:id="rId24"/>
-    <hyperlink ref="F85" r:id="rId25"/>
-    <hyperlink ref="F86" r:id="rId26"/>
-    <hyperlink ref="F87" r:id="rId27"/>
-    <hyperlink ref="F88" r:id="rId28"/>
-    <hyperlink ref="F89" r:id="rId29"/>
-    <hyperlink ref="F90" r:id="rId30"/>
-    <hyperlink ref="F91" r:id="rId31"/>
-    <hyperlink ref="F92" r:id="rId32"/>
-    <hyperlink ref="F2" r:id="rId33"/>
-    <hyperlink ref="F3" r:id="rId34"/>
-    <hyperlink ref="F4" r:id="rId35"/>
-    <hyperlink ref="F20" r:id="rId36"/>
-    <hyperlink ref="F21" r:id="rId37"/>
-    <hyperlink ref="F22" r:id="rId38"/>
-    <hyperlink ref="F23" r:id="rId39"/>
-    <hyperlink ref="F24" r:id="rId40"/>
-    <hyperlink ref="F25" r:id="rId41"/>
-    <hyperlink ref="F26" r:id="rId42"/>
-    <hyperlink ref="F27" r:id="rId43"/>
-    <hyperlink ref="F28" r:id="rId44"/>
-    <hyperlink ref="F19" r:id="rId45"/>
-    <hyperlink ref="F30" r:id="rId46"/>
-    <hyperlink ref="F31" r:id="rId47"/>
-    <hyperlink ref="F34" r:id="rId48"/>
-    <hyperlink ref="F35" r:id="rId49"/>
-    <hyperlink ref="F36" r:id="rId50"/>
-    <hyperlink ref="F37" r:id="rId51"/>
-    <hyperlink ref="F38" r:id="rId52"/>
-    <hyperlink ref="F39" r:id="rId53"/>
-    <hyperlink ref="F40" r:id="rId54"/>
-    <hyperlink ref="F41" r:id="rId55"/>
-    <hyperlink ref="F42" r:id="rId56"/>
-    <hyperlink ref="F43" r:id="rId57"/>
-    <hyperlink ref="F45" r:id="rId58"/>
-    <hyperlink ref="F46" r:id="rId59"/>
-    <hyperlink ref="F47" r:id="rId60"/>
-    <hyperlink ref="F48" r:id="rId61"/>
-    <hyperlink ref="F49" r:id="rId62"/>
-    <hyperlink ref="F50" r:id="rId63"/>
-    <hyperlink ref="F51" r:id="rId64"/>
-    <hyperlink ref="F52" r:id="rId65"/>
-    <hyperlink ref="F53" r:id="rId66"/>
-    <hyperlink ref="F54" r:id="rId67"/>
-    <hyperlink ref="F55" r:id="rId68"/>
-    <hyperlink ref="F56" r:id="rId69"/>
-    <hyperlink ref="F57" r:id="rId70"/>
-    <hyperlink ref="F58" r:id="rId71"/>
-    <hyperlink ref="F59" r:id="rId72"/>
-    <hyperlink ref="F60" r:id="rId73"/>
-    <hyperlink ref="F61" r:id="rId74"/>
-    <hyperlink ref="F62" r:id="rId75"/>
-    <hyperlink ref="F63" r:id="rId76"/>
-    <hyperlink ref="F64" r:id="rId77"/>
-    <hyperlink ref="F65" r:id="rId78"/>
-    <hyperlink ref="F66" r:id="rId79"/>
-    <hyperlink ref="F70" r:id="rId80"/>
-    <hyperlink ref="F71" r:id="rId81"/>
-    <hyperlink ref="F72" r:id="rId82"/>
-    <hyperlink ref="F73" r:id="rId83"/>
-    <hyperlink ref="F74" r:id="rId84"/>
-    <hyperlink ref="F75" r:id="rId85"/>
-    <hyperlink ref="F44" r:id="rId86"/>
-    <hyperlink ref="F67" r:id="rId87"/>
-    <hyperlink ref="F68" r:id="rId88"/>
-    <hyperlink ref="F69" r:id="rId89"/>
-    <hyperlink ref="F76" r:id="rId90"/>
-    <hyperlink ref="F77" r:id="rId91"/>
-    <hyperlink ref="F78" r:id="rId92"/>
-    <hyperlink ref="F5" r:id="rId93"/>
-    <hyperlink ref="F6" r:id="rId94"/>
-    <hyperlink ref="F7" r:id="rId95"/>
-    <hyperlink ref="F8" r:id="rId96"/>
-    <hyperlink ref="F10" r:id="rId97"/>
-    <hyperlink ref="F11" r:id="rId98"/>
-    <hyperlink ref="F12" r:id="rId99"/>
-    <hyperlink ref="F13" r:id="rId100"/>
-    <hyperlink ref="F14" r:id="rId101"/>
-    <hyperlink ref="F15" r:id="rId102"/>
-    <hyperlink ref="F16" r:id="rId103"/>
-    <hyperlink ref="F32" r:id="rId104"/>
-    <hyperlink ref="E32" r:id="rId105"/>
-    <hyperlink ref="E33" r:id="rId106"/>
-    <hyperlink ref="F33" r:id="rId107"/>
+    <hyperlink ref="F61" r:id="rId1"/>
+    <hyperlink ref="F21" r:id="rId2"/>
+    <hyperlink ref="Q79" r:id="rId3"/>
+    <hyperlink ref="Q80" r:id="rId4"/>
+    <hyperlink ref="Q87" r:id="rId5"/>
+    <hyperlink ref="Q88" r:id="rId6"/>
+    <hyperlink ref="Q89" r:id="rId7"/>
+    <hyperlink ref="Q90" r:id="rId8"/>
+    <hyperlink ref="Q91" r:id="rId9"/>
+    <hyperlink ref="Q92" r:id="rId10"/>
+    <hyperlink ref="F29" r:id="rId11"/>
+    <hyperlink ref="F9" r:id="rId12"/>
+    <hyperlink ref="U83" r:id="rId13"/>
+    <hyperlink ref="U84" r:id="rId14"/>
+    <hyperlink ref="U85" r:id="rId15"/>
+    <hyperlink ref="U86" r:id="rId16"/>
+    <hyperlink ref="G29" r:id="rId17"/>
+    <hyperlink ref="G9" r:id="rId18"/>
+    <hyperlink ref="G79" r:id="rId19"/>
+    <hyperlink ref="G80" r:id="rId20"/>
+    <hyperlink ref="G81" r:id="rId21"/>
+    <hyperlink ref="G82" r:id="rId22"/>
+    <hyperlink ref="G83" r:id="rId23"/>
+    <hyperlink ref="G84" r:id="rId24"/>
+    <hyperlink ref="G85" r:id="rId25"/>
+    <hyperlink ref="G86" r:id="rId26"/>
+    <hyperlink ref="G87" r:id="rId27"/>
+    <hyperlink ref="G88" r:id="rId28"/>
+    <hyperlink ref="G89" r:id="rId29"/>
+    <hyperlink ref="G90" r:id="rId30"/>
+    <hyperlink ref="G91" r:id="rId31"/>
+    <hyperlink ref="G92" r:id="rId32"/>
+    <hyperlink ref="G2" r:id="rId33"/>
+    <hyperlink ref="G3" r:id="rId34"/>
+    <hyperlink ref="G4" r:id="rId35"/>
+    <hyperlink ref="G20" r:id="rId36"/>
+    <hyperlink ref="G21" r:id="rId37"/>
+    <hyperlink ref="G22" r:id="rId38"/>
+    <hyperlink ref="G23" r:id="rId39"/>
+    <hyperlink ref="G24" r:id="rId40"/>
+    <hyperlink ref="G25" r:id="rId41"/>
+    <hyperlink ref="G26" r:id="rId42"/>
+    <hyperlink ref="G27" r:id="rId43"/>
+    <hyperlink ref="G28" r:id="rId44"/>
+    <hyperlink ref="G19" r:id="rId45"/>
+    <hyperlink ref="G30" r:id="rId46"/>
+    <hyperlink ref="G31" r:id="rId47"/>
+    <hyperlink ref="G34" r:id="rId48"/>
+    <hyperlink ref="G35" r:id="rId49"/>
+    <hyperlink ref="G36" r:id="rId50"/>
+    <hyperlink ref="G37" r:id="rId51"/>
+    <hyperlink ref="G38" r:id="rId52"/>
+    <hyperlink ref="G39" r:id="rId53"/>
+    <hyperlink ref="G40" r:id="rId54"/>
+    <hyperlink ref="G41" r:id="rId55"/>
+    <hyperlink ref="G42" r:id="rId56"/>
+    <hyperlink ref="G43" r:id="rId57"/>
+    <hyperlink ref="G45" r:id="rId58"/>
+    <hyperlink ref="G46" r:id="rId59"/>
+    <hyperlink ref="G47" r:id="rId60"/>
+    <hyperlink ref="G48" r:id="rId61"/>
+    <hyperlink ref="G49" r:id="rId62"/>
+    <hyperlink ref="G50" r:id="rId63"/>
+    <hyperlink ref="G51" r:id="rId64"/>
+    <hyperlink ref="G52" r:id="rId65"/>
+    <hyperlink ref="G53" r:id="rId66"/>
+    <hyperlink ref="G54" r:id="rId67"/>
+    <hyperlink ref="G55" r:id="rId68"/>
+    <hyperlink ref="G56" r:id="rId69"/>
+    <hyperlink ref="G57" r:id="rId70"/>
+    <hyperlink ref="G58" r:id="rId71"/>
+    <hyperlink ref="G59" r:id="rId72"/>
+    <hyperlink ref="G60" r:id="rId73"/>
+    <hyperlink ref="G61" r:id="rId74"/>
+    <hyperlink ref="G62" r:id="rId75"/>
+    <hyperlink ref="G63" r:id="rId76"/>
+    <hyperlink ref="G64" r:id="rId77"/>
+    <hyperlink ref="G65" r:id="rId78"/>
+    <hyperlink ref="G66" r:id="rId79"/>
+    <hyperlink ref="G70" r:id="rId80"/>
+    <hyperlink ref="G71" r:id="rId81"/>
+    <hyperlink ref="G72" r:id="rId82"/>
+    <hyperlink ref="G73" r:id="rId83"/>
+    <hyperlink ref="G74" r:id="rId84"/>
+    <hyperlink ref="G75" r:id="rId85"/>
+    <hyperlink ref="G44" r:id="rId86"/>
+    <hyperlink ref="G67" r:id="rId87"/>
+    <hyperlink ref="G68" r:id="rId88"/>
+    <hyperlink ref="G69" r:id="rId89"/>
+    <hyperlink ref="G76" r:id="rId90"/>
+    <hyperlink ref="G77" r:id="rId91"/>
+    <hyperlink ref="G78" r:id="rId92"/>
+    <hyperlink ref="G5" r:id="rId93"/>
+    <hyperlink ref="G6" r:id="rId94"/>
+    <hyperlink ref="G7" r:id="rId95"/>
+    <hyperlink ref="G8" r:id="rId96"/>
+    <hyperlink ref="G10" r:id="rId97"/>
+    <hyperlink ref="G11" r:id="rId98"/>
+    <hyperlink ref="G12" r:id="rId99"/>
+    <hyperlink ref="G13" r:id="rId100"/>
+    <hyperlink ref="G14" r:id="rId101"/>
+    <hyperlink ref="G15" r:id="rId102"/>
+    <hyperlink ref="G16" r:id="rId103"/>
+    <hyperlink ref="G32" r:id="rId104"/>
+    <hyperlink ref="F32" r:id="rId105"/>
+    <hyperlink ref="F33" r:id="rId106"/>
+    <hyperlink ref="G33" r:id="rId107"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId108"/>

--- a/products_categories/Merge.xlsx
+++ b/products_categories/Merge.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="877">
   <si>
     <t>h1</t>
   </si>
@@ -2264,297 +2264,6 @@
     <t>forever_url_Rumen</t>
   </si>
   <si>
-    <t>forever_url_Iglika</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/g0N0Edfv</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/DWuZWvsA</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/7WUOG5Go</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/zg424tre</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/lLH7MLvE</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/6oigs3Sq</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/nsmpbuMG</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/88ujkIFC</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/yH7GhdHy</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/N8RFnEtO</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/bgTkhJgg</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/OTpibh1C</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/oV2Gpzcm</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/eljZeuvy</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/JuJbReAn</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/U8rMTYUX</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/c5gJgSPX</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/BtlWAd8u</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/51XKrD0U</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/rSN4SSzw</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/dKIR8x9E</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/608ZM6m7</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/bWBqBies</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/pp6Biymf</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/orDUzwrk</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/hZ6XhFLT</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/jXuplLci</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/MmfbgTQI</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/xHCoKe2A</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/F3KOR61U</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/m9JqomVb</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/uCJP3Iei</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/it4M3In5</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/4ptcfIrN</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/9QaTbW7O</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/IG3PwOSB</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/tDAI8LjF</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/Mgwte2JU</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/savXqceB</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/ldN3MY2F</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/Pwm72PiZ</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/lbCkmLZU</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/FBkdYCvw</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/c9Uu3NxI</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/feazZwmR</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/OeBqQf5W</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/ff9QmJ3d</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/vV96wQdN</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/LjiZZ5r3</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/I3ZYPeQR</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/I1fBHfO0</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/ZQ6jLj4u</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/P1e94CjQ</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/95RH86qz</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/8Y4hMlj1</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/ilENrvBE</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/RILK6AbV</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/hVaJWZ3t</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/QrrXTDud</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/zSubVWMB</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/batDZQ5Z</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/rqwf5jzj</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/CkRFq8QX</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/lASN8CmS</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/Ybiouxux</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/zrMoxJu3</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/GjNqqypv</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/ATpiKpn5</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/EcIxs8hM</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/TPocrD47</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/jr3UVgsL</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/BEq3gHup</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/9yvfLLs8</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/yTpqpuy6</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/cF5GiTqo</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/DqyWrQtk</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/kTqbHhE1</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/ZqerjAwE</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/3bUnURrs</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/TmcJJtHQ</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/tUKtBJso</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/tX6OEk50</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/fY4hYK4v</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/OevtJba7</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/67JtZWgy</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/qY5GlJOY</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/hGOV7jBk</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/wZWsJ8DI</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/lY0pPZdA</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/DszYBBqu</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/Bw7LTIYH</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/3OuKeJNS</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/CcFL9YeD</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/Mgewjxoh</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/vqbNKGe4</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/QkywOMRR</t>
-  </si>
-  <si>
     <t>Forever CardioHealth</t>
   </si>
   <si>
@@ -2569,9 +2278,6 @@
 Съдържа полезни за сърцето билкови екстракти, минерали, лецитин и антиоксидантни витамини.</t>
   </si>
   <si>
-    <t>https://thealoeveraco.shop/JptRfR0w</t>
-  </si>
-  <si>
     <t>https://thealoeveraco.shop/yZhugDoJ</t>
   </si>
   <si>
@@ -2615,9 +2321,6 @@
   </si>
   <si>
     <t>https://thealoeveraco.shop/xmZOmmnQ</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/jOgZJWqY</t>
   </si>
   <si>
     <t>815-ALOE-VERA-GEL</t>
@@ -3163,6 +2866,252 @@
   <si>
     <t>По четири капсули сутрин с храна.</t>
   </si>
+  <si>
+    <t>През вековете човекът винаги е считал меда за първокласна натурална храна – истинско питателно богатство, лесносмилаем от организма както на децата, така и на възрастните.
+Медът съдържа много вещества, от които организмът се нуждае за да бъде здрав, включително 78% захар (глюкоза, фруктоза и захароза), влага и други вещества (минерали, витамини, ензими, протеини и анимокиселини).
+Пчелният мед на Форевър е събиран във високопланински, пустинни области на Западните Съединени щати и съдържа изцяло натурални съставки. Има страхотен вкус, питателен е, зареден е с най-добрите естествени вещества и осигурява приблизително 100 калории за 30 г тегло.
+По всяко време медът е вкусен и съвършен естествен подсладител. Богат на въглехидрати и минералите калций и фосфор, пчелният мед Форевър дава енергия за всякакви случаи, като бързо възстановява и увеличава енергийните нива, за да облекчи умората. Ценен е за хора със слаба храносмилателна система, тъй като захарта в меда е предварително преработена. По този начин тя се абсорбира направо, без да се налага смилане в стомашно-чревния тракт.</t>
+  </si>
+  <si>
+    <t>Чист мед</t>
+  </si>
+  <si>
+    <t>Използвайте го самостоятелно или като заместител на захарта.</t>
+  </si>
+  <si>
+    <t>Представете си, че можете да се движите свободно – без никакви ограничения. Свикнали сме да приемаме способността си да се движим за даденост, но тя е нещо повече от просто активиране на мускулите и ставите. Движението без затруднения ви позволява да се устремите към целите си.
+Знаем, че физическото състояния до голяма степен влияе върху останалите аспекти от живота ви – личен, професионален, социален и емоционален. Все пак именно от тази идея и философията ни, изградена на нейна база, се роди мотото „Изглеждай по-добре. Чувствай се по-добре“.
+Затова разработихме Forever Move – уникална натурална комбинация от две мощни съставки, подкрепяща мускулите и ставите, която няма да откриете никъде другаде по света.
+Отдавна знаем, че глюкозаминът и хондроитинът помагат на ставите и мускулите, но искахме още нещо. Търсехме средство, което действа бързо и има клинично проучени резултати. Затова се обърнахме към най-доброто от науката и от природата и създадохме комбинация с потвърден ефект след едва 7-10 дни. Доказано е дори, че клинично тя е близо пет пъти по-ефикасна от глюкозамина и хондроитина!</t>
+  </si>
+  <si>
+    <t>Патентована смес: натурална ципа от яйчна черупка марка NEM®, водноразтворим куркуминен комплекс (екстракт от корен на Curcuma Longa), рафинирано соево масло, желатин, глицерин, пречистена вода, оцветител (екстракт от тъмен рожков).</t>
+  </si>
+  <si>
+    <t>Приемайте по три гел капсули дневно.</t>
+  </si>
+  <si>
+    <t>Патентована пробиотична комбинация с 8 млрд. CFU (единици, формиращи колонии): бифидобактериум лактис (5,2 млн./30 mg), лактобацилус рамнозус (1,15 млн. / 20 mg), лактобацилус реутери (580 млн. / 10 mg), лактобацилус ацидофилус (580 млн. / 8 mg), бифидобактериум лонгум (200 млн. / 5 mg), бифидобактериум бифидум (290 млн. / 5 mg); хидролизиран царевичен декстрин, глазиращ агент (хидроксипропил метилцелулоза), фруктоолигозахариди, цинков глюконат, антислепващ агент (магнезиев стеарат), оцветител (калциев карбонат), антислепващ агент (силициев диоксид).</t>
+  </si>
+  <si>
+    <t>По една капсула дневно с вода 30 мин. преди хранене.</t>
+  </si>
+  <si>
+    <t>Подсладители (ксилитол, сорбитол), калций (калциев малат), магнезий (магнезиев малат), ЕС витаминна смес [витамин С (L-аскорбинова киселина), стабилизатор (микрокристална целулоза), ниацин (никотинамид), пантотенова киселина (D-калциев пантотенат), витамин В6 (пиридоксин хидрохлорид), витамин В2 (рибофлавин), витамин В1 (тиамин мононитрат), витамин А (ретинил палмитат), фолиева киселина, биотин (D-биотин), витамин D (холекалциферол), витамин В12 (цианокобаламин)], аромат (грозде и праскова), регулатор на киселинността (лимонена киселина), оцветител (екстракт от гроздови люспи (сулфити) 4% антоцианини), цинк (цинков бисглицинат), патентована смес плодове и зеленчуци (ябълка на прах, фибри от захарно цвекло, оризово брашно, червена чушка на прах, домати на прах, ягоди на прах, червена боровинка на прах, сок от ацерола концентрат, спанак на прах, зеле на прах, лук на прах, броколи на прах, кейл на прах, мангостан на прах, тиква на прах, цвекло на прах, синя боровинка на прах, асаи на прах, годжи на прах, морков на прах, сок от грозде концентрат, сок от нар концентрат), антислепващ агент (стеаринова киселина), витамин Е (D-алфа токоферил ацетат), желязо (железен бисглицинат), антислепващи агенти (силициев диоксид, магнезиев стеарат), подсладител (сукралоза), сгъстител (гума гуар), мед (меден глюконат).</t>
+  </si>
+  <si>
+    <t>Деца над 10 г. и възрастни – по четири таблетки дневно.
+Деца от 2 до 10 г. – по една таблетка дневно под родителски контрол.
+Препоръчително е таблетките да се дъвчат.</t>
+  </si>
+  <si>
+    <t>AOS ComplexТМ Advanced Cellular Support комбинация (калциев бисглицинат, магнезиев бисглицинат, цитрусови биофлавоноиди, гел от алое вера, хесперидин, коензим Q10, лутеин, ликопен, зеаксантин), стабилизатори (микрокристална целулоза, силициев диоксид), Forever FVX20 комбинация от плодове на прах (ябълка, цвекло, червена чушка, домати, ягоди, червена боровинка, ацерола, зеле, спанак, лук, мангостан, акаи, къпина, нар, синя боровинка, броколи, кейл, морков, тиква, грозде), L-аскорбинова киселина, антислепващ агент (мастни киселини), D-алфа токоферол, железен бисглицинат, антислепващ агент (натриева карбокси метил целулоза), цинков бисглицинат, никотинамид, аромат (ванилия), глазиращи агенти (натриева карбокси метил целулоза, тринатриев цитрат), декстрин, декстроза, средноверижни триглицериди, меден бисглицинат, бета-каротин, калиев йодид, калциев D-пантотенат, манганов бисглицинат, L-селенометионин, биотин, холекалциферол, рибофлавин, тиамин хидрохлорид, пиридоксин хидрохлорид, пиридоксал-5’-фосфат, цианкобаламин, хром пиколинат, фолиева киселина, натриев молибдат.</t>
+  </si>
+  <si>
+    <t>По две таблетки дневно като хранителна добавка.</t>
+  </si>
+  <si>
+    <t>Калций (дикалциев фосфат) - 333 mg
+Фосфор (дикалциев фосфат) - 257 mg
+Магнезий (магнезиев оксид) - 133 mg
+Желязо (железен фумарат) - 6 mg
+Цинк (цинков сулфат) - 5 mg
+Мед (меден глюконат) - 0,67 mg
+Манган (манганов глюконат) - 0,67 mg
+Йод (калиев йодид) - 50 µg
+Селен (селенометионин) - 12 µg
+Молибден (натриев молибдат) - 12 µg
+ДРУГИ СЪСТАВКИ
+Естествена морска минерална утайка, емулгатор (микрокристална целулоза), антислепващ агент (стеаринова киселина), пълнител (кроскармелоза натрий).</t>
+  </si>
+  <si>
+    <t>Два пъти на ден по една таблетка. (Съгл. Наредба №47 на МЗ):</t>
+  </si>
+  <si>
+    <t>Екстракт от лициум (Lycium barbarum), на прах (плод) - 300 мг, екстракт от женско биле (Glycyrrhiza glabra), на прах (корен) - 37,5 мг, емулгатор (микрокристална целулоза), сгъстител (целулоза), пълнител (кроскармелозен натрий), антислепващи агенти (стеаринова киселина, силициев диоксид), стабилизатор (магнезиев стеарат), глазиращи агенти (декстрин, декстроза, средноверижни триглицериди, натриев цитрат).</t>
+  </si>
+  <si>
+    <t>По една таблетка три пъти на ден.</t>
+  </si>
+  <si>
+    <t>От хиляди години азиатските народи използват плода на Lycium barbarum и женското биле, за да поддържат доброто си здраве.
+Форевър лициум плюс е хранителна добавка – източник на антиоксиданти, биофлавоноиди и други полезни фитонутриенти.
+Плодът на лициума, по-известен като годжи бери, е родом от Китай, където се използва от векове. Богат на аминокиселини и витамини, лициумът е известен като „ин“ тоник. Доказано е, че подобрява зрението, придава цвят на лицето, подхранва черния дроб и бъбреците и има общоподсилващи и противосъстаряващи свойства.
+Счита се, че женското биле, наричано още сладък корен, е най-широко използваната билка в китайската медицина. Тя съдържа над 150 химически съединения с благотворно влияние при възпаления, треска, рани, язви, болки в гърлото и кашлица. Въпреки че нерядко се използва самостоятелно, значително по-често се употребява като допълваща билка в множество рецепти, а главната й функция е да засилва действието на другите билки. Отличен спътник е и на лициума.
+Флавоноидният извлек от женско биле представлява концентрирана форма на биофлавоноиди. Произвежда се по патентован процес, отстраняващ по-голямата част от глициризина – много сладък компонент на женското биле с нежелателни странични ефекти. Според съвременните проучвания биофлавоноидите на сладкия корен са сред най-силните антиоксиданти.От хиляди години азиатските народи използват плода на Lycium barbarum и женското биле, за да поддържат доброто си здраве.
+Форевър лициум плюс е хранителна добавка – източник на антиоксиданти, биофлавоноиди и други полезни фитонутриенти.
+Плодът на лициума, по-известен като годжи бери, е родом от Китай, където се използва от векове. Богат на аминокиселини и витамини, лициумът е известен като „ин“ тоник. Доказано е, че подобрява зрението, придава цвят на лицето, подхранва черния дроб и бъбреците и има общоподсилващи и противосъстаряващи свойства.
+Счита се, че женското биле, наричано още сладък корен, е най-широко използваната билка в китайската медицина. Тя съдържа над 150 химически съединения с благотворно влияние при възпаления, треска, рани, язви, болки в гърлото и кашлица. Въпреки че нерядко се използва самостоятелно, значително по-често се употребява като допълваща билка в множество рецепти, а главната й функция е да засилва действието на другите билки. Отличен спътник е и на лициума.
+Флавоноидният извлек от женско биле представлява концентрирана форма на биофлавоноиди. Произвежда се по патентован процес, отстраняващ по-голямата част от глициризина – много сладък компонент на женското биле с нежелателни странични ефекти. Според съвременните проучвания биофлавоноидите на сладкия корен са сред най-силните антиоксиданти.От хиляди години азиатските народи използват плода на Lycium barbarum и женското биле, за да поддържат доброто си здраве.
+Форевър лициум плюс е хранителна добавка – източник на антиоксиданти, биофлавоноиди и други полезни фитонутриенти.
+Плодът на лициума, по-известен като годжи бери, е родом от Китай, където се използва от векове. Богат на аминокиселини и витамини, лициумът е известен като „ин“ тоник. Доказано е, че подобрява зрението, придава цвят на лицето, подхранва черния дроб и бъбреците и има общоподсилващи и противосъстаряващи свойства.
+Счита се, че женското биле, наричано още сладък корен, е най-широко използваната билка в китайската медицина. Тя съдържа над 150 химически съединения с благотворно влияние при възпаления, треска, рани, язви, болки в гърлото и кашлица. Въпреки че нерядко се използва самостоятелно, значително по-често се употребява като допълваща билка в множество рецепти, а главната й функция е да засилва действието на другите билки. Отличен спътник е и на лициума.
+Флавоноидният извлек от женско биле представлява концентрирана форма на биофлавоноиди. Произвежда се по патентован процес, отстраняващ по-голямата част от глициризина – много сладък компонент на женското биле с нежелателни странични ефекти. Според съвременните проучвания биофлавоноидите на сладкия корен са сред най-силните антиоксиданти.</t>
+  </si>
+  <si>
+    <t>Четири процента от теглото на нашето тяло са минерали. Човешкият организъм не може да произвежда минерали и затова трябва да си ги набавя чрез храната. С интензивното изчерпване на тези елементи от почвите, приемането на добавки става все по-наложително.
+Минералите извършват три основни функции в организма.
+Някои изграждат костите и зъбите, като например калций, фосфор и магнезий.
+Други под форма на разтворими соли контролират състава на телесните течности и клетки. Например, калият и натрият регулират течностите. Силният им недостиг води до отоци или обезводняване.
+Минералите, като например желязото в хемоглобина, извършват множество други жизненоважни задачи. Комбинират дейността си с много ензими и протеини, които участват в освобождаването и усвояването на енергия.
+Форевър нейчър-мин представлява подобрена мулти-минерална формула, съдържаща нови био-форми на GTF хром и селен за максимално усвояване. Осигурява минерали и микроелементи в една напълно балансирана пропорция – условие, изключително важно за ефективното им функциониране. Минералната основа се състои от 100 мг естествена утайка от морското дъно, формирана от хелатни минерални елементи от растителен и животински морски произход, като морски треви, скариди и водорасли. Минералите от морското дъно са богати на микроелементи.
+Форевър нейчър-мин е отличен начин да сте сигурни, че организмът ви получава минералите и микроелементите, от които се нуждае, за здравословен и балансиран начин на живот.</t>
+  </si>
+  <si>
+    <t>Форевър дейли е уникална хранителна добавка с революционна система за оптимално усвояване на хранителните вещества, благодарение на патентования АОЗ комплекс от алое и олигозахариди на Форевър Ливинг Продъктс. Всекидневната хранителна добавка на Форевър е идеално балансирана комбинация от 55 нутриента, сред които незаменими витамини и минерали. Тя осигурява по-ефикасно усвояване на хранителните съставки, а минералите насочва към конкретни системи в организма.
+Широкоспектърният профил на Форевър дейли също така доставя оптимални количества важни натурални фитонутриенти, биофлавоноиди, съвременни антиоксиданти с молекулярна технология и патентована комбинация от плодове и зеленчуци. Така можете да сте сигурни, че тялото ви получава всички незаменими и полу-незаменими основни микро и макро нутриенти, необходими за добро здраве.
+Тази уникална формула е създадена, за да подхранва и защитава организма, като попълва липсите във всекидневното ни хранене и осигурява оптимално здраве и жизненост.</t>
+  </si>
+  <si>
+    <t>Осигурете на децата си хранителните вещества, от които се нуждаят всеки ден, с дъвчащите мултивитамини Форевър кидс. Тези вкусни таблетки осигуряват на възрастни и деца над двегодишна възраст жизненоважните витамини, минерали, желязо и фитонутриенти, които може би им липсват.
+Желязото е нова съставка в осъвременената формула на Форевър кидс, заради ролята си в имунната защита и умственото развитие. Дефицитът му е често срещан, а функциите му в тялото подкрепят цялостното здраве.
+Фитонутриентите са особено полезни съставки на растенията. Усъвършенстваната ни формула съдържа повече фитонутриенти от още по-добре подбрани плодове и зеленчуци. Резултатът е мултивитамин с отличен вкус, който чудесно допълва гамата от хранителни добавки на Форевър.
+Формулата на продукта не съдържа изкуствени оцветители и консерванти, а фитонутриентите са извлечени от питателни храни като моркови, цвекло, броколи, спанак, сини боровинки, ябълки, червени боровинки, домати, ягоди, тиква и по-екзотичните и много нашумели напоследък нар, мангостан, асаи и годжи бери. Натуралният аромат на грозде ще хареса и на вас и на децата ви.</t>
+  </si>
+  <si>
+    <t>Актив про-Б действа основно в червата, където подпомага процеса на смилане на храната, съдейства за усвояване на хранителните вещества и допринася за нормалния растеж и развитие на човека, като осигурява балансирана среда за силен имунитет и здрава храносмилателна система.
+Форевър актив про-Б съдържа FloraActive – серия от полезни пробиотични щамове, разработени в Университетската болница в Копенхаген – лидер в областта на гастроентерологията. Със своите шест различни пробиотични щама, Форевър актив про-Б осигурява осем милиарда CFU (единици, формиращи колонии) в една капсула. Формулата включва и пребиотични фибри, идеални за поддържането на полезните микроорганизми по време на тяхното съхранение, транспортиране и доставяне до червата. Пребиотиците осигуряват идеална среда за живот и размножаване на пробиотиците.
+Тъй като пробиотиците са доста уязвими, Форевър актив про-Б използва ексклузивна криогенна защитна технология, която съхранява полезните бактерии при производство и през целия срок на годност на продукта. Самите пробиотични щамове са подбрани така, че да са високо устойчиви на стомашната киселина и жлъчните соли, за да стигнат до червата невредими. Според клиничните изследвания точно тези видове микроорганизми имат по-висока способност да оцеляват при преминаване през стомашно-чревния тракт, да образуват колонии и да се размножават.
+Но това не е всичко. Форевър актив про-Б е в изцяло растителни капсули, опаковани в уникален флакон с Activ-Vial™ технология. Новата технология включва специално разработен слой вграден в стената на флакона, който защитава продукта от влага и осигурява максимално добро съхранение на живите бактерии.
+Опитайте Форевър актив про-Б в комбинация с нашия гел от алое вера, който действа като пребиотик. Независимо дали целта ви е да подкрепите здравето на храносмилателната си система или да подобрите усвояването на хранителни вещества и функцията на имунитета, добавете Форевър актив про-Б към дневния си режим.</t>
+  </si>
+  <si>
+    <t>Caprylic/Capric Triglyceride, C15-19 Alkane, Tocopheryl Acetate, Hydrogenated Polyisobutene, Aloe Barbadensis Leaf Extract, Retinyl Palmitate, Borago Officinalis Seed Oil, Lecithin, Bisabolol, Carathamus Tinctorius (Safflower) Seed Oil, Fragrance (Parfum).</t>
+  </si>
+  <si>
+    <t>Нанасяйте по лицето, шията и сухи участъци по тялото. За допълнителна хидратация леко навлажнете кожата с алое активатор, преди да нанесете маслото. Можете да комбинирате възобновяващото масло и с любимия си Форевър хидрадант.</t>
+  </si>
+  <si>
+    <t>Aloe Barbadensis Leaf Juice (Stabilized Aloe Vera Gel/gel d’aloes officinal stabilise), Water (Aqua/Eau), Propanediol, Butylene Glycol, Macadamia Integrifolia Seed Oil, C12-15 Alkyl Benzoate, Glyceryl Stearate, Lauryl Lactate, Dimethicone, Helianthus Annuus (Sunflower) Seed Oil, Cetyl Alcohol, Sorbitol, Methyl Gluceth-20, Isostearyl Hydroxystearate, Arginine, PEG-100 Stearate, Carbomer, Pinus Strobus Bark Extract, Glycerin, Palmitoyl Tripeptide-5, Ceramide NP, Ceramide AP, Ceramide EOP, Phytosphingosine, Cholesterol, Sodium Lauroyl Lactylate, Xanthan Gum, Sodium Hyaluronate, Phenoxyethanol, Potassium Sorbate, Sodium Benzoate, Chlorphenesin, Fragrance (Parfum).</t>
+  </si>
+  <si>
+    <t>Използвайте вечер за интензивно, дълбоко овлажняване. С връхчетата на пръстите нанесете крема по лицето и шията. Втрийте с масажни движения.</t>
+  </si>
+  <si>
+    <t>След като почистите, нанесете върху лицето, шията и други места по желание. За да получите най-добър резултат, употребявайте сутрин и вечер.</t>
+  </si>
+  <si>
+    <t>Изсипете една лъжичка от маската за лице в малка купичка. Добавете една лъжичка Алое активатор и разбъркайте, докато сместа заприлича на лосион. С козметична четка нежно нанесете тънък, равномерен слой върху лицето (като избягвате областта около очите), с движения нагоре и навън. Започнете от основата на шията и постепенно разпределете лосиона върху лицето и шията. Отпуснете се в легнало положение и избягвайте движения на лицето в продължение на около 30 минути.
+Отстранете маската, като най-напред я омекотите с леко затоплена, влажна кърпа. След това старателно изплакнете с топла вода. Продължете с хидратиращия тоник или с любимия си хидратант.
+Бележка: може да почувствате свиване на мускулите малко след нанасяне на сместа. В отделни случаи за кратко време може да почувствате лек сърбеж. Ако това се случи, натиснете плътно с върха на пръста си мястото до спиране на сърбежа. НЕ РАЗТРИВАЙТЕ И НЕ ДРАСКАЙТЕ.</t>
+  </si>
+  <si>
+    <t>Aloe Barbadensis Leaf Juice, Aqua, Butylene Glycol, Squalane, Methyl Gluceth-20, Cetyl Dimethicone, Prunus Armeniaca Kernel Oil, Glyceryl Stearate, Acrylamide/Sodium Acryloyldimethyltaurate Copolymer, Tocopheryl Linoleate, Tocopheryl Acetate, Saccharum Officinarum Extract, Pyrus Malus Fruit Extract, Camellia Sinensis Leaf Extract, Citrus Aurantium Dulcis Fruit Extract, Citrus Limon Fruit Extract, PEG-100 Stearate, Retinyl Palmitate, Glycolic Acid, Sodium Hyaluronate, Ascorbic Acid, Caprylyl Glycol, 1,2-Hexanediol, Collagen, C13-14 Isopara-ffin, Triethanolamine, Laureth-7, Citric Acid, Sodium Citrate, Parfum, Benzyl Salicylate, Alpha-Isomethyl Ionone, Hydroxycitronellal, Linalool, Amyl Cinnamal, Eugenol, Benzyl Benzoate, Diazolidinyl Urea, Methylparaben, Propylparaben, Sodium Benzoate, Potassium Sorbate, Phenoxyethanol.</t>
+  </si>
+  <si>
+    <t>Albumen, Zea Mays Starch, Kaolin, Allantoin, Diazolidinyl Urea, Aluminium Hydroxide, Parfum, Chamomilla Recutita Flower Extract, CI 45410.</t>
+  </si>
+  <si>
+    <t>Възобновяващото масло за лице помага на кожата ви да се справя със стресовите фактори на околната среда, като същевременно възстановява влагата, подкрепя еластичността и допринася за намаляване на признаците на стареене. Леката формула се плъзга по лицето с лекота, без да съдържа силикони.
+Неблагоприятни влияния като замърсяването на въздуха и ултравиолетовите лъчи могат да увредят кожата и да я изсушат прекомерно. В такива случаи на помощ идва възобновяващото масло за лице на Форевър.
+Неговата антиоксидантна сила се дължи на витамин E, който има двойното действие да помага в борбата с агресията на околната среда и да омекотява и обгрижва кожата. Подхранващите съставки включват и други антиоксиданти като витамин A (ретинил палмитат), които също могат да допринасят за защита от външните стресови фактори и за по-елегантно остаряване.
+Маслото от семена на пореч осигурява висока концентрация на незаменими мастни киселини за хидратацията на суха или чувствителна кожа. Те действат като натурални ензимни агенти за възстановяване на влагата.
+Дайте на кожата си храната, от която се нуждае, за да изглежда по-свежа и млада!</t>
+  </si>
+  <si>
+    <t>Дълбоко овлажняващият крем с алое и екстракт от борова кора ще утоли жаждата на кожата ви по неповторим начин.
+Екстрактът от борова кора съдържа естествени съставки, наречени олигомерни проантоцианидини, които притежават едни от най-силните антиоксидантни свойства, открити в природата. Ето защо този извлек се бори със свободните радикали, за да допринесе за запазването и подсилването на колагена в кожата - протеинът, присъстващ в човешкия организъм в най-изобилни количества. Според учените борбата със свободните радикали е един от най-добрите начини за противопоставяне на признаците на стареенето.
+Екстрактът от борова кора е съчетан с чист, стабилизиран гел от алое вера, серамиди и овлажняващи съставки от най-ново поколение. Всички те допринасят за доставяне и задържане на влагата дълбоко във външните слоеве на кожата, за да се възстанови и запази нейното младежко сияние.</t>
+  </si>
+  <si>
+    <t>Алфахидроксикиселините са извлечени от естествени растителни източници и понякога ги наричат „плодови киселини“. Лесно е да се разбере защо: гликоловата киселина, много малка и дълбоко проникваща молекула, е извлечена от захарната тръстика, лимонената киселина – от цитрусови плодове, винената киселина е получена от грозде, а ябълчената киселина – от ябълки. Взети заедно имат ексфолииращо действие, тъй като отделят мъртвите клетки от повърхността на кожата чрез разтваряне на естествените вещества, които задържат мъртвите клетки в тъканта. Сухи и лющещи се, повърхностните клетки не могат ефективно да предотвратяват загубата на влага, а в добавка създават и бариера за овлажняващите кремове. Равномерното освобождаване на кожата от тези мъртви клетки гарантира, че в процеса на възстановяване ще останат по-свежите клетки. Тъй като са нужни 21-28 дни за едно пълно завършване на процеса на възстановяване на кожата, сходен период е нужен и за да усетите благотворното действие на защитния крем R3 фактор.
+Редица производители и професионални козметици смятат, че плодовите киселини са най-важните агенти в грижата за кожата. Дори се твърди, че те помагат при кожни проблеми, вариращи от акне до свръхпигментация и белези вследствие излагане на слънчевите лъчи. Някои кремове на пазара обаче могат да причинят дразнене. Съчетанието от алфахидроксикиселини и успокояващите свойства на стабилизирания гел от алое вера в нашия продукт не допуска подобен проблем. Витамините А и Е също играят важна роля. Витамин Е е мощен антиоксидант, докато витамин А помага за поддържане на кожата здрава. Кремът за лице „R3 фактор“ е мощен съюзник борбата срещу безпощадното влияние на времето и допринася за запазване на младежкия вид на кожата.</t>
+  </si>
+  <si>
+    <t>Прахообразната маска за лице на Форевър е уникална комбинация от богати съставки, подбрани заради специалните си способности да успокояват кожата и да почистват порите. Смесва се идеално с алое активатор и създава лесен за нанасяне върху лицето и шията лосион. Албуменът и царевичното нишесте имат изпъващи и стягащи свойства, а каолинът абсорбира излишната мазнина. Алантоинът и лайката успокояват и възстановяват клетките на кожата, като ускоряват растежа на нови клетки.</t>
+  </si>
+  <si>
+    <t>Слънце, вятър, замърсен въздух. Всеки ден те оставят отпечатък върху кожата ни. Сега можете да се защитите с нашия изключителен овлажняващ алое лосион.
+Този уникален лосион има превъзходни хидратантни свойства. Съдържа колаген и еластин за гладка, мека и еластична кожа като едновременно запазва естествения рН-баланс. Идеален е за възстановяване на загубената влажност и мекота на кожата. Овлажняващият алое лосион е отличен крем за лице, ръце и тяло, проникващ на клетъчно ниво и противодействащ на процеса на стареене, причинен от замърсявания или неблагоприятното влияние на околната среда. Веднъж нанесен и абсорбиран от кожата, той е идеална основа за грим.</t>
+  </si>
+  <si>
+    <t>Aloe Barbadensis Leaf Juice, Aqua, C12-15 Alkyl Benzoate, Stearic Acid, Glyceryl Stearate, Hydrogenated Polyisobutene, Methyl Gluceth-20, Sorbitol, Prunus Armeniaca Kernel Oil, Polysorbate 60, Simmondsia Chinensis Seed Oil, Chamomilla Recutita Flower Extract, Hydrolyzed Elastin, Sodium PCA, Collagen, Triethanolamine, Cetyl Alcohol, PEG-100 Stearate, Ascorbic Acid, Tocopherol, Citric Acid, Propylene Glycol, Glycine Soja Oil, Allantoin, Dimethicone, Sodium Hyaluronate, Parfum, Amyl Cinnamal, Benzyl Salicylate, Hexyl Cinnamal, Linalool, Hydroxyisohexyl 3-Cyclohexene Carboxaldehyde , Diazolidinyl Urea, Methylparaben, Propylparaben, Potassium Sorbate, Sodium Benzoate</t>
+  </si>
+  <si>
+    <t>Нанесете върху лицето, ръцете и тялото. Нежно масажирайте, докато попие добре. Когато го използвате като основа за грим, нанесете по-обилно до образуването на фин слой.</t>
+  </si>
+  <si>
+    <t>Форевър терм има мощна формула за повишаване на енергията и стимулиране на метаболизма, която ви помага да контролирате теглото си по-ефективно. Пристъпването към програма за отслабване често е стряскащо, а пътят до желаните цели изглежда дълъг и изнурителен. Две ключови стъпки, които ще ви изведат на пътя към успеха, са здравословен хранителен режим с контрол на калорийния прием и създаване на навик за редовна физическа активност. Има и помощни средства за подкрепа на усилията ви. Едно от тях се нарича Форевър терм – продукт, ускоряващ отслабването, за да видите резултатите по-скоро, като постигнете желаната форма и килограми. Уникалното съчетание на растителни екстракти и хранителни вещества във Форевър терм може да ви помогне да стимулирате метаболизма си и да извлечете максимума от полаганите усилия.
+Екстрактът от зелен чай съдържа мощни полифенолни съединения, наречени катехини. Те имат антиоксидантно действие, активизират метаболизма и е доказано, че подпомагат термогенезата – процеса на изгаряне на мазнини за производство на енергия в тялото. Форевър терм предлага и натурални кофеинови алкалоиди от семена на гуарана за повече енергия по време на фитнес тренировки и в забързаното ежедневие. Според проучванията зеленият чай влиза в синергично действие с естествения кофеин и така стимулира термогенезата.</t>
+  </si>
+  <si>
+    <t>Форевър гарциния плюс е революционна хранителна добавка, съдържаща множество елементи, които подпомагат освобождаването на организма от излишните килограми.
+Основната съставка е натурално вещество, извличано от плода на южноазиатското дърво гарциния камбоджия, известно и като малабар тамаринд. В изсушена форма кората на плода се използва за синтез на хидроксилимонена киселина (ХЛК). По химичен състав ХЛК много прилича на лимонената киселина в портокалите и други цитрусови плодове. Плодът на гарцинията е с големината на портокал, но прилича повече на тиква. През вековете този плод е бил използван за кулинарни и лечебни цели в Южна Индия и Тайланд.
+Специалистите откриват удивителните свойства на ХЛК в края на 60-те години на ХХ в., когато става ясно, че съединението намалява синтеза на мазнини от въглехидрати в организма. По време на нормалния метаболизъм след хранене въглехидратните калории, които не се използват непосредствено за произодство на енергия и не се складират под формата на гликоген, се превръщат в мазнини от черния дроб. ХЛК действа като инхибира ензима, който превръща тези калории в мазнини. В резултат тялото изгаря наличните мастни запаси и така спомага за загуба на телесно тегло.
+Освен това ХЛК потиска апетита по естествен начин. След като е създаден достатъчно гликоген и е складиран в черния дроб, мозъкът получава съобщение, че е била приета достатъчно храна. Това действие се нарича рефлекс за ситост и потиска желанието за храна.</t>
+  </si>
+  <si>
+    <t>Форевър фибри ви зарежда с 5 грама бързоразтворими влакнини в удобни индивидуални дози за подкрепа на здравословното хранене. Специалистите препоръчват да приемаме до 30 г фибри дневно за оптимално здраве и храносмилателни функции, но за съжаление повечето от нас си набавят едва половината от това количество. В стремежа си към удобство в храненето ние не консумираме достатъчно влакнини, за да се чувстваме добре. Форевър фибри представлява патентована комбинация от четири вида баластни вещества и е практичен начин да добавяте влакнини към всекидневния си режим. Можете да ги поръсвате върху храната, да ги разтваряте в гел от алое вера или друга напитка, както и да ги изсипвате в бутилката си с вода, когато сте в движение.
+И макар често да свързваме фибрите само с подкрепата, която оказват на храносмилателната система, те имат благотворен ефект и върху останалите части на тялото. Приемани между храненията, Форевър фибри ще ви помагат да се чувствате по-сити и така ще контролират апетита и консумираните калории. Това е особено важно за хората на режим за контрол на теглото, които съчетават Форевър фибри със здравословна храна и редовно движение. Влакнините могат да допринесат и за задържане на кръвната захар в нормални граници и да забавят усвояването на макронутриенти от храната. Ето защо имат потенциала да ни помагат да не се чувстваме вяли и отпаднали след ядене.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изпивайте по едно пакетче Форевър фибри на ден. За оптимални резултати, изсипвайте съдържанието в чаша и добавяйте вода, гел от алое вера или друга течност и разбърквайте старателно. Можете да поръсвате продукта и върху храна. Препоръчително е Форевър фибри да се взима поне 30 минути преди или след друга хранителна добавка, тъй като влакнините се свързват с някои хранителни вещества и повлияват усвояването им.
+</t>
+  </si>
+  <si>
+    <t>Екстракт от Garcinia Cambogia (кора) на прах, шафранено масло, желатин (капсула), глицерин, средноверижно триглицеридно растително масло, пречистена вода, пчелен восък, соев лецитин, екстракт от рожков, оцветител (титаниев диоксид).
+Всяка гел капсула съдържа 500 мг извлек от Гарциния Камбоджия (осигуряваща 250 мг ХЛК) и 100 мкг хромен пиколинат.</t>
+  </si>
+  <si>
+    <t>По една таблетка около 30 минути преди хранене три пъти дневно. (Ефективната дозировка на ХЛК започва от 500 мг. Ако Форевър гарциния плюс се приема три пъти на ден, ХЛК става няколко пъти по-ефективна. Препоръчваме ви да пиете поне 2 л вода на ден (осем до десет чаши по 250 мл) предимно между, а не по време на храненията).</t>
+  </si>
+  <si>
+    <t>Препоръчва се дневен прием от две таблетки наведнъж или два пъти по една таблетка – сутрин и на обяд. За оптимални резултати не приемайте след 18.00 ч., поради натуралното кофеиново съдържание на продукта.</t>
+  </si>
+  <si>
+    <t>Патентована Форевър комбинация от влакнини (акациева гума, разтворими царевични влакнини, разтворим царевичен декстрин, фруктоолигозахариди).</t>
+  </si>
+  <si>
+    <t>Патентована термогенна комбинация (екстракт от листа на зелен чай/ Camellia sinensis, екстракт от семена на гуарана, екстракт от зърна на кафе/Coffea Robusta), стабилизатор (микрокристална целулоза), аскорбинова киселина, антислепващи агенти (мастни киселини, натриева карбокси метил целулоза, силициев диоксид), глазиращи агенти (натриева карбокси метил целулоза, декстрин, декстроза, средноверижни триглицериди, натриев цитрат), никотинамид, D-калциев пантотенат, пиридоксин хидрохлорид, рибофлавин, тиамин хидрохлорид, фолиева киселина, цианокобаламин.</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/PjdMnmnA</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/mB7BAATW</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/JkLWFa3S</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/qSeDu6PY</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/K9lkL4Ym</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/sjZIM5uZ</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/oSlwE4mE</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/CUcSsnJG</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/jYzp3pc5</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/AIRUExZl</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/LzBV8QvV</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/wjYmanXz</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/fyrdPQ48</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/yo7w1dl1</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/0pVzCab2</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/MBS0gCQ2</t>
+  </si>
 </sst>
 </file>
 
@@ -3172,7 +3121,7 @@
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;лв.&quot;;[Red]\-#,##0.00\ &quot;лв.&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;лв.&quot;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3218,14 +3167,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF92D050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -3242,29 +3183,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3291,7 +3209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3354,7 +3272,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3390,34 +3308,29 @@
     <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3435,6 +3348,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3717,10 +3633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U127"/>
+  <dimension ref="A1:T127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3731,16 +3647,15 @@
     <col min="4" max="4" width="33.5546875" style="7" customWidth="1"/>
     <col min="5" max="5" width="28.88671875" customWidth="1"/>
     <col min="9" max="9" width="17.21875" style="27"/>
-    <col min="10" max="12" width="17.21875" style="57"/>
+    <col min="10" max="12" width="17.21875" style="52"/>
     <col min="13" max="13" width="17.21875" style="26"/>
     <col min="17" max="17" width="8" customWidth="1"/>
     <col min="18" max="18" width="7.88671875" customWidth="1"/>
     <col min="19" max="19" width="21.5546875" customWidth="1"/>
     <col min="20" max="20" width="35.33203125" customWidth="1"/>
-    <col min="21" max="21" width="33.21875" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="30" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="30" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>623</v>
       </c>
@@ -3751,7 +3666,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>836</v>
+        <v>737</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>0</v>
@@ -3768,13 +3683,13 @@
       <c r="I1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="55" t="s">
-        <v>837</v>
-      </c>
-      <c r="L1" s="55" t="s">
+      <c r="K1" s="50" t="s">
+        <v>738</v>
+      </c>
+      <c r="L1" s="50" t="s">
         <v>12</v>
       </c>
       <c r="M1" s="29" t="s">
@@ -3801,11 +3716,8 @@
       <c r="T1" s="30" t="s">
         <v>625</v>
       </c>
-      <c r="U1" s="38" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3816,7 +3728,7 @@
         <v>1000</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>739</v>
+        <v>640</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
@@ -3846,7 +3758,7 @@
         <v>41.677999999999997</v>
       </c>
       <c r="M2" s="5" t="str">
-        <f>C2 &amp; ".html"</f>
+        <f t="shared" ref="M2:M32" si="0">C2 &amp; ".html"</f>
         <v>1000.html</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -3873,11 +3785,8 @@
       <c r="T2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="39" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3888,7 +3797,7 @@
         <v>1001</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>740</v>
+        <v>641</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
@@ -3897,7 +3806,7 @@
         <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>888</v>
+        <v>789</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>22</v>
@@ -3906,19 +3815,19 @@
         <v>59.54</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" ref="J3:J81" si="0">I3 * 0.95</f>
+        <f t="shared" ref="J3:J81" si="1">I3 * 0.95</f>
         <v>56.562999999999995</v>
       </c>
       <c r="K3" s="6">
-        <f t="shared" ref="K3:K79" si="1">I3 * 0.85</f>
+        <f t="shared" ref="K3:K79" si="2">I3 * 0.85</f>
         <v>50.608999999999995</v>
       </c>
       <c r="L3" s="6">
-        <f t="shared" ref="L3:L81" si="2">I3 * 0.7</f>
+        <f t="shared" ref="L3:L81" si="3">I3 * 0.7</f>
         <v>41.677999999999997</v>
       </c>
       <c r="M3" s="5" t="str">
-        <f>C3 &amp; ".html"</f>
+        <f t="shared" si="0"/>
         <v>1001.html</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -3945,11 +3854,8 @@
       <c r="T3" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="39" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3960,7 +3866,7 @@
         <v>1075</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>741</v>
+        <v>642</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>26</v>
@@ -3969,7 +3875,7 @@
         <v>27</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>889</v>
+        <v>790</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>28</v>
@@ -3978,19 +3884,19 @@
         <v>59.54</v>
       </c>
       <c r="J4" s="6">
+        <f t="shared" si="1"/>
+        <v>56.562999999999995</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" si="2"/>
+        <v>50.608999999999995</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" si="3"/>
+        <v>41.677999999999997</v>
+      </c>
+      <c r="M4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>56.562999999999995</v>
-      </c>
-      <c r="K4" s="6">
-        <f t="shared" si="1"/>
-        <v>50.608999999999995</v>
-      </c>
-      <c r="L4" s="6">
-        <f t="shared" si="2"/>
-        <v>41.677999999999997</v>
-      </c>
-      <c r="M4" s="5" t="str">
-        <f>C4 &amp; ".html"</f>
         <v>1075.html</v>
       </c>
       <c r="N4" s="8" t="s">
@@ -4017,11 +3923,8 @@
       <c r="T4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="39" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4032,7 +3935,7 @@
         <v>1002</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>742</v>
+        <v>643</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>38</v>
@@ -4050,19 +3953,19 @@
         <v>59.54</v>
       </c>
       <c r="J5" s="6">
+        <f t="shared" si="1"/>
+        <v>56.562999999999995</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" si="2"/>
+        <v>50.608999999999995</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="3"/>
+        <v>41.677999999999997</v>
+      </c>
+      <c r="M5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>56.562999999999995</v>
-      </c>
-      <c r="K5" s="6">
-        <f t="shared" si="1"/>
-        <v>50.608999999999995</v>
-      </c>
-      <c r="L5" s="6">
-        <f t="shared" si="2"/>
-        <v>41.677999999999997</v>
-      </c>
-      <c r="M5" s="5" t="str">
-        <f>C5 &amp; ".html"</f>
         <v>1002.html</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -4083,17 +3986,14 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1002a.jpg</v>
       </c>
       <c r="S5" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C114 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" ref="S5:S12" si="4" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C114 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1002b.jpg</v>
       </c>
       <c r="T5" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="39" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4104,7 +4004,7 @@
         <v>1003</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>743</v>
+        <v>644</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>44</v>
@@ -4122,19 +4022,19 @@
         <v>178.61</v>
       </c>
       <c r="J6" s="6">
+        <f t="shared" si="1"/>
+        <v>169.67950000000002</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="2"/>
+        <v>151.8185</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="3"/>
+        <v>125.027</v>
+      </c>
+      <c r="M6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>169.67950000000002</v>
-      </c>
-      <c r="K6" s="6">
-        <f t="shared" si="1"/>
-        <v>151.8185</v>
-      </c>
-      <c r="L6" s="6">
-        <f t="shared" si="2"/>
-        <v>125.027</v>
-      </c>
-      <c r="M6" s="5" t="str">
-        <f>C6 &amp; ".html"</f>
         <v>1003.html</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -4149,17 +4049,14 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C6:C115 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1003b.jpg</v>
       </c>
       <c r="T6" t="s">
         <v>47</v>
       </c>
-      <c r="U6" s="39" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4170,7 +4067,7 @@
         <v>1004</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>744</v>
+        <v>645</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>48</v>
@@ -4188,19 +4085,19 @@
         <v>178.61</v>
       </c>
       <c r="J7" s="6">
+        <f t="shared" si="1"/>
+        <v>169.67950000000002</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="2"/>
+        <v>151.8185</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="3"/>
+        <v>125.027</v>
+      </c>
+      <c r="M7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>169.67950000000002</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" si="1"/>
-        <v>151.8185</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" si="2"/>
-        <v>125.027</v>
-      </c>
-      <c r="M7" s="5" t="str">
-        <f>C7 &amp; ".html"</f>
         <v>1004.html</v>
       </c>
       <c r="N7" s="8" t="s">
@@ -4215,17 +4112,14 @@
       <c r="Q7" s="10"/>
       <c r="R7" s="8"/>
       <c r="S7" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C7:C116 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1004b.jpg</v>
       </c>
       <c r="T7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="U7" s="40" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4236,7 +4130,7 @@
         <v>1005</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>745</v>
+        <v>646</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>52</v>
@@ -4254,19 +4148,19 @@
         <v>178.61</v>
       </c>
       <c r="J8" s="6">
+        <f t="shared" si="1"/>
+        <v>169.67950000000002</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="2"/>
+        <v>151.8185</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="3"/>
+        <v>125.027</v>
+      </c>
+      <c r="M8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>169.67950000000002</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" si="1"/>
-        <v>151.8185</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" si="2"/>
-        <v>125.027</v>
-      </c>
-      <c r="M8" s="5" t="str">
-        <f>C8 &amp; ".html"</f>
         <v>1005.html</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -4281,17 +4175,14 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C8:C117 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1005b.jpg</v>
       </c>
       <c r="T8" t="s">
         <v>55</v>
       </c>
-      <c r="U8" s="39" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4302,7 +4193,7 @@
         <v>1084</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>746</v>
+        <v>647</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>56</v>
@@ -4311,7 +4202,7 @@
         <v>57</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>890</v>
+        <v>791</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>58</v>
@@ -4319,20 +4210,20 @@
       <c r="I9" s="12">
         <v>178.61</v>
       </c>
-      <c r="J9" s="47">
+      <c r="J9" s="43">
+        <f t="shared" si="1"/>
+        <v>169.67950000000002</v>
+      </c>
+      <c r="K9" s="43">
+        <f t="shared" si="2"/>
+        <v>151.8185</v>
+      </c>
+      <c r="L9" s="43">
+        <f t="shared" si="3"/>
+        <v>125.027</v>
+      </c>
+      <c r="M9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>169.67950000000002</v>
-      </c>
-      <c r="K9" s="47">
-        <f t="shared" si="1"/>
-        <v>151.8185</v>
-      </c>
-      <c r="L9" s="47">
-        <f t="shared" si="2"/>
-        <v>125.027</v>
-      </c>
-      <c r="M9" s="12" t="str">
-        <f>C9 &amp; ".html"</f>
         <v>1084.html</v>
       </c>
       <c r="N9" s="8"/>
@@ -4345,17 +4236,14 @@
       <c r="Q9" s="10"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C9:C118 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1084b.jpg</v>
       </c>
-      <c r="T9" s="45" t="s">
+      <c r="T9" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="U9" s="45" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4366,7 +4254,7 @@
         <v>1006</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>747</v>
+        <v>648</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>62</v>
@@ -4384,19 +4272,19 @@
         <v>238.12</v>
       </c>
       <c r="J10" s="6">
+        <f t="shared" si="1"/>
+        <v>226.214</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="2"/>
+        <v>202.40199999999999</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="3"/>
+        <v>166.684</v>
+      </c>
+      <c r="M10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>226.214</v>
-      </c>
-      <c r="K10" s="6">
-        <f t="shared" si="1"/>
-        <v>202.40199999999999</v>
-      </c>
-      <c r="L10" s="6">
-        <f t="shared" si="2"/>
-        <v>166.684</v>
-      </c>
-      <c r="M10" s="5" t="str">
-        <f>C10 &amp; ".html"</f>
         <v>1006.html</v>
       </c>
       <c r="N10" s="1" t="s">
@@ -4417,17 +4305,14 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1006a.jpg</v>
       </c>
       <c r="S10" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C10:C119 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1006b.jpg</v>
       </c>
       <c r="T10" t="s">
         <v>65</v>
       </c>
-      <c r="U10" s="39" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4438,7 +4323,7 @@
         <v>1007</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>748</v>
+        <v>649</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>66</v>
@@ -4456,19 +4341,19 @@
         <v>238.12</v>
       </c>
       <c r="J11" s="6">
+        <f t="shared" si="1"/>
+        <v>226.214</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="2"/>
+        <v>202.40199999999999</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="3"/>
+        <v>166.684</v>
+      </c>
+      <c r="M11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>226.214</v>
-      </c>
-      <c r="K11" s="6">
-        <f t="shared" si="1"/>
-        <v>202.40199999999999</v>
-      </c>
-      <c r="L11" s="6">
-        <f t="shared" si="2"/>
-        <v>166.684</v>
-      </c>
-      <c r="M11" s="5" t="str">
-        <f>C11 &amp; ".html"</f>
         <v>1007.html</v>
       </c>
       <c r="N11" s="1" t="s">
@@ -4489,17 +4374,14 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1007a.jpg</v>
       </c>
       <c r="S11" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C11:C120 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1007b.jpg</v>
       </c>
       <c r="T11" t="s">
         <v>71</v>
       </c>
-      <c r="U11" s="39" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4510,7 +4392,7 @@
         <v>1008</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>749</v>
+        <v>650</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>72</v>
@@ -4528,19 +4410,19 @@
         <v>238.12</v>
       </c>
       <c r="J12" s="6">
+        <f t="shared" si="1"/>
+        <v>226.214</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="2"/>
+        <v>202.40199999999999</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="3"/>
+        <v>166.684</v>
+      </c>
+      <c r="M12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>226.214</v>
-      </c>
-      <c r="K12" s="6">
-        <f t="shared" si="1"/>
-        <v>202.40199999999999</v>
-      </c>
-      <c r="L12" s="6">
-        <f t="shared" si="2"/>
-        <v>166.684</v>
-      </c>
-      <c r="M12" s="5" t="str">
-        <f>C12 &amp; ".html"</f>
         <v>1008.html</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -4558,17 +4440,14 @@
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C12:C121 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1008b.jpg</v>
       </c>
       <c r="T12" t="s">
         <v>75</v>
       </c>
-      <c r="U12" s="39" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4579,7 +4458,7 @@
         <v>1010</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>750</v>
+        <v>651</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>89</v>
@@ -4601,7 +4480,7 @@
         <v>38.057000000000002</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.051000000000002</v>
       </c>
       <c r="L13" s="6">
@@ -4609,7 +4488,7 @@
         <v>28.041999999999998</v>
       </c>
       <c r="M13" s="5" t="str">
-        <f>C13 &amp; ".html"</f>
+        <f t="shared" si="0"/>
         <v>1010.html</v>
       </c>
       <c r="N13" s="1" t="s">
@@ -4634,11 +4513,8 @@
       <c r="T13" t="s">
         <v>94</v>
       </c>
-      <c r="U13" s="39" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4649,7 +4525,7 @@
         <v>1009</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>751</v>
+        <v>652</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>76</v>
@@ -4667,19 +4543,19 @@
         <v>81.36</v>
       </c>
       <c r="J14" s="6">
+        <f t="shared" si="1"/>
+        <v>77.292000000000002</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="2"/>
+        <v>69.155999999999992</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="3"/>
+        <v>56.951999999999998</v>
+      </c>
+      <c r="M14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>77.292000000000002</v>
-      </c>
-      <c r="K14" s="6">
-        <f t="shared" si="1"/>
-        <v>69.155999999999992</v>
-      </c>
-      <c r="L14" s="6">
-        <f t="shared" si="2"/>
-        <v>56.951999999999998</v>
-      </c>
-      <c r="M14" s="5" t="str">
-        <f>C14 &amp; ".html"</f>
         <v>1009.html</v>
       </c>
       <c r="N14" s="1" t="s">
@@ -4703,11 +4579,8 @@
       <c r="T14" t="s">
         <v>82</v>
       </c>
-      <c r="U14" s="39" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4718,16 +4591,16 @@
         <v>1082</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>752</v>
+        <v>653</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>838</v>
+        <v>739</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>839</v>
+        <v>740</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>33</v>
@@ -4740,7 +4613,7 @@
         <v>52.734499999999997</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47.183499999999995</v>
       </c>
       <c r="L15" s="6">
@@ -4748,7 +4621,7 @@
         <v>38.856999999999999</v>
       </c>
       <c r="M15" s="5" t="str">
-        <f>C15 &amp; ".html"</f>
+        <f t="shared" si="0"/>
         <v>1082.html</v>
       </c>
       <c r="N15" s="8" t="s">
@@ -4775,11 +4648,8 @@
       <c r="T15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="U15" s="39" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4790,7 +4660,7 @@
         <v>1076</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>753</v>
+        <v>654</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>83</v>
@@ -4812,7 +4682,7 @@
         <v>8.1509999999999998</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.2930000000000001</v>
       </c>
       <c r="L16" s="6">
@@ -4820,7 +4690,7 @@
         <v>6.0059999999999993</v>
       </c>
       <c r="M16" s="5" t="str">
-        <f>C16 &amp; ".html"</f>
+        <f t="shared" si="0"/>
         <v>1076.html</v>
       </c>
       <c r="N16" s="8" t="s">
@@ -4845,11 +4715,8 @@
       <c r="T16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="U16" s="39" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:20" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4860,7 +4727,7 @@
         <v>1011</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>754</v>
+        <v>655</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>95</v>
@@ -4878,19 +4745,19 @@
         <v>8.58</v>
       </c>
       <c r="J17" s="36">
+        <f t="shared" si="1"/>
+        <v>8.1509999999999998</v>
+      </c>
+      <c r="K17" s="36">
+        <f t="shared" si="2"/>
+        <v>7.2930000000000001</v>
+      </c>
+      <c r="L17" s="36">
+        <f t="shared" si="3"/>
+        <v>6.0059999999999993</v>
+      </c>
+      <c r="M17" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>8.1509999999999998</v>
-      </c>
-      <c r="K17" s="36">
-        <f t="shared" si="1"/>
-        <v>7.2930000000000001</v>
-      </c>
-      <c r="L17" s="36">
-        <f t="shared" si="2"/>
-        <v>6.0059999999999993</v>
-      </c>
-      <c r="M17" s="21" t="str">
-        <f>C17 &amp; ".html"</f>
         <v>1011.html</v>
       </c>
       <c r="N17" s="20" t="s">
@@ -4909,17 +4776,14 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1011a.jpg</v>
       </c>
       <c r="S17" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C17:C125 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" ref="S17:S25" si="5" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C17:C125 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1011b.jpg</v>
       </c>
       <c r="T17" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="U17" s="22" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4930,7 +4794,7 @@
         <v>1012</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>755</v>
+        <v>656</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>101</v>
@@ -4948,19 +4812,19 @@
         <v>27.48</v>
       </c>
       <c r="J18" s="6">
+        <f t="shared" si="1"/>
+        <v>26.105999999999998</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" si="2"/>
+        <v>23.358000000000001</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="3"/>
+        <v>19.236000000000001</v>
+      </c>
+      <c r="M18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>26.105999999999998</v>
-      </c>
-      <c r="K18" s="6">
-        <f t="shared" si="1"/>
-        <v>23.358000000000001</v>
-      </c>
-      <c r="L18" s="6">
-        <f t="shared" si="2"/>
-        <v>19.236000000000001</v>
-      </c>
-      <c r="M18" s="5" t="str">
-        <f>C18 &amp; ".html"</f>
         <v>1012.html</v>
       </c>
       <c r="N18" s="1" t="s">
@@ -4976,17 +4840,14 @@
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C18:C126 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1012b.jpg</v>
       </c>
       <c r="T18" t="s">
         <v>106</v>
       </c>
-      <c r="U18" s="41" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4997,7 +4858,7 @@
         <v>1078</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>756</v>
+        <v>657</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>107</v>
@@ -5015,19 +4876,19 @@
         <v>32.61</v>
       </c>
       <c r="J19" s="6">
+        <f t="shared" si="1"/>
+        <v>30.979499999999998</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="2"/>
+        <v>27.718499999999999</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="3"/>
+        <v>22.826999999999998</v>
+      </c>
+      <c r="M19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>30.979499999999998</v>
-      </c>
-      <c r="K19" s="6">
-        <f t="shared" si="1"/>
-        <v>27.718499999999999</v>
-      </c>
-      <c r="L19" s="6">
-        <f t="shared" si="2"/>
-        <v>22.826999999999998</v>
-      </c>
-      <c r="M19" s="5" t="str">
-        <f>C19 &amp; ".html"</f>
         <v>1078.html</v>
       </c>
       <c r="N19" s="8" t="s">
@@ -5046,17 +4907,14 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1078a.jpg</v>
       </c>
       <c r="S19" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C19:C127 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1078b.jpg</v>
       </c>
       <c r="T19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="U19" s="39" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5067,7 +4925,7 @@
         <v>1013</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>757</v>
+        <v>658</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>113</v>
@@ -5085,19 +4943,19 @@
         <v>40.06</v>
       </c>
       <c r="J20" s="6">
+        <f t="shared" si="1"/>
+        <v>38.057000000000002</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="2"/>
+        <v>34.051000000000002</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="3"/>
+        <v>28.041999999999998</v>
+      </c>
+      <c r="M20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>38.057000000000002</v>
-      </c>
-      <c r="K20" s="6">
-        <f t="shared" si="1"/>
-        <v>34.051000000000002</v>
-      </c>
-      <c r="L20" s="6">
-        <f t="shared" si="2"/>
-        <v>28.041999999999998</v>
-      </c>
-      <c r="M20" s="5" t="str">
-        <f>C20 &amp; ".html"</f>
         <v>1013.html</v>
       </c>
       <c r="N20" s="1" t="s">
@@ -5113,17 +4971,14 @@
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C20:C128 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1013b.jpg</v>
       </c>
       <c r="T20" t="s">
         <v>118</v>
       </c>
-      <c r="U20" s="39" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5134,7 +4989,7 @@
         <v>1014</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>758</v>
+        <v>659</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>119</v>
@@ -5152,19 +5007,19 @@
         <v>72.680000000000007</v>
       </c>
       <c r="J21" s="6">
+        <f t="shared" si="1"/>
+        <v>69.046000000000006</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="2"/>
+        <v>61.778000000000006</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="3"/>
+        <v>50.876000000000005</v>
+      </c>
+      <c r="M21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>69.046000000000006</v>
-      </c>
-      <c r="K21" s="6">
-        <f t="shared" si="1"/>
-        <v>61.778000000000006</v>
-      </c>
-      <c r="L21" s="6">
-        <f t="shared" si="2"/>
-        <v>50.876000000000005</v>
-      </c>
-      <c r="M21" s="5" t="str">
-        <f>C21 &amp; ".html"</f>
         <v>1014.html</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -5180,17 +5035,14 @@
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C21:C129 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1014b.jpg</v>
       </c>
       <c r="T21" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="U21" s="39" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5201,7 +5053,7 @@
         <v>1015</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>759</v>
+        <v>660</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>125</v>
@@ -5219,19 +5071,19 @@
         <v>156.84</v>
       </c>
       <c r="J22" s="6">
+        <f t="shared" si="1"/>
+        <v>148.99799999999999</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="2"/>
+        <v>133.31399999999999</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="3"/>
+        <v>109.788</v>
+      </c>
+      <c r="M22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>148.99799999999999</v>
-      </c>
-      <c r="K22" s="6">
-        <f t="shared" si="1"/>
-        <v>133.31399999999999</v>
-      </c>
-      <c r="L22" s="6">
-        <f t="shared" si="2"/>
-        <v>109.788</v>
-      </c>
-      <c r="M22" s="5" t="str">
-        <f>C22 &amp; ".html"</f>
         <v>1015.html</v>
       </c>
       <c r="N22" s="1" t="s">
@@ -5250,17 +5102,14 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1015a.jpg</v>
       </c>
       <c r="S22" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C22:C130 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1015b.jpg</v>
       </c>
       <c r="T22" t="s">
         <v>130</v>
       </c>
-      <c r="U22" s="39" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5271,7 +5120,7 @@
         <v>1016</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>760</v>
+        <v>661</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>131</v>
@@ -5280,7 +5129,7 @@
         <v>132</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>885</v>
+        <v>786</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>133</v>
@@ -5289,19 +5138,19 @@
         <v>35.5</v>
       </c>
       <c r="J23" s="6">
+        <f t="shared" si="1"/>
+        <v>33.725000000000001</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" si="2"/>
+        <v>30.175000000000001</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="3"/>
+        <v>24.849999999999998</v>
+      </c>
+      <c r="M23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>33.725000000000001</v>
-      </c>
-      <c r="K23" s="6">
-        <f t="shared" si="1"/>
-        <v>30.175000000000001</v>
-      </c>
-      <c r="L23" s="6">
-        <f t="shared" si="2"/>
-        <v>24.849999999999998</v>
-      </c>
-      <c r="M23" s="5" t="str">
-        <f>C23 &amp; ".html"</f>
         <v>1016.html</v>
       </c>
       <c r="N23" s="1" t="s">
@@ -5317,17 +5166,14 @@
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C23:C131 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1016b.jpg</v>
       </c>
       <c r="T23" t="s">
         <v>136</v>
       </c>
-      <c r="U23" s="39" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5338,7 +5184,7 @@
         <v>1017</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>761</v>
+        <v>662</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>137</v>
@@ -5356,19 +5202,19 @@
         <v>34.909999999999997</v>
       </c>
       <c r="J24" s="6">
+        <f t="shared" si="1"/>
+        <v>33.164499999999997</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="2"/>
+        <v>29.673499999999997</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="3"/>
+        <v>24.436999999999998</v>
+      </c>
+      <c r="M24" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>33.164499999999997</v>
-      </c>
-      <c r="K24" s="6">
-        <f t="shared" si="1"/>
-        <v>29.673499999999997</v>
-      </c>
-      <c r="L24" s="6">
-        <f t="shared" si="2"/>
-        <v>24.436999999999998</v>
-      </c>
-      <c r="M24" s="5" t="str">
-        <f>C24 &amp; ".html"</f>
         <v>1017.html</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -5384,17 +5230,14 @@
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C24:C132 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1017b.jpg</v>
       </c>
       <c r="T24" t="s">
         <v>142</v>
       </c>
-      <c r="U24" s="39" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5405,7 +5248,7 @@
         <v>1018</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>762</v>
+        <v>663</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>143</v>
@@ -5423,19 +5266,19 @@
         <v>72.680000000000007</v>
       </c>
       <c r="J25" s="6">
+        <f t="shared" si="1"/>
+        <v>69.046000000000006</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="2"/>
+        <v>61.778000000000006</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="3"/>
+        <v>50.876000000000005</v>
+      </c>
+      <c r="M25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>69.046000000000006</v>
-      </c>
-      <c r="K25" s="6">
-        <f t="shared" si="1"/>
-        <v>61.778000000000006</v>
-      </c>
-      <c r="L25" s="6">
-        <f t="shared" si="2"/>
-        <v>50.876000000000005</v>
-      </c>
-      <c r="M25" s="5" t="str">
-        <f>C25 &amp; ".html"</f>
         <v>1018.html</v>
       </c>
       <c r="N25" s="1" t="s">
@@ -5451,17 +5294,14 @@
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C25:C133 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1018b.jpg</v>
       </c>
       <c r="T25" t="s">
         <v>148</v>
       </c>
-      <c r="U25" s="39" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5472,7 +5312,7 @@
         <v>1026</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>773</v>
+        <v>674</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>197</v>
@@ -5489,20 +5329,20 @@
       <c r="I26" s="12">
         <v>75.58</v>
       </c>
-      <c r="J26" s="47">
+      <c r="J26" s="43">
         <f>I26 * 0.95</f>
         <v>71.801000000000002</v>
       </c>
-      <c r="K26" s="47">
+      <c r="K26" s="43">
         <f>I26 * 0.85</f>
         <v>64.242999999999995</v>
       </c>
-      <c r="L26" s="47">
+      <c r="L26" s="43">
         <f>I26 * 0.7</f>
         <v>52.905999999999999</v>
       </c>
       <c r="M26" s="12" t="str">
-        <f>C26 &amp; ".html"</f>
+        <f t="shared" si="0"/>
         <v>1026.html</v>
       </c>
       <c r="N26" s="8" t="s">
@@ -5524,11 +5364,8 @@
       <c r="T26" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="U26" s="45" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:20" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5539,18 +5376,20 @@
         <v>1114</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>902</v>
+        <v>803</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>892</v>
+        <v>793</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>894</v>
-      </c>
-      <c r="H27" s="17"/>
+        <v>795</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>816</v>
+      </c>
       <c r="I27" s="18">
         <v>38.36</v>
       </c>
@@ -5567,21 +5406,33 @@
         <v>26.851999999999997</v>
       </c>
       <c r="M27" s="18" t="str">
-        <f>C27 &amp; ".html"</f>
+        <f t="shared" si="0"/>
         <v>1114.html</v>
       </c>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
+      <c r="N27" s="14" t="s">
+        <v>817</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>818</v>
+      </c>
       <c r="P27" s="14"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="14"/>
+      <c r="Q27" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C27:C110 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1114.jpg</v>
+      </c>
+      <c r="R27" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C27:C110 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1114a.jpg</v>
+      </c>
       <c r="S27" s="14" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C27:C143 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1114b.jpg</v>
       </c>
-      <c r="U27" s="42"/>
-    </row>
-    <row r="28" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T27" s="19" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5592,7 +5443,7 @@
         <v>1019</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>763</v>
+        <v>664</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>149</v>
@@ -5610,19 +5461,19 @@
         <v>54.94</v>
       </c>
       <c r="J28" s="6">
+        <f t="shared" si="1"/>
+        <v>52.192999999999998</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="2"/>
+        <v>46.698999999999998</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="3"/>
+        <v>38.457999999999998</v>
+      </c>
+      <c r="M28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>52.192999999999998</v>
-      </c>
-      <c r="K28" s="6">
-        <f t="shared" si="1"/>
-        <v>46.698999999999998</v>
-      </c>
-      <c r="L28" s="6">
-        <f t="shared" si="2"/>
-        <v>38.457999999999998</v>
-      </c>
-      <c r="M28" s="5" t="str">
-        <f>C28 &amp; ".html"</f>
         <v>1019.html</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -5638,17 +5489,14 @@
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C28:C134 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" ref="S28:S37" si="6" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C28:C134 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1019b.jpg</v>
       </c>
       <c r="T28" t="s">
         <v>154</v>
       </c>
-      <c r="U28" s="39" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5659,7 +5507,7 @@
         <v>1020</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>764</v>
+        <v>665</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>155</v>
@@ -5677,19 +5525,19 @@
         <v>41.79</v>
       </c>
       <c r="J29" s="6">
+        <f t="shared" si="1"/>
+        <v>39.700499999999998</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="2"/>
+        <v>35.521499999999996</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" si="3"/>
+        <v>29.252999999999997</v>
+      </c>
+      <c r="M29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>39.700499999999998</v>
-      </c>
-      <c r="K29" s="6">
-        <f t="shared" si="1"/>
-        <v>35.521499999999996</v>
-      </c>
-      <c r="L29" s="6">
-        <f t="shared" si="2"/>
-        <v>29.252999999999997</v>
-      </c>
-      <c r="M29" s="5" t="str">
-        <f>C29 &amp; ".html"</f>
         <v>1020.html</v>
       </c>
       <c r="N29" s="1" t="s">
@@ -5702,17 +5550,14 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C29:C135 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1020b.jpg</v>
       </c>
       <c r="T29" t="s">
         <v>160</v>
       </c>
-      <c r="U29" s="39" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5723,7 +5568,7 @@
         <v>1021</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>765</v>
+        <v>666</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>161</v>
@@ -5732,7 +5577,7 @@
         <v>162</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>887</v>
+        <v>788</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>163</v>
@@ -5741,19 +5586,19 @@
         <v>61.25</v>
       </c>
       <c r="J30" s="6">
+        <f t="shared" si="1"/>
+        <v>58.1875</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" si="2"/>
+        <v>52.0625</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="3"/>
+        <v>42.875</v>
+      </c>
+      <c r="M30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>58.1875</v>
-      </c>
-      <c r="K30" s="6">
-        <f t="shared" si="1"/>
-        <v>52.0625</v>
-      </c>
-      <c r="L30" s="6">
-        <f t="shared" si="2"/>
-        <v>42.875</v>
-      </c>
-      <c r="M30" s="5" t="str">
-        <f>C30 &amp; ".html"</f>
         <v>1021.html</v>
       </c>
       <c r="N30" s="1" t="s">
@@ -5769,17 +5614,14 @@
       </c>
       <c r="R30" s="1"/>
       <c r="S30" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C30:C136 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1021b.jpg</v>
       </c>
       <c r="T30" t="s">
         <v>166</v>
       </c>
-      <c r="U30" s="39" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:20" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5790,55 +5632,63 @@
         <v>1099</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>895</v>
+        <v>796</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>840</v>
+        <v>741</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>841</v>
+        <v>742</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>842</v>
+        <v>743</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>912</v>
+        <v>813</v>
       </c>
       <c r="I31" s="18">
         <v>191.18</v>
       </c>
       <c r="J31" s="23">
+        <f t="shared" si="1"/>
+        <v>181.62100000000001</v>
+      </c>
+      <c r="K31" s="23">
+        <f t="shared" si="2"/>
+        <v>162.50300000000001</v>
+      </c>
+      <c r="L31" s="23">
+        <f t="shared" si="3"/>
+        <v>133.82599999999999</v>
+      </c>
+      <c r="M31" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>181.62100000000001</v>
-      </c>
-      <c r="K31" s="23">
-        <f t="shared" si="1"/>
-        <v>162.50300000000001</v>
-      </c>
-      <c r="L31" s="23">
-        <f t="shared" si="2"/>
-        <v>133.82599999999999</v>
-      </c>
-      <c r="M31" s="18" t="str">
-        <f>C31 &amp; ".html"</f>
         <v>1099.html</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>913</v>
+        <v>814</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>914</v>
+        <v>815</v>
       </c>
       <c r="P31" s="14"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="14"/>
+      <c r="Q31" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C31:C114 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1099.jpg</v>
+      </c>
+      <c r="R31" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C31:C114 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1099a.jpg</v>
+      </c>
       <c r="S31" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C31:C137 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1099b.jpg</v>
       </c>
-      <c r="U31" s="42"/>
-    </row>
-    <row r="32" spans="1:21" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T31" s="19" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5849,49 +5699,60 @@
         <v>1100</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>896</v>
+        <v>797</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>843</v>
+        <v>744</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>854</v>
+        <v>755</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>855</v>
-      </c>
-      <c r="H32" s="17"/>
+        <v>756</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>819</v>
+      </c>
       <c r="I32" s="18">
         <v>143.1</v>
       </c>
       <c r="J32" s="23">
+        <f t="shared" si="1"/>
+        <v>135.94499999999999</v>
+      </c>
+      <c r="K32" s="23">
+        <f t="shared" si="2"/>
+        <v>121.63499999999999</v>
+      </c>
+      <c r="L32" s="23">
+        <f t="shared" si="3"/>
+        <v>100.16999999999999</v>
+      </c>
+      <c r="M32" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>135.94499999999999</v>
-      </c>
-      <c r="K32" s="23">
-        <f t="shared" si="1"/>
-        <v>121.63499999999999</v>
-      </c>
-      <c r="L32" s="23">
-        <f t="shared" si="2"/>
-        <v>100.16999999999999</v>
-      </c>
-      <c r="M32" s="18" t="str">
-        <f>C32 &amp; ".html"</f>
         <v>1100.html</v>
       </c>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
+      <c r="N32" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>821</v>
+      </c>
       <c r="P32" s="14"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="14"/>
+      <c r="Q32" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C32:C115 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1100.jpg</v>
+      </c>
+      <c r="R32" s="1"/>
       <c r="S32" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C32:C138 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1100b.jpg</v>
       </c>
-      <c r="U32" s="42"/>
-    </row>
-    <row r="33" spans="1:21" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T32" s="19" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5902,49 +5763,63 @@
         <v>1101</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>897</v>
+        <v>798</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>844</v>
+        <v>745</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>853</v>
+        <v>754</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>856</v>
-      </c>
-      <c r="H33" s="17"/>
+        <v>757</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>836</v>
+      </c>
       <c r="I33" s="18">
         <v>84.12</v>
       </c>
       <c r="J33" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>79.914000000000001</v>
       </c>
       <c r="K33" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71.501999999999995</v>
       </c>
       <c r="L33" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58.884</v>
       </c>
       <c r="M33" s="18" t="str">
-        <f t="shared" ref="M33:M37" si="3">C33 &amp; ".html"</f>
+        <f t="shared" ref="M33:M37" si="7">C33 &amp; ".html"</f>
         <v>1101.html</v>
       </c>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
+      <c r="N33" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>823</v>
+      </c>
       <c r="P33" s="14"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="14"/>
+      <c r="Q33" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C33:C116 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1101.jpg</v>
+      </c>
+      <c r="R33" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C33:C116 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1101a.jpg</v>
+      </c>
       <c r="S33" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C33:C139 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1101b.jpg</v>
       </c>
-      <c r="U33" s="42"/>
-    </row>
-    <row r="34" spans="1:21" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T33" s="19" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5955,49 +5830,57 @@
         <v>1102</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>898</v>
+        <v>799</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>845</v>
+        <v>746</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>852</v>
+        <v>753</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>857</v>
-      </c>
-      <c r="H34" s="17"/>
+        <v>758</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>835</v>
+      </c>
       <c r="I34" s="18">
         <v>32.07</v>
       </c>
       <c r="J34" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30.4665</v>
       </c>
       <c r="K34" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27.259499999999999</v>
       </c>
       <c r="L34" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.448999999999998</v>
       </c>
       <c r="M34" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1102.html</v>
       </c>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
+      <c r="N34" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="O34" s="17" t="s">
+        <v>825</v>
+      </c>
       <c r="P34" s="14"/>
       <c r="Q34" s="16"/>
       <c r="R34" s="14"/>
       <c r="S34" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C34:C140 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1102b.jpg</v>
       </c>
-      <c r="U34" s="42"/>
-    </row>
-    <row r="35" spans="1:21" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T34" s="19" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6008,49 +5891,63 @@
         <v>1103</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>899</v>
+        <v>800</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>846</v>
+        <v>747</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>851</v>
+        <v>752</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>858</v>
-      </c>
-      <c r="H35" s="17"/>
+        <v>759</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>834</v>
+      </c>
       <c r="I35" s="18">
         <v>47.53</v>
       </c>
       <c r="J35" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45.153500000000001</v>
       </c>
       <c r="K35" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40.400500000000001</v>
       </c>
       <c r="L35" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.271000000000001</v>
       </c>
       <c r="M35" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1103.html</v>
       </c>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
+      <c r="N35" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>827</v>
+      </c>
       <c r="P35" s="14"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="14"/>
+      <c r="Q35" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C35:C118 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1103.jpg</v>
+      </c>
+      <c r="R35" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C35:C118 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1103a.jpg</v>
+      </c>
       <c r="S35" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C35:C141 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1103b.jpg</v>
       </c>
-      <c r="U35" s="42"/>
-    </row>
-    <row r="36" spans="1:21" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T35" s="19" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6061,49 +5958,57 @@
         <v>1104</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>900</v>
+        <v>801</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>847</v>
+        <v>748</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>850</v>
+        <v>751</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>859</v>
-      </c>
-      <c r="H36" s="17"/>
+        <v>760</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>833</v>
+      </c>
       <c r="I36" s="18">
         <v>41.79</v>
       </c>
       <c r="J36" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39.700499999999998</v>
       </c>
       <c r="K36" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.521499999999996</v>
       </c>
       <c r="L36" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.252999999999997</v>
       </c>
       <c r="M36" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1104.html</v>
       </c>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
+      <c r="N36" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>829</v>
+      </c>
       <c r="P36" s="14"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="14"/>
       <c r="S36" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C36:C142 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1104b.jpg</v>
       </c>
-      <c r="U36" s="42"/>
-    </row>
-    <row r="37" spans="1:21" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T36" s="19" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6114,49 +6019,60 @@
         <v>1105</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>901</v>
+        <v>802</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>848</v>
+        <v>749</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>849</v>
+        <v>750</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>860</v>
-      </c>
-      <c r="H37" s="17"/>
+        <v>761</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>832</v>
+      </c>
       <c r="I37" s="18">
         <v>75.58</v>
       </c>
       <c r="J37" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71.801000000000002</v>
       </c>
       <c r="K37" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64.242999999999995</v>
       </c>
       <c r="L37" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52.905999999999999</v>
       </c>
       <c r="M37" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1105.html</v>
       </c>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
+      <c r="N37" s="14" t="s">
+        <v>830</v>
+      </c>
+      <c r="O37" s="14" t="s">
+        <v>831</v>
+      </c>
       <c r="P37" s="14"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="14"/>
+      <c r="Q37" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C37:C120 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1105.jpg</v>
+      </c>
+      <c r="R37" s="1"/>
       <c r="S37" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C37:C143 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1105b.jpg</v>
       </c>
-      <c r="U37" s="42"/>
-    </row>
-    <row r="38" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T37" s="19" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6167,7 +6083,7 @@
         <v>1085</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>766</v>
+        <v>667</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>167</v>
@@ -6176,7 +6092,7 @@
         <v>168</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>886</v>
+        <v>787</v>
       </c>
       <c r="H38" s="11" t="s">
         <v>169</v>
@@ -6184,20 +6100,20 @@
       <c r="I38" s="12">
         <v>14.9</v>
       </c>
-      <c r="J38" s="47">
-        <f t="shared" si="0"/>
+      <c r="J38" s="43">
+        <f t="shared" si="1"/>
         <v>14.154999999999999</v>
       </c>
-      <c r="K38" s="47">
-        <f t="shared" si="1"/>
+      <c r="K38" s="43">
+        <f t="shared" si="2"/>
         <v>12.664999999999999</v>
       </c>
-      <c r="L38" s="47">
-        <f t="shared" si="2"/>
+      <c r="L38" s="43">
+        <f t="shared" si="3"/>
         <v>10.43</v>
       </c>
       <c r="M38" s="12" t="str">
-        <f>C38 &amp; ".html"</f>
+        <f t="shared" ref="M38:M69" si="8">C38 &amp; ".html"</f>
         <v>1085.html</v>
       </c>
       <c r="N38" s="8" t="s">
@@ -6216,14 +6132,11 @@
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C38:C137 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1085b.jpg</v>
       </c>
-      <c r="T38" s="48" t="s">
+      <c r="T38" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="U38" s="48" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6234,7 +6147,7 @@
         <v>1022</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>767</v>
+        <v>668</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>173</v>
@@ -6251,20 +6164,20 @@
       <c r="I39" s="12">
         <v>84.69</v>
       </c>
-      <c r="J39" s="47">
-        <f t="shared" si="0"/>
+      <c r="J39" s="43">
+        <f t="shared" si="1"/>
         <v>80.455500000000001</v>
       </c>
-      <c r="K39" s="47">
-        <f t="shared" si="1"/>
+      <c r="K39" s="43">
+        <f t="shared" si="2"/>
         <v>71.986499999999992</v>
       </c>
-      <c r="L39" s="47">
-        <f t="shared" si="2"/>
+      <c r="L39" s="43">
+        <f t="shared" si="3"/>
         <v>59.282999999999994</v>
       </c>
       <c r="M39" s="12" t="str">
-        <f>C39 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1022.html</v>
       </c>
       <c r="N39" s="8" t="s">
@@ -6289,11 +6202,8 @@
       <c r="T39" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="U39" s="45" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6304,7 +6214,7 @@
         <v>1023</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>768</v>
+        <v>669</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>179</v>
@@ -6321,20 +6231,20 @@
       <c r="I40" s="12">
         <v>80.12</v>
       </c>
-      <c r="J40" s="47">
-        <f t="shared" si="0"/>
+      <c r="J40" s="43">
+        <f t="shared" si="1"/>
         <v>76.114000000000004</v>
       </c>
-      <c r="K40" s="47">
-        <f t="shared" si="1"/>
+      <c r="K40" s="43">
+        <f t="shared" si="2"/>
         <v>68.102000000000004</v>
       </c>
-      <c r="L40" s="47">
-        <f t="shared" si="2"/>
+      <c r="L40" s="43">
+        <f t="shared" si="3"/>
         <v>56.083999999999996</v>
       </c>
       <c r="M40" s="12" t="str">
-        <f>C40 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1023.html</v>
       </c>
       <c r="N40" s="8" t="s">
@@ -6356,11 +6266,8 @@
       <c r="T40" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="U40" s="45" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6371,44 +6278,44 @@
         <v>1097</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>769</v>
+        <v>670</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>723</v>
+        <v>626</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>724</v>
+        <v>627</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>730</v>
-      </c>
-      <c r="H41" s="52" t="s">
-        <v>728</v>
-      </c>
-      <c r="I41" s="53">
+        <v>632</v>
+      </c>
+      <c r="H41" s="47" t="s">
+        <v>630</v>
+      </c>
+      <c r="I41" s="48">
         <v>68.680000000000007</v>
       </c>
-      <c r="J41" s="47">
+      <c r="J41" s="43">
         <f>I41 * 0.95</f>
         <v>65.246000000000009</v>
       </c>
-      <c r="K41" s="47">
-        <f t="shared" si="1"/>
+      <c r="K41" s="43">
+        <f t="shared" si="2"/>
         <v>58.378000000000007</v>
       </c>
-      <c r="L41" s="47">
+      <c r="L41" s="43">
         <f>I41 * 0.7</f>
         <v>48.076000000000001</v>
       </c>
-      <c r="M41" s="54" t="str">
-        <f>C41 &amp; ".html"</f>
+      <c r="M41" s="49" t="str">
+        <f t="shared" si="8"/>
         <v>1097.html</v>
       </c>
-      <c r="N41" s="52" t="s">
-        <v>729</v>
-      </c>
-      <c r="O41" s="52" t="s">
-        <v>725</v>
+      <c r="N41" s="47" t="s">
+        <v>631</v>
+      </c>
+      <c r="O41" s="47" t="s">
+        <v>628</v>
       </c>
       <c r="Q41" s="10"/>
       <c r="R41" s="8"/>
@@ -6416,14 +6323,11 @@
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C41:C206 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1097b.jpg</v>
       </c>
-      <c r="T41" s="45" t="s">
-        <v>727</v>
-      </c>
-      <c r="U41" s="45" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T41" s="41" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6434,44 +6338,44 @@
         <v>1098</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>770</v>
+        <v>671</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>731</v>
+        <v>633</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>732</v>
+        <v>634</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="H42" s="52" t="s">
-        <v>736</v>
-      </c>
-      <c r="I42" s="53">
+        <v>635</v>
+      </c>
+      <c r="H42" s="47" t="s">
+        <v>638</v>
+      </c>
+      <c r="I42" s="48">
         <v>69.27</v>
       </c>
-      <c r="J42" s="47">
+      <c r="J42" s="43">
         <f>I42 * 0.95</f>
         <v>65.8065</v>
       </c>
-      <c r="K42" s="47">
-        <f t="shared" si="1"/>
+      <c r="K42" s="43">
+        <f t="shared" si="2"/>
         <v>58.879499999999993</v>
       </c>
-      <c r="L42" s="47">
+      <c r="L42" s="43">
         <f>I42 * 0.7</f>
         <v>48.488999999999997</v>
       </c>
-      <c r="M42" s="54" t="str">
-        <f>C42 &amp; ".html"</f>
+      <c r="M42" s="49" t="str">
+        <f t="shared" si="8"/>
         <v>1098.html</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="O42" s="52" t="s">
-        <v>735</v>
+        <v>636</v>
+      </c>
+      <c r="O42" s="47" t="s">
+        <v>637</v>
       </c>
       <c r="Q42" s="10" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C42:C142 &amp;".jpg"</f>
@@ -6485,14 +6389,11 @@
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C42:C206 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1098b.jpg</v>
       </c>
-      <c r="T42" s="45" t="s">
-        <v>737</v>
-      </c>
-      <c r="U42" s="45" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T42" s="41" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6503,7 +6404,7 @@
         <v>1024</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>771</v>
+        <v>672</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>185</v>
@@ -6520,20 +6421,20 @@
       <c r="I43" s="12">
         <v>187.14</v>
       </c>
-      <c r="J43" s="47">
-        <f t="shared" si="0"/>
+      <c r="J43" s="43">
+        <f t="shared" si="1"/>
         <v>177.78299999999999</v>
       </c>
-      <c r="K43" s="47">
-        <f t="shared" si="1"/>
+      <c r="K43" s="43">
+        <f t="shared" si="2"/>
         <v>159.06899999999999</v>
       </c>
-      <c r="L43" s="47">
-        <f t="shared" si="2"/>
+      <c r="L43" s="43">
+        <f t="shared" si="3"/>
         <v>130.99799999999999</v>
       </c>
       <c r="M43" s="12" t="str">
-        <f>C43 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1024.html</v>
       </c>
       <c r="N43" s="8" t="s">
@@ -6558,11 +6459,8 @@
       <c r="T43" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="U43" s="45" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6573,7 +6471,7 @@
         <v>1025</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>772</v>
+        <v>673</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>191</v>
@@ -6590,20 +6488,20 @@
       <c r="I44" s="12">
         <v>60.68</v>
       </c>
-      <c r="J44" s="47">
-        <f t="shared" si="0"/>
+      <c r="J44" s="43">
+        <f t="shared" si="1"/>
         <v>57.645999999999994</v>
       </c>
-      <c r="K44" s="47">
-        <f t="shared" si="1"/>
+      <c r="K44" s="43">
+        <f t="shared" si="2"/>
         <v>51.577999999999996</v>
       </c>
-      <c r="L44" s="47">
-        <f t="shared" si="2"/>
+      <c r="L44" s="43">
+        <f t="shared" si="3"/>
         <v>42.475999999999999</v>
       </c>
       <c r="M44" s="12" t="str">
-        <f>C44 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1025.html</v>
       </c>
       <c r="N44" s="8" t="s">
@@ -6628,11 +6526,8 @@
       <c r="T44" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="U44" s="45" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6643,7 +6538,7 @@
         <v>1027</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>774</v>
+        <v>675</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>203</v>
@@ -6652,7 +6547,7 @@
         <v>204</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>891</v>
+        <v>792</v>
       </c>
       <c r="H45" s="11" t="s">
         <v>205</v>
@@ -6660,20 +6555,20 @@
       <c r="I45" s="12">
         <v>88.12</v>
       </c>
-      <c r="J45" s="47">
-        <f t="shared" si="0"/>
+      <c r="J45" s="43">
+        <f t="shared" si="1"/>
         <v>83.713999999999999</v>
       </c>
-      <c r="K45" s="47">
-        <f t="shared" si="1"/>
+      <c r="K45" s="43">
+        <f t="shared" si="2"/>
         <v>74.902000000000001</v>
       </c>
-      <c r="L45" s="47">
-        <f t="shared" si="2"/>
+      <c r="L45" s="43">
+        <f t="shared" si="3"/>
         <v>61.683999999999997</v>
       </c>
       <c r="M45" s="12" t="str">
-        <f>C45 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1027.html</v>
       </c>
       <c r="N45" s="8" t="s">
@@ -6692,17 +6587,14 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1027a.jpg</v>
       </c>
       <c r="S45" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C45:C143 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" ref="S45:S63" si="9" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C45:C143 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1027b.jpg</v>
       </c>
       <c r="T45" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="U45" s="45" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6713,7 +6605,7 @@
         <v>1028</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>775</v>
+        <v>676</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>209</v>
@@ -6731,19 +6623,19 @@
         <v>68.680000000000007</v>
       </c>
       <c r="J46" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65.246000000000009</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.378000000000007</v>
       </c>
       <c r="L46" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48.076000000000001</v>
       </c>
       <c r="M46" s="5" t="str">
-        <f>C46 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1028.html</v>
       </c>
       <c r="N46" s="1" t="s">
@@ -6759,17 +6651,14 @@
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C46:C144 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1028b.jpg</v>
       </c>
       <c r="T46" t="s">
         <v>214</v>
       </c>
-      <c r="U46" s="39" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6780,7 +6669,7 @@
         <v>1029</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>776</v>
+        <v>677</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>215</v>
@@ -6798,19 +6687,19 @@
         <v>72.680000000000007</v>
       </c>
       <c r="J47" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69.046000000000006</v>
       </c>
       <c r="K47" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61.778000000000006</v>
       </c>
       <c r="L47" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50.876000000000005</v>
       </c>
       <c r="M47" s="5" t="str">
-        <f>C47 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1029.html</v>
       </c>
       <c r="N47" s="1" t="s">
@@ -6826,17 +6715,14 @@
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C47:C145 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1029b.jpg</v>
       </c>
       <c r="T47" t="s">
         <v>220</v>
       </c>
-      <c r="U47" s="39" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:20" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6847,7 +6733,7 @@
         <v>1030</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>777</v>
+        <v>678</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>221</v>
@@ -6865,19 +6751,19 @@
         <v>118.46</v>
       </c>
       <c r="J48" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112.53699999999999</v>
       </c>
       <c r="K48" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100.69099999999999</v>
       </c>
       <c r="L48" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82.921999999999997</v>
       </c>
       <c r="M48" s="21" t="str">
-        <f>C48 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1030.html</v>
       </c>
       <c r="N48" s="20" t="s">
@@ -6896,17 +6782,14 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1030a.jpg</v>
       </c>
       <c r="S48" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C48:C146 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1030b.jpg</v>
       </c>
       <c r="T48" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="U48" s="51" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6917,7 +6800,7 @@
         <v>1031</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>778</v>
+        <v>679</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>227</v>
@@ -6935,19 +6818,19 @@
         <v>36.61</v>
       </c>
       <c r="J49" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34.779499999999999</v>
       </c>
       <c r="K49" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.118499999999997</v>
       </c>
       <c r="L49" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.626999999999999</v>
       </c>
       <c r="M49" s="5" t="str">
-        <f>C49 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1031.html</v>
       </c>
       <c r="N49" s="1" t="s">
@@ -6966,17 +6849,14 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1031a.jpg</v>
       </c>
       <c r="S49" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C49:C147 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1031b.jpg</v>
       </c>
       <c r="T49" t="s">
         <v>232</v>
       </c>
-      <c r="U49" s="39" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6987,7 +6867,7 @@
         <v>1032</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>779</v>
+        <v>680</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>233</v>
@@ -7005,19 +6885,19 @@
         <v>41.79</v>
       </c>
       <c r="J50" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39.700499999999998</v>
       </c>
       <c r="K50" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.521499999999996</v>
       </c>
       <c r="L50" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.252999999999997</v>
       </c>
       <c r="M50" s="5" t="str">
-        <f>C50 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1032.html</v>
       </c>
       <c r="N50" s="1" t="s">
@@ -7036,17 +6916,14 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1032a.jpg</v>
       </c>
       <c r="S50" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C50:C148 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1032b.jpg</v>
       </c>
       <c r="T50" t="s">
         <v>238</v>
       </c>
-      <c r="U50" s="39" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7057,7 +6934,7 @@
         <v>1033</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>780</v>
+        <v>681</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>239</v>
@@ -7075,19 +6952,19 @@
         <v>49.78</v>
       </c>
       <c r="J51" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47.290999999999997</v>
       </c>
       <c r="K51" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42.313000000000002</v>
       </c>
       <c r="L51" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34.845999999999997</v>
       </c>
       <c r="M51" s="5" t="str">
-        <f>C51 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1033.html</v>
       </c>
       <c r="N51" s="1" t="s">
@@ -7106,17 +6983,14 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1033a.jpg</v>
       </c>
       <c r="S51" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C51:C149 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1033b.jpg</v>
       </c>
       <c r="T51" t="s">
         <v>244</v>
       </c>
-      <c r="U51" s="39" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7127,7 +7001,7 @@
         <v>1077</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>781</v>
+        <v>682</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>245</v>
@@ -7145,19 +7019,19 @@
         <v>72.680000000000007</v>
       </c>
       <c r="J52" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69.046000000000006</v>
       </c>
       <c r="K52" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61.778000000000006</v>
       </c>
       <c r="L52" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50.876000000000005</v>
       </c>
       <c r="M52" s="5" t="str">
-        <f>C52 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1077.html</v>
       </c>
       <c r="N52" s="8" t="s">
@@ -7176,17 +7050,14 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1077a.jpg</v>
       </c>
       <c r="S52" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C52:C150 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1077b.jpg</v>
       </c>
       <c r="T52" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="U52" s="39" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7197,7 +7068,7 @@
         <v>1034</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>782</v>
+        <v>683</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>251</v>
@@ -7215,19 +7086,19 @@
         <v>8</v>
       </c>
       <c r="J53" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8</v>
       </c>
       <c r="L53" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6</v>
       </c>
       <c r="M53" s="5" t="str">
-        <f>C53 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1034.html</v>
       </c>
       <c r="N53" s="1" t="s">
@@ -7243,17 +7114,14 @@
       </c>
       <c r="R53" s="1"/>
       <c r="S53" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C53:C151 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1034b.jpg</v>
       </c>
       <c r="T53" t="s">
         <v>256</v>
       </c>
-      <c r="U53" s="39" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7264,7 +7132,7 @@
         <v>1035</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>783</v>
+        <v>684</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>257</v>
@@ -7282,19 +7150,19 @@
         <v>36.08</v>
       </c>
       <c r="J54" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34.275999999999996</v>
       </c>
       <c r="K54" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.667999999999999</v>
       </c>
       <c r="L54" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.255999999999997</v>
       </c>
       <c r="M54" s="5" t="str">
-        <f>C54 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1035.html</v>
       </c>
       <c r="N54" s="1" t="s">
@@ -7310,17 +7178,14 @@
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C54:C152 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1035b.jpg</v>
       </c>
       <c r="T54" t="s">
         <v>262</v>
       </c>
-      <c r="U54" s="39" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7331,7 +7196,7 @@
         <v>1036</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>784</v>
+        <v>685</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>263</v>
@@ -7349,19 +7214,19 @@
         <v>400.64</v>
       </c>
       <c r="J55" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>380.60799999999995</v>
       </c>
       <c r="K55" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>340.54399999999998</v>
       </c>
       <c r="L55" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>280.44799999999998</v>
       </c>
       <c r="M55" s="5" t="str">
-        <f>C55 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1036.html</v>
       </c>
       <c r="N55" s="1"/>
@@ -7376,17 +7241,14 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1036a.jpg</v>
       </c>
       <c r="S55" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C55:C153 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1036b.jpg</v>
       </c>
       <c r="T55" t="s">
         <v>266</v>
       </c>
-      <c r="U55" s="39" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7397,7 +7259,7 @@
         <v>1037</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>785</v>
+        <v>686</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>267</v>
@@ -7415,19 +7277,19 @@
         <v>80.12</v>
       </c>
       <c r="J56" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76.114000000000004</v>
       </c>
       <c r="K56" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68.102000000000004</v>
       </c>
       <c r="L56" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.083999999999996</v>
       </c>
       <c r="M56" s="5" t="str">
-        <f>C56 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1037.html</v>
       </c>
       <c r="N56" s="1" t="s">
@@ -7446,17 +7308,14 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1037a.jpg</v>
       </c>
       <c r="S56" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C56:C154 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1037b.jpg</v>
       </c>
       <c r="T56" t="s">
         <v>272</v>
       </c>
-      <c r="U56" s="39" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7467,7 +7326,7 @@
         <v>1038</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>786</v>
+        <v>687</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>273</v>
@@ -7485,19 +7344,19 @@
         <v>119.05</v>
       </c>
       <c r="J57" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>113.0975</v>
       </c>
       <c r="K57" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101.1925</v>
       </c>
       <c r="L57" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83.334999999999994</v>
       </c>
       <c r="M57" s="5" t="str">
-        <f>C57 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1038.html</v>
       </c>
       <c r="N57" s="1" t="s">
@@ -7513,17 +7372,14 @@
       </c>
       <c r="R57" s="1"/>
       <c r="S57" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C57:C155 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1038b.jpg</v>
       </c>
       <c r="T57" t="s">
         <v>278</v>
       </c>
-      <c r="U57" s="39" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7534,7 +7390,7 @@
         <v>1039</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>787</v>
+        <v>688</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>279</v>
@@ -7552,19 +7408,19 @@
         <v>60.11</v>
       </c>
       <c r="J58" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57.104499999999994</v>
       </c>
       <c r="K58" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51.093499999999999</v>
       </c>
       <c r="L58" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.076999999999998</v>
       </c>
       <c r="M58" s="5" t="str">
-        <f>C58 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1039.html</v>
       </c>
       <c r="N58" s="1" t="s">
@@ -7583,17 +7439,14 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1039a.jpg</v>
       </c>
       <c r="S58" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C58:C156 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1039b.jpg</v>
       </c>
       <c r="T58" t="s">
         <v>284</v>
       </c>
-      <c r="U58" s="39" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7604,7 +7457,7 @@
         <v>1040</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>788</v>
+        <v>689</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>285</v>
@@ -7622,19 +7475,19 @@
         <v>132.77000000000001</v>
       </c>
       <c r="J59" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126.1315</v>
       </c>
       <c r="K59" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112.8545</v>
       </c>
       <c r="L59" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>92.939000000000007</v>
       </c>
       <c r="M59" s="5" t="str">
-        <f>C59 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1040.html</v>
       </c>
       <c r="N59" s="1" t="s">
@@ -7653,17 +7506,14 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1040a.jpg</v>
       </c>
       <c r="S59" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C59:C157 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1040b.jpg</v>
       </c>
       <c r="T59" t="s">
         <v>290</v>
       </c>
-      <c r="U59" s="39" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:20" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7674,49 +7524,63 @@
         <v>1106</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>903</v>
+        <v>804</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>870</v>
+        <v>771</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>871</v>
+        <v>772</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>872</v>
-      </c>
-      <c r="H60" s="17"/>
+        <v>773</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>845</v>
+      </c>
       <c r="I60" s="18">
         <v>69.27</v>
       </c>
       <c r="J60" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65.8065</v>
       </c>
       <c r="K60" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.879499999999993</v>
       </c>
       <c r="L60" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48.488999999999997</v>
       </c>
       <c r="M60" s="18" t="str">
-        <f>C60 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1106.html</v>
       </c>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
+      <c r="N60" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="O60" s="14" t="s">
+        <v>838</v>
+      </c>
       <c r="P60" s="14"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="14"/>
+      <c r="Q60" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C60:C113 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1106.jpg</v>
+      </c>
+      <c r="R60" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C60:C113 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1106a.jpg</v>
+      </c>
       <c r="S60" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C60:C158 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1106b.jpg</v>
       </c>
-      <c r="U60" s="42"/>
-    </row>
-    <row r="61" spans="1:21" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T60" s="19" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7727,49 +7591,63 @@
         <v>1107</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>904</v>
+        <v>805</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>873</v>
+        <v>774</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>874</v>
+        <v>775</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>875</v>
-      </c>
-      <c r="H61" s="17"/>
+        <v>776</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>846</v>
+      </c>
       <c r="I61" s="18">
         <v>76.13</v>
       </c>
       <c r="J61" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72.323499999999996</v>
       </c>
       <c r="K61" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64.710499999999996</v>
       </c>
       <c r="L61" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53.290999999999997</v>
       </c>
       <c r="M61" s="18" t="str">
-        <f>C61 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1107.html</v>
       </c>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
+      <c r="N61" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="O61" s="14" t="s">
+        <v>840</v>
+      </c>
       <c r="P61" s="14"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="14"/>
+      <c r="Q61" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C61:C114 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1107.jpg</v>
+      </c>
+      <c r="R61" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C61:C114 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1107a.jpg</v>
+      </c>
       <c r="S61" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C61:C159 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1107b.jpg</v>
       </c>
-      <c r="U61" s="42"/>
-    </row>
-    <row r="62" spans="1:21" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T61" s="19" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7780,49 +7658,57 @@
         <v>1108</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>905</v>
+        <v>806</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>876</v>
+        <v>777</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>878</v>
+        <v>779</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>880</v>
-      </c>
-      <c r="H62" s="17"/>
+        <v>781</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>847</v>
+      </c>
       <c r="I62" s="18">
         <v>75.58</v>
       </c>
       <c r="J62" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71.801000000000002</v>
       </c>
       <c r="K62" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64.242999999999995</v>
       </c>
       <c r="L62" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52.905999999999999</v>
       </c>
       <c r="M62" s="18" t="str">
-        <f>C62 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1108.html</v>
       </c>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
+      <c r="N62" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="O62" s="14" t="s">
+        <v>841</v>
+      </c>
       <c r="P62" s="14"/>
       <c r="Q62" s="16"/>
       <c r="R62" s="14"/>
       <c r="S62" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C62:C160 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1108b.jpg</v>
       </c>
-      <c r="U62" s="42"/>
-    </row>
-    <row r="63" spans="1:21" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T62" s="19" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7833,49 +7719,60 @@
         <v>1109</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>906</v>
+        <v>807</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>877</v>
+        <v>778</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>879</v>
+        <v>780</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>881</v>
-      </c>
-      <c r="H63" s="17"/>
+        <v>782</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>848</v>
+      </c>
       <c r="I63" s="18">
         <v>43.49</v>
       </c>
       <c r="J63" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41.3155</v>
       </c>
       <c r="K63" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.966500000000003</v>
       </c>
       <c r="L63" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30.442999999999998</v>
       </c>
       <c r="M63" s="18" t="str">
-        <f>C63 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1109.html</v>
       </c>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
+      <c r="N63" s="14" t="s">
+        <v>844</v>
+      </c>
+      <c r="O63" s="17" t="s">
+        <v>842</v>
+      </c>
       <c r="P63" s="14"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="14"/>
+      <c r="Q63" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C63:C116 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1109.jpg</v>
+      </c>
+      <c r="R63" s="1"/>
       <c r="S63" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C63:C161 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1109b.jpg</v>
       </c>
-      <c r="U63" s="42"/>
-    </row>
-    <row r="64" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T63" s="19" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7886,7 +7783,7 @@
         <v>1041</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>789</v>
+        <v>690</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>291</v>
@@ -7904,48 +7801,45 @@
         <v>83.57</v>
       </c>
       <c r="J64" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>79.391499999999994</v>
       </c>
       <c r="K64" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71.034499999999994</v>
       </c>
       <c r="L64" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58.498999999999988</v>
       </c>
       <c r="M64" s="5" t="str">
-        <f>C64 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1041.html</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
       <c r="O64" s="1" t="s">
         <v>294</v>
       </c>
       <c r="P64" s="1"/>
       <c r="Q64" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C112 &amp;".jpg"</f>
+        <f t="shared" ref="Q64:Q76" si="10" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C112 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1041.jpg</v>
       </c>
       <c r="R64" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C112 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" ref="R64:R76" si="11" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C112 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1041a.jpg</v>
       </c>
       <c r="S64" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C158 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" ref="S64:S76" si="12" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C158 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1041b.jpg</v>
       </c>
       <c r="T64" t="s">
         <v>295</v>
       </c>
-      <c r="U64" s="39" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7956,7 +7850,7 @@
         <v>1042</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>790</v>
+        <v>691</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>296</v>
@@ -7974,19 +7868,19 @@
         <v>41.79</v>
       </c>
       <c r="J65" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39.700499999999998</v>
       </c>
       <c r="K65" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.521499999999996</v>
       </c>
       <c r="L65" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.252999999999997</v>
       </c>
       <c r="M65" s="5" t="str">
-        <f>C65 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1042.html</v>
       </c>
       <c r="N65" s="1" t="s">
@@ -7997,25 +7891,22 @@
       </c>
       <c r="P65" s="1"/>
       <c r="Q65" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C65:C113 &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1042.jpg</v>
       </c>
       <c r="R65" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C65:C113 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1042a.jpg</v>
       </c>
       <c r="S65" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C65:C159 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="12"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1042b.jpg</v>
       </c>
       <c r="T65" t="s">
         <v>301</v>
       </c>
-      <c r="U65" s="39" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8026,7 +7917,7 @@
         <v>1043</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>791</v>
+        <v>692</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>302</v>
@@ -8044,44 +7935,41 @@
         <v>195.18</v>
       </c>
       <c r="J66" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>185.42099999999999</v>
       </c>
       <c r="K66" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>165.90299999999999</v>
       </c>
       <c r="L66" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>136.626</v>
       </c>
       <c r="M66" s="5" t="str">
-        <f>C66 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1043.html</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C66:C114 &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1043.jpg</v>
       </c>
       <c r="R66" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C66:C114 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1043a.jpg</v>
       </c>
       <c r="S66" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C66:C160 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="12"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1043b.jpg</v>
       </c>
       <c r="T66" t="s">
         <v>305</v>
       </c>
-      <c r="U66" s="39" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8092,7 +7980,7 @@
         <v>1044</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>792</v>
+        <v>693</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>306</v>
@@ -8110,19 +7998,19 @@
         <v>50.92</v>
       </c>
       <c r="J67" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48.374000000000002</v>
       </c>
       <c r="K67" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43.282000000000004</v>
       </c>
       <c r="L67" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35.643999999999998</v>
       </c>
       <c r="M67" s="5" t="str">
-        <f>C67 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1044.html</v>
       </c>
       <c r="N67" s="1" t="s">
@@ -8133,25 +8021,22 @@
       </c>
       <c r="P67" s="1"/>
       <c r="Q67" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C67:C115 &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1044.jpg</v>
       </c>
       <c r="R67" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C67:C115 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1044a.jpg</v>
       </c>
       <c r="S67" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C67:C161 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="12"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1044b.jpg</v>
       </c>
       <c r="T67" t="s">
         <v>311</v>
       </c>
-      <c r="U67" s="39" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8162,7 +8047,7 @@
         <v>1045</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>793</v>
+        <v>694</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>312</v>
@@ -8180,19 +8065,19 @@
         <v>53.82</v>
       </c>
       <c r="J68" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51.128999999999998</v>
       </c>
       <c r="K68" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.747</v>
       </c>
       <c r="L68" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.673999999999999</v>
       </c>
       <c r="M68" s="5" t="str">
-        <f>C68 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1045.html</v>
       </c>
       <c r="N68" s="1" t="s">
@@ -8203,25 +8088,22 @@
       </c>
       <c r="P68" s="1"/>
       <c r="Q68" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C68:C116 &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1045.jpg</v>
       </c>
       <c r="R68" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C68:C116 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1045a.jpg</v>
       </c>
       <c r="S68" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C68:C162 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="12"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1045b.jpg</v>
       </c>
       <c r="T68" t="s">
         <v>317</v>
       </c>
-      <c r="U68" s="39" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8232,7 +8114,7 @@
         <v>1046</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>794</v>
+        <v>695</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>318</v>
@@ -8250,19 +8132,19 @@
         <v>53.82</v>
       </c>
       <c r="J69" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51.128999999999998</v>
       </c>
       <c r="K69" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.747</v>
       </c>
       <c r="L69" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.673999999999999</v>
       </c>
       <c r="M69" s="5" t="str">
-        <f>C69 &amp; ".html"</f>
+        <f t="shared" si="8"/>
         <v>1046.html</v>
       </c>
       <c r="N69" s="1" t="s">
@@ -8273,25 +8155,22 @@
       </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C69:C117 &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1046.jpg</v>
       </c>
       <c r="R69" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C69:C117 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1046a.jpg</v>
       </c>
       <c r="S69" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C69:C163 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="12"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1046b.jpg</v>
       </c>
       <c r="T69" t="s">
         <v>323</v>
       </c>
-      <c r="U69" s="39" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:20" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8302,7 +8181,7 @@
         <v>1047</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>795</v>
+        <v>696</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>324</v>
@@ -8320,19 +8199,19 @@
         <v>58.96</v>
       </c>
       <c r="J70" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56.012</v>
       </c>
       <c r="K70" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50.116</v>
       </c>
       <c r="L70" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41.271999999999998</v>
       </c>
       <c r="M70" s="21" t="str">
-        <f>C70 &amp; ".html"</f>
+        <f t="shared" ref="M70:M101" si="13">C70 &amp; ".html"</f>
         <v>1047.html</v>
       </c>
       <c r="N70" s="20" t="s">
@@ -8343,25 +8222,22 @@
       </c>
       <c r="P70" s="20"/>
       <c r="Q70" s="35" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C70:C118 &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1047.jpg</v>
       </c>
       <c r="R70" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C70:C118 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1047a.jpg</v>
       </c>
       <c r="S70" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C70:C164 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="12"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1047b.jpg</v>
       </c>
       <c r="T70" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="U70" s="51" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8372,7 +8248,7 @@
         <v>1048</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>796</v>
+        <v>697</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>330</v>
@@ -8390,19 +8266,19 @@
         <v>34.340000000000003</v>
       </c>
       <c r="J71" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32.623000000000005</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29.189000000000004</v>
       </c>
       <c r="L71" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.038</v>
       </c>
       <c r="M71" s="5" t="str">
-        <f>C71 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1048.html</v>
       </c>
       <c r="N71" s="1" t="s">
@@ -8413,25 +8289,22 @@
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C71:C119 &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1048.jpg</v>
       </c>
       <c r="R71" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C71:C119 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1048a.jpg</v>
       </c>
       <c r="S71" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C71:C165 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="12"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1048b.jpg</v>
       </c>
       <c r="T71" t="s">
         <v>335</v>
       </c>
-      <c r="U71" s="39" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8442,7 +8315,7 @@
         <v>1049</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>797</v>
+        <v>698</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>336</v>
@@ -8460,19 +8333,19 @@
         <v>34.340000000000003</v>
       </c>
       <c r="J72" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32.623000000000005</v>
       </c>
       <c r="K72" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29.189000000000004</v>
       </c>
       <c r="L72" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.038</v>
       </c>
       <c r="M72" s="5" t="str">
-        <f>C72 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1049.html</v>
       </c>
       <c r="N72" s="1" t="s">
@@ -8483,25 +8356,22 @@
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C72:C120 &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1049.jpg</v>
       </c>
       <c r="R72" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C72:C120 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1049a.jpg</v>
       </c>
       <c r="S72" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C72:C166 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="12"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1049b.jpg</v>
       </c>
       <c r="T72" t="s">
         <v>341</v>
       </c>
-      <c r="U72" s="39" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8512,7 +8382,7 @@
         <v>1050</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>798</v>
+        <v>699</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>342</v>
@@ -8530,19 +8400,19 @@
         <v>45.24</v>
       </c>
       <c r="J73" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42.978000000000002</v>
       </c>
       <c r="K73" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38.454000000000001</v>
       </c>
       <c r="L73" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31.667999999999999</v>
       </c>
       <c r="M73" s="5" t="str">
-        <f>C73 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1050.html</v>
       </c>
       <c r="N73" s="1" t="s">
@@ -8553,25 +8423,22 @@
       </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C73:C121 &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1050.jpg</v>
       </c>
       <c r="R73" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C73:C121 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1050a.jpg</v>
       </c>
       <c r="S73" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C73:C167 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="12"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1050b.jpg</v>
       </c>
       <c r="T73" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="U73" s="39" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8582,7 +8449,7 @@
         <v>1051</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>799</v>
+        <v>700</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>348</v>
@@ -8600,19 +8467,19 @@
         <v>52.68</v>
       </c>
       <c r="J74" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50.045999999999999</v>
       </c>
       <c r="K74" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44.777999999999999</v>
       </c>
       <c r="L74" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.875999999999998</v>
       </c>
       <c r="M74" s="5" t="str">
-        <f>C74 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1051.html</v>
       </c>
       <c r="N74" s="1" t="s">
@@ -8623,25 +8490,22 @@
       </c>
       <c r="P74" s="1"/>
       <c r="Q74" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C74:C122 &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1051.jpg</v>
       </c>
       <c r="R74" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C74:C122 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1051a.jpg</v>
       </c>
       <c r="S74" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C74:C168 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="12"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1051b.jpg</v>
       </c>
       <c r="T74" t="s">
         <v>353</v>
       </c>
-      <c r="U74" s="39" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8652,7 +8516,7 @@
         <v>1052</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>800</v>
+        <v>701</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>354</v>
@@ -8670,19 +8534,19 @@
         <v>45.24</v>
       </c>
       <c r="J75" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42.978000000000002</v>
       </c>
       <c r="K75" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38.454000000000001</v>
       </c>
       <c r="L75" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31.667999999999999</v>
       </c>
       <c r="M75" s="5" t="str">
-        <f>C75 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1052.html</v>
       </c>
       <c r="N75" s="1" t="s">
@@ -8693,25 +8557,22 @@
       </c>
       <c r="P75" s="1"/>
       <c r="Q75" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C75:C123 &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1052.jpg</v>
       </c>
       <c r="R75" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C75:C123 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1052a.jpg</v>
       </c>
       <c r="S75" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C75:C169 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="12"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1052b.jpg</v>
       </c>
       <c r="T75" t="s">
         <v>359</v>
       </c>
-      <c r="U75" s="39" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:20" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8722,55 +8583,63 @@
         <v>1110</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>907</v>
+        <v>808</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>882</v>
+        <v>783</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>883</v>
+        <v>784</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>884</v>
-      </c>
-      <c r="H76" s="17"/>
+        <v>785</v>
+      </c>
+      <c r="H76" s="17" t="s">
+        <v>849</v>
+      </c>
       <c r="I76" s="18">
         <v>34.340000000000003</v>
       </c>
       <c r="J76" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32.623000000000005</v>
       </c>
       <c r="K76" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29.189000000000004</v>
       </c>
       <c r="L76" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.038</v>
       </c>
       <c r="M76" s="18" t="str">
-        <f>C76 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1110.html</v>
       </c>
-      <c r="N76" s="14"/>
-      <c r="O76" s="14"/>
+      <c r="N76" s="14" t="s">
+        <v>850</v>
+      </c>
+      <c r="O76" s="14" t="s">
+        <v>851</v>
+      </c>
       <c r="P76" s="14"/>
       <c r="Q76" s="16" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C76:C124 &amp;".jpg"</f>
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1110.jpg</v>
       </c>
       <c r="R76" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C76:C124 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1110a.jpg</v>
       </c>
       <c r="S76" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C76:C170 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="12"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1110b.jpg</v>
       </c>
-      <c r="U76" s="42"/>
-    </row>
-    <row r="77" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T76" s="19" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8781,7 +8650,7 @@
         <v>1053</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>801</v>
+        <v>702</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>360</v>
@@ -8799,19 +8668,19 @@
         <v>47.53</v>
       </c>
       <c r="J77" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45.153500000000001</v>
       </c>
       <c r="K77" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40.400500000000001</v>
       </c>
       <c r="L77" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.271000000000001</v>
       </c>
       <c r="M77" s="5" t="str">
-        <f>C77 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1053.html</v>
       </c>
       <c r="N77" s="1" t="s">
@@ -8822,7 +8691,7 @@
       </c>
       <c r="P77" s="1"/>
       <c r="Q77" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C77:C124 &amp;".jpg"</f>
+        <f t="shared" ref="Q77:Q82" si="14" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C77:C124 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1053.jpg</v>
       </c>
       <c r="R77" s="1" t="str">
@@ -8830,17 +8699,14 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1053a.jpg</v>
       </c>
       <c r="S77" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C77:C170 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" ref="S77:S89" si="15" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C77:C170 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1053b.jpg</v>
       </c>
       <c r="T77" t="s">
         <v>365</v>
       </c>
-      <c r="U77" s="39" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:20" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8851,7 +8717,7 @@
         <v>1054</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>802</v>
+        <v>703</v>
       </c>
       <c r="E78" s="20" t="s">
         <v>366</v>
@@ -8869,19 +8735,19 @@
         <v>34.340000000000003</v>
       </c>
       <c r="J78" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32.623000000000005</v>
       </c>
       <c r="K78" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29.189000000000004</v>
       </c>
       <c r="L78" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.038</v>
       </c>
       <c r="M78" s="21" t="str">
-        <f>C78 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1054.html</v>
       </c>
       <c r="N78" s="20" t="s">
@@ -8892,7 +8758,7 @@
       </c>
       <c r="P78" s="20"/>
       <c r="Q78" s="35" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C78:C125 &amp;".jpg"</f>
+        <f t="shared" si="14"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1054.jpg</v>
       </c>
       <c r="R78" s="20" t="str">
@@ -8900,17 +8766,14 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1054a.jpg</v>
       </c>
       <c r="S78" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C78:C171 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="15"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1054b.jpg</v>
       </c>
       <c r="T78" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="U78" s="51" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8921,7 +8784,7 @@
         <v>1055</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>803</v>
+        <v>704</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>371</v>
@@ -8939,19 +8802,19 @@
         <v>13.76</v>
       </c>
       <c r="J79" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.071999999999999</v>
       </c>
       <c r="K79" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.696</v>
       </c>
       <c r="L79" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.6319999999999997</v>
       </c>
       <c r="M79" s="5" t="str">
-        <f>C79 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1055.html</v>
       </c>
       <c r="N79" s="1" t="s">
@@ -8962,22 +8825,19 @@
       </c>
       <c r="P79" s="1"/>
       <c r="Q79" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C79:C126 &amp;".jpg"</f>
+        <f t="shared" si="14"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1055.jpg</v>
       </c>
       <c r="R79" s="1"/>
       <c r="S79" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C79:C172 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="15"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1055b.jpg</v>
       </c>
       <c r="T79" t="s">
         <v>376</v>
       </c>
-      <c r="U79" s="39" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8988,7 +8848,7 @@
         <v>1079</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>804</v>
+        <v>705</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>377</v>
@@ -9006,19 +8866,19 @@
         <v>76.69</v>
       </c>
       <c r="J80" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72.855499999999992</v>
       </c>
       <c r="K80" s="6">
-        <f t="shared" ref="K80:K115" si="4">I80 * 0.85</f>
+        <f t="shared" ref="K80:K115" si="16">I80 * 0.85</f>
         <v>65.186499999999995</v>
       </c>
       <c r="L80" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53.682999999999993</v>
       </c>
       <c r="M80" s="5" t="str">
-        <f>C80 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1079.html</v>
       </c>
       <c r="N80" s="8" t="s">
@@ -9029,7 +8889,7 @@
       </c>
       <c r="P80" s="8"/>
       <c r="Q80" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C80:C127 &amp;".jpg"</f>
+        <f t="shared" si="14"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1079.jpg</v>
       </c>
       <c r="R80" s="8" t="str">
@@ -9037,17 +8897,14 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1079a.jpg</v>
       </c>
       <c r="S80" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C80:C173 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="15"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1079b.jpg</v>
       </c>
       <c r="T80" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="U80" s="39" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -9058,7 +8915,7 @@
         <v>1080</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>805</v>
+        <v>706</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>383</v>
@@ -9076,19 +8933,19 @@
         <v>76.69</v>
       </c>
       <c r="J81" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72.855499999999992</v>
       </c>
       <c r="K81" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>65.186499999999995</v>
       </c>
       <c r="L81" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53.682999999999993</v>
       </c>
       <c r="M81" s="5" t="str">
-        <f>C81 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1080.html</v>
       </c>
       <c r="N81" s="8" t="s">
@@ -9099,7 +8956,7 @@
       </c>
       <c r="P81" s="8"/>
       <c r="Q81" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C81:C128 &amp;".jpg"</f>
+        <f t="shared" si="14"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1080.jpg</v>
       </c>
       <c r="R81" s="8" t="str">
@@ -9107,17 +8964,14 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1080a.jpg</v>
       </c>
       <c r="S81" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C81:C174 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="15"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1080b.jpg</v>
       </c>
       <c r="T81" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="U81" s="39" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -9128,7 +8982,7 @@
         <v>1081</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>806</v>
+        <v>707</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>388</v>
@@ -9146,19 +9000,19 @@
         <v>63.52</v>
       </c>
       <c r="J82" s="6">
-        <f t="shared" ref="J82:J115" si="5">I82 * 0.95</f>
+        <f t="shared" ref="J82:J115" si="17">I82 * 0.95</f>
         <v>60.344000000000001</v>
       </c>
       <c r="K82" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>53.992000000000004</v>
       </c>
       <c r="L82" s="6">
-        <f t="shared" ref="L82:L115" si="6">I82 * 0.7</f>
+        <f t="shared" ref="L82:L115" si="18">I82 * 0.7</f>
         <v>44.463999999999999</v>
       </c>
       <c r="M82" s="5" t="str">
-        <f>C82 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1081.html</v>
       </c>
       <c r="N82" s="8" t="s">
@@ -9169,7 +9023,7 @@
       </c>
       <c r="P82" s="8"/>
       <c r="Q82" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C82:C129 &amp;".jpg"</f>
+        <f t="shared" si="14"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1081.jpg</v>
       </c>
       <c r="R82" s="8" t="str">
@@ -9177,17 +9031,14 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1081a.jpg</v>
       </c>
       <c r="S82" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C82:C175 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="15"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1081b.jpg</v>
       </c>
       <c r="T82" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="U82" s="39" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -9198,7 +9049,7 @@
         <v>1056</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>807</v>
+        <v>708</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>394</v>
@@ -9216,19 +9067,19 @@
         <v>51.49</v>
       </c>
       <c r="J83" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>48.915500000000002</v>
       </c>
       <c r="K83" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>43.766500000000001</v>
       </c>
       <c r="L83" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>36.042999999999999</v>
       </c>
       <c r="M83" s="5" t="str">
-        <f>C83 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1056.html</v>
       </c>
       <c r="N83" s="1" t="s">
@@ -9239,25 +9090,22 @@
       </c>
       <c r="P83" s="1"/>
       <c r="Q83" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C83:C127 &amp;".jpg"</f>
+        <f t="shared" ref="Q83:Q89" si="19" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C83:C127 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1056.jpg</v>
       </c>
       <c r="R83" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C83:C127 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" ref="R83:R88" si="20" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C83:C127 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1056a.jpg</v>
       </c>
       <c r="S83" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C83:C176 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="15"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1056b.jpg</v>
       </c>
       <c r="T83" t="s">
         <v>399</v>
       </c>
-      <c r="U83" s="39" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -9268,7 +9116,7 @@
         <v>1057</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>808</v>
+        <v>709</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>400</v>
@@ -9286,19 +9134,19 @@
         <v>42.92</v>
       </c>
       <c r="J84" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>40.774000000000001</v>
       </c>
       <c r="K84" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>36.481999999999999</v>
       </c>
       <c r="L84" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>30.044</v>
       </c>
       <c r="M84" s="5" t="str">
-        <f>C84 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1057.html</v>
       </c>
       <c r="N84" s="1" t="s">
@@ -9309,25 +9157,22 @@
       </c>
       <c r="P84" s="1"/>
       <c r="Q84" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C84:C128 &amp;".jpg"</f>
+        <f t="shared" si="19"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1057.jpg</v>
       </c>
       <c r="R84" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C84:C128 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="20"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1057a.jpg</v>
       </c>
       <c r="S84" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C84:C177 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="15"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1057b.jpg</v>
       </c>
       <c r="T84" t="s">
         <v>405</v>
       </c>
-      <c r="U84" s="39" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -9338,7 +9183,7 @@
         <v>1058</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>809</v>
+        <v>710</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>406</v>
@@ -9356,19 +9201,19 @@
         <v>49.78</v>
       </c>
       <c r="J85" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>47.290999999999997</v>
       </c>
       <c r="K85" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>42.313000000000002</v>
       </c>
       <c r="L85" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>34.845999999999997</v>
       </c>
       <c r="M85" s="5" t="str">
-        <f>C85 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1058.html</v>
       </c>
       <c r="N85" s="1" t="s">
@@ -9379,25 +9224,22 @@
       </c>
       <c r="P85" s="1"/>
       <c r="Q85" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C85:C129 &amp;".jpg"</f>
+        <f t="shared" si="19"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1058.jpg</v>
       </c>
       <c r="R85" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C85:C129 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="20"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1058a.jpg</v>
       </c>
       <c r="S85" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C85:C178 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="15"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1058b.jpg</v>
       </c>
       <c r="T85" t="s">
         <v>411</v>
       </c>
-      <c r="U85" s="39" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -9408,7 +9250,7 @@
         <v>1059</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>810</v>
+        <v>711</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>412</v>
@@ -9426,19 +9268,19 @@
         <v>53.25</v>
       </c>
       <c r="J86" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>50.587499999999999</v>
       </c>
       <c r="K86" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>45.262499999999996</v>
       </c>
       <c r="L86" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>37.274999999999999</v>
       </c>
       <c r="M86" s="5" t="str">
-        <f>C86 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1059.html</v>
       </c>
       <c r="N86" s="1" t="s">
@@ -9449,25 +9291,22 @@
       </c>
       <c r="P86" s="1"/>
       <c r="Q86" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C86:C130 &amp;".jpg"</f>
+        <f t="shared" si="19"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1059.jpg</v>
       </c>
       <c r="R86" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C86:C130 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="20"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1059a.jpg</v>
       </c>
       <c r="S86" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C86:C179 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="15"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1059b.jpg</v>
       </c>
       <c r="T86" t="s">
         <v>417</v>
       </c>
-      <c r="U86" s="39" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -9478,7 +9317,7 @@
         <v>1060</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>811</v>
+        <v>712</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>418</v>
@@ -9496,19 +9335,19 @@
         <v>17.739999999999998</v>
       </c>
       <c r="J87" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>16.852999999999998</v>
       </c>
       <c r="K87" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>15.078999999999999</v>
       </c>
       <c r="L87" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>12.417999999999997</v>
       </c>
       <c r="M87" s="5" t="str">
-        <f>C87 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1060.html</v>
       </c>
       <c r="N87" s="1" t="s">
@@ -9519,25 +9358,22 @@
       </c>
       <c r="P87" s="1"/>
       <c r="Q87" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C87:C131 &amp;".jpg"</f>
+        <f t="shared" si="19"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1060.jpg</v>
       </c>
       <c r="R87" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C87:C131 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="20"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1060a.jpg</v>
       </c>
       <c r="S87" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C87:C180 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="15"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1060b.jpg</v>
       </c>
       <c r="T87" t="s">
         <v>423</v>
       </c>
-      <c r="U87" s="39" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:20" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -9548,7 +9384,7 @@
         <v>1061</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>812</v>
+        <v>713</v>
       </c>
       <c r="E88" s="20" t="s">
         <v>424</v>
@@ -9566,19 +9402,19 @@
         <v>34.340000000000003</v>
       </c>
       <c r="J88" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>32.623000000000005</v>
       </c>
       <c r="K88" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>29.189000000000004</v>
       </c>
       <c r="L88" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>24.038</v>
       </c>
       <c r="M88" s="21" t="str">
-        <f>C88 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1061.html</v>
       </c>
       <c r="N88" s="20" t="s">
@@ -9589,25 +9425,22 @@
       </c>
       <c r="P88" s="20"/>
       <c r="Q88" s="35" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C88:C132 &amp;".jpg"</f>
+        <f t="shared" si="19"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1061.jpg</v>
       </c>
       <c r="R88" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C88:C132 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="20"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1061a.jpg</v>
       </c>
       <c r="S88" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C88:C181 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="15"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1061b.jpg</v>
       </c>
       <c r="T88" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="U88" s="51" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9618,7 +9451,7 @@
         <v>1063</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>813</v>
+        <v>714</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>430</v>
@@ -9636,41 +9469,38 @@
         <v>1116.3399999999999</v>
       </c>
       <c r="J89" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1060.5229999999999</v>
       </c>
       <c r="K89" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>948.8889999999999</v>
       </c>
       <c r="L89" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>781.43799999999987</v>
       </c>
       <c r="M89" s="5" t="str">
-        <f>C89 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1063.html</v>
       </c>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C89:C133 &amp;".jpg"</f>
+        <f t="shared" si="19"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1063.jpg</v>
       </c>
       <c r="R89" s="1"/>
       <c r="S89" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C89:C182 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="15"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1063b.jpg</v>
       </c>
       <c r="T89" t="s">
         <v>433</v>
       </c>
-      <c r="U89" s="39" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -9693,18 +9523,18 @@
       <c r="I90" s="12">
         <v>823.36</v>
       </c>
-      <c r="J90" s="47">
+      <c r="J90" s="43">
         <v>823.36</v>
       </c>
       <c r="K90" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>699.85599999999999</v>
       </c>
-      <c r="L90" s="47">
+      <c r="L90" s="43">
         <v>823.36</v>
       </c>
       <c r="M90" s="12" t="str">
-        <f>C90 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1065.html</v>
       </c>
       <c r="N90" s="8"/>
@@ -9722,11 +9552,8 @@
       <c r="T90" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="U90" s="39" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -9737,7 +9564,7 @@
         <v>1064</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>814</v>
+        <v>715</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>434</v>
@@ -9759,7 +9586,7 @@
         <v>71.430499999999995</v>
       </c>
       <c r="K91" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>63.911499999999997</v>
       </c>
       <c r="L91" s="6">
@@ -9767,7 +9594,7 @@
         <v>52.632999999999996</v>
       </c>
       <c r="M91" s="5" t="str">
-        <f>C91 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1064.html</v>
       </c>
       <c r="N91" s="1"/>
@@ -9788,22 +9615,19 @@
       <c r="T91" t="s">
         <v>437</v>
       </c>
-      <c r="U91" s="39" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="46" t="s">
+      <c r="B92" s="42" t="s">
         <v>615</v>
       </c>
       <c r="C92" s="9">
         <v>1083</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>815</v>
+        <v>716</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>482</v>
@@ -9811,7 +9635,7 @@
       <c r="F92" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="G92" s="46" t="s">
+      <c r="G92" s="42" t="s">
         <v>606</v>
       </c>
       <c r="H92" s="11" t="s">
@@ -9820,26 +9644,26 @@
       <c r="I92" s="12">
         <v>555.54</v>
       </c>
-      <c r="J92" s="47">
-        <f t="shared" si="5"/>
+      <c r="J92" s="43">
+        <f t="shared" si="17"/>
         <v>527.76299999999992</v>
       </c>
       <c r="K92" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>472.20899999999995</v>
       </c>
-      <c r="L92" s="47">
-        <f t="shared" si="6"/>
+      <c r="L92" s="43">
+        <f t="shared" si="18"/>
         <v>388.87799999999993</v>
       </c>
       <c r="M92" s="12" t="str">
-        <f>C92 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1083.html</v>
       </c>
       <c r="N92" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="O92" s="48" t="s">
+      <c r="O92" s="44" t="s">
         <v>486</v>
       </c>
       <c r="P92" s="8"/>
@@ -9852,22 +9676,19 @@
       <c r="T92" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="U92" s="45" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="46" t="s">
+      <c r="B93" s="42" t="s">
         <v>615</v>
       </c>
       <c r="C93" s="9">
         <v>1096</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>816</v>
+        <v>717</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>488</v>
@@ -9875,7 +9696,7 @@
       <c r="F93" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="G93" s="46" t="s">
+      <c r="G93" s="42" t="s">
         <v>606</v>
       </c>
       <c r="H93" s="11" t="s">
@@ -9884,26 +9705,26 @@
       <c r="I93" s="12">
         <v>555.54</v>
       </c>
-      <c r="J93" s="47">
-        <f t="shared" si="5"/>
+      <c r="J93" s="43">
+        <f t="shared" si="17"/>
         <v>527.76299999999992</v>
       </c>
       <c r="K93" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>472.20899999999995</v>
       </c>
-      <c r="L93" s="47">
-        <f t="shared" si="6"/>
+      <c r="L93" s="43">
+        <f t="shared" si="18"/>
         <v>388.87799999999993</v>
       </c>
       <c r="M93" s="12" t="str">
-        <f>C93 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1096.html</v>
       </c>
       <c r="N93" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="O93" s="48" t="s">
+      <c r="O93" s="44" t="s">
         <v>486</v>
       </c>
       <c r="P93" s="8"/>
@@ -9916,22 +9737,19 @@
       <c r="T93" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="U93" s="45" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="46" t="s">
+      <c r="B94" s="42" t="s">
         <v>615</v>
       </c>
       <c r="C94" s="9">
         <v>1074</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>817</v>
+        <v>718</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>492</v>
@@ -9939,29 +9757,29 @@
       <c r="F94" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="G94" s="46" t="s">
+      <c r="G94" s="42" t="s">
         <v>606</v>
       </c>
-      <c r="H94" s="49" t="s">
+      <c r="H94" s="45" t="s">
         <v>494</v>
       </c>
       <c r="I94" s="12">
         <v>337.32</v>
       </c>
-      <c r="J94" s="47">
-        <f t="shared" si="5"/>
+      <c r="J94" s="43">
+        <f t="shared" si="17"/>
         <v>320.45399999999995</v>
       </c>
       <c r="K94" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>286.72199999999998</v>
       </c>
-      <c r="L94" s="47">
-        <f t="shared" si="6"/>
+      <c r="L94" s="43">
+        <f t="shared" si="18"/>
         <v>236.12399999999997</v>
       </c>
       <c r="M94" s="12" t="str">
-        <f>C94 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1074.html</v>
       </c>
       <c r="N94" s="11" t="s">
@@ -9980,22 +9798,19 @@
       <c r="T94" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="U94" s="45" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="46" t="s">
+      <c r="B95" s="42" t="s">
         <v>615</v>
       </c>
       <c r="C95" s="9">
         <v>1086</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>818</v>
+        <v>719</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>498</v>
@@ -10003,29 +9818,29 @@
       <c r="F95" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="G95" s="46" t="s">
+      <c r="G95" s="42" t="s">
         <v>606</v>
       </c>
-      <c r="H95" s="49" t="s">
+      <c r="H95" s="45" t="s">
         <v>494</v>
       </c>
       <c r="I95" s="12">
         <v>337.32</v>
       </c>
-      <c r="J95" s="47">
-        <f t="shared" si="5"/>
+      <c r="J95" s="43">
+        <f t="shared" si="17"/>
         <v>320.45399999999995</v>
       </c>
       <c r="K95" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>286.72199999999998</v>
       </c>
-      <c r="L95" s="47">
-        <f t="shared" si="6"/>
+      <c r="L95" s="43">
+        <f t="shared" si="18"/>
         <v>236.12399999999997</v>
       </c>
       <c r="M95" s="12" t="str">
-        <f>C95 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1086.html</v>
       </c>
       <c r="N95" s="11" t="s">
@@ -10044,22 +9859,19 @@
       <c r="T95" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="U95" s="45" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="46" t="s">
+      <c r="B96" s="42" t="s">
         <v>615</v>
       </c>
       <c r="C96" s="9">
         <v>1087</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>819</v>
+        <v>720</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>501</v>
@@ -10067,7 +9879,7 @@
       <c r="F96" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="G96" s="46" t="s">
+      <c r="G96" s="42" t="s">
         <v>607</v>
       </c>
       <c r="H96" s="11" t="s">
@@ -10076,20 +9888,20 @@
       <c r="I96" s="12">
         <v>337.32</v>
       </c>
-      <c r="J96" s="47">
-        <f t="shared" si="5"/>
+      <c r="J96" s="43">
+        <f t="shared" si="17"/>
         <v>320.45399999999995</v>
       </c>
       <c r="K96" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>286.72199999999998</v>
       </c>
-      <c r="L96" s="47">
-        <f t="shared" si="6"/>
+      <c r="L96" s="43">
+        <f t="shared" si="18"/>
         <v>236.12399999999997</v>
       </c>
       <c r="M96" s="12" t="str">
-        <f>C96 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1087.html</v>
       </c>
       <c r="N96" s="11" t="s">
@@ -10101,28 +9913,25 @@
       <c r="P96" s="8"/>
       <c r="Q96" s="10"/>
       <c r="R96" s="8"/>
-      <c r="S96" s="48" t="s">
+      <c r="S96" s="44" t="s">
         <v>621</v>
       </c>
       <c r="T96" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="U96" s="45" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="46" t="s">
+      <c r="B97" s="42" t="s">
         <v>615</v>
       </c>
       <c r="C97" s="9">
         <v>1088</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>820</v>
+        <v>721</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>506</v>
@@ -10130,7 +9939,7 @@
       <c r="F97" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="G97" s="46" t="s">
+      <c r="G97" s="42" t="s">
         <v>607</v>
       </c>
       <c r="H97" s="11" t="s">
@@ -10139,20 +9948,20 @@
       <c r="I97" s="12">
         <v>337.32</v>
       </c>
-      <c r="J97" s="47">
-        <f t="shared" si="5"/>
+      <c r="J97" s="43">
+        <f t="shared" si="17"/>
         <v>320.45399999999995</v>
       </c>
       <c r="K97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>286.72199999999998</v>
       </c>
-      <c r="L97" s="47">
-        <f t="shared" si="6"/>
+      <c r="L97" s="43">
+        <f t="shared" si="18"/>
         <v>236.12399999999997</v>
       </c>
       <c r="M97" s="12" t="str">
-        <f>C97 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1088.html</v>
       </c>
       <c r="N97" s="11" t="s">
@@ -10164,28 +9973,25 @@
       <c r="P97" s="8"/>
       <c r="Q97" s="10"/>
       <c r="R97" s="8"/>
-      <c r="S97" s="48" t="s">
+      <c r="S97" s="44" t="s">
         <v>622</v>
       </c>
       <c r="T97" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="U97" s="45" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="46" t="s">
+      <c r="B98" s="42" t="s">
         <v>615</v>
       </c>
       <c r="C98" s="9">
         <v>1089</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>821</v>
+        <v>722</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>509</v>
@@ -10193,7 +9999,7 @@
       <c r="F98" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="G98" s="46" t="s">
+      <c r="G98" s="42" t="s">
         <v>607</v>
       </c>
       <c r="H98" s="11" t="s">
@@ -10202,20 +10008,20 @@
       <c r="I98" s="12">
         <v>337.32</v>
       </c>
-      <c r="J98" s="47">
-        <f t="shared" si="5"/>
+      <c r="J98" s="43">
+        <f t="shared" si="17"/>
         <v>320.45399999999995</v>
       </c>
       <c r="K98" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>286.72199999999998</v>
       </c>
-      <c r="L98" s="47">
-        <f t="shared" si="6"/>
+      <c r="L98" s="43">
+        <f t="shared" si="18"/>
         <v>236.12399999999997</v>
       </c>
       <c r="M98" s="12" t="str">
-        <f>C98 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1089.html</v>
       </c>
       <c r="N98" s="11" t="s">
@@ -10227,28 +10033,25 @@
       <c r="P98" s="8"/>
       <c r="Q98" s="10"/>
       <c r="R98" s="8"/>
-      <c r="S98" s="48" t="s">
+      <c r="S98" s="44" t="s">
         <v>621</v>
       </c>
       <c r="T98" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="U98" s="45" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="46" t="s">
+      <c r="B99" s="42" t="s">
         <v>615</v>
       </c>
       <c r="C99" s="9">
         <v>1090</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>822</v>
+        <v>723</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>514</v>
@@ -10256,7 +10059,7 @@
       <c r="F99" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="G99" s="46" t="s">
+      <c r="G99" s="42" t="s">
         <v>607</v>
       </c>
       <c r="H99" s="11" t="s">
@@ -10265,20 +10068,20 @@
       <c r="I99" s="12">
         <v>337.32</v>
       </c>
-      <c r="J99" s="47">
-        <f t="shared" si="5"/>
+      <c r="J99" s="43">
+        <f t="shared" si="17"/>
         <v>320.45399999999995</v>
       </c>
       <c r="K99" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>286.72199999999998</v>
       </c>
-      <c r="L99" s="47">
-        <f t="shared" si="6"/>
+      <c r="L99" s="43">
+        <f t="shared" si="18"/>
         <v>236.12399999999997</v>
       </c>
       <c r="M99" s="12" t="str">
-        <f>C99 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1090.html</v>
       </c>
       <c r="N99" s="11" t="s">
@@ -10290,28 +10093,25 @@
       <c r="P99" s="8"/>
       <c r="Q99" s="10"/>
       <c r="R99" s="8"/>
-      <c r="S99" s="48" t="s">
+      <c r="S99" s="44" t="s">
         <v>622</v>
       </c>
       <c r="T99" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="U99" s="45" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="46" t="s">
+      <c r="B100" s="42" t="s">
         <v>615</v>
       </c>
       <c r="C100" s="9">
         <v>1073</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>823</v>
+        <v>724</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>517</v>
@@ -10319,7 +10119,7 @@
       <c r="F100" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="G100" s="46" t="s">
+      <c r="G100" s="42" t="s">
         <v>607</v>
       </c>
       <c r="H100" s="11" t="s">
@@ -10328,54 +10128,51 @@
       <c r="I100" s="12">
         <v>270.32</v>
       </c>
-      <c r="J100" s="47">
-        <f t="shared" si="5"/>
+      <c r="J100" s="43">
+        <f t="shared" si="17"/>
         <v>256.80399999999997</v>
       </c>
       <c r="K100" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>229.77199999999999</v>
       </c>
-      <c r="L100" s="47">
-        <f t="shared" si="6"/>
+      <c r="L100" s="43">
+        <f t="shared" si="18"/>
         <v>189.22399999999999</v>
       </c>
       <c r="M100" s="12" t="str">
-        <f>C100 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1073.html</v>
       </c>
       <c r="N100" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="O100" s="50" t="s">
+      <c r="O100" s="46" t="s">
         <v>521</v>
       </c>
       <c r="P100" s="8"/>
       <c r="Q100" s="10"/>
       <c r="R100" s="8"/>
       <c r="S100" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C100:C193 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" ref="S100:S115" si="21" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C100:C193 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
       </c>
       <c r="T100" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="U100" s="45" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="46" t="s">
+      <c r="B101" s="42" t="s">
         <v>615</v>
       </c>
       <c r="C101" s="9">
         <v>1091</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>824</v>
+        <v>725</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>523</v>
@@ -10383,7 +10180,7 @@
       <c r="F101" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="G101" s="46" t="s">
+      <c r="G101" s="42" t="s">
         <v>607</v>
       </c>
       <c r="H101" s="11" t="s">
@@ -10392,54 +10189,51 @@
       <c r="I101" s="12">
         <v>270.32</v>
       </c>
-      <c r="J101" s="47">
-        <f t="shared" si="5"/>
+      <c r="J101" s="43">
+        <f t="shared" si="17"/>
         <v>256.80399999999997</v>
       </c>
       <c r="K101" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>229.77199999999999</v>
       </c>
-      <c r="L101" s="47">
-        <f t="shared" si="6"/>
+      <c r="L101" s="43">
+        <f t="shared" si="18"/>
         <v>189.22399999999999</v>
       </c>
       <c r="M101" s="12" t="str">
-        <f>C101 &amp; ".html"</f>
+        <f t="shared" si="13"/>
         <v>1091.html</v>
       </c>
       <c r="N101" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="O101" s="50" t="s">
+      <c r="O101" s="46" t="s">
         <v>521</v>
       </c>
       <c r="P101" s="8"/>
       <c r="Q101" s="10"/>
       <c r="R101" s="8"/>
       <c r="S101" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C101:C194 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="21"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1091b.jpg</v>
       </c>
       <c r="T101" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="U101" s="45" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="46" t="s">
+      <c r="B102" s="42" t="s">
         <v>615</v>
       </c>
       <c r="C102" s="9">
         <v>1092</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>825</v>
+        <v>726</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>526</v>
@@ -10447,7 +10241,7 @@
       <c r="F102" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="G102" s="46" t="s">
+      <c r="G102" s="42" t="s">
         <v>608</v>
       </c>
       <c r="H102" s="11" t="s">
@@ -10456,54 +10250,51 @@
       <c r="I102" s="12">
         <v>270.32</v>
       </c>
-      <c r="J102" s="47">
-        <f t="shared" si="5"/>
+      <c r="J102" s="43">
+        <f t="shared" si="17"/>
         <v>256.80399999999997</v>
       </c>
       <c r="K102" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>229.77199999999999</v>
       </c>
-      <c r="L102" s="47">
-        <f t="shared" si="6"/>
+      <c r="L102" s="43">
+        <f t="shared" si="18"/>
         <v>189.22399999999999</v>
       </c>
       <c r="M102" s="12" t="str">
-        <f>C102 &amp; ".html"</f>
+        <f t="shared" ref="M102:M127" si="22">C102 &amp; ".html"</f>
         <v>1092.html</v>
       </c>
       <c r="N102" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="O102" s="50" t="s">
+      <c r="O102" s="46" t="s">
         <v>521</v>
       </c>
       <c r="P102" s="8"/>
       <c r="Q102" s="10"/>
       <c r="R102" s="8"/>
       <c r="S102" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C102:C195 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="21"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1092b.jpg</v>
       </c>
       <c r="T102" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="U102" s="45" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="46" t="s">
+      <c r="B103" s="42" t="s">
         <v>615</v>
       </c>
       <c r="C103" s="9">
         <v>1093</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>826</v>
+        <v>727</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>529</v>
@@ -10511,7 +10302,7 @@
       <c r="F103" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="G103" s="46" t="s">
+      <c r="G103" s="42" t="s">
         <v>609</v>
       </c>
       <c r="H103" s="11" t="s">
@@ -10520,54 +10311,51 @@
       <c r="I103" s="12">
         <v>270.32</v>
       </c>
-      <c r="J103" s="47">
-        <f t="shared" si="5"/>
+      <c r="J103" s="43">
+        <f t="shared" si="17"/>
         <v>256.80399999999997</v>
       </c>
       <c r="K103" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>229.77199999999999</v>
       </c>
-      <c r="L103" s="47">
-        <f t="shared" si="6"/>
+      <c r="L103" s="43">
+        <f t="shared" si="18"/>
         <v>189.22399999999999</v>
       </c>
       <c r="M103" s="12" t="str">
-        <f>C103 &amp; ".html"</f>
+        <f t="shared" si="22"/>
         <v>1093.html</v>
       </c>
       <c r="N103" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="O103" s="50" t="s">
+      <c r="O103" s="46" t="s">
         <v>521</v>
       </c>
       <c r="P103" s="8"/>
       <c r="Q103" s="10"/>
       <c r="R103" s="8"/>
       <c r="S103" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C103:C196 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="21"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1093b.jpg</v>
       </c>
       <c r="T103" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="U103" s="45" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="46" t="s">
+      <c r="B104" s="42" t="s">
         <v>615</v>
       </c>
       <c r="C104" s="9">
         <v>1094</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>827</v>
+        <v>728</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>532</v>
@@ -10575,7 +10363,7 @@
       <c r="F104" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="G104" s="46" t="s">
+      <c r="G104" s="42" t="s">
         <v>610</v>
       </c>
       <c r="H104" s="11" t="s">
@@ -10584,54 +10372,51 @@
       <c r="I104" s="12">
         <v>270.32</v>
       </c>
-      <c r="J104" s="47">
-        <f t="shared" si="5"/>
+      <c r="J104" s="43">
+        <f t="shared" si="17"/>
         <v>256.80399999999997</v>
       </c>
       <c r="K104" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>229.77199999999999</v>
       </c>
-      <c r="L104" s="47">
-        <f t="shared" si="6"/>
+      <c r="L104" s="43">
+        <f t="shared" si="18"/>
         <v>189.22399999999999</v>
       </c>
       <c r="M104" s="12" t="str">
-        <f>C104 &amp; ".html"</f>
+        <f t="shared" si="22"/>
         <v>1094.html</v>
       </c>
       <c r="N104" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="O104" s="50" t="s">
+      <c r="O104" s="46" t="s">
         <v>521</v>
       </c>
       <c r="P104" s="8"/>
       <c r="Q104" s="10"/>
       <c r="R104" s="8"/>
       <c r="S104" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C104:C197 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="21"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1094b.jpg</v>
       </c>
       <c r="T104" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="U104" s="45" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="46" t="s">
+      <c r="B105" s="42" t="s">
         <v>615</v>
       </c>
       <c r="C105" s="9">
         <v>1095</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>828</v>
+        <v>729</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>535</v>
@@ -10639,7 +10424,7 @@
       <c r="F105" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="G105" s="46" t="s">
+      <c r="G105" s="42" t="s">
         <v>611</v>
       </c>
       <c r="H105" s="11" t="s">
@@ -10648,43 +10433,40 @@
       <c r="I105" s="12">
         <v>270.32</v>
       </c>
-      <c r="J105" s="47">
-        <f t="shared" si="5"/>
+      <c r="J105" s="43">
+        <f t="shared" si="17"/>
         <v>256.80399999999997</v>
       </c>
       <c r="K105" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>229.77199999999999</v>
       </c>
-      <c r="L105" s="47">
-        <f t="shared" si="6"/>
+      <c r="L105" s="43">
+        <f t="shared" si="18"/>
         <v>189.22399999999999</v>
       </c>
       <c r="M105" s="12" t="str">
-        <f>C105 &amp; ".html"</f>
+        <f t="shared" si="22"/>
         <v>1095.html</v>
       </c>
       <c r="N105" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="O105" s="50" t="s">
+      <c r="O105" s="46" t="s">
         <v>521</v>
       </c>
       <c r="P105" s="8"/>
       <c r="Q105" s="10"/>
       <c r="R105" s="8"/>
       <c r="S105" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C105:C198 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="21"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1095b.jpg</v>
       </c>
       <c r="T105" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="U105" s="45" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:20" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -10695,7 +10477,7 @@
         <v>1072</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>829</v>
+        <v>730</v>
       </c>
       <c r="E106" s="20" t="s">
         <v>476</v>
@@ -10713,19 +10495,19 @@
         <v>320.5</v>
       </c>
       <c r="J106" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>304.47499999999997</v>
       </c>
       <c r="K106" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>272.42500000000001</v>
       </c>
       <c r="L106" s="36">
-        <f t="shared" ref="L106" si="7">I106 * 0.7</f>
+        <f t="shared" ref="L106" si="23">I106 * 0.7</f>
         <v>224.35</v>
       </c>
       <c r="M106" s="21" t="str">
-        <f>C106 &amp; ".html"</f>
+        <f t="shared" si="22"/>
         <v>1072.html</v>
       </c>
       <c r="N106" s="34" t="s">
@@ -10744,17 +10526,14 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1072a.jpg</v>
       </c>
       <c r="S106" s="20" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C106:C199 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="21"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1072b.jpg</v>
       </c>
       <c r="T106" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="U106" s="22" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -10765,7 +10544,7 @@
         <v>1066</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>830</v>
+        <v>731</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>442</v>
@@ -10783,19 +10562,19 @@
         <v>57.23</v>
       </c>
       <c r="J107" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>54.368499999999997</v>
       </c>
       <c r="K107" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>48.645499999999998</v>
       </c>
       <c r="L107" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>40.060999999999993</v>
       </c>
       <c r="M107" s="5" t="str">
-        <f>C107 &amp; ".html"</f>
+        <f t="shared" si="22"/>
         <v>1066.html</v>
       </c>
       <c r="N107" s="1" t="s">
@@ -10811,17 +10590,14 @@
       </c>
       <c r="R107" s="1"/>
       <c r="S107" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C107:C200 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="21"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1066b.jpg</v>
       </c>
       <c r="T107" t="s">
         <v>447</v>
       </c>
-      <c r="U107" s="41" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -10832,7 +10608,7 @@
         <v>1067</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>831</v>
+        <v>732</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>448</v>
@@ -10850,19 +10626,19 @@
         <v>57.23</v>
       </c>
       <c r="J108" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>54.368499999999997</v>
       </c>
       <c r="K108" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>48.645499999999998</v>
       </c>
       <c r="L108" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>40.060999999999993</v>
       </c>
       <c r="M108" s="5" t="str">
-        <f>C108 &amp; ".html"</f>
+        <f t="shared" si="22"/>
         <v>1067.html</v>
       </c>
       <c r="N108" s="1" t="s">
@@ -10873,22 +10649,19 @@
       </c>
       <c r="P108" s="1"/>
       <c r="Q108" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C108:C137 &amp;".jpg"</f>
+        <f t="shared" ref="Q108:Q115" si="24" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C108:C137 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1067.jpg</v>
       </c>
       <c r="R108" s="1"/>
       <c r="S108" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C108:C201 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="21"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1067b.jpg</v>
       </c>
       <c r="T108" t="s">
         <v>451</v>
       </c>
-      <c r="U108" s="41" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -10899,7 +10672,7 @@
         <v>1068</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>832</v>
+        <v>733</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>452</v>
@@ -10917,19 +10690,19 @@
         <v>127.62</v>
       </c>
       <c r="J109" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>121.239</v>
       </c>
       <c r="K109" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>108.477</v>
       </c>
       <c r="L109" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>89.334000000000003</v>
       </c>
       <c r="M109" s="5" t="str">
-        <f>C109 &amp; ".html"</f>
+        <f t="shared" si="22"/>
         <v>1068.html</v>
       </c>
       <c r="N109" s="1" t="s">
@@ -10940,25 +10713,22 @@
       </c>
       <c r="P109" s="1"/>
       <c r="Q109" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C109:C138 &amp;".jpg"</f>
+        <f t="shared" si="24"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1068.jpg</v>
       </c>
       <c r="R109" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C109:C138 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" ref="R109:R112" si="25" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C109:C138 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1068a.jpg</v>
       </c>
       <c r="S109" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C109:C202 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="21"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1068b.jpg</v>
       </c>
       <c r="T109" t="s">
         <v>457</v>
       </c>
-      <c r="U109" s="41" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -10969,7 +10739,7 @@
         <v>1069</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>833</v>
+        <v>734</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>458</v>
@@ -10987,19 +10757,19 @@
         <v>60.11</v>
       </c>
       <c r="J110" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>57.104499999999994</v>
       </c>
       <c r="K110" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>51.093499999999999</v>
       </c>
       <c r="L110" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>42.076999999999998</v>
       </c>
       <c r="M110" s="5" t="str">
-        <f>C110 &amp; ".html"</f>
+        <f t="shared" si="22"/>
         <v>1069.html</v>
       </c>
       <c r="N110" s="1" t="s">
@@ -11010,25 +10780,22 @@
       </c>
       <c r="P110" s="1"/>
       <c r="Q110" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C110:C139 &amp;".jpg"</f>
+        <f t="shared" si="24"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1069.jpg</v>
       </c>
       <c r="R110" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C110:C139 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="25"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1069a.jpg</v>
       </c>
       <c r="S110" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C110:C203 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="21"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1069b.jpg</v>
       </c>
       <c r="T110" t="s">
         <v>463</v>
       </c>
-      <c r="U110" s="41" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -11039,7 +10806,7 @@
         <v>1070</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>834</v>
+        <v>735</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>464</v>
@@ -11057,19 +10824,19 @@
         <v>86.44</v>
       </c>
       <c r="J111" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>82.117999999999995</v>
       </c>
       <c r="K111" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>73.47399999999999</v>
       </c>
       <c r="L111" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>60.507999999999996</v>
       </c>
       <c r="M111" s="5" t="str">
-        <f>C111 &amp; ".html"</f>
+        <f t="shared" si="22"/>
         <v>1070.html</v>
       </c>
       <c r="N111" s="1" t="s">
@@ -11080,25 +10847,22 @@
       </c>
       <c r="P111" s="1"/>
       <c r="Q111" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C111:C140 &amp;".jpg"</f>
+        <f t="shared" si="24"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1070.jpg</v>
       </c>
       <c r="R111" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C111:C140 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="25"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1070a.jpg</v>
       </c>
       <c r="S111" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C111:C204 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="21"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1070b.jpg</v>
       </c>
       <c r="T111" t="s">
         <v>469</v>
       </c>
-      <c r="U111" s="41" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -11109,7 +10873,7 @@
         <v>1071</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>835</v>
+        <v>736</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>470</v>
@@ -11127,19 +10891,19 @@
         <v>10.31</v>
       </c>
       <c r="J112" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>9.7944999999999993</v>
       </c>
       <c r="K112" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>8.7635000000000005</v>
       </c>
       <c r="L112" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>7.2169999999999996</v>
       </c>
       <c r="M112" s="5" t="str">
-        <f>C112 &amp; ".html"</f>
+        <f t="shared" si="22"/>
         <v>1071.html</v>
       </c>
       <c r="N112" s="1" t="s">
@@ -11150,179 +10914,208 @@
       </c>
       <c r="P112" s="1"/>
       <c r="Q112" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C112:C141 &amp;".jpg"</f>
+        <f t="shared" si="24"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1071.jpg</v>
       </c>
       <c r="R112" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C112:C141 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" si="25"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1071a.jpg</v>
       </c>
       <c r="S112" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C112:C205 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="21"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1071b.jpg</v>
       </c>
       <c r="T112" t="s">
         <v>475</v>
       </c>
-      <c r="U112" s="41" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:20" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C113" s="44">
+      <c r="C113" s="40">
         <v>1111</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>861</v>
+        <v>762</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>862</v>
+        <v>763</v>
       </c>
       <c r="G113" s="25" t="s">
-        <v>867</v>
-      </c>
-      <c r="I113" s="43">
+        <v>768</v>
+      </c>
+      <c r="H113" s="53" t="s">
+        <v>852</v>
+      </c>
+      <c r="I113" s="39">
         <v>79.540000000000006</v>
       </c>
-      <c r="J113" s="56">
-        <f t="shared" si="5"/>
+      <c r="J113" s="51">
+        <f t="shared" si="17"/>
         <v>75.563000000000002</v>
       </c>
-      <c r="K113" s="56">
-        <f t="shared" si="4"/>
+      <c r="K113" s="51">
+        <f t="shared" si="16"/>
         <v>67.609000000000009</v>
       </c>
-      <c r="L113" s="56">
-        <f t="shared" si="6"/>
+      <c r="L113" s="51">
+        <f t="shared" si="18"/>
         <v>55.678000000000004</v>
       </c>
-      <c r="M113" s="44" t="str">
-        <f>C113 &amp; ".html"</f>
+      <c r="M113" s="40" t="str">
+        <f t="shared" si="22"/>
         <v>1111.html</v>
       </c>
+      <c r="N113" s="25" t="s">
+        <v>860</v>
+      </c>
+      <c r="O113" s="25" t="s">
+        <v>858</v>
+      </c>
       <c r="Q113" s="25" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C113:C142 &amp;".jpg"</f>
+        <f t="shared" si="24"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1111.jpg</v>
       </c>
-      <c r="R113" s="25" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C113:C142 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1111a.jpg</v>
-      </c>
       <c r="S113" s="25" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C113:C206 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="21"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1111b.jpg</v>
       </c>
-    </row>
-    <row r="114" spans="1:21" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T113" s="19" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C114" s="44">
+      <c r="C114" s="40">
         <v>1112</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>863</v>
+        <v>764</v>
       </c>
       <c r="F114" s="25" t="s">
-        <v>864</v>
+        <v>765</v>
       </c>
       <c r="G114" s="25" t="s">
-        <v>868</v>
-      </c>
-      <c r="I114" s="43">
+        <v>769</v>
+      </c>
+      <c r="H114" s="53" t="s">
+        <v>853</v>
+      </c>
+      <c r="I114" s="39">
         <v>75.58</v>
       </c>
-      <c r="J114" s="56">
-        <f t="shared" si="5"/>
+      <c r="J114" s="51">
+        <f t="shared" si="17"/>
         <v>71.801000000000002</v>
       </c>
-      <c r="K114" s="56">
-        <f t="shared" si="4"/>
+      <c r="K114" s="51">
+        <f t="shared" si="16"/>
         <v>64.242999999999995</v>
       </c>
-      <c r="L114" s="56">
-        <f t="shared" si="6"/>
+      <c r="L114" s="51">
+        <f t="shared" si="18"/>
         <v>52.905999999999999</v>
       </c>
-      <c r="M114" s="44" t="str">
-        <f>C114 &amp; ".html"</f>
+      <c r="M114" s="40" t="str">
+        <f t="shared" si="22"/>
         <v>1112.html</v>
       </c>
+      <c r="N114" s="53" t="s">
+        <v>856</v>
+      </c>
+      <c r="O114" s="25" t="s">
+        <v>857</v>
+      </c>
       <c r="Q114" s="25" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C114:C143 &amp;".jpg"</f>
+        <f t="shared" si="24"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1112.jpg</v>
       </c>
-      <c r="R114" s="25" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C114:C143 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1112a.jpg</v>
-      </c>
       <c r="S114" s="25" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C114:C207 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="21"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1112b.jpg</v>
       </c>
-    </row>
-    <row r="115" spans="1:21" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T114" s="19" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" s="25" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C115" s="44">
+      <c r="C115" s="40">
         <v>1113</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
       <c r="E115" s="25" t="s">
-        <v>865</v>
+        <v>766</v>
       </c>
       <c r="F115" s="25" t="s">
-        <v>866</v>
+        <v>767</v>
       </c>
       <c r="G115" s="25" t="s">
-        <v>869</v>
-      </c>
-      <c r="I115" s="43">
+        <v>770</v>
+      </c>
+      <c r="H115" s="53" t="s">
+        <v>854</v>
+      </c>
+      <c r="I115" s="39">
         <v>51.51</v>
       </c>
-      <c r="J115" s="56">
-        <f t="shared" si="5"/>
+      <c r="J115" s="51">
+        <f t="shared" si="17"/>
         <v>48.934499999999993</v>
       </c>
-      <c r="K115" s="56">
-        <f t="shared" si="4"/>
+      <c r="K115" s="51">
+        <f t="shared" si="16"/>
         <v>43.783499999999997</v>
       </c>
-      <c r="L115" s="56">
-        <f t="shared" si="6"/>
+      <c r="L115" s="51">
+        <f t="shared" si="18"/>
         <v>36.056999999999995</v>
       </c>
-      <c r="M115" s="44" t="str">
-        <f>C115 &amp; ".html"</f>
+      <c r="M115" s="40" t="str">
+        <f t="shared" si="22"/>
         <v>1113.html</v>
       </c>
+      <c r="N115" s="25" t="s">
+        <v>859</v>
+      </c>
+      <c r="O115" s="53" t="s">
+        <v>855</v>
+      </c>
       <c r="Q115" s="25" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C115:C144 &amp;".jpg"</f>
+        <f t="shared" si="24"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1113.jpg</v>
       </c>
-    </row>
-    <row r="116" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S115" s="25" t="str">
+        <f t="shared" si="21"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1113b.jpg</v>
+      </c>
+      <c r="T115" s="19" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -11333,7 +11126,7 @@
         <v>1074</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>817</v>
+        <v>718</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>492</v>
@@ -11341,29 +11134,29 @@
       <c r="F116" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="G116" s="46" t="s">
+      <c r="G116" s="42" t="s">
         <v>606</v>
       </c>
-      <c r="H116" s="49" t="s">
+      <c r="H116" s="45" t="s">
         <v>494</v>
       </c>
       <c r="I116" s="12">
         <v>337.32</v>
       </c>
-      <c r="J116" s="47">
-        <f t="shared" ref="J116:J127" si="8">I116 * 0.95</f>
+      <c r="J116" s="43">
+        <f t="shared" ref="J116:J127" si="26">I116 * 0.95</f>
         <v>320.45399999999995</v>
       </c>
       <c r="K116" s="6">
-        <f t="shared" ref="K116:K127" si="9">I116 * 0.85</f>
+        <f t="shared" ref="K116:K127" si="27">I116 * 0.85</f>
         <v>286.72199999999998</v>
       </c>
-      <c r="L116" s="47">
-        <f t="shared" ref="L116:L127" si="10">I116 * 0.7</f>
+      <c r="L116" s="43">
+        <f t="shared" ref="L116:L127" si="28">I116 * 0.7</f>
         <v>236.12399999999997</v>
       </c>
       <c r="M116" s="12" t="str">
-        <f>C116 &amp; ".html"</f>
+        <f t="shared" si="22"/>
         <v>1074.html</v>
       </c>
       <c r="N116" s="11" t="s">
@@ -11382,11 +11175,8 @@
       <c r="T116" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="U116" s="45" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -11397,7 +11187,7 @@
         <v>1086</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>818</v>
+        <v>719</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>498</v>
@@ -11405,29 +11195,29 @@
       <c r="F117" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="G117" s="46" t="s">
+      <c r="G117" s="42" t="s">
         <v>606</v>
       </c>
-      <c r="H117" s="49" t="s">
+      <c r="H117" s="45" t="s">
         <v>494</v>
       </c>
       <c r="I117" s="12">
         <v>337.32</v>
       </c>
-      <c r="J117" s="47">
-        <f t="shared" si="8"/>
+      <c r="J117" s="43">
+        <f t="shared" si="26"/>
         <v>320.45399999999995</v>
       </c>
       <c r="K117" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>286.72199999999998</v>
       </c>
-      <c r="L117" s="47">
-        <f t="shared" si="10"/>
+      <c r="L117" s="43">
+        <f t="shared" si="28"/>
         <v>236.12399999999997</v>
       </c>
       <c r="M117" s="12" t="str">
-        <f>C117 &amp; ".html"</f>
+        <f t="shared" si="22"/>
         <v>1086.html</v>
       </c>
       <c r="N117" s="11" t="s">
@@ -11446,11 +11236,8 @@
       <c r="T117" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="U117" s="45" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -11461,7 +11248,7 @@
         <v>1087</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>819</v>
+        <v>720</v>
       </c>
       <c r="E118" s="7" t="s">
         <v>501</v>
@@ -11469,7 +11256,7 @@
       <c r="F118" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="G118" s="46" t="s">
+      <c r="G118" s="42" t="s">
         <v>607</v>
       </c>
       <c r="H118" s="11" t="s">
@@ -11478,20 +11265,20 @@
       <c r="I118" s="12">
         <v>337.32</v>
       </c>
-      <c r="J118" s="47">
-        <f t="shared" si="8"/>
+      <c r="J118" s="43">
+        <f t="shared" si="26"/>
         <v>320.45399999999995</v>
       </c>
       <c r="K118" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>286.72199999999998</v>
       </c>
-      <c r="L118" s="47">
-        <f t="shared" si="10"/>
+      <c r="L118" s="43">
+        <f t="shared" si="28"/>
         <v>236.12399999999997</v>
       </c>
       <c r="M118" s="12" t="str">
-        <f>C118 &amp; ".html"</f>
+        <f t="shared" si="22"/>
         <v>1087.html</v>
       </c>
       <c r="N118" s="11" t="s">
@@ -11503,17 +11290,14 @@
       <c r="P118" s="8"/>
       <c r="Q118" s="10"/>
       <c r="R118" s="8"/>
-      <c r="S118" s="48" t="s">
+      <c r="S118" s="44" t="s">
         <v>621</v>
       </c>
       <c r="T118" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="U118" s="45" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -11524,7 +11308,7 @@
         <v>1088</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>820</v>
+        <v>721</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>506</v>
@@ -11532,7 +11316,7 @@
       <c r="F119" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="G119" s="46" t="s">
+      <c r="G119" s="42" t="s">
         <v>607</v>
       </c>
       <c r="H119" s="11" t="s">
@@ -11541,20 +11325,20 @@
       <c r="I119" s="12">
         <v>337.32</v>
       </c>
-      <c r="J119" s="47">
-        <f t="shared" si="8"/>
+      <c r="J119" s="43">
+        <f t="shared" si="26"/>
         <v>320.45399999999995</v>
       </c>
       <c r="K119" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>286.72199999999998</v>
       </c>
-      <c r="L119" s="47">
-        <f t="shared" si="10"/>
+      <c r="L119" s="43">
+        <f t="shared" si="28"/>
         <v>236.12399999999997</v>
       </c>
       <c r="M119" s="12" t="str">
-        <f>C119 &amp; ".html"</f>
+        <f t="shared" si="22"/>
         <v>1088.html</v>
       </c>
       <c r="N119" s="11" t="s">
@@ -11566,17 +11350,14 @@
       <c r="P119" s="8"/>
       <c r="Q119" s="10"/>
       <c r="R119" s="8"/>
-      <c r="S119" s="48" t="s">
+      <c r="S119" s="44" t="s">
         <v>622</v>
       </c>
       <c r="T119" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="U119" s="45" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -11587,7 +11368,7 @@
         <v>1089</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>821</v>
+        <v>722</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>509</v>
@@ -11595,7 +11376,7 @@
       <c r="F120" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="G120" s="46" t="s">
+      <c r="G120" s="42" t="s">
         <v>607</v>
       </c>
       <c r="H120" s="11" t="s">
@@ -11604,20 +11385,20 @@
       <c r="I120" s="12">
         <v>337.32</v>
       </c>
-      <c r="J120" s="47">
-        <f t="shared" si="8"/>
+      <c r="J120" s="43">
+        <f t="shared" si="26"/>
         <v>320.45399999999995</v>
       </c>
       <c r="K120" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>286.72199999999998</v>
       </c>
-      <c r="L120" s="47">
-        <f t="shared" si="10"/>
+      <c r="L120" s="43">
+        <f t="shared" si="28"/>
         <v>236.12399999999997</v>
       </c>
       <c r="M120" s="12" t="str">
-        <f>C120 &amp; ".html"</f>
+        <f t="shared" si="22"/>
         <v>1089.html</v>
       </c>
       <c r="N120" s="11" t="s">
@@ -11629,17 +11410,14 @@
       <c r="P120" s="8"/>
       <c r="Q120" s="10"/>
       <c r="R120" s="8"/>
-      <c r="S120" s="48" t="s">
+      <c r="S120" s="44" t="s">
         <v>621</v>
       </c>
       <c r="T120" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="U120" s="45" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -11650,7 +11428,7 @@
         <v>1090</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>822</v>
+        <v>723</v>
       </c>
       <c r="E121" s="7" t="s">
         <v>514</v>
@@ -11658,7 +11436,7 @@
       <c r="F121" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="G121" s="46" t="s">
+      <c r="G121" s="42" t="s">
         <v>607</v>
       </c>
       <c r="H121" s="11" t="s">
@@ -11667,20 +11445,20 @@
       <c r="I121" s="12">
         <v>337.32</v>
       </c>
-      <c r="J121" s="47">
-        <f t="shared" si="8"/>
+      <c r="J121" s="43">
+        <f t="shared" si="26"/>
         <v>320.45399999999995</v>
       </c>
       <c r="K121" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>286.72199999999998</v>
       </c>
-      <c r="L121" s="47">
-        <f t="shared" si="10"/>
+      <c r="L121" s="43">
+        <f t="shared" si="28"/>
         <v>236.12399999999997</v>
       </c>
       <c r="M121" s="12" t="str">
-        <f>C121 &amp; ".html"</f>
+        <f t="shared" si="22"/>
         <v>1090.html</v>
       </c>
       <c r="N121" s="11" t="s">
@@ -11692,17 +11470,14 @@
       <c r="P121" s="8"/>
       <c r="Q121" s="10"/>
       <c r="R121" s="8"/>
-      <c r="S121" s="48" t="s">
+      <c r="S121" s="44" t="s">
         <v>622</v>
       </c>
       <c r="T121" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="U121" s="45" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -11713,7 +11488,7 @@
         <v>1073</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>823</v>
+        <v>724</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>517</v>
@@ -11721,7 +11496,7 @@
       <c r="F122" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="G122" s="46" t="s">
+      <c r="G122" s="42" t="s">
         <v>607</v>
       </c>
       <c r="H122" s="11" t="s">
@@ -11730,43 +11505,40 @@
       <c r="I122" s="12">
         <v>270.32</v>
       </c>
-      <c r="J122" s="47">
-        <f t="shared" si="8"/>
+      <c r="J122" s="43">
+        <f t="shared" si="26"/>
         <v>256.80399999999997</v>
       </c>
       <c r="K122" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>229.77199999999999</v>
       </c>
-      <c r="L122" s="47">
-        <f t="shared" si="10"/>
+      <c r="L122" s="43">
+        <f t="shared" si="28"/>
         <v>189.22399999999999</v>
       </c>
       <c r="M122" s="12" t="str">
-        <f>C122 &amp; ".html"</f>
+        <f t="shared" si="22"/>
         <v>1073.html</v>
       </c>
       <c r="N122" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="O122" s="50" t="s">
+      <c r="O122" s="46" t="s">
         <v>521</v>
       </c>
       <c r="P122" s="8"/>
       <c r="Q122" s="10"/>
       <c r="R122" s="8"/>
       <c r="S122" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C122:C215 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" ref="S122:S127" si="29" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C122:C215 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
       </c>
       <c r="T122" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="U122" s="45" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -11777,7 +11549,7 @@
         <v>1091</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>824</v>
+        <v>725</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>523</v>
@@ -11785,7 +11557,7 @@
       <c r="F123" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="G123" s="46" t="s">
+      <c r="G123" s="42" t="s">
         <v>607</v>
       </c>
       <c r="H123" s="11" t="s">
@@ -11794,43 +11566,40 @@
       <c r="I123" s="12">
         <v>270.32</v>
       </c>
-      <c r="J123" s="47">
-        <f t="shared" si="8"/>
+      <c r="J123" s="43">
+        <f t="shared" si="26"/>
         <v>256.80399999999997</v>
       </c>
       <c r="K123" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>229.77199999999999</v>
       </c>
-      <c r="L123" s="47">
-        <f t="shared" si="10"/>
+      <c r="L123" s="43">
+        <f t="shared" si="28"/>
         <v>189.22399999999999</v>
       </c>
       <c r="M123" s="12" t="str">
-        <f>C123 &amp; ".html"</f>
+        <f t="shared" si="22"/>
         <v>1091.html</v>
       </c>
       <c r="N123" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="O123" s="50" t="s">
+      <c r="O123" s="46" t="s">
         <v>521</v>
       </c>
       <c r="P123" s="8"/>
       <c r="Q123" s="10"/>
       <c r="R123" s="8"/>
       <c r="S123" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C123:C216 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="29"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1091b.jpg</v>
       </c>
       <c r="T123" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="U123" s="45" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -11841,7 +11610,7 @@
         <v>1092</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>825</v>
+        <v>726</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>526</v>
@@ -11849,7 +11618,7 @@
       <c r="F124" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="G124" s="46" t="s">
+      <c r="G124" s="42" t="s">
         <v>608</v>
       </c>
       <c r="H124" s="11" t="s">
@@ -11858,43 +11627,40 @@
       <c r="I124" s="12">
         <v>270.32</v>
       </c>
-      <c r="J124" s="47">
-        <f t="shared" si="8"/>
+      <c r="J124" s="43">
+        <f t="shared" si="26"/>
         <v>256.80399999999997</v>
       </c>
       <c r="K124" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>229.77199999999999</v>
       </c>
-      <c r="L124" s="47">
-        <f t="shared" si="10"/>
+      <c r="L124" s="43">
+        <f t="shared" si="28"/>
         <v>189.22399999999999</v>
       </c>
       <c r="M124" s="12" t="str">
-        <f>C124 &amp; ".html"</f>
+        <f t="shared" si="22"/>
         <v>1092.html</v>
       </c>
       <c r="N124" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="O124" s="50" t="s">
+      <c r="O124" s="46" t="s">
         <v>521</v>
       </c>
       <c r="P124" s="8"/>
       <c r="Q124" s="10"/>
       <c r="R124" s="8"/>
       <c r="S124" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C124:C217 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="29"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1092b.jpg</v>
       </c>
       <c r="T124" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="U124" s="45" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -11905,7 +11671,7 @@
         <v>1093</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>826</v>
+        <v>727</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>529</v>
@@ -11913,7 +11679,7 @@
       <c r="F125" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="G125" s="46" t="s">
+      <c r="G125" s="42" t="s">
         <v>609</v>
       </c>
       <c r="H125" s="11" t="s">
@@ -11922,43 +11688,40 @@
       <c r="I125" s="12">
         <v>270.32</v>
       </c>
-      <c r="J125" s="47">
-        <f t="shared" si="8"/>
+      <c r="J125" s="43">
+        <f t="shared" si="26"/>
         <v>256.80399999999997</v>
       </c>
       <c r="K125" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>229.77199999999999</v>
       </c>
-      <c r="L125" s="47">
-        <f t="shared" si="10"/>
+      <c r="L125" s="43">
+        <f t="shared" si="28"/>
         <v>189.22399999999999</v>
       </c>
       <c r="M125" s="12" t="str">
-        <f>C125 &amp; ".html"</f>
+        <f t="shared" si="22"/>
         <v>1093.html</v>
       </c>
       <c r="N125" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="O125" s="50" t="s">
+      <c r="O125" s="46" t="s">
         <v>521</v>
       </c>
       <c r="P125" s="8"/>
       <c r="Q125" s="10"/>
       <c r="R125" s="8"/>
       <c r="S125" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C125:C218 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="29"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1093b.jpg</v>
       </c>
       <c r="T125" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="U125" s="45" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -11969,7 +11732,7 @@
         <v>1094</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>827</v>
+        <v>728</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>532</v>
@@ -11977,7 +11740,7 @@
       <c r="F126" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="G126" s="46" t="s">
+      <c r="G126" s="42" t="s">
         <v>610</v>
       </c>
       <c r="H126" s="11" t="s">
@@ -11986,43 +11749,40 @@
       <c r="I126" s="12">
         <v>270.32</v>
       </c>
-      <c r="J126" s="47">
-        <f t="shared" si="8"/>
+      <c r="J126" s="43">
+        <f t="shared" si="26"/>
         <v>256.80399999999997</v>
       </c>
       <c r="K126" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>229.77199999999999</v>
       </c>
-      <c r="L126" s="47">
-        <f t="shared" si="10"/>
+      <c r="L126" s="43">
+        <f t="shared" si="28"/>
         <v>189.22399999999999</v>
       </c>
       <c r="M126" s="12" t="str">
-        <f>C126 &amp; ".html"</f>
+        <f t="shared" si="22"/>
         <v>1094.html</v>
       </c>
       <c r="N126" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="O126" s="50" t="s">
+      <c r="O126" s="46" t="s">
         <v>521</v>
       </c>
       <c r="P126" s="8"/>
       <c r="Q126" s="10"/>
       <c r="R126" s="8"/>
       <c r="S126" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C126:C219 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="29"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1094b.jpg</v>
       </c>
       <c r="T126" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="U126" s="45" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:20" s="7" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -12033,7 +11793,7 @@
         <v>1095</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>828</v>
+        <v>729</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>535</v>
@@ -12041,7 +11801,7 @@
       <c r="F127" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="G127" s="46" t="s">
+      <c r="G127" s="42" t="s">
         <v>611</v>
       </c>
       <c r="H127" s="11" t="s">
@@ -12050,40 +11810,37 @@
       <c r="I127" s="12">
         <v>270.32</v>
       </c>
-      <c r="J127" s="47">
-        <f t="shared" si="8"/>
+      <c r="J127" s="43">
+        <f t="shared" si="26"/>
         <v>256.80399999999997</v>
       </c>
       <c r="K127" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>229.77199999999999</v>
       </c>
-      <c r="L127" s="47">
-        <f t="shared" si="10"/>
+      <c r="L127" s="43">
+        <f t="shared" si="28"/>
         <v>189.22399999999999</v>
       </c>
       <c r="M127" s="12" t="str">
-        <f>C127 &amp; ".html"</f>
+        <f t="shared" si="22"/>
         <v>1095.html</v>
       </c>
       <c r="N127" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="O127" s="50" t="s">
+      <c r="O127" s="46" t="s">
         <v>521</v>
       </c>
       <c r="P127" s="8"/>
       <c r="Q127" s="10"/>
       <c r="R127" s="8"/>
       <c r="S127" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C127:C220 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="29"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1095b.jpg</v>
       </c>
       <c r="T127" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="U127" s="45" t="s">
-        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -12104,121 +11861,36 @@
     <hyperlink ref="S97" r:id="rId14"/>
     <hyperlink ref="S98" r:id="rId15"/>
     <hyperlink ref="S99" r:id="rId16"/>
-    <hyperlink ref="U38" r:id="rId17"/>
-    <hyperlink ref="U9" r:id="rId18"/>
-    <hyperlink ref="U92" r:id="rId19"/>
-    <hyperlink ref="U93" r:id="rId20"/>
-    <hyperlink ref="U94" r:id="rId21"/>
-    <hyperlink ref="U95" r:id="rId22"/>
-    <hyperlink ref="U96" r:id="rId23"/>
-    <hyperlink ref="U97" r:id="rId24"/>
-    <hyperlink ref="U98" r:id="rId25"/>
-    <hyperlink ref="U99" r:id="rId26"/>
-    <hyperlink ref="U100" r:id="rId27"/>
-    <hyperlink ref="U101" r:id="rId28"/>
-    <hyperlink ref="U102" r:id="rId29"/>
-    <hyperlink ref="U103" r:id="rId30"/>
-    <hyperlink ref="U104" r:id="rId31"/>
-    <hyperlink ref="U105" r:id="rId32"/>
-    <hyperlink ref="U2" r:id="rId33"/>
-    <hyperlink ref="U3" r:id="rId34"/>
-    <hyperlink ref="U4" r:id="rId35"/>
-    <hyperlink ref="U20" r:id="rId36"/>
-    <hyperlink ref="U21" r:id="rId37"/>
-    <hyperlink ref="U22" r:id="rId38"/>
-    <hyperlink ref="U23" r:id="rId39"/>
-    <hyperlink ref="U24" r:id="rId40"/>
-    <hyperlink ref="U25" r:id="rId41"/>
-    <hyperlink ref="U28" r:id="rId42"/>
-    <hyperlink ref="U29" r:id="rId43"/>
-    <hyperlink ref="U30" r:id="rId44"/>
-    <hyperlink ref="U19" r:id="rId45"/>
-    <hyperlink ref="U39" r:id="rId46"/>
-    <hyperlink ref="U40" r:id="rId47"/>
-    <hyperlink ref="U43" r:id="rId48"/>
-    <hyperlink ref="U44" r:id="rId49"/>
-    <hyperlink ref="U26" r:id="rId50"/>
-    <hyperlink ref="U45" r:id="rId51"/>
-    <hyperlink ref="U46" r:id="rId52"/>
-    <hyperlink ref="U47" r:id="rId53"/>
-    <hyperlink ref="U48" r:id="rId54"/>
-    <hyperlink ref="U49" r:id="rId55"/>
-    <hyperlink ref="U50" r:id="rId56"/>
-    <hyperlink ref="U51" r:id="rId57"/>
-    <hyperlink ref="U53" r:id="rId58"/>
-    <hyperlink ref="U54" r:id="rId59"/>
-    <hyperlink ref="U55" r:id="rId60"/>
-    <hyperlink ref="U56" r:id="rId61"/>
-    <hyperlink ref="U57" r:id="rId62"/>
-    <hyperlink ref="U58" r:id="rId63"/>
-    <hyperlink ref="U59" r:id="rId64"/>
-    <hyperlink ref="U64" r:id="rId65"/>
-    <hyperlink ref="U65" r:id="rId66"/>
-    <hyperlink ref="U66" r:id="rId67"/>
-    <hyperlink ref="U67" r:id="rId68"/>
-    <hyperlink ref="U68" r:id="rId69"/>
-    <hyperlink ref="U69" r:id="rId70"/>
-    <hyperlink ref="U70" r:id="rId71"/>
-    <hyperlink ref="U71" r:id="rId72"/>
-    <hyperlink ref="U72" r:id="rId73"/>
-    <hyperlink ref="U73" r:id="rId74"/>
-    <hyperlink ref="U74" r:id="rId75"/>
-    <hyperlink ref="U75" r:id="rId76"/>
-    <hyperlink ref="U77" r:id="rId77"/>
-    <hyperlink ref="U78" r:id="rId78"/>
-    <hyperlink ref="U79" r:id="rId79"/>
-    <hyperlink ref="U83" r:id="rId80"/>
-    <hyperlink ref="U84" r:id="rId81"/>
-    <hyperlink ref="U85" r:id="rId82"/>
-    <hyperlink ref="U86" r:id="rId83"/>
-    <hyperlink ref="U87" r:id="rId84"/>
-    <hyperlink ref="U88" r:id="rId85"/>
-    <hyperlink ref="U52" r:id="rId86"/>
-    <hyperlink ref="U80" r:id="rId87"/>
-    <hyperlink ref="U81" r:id="rId88"/>
-    <hyperlink ref="U82" r:id="rId89"/>
-    <hyperlink ref="U89" r:id="rId90"/>
-    <hyperlink ref="U90" r:id="rId91"/>
-    <hyperlink ref="U91" r:id="rId92"/>
-    <hyperlink ref="U5" r:id="rId93"/>
-    <hyperlink ref="U6" r:id="rId94"/>
-    <hyperlink ref="U7" r:id="rId95"/>
-    <hyperlink ref="U8" r:id="rId96"/>
-    <hyperlink ref="U10" r:id="rId97"/>
-    <hyperlink ref="U11" r:id="rId98"/>
-    <hyperlink ref="U12" r:id="rId99"/>
-    <hyperlink ref="U13" r:id="rId100"/>
-    <hyperlink ref="U14" r:id="rId101"/>
-    <hyperlink ref="U15" r:id="rId102"/>
-    <hyperlink ref="U16" r:id="rId103"/>
-    <hyperlink ref="U41" r:id="rId104"/>
-    <hyperlink ref="T41" r:id="rId105"/>
-    <hyperlink ref="T42" r:id="rId106"/>
-    <hyperlink ref="U42" r:id="rId107"/>
-    <hyperlink ref="O122" r:id="rId108"/>
-    <hyperlink ref="O123" r:id="rId109"/>
-    <hyperlink ref="O124" r:id="rId110"/>
-    <hyperlink ref="O125" r:id="rId111"/>
-    <hyperlink ref="O126" r:id="rId112"/>
-    <hyperlink ref="O127" r:id="rId113"/>
-    <hyperlink ref="S118" r:id="rId114"/>
-    <hyperlink ref="S119" r:id="rId115"/>
-    <hyperlink ref="S120" r:id="rId116"/>
-    <hyperlink ref="S121" r:id="rId117"/>
-    <hyperlink ref="U116" r:id="rId118"/>
-    <hyperlink ref="U117" r:id="rId119"/>
-    <hyperlink ref="U118" r:id="rId120"/>
-    <hyperlink ref="U119" r:id="rId121"/>
-    <hyperlink ref="U120" r:id="rId122"/>
-    <hyperlink ref="U121" r:id="rId123"/>
-    <hyperlink ref="U122" r:id="rId124"/>
-    <hyperlink ref="U123" r:id="rId125"/>
-    <hyperlink ref="U124" r:id="rId126"/>
-    <hyperlink ref="U125" r:id="rId127"/>
-    <hyperlink ref="U126" r:id="rId128"/>
-    <hyperlink ref="U127" r:id="rId129"/>
+    <hyperlink ref="T41" r:id="rId17"/>
+    <hyperlink ref="T42" r:id="rId18"/>
+    <hyperlink ref="O122" r:id="rId19"/>
+    <hyperlink ref="O123" r:id="rId20"/>
+    <hyperlink ref="O124" r:id="rId21"/>
+    <hyperlink ref="O125" r:id="rId22"/>
+    <hyperlink ref="O126" r:id="rId23"/>
+    <hyperlink ref="O127" r:id="rId24"/>
+    <hyperlink ref="S118" r:id="rId25"/>
+    <hyperlink ref="S119" r:id="rId26"/>
+    <hyperlink ref="S120" r:id="rId27"/>
+    <hyperlink ref="S121" r:id="rId28"/>
+    <hyperlink ref="T27" r:id="rId29"/>
+    <hyperlink ref="T31" r:id="rId30"/>
+    <hyperlink ref="T32" r:id="rId31"/>
+    <hyperlink ref="T33" r:id="rId32"/>
+    <hyperlink ref="T34" r:id="rId33"/>
+    <hyperlink ref="T35" r:id="rId34"/>
+    <hyperlink ref="T36" r:id="rId35"/>
+    <hyperlink ref="T37" r:id="rId36"/>
+    <hyperlink ref="T60" r:id="rId37"/>
+    <hyperlink ref="T61" r:id="rId38"/>
+    <hyperlink ref="T62" r:id="rId39"/>
+    <hyperlink ref="T63" r:id="rId40"/>
+    <hyperlink ref="T76" r:id="rId41"/>
+    <hyperlink ref="T113" r:id="rId42"/>
+    <hyperlink ref="T114" r:id="rId43"/>
+    <hyperlink ref="T115" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId130"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId45"/>
 </worksheet>
 </file>
--- a/products_categories/Merge.xlsx
+++ b/products_categories/Merge.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="578">
   <si>
     <t>h1</t>
   </si>
@@ -1751,6 +1751,9 @@
   </si>
   <si>
     <t>https://thealoeveraco.shop/MBS0gCQ2</t>
+  </si>
+  <si>
+    <t>discount15</t>
   </si>
 </sst>
 </file>
@@ -2249,10 +2252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:O127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M1048576"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2263,15 +2266,15 @@
     <col min="4" max="4" width="33.5546875" style="6" customWidth="1"/>
     <col min="5" max="5" width="28.88671875" customWidth="1"/>
     <col min="8" max="8" width="17.21875" style="24"/>
-    <col min="9" max="9" width="17.21875" style="45"/>
-    <col min="10" max="10" width="17.21875" style="23"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" customWidth="1"/>
-    <col min="13" max="13" width="21.5546875" customWidth="1"/>
-    <col min="14" max="14" width="35.33203125" customWidth="1"/>
+    <col min="9" max="10" width="17.21875" style="45"/>
+    <col min="11" max="11" width="17.21875" style="23"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" customWidth="1"/>
+    <col min="14" max="14" width="21.5546875" customWidth="1"/>
+    <col min="15" max="15" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="27" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="27" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>379</v>
       </c>
@@ -2297,25 +2300,28 @@
         <v>6</v>
       </c>
       <c r="I1" s="43" t="s">
+        <v>577</v>
+      </c>
+      <c r="J1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="L1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="N1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="O1" s="27" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2341,30 +2347,34 @@
         <v>59.54</v>
       </c>
       <c r="I2" s="5">
+        <f>H2 * 0.85</f>
+        <v>50.608999999999995</v>
+      </c>
+      <c r="J2" s="5">
         <f>H2 * 0.7</f>
         <v>41.677999999999997</v>
       </c>
-      <c r="J2" s="4" t="str">
-        <f>C2 &amp; ".html"</f>
+      <c r="K2" s="4" t="str">
+        <f t="shared" ref="K2:K33" si="0">C2 &amp; ".html"</f>
         <v>1000.html</v>
       </c>
-      <c r="K2" s="3" t="str">
+      <c r="L2" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C2:C112 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1000.jpg</v>
       </c>
-      <c r="L2" s="1" t="str">
+      <c r="M2" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C2:C112 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1000a.jpg</v>
       </c>
-      <c r="M2" s="1" t="str">
+      <c r="N2" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C2:C112 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1000b.jpg</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2390,30 +2400,34 @@
         <v>59.54</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" ref="I3:I81" si="0">H3 * 0.7</f>
+        <f>H3 * 0.85</f>
+        <v>50.608999999999995</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J81" si="1">H3 * 0.7</f>
         <v>41.677999999999997</v>
       </c>
-      <c r="J3" s="4" t="str">
-        <f>C3 &amp; ".html"</f>
+      <c r="K3" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>1001.html</v>
       </c>
-      <c r="K3" s="3" t="str">
+      <c r="L3" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C3:C92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1001.jpg</v>
       </c>
-      <c r="L3" s="1" t="str">
+      <c r="M3" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C3:C92 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1001a.jpg</v>
       </c>
-      <c r="M3" s="1" t="str">
+      <c r="N3" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C3:C112 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1001b.jpg</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2439,30 +2453,34 @@
         <v>59.54</v>
       </c>
       <c r="I4" s="5">
+        <f t="shared" ref="I4:I67" si="2">H4 * 0.85</f>
+        <v>50.608999999999995</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="1"/>
+        <v>41.677999999999997</v>
+      </c>
+      <c r="K4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>41.677999999999997</v>
-      </c>
-      <c r="J4" s="4" t="str">
-        <f>C4 &amp; ".html"</f>
         <v>1075.html</v>
       </c>
-      <c r="K4" s="9" t="str">
+      <c r="L4" s="9" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C4:C93 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1075.jpg</v>
       </c>
-      <c r="L4" s="7" t="str">
+      <c r="M4" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C4:C93 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1075a.jpg</v>
       </c>
-      <c r="M4" s="1" t="str">
+      <c r="N4" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C4:C112 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1075b.jpg</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2488,30 +2506,34 @@
         <v>59.54</v>
       </c>
       <c r="I5" s="5">
+        <f t="shared" si="2"/>
+        <v>50.608999999999995</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="1"/>
+        <v>41.677999999999997</v>
+      </c>
+      <c r="K5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>41.677999999999997</v>
-      </c>
-      <c r="J5" s="4" t="str">
-        <f>C5 &amp; ".html"</f>
         <v>1002.html</v>
       </c>
-      <c r="K5" s="3" t="str">
+      <c r="L5" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C93 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1002.jpg</v>
       </c>
-      <c r="L5" s="1" t="str">
+      <c r="M5" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C93 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1002a.jpg</v>
       </c>
-      <c r="M5" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C114 &amp;"b" &amp;".jpg"</f>
+      <c r="N5" s="1" t="str">
+        <f t="shared" ref="N5:N12" si="3" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C114 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1002b.jpg</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2537,24 +2559,28 @@
         <v>178.61</v>
       </c>
       <c r="I6" s="5">
+        <f t="shared" si="2"/>
+        <v>151.8185</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="1"/>
+        <v>125.027</v>
+      </c>
+      <c r="K6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>125.027</v>
-      </c>
-      <c r="J6" s="4" t="str">
-        <f>C6 &amp; ".html"</f>
         <v>1003.html</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C6:C115 &amp;"b" &amp;".jpg"</f>
+      <c r="L6" s="3"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1003b.jpg</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2580,24 +2606,28 @@
         <v>178.61</v>
       </c>
       <c r="I7" s="5">
+        <f t="shared" si="2"/>
+        <v>151.8185</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="1"/>
+        <v>125.027</v>
+      </c>
+      <c r="K7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>125.027</v>
-      </c>
-      <c r="J7" s="4" t="str">
-        <f>C7 &amp; ".html"</f>
         <v>1004.html</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C7:C116 &amp;"b" &amp;".jpg"</f>
+      <c r="L7" s="9"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1004b.jpg</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="O7" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2623,24 +2653,28 @@
         <v>178.61</v>
       </c>
       <c r="I8" s="5">
+        <f t="shared" si="2"/>
+        <v>151.8185</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="1"/>
+        <v>125.027</v>
+      </c>
+      <c r="K8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>125.027</v>
-      </c>
-      <c r="J8" s="4" t="str">
-        <f>C8 &amp; ".html"</f>
         <v>1005.html</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C8:C117 &amp;"b" &amp;".jpg"</f>
+      <c r="L8" s="3"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1005b.jpg</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2665,25 +2699,29 @@
       <c r="H9" s="10">
         <v>178.61</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="5">
+        <f t="shared" si="2"/>
+        <v>151.8185</v>
+      </c>
+      <c r="J9" s="39">
+        <f t="shared" si="1"/>
+        <v>125.027</v>
+      </c>
+      <c r="K9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>125.027</v>
-      </c>
-      <c r="J9" s="10" t="str">
-        <f>C9 &amp; ".html"</f>
         <v>1084.html</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C9:C118 &amp;"b" &amp;".jpg"</f>
+      <c r="L9" s="9"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7" t="str">
+        <f t="shared" si="3"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1084b.jpg</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="O9" s="37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2709,30 +2747,34 @@
         <v>238.12</v>
       </c>
       <c r="I10" s="5">
+        <f t="shared" si="2"/>
+        <v>202.40199999999999</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="1"/>
+        <v>166.684</v>
+      </c>
+      <c r="K10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>166.684</v>
-      </c>
-      <c r="J10" s="4" t="str">
-        <f>C10 &amp; ".html"</f>
         <v>1006.html</v>
       </c>
-      <c r="K10" s="3" t="str">
+      <c r="L10" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C10:C97 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1006.jpg</v>
       </c>
-      <c r="L10" s="1" t="str">
+      <c r="M10" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C10:C97 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1006a.jpg</v>
       </c>
-      <c r="M10" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C10:C119 &amp;"b" &amp;".jpg"</f>
+      <c r="N10" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1006b.jpg</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2758,30 +2800,34 @@
         <v>238.12</v>
       </c>
       <c r="I11" s="5">
+        <f t="shared" si="2"/>
+        <v>202.40199999999999</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="1"/>
+        <v>166.684</v>
+      </c>
+      <c r="K11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>166.684</v>
-      </c>
-      <c r="J11" s="4" t="str">
-        <f>C11 &amp; ".html"</f>
         <v>1007.html</v>
       </c>
-      <c r="K11" s="3" t="str">
+      <c r="L11" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C11:C98 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1007.jpg</v>
       </c>
-      <c r="L11" s="1" t="str">
+      <c r="M11" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C11:C98 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1007a.jpg</v>
       </c>
-      <c r="M11" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C11:C120 &amp;"b" &amp;".jpg"</f>
+      <c r="N11" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1007b.jpg</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2807,27 +2853,31 @@
         <v>238.12</v>
       </c>
       <c r="I12" s="5">
+        <f t="shared" si="2"/>
+        <v>202.40199999999999</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="1"/>
+        <v>166.684</v>
+      </c>
+      <c r="K12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>166.684</v>
-      </c>
-      <c r="J12" s="4" t="str">
-        <f>C12 &amp; ".html"</f>
         <v>1008.html</v>
       </c>
-      <c r="K12" s="3" t="str">
+      <c r="L12" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C12:C99 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1008.jpg</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C12:C121 &amp;"b" &amp;".jpg"</f>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1008b.jpg</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2853,30 +2903,34 @@
         <v>40.06</v>
       </c>
       <c r="I13" s="5">
+        <f t="shared" si="2"/>
+        <v>34.051000000000002</v>
+      </c>
+      <c r="J13" s="5">
         <f>H13 * 0.7</f>
         <v>28.041999999999998</v>
       </c>
-      <c r="J13" s="4" t="str">
-        <f>C13 &amp; ".html"</f>
+      <c r="K13" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>1010.html</v>
       </c>
-      <c r="K13" s="3" t="str">
+      <c r="L13" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C101 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1010.jpg</v>
       </c>
-      <c r="L13" s="1" t="str">
+      <c r="M13" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C101 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1010a.jpg</v>
       </c>
-      <c r="M13" s="1" t="str">
+      <c r="N13" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C124 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1010b.jpg</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2902,27 +2956,31 @@
         <v>81.36</v>
       </c>
       <c r="I14" s="5">
+        <f t="shared" si="2"/>
+        <v>69.155999999999992</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="1"/>
+        <v>56.951999999999998</v>
+      </c>
+      <c r="K14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>56.951999999999998</v>
-      </c>
-      <c r="J14" s="4" t="str">
-        <f>C14 &amp; ".html"</f>
         <v>1009.html</v>
       </c>
-      <c r="K14" s="3" t="str">
+      <c r="L14" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C14:C100 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1009.jpg</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1" t="str">
+      <c r="M14" s="1"/>
+      <c r="N14" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C14:C122 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1009b.jpg</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2948,30 +3006,34 @@
         <v>55.51</v>
       </c>
       <c r="I15" s="5">
+        <f t="shared" si="2"/>
+        <v>47.183499999999995</v>
+      </c>
+      <c r="J15" s="5">
         <f>H15 * 0.7</f>
         <v>38.856999999999999</v>
       </c>
-      <c r="J15" s="4" t="str">
-        <f>C15 &amp; ".html"</f>
+      <c r="K15" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>1082.html</v>
       </c>
-      <c r="K15" s="9" t="str">
+      <c r="L15" s="9" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C94 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1082.jpg</v>
       </c>
-      <c r="L15" s="7" t="str">
+      <c r="M15" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C94 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1082a.jpg</v>
       </c>
-      <c r="M15" s="1" t="str">
+      <c r="N15" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C113 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1082b.jpg</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="O15" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2997,30 +3059,34 @@
         <v>8.58</v>
       </c>
       <c r="I16" s="5">
+        <f t="shared" si="2"/>
+        <v>7.2930000000000001</v>
+      </c>
+      <c r="J16" s="5">
         <f>H16 * 0.7</f>
         <v>6.0059999999999993</v>
       </c>
-      <c r="J16" s="4" t="str">
-        <f>C16 &amp; ".html"</f>
+      <c r="K16" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>1076.html</v>
       </c>
-      <c r="K16" s="9" t="str">
+      <c r="L16" s="9" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C101 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1076.jpg</v>
       </c>
-      <c r="L16" s="7" t="str">
+      <c r="M16" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C101 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1076a.jpg</v>
       </c>
-      <c r="M16" s="1" t="str">
+      <c r="N16" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C123 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1076b.jpg</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="O16" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3045,31 +3111,35 @@
       <c r="H17" s="18">
         <v>8.58</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="5">
+        <f t="shared" si="2"/>
+        <v>7.2930000000000001</v>
+      </c>
+      <c r="J17" s="32">
+        <f t="shared" si="1"/>
+        <v>6.0059999999999993</v>
+      </c>
+      <c r="K17" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>6.0059999999999993</v>
-      </c>
-      <c r="J17" s="18" t="str">
-        <f>C17 &amp; ".html"</f>
         <v>1011.html</v>
       </c>
-      <c r="K17" s="31" t="str">
+      <c r="L17" s="31" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C17:C102 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1011.jpg</v>
       </c>
-      <c r="L17" s="17" t="str">
+      <c r="M17" s="17" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C17:C102 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1011a.jpg</v>
       </c>
-      <c r="M17" s="17" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C17:C125 &amp;"b" &amp;".jpg"</f>
+      <c r="N17" s="17" t="str">
+        <f t="shared" ref="N17:N25" si="4" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C17:C125 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1011b.jpg</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="O17" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3095,27 +3165,31 @@
         <v>27.48</v>
       </c>
       <c r="I18" s="5">
+        <f t="shared" si="2"/>
+        <v>23.358000000000001</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="1"/>
+        <v>19.236000000000001</v>
+      </c>
+      <c r="K18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>19.236000000000001</v>
-      </c>
-      <c r="J18" s="4" t="str">
-        <f>C18 &amp; ".html"</f>
         <v>1012.html</v>
       </c>
-      <c r="K18" s="3" t="str">
+      <c r="L18" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C18:C103 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1012.jpg</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C18:C126 &amp;"b" &amp;".jpg"</f>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1012b.jpg</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3141,30 +3215,34 @@
         <v>32.61</v>
       </c>
       <c r="I19" s="5">
+        <f t="shared" si="2"/>
+        <v>27.718499999999999</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="1"/>
+        <v>22.826999999999998</v>
+      </c>
+      <c r="K19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>22.826999999999998</v>
-      </c>
-      <c r="J19" s="4" t="str">
-        <f>C19 &amp; ".html"</f>
         <v>1078.html</v>
       </c>
-      <c r="K19" s="9" t="str">
+      <c r="L19" s="9" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C19:C104 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1078.jpg</v>
       </c>
-      <c r="L19" s="7" t="str">
+      <c r="M19" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C19:C104 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1078a.jpg</v>
       </c>
-      <c r="M19" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C19:C127 &amp;"b" &amp;".jpg"</f>
+      <c r="N19" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1078b.jpg</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="O19" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3190,27 +3268,31 @@
         <v>40.06</v>
       </c>
       <c r="I20" s="5">
+        <f t="shared" si="2"/>
+        <v>34.051000000000002</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="1"/>
+        <v>28.041999999999998</v>
+      </c>
+      <c r="K20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>28.041999999999998</v>
-      </c>
-      <c r="J20" s="4" t="str">
-        <f>C20 &amp; ".html"</f>
         <v>1013.html</v>
       </c>
-      <c r="K20" s="3" t="str">
+      <c r="L20" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C20:C104 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1013.jpg</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C20:C128 &amp;"b" &amp;".jpg"</f>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1013b.jpg</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3236,27 +3318,31 @@
         <v>72.680000000000007</v>
       </c>
       <c r="I21" s="5">
+        <f t="shared" si="2"/>
+        <v>61.778000000000006</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="1"/>
+        <v>50.876000000000005</v>
+      </c>
+      <c r="K21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>50.876000000000005</v>
-      </c>
-      <c r="J21" s="4" t="str">
-        <f>C21 &amp; ".html"</f>
         <v>1014.html</v>
       </c>
-      <c r="K21" s="3" t="str">
+      <c r="L21" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C21:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1014.jpg</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C21:C129 &amp;"b" &amp;".jpg"</f>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1014b.jpg</v>
       </c>
-      <c r="N21" s="16" t="s">
+      <c r="O21" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3282,30 +3368,34 @@
         <v>156.84</v>
       </c>
       <c r="I22" s="5">
+        <f t="shared" si="2"/>
+        <v>133.31399999999999</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="1"/>
+        <v>109.788</v>
+      </c>
+      <c r="K22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>109.788</v>
-      </c>
-      <c r="J22" s="4" t="str">
-        <f>C22 &amp; ".html"</f>
         <v>1015.html</v>
       </c>
-      <c r="K22" s="3" t="str">
+      <c r="L22" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C22:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1015.jpg</v>
       </c>
-      <c r="L22" s="1" t="str">
+      <c r="M22" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C22:C105 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1015a.jpg</v>
       </c>
-      <c r="M22" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C22:C130 &amp;"b" &amp;".jpg"</f>
+      <c r="N22" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1015b.jpg</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3331,27 +3421,31 @@
         <v>35.5</v>
       </c>
       <c r="I23" s="5">
+        <f t="shared" si="2"/>
+        <v>30.175000000000001</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="1"/>
+        <v>24.849999999999998</v>
+      </c>
+      <c r="K23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>24.849999999999998</v>
-      </c>
-      <c r="J23" s="4" t="str">
-        <f>C23 &amp; ".html"</f>
         <v>1016.html</v>
       </c>
-      <c r="K23" s="3" t="str">
+      <c r="L23" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C23:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1016.jpg</v>
       </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C23:C131 &amp;"b" &amp;".jpg"</f>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1016b.jpg</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3377,27 +3471,31 @@
         <v>34.909999999999997</v>
       </c>
       <c r="I24" s="5">
+        <f t="shared" si="2"/>
+        <v>29.673499999999997</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="1"/>
+        <v>24.436999999999998</v>
+      </c>
+      <c r="K24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>24.436999999999998</v>
-      </c>
-      <c r="J24" s="4" t="str">
-        <f>C24 &amp; ".html"</f>
         <v>1017.html</v>
       </c>
-      <c r="K24" s="3" t="str">
+      <c r="L24" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C24:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1017.jpg</v>
       </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C24:C132 &amp;"b" &amp;".jpg"</f>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1017b.jpg</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3423,27 +3521,31 @@
         <v>72.680000000000007</v>
       </c>
       <c r="I25" s="5">
+        <f t="shared" si="2"/>
+        <v>61.778000000000006</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="1"/>
+        <v>50.876000000000005</v>
+      </c>
+      <c r="K25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>50.876000000000005</v>
-      </c>
-      <c r="J25" s="4" t="str">
-        <f>C25 &amp; ".html"</f>
         <v>1018.html</v>
       </c>
-      <c r="K25" s="3" t="str">
+      <c r="L25" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C25:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1018.jpg</v>
       </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C25:C133 &amp;"b" &amp;".jpg"</f>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1018b.jpg</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3468,28 +3570,32 @@
       <c r="H26" s="10">
         <v>75.58</v>
       </c>
-      <c r="I26" s="39">
+      <c r="I26" s="5">
+        <f t="shared" si="2"/>
+        <v>64.242999999999995</v>
+      </c>
+      <c r="J26" s="39">
         <f>H26 * 0.7</f>
         <v>52.905999999999999</v>
       </c>
-      <c r="J26" s="10" t="str">
-        <f>C26 &amp; ".html"</f>
+      <c r="K26" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>1026.html</v>
       </c>
-      <c r="K26" s="9" t="str">
+      <c r="L26" s="9" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C26:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1026.jpg</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7" t="str">
+      <c r="M26" s="7"/>
+      <c r="N26" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C26:C142 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1026b.jpg</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="O26" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3514,31 +3620,35 @@
       <c r="H27" s="15">
         <v>38.36</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="5">
+        <f t="shared" si="2"/>
+        <v>32.606000000000002</v>
+      </c>
+      <c r="J27" s="20">
         <f>H27 * 0.7</f>
         <v>26.851999999999997</v>
       </c>
-      <c r="J27" s="15" t="str">
-        <f>C27 &amp; ".html"</f>
+      <c r="K27" s="15" t="str">
+        <f t="shared" si="0"/>
         <v>1114.html</v>
       </c>
-      <c r="K27" s="3" t="str">
+      <c r="L27" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C27:C110 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1114.jpg</v>
       </c>
-      <c r="L27" s="1" t="str">
+      <c r="M27" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C27:C110 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1114a.jpg</v>
       </c>
-      <c r="M27" s="12" t="str">
+      <c r="N27" s="12" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C27:C143 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1114b.jpg</v>
       </c>
-      <c r="N27" s="16" t="s">
+      <c r="O27" s="16" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3564,27 +3674,31 @@
         <v>54.94</v>
       </c>
       <c r="I28" s="5">
+        <f t="shared" si="2"/>
+        <v>46.698999999999998</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="1"/>
+        <v>38.457999999999998</v>
+      </c>
+      <c r="K28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>38.457999999999998</v>
-      </c>
-      <c r="J28" s="4" t="str">
-        <f>C28 &amp; ".html"</f>
         <v>1019.html</v>
       </c>
-      <c r="K28" s="3" t="str">
+      <c r="L28" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C28:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1019.jpg</v>
       </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C28:C134 &amp;"b" &amp;".jpg"</f>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1" t="str">
+        <f t="shared" ref="N28:N37" si="5" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C28:C134 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1019b.jpg</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3610,24 +3724,28 @@
         <v>41.79</v>
       </c>
       <c r="I29" s="5">
+        <f t="shared" si="2"/>
+        <v>35.521499999999996</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="1"/>
+        <v>29.252999999999997</v>
+      </c>
+      <c r="K29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>29.252999999999997</v>
-      </c>
-      <c r="J29" s="4" t="str">
-        <f>C29 &amp; ".html"</f>
         <v>1020.html</v>
       </c>
-      <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C29:C135 &amp;"b" &amp;".jpg"</f>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1020b.jpg</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3653,27 +3771,31 @@
         <v>61.25</v>
       </c>
       <c r="I30" s="5">
+        <f t="shared" si="2"/>
+        <v>52.0625</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="1"/>
+        <v>42.875</v>
+      </c>
+      <c r="K30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>42.875</v>
-      </c>
-      <c r="J30" s="4" t="str">
-        <f>C30 &amp; ".html"</f>
         <v>1021.html</v>
       </c>
-      <c r="K30" s="3" t="str">
+      <c r="L30" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C30:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1021.jpg</v>
       </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C30:C136 &amp;"b" &amp;".jpg"</f>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1021b.jpg</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3698,31 +3820,35 @@
       <c r="H31" s="15">
         <v>191.18</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="5">
+        <f t="shared" si="2"/>
+        <v>162.50300000000001</v>
+      </c>
+      <c r="J31" s="20">
+        <f t="shared" si="1"/>
+        <v>133.82599999999999</v>
+      </c>
+      <c r="K31" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>133.82599999999999</v>
-      </c>
-      <c r="J31" s="15" t="str">
-        <f>C31 &amp; ".html"</f>
         <v>1099.html</v>
       </c>
-      <c r="K31" s="3" t="str">
+      <c r="L31" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C31:C114 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1099.jpg</v>
       </c>
-      <c r="L31" s="1" t="str">
+      <c r="M31" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C31:C114 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1099a.jpg</v>
       </c>
-      <c r="M31" s="12" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C31:C137 &amp;"b" &amp;".jpg"</f>
+      <c r="N31" s="12" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1099b.jpg</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="O31" s="16" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3747,28 +3873,32 @@
       <c r="H32" s="15">
         <v>143.1</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="5">
+        <f t="shared" si="2"/>
+        <v>121.63499999999999</v>
+      </c>
+      <c r="J32" s="20">
+        <f t="shared" si="1"/>
+        <v>100.16999999999999</v>
+      </c>
+      <c r="K32" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>100.16999999999999</v>
-      </c>
-      <c r="J32" s="15" t="str">
-        <f>C32 &amp; ".html"</f>
         <v>1100.html</v>
       </c>
-      <c r="K32" s="3" t="str">
+      <c r="L32" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C32:C115 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1100.jpg</v>
       </c>
-      <c r="L32" s="1"/>
-      <c r="M32" s="12" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C32:C138 &amp;"b" &amp;".jpg"</f>
+      <c r="M32" s="1"/>
+      <c r="N32" s="12" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1100b.jpg</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="O32" s="16" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3793,31 +3923,35 @@
       <c r="H33" s="15">
         <v>84.12</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="5">
+        <f t="shared" si="2"/>
+        <v>71.501999999999995</v>
+      </c>
+      <c r="J33" s="20">
+        <f t="shared" si="1"/>
+        <v>58.884</v>
+      </c>
+      <c r="K33" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>58.884</v>
-      </c>
-      <c r="J33" s="15" t="str">
-        <f>C33 &amp; ".html"</f>
         <v>1101.html</v>
       </c>
-      <c r="K33" s="3" t="str">
+      <c r="L33" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C33:C116 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1101.jpg</v>
       </c>
-      <c r="L33" s="1" t="str">
+      <c r="M33" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C33:C116 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1101a.jpg</v>
       </c>
-      <c r="M33" s="12" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C33:C139 &amp;"b" &amp;".jpg"</f>
+      <c r="N33" s="12" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1101b.jpg</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="O33" s="16" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3842,25 +3976,29 @@
       <c r="H34" s="15">
         <v>32.07</v>
       </c>
-      <c r="I34" s="20">
-        <f t="shared" si="0"/>
+      <c r="I34" s="5">
+        <f t="shared" si="2"/>
+        <v>27.259499999999999</v>
+      </c>
+      <c r="J34" s="20">
+        <f t="shared" si="1"/>
         <v>22.448999999999998</v>
       </c>
-      <c r="J34" s="15" t="str">
-        <f>C34 &amp; ".html"</f>
+      <c r="K34" s="15" t="str">
+        <f t="shared" ref="K34:K65" si="6">C34 &amp; ".html"</f>
         <v>1102.html</v>
       </c>
-      <c r="K34" s="14"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C34:C140 &amp;"b" &amp;".jpg"</f>
+      <c r="L34" s="14"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1102b.jpg</v>
       </c>
-      <c r="N34" s="16" t="s">
+      <c r="O34" s="16" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3885,31 +4023,35 @@
       <c r="H35" s="15">
         <v>47.53</v>
       </c>
-      <c r="I35" s="20">
-        <f t="shared" si="0"/>
+      <c r="I35" s="5">
+        <f t="shared" si="2"/>
+        <v>40.400500000000001</v>
+      </c>
+      <c r="J35" s="20">
+        <f t="shared" si="1"/>
         <v>33.271000000000001</v>
       </c>
-      <c r="J35" s="15" t="str">
-        <f>C35 &amp; ".html"</f>
+      <c r="K35" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>1103.html</v>
       </c>
-      <c r="K35" s="3" t="str">
+      <c r="L35" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C35:C118 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1103.jpg</v>
       </c>
-      <c r="L35" s="1" t="str">
+      <c r="M35" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C35:C118 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1103a.jpg</v>
       </c>
-      <c r="M35" s="12" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C35:C141 &amp;"b" &amp;".jpg"</f>
+      <c r="N35" s="12" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1103b.jpg</v>
       </c>
-      <c r="N35" s="16" t="s">
+      <c r="O35" s="16" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3934,25 +4076,29 @@
       <c r="H36" s="15">
         <v>41.79</v>
       </c>
-      <c r="I36" s="20">
-        <f t="shared" si="0"/>
+      <c r="I36" s="5">
+        <f t="shared" si="2"/>
+        <v>35.521499999999996</v>
+      </c>
+      <c r="J36" s="20">
+        <f t="shared" si="1"/>
         <v>29.252999999999997</v>
       </c>
-      <c r="J36" s="15" t="str">
-        <f>C36 &amp; ".html"</f>
+      <c r="K36" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>1104.html</v>
       </c>
-      <c r="K36" s="14"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C36:C142 &amp;"b" &amp;".jpg"</f>
+      <c r="L36" s="14"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1104b.jpg</v>
       </c>
-      <c r="N36" s="16" t="s">
+      <c r="O36" s="16" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3977,28 +4123,32 @@
       <c r="H37" s="15">
         <v>75.58</v>
       </c>
-      <c r="I37" s="20">
-        <f t="shared" si="0"/>
+      <c r="I37" s="5">
+        <f t="shared" si="2"/>
+        <v>64.242999999999995</v>
+      </c>
+      <c r="J37" s="20">
+        <f t="shared" si="1"/>
         <v>52.905999999999999</v>
       </c>
-      <c r="J37" s="15" t="str">
-        <f>C37 &amp; ".html"</f>
+      <c r="K37" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>1105.html</v>
       </c>
-      <c r="K37" s="3" t="str">
+      <c r="L37" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C37:C120 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1105.jpg</v>
       </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="12" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C37:C143 &amp;"b" &amp;".jpg"</f>
+      <c r="M37" s="1"/>
+      <c r="N37" s="12" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1105b.jpg</v>
       </c>
-      <c r="N37" s="16" t="s">
+      <c r="O37" s="16" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4023,28 +4173,32 @@
       <c r="H38" s="10">
         <v>14.9</v>
       </c>
-      <c r="I38" s="39">
-        <f t="shared" si="0"/>
+      <c r="I38" s="5">
+        <f t="shared" si="2"/>
+        <v>12.664999999999999</v>
+      </c>
+      <c r="J38" s="39">
+        <f t="shared" si="1"/>
         <v>10.43</v>
       </c>
-      <c r="J38" s="10" t="str">
-        <f>C38 &amp; ".html"</f>
+      <c r="K38" s="10" t="str">
+        <f t="shared" si="6"/>
         <v>1085.html</v>
       </c>
-      <c r="K38" s="9" t="str">
+      <c r="L38" s="9" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C38:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1085.jpg</v>
       </c>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7" t="str">
+      <c r="M38" s="7"/>
+      <c r="N38" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C38:C137 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1085b.jpg</v>
       </c>
-      <c r="N38" s="40" t="s">
+      <c r="O38" s="40" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4069,31 +4223,35 @@
       <c r="H39" s="10">
         <v>84.69</v>
       </c>
-      <c r="I39" s="39">
-        <f t="shared" si="0"/>
+      <c r="I39" s="5">
+        <f t="shared" si="2"/>
+        <v>71.986499999999992</v>
+      </c>
+      <c r="J39" s="39">
+        <f t="shared" si="1"/>
         <v>59.282999999999994</v>
       </c>
-      <c r="J39" s="10" t="str">
-        <f>C39 &amp; ".html"</f>
+      <c r="K39" s="10" t="str">
+        <f t="shared" si="6"/>
         <v>1022.html</v>
       </c>
-      <c r="K39" s="9" t="str">
+      <c r="L39" s="9" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C39:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1022.jpg</v>
       </c>
-      <c r="L39" s="7" t="str">
+      <c r="M39" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C39:C105 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1022a.jpg</v>
       </c>
-      <c r="M39" s="7" t="str">
+      <c r="N39" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C39:C138 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1022b.jpg</v>
       </c>
-      <c r="N39" s="6" t="s">
+      <c r="O39" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4118,28 +4276,32 @@
       <c r="H40" s="10">
         <v>80.12</v>
       </c>
-      <c r="I40" s="39">
-        <f t="shared" si="0"/>
+      <c r="I40" s="5">
+        <f t="shared" si="2"/>
+        <v>68.102000000000004</v>
+      </c>
+      <c r="J40" s="39">
+        <f t="shared" si="1"/>
         <v>56.083999999999996</v>
       </c>
-      <c r="J40" s="10" t="str">
-        <f>C40 &amp; ".html"</f>
+      <c r="K40" s="10" t="str">
+        <f t="shared" si="6"/>
         <v>1023.html</v>
       </c>
-      <c r="K40" s="9" t="str">
+      <c r="L40" s="9" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C40:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1023.jpg</v>
       </c>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7" t="str">
+      <c r="M40" s="7"/>
+      <c r="N40" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C40:C139 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1023b.jpg</v>
       </c>
-      <c r="N40" s="6" t="s">
+      <c r="O40" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4164,25 +4326,29 @@
       <c r="H41" s="41">
         <v>68.680000000000007</v>
       </c>
-      <c r="I41" s="39">
+      <c r="I41" s="5">
+        <f t="shared" si="2"/>
+        <v>58.378000000000007</v>
+      </c>
+      <c r="J41" s="39">
         <f>H41 * 0.7</f>
         <v>48.076000000000001</v>
       </c>
-      <c r="J41" s="42" t="str">
-        <f>C41 &amp; ".html"</f>
+      <c r="K41" s="42" t="str">
+        <f t="shared" si="6"/>
         <v>1097.html</v>
       </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7" t="str">
+      <c r="L41" s="9"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C41:C206 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1097b.jpg</v>
       </c>
-      <c r="N41" s="37" t="s">
+      <c r="O41" s="37" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4207,31 +4373,35 @@
       <c r="H42" s="41">
         <v>69.27</v>
       </c>
-      <c r="I42" s="39">
+      <c r="I42" s="5">
+        <f t="shared" si="2"/>
+        <v>58.879499999999993</v>
+      </c>
+      <c r="J42" s="39">
         <f>H42 * 0.7</f>
         <v>48.488999999999997</v>
       </c>
-      <c r="J42" s="42" t="str">
-        <f>C42 &amp; ".html"</f>
+      <c r="K42" s="42" t="str">
+        <f t="shared" si="6"/>
         <v>1098.html</v>
       </c>
-      <c r="K42" s="9" t="str">
+      <c r="L42" s="9" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C42:C142 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1098.jpg</v>
       </c>
-      <c r="L42" s="7" t="str">
+      <c r="M42" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C42:C142 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1098a.jpg</v>
       </c>
-      <c r="M42" s="7" t="str">
+      <c r="N42" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C42:C206 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1098b.jpg</v>
       </c>
-      <c r="N42" s="37" t="s">
+      <c r="O42" s="37" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4256,31 +4426,35 @@
       <c r="H43" s="10">
         <v>187.14</v>
       </c>
-      <c r="I43" s="39">
-        <f t="shared" si="0"/>
+      <c r="I43" s="5">
+        <f t="shared" si="2"/>
+        <v>159.06899999999999</v>
+      </c>
+      <c r="J43" s="39">
+        <f t="shared" si="1"/>
         <v>130.99799999999999</v>
       </c>
-      <c r="J43" s="10" t="str">
-        <f>C43 &amp; ".html"</f>
+      <c r="K43" s="10" t="str">
+        <f t="shared" si="6"/>
         <v>1024.html</v>
       </c>
-      <c r="K43" s="9" t="str">
+      <c r="L43" s="9" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C43:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1024.jpg</v>
       </c>
-      <c r="L43" s="7" t="str">
+      <c r="M43" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C43:C105 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1024a.jpg</v>
       </c>
-      <c r="M43" s="7" t="str">
+      <c r="N43" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C43:C140 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1024b.jpg</v>
       </c>
-      <c r="N43" s="6" t="s">
+      <c r="O43" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4305,31 +4479,35 @@
       <c r="H44" s="10">
         <v>60.68</v>
       </c>
-      <c r="I44" s="39">
-        <f t="shared" si="0"/>
+      <c r="I44" s="5">
+        <f t="shared" si="2"/>
+        <v>51.577999999999996</v>
+      </c>
+      <c r="J44" s="39">
+        <f t="shared" si="1"/>
         <v>42.475999999999999</v>
       </c>
-      <c r="J44" s="10" t="str">
-        <f>C44 &amp; ".html"</f>
+      <c r="K44" s="10" t="str">
+        <f t="shared" si="6"/>
         <v>1025.html</v>
       </c>
-      <c r="K44" s="9" t="str">
+      <c r="L44" s="9" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C44:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1025.jpg</v>
       </c>
-      <c r="L44" s="7" t="str">
+      <c r="M44" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C44:C105 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1025a.jpg</v>
       </c>
-      <c r="M44" s="7" t="str">
+      <c r="N44" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C44:C141 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1025b.jpg</v>
       </c>
-      <c r="N44" s="6" t="s">
+      <c r="O44" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4354,31 +4532,35 @@
       <c r="H45" s="10">
         <v>88.12</v>
       </c>
-      <c r="I45" s="39">
-        <f t="shared" si="0"/>
+      <c r="I45" s="5">
+        <f t="shared" si="2"/>
+        <v>74.902000000000001</v>
+      </c>
+      <c r="J45" s="39">
+        <f t="shared" si="1"/>
         <v>61.683999999999997</v>
       </c>
-      <c r="J45" s="10" t="str">
-        <f>C45 &amp; ".html"</f>
+      <c r="K45" s="10" t="str">
+        <f t="shared" si="6"/>
         <v>1027.html</v>
       </c>
-      <c r="K45" s="9" t="str">
+      <c r="L45" s="9" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C45:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1027.jpg</v>
       </c>
-      <c r="L45" s="7" t="str">
+      <c r="M45" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C45:C105 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1027a.jpg</v>
       </c>
-      <c r="M45" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C45:C143 &amp;"b" &amp;".jpg"</f>
+      <c r="N45" s="7" t="str">
+        <f t="shared" ref="N45:N63" si="7" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C45:C143 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1027b.jpg</v>
       </c>
-      <c r="N45" s="6" t="s">
+      <c r="O45" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4404,27 +4586,31 @@
         <v>68.680000000000007</v>
       </c>
       <c r="I46" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>58.378000000000007</v>
+      </c>
+      <c r="J46" s="5">
+        <f t="shared" si="1"/>
         <v>48.076000000000001</v>
       </c>
-      <c r="J46" s="4" t="str">
-        <f>C46 &amp; ".html"</f>
+      <c r="K46" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>1028.html</v>
       </c>
-      <c r="K46" s="3" t="str">
+      <c r="L46" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C46:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1028.jpg</v>
       </c>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C46:C144 &amp;"b" &amp;".jpg"</f>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1028b.jpg</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4450,27 +4636,31 @@
         <v>72.680000000000007</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>61.778000000000006</v>
+      </c>
+      <c r="J47" s="5">
+        <f t="shared" si="1"/>
         <v>50.876000000000005</v>
       </c>
-      <c r="J47" s="4" t="str">
-        <f>C47 &amp; ".html"</f>
+      <c r="K47" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>1029.html</v>
       </c>
-      <c r="K47" s="3" t="str">
+      <c r="L47" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C47:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1029.jpg</v>
       </c>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C47:C145 &amp;"b" &amp;".jpg"</f>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1029b.jpg</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4495,31 +4685,35 @@
       <c r="H48" s="18">
         <v>118.46</v>
       </c>
-      <c r="I48" s="32">
-        <f t="shared" si="0"/>
+      <c r="I48" s="5">
+        <f t="shared" si="2"/>
+        <v>100.69099999999999</v>
+      </c>
+      <c r="J48" s="32">
+        <f t="shared" si="1"/>
         <v>82.921999999999997</v>
       </c>
-      <c r="J48" s="18" t="str">
-        <f>C48 &amp; ".html"</f>
+      <c r="K48" s="18" t="str">
+        <f t="shared" si="6"/>
         <v>1030.html</v>
       </c>
-      <c r="K48" s="31" t="str">
+      <c r="L48" s="31" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C48:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1030.jpg</v>
       </c>
-      <c r="L48" s="17" t="str">
+      <c r="M48" s="17" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C48:C105 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1030a.jpg</v>
       </c>
-      <c r="M48" s="17" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C48:C146 &amp;"b" &amp;".jpg"</f>
+      <c r="N48" s="17" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1030b.jpg</v>
       </c>
-      <c r="N48" s="19" t="s">
+      <c r="O48" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4545,30 +4739,34 @@
         <v>36.61</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>31.118499999999997</v>
+      </c>
+      <c r="J49" s="5">
+        <f t="shared" si="1"/>
         <v>25.626999999999999</v>
       </c>
-      <c r="J49" s="4" t="str">
-        <f>C49 &amp; ".html"</f>
+      <c r="K49" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>1031.html</v>
       </c>
-      <c r="K49" s="3" t="str">
+      <c r="L49" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C49:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1031.jpg</v>
       </c>
-      <c r="L49" s="1" t="str">
+      <c r="M49" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C49:C105 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1031a.jpg</v>
       </c>
-      <c r="M49" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C49:C147 &amp;"b" &amp;".jpg"</f>
+      <c r="N49" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1031b.jpg</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4594,30 +4792,34 @@
         <v>41.79</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>35.521499999999996</v>
+      </c>
+      <c r="J50" s="5">
+        <f t="shared" si="1"/>
         <v>29.252999999999997</v>
       </c>
-      <c r="J50" s="4" t="str">
-        <f>C50 &amp; ".html"</f>
+      <c r="K50" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>1032.html</v>
       </c>
-      <c r="K50" s="3" t="str">
+      <c r="L50" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C50:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1032.jpg</v>
       </c>
-      <c r="L50" s="1" t="str">
+      <c r="M50" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C50:C105 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1032a.jpg</v>
       </c>
-      <c r="M50" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C50:C148 &amp;"b" &amp;".jpg"</f>
+      <c r="N50" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1032b.jpg</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4643,30 +4845,34 @@
         <v>49.78</v>
       </c>
       <c r="I51" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>42.313000000000002</v>
+      </c>
+      <c r="J51" s="5">
+        <f t="shared" si="1"/>
         <v>34.845999999999997</v>
       </c>
-      <c r="J51" s="4" t="str">
-        <f>C51 &amp; ".html"</f>
+      <c r="K51" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>1033.html</v>
       </c>
-      <c r="K51" s="3" t="str">
+      <c r="L51" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C51:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1033.jpg</v>
       </c>
-      <c r="L51" s="1" t="str">
+      <c r="M51" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C51:C105 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1033a.jpg</v>
       </c>
-      <c r="M51" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C51:C149 &amp;"b" &amp;".jpg"</f>
+      <c r="N51" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1033b.jpg</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4692,30 +4898,34 @@
         <v>72.680000000000007</v>
       </c>
       <c r="I52" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>61.778000000000006</v>
+      </c>
+      <c r="J52" s="5">
+        <f t="shared" si="1"/>
         <v>50.876000000000005</v>
       </c>
-      <c r="J52" s="4" t="str">
-        <f>C52 &amp; ".html"</f>
+      <c r="K52" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>1077.html</v>
       </c>
-      <c r="K52" s="9" t="str">
+      <c r="L52" s="9" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C52:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1077.jpg</v>
       </c>
-      <c r="L52" s="7" t="str">
+      <c r="M52" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C52:C105 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1077a.jpg</v>
       </c>
-      <c r="M52" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C52:C150 &amp;"b" &amp;".jpg"</f>
+      <c r="N52" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1077b.jpg</v>
       </c>
-      <c r="N52" s="6" t="s">
+      <c r="O52" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4741,27 +4951,31 @@
         <v>8</v>
       </c>
       <c r="I53" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>6.8</v>
+      </c>
+      <c r="J53" s="5">
+        <f t="shared" si="1"/>
         <v>5.6</v>
       </c>
-      <c r="J53" s="4" t="str">
-        <f>C53 &amp; ".html"</f>
+      <c r="K53" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>1034.html</v>
       </c>
-      <c r="K53" s="3" t="str">
+      <c r="L53" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C53:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1034.jpg</v>
       </c>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C53:C151 &amp;"b" &amp;".jpg"</f>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1034b.jpg</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4787,27 +5001,31 @@
         <v>36.08</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>30.667999999999999</v>
+      </c>
+      <c r="J54" s="5">
+        <f t="shared" si="1"/>
         <v>25.255999999999997</v>
       </c>
-      <c r="J54" s="4" t="str">
-        <f>C54 &amp; ".html"</f>
+      <c r="K54" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>1035.html</v>
       </c>
-      <c r="K54" s="3" t="str">
+      <c r="L54" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C54:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1035.jpg</v>
       </c>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C54:C152 &amp;"b" &amp;".jpg"</f>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1035b.jpg</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4833,30 +5051,34 @@
         <v>400.64</v>
       </c>
       <c r="I55" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>340.54399999999998</v>
+      </c>
+      <c r="J55" s="5">
+        <f t="shared" si="1"/>
         <v>280.44799999999998</v>
       </c>
-      <c r="J55" s="4" t="str">
-        <f>C55 &amp; ".html"</f>
+      <c r="K55" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>1036.html</v>
       </c>
-      <c r="K55" s="3" t="str">
+      <c r="L55" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C55:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1036.jpg</v>
       </c>
-      <c r="L55" s="1" t="str">
+      <c r="M55" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C55:C105 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1036a.jpg</v>
       </c>
-      <c r="M55" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C55:C153 &amp;"b" &amp;".jpg"</f>
+      <c r="N55" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1036b.jpg</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4882,30 +5104,34 @@
         <v>80.12</v>
       </c>
       <c r="I56" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>68.102000000000004</v>
+      </c>
+      <c r="J56" s="5">
+        <f t="shared" si="1"/>
         <v>56.083999999999996</v>
       </c>
-      <c r="J56" s="4" t="str">
-        <f>C56 &amp; ".html"</f>
+      <c r="K56" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>1037.html</v>
       </c>
-      <c r="K56" s="3" t="str">
+      <c r="L56" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C56:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1037.jpg</v>
       </c>
-      <c r="L56" s="1" t="str">
+      <c r="M56" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C56:C105 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1037a.jpg</v>
       </c>
-      <c r="M56" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C56:C154 &amp;"b" &amp;".jpg"</f>
+      <c r="N56" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1037b.jpg</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4931,27 +5157,31 @@
         <v>119.05</v>
       </c>
       <c r="I57" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>101.1925</v>
+      </c>
+      <c r="J57" s="5">
+        <f t="shared" si="1"/>
         <v>83.334999999999994</v>
       </c>
-      <c r="J57" s="4" t="str">
-        <f>C57 &amp; ".html"</f>
+      <c r="K57" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>1038.html</v>
       </c>
-      <c r="K57" s="3" t="str">
+      <c r="L57" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C57:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1038.jpg</v>
       </c>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C57:C155 &amp;"b" &amp;".jpg"</f>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1038b.jpg</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4977,30 +5207,34 @@
         <v>60.11</v>
       </c>
       <c r="I58" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>51.093499999999999</v>
+      </c>
+      <c r="J58" s="5">
+        <f t="shared" si="1"/>
         <v>42.076999999999998</v>
       </c>
-      <c r="J58" s="4" t="str">
-        <f>C58 &amp; ".html"</f>
+      <c r="K58" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>1039.html</v>
       </c>
-      <c r="K58" s="3" t="str">
+      <c r="L58" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C58:C112 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1039.jpg</v>
       </c>
-      <c r="L58" s="1" t="str">
+      <c r="M58" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C58:C112 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1039a.jpg</v>
       </c>
-      <c r="M58" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C58:C156 &amp;"b" &amp;".jpg"</f>
+      <c r="N58" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1039b.jpg</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5026,30 +5260,34 @@
         <v>132.77000000000001</v>
       </c>
       <c r="I59" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>112.8545</v>
+      </c>
+      <c r="J59" s="5">
+        <f t="shared" si="1"/>
         <v>92.939000000000007</v>
       </c>
-      <c r="J59" s="4" t="str">
-        <f>C59 &amp; ".html"</f>
+      <c r="K59" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>1040.html</v>
       </c>
-      <c r="K59" s="3" t="str">
+      <c r="L59" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C59:C112 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1040.jpg</v>
       </c>
-      <c r="L59" s="1" t="str">
+      <c r="M59" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C59:C112 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1040a.jpg</v>
       </c>
-      <c r="M59" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C59:C157 &amp;"b" &amp;".jpg"</f>
+      <c r="N59" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1040b.jpg</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5074,31 +5312,35 @@
       <c r="H60" s="15">
         <v>69.27</v>
       </c>
-      <c r="I60" s="20">
-        <f t="shared" si="0"/>
+      <c r="I60" s="5">
+        <f t="shared" si="2"/>
+        <v>58.879499999999993</v>
+      </c>
+      <c r="J60" s="20">
+        <f t="shared" si="1"/>
         <v>48.488999999999997</v>
       </c>
-      <c r="J60" s="15" t="str">
-        <f>C60 &amp; ".html"</f>
+      <c r="K60" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>1106.html</v>
       </c>
-      <c r="K60" s="3" t="str">
+      <c r="L60" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C60:C113 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1106.jpg</v>
       </c>
-      <c r="L60" s="1" t="str">
+      <c r="M60" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C60:C113 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1106a.jpg</v>
       </c>
-      <c r="M60" s="12" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C60:C158 &amp;"b" &amp;".jpg"</f>
+      <c r="N60" s="12" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1106b.jpg</v>
       </c>
-      <c r="N60" s="16" t="s">
+      <c r="O60" s="16" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5123,31 +5365,35 @@
       <c r="H61" s="15">
         <v>76.13</v>
       </c>
-      <c r="I61" s="20">
-        <f t="shared" si="0"/>
+      <c r="I61" s="5">
+        <f t="shared" si="2"/>
+        <v>64.710499999999996</v>
+      </c>
+      <c r="J61" s="20">
+        <f t="shared" si="1"/>
         <v>53.290999999999997</v>
       </c>
-      <c r="J61" s="15" t="str">
-        <f>C61 &amp; ".html"</f>
+      <c r="K61" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>1107.html</v>
       </c>
-      <c r="K61" s="3" t="str">
+      <c r="L61" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C61:C114 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1107.jpg</v>
       </c>
-      <c r="L61" s="1" t="str">
+      <c r="M61" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C61:C114 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1107a.jpg</v>
       </c>
-      <c r="M61" s="12" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C61:C159 &amp;"b" &amp;".jpg"</f>
+      <c r="N61" s="12" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1107b.jpg</v>
       </c>
-      <c r="N61" s="16" t="s">
+      <c r="O61" s="16" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5172,25 +5418,29 @@
       <c r="H62" s="15">
         <v>75.58</v>
       </c>
-      <c r="I62" s="20">
-        <f t="shared" si="0"/>
+      <c r="I62" s="5">
+        <f t="shared" si="2"/>
+        <v>64.242999999999995</v>
+      </c>
+      <c r="J62" s="20">
+        <f t="shared" si="1"/>
         <v>52.905999999999999</v>
       </c>
-      <c r="J62" s="15" t="str">
-        <f>C62 &amp; ".html"</f>
+      <c r="K62" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>1108.html</v>
       </c>
-      <c r="K62" s="14"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C62:C160 &amp;"b" &amp;".jpg"</f>
+      <c r="L62" s="14"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1108b.jpg</v>
       </c>
-      <c r="N62" s="16" t="s">
+      <c r="O62" s="16" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5215,28 +5465,32 @@
       <c r="H63" s="15">
         <v>43.49</v>
       </c>
-      <c r="I63" s="20">
-        <f t="shared" si="0"/>
+      <c r="I63" s="5">
+        <f t="shared" si="2"/>
+        <v>36.966500000000003</v>
+      </c>
+      <c r="J63" s="20">
+        <f t="shared" si="1"/>
         <v>30.442999999999998</v>
       </c>
-      <c r="J63" s="15" t="str">
-        <f>C63 &amp; ".html"</f>
+      <c r="K63" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>1109.html</v>
       </c>
-      <c r="K63" s="3" t="str">
+      <c r="L63" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C63:C116 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1109.jpg</v>
       </c>
-      <c r="L63" s="1"/>
-      <c r="M63" s="12" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C63:C161 &amp;"b" &amp;".jpg"</f>
+      <c r="M63" s="1"/>
+      <c r="N63" s="12" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1109b.jpg</v>
       </c>
-      <c r="N63" s="16" t="s">
+      <c r="O63" s="16" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5262,30 +5516,34 @@
         <v>83.57</v>
       </c>
       <c r="I64" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>71.034499999999994</v>
+      </c>
+      <c r="J64" s="5">
+        <f t="shared" si="1"/>
         <v>58.498999999999988</v>
       </c>
-      <c r="J64" s="4" t="str">
-        <f>C64 &amp; ".html"</f>
+      <c r="K64" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>1041.html</v>
       </c>
-      <c r="K64" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C112 &amp;".jpg"</f>
+      <c r="L64" s="3" t="str">
+        <f t="shared" ref="L64:L76" si="8" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C112 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1041.jpg</v>
       </c>
-      <c r="L64" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C112 &amp;"a" &amp;".jpg"</f>
+      <c r="M64" s="1" t="str">
+        <f t="shared" ref="M64:M76" si="9" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C112 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1041a.jpg</v>
       </c>
-      <c r="M64" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C158 &amp;"b" &amp;".jpg"</f>
+      <c r="N64" s="1" t="str">
+        <f t="shared" ref="N64:N76" si="10" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C158 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1041b.jpg</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5311,30 +5569,34 @@
         <v>41.79</v>
       </c>
       <c r="I65" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>35.521499999999996</v>
+      </c>
+      <c r="J65" s="5">
+        <f t="shared" si="1"/>
         <v>29.252999999999997</v>
       </c>
-      <c r="J65" s="4" t="str">
-        <f>C65 &amp; ".html"</f>
+      <c r="K65" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>1042.html</v>
       </c>
-      <c r="K65" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C65:C113 &amp;".jpg"</f>
+      <c r="L65" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1042.jpg</v>
       </c>
-      <c r="L65" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C65:C113 &amp;"a" &amp;".jpg"</f>
+      <c r="M65" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1042a.jpg</v>
       </c>
-      <c r="M65" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C65:C159 &amp;"b" &amp;".jpg"</f>
+      <c r="N65" s="1" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1042b.jpg</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5360,30 +5622,34 @@
         <v>195.18</v>
       </c>
       <c r="I66" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>165.90299999999999</v>
+      </c>
+      <c r="J66" s="5">
+        <f t="shared" si="1"/>
         <v>136.626</v>
       </c>
-      <c r="J66" s="4" t="str">
-        <f>C66 &amp; ".html"</f>
+      <c r="K66" s="4" t="str">
+        <f t="shared" ref="K66:K97" si="11">C66 &amp; ".html"</f>
         <v>1043.html</v>
       </c>
-      <c r="K66" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C66:C114 &amp;".jpg"</f>
+      <c r="L66" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1043.jpg</v>
       </c>
-      <c r="L66" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C66:C114 &amp;"a" &amp;".jpg"</f>
+      <c r="M66" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1043a.jpg</v>
       </c>
-      <c r="M66" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C66:C160 &amp;"b" &amp;".jpg"</f>
+      <c r="N66" s="1" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1043b.jpg</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5409,30 +5675,34 @@
         <v>50.92</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>43.282000000000004</v>
+      </c>
+      <c r="J67" s="5">
+        <f t="shared" si="1"/>
         <v>35.643999999999998</v>
       </c>
-      <c r="J67" s="4" t="str">
-        <f>C67 &amp; ".html"</f>
+      <c r="K67" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>1044.html</v>
       </c>
-      <c r="K67" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C67:C115 &amp;".jpg"</f>
+      <c r="L67" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1044.jpg</v>
       </c>
-      <c r="L67" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C67:C115 &amp;"a" &amp;".jpg"</f>
+      <c r="M67" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1044a.jpg</v>
       </c>
-      <c r="M67" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C67:C161 &amp;"b" &amp;".jpg"</f>
+      <c r="N67" s="1" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1044b.jpg</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5458,30 +5728,34 @@
         <v>53.82</v>
       </c>
       <c r="I68" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I68:I127" si="12">H68 * 0.85</f>
+        <v>45.747</v>
+      </c>
+      <c r="J68" s="5">
+        <f t="shared" si="1"/>
         <v>37.673999999999999</v>
       </c>
-      <c r="J68" s="4" t="str">
-        <f>C68 &amp; ".html"</f>
+      <c r="K68" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>1045.html</v>
       </c>
-      <c r="K68" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C68:C116 &amp;".jpg"</f>
+      <c r="L68" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1045.jpg</v>
       </c>
-      <c r="L68" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C68:C116 &amp;"a" &amp;".jpg"</f>
+      <c r="M68" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1045a.jpg</v>
       </c>
-      <c r="M68" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C68:C162 &amp;"b" &amp;".jpg"</f>
+      <c r="N68" s="1" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1045b.jpg</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5507,30 +5781,34 @@
         <v>53.82</v>
       </c>
       <c r="I69" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
+        <v>45.747</v>
+      </c>
+      <c r="J69" s="5">
+        <f t="shared" si="1"/>
         <v>37.673999999999999</v>
       </c>
-      <c r="J69" s="4" t="str">
-        <f>C69 &amp; ".html"</f>
+      <c r="K69" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>1046.html</v>
       </c>
-      <c r="K69" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C69:C117 &amp;".jpg"</f>
+      <c r="L69" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1046.jpg</v>
       </c>
-      <c r="L69" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C69:C117 &amp;"a" &amp;".jpg"</f>
+      <c r="M69" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1046a.jpg</v>
       </c>
-      <c r="M69" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C69:C163 &amp;"b" &amp;".jpg"</f>
+      <c r="N69" s="1" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1046b.jpg</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:14" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5555,31 +5833,35 @@
       <c r="H70" s="18">
         <v>58.96</v>
       </c>
-      <c r="I70" s="32">
-        <f t="shared" si="0"/>
+      <c r="I70" s="5">
+        <f t="shared" si="12"/>
+        <v>50.116</v>
+      </c>
+      <c r="J70" s="32">
+        <f t="shared" si="1"/>
         <v>41.271999999999998</v>
       </c>
-      <c r="J70" s="18" t="str">
-        <f>C70 &amp; ".html"</f>
+      <c r="K70" s="18" t="str">
+        <f t="shared" si="11"/>
         <v>1047.html</v>
       </c>
-      <c r="K70" s="31" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C70:C118 &amp;".jpg"</f>
+      <c r="L70" s="31" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1047.jpg</v>
       </c>
-      <c r="L70" s="17" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C70:C118 &amp;"a" &amp;".jpg"</f>
+      <c r="M70" s="17" t="str">
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1047a.jpg</v>
       </c>
-      <c r="M70" s="17" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C70:C164 &amp;"b" &amp;".jpg"</f>
+      <c r="N70" s="17" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1047b.jpg</v>
       </c>
-      <c r="N70" s="19" t="s">
+      <c r="O70" s="19" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5605,30 +5887,34 @@
         <v>34.340000000000003</v>
       </c>
       <c r="I71" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
+        <v>29.189000000000004</v>
+      </c>
+      <c r="J71" s="5">
+        <f t="shared" si="1"/>
         <v>24.038</v>
       </c>
-      <c r="J71" s="4" t="str">
-        <f>C71 &amp; ".html"</f>
+      <c r="K71" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>1048.html</v>
       </c>
-      <c r="K71" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C71:C119 &amp;".jpg"</f>
+      <c r="L71" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1048.jpg</v>
       </c>
-      <c r="L71" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C71:C119 &amp;"a" &amp;".jpg"</f>
+      <c r="M71" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1048a.jpg</v>
       </c>
-      <c r="M71" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C71:C165 &amp;"b" &amp;".jpg"</f>
+      <c r="N71" s="1" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1048b.jpg</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5654,30 +5940,34 @@
         <v>34.340000000000003</v>
       </c>
       <c r="I72" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
+        <v>29.189000000000004</v>
+      </c>
+      <c r="J72" s="5">
+        <f t="shared" si="1"/>
         <v>24.038</v>
       </c>
-      <c r="J72" s="4" t="str">
-        <f>C72 &amp; ".html"</f>
+      <c r="K72" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>1049.html</v>
       </c>
-      <c r="K72" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C72:C120 &amp;".jpg"</f>
+      <c r="L72" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1049.jpg</v>
       </c>
-      <c r="L72" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C72:C120 &amp;"a" &amp;".jpg"</f>
+      <c r="M72" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1049a.jpg</v>
       </c>
-      <c r="M72" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C72:C166 &amp;"b" &amp;".jpg"</f>
+      <c r="N72" s="1" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1049b.jpg</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5703,30 +5993,34 @@
         <v>45.24</v>
       </c>
       <c r="I73" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
+        <v>38.454000000000001</v>
+      </c>
+      <c r="J73" s="5">
+        <f t="shared" si="1"/>
         <v>31.667999999999999</v>
       </c>
-      <c r="J73" s="4" t="str">
-        <f>C73 &amp; ".html"</f>
+      <c r="K73" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>1050.html</v>
       </c>
-      <c r="K73" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C73:C121 &amp;".jpg"</f>
+      <c r="L73" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1050.jpg</v>
       </c>
-      <c r="L73" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C73:C121 &amp;"a" &amp;".jpg"</f>
+      <c r="M73" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1050a.jpg</v>
       </c>
-      <c r="M73" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C73:C167 &amp;"b" &amp;".jpg"</f>
+      <c r="N73" s="1" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1050b.jpg</v>
       </c>
-      <c r="N73" s="16" t="s">
+      <c r="O73" s="16" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5752,30 +6046,34 @@
         <v>52.68</v>
       </c>
       <c r="I74" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
+        <v>44.777999999999999</v>
+      </c>
+      <c r="J74" s="5">
+        <f t="shared" si="1"/>
         <v>36.875999999999998</v>
       </c>
-      <c r="J74" s="4" t="str">
-        <f>C74 &amp; ".html"</f>
+      <c r="K74" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>1051.html</v>
       </c>
-      <c r="K74" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C74:C122 &amp;".jpg"</f>
+      <c r="L74" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1051.jpg</v>
       </c>
-      <c r="L74" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C74:C122 &amp;"a" &amp;".jpg"</f>
+      <c r="M74" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1051a.jpg</v>
       </c>
-      <c r="M74" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C74:C168 &amp;"b" &amp;".jpg"</f>
+      <c r="N74" s="1" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1051b.jpg</v>
       </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5801,30 +6099,34 @@
         <v>45.24</v>
       </c>
       <c r="I75" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
+        <v>38.454000000000001</v>
+      </c>
+      <c r="J75" s="5">
+        <f t="shared" si="1"/>
         <v>31.667999999999999</v>
       </c>
-      <c r="J75" s="4" t="str">
-        <f>C75 &amp; ".html"</f>
+      <c r="K75" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>1052.html</v>
       </c>
-      <c r="K75" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C75:C123 &amp;".jpg"</f>
+      <c r="L75" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1052.jpg</v>
       </c>
-      <c r="L75" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C75:C123 &amp;"a" &amp;".jpg"</f>
+      <c r="M75" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1052a.jpg</v>
       </c>
-      <c r="M75" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C75:C169 &amp;"b" &amp;".jpg"</f>
+      <c r="N75" s="1" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1052b.jpg</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5849,31 +6151,35 @@
       <c r="H76" s="15">
         <v>34.340000000000003</v>
       </c>
-      <c r="I76" s="20">
-        <f t="shared" si="0"/>
+      <c r="I76" s="5">
+        <f t="shared" si="12"/>
+        <v>29.189000000000004</v>
+      </c>
+      <c r="J76" s="20">
+        <f t="shared" si="1"/>
         <v>24.038</v>
       </c>
-      <c r="J76" s="15" t="str">
-        <f>C76 &amp; ".html"</f>
+      <c r="K76" s="15" t="str">
+        <f t="shared" si="11"/>
         <v>1110.html</v>
       </c>
-      <c r="K76" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C76:C124 &amp;".jpg"</f>
+      <c r="L76" s="14" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1110.jpg</v>
       </c>
-      <c r="L76" s="12" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C76:C124 &amp;"a" &amp;".jpg"</f>
+      <c r="M76" s="12" t="str">
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1110a.jpg</v>
       </c>
-      <c r="M76" s="12" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C76:C170 &amp;"b" &amp;".jpg"</f>
+      <c r="N76" s="12" t="str">
+        <f t="shared" si="10"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1110b.jpg</v>
       </c>
-      <c r="N76" s="16" t="s">
+      <c r="O76" s="16" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5899,30 +6205,34 @@
         <v>47.53</v>
       </c>
       <c r="I77" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
+        <v>40.400500000000001</v>
+      </c>
+      <c r="J77" s="5">
+        <f t="shared" si="1"/>
         <v>33.271000000000001</v>
       </c>
-      <c r="J77" s="4" t="str">
-        <f>C77 &amp; ".html"</f>
+      <c r="K77" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>1053.html</v>
       </c>
-      <c r="K77" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C77:C124 &amp;".jpg"</f>
+      <c r="L77" s="3" t="str">
+        <f t="shared" ref="L77:L82" si="13" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C77:C124 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1053.jpg</v>
       </c>
-      <c r="L77" s="1" t="str">
+      <c r="M77" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C77:C124 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1053a.jpg</v>
       </c>
-      <c r="M77" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C77:C170 &amp;"b" &amp;".jpg"</f>
+      <c r="N77" s="1" t="str">
+        <f t="shared" ref="N77:N89" si="14" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C77:C170 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1053b.jpg</v>
       </c>
-      <c r="N77" t="s">
+      <c r="O77" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="78" spans="1:14" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5947,31 +6257,35 @@
       <c r="H78" s="18">
         <v>34.340000000000003</v>
       </c>
-      <c r="I78" s="32">
-        <f t="shared" si="0"/>
+      <c r="I78" s="5">
+        <f t="shared" si="12"/>
+        <v>29.189000000000004</v>
+      </c>
+      <c r="J78" s="32">
+        <f t="shared" si="1"/>
         <v>24.038</v>
       </c>
-      <c r="J78" s="18" t="str">
-        <f>C78 &amp; ".html"</f>
+      <c r="K78" s="18" t="str">
+        <f t="shared" si="11"/>
         <v>1054.html</v>
       </c>
-      <c r="K78" s="31" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C78:C125 &amp;".jpg"</f>
+      <c r="L78" s="31" t="str">
+        <f t="shared" si="13"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1054.jpg</v>
       </c>
-      <c r="L78" s="17" t="str">
+      <c r="M78" s="17" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C78:C125 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1054a.jpg</v>
       </c>
-      <c r="M78" s="17" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C78:C171 &amp;"b" &amp;".jpg"</f>
+      <c r="N78" s="17" t="str">
+        <f t="shared" si="14"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1054b.jpg</v>
       </c>
-      <c r="N78" s="19" t="s">
+      <c r="O78" s="19" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5997,27 +6311,31 @@
         <v>13.76</v>
       </c>
       <c r="I79" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
+        <v>11.696</v>
+      </c>
+      <c r="J79" s="5">
+        <f t="shared" si="1"/>
         <v>9.6319999999999997</v>
       </c>
-      <c r="J79" s="4" t="str">
-        <f>C79 &amp; ".html"</f>
+      <c r="K79" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>1055.html</v>
       </c>
-      <c r="K79" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C79:C126 &amp;".jpg"</f>
+      <c r="L79" s="3" t="str">
+        <f t="shared" si="13"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1055.jpg</v>
       </c>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C79:C172 &amp;"b" &amp;".jpg"</f>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1055b.jpg</v>
       </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6043,30 +6361,34 @@
         <v>76.69</v>
       </c>
       <c r="I80" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
+        <v>65.186499999999995</v>
+      </c>
+      <c r="J80" s="5">
+        <f t="shared" si="1"/>
         <v>53.682999999999993</v>
       </c>
-      <c r="J80" s="4" t="str">
-        <f>C80 &amp; ".html"</f>
+      <c r="K80" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>1079.html</v>
       </c>
-      <c r="K80" s="9" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C80:C127 &amp;".jpg"</f>
+      <c r="L80" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1079.jpg</v>
       </c>
-      <c r="L80" s="7" t="str">
+      <c r="M80" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C80:C127 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1079a.jpg</v>
       </c>
-      <c r="M80" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C80:C173 &amp;"b" &amp;".jpg"</f>
+      <c r="N80" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1079b.jpg</v>
       </c>
-      <c r="N80" s="6" t="s">
+      <c r="O80" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6092,30 +6414,34 @@
         <v>76.69</v>
       </c>
       <c r="I81" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
+        <v>65.186499999999995</v>
+      </c>
+      <c r="J81" s="5">
+        <f t="shared" si="1"/>
         <v>53.682999999999993</v>
       </c>
-      <c r="J81" s="4" t="str">
-        <f>C81 &amp; ".html"</f>
+      <c r="K81" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>1080.html</v>
       </c>
-      <c r="K81" s="9" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C81:C128 &amp;".jpg"</f>
+      <c r="L81" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1080.jpg</v>
       </c>
-      <c r="L81" s="7" t="str">
+      <c r="M81" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C81:C128 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1080a.jpg</v>
       </c>
-      <c r="M81" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C81:C174 &amp;"b" &amp;".jpg"</f>
+      <c r="N81" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1080b.jpg</v>
       </c>
-      <c r="N81" s="6" t="s">
+      <c r="O81" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6141,30 +6467,34 @@
         <v>63.52</v>
       </c>
       <c r="I82" s="5">
-        <f t="shared" ref="I82:I115" si="1">H82 * 0.7</f>
+        <f t="shared" si="12"/>
+        <v>53.992000000000004</v>
+      </c>
+      <c r="J82" s="5">
+        <f t="shared" ref="J82:J115" si="15">H82 * 0.7</f>
         <v>44.463999999999999</v>
       </c>
-      <c r="J82" s="4" t="str">
-        <f>C82 &amp; ".html"</f>
+      <c r="K82" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>1081.html</v>
       </c>
-      <c r="K82" s="9" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C82:C129 &amp;".jpg"</f>
+      <c r="L82" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1081.jpg</v>
       </c>
-      <c r="L82" s="7" t="str">
+      <c r="M82" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C82:C129 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1081a.jpg</v>
       </c>
-      <c r="M82" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C82:C175 &amp;"b" &amp;".jpg"</f>
+      <c r="N82" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1081b.jpg</v>
       </c>
-      <c r="N82" s="6" t="s">
+      <c r="O82" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6190,30 +6520,34 @@
         <v>51.49</v>
       </c>
       <c r="I83" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
+        <v>43.766500000000001</v>
+      </c>
+      <c r="J83" s="5">
+        <f t="shared" si="15"/>
         <v>36.042999999999999</v>
       </c>
-      <c r="J83" s="4" t="str">
-        <f>C83 &amp; ".html"</f>
+      <c r="K83" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>1056.html</v>
       </c>
-      <c r="K83" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C83:C127 &amp;".jpg"</f>
+      <c r="L83" s="3" t="str">
+        <f t="shared" ref="L83:L89" si="16" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C83:C127 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1056.jpg</v>
       </c>
-      <c r="L83" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C83:C127 &amp;"a" &amp;".jpg"</f>
+      <c r="M83" s="1" t="str">
+        <f t="shared" ref="M83:M88" si="17" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C83:C127 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1056a.jpg</v>
       </c>
-      <c r="M83" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C83:C176 &amp;"b" &amp;".jpg"</f>
+      <c r="N83" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1056b.jpg</v>
       </c>
-      <c r="N83" t="s">
+      <c r="O83" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6239,30 +6573,34 @@
         <v>42.92</v>
       </c>
       <c r="I84" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
+        <v>36.481999999999999</v>
+      </c>
+      <c r="J84" s="5">
+        <f t="shared" si="15"/>
         <v>30.044</v>
       </c>
-      <c r="J84" s="4" t="str">
-        <f>C84 &amp; ".html"</f>
+      <c r="K84" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>1057.html</v>
       </c>
-      <c r="K84" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C84:C128 &amp;".jpg"</f>
+      <c r="L84" s="3" t="str">
+        <f t="shared" si="16"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1057.jpg</v>
       </c>
-      <c r="L84" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C84:C128 &amp;"a" &amp;".jpg"</f>
+      <c r="M84" s="1" t="str">
+        <f t="shared" si="17"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1057a.jpg</v>
       </c>
-      <c r="M84" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C84:C177 &amp;"b" &amp;".jpg"</f>
+      <c r="N84" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1057b.jpg</v>
       </c>
-      <c r="N84" t="s">
+      <c r="O84" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6288,30 +6626,34 @@
         <v>49.78</v>
       </c>
       <c r="I85" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
+        <v>42.313000000000002</v>
+      </c>
+      <c r="J85" s="5">
+        <f t="shared" si="15"/>
         <v>34.845999999999997</v>
       </c>
-      <c r="J85" s="4" t="str">
-        <f>C85 &amp; ".html"</f>
+      <c r="K85" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>1058.html</v>
       </c>
-      <c r="K85" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C85:C129 &amp;".jpg"</f>
+      <c r="L85" s="3" t="str">
+        <f t="shared" si="16"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1058.jpg</v>
       </c>
-      <c r="L85" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C85:C129 &amp;"a" &amp;".jpg"</f>
+      <c r="M85" s="1" t="str">
+        <f t="shared" si="17"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1058a.jpg</v>
       </c>
-      <c r="M85" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C85:C178 &amp;"b" &amp;".jpg"</f>
+      <c r="N85" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1058b.jpg</v>
       </c>
-      <c r="N85" t="s">
+      <c r="O85" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6337,30 +6679,34 @@
         <v>53.25</v>
       </c>
       <c r="I86" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
+        <v>45.262499999999996</v>
+      </c>
+      <c r="J86" s="5">
+        <f t="shared" si="15"/>
         <v>37.274999999999999</v>
       </c>
-      <c r="J86" s="4" t="str">
-        <f>C86 &amp; ".html"</f>
+      <c r="K86" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>1059.html</v>
       </c>
-      <c r="K86" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C86:C130 &amp;".jpg"</f>
+      <c r="L86" s="3" t="str">
+        <f t="shared" si="16"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1059.jpg</v>
       </c>
-      <c r="L86" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C86:C130 &amp;"a" &amp;".jpg"</f>
+      <c r="M86" s="1" t="str">
+        <f t="shared" si="17"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1059a.jpg</v>
       </c>
-      <c r="M86" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C86:C179 &amp;"b" &amp;".jpg"</f>
+      <c r="N86" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1059b.jpg</v>
       </c>
-      <c r="N86" t="s">
+      <c r="O86" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6386,30 +6732,34 @@
         <v>17.739999999999998</v>
       </c>
       <c r="I87" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
+        <v>15.078999999999999</v>
+      </c>
+      <c r="J87" s="5">
+        <f t="shared" si="15"/>
         <v>12.417999999999997</v>
       </c>
-      <c r="J87" s="4" t="str">
-        <f>C87 &amp; ".html"</f>
+      <c r="K87" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>1060.html</v>
       </c>
-      <c r="K87" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C87:C131 &amp;".jpg"</f>
+      <c r="L87" s="3" t="str">
+        <f t="shared" si="16"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1060.jpg</v>
       </c>
-      <c r="L87" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C87:C131 &amp;"a" &amp;".jpg"</f>
+      <c r="M87" s="1" t="str">
+        <f t="shared" si="17"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1060a.jpg</v>
       </c>
-      <c r="M87" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C87:C180 &amp;"b" &amp;".jpg"</f>
+      <c r="N87" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1060b.jpg</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6434,31 +6784,35 @@
       <c r="H88" s="18">
         <v>34.340000000000003</v>
       </c>
-      <c r="I88" s="32">
-        <f t="shared" si="1"/>
+      <c r="I88" s="5">
+        <f t="shared" si="12"/>
+        <v>29.189000000000004</v>
+      </c>
+      <c r="J88" s="32">
+        <f t="shared" si="15"/>
         <v>24.038</v>
       </c>
-      <c r="J88" s="18" t="str">
-        <f>C88 &amp; ".html"</f>
+      <c r="K88" s="18" t="str">
+        <f t="shared" si="11"/>
         <v>1061.html</v>
       </c>
-      <c r="K88" s="31" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C88:C132 &amp;".jpg"</f>
+      <c r="L88" s="31" t="str">
+        <f t="shared" si="16"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1061.jpg</v>
       </c>
-      <c r="L88" s="17" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C88:C132 &amp;"a" &amp;".jpg"</f>
+      <c r="M88" s="17" t="str">
+        <f t="shared" si="17"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1061a.jpg</v>
       </c>
-      <c r="M88" s="17" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C88:C181 &amp;"b" &amp;".jpg"</f>
+      <c r="N88" s="17" t="str">
+        <f t="shared" si="14"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1061b.jpg</v>
       </c>
-      <c r="N88" s="19" t="s">
+      <c r="O88" s="19" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6484,27 +6838,31 @@
         <v>1116.3399999999999</v>
       </c>
       <c r="I89" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
+        <v>948.8889999999999</v>
+      </c>
+      <c r="J89" s="5">
+        <f t="shared" si="15"/>
         <v>781.43799999999987</v>
       </c>
-      <c r="J89" s="4" t="str">
-        <f>C89 &amp; ".html"</f>
+      <c r="K89" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>1063.html</v>
       </c>
-      <c r="K89" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C89:C133 &amp;".jpg"</f>
+      <c r="L89" s="3" t="str">
+        <f t="shared" si="16"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1063.jpg</v>
       </c>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C89:C182 &amp;"b" &amp;".jpg"</f>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1063b.jpg</v>
       </c>
-      <c r="N89" t="s">
+      <c r="O89" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="90" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6524,27 +6882,31 @@
       <c r="H90" s="10">
         <v>823.36</v>
       </c>
-      <c r="I90" s="39">
+      <c r="I90" s="5">
+        <f t="shared" si="12"/>
+        <v>699.85599999999999</v>
+      </c>
+      <c r="J90" s="39">
         <v>823.36</v>
       </c>
-      <c r="J90" s="10" t="str">
-        <f>C90 &amp; ".html"</f>
+      <c r="K90" s="10" t="str">
+        <f t="shared" si="11"/>
         <v>1065.html</v>
       </c>
-      <c r="K90" s="9" t="str">
+      <c r="L90" s="9" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C90:C135 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1065.jpg</v>
       </c>
-      <c r="L90" s="7"/>
-      <c r="M90" s="1" t="str">
+      <c r="M90" s="7"/>
+      <c r="N90" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C90:C184 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1065b.jpg</v>
       </c>
-      <c r="N90" s="6" t="s">
+      <c r="O90" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6570,30 +6932,34 @@
         <v>75.19</v>
       </c>
       <c r="I91" s="5">
+        <f t="shared" si="12"/>
+        <v>63.911499999999997</v>
+      </c>
+      <c r="J91" s="5">
         <f>H91 * 0.7</f>
         <v>52.632999999999996</v>
       </c>
-      <c r="J91" s="4" t="str">
-        <f>C91 &amp; ".html"</f>
+      <c r="K91" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>1064.html</v>
       </c>
-      <c r="K91" s="3" t="str">
+      <c r="L91" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C90:C134 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1064.jpg</v>
       </c>
-      <c r="L91" s="1" t="str">
+      <c r="M91" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C90:C134 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1064a.jpg</v>
       </c>
-      <c r="M91" s="1" t="str">
+      <c r="N91" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C90:C183 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1064b.jpg</v>
       </c>
-      <c r="N91" t="s">
+      <c r="O91" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="92" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6618,25 +6984,29 @@
       <c r="H92" s="10">
         <v>555.54</v>
       </c>
-      <c r="I92" s="39">
-        <f t="shared" si="1"/>
+      <c r="I92" s="5">
+        <f t="shared" si="12"/>
+        <v>472.20899999999995</v>
+      </c>
+      <c r="J92" s="39">
+        <f t="shared" si="15"/>
         <v>388.87799999999993</v>
       </c>
-      <c r="J92" s="10" t="str">
-        <f>C92 &amp; ".html"</f>
+      <c r="K92" s="10" t="str">
+        <f t="shared" si="11"/>
         <v>1083.html</v>
       </c>
-      <c r="K92" s="9"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7" t="str">
+      <c r="L92" s="9"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C92:C185 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1083b.jpg</v>
       </c>
-      <c r="N92" s="6" t="s">
+      <c r="O92" s="6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6661,25 +7031,29 @@
       <c r="H93" s="10">
         <v>555.54</v>
       </c>
-      <c r="I93" s="39">
-        <f t="shared" si="1"/>
+      <c r="I93" s="5">
+        <f t="shared" si="12"/>
+        <v>472.20899999999995</v>
+      </c>
+      <c r="J93" s="39">
+        <f t="shared" si="15"/>
         <v>388.87799999999993</v>
       </c>
-      <c r="J93" s="10" t="str">
-        <f>C93 &amp; ".html"</f>
+      <c r="K93" s="10" t="str">
+        <f t="shared" si="11"/>
         <v>1096.html</v>
       </c>
-      <c r="K93" s="9"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7" t="str">
+      <c r="L93" s="9"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C93:C186 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1096b.jpg</v>
       </c>
-      <c r="N93" s="6" t="s">
+      <c r="O93" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="94" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6704,25 +7078,29 @@
       <c r="H94" s="10">
         <v>337.32</v>
       </c>
-      <c r="I94" s="39">
-        <f t="shared" si="1"/>
+      <c r="I94" s="5">
+        <f t="shared" si="12"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="J94" s="39">
+        <f t="shared" si="15"/>
         <v>236.12399999999997</v>
       </c>
-      <c r="J94" s="10" t="str">
-        <f>C94 &amp; ".html"</f>
+      <c r="K94" s="10" t="str">
+        <f t="shared" si="11"/>
         <v>1074.html</v>
       </c>
-      <c r="K94" s="9"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7" t="str">
+      <c r="L94" s="9"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C94:C187 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1074b.jpg</v>
       </c>
-      <c r="N94" s="6" t="s">
+      <c r="O94" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="95" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6747,25 +7125,29 @@
       <c r="H95" s="10">
         <v>337.32</v>
       </c>
-      <c r="I95" s="39">
-        <f t="shared" si="1"/>
+      <c r="I95" s="5">
+        <f t="shared" si="12"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="J95" s="39">
+        <f t="shared" si="15"/>
         <v>236.12399999999997</v>
       </c>
-      <c r="J95" s="10" t="str">
-        <f>C95 &amp; ".html"</f>
+      <c r="K95" s="10" t="str">
+        <f t="shared" si="11"/>
         <v>1086.html</v>
       </c>
-      <c r="K95" s="9"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7" t="str">
+      <c r="L95" s="9"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C95:C188 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1086b.jpg</v>
       </c>
-      <c r="N95" s="6" t="s">
+      <c r="O95" s="6" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="96" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6790,24 +7172,28 @@
       <c r="H96" s="10">
         <v>337.32</v>
       </c>
-      <c r="I96" s="39">
-        <f t="shared" si="1"/>
+      <c r="I96" s="5">
+        <f t="shared" si="12"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="J96" s="39">
+        <f t="shared" si="15"/>
         <v>236.12399999999997</v>
       </c>
-      <c r="J96" s="10" t="str">
-        <f>C96 &amp; ".html"</f>
+      <c r="K96" s="10" t="str">
+        <f t="shared" si="11"/>
         <v>1087.html</v>
       </c>
-      <c r="K96" s="9"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="40" t="s">
+      <c r="L96" s="9"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="40" t="s">
         <v>377</v>
       </c>
-      <c r="N96" s="6" t="s">
+      <c r="O96" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="97" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6832,24 +7218,28 @@
       <c r="H97" s="10">
         <v>337.32</v>
       </c>
-      <c r="I97" s="39">
-        <f t="shared" si="1"/>
+      <c r="I97" s="5">
+        <f t="shared" si="12"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="J97" s="39">
+        <f t="shared" si="15"/>
         <v>236.12399999999997</v>
       </c>
-      <c r="J97" s="10" t="str">
-        <f>C97 &amp; ".html"</f>
+      <c r="K97" s="10" t="str">
+        <f t="shared" si="11"/>
         <v>1088.html</v>
       </c>
-      <c r="K97" s="9"/>
-      <c r="L97" s="7"/>
-      <c r="M97" s="40" t="s">
+      <c r="L97" s="9"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="N97" s="6" t="s">
+      <c r="O97" s="6" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="98" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6874,24 +7264,28 @@
       <c r="H98" s="10">
         <v>337.32</v>
       </c>
-      <c r="I98" s="39">
-        <f t="shared" si="1"/>
+      <c r="I98" s="5">
+        <f t="shared" si="12"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="J98" s="39">
+        <f t="shared" si="15"/>
         <v>236.12399999999997</v>
       </c>
-      <c r="J98" s="10" t="str">
-        <f>C98 &amp; ".html"</f>
+      <c r="K98" s="10" t="str">
+        <f t="shared" ref="K98:K127" si="18">C98 &amp; ".html"</f>
         <v>1089.html</v>
       </c>
-      <c r="K98" s="9"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="40" t="s">
+      <c r="L98" s="9"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="40" t="s">
         <v>377</v>
       </c>
-      <c r="N98" s="6" t="s">
+      <c r="O98" s="6" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="99" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6916,24 +7310,28 @@
       <c r="H99" s="10">
         <v>337.32</v>
       </c>
-      <c r="I99" s="39">
-        <f t="shared" si="1"/>
+      <c r="I99" s="5">
+        <f t="shared" si="12"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="J99" s="39">
+        <f t="shared" si="15"/>
         <v>236.12399999999997</v>
       </c>
-      <c r="J99" s="10" t="str">
-        <f>C99 &amp; ".html"</f>
+      <c r="K99" s="10" t="str">
+        <f t="shared" si="18"/>
         <v>1090.html</v>
       </c>
-      <c r="K99" s="9"/>
-      <c r="L99" s="7"/>
-      <c r="M99" s="40" t="s">
+      <c r="L99" s="9"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="N99" s="6" t="s">
+      <c r="O99" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="100" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6958,25 +7356,29 @@
       <c r="H100" s="10">
         <v>270.32</v>
       </c>
-      <c r="I100" s="39">
-        <f t="shared" si="1"/>
+      <c r="I100" s="5">
+        <f t="shared" si="12"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="J100" s="39">
+        <f t="shared" si="15"/>
         <v>189.22399999999999</v>
       </c>
-      <c r="J100" s="10" t="str">
-        <f>C100 &amp; ".html"</f>
+      <c r="K100" s="10" t="str">
+        <f t="shared" si="18"/>
         <v>1073.html</v>
       </c>
-      <c r="K100" s="9"/>
-      <c r="L100" s="7"/>
-      <c r="M100" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C100:C193 &amp;"b" &amp;".jpg"</f>
+      <c r="L100" s="9"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7" t="str">
+        <f t="shared" ref="N100:N117" si="19" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C100:C193 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
       </c>
-      <c r="N100" s="6" t="s">
+      <c r="O100" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="101" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7001,25 +7403,29 @@
       <c r="H101" s="10">
         <v>270.32</v>
       </c>
-      <c r="I101" s="39">
-        <f t="shared" si="1"/>
+      <c r="I101" s="5">
+        <f t="shared" si="12"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="J101" s="39">
+        <f t="shared" si="15"/>
         <v>189.22399999999999</v>
       </c>
-      <c r="J101" s="10" t="str">
-        <f>C101 &amp; ".html"</f>
+      <c r="K101" s="10" t="str">
+        <f t="shared" si="18"/>
         <v>1091.html</v>
       </c>
-      <c r="K101" s="9"/>
-      <c r="L101" s="7"/>
-      <c r="M101" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C101:C194 &amp;"b" &amp;".jpg"</f>
+      <c r="L101" s="9"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7" t="str">
+        <f t="shared" si="19"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1091b.jpg</v>
       </c>
-      <c r="N101" s="6" t="s">
+      <c r="O101" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="102" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7044,25 +7450,29 @@
       <c r="H102" s="10">
         <v>270.32</v>
       </c>
-      <c r="I102" s="39">
-        <f t="shared" si="1"/>
+      <c r="I102" s="5">
+        <f t="shared" si="12"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="J102" s="39">
+        <f t="shared" si="15"/>
         <v>189.22399999999999</v>
       </c>
-      <c r="J102" s="10" t="str">
-        <f>C102 &amp; ".html"</f>
+      <c r="K102" s="10" t="str">
+        <f t="shared" si="18"/>
         <v>1092.html</v>
       </c>
-      <c r="K102" s="9"/>
-      <c r="L102" s="7"/>
-      <c r="M102" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C102:C195 &amp;"b" &amp;".jpg"</f>
+      <c r="L102" s="9"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7" t="str">
+        <f t="shared" si="19"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1092b.jpg</v>
       </c>
-      <c r="N102" s="6" t="s">
+      <c r="O102" s="6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="103" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7087,25 +7497,29 @@
       <c r="H103" s="10">
         <v>270.32</v>
       </c>
-      <c r="I103" s="39">
-        <f t="shared" si="1"/>
+      <c r="I103" s="5">
+        <f t="shared" si="12"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="J103" s="39">
+        <f t="shared" si="15"/>
         <v>189.22399999999999</v>
       </c>
-      <c r="J103" s="10" t="str">
-        <f>C103 &amp; ".html"</f>
+      <c r="K103" s="10" t="str">
+        <f t="shared" si="18"/>
         <v>1093.html</v>
       </c>
-      <c r="K103" s="9"/>
-      <c r="L103" s="7"/>
-      <c r="M103" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C103:C196 &amp;"b" &amp;".jpg"</f>
+      <c r="L103" s="9"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7" t="str">
+        <f t="shared" si="19"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1093b.jpg</v>
       </c>
-      <c r="N103" s="6" t="s">
+      <c r="O103" s="6" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="104" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7130,25 +7544,29 @@
       <c r="H104" s="10">
         <v>270.32</v>
       </c>
-      <c r="I104" s="39">
-        <f t="shared" si="1"/>
+      <c r="I104" s="5">
+        <f t="shared" si="12"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="J104" s="39">
+        <f t="shared" si="15"/>
         <v>189.22399999999999</v>
       </c>
-      <c r="J104" s="10" t="str">
-        <f>C104 &amp; ".html"</f>
+      <c r="K104" s="10" t="str">
+        <f t="shared" si="18"/>
         <v>1094.html</v>
       </c>
-      <c r="K104" s="9"/>
-      <c r="L104" s="7"/>
-      <c r="M104" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C104:C197 &amp;"b" &amp;".jpg"</f>
+      <c r="L104" s="9"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7" t="str">
+        <f t="shared" si="19"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1094b.jpg</v>
       </c>
-      <c r="N104" s="6" t="s">
+      <c r="O104" s="6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="105" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7173,25 +7591,29 @@
       <c r="H105" s="10">
         <v>270.32</v>
       </c>
-      <c r="I105" s="39">
-        <f t="shared" si="1"/>
+      <c r="I105" s="5">
+        <f t="shared" si="12"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="J105" s="39">
+        <f t="shared" si="15"/>
         <v>189.22399999999999</v>
       </c>
-      <c r="J105" s="10" t="str">
-        <f>C105 &amp; ".html"</f>
+      <c r="K105" s="10" t="str">
+        <f t="shared" si="18"/>
         <v>1095.html</v>
       </c>
-      <c r="K105" s="9"/>
-      <c r="L105" s="7"/>
-      <c r="M105" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C105:C198 &amp;"b" &amp;".jpg"</f>
+      <c r="L105" s="9"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7" t="str">
+        <f t="shared" si="19"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1095b.jpg</v>
       </c>
-      <c r="N105" s="6" t="s">
+      <c r="O105" s="6" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="106" spans="1:14" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7216,31 +7638,35 @@
       <c r="H106" s="18">
         <v>320.5</v>
       </c>
-      <c r="I106" s="32">
-        <f t="shared" ref="I106" si="2">H106 * 0.7</f>
+      <c r="I106" s="5">
+        <f t="shared" si="12"/>
+        <v>272.42500000000001</v>
+      </c>
+      <c r="J106" s="32">
+        <f t="shared" ref="J106" si="20">H106 * 0.7</f>
         <v>224.35</v>
       </c>
-      <c r="J106" s="18" t="str">
-        <f>C106 &amp; ".html"</f>
+      <c r="K106" s="18" t="str">
+        <f t="shared" si="18"/>
         <v>1072.html</v>
       </c>
-      <c r="K106" s="31" t="str">
+      <c r="L106" s="31" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C106:C135 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1072.jpg</v>
       </c>
-      <c r="L106" s="17" t="str">
+      <c r="M106" s="17" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C106:C135 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1072a.jpg</v>
       </c>
-      <c r="M106" s="17" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C106:C199 &amp;"b" &amp;".jpg"</f>
+      <c r="N106" s="17" t="str">
+        <f t="shared" si="19"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1072b.jpg</v>
       </c>
-      <c r="N106" s="19" t="s">
+      <c r="O106" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7266,27 +7692,31 @@
         <v>57.23</v>
       </c>
       <c r="I107" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
+        <v>48.645499999999998</v>
+      </c>
+      <c r="J107" s="5">
+        <f t="shared" si="15"/>
         <v>40.060999999999993</v>
       </c>
-      <c r="J107" s="4" t="str">
-        <f>C107 &amp; ".html"</f>
+      <c r="K107" s="4" t="str">
+        <f t="shared" si="18"/>
         <v>1066.html</v>
       </c>
-      <c r="K107" s="3" t="str">
+      <c r="L107" s="3" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C92:C136 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1066.jpg</v>
       </c>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C107:C200 &amp;"b" &amp;".jpg"</f>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1" t="str">
+        <f t="shared" si="19"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1066b.jpg</v>
       </c>
-      <c r="N107" t="s">
+      <c r="O107" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7312,27 +7742,31 @@
         <v>57.23</v>
       </c>
       <c r="I108" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
+        <v>48.645499999999998</v>
+      </c>
+      <c r="J108" s="5">
+        <f t="shared" si="15"/>
         <v>40.060999999999993</v>
       </c>
-      <c r="J108" s="4" t="str">
-        <f>C108 &amp; ".html"</f>
+      <c r="K108" s="4" t="str">
+        <f t="shared" si="18"/>
         <v>1067.html</v>
       </c>
-      <c r="K108" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C108:C137 &amp;".jpg"</f>
+      <c r="L108" s="3" t="str">
+        <f t="shared" ref="L108:L115" si="21" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C108:C137 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1067.jpg</v>
       </c>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C108:C201 &amp;"b" &amp;".jpg"</f>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1" t="str">
+        <f t="shared" si="19"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1067b.jpg</v>
       </c>
-      <c r="N108" t="s">
+      <c r="O108" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7358,30 +7792,34 @@
         <v>127.62</v>
       </c>
       <c r="I109" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
+        <v>108.477</v>
+      </c>
+      <c r="J109" s="5">
+        <f t="shared" si="15"/>
         <v>89.334000000000003</v>
       </c>
-      <c r="J109" s="4" t="str">
-        <f>C109 &amp; ".html"</f>
+      <c r="K109" s="4" t="str">
+        <f t="shared" si="18"/>
         <v>1068.html</v>
       </c>
-      <c r="K109" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C109:C138 &amp;".jpg"</f>
+      <c r="L109" s="3" t="str">
+        <f t="shared" si="21"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1068.jpg</v>
       </c>
-      <c r="L109" s="1" t="str">
+      <c r="M109" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C109:C138 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1068a.jpg</v>
       </c>
-      <c r="M109" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C109:C202 &amp;"b" &amp;".jpg"</f>
+      <c r="N109" s="1" t="str">
+        <f t="shared" si="19"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1068b.jpg</v>
       </c>
-      <c r="N109" t="s">
+      <c r="O109" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7407,30 +7845,34 @@
         <v>60.11</v>
       </c>
       <c r="I110" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
+        <v>51.093499999999999</v>
+      </c>
+      <c r="J110" s="5">
+        <f t="shared" si="15"/>
         <v>42.076999999999998</v>
       </c>
-      <c r="J110" s="4" t="str">
-        <f>C110 &amp; ".html"</f>
+      <c r="K110" s="4" t="str">
+        <f t="shared" si="18"/>
         <v>1069.html</v>
       </c>
-      <c r="K110" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C110:C139 &amp;".jpg"</f>
+      <c r="L110" s="3" t="str">
+        <f t="shared" si="21"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1069.jpg</v>
       </c>
-      <c r="L110" s="1" t="str">
+      <c r="M110" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C110:C139 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1069a.jpg</v>
       </c>
-      <c r="M110" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C110:C203 &amp;"b" &amp;".jpg"</f>
+      <c r="N110" s="1" t="str">
+        <f t="shared" si="19"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1069b.jpg</v>
       </c>
-      <c r="N110" t="s">
+      <c r="O110" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7456,30 +7898,34 @@
         <v>86.44</v>
       </c>
       <c r="I111" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
+        <v>73.47399999999999</v>
+      </c>
+      <c r="J111" s="5">
+        <f t="shared" si="15"/>
         <v>60.507999999999996</v>
       </c>
-      <c r="J111" s="4" t="str">
-        <f>C111 &amp; ".html"</f>
+      <c r="K111" s="4" t="str">
+        <f t="shared" si="18"/>
         <v>1070.html</v>
       </c>
-      <c r="K111" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C111:C140 &amp;".jpg"</f>
+      <c r="L111" s="3" t="str">
+        <f t="shared" si="21"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1070.jpg</v>
       </c>
-      <c r="L111" s="1" t="str">
+      <c r="M111" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C111:C140 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1070a.jpg</v>
       </c>
-      <c r="M111" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C111:C204 &amp;"b" &amp;".jpg"</f>
+      <c r="N111" s="1" t="str">
+        <f t="shared" si="19"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1070b.jpg</v>
       </c>
-      <c r="N111" t="s">
+      <c r="O111" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7505,30 +7951,34 @@
         <v>10.31</v>
       </c>
       <c r="I112" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
+        <v>8.7635000000000005</v>
+      </c>
+      <c r="J112" s="5">
+        <f t="shared" si="15"/>
         <v>7.2169999999999996</v>
       </c>
-      <c r="J112" s="4" t="str">
-        <f>C112 &amp; ".html"</f>
+      <c r="K112" s="4" t="str">
+        <f t="shared" si="18"/>
         <v>1071.html</v>
       </c>
-      <c r="K112" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C112:C141 &amp;".jpg"</f>
+      <c r="L112" s="3" t="str">
+        <f t="shared" si="21"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1071.jpg</v>
       </c>
-      <c r="L112" s="1" t="str">
+      <c r="M112" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C112:C141 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1071a.jpg</v>
       </c>
-      <c r="M112" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C112:C205 &amp;"b" &amp;".jpg"</f>
+      <c r="N112" s="1" t="str">
+        <f t="shared" si="19"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1071b.jpg</v>
       </c>
-      <c r="N112" t="s">
+      <c r="O112" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="113" spans="1:14" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7553,27 +8003,31 @@
       <c r="H113" s="35">
         <v>79.540000000000006</v>
       </c>
-      <c r="I113" s="44">
-        <f t="shared" si="1"/>
+      <c r="I113" s="5">
+        <f t="shared" si="12"/>
+        <v>67.609000000000009</v>
+      </c>
+      <c r="J113" s="44">
+        <f t="shared" si="15"/>
         <v>55.678000000000004</v>
       </c>
-      <c r="J113" s="36" t="str">
-        <f>C113 &amp; ".html"</f>
+      <c r="K113" s="36" t="str">
+        <f t="shared" si="18"/>
         <v>1111.html</v>
       </c>
-      <c r="K113" s="22" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C113:C142 &amp;".jpg"</f>
+      <c r="L113" s="22" t="str">
+        <f t="shared" si="21"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1111.jpg</v>
       </c>
-      <c r="M113" s="22" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C113:C206 &amp;"b" &amp;".jpg"</f>
+      <c r="N113" s="22" t="str">
+        <f t="shared" si="19"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1111b.jpg</v>
       </c>
-      <c r="N113" s="16" t="s">
+      <c r="O113" s="16" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="114" spans="1:14" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7598,27 +8052,31 @@
       <c r="H114" s="35">
         <v>75.58</v>
       </c>
-      <c r="I114" s="44">
-        <f t="shared" si="1"/>
+      <c r="I114" s="5">
+        <f t="shared" si="12"/>
+        <v>64.242999999999995</v>
+      </c>
+      <c r="J114" s="44">
+        <f t="shared" si="15"/>
         <v>52.905999999999999</v>
       </c>
-      <c r="J114" s="36" t="str">
-        <f>C114 &amp; ".html"</f>
+      <c r="K114" s="36" t="str">
+        <f t="shared" si="18"/>
         <v>1112.html</v>
       </c>
-      <c r="K114" s="22" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C114:C143 &amp;".jpg"</f>
+      <c r="L114" s="22" t="str">
+        <f t="shared" si="21"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1112.jpg</v>
       </c>
-      <c r="M114" s="22" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C114:C207 &amp;"b" &amp;".jpg"</f>
+      <c r="N114" s="22" t="str">
+        <f t="shared" si="19"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1112b.jpg</v>
       </c>
-      <c r="N114" s="16" t="s">
+      <c r="O114" s="16" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="115" spans="1:14" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7643,27 +8101,31 @@
       <c r="H115" s="35">
         <v>51.51</v>
       </c>
-      <c r="I115" s="44">
-        <f t="shared" si="1"/>
+      <c r="I115" s="5">
+        <f t="shared" si="12"/>
+        <v>43.783499999999997</v>
+      </c>
+      <c r="J115" s="44">
+        <f t="shared" si="15"/>
         <v>36.056999999999995</v>
       </c>
-      <c r="J115" s="36" t="str">
-        <f>C115 &amp; ".html"</f>
+      <c r="K115" s="36" t="str">
+        <f t="shared" si="18"/>
         <v>1113.html</v>
       </c>
-      <c r="K115" s="22" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C115:C144 &amp;".jpg"</f>
+      <c r="L115" s="22" t="str">
+        <f t="shared" si="21"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1113.jpg</v>
       </c>
-      <c r="M115" s="22" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C115:C208 &amp;"b" &amp;".jpg"</f>
+      <c r="N115" s="22" t="str">
+        <f t="shared" si="19"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1113b.jpg</v>
       </c>
-      <c r="N115" s="16" t="s">
+      <c r="O115" s="16" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="116" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7688,25 +8150,29 @@
       <c r="H116" s="10">
         <v>337.32</v>
       </c>
-      <c r="I116" s="39">
-        <f t="shared" ref="I116:I127" si="3">H116 * 0.7</f>
+      <c r="I116" s="5">
+        <f t="shared" si="12"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="J116" s="39">
+        <f t="shared" ref="J116:J127" si="22">H116 * 0.7</f>
         <v>236.12399999999997</v>
       </c>
-      <c r="J116" s="10" t="str">
-        <f>C116 &amp; ".html"</f>
+      <c r="K116" s="10" t="str">
+        <f t="shared" si="18"/>
         <v>1074.html</v>
       </c>
-      <c r="K116" s="9"/>
-      <c r="L116" s="7"/>
-      <c r="M116" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C116:C209 &amp;"b" &amp;".jpg"</f>
+      <c r="L116" s="9"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7" t="str">
+        <f t="shared" si="19"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1074b.jpg</v>
       </c>
-      <c r="N116" s="6" t="s">
+      <c r="O116" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="117" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7731,25 +8197,29 @@
       <c r="H117" s="10">
         <v>337.32</v>
       </c>
-      <c r="I117" s="39">
-        <f t="shared" si="3"/>
+      <c r="I117" s="5">
+        <f t="shared" si="12"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="J117" s="39">
+        <f t="shared" si="22"/>
         <v>236.12399999999997</v>
       </c>
-      <c r="J117" s="10" t="str">
-        <f>C117 &amp; ".html"</f>
+      <c r="K117" s="10" t="str">
+        <f t="shared" si="18"/>
         <v>1086.html</v>
       </c>
-      <c r="K117" s="9"/>
-      <c r="L117" s="7"/>
-      <c r="M117" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C117:C210 &amp;"b" &amp;".jpg"</f>
+      <c r="L117" s="9"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7" t="str">
+        <f t="shared" si="19"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1086b.jpg</v>
       </c>
-      <c r="N117" s="6" t="s">
+      <c r="O117" s="6" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="118" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7774,24 +8244,28 @@
       <c r="H118" s="10">
         <v>337.32</v>
       </c>
-      <c r="I118" s="39">
-        <f t="shared" si="3"/>
+      <c r="I118" s="5">
+        <f t="shared" si="12"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="J118" s="39">
+        <f t="shared" si="22"/>
         <v>236.12399999999997</v>
       </c>
-      <c r="J118" s="10" t="str">
-        <f>C118 &amp; ".html"</f>
+      <c r="K118" s="10" t="str">
+        <f t="shared" si="18"/>
         <v>1087.html</v>
       </c>
-      <c r="K118" s="9"/>
-      <c r="L118" s="7"/>
-      <c r="M118" s="40" t="s">
+      <c r="L118" s="9"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="40" t="s">
         <v>377</v>
       </c>
-      <c r="N118" s="6" t="s">
+      <c r="O118" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="119" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7816,24 +8290,28 @@
       <c r="H119" s="10">
         <v>337.32</v>
       </c>
-      <c r="I119" s="39">
-        <f t="shared" si="3"/>
+      <c r="I119" s="5">
+        <f t="shared" si="12"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="J119" s="39">
+        <f t="shared" si="22"/>
         <v>236.12399999999997</v>
       </c>
-      <c r="J119" s="10" t="str">
-        <f>C119 &amp; ".html"</f>
+      <c r="K119" s="10" t="str">
+        <f t="shared" si="18"/>
         <v>1088.html</v>
       </c>
-      <c r="K119" s="9"/>
-      <c r="L119" s="7"/>
-      <c r="M119" s="40" t="s">
+      <c r="L119" s="9"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="N119" s="6" t="s">
+      <c r="O119" s="6" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="120" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7858,24 +8336,28 @@
       <c r="H120" s="10">
         <v>337.32</v>
       </c>
-      <c r="I120" s="39">
-        <f t="shared" si="3"/>
+      <c r="I120" s="5">
+        <f t="shared" si="12"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="J120" s="39">
+        <f t="shared" si="22"/>
         <v>236.12399999999997</v>
       </c>
-      <c r="J120" s="10" t="str">
-        <f>C120 &amp; ".html"</f>
+      <c r="K120" s="10" t="str">
+        <f t="shared" si="18"/>
         <v>1089.html</v>
       </c>
-      <c r="K120" s="9"/>
-      <c r="L120" s="7"/>
-      <c r="M120" s="40" t="s">
+      <c r="L120" s="9"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="40" t="s">
         <v>377</v>
       </c>
-      <c r="N120" s="6" t="s">
+      <c r="O120" s="6" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="121" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7900,24 +8382,28 @@
       <c r="H121" s="10">
         <v>337.32</v>
       </c>
-      <c r="I121" s="39">
-        <f t="shared" si="3"/>
+      <c r="I121" s="5">
+        <f t="shared" si="12"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="J121" s="39">
+        <f t="shared" si="22"/>
         <v>236.12399999999997</v>
       </c>
-      <c r="J121" s="10" t="str">
-        <f>C121 &amp; ".html"</f>
+      <c r="K121" s="10" t="str">
+        <f t="shared" si="18"/>
         <v>1090.html</v>
       </c>
-      <c r="K121" s="9"/>
-      <c r="L121" s="7"/>
-      <c r="M121" s="40" t="s">
+      <c r="L121" s="9"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="N121" s="6" t="s">
+      <c r="O121" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="122" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7942,25 +8428,29 @@
       <c r="H122" s="10">
         <v>270.32</v>
       </c>
-      <c r="I122" s="39">
-        <f t="shared" si="3"/>
+      <c r="I122" s="5">
+        <f t="shared" si="12"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="J122" s="39">
+        <f t="shared" si="22"/>
         <v>189.22399999999999</v>
       </c>
-      <c r="J122" s="10" t="str">
-        <f>C122 &amp; ".html"</f>
+      <c r="K122" s="10" t="str">
+        <f t="shared" si="18"/>
         <v>1073.html</v>
       </c>
-      <c r="K122" s="9"/>
-      <c r="L122" s="7"/>
-      <c r="M122" s="7" t="str">
-        <f t="shared" ref="M122:M127" si="4" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C122:C215 &amp;"b" &amp;".jpg"</f>
+      <c r="L122" s="9"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="7" t="str">
+        <f t="shared" ref="N122:N127" si="23" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C122:C215 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
       </c>
-      <c r="N122" s="6" t="s">
+      <c r="O122" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="123" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7985,25 +8475,29 @@
       <c r="H123" s="10">
         <v>270.32</v>
       </c>
-      <c r="I123" s="39">
-        <f t="shared" si="3"/>
+      <c r="I123" s="5">
+        <f t="shared" si="12"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="J123" s="39">
+        <f t="shared" si="22"/>
         <v>189.22399999999999</v>
       </c>
-      <c r="J123" s="10" t="str">
-        <f>C123 &amp; ".html"</f>
+      <c r="K123" s="10" t="str">
+        <f t="shared" si="18"/>
         <v>1091.html</v>
       </c>
-      <c r="K123" s="9"/>
-      <c r="L123" s="7"/>
-      <c r="M123" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="7"/>
+      <c r="N123" s="7" t="str">
+        <f t="shared" si="23"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1091b.jpg</v>
       </c>
-      <c r="N123" s="6" t="s">
+      <c r="O123" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="124" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8028,25 +8522,29 @@
       <c r="H124" s="10">
         <v>270.32</v>
       </c>
-      <c r="I124" s="39">
-        <f t="shared" si="3"/>
+      <c r="I124" s="5">
+        <f t="shared" si="12"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="J124" s="39">
+        <f t="shared" si="22"/>
         <v>189.22399999999999</v>
       </c>
-      <c r="J124" s="10" t="str">
-        <f>C124 &amp; ".html"</f>
+      <c r="K124" s="10" t="str">
+        <f t="shared" si="18"/>
         <v>1092.html</v>
       </c>
-      <c r="K124" s="9"/>
-      <c r="L124" s="7"/>
-      <c r="M124" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="7"/>
+      <c r="N124" s="7" t="str">
+        <f t="shared" si="23"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1092b.jpg</v>
       </c>
-      <c r="N124" s="6" t="s">
+      <c r="O124" s="6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="125" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8071,25 +8569,29 @@
       <c r="H125" s="10">
         <v>270.32</v>
       </c>
-      <c r="I125" s="39">
-        <f t="shared" si="3"/>
+      <c r="I125" s="5">
+        <f t="shared" si="12"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="J125" s="39">
+        <f t="shared" si="22"/>
         <v>189.22399999999999</v>
       </c>
-      <c r="J125" s="10" t="str">
-        <f>C125 &amp; ".html"</f>
+      <c r="K125" s="10" t="str">
+        <f t="shared" si="18"/>
         <v>1093.html</v>
       </c>
-      <c r="K125" s="9"/>
-      <c r="L125" s="7"/>
-      <c r="M125" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="7"/>
+      <c r="N125" s="7" t="str">
+        <f t="shared" si="23"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1093b.jpg</v>
       </c>
-      <c r="N125" s="6" t="s">
+      <c r="O125" s="6" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="126" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8114,25 +8616,29 @@
       <c r="H126" s="10">
         <v>270.32</v>
       </c>
-      <c r="I126" s="39">
-        <f t="shared" si="3"/>
+      <c r="I126" s="5">
+        <f t="shared" si="12"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="J126" s="39">
+        <f t="shared" si="22"/>
         <v>189.22399999999999</v>
       </c>
-      <c r="J126" s="10" t="str">
-        <f>C126 &amp; ".html"</f>
+      <c r="K126" s="10" t="str">
+        <f t="shared" si="18"/>
         <v>1094.html</v>
       </c>
-      <c r="K126" s="9"/>
-      <c r="L126" s="7"/>
-      <c r="M126" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="7"/>
+      <c r="N126" s="7" t="str">
+        <f t="shared" si="23"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1094b.jpg</v>
       </c>
-      <c r="N126" s="6" t="s">
+      <c r="O126" s="6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="127" spans="1:14" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8157,56 +8663,60 @@
       <c r="H127" s="10">
         <v>270.32</v>
       </c>
-      <c r="I127" s="39">
-        <f t="shared" si="3"/>
+      <c r="I127" s="5">
+        <f t="shared" si="12"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="J127" s="39">
+        <f t="shared" si="22"/>
         <v>189.22399999999999</v>
       </c>
-      <c r="J127" s="10" t="str">
-        <f>C127 &amp; ".html"</f>
+      <c r="K127" s="10" t="str">
+        <f t="shared" si="18"/>
         <v>1095.html</v>
       </c>
-      <c r="K127" s="9"/>
-      <c r="L127" s="7"/>
-      <c r="M127" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="7"/>
+      <c r="N127" s="7" t="str">
+        <f t="shared" si="23"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1095b.jpg</v>
       </c>
-      <c r="N127" s="6" t="s">
+      <c r="O127" s="6" t="s">
         <v>293</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N73" r:id="rId1"/>
-    <hyperlink ref="N21" r:id="rId2"/>
-    <hyperlink ref="N38" r:id="rId3"/>
-    <hyperlink ref="N9" r:id="rId4"/>
-    <hyperlink ref="M96" r:id="rId5"/>
-    <hyperlink ref="M97" r:id="rId6"/>
-    <hyperlink ref="M98" r:id="rId7"/>
-    <hyperlink ref="M99" r:id="rId8"/>
-    <hyperlink ref="N41" r:id="rId9"/>
-    <hyperlink ref="N42" r:id="rId10"/>
-    <hyperlink ref="M118" r:id="rId11"/>
-    <hyperlink ref="M119" r:id="rId12"/>
-    <hyperlink ref="M120" r:id="rId13"/>
-    <hyperlink ref="M121" r:id="rId14"/>
-    <hyperlink ref="N27" r:id="rId15"/>
-    <hyperlink ref="N31" r:id="rId16"/>
-    <hyperlink ref="N32" r:id="rId17"/>
-    <hyperlink ref="N33" r:id="rId18"/>
-    <hyperlink ref="N34" r:id="rId19"/>
-    <hyperlink ref="N35" r:id="rId20"/>
-    <hyperlink ref="N36" r:id="rId21"/>
-    <hyperlink ref="N37" r:id="rId22"/>
-    <hyperlink ref="N60" r:id="rId23"/>
-    <hyperlink ref="N61" r:id="rId24"/>
-    <hyperlink ref="N62" r:id="rId25"/>
-    <hyperlink ref="N63" r:id="rId26"/>
-    <hyperlink ref="N76" r:id="rId27"/>
-    <hyperlink ref="N113" r:id="rId28"/>
-    <hyperlink ref="N114" r:id="rId29"/>
-    <hyperlink ref="N115" r:id="rId30"/>
+    <hyperlink ref="O73" r:id="rId1"/>
+    <hyperlink ref="O21" r:id="rId2"/>
+    <hyperlink ref="O38" r:id="rId3"/>
+    <hyperlink ref="O9" r:id="rId4"/>
+    <hyperlink ref="N96" r:id="rId5"/>
+    <hyperlink ref="N97" r:id="rId6"/>
+    <hyperlink ref="N98" r:id="rId7"/>
+    <hyperlink ref="N99" r:id="rId8"/>
+    <hyperlink ref="O41" r:id="rId9"/>
+    <hyperlink ref="O42" r:id="rId10"/>
+    <hyperlink ref="N118" r:id="rId11"/>
+    <hyperlink ref="N119" r:id="rId12"/>
+    <hyperlink ref="N120" r:id="rId13"/>
+    <hyperlink ref="N121" r:id="rId14"/>
+    <hyperlink ref="O27" r:id="rId15"/>
+    <hyperlink ref="O31" r:id="rId16"/>
+    <hyperlink ref="O32" r:id="rId17"/>
+    <hyperlink ref="O33" r:id="rId18"/>
+    <hyperlink ref="O34" r:id="rId19"/>
+    <hyperlink ref="O35" r:id="rId20"/>
+    <hyperlink ref="O36" r:id="rId21"/>
+    <hyperlink ref="O37" r:id="rId22"/>
+    <hyperlink ref="O60" r:id="rId23"/>
+    <hyperlink ref="O61" r:id="rId24"/>
+    <hyperlink ref="O62" r:id="rId25"/>
+    <hyperlink ref="O63" r:id="rId26"/>
+    <hyperlink ref="O76" r:id="rId27"/>
+    <hyperlink ref="O113" r:id="rId28"/>
+    <hyperlink ref="O114" r:id="rId29"/>
+    <hyperlink ref="O115" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId31"/>

--- a/products_categories/Merge.xlsx
+++ b/products_categories/Merge.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="582">
   <si>
     <t>h1</t>
   </si>
@@ -1754,6 +1754,18 @@
   </si>
   <si>
     <t>discount15</t>
+  </si>
+  <si>
+    <t>Aloe Ever-Shield Deodorant Stick</t>
+  </si>
+  <si>
+    <t>Сух алое дезодорант</t>
+  </si>
+  <si>
+    <t>Нежната формула със стабилизиран гел от алое вера не съдържа вредни алуминиеви соли.</t>
+  </si>
+  <si>
+    <t>067-ALOE-EVER-SHIELD-DEODORANT</t>
   </si>
 </sst>
 </file>
@@ -2252,10 +2264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O127"/>
+  <dimension ref="A1:O128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="N83" sqref="N83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2359,15 +2371,15 @@
         <v>1000.html</v>
       </c>
       <c r="L2" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C2:C112 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C2:C113 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1000.jpg</v>
       </c>
       <c r="M2" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C2:C112 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C2:C113 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1000a.jpg</v>
       </c>
       <c r="N2" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C2:C112 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C2:C113 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1000b.jpg</v>
       </c>
       <c r="O2" t="s">
@@ -2412,15 +2424,15 @@
         <v>1001.html</v>
       </c>
       <c r="L3" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C3:C92 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C3:C93 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1001.jpg</v>
       </c>
       <c r="M3" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C3:C92 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C3:C93 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1001a.jpg</v>
       </c>
       <c r="N3" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C3:C112 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C3:C113 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1001b.jpg</v>
       </c>
       <c r="O3" t="s">
@@ -2465,15 +2477,15 @@
         <v>1075.html</v>
       </c>
       <c r="L4" s="9" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C4:C93 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C4:C94 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1075.jpg</v>
       </c>
       <c r="M4" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C4:C93 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C4:C94 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1075a.jpg</v>
       </c>
       <c r="N4" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C4:C112 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C4:C113 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1075b.jpg</v>
       </c>
       <c r="O4" s="6" t="s">
@@ -2518,15 +2530,15 @@
         <v>1002.html</v>
       </c>
       <c r="L5" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C93 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C94 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1002.jpg</v>
       </c>
       <c r="M5" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C93 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C94 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1002a.jpg</v>
       </c>
       <c r="N5" s="1" t="str">
-        <f t="shared" ref="N5:N12" si="3" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C114 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C115 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1002b.jpg</v>
       </c>
       <c r="O5" t="s">
@@ -2573,7 +2585,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C6:C116 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1003b.jpg</v>
       </c>
       <c r="O6" t="s">
@@ -2620,7 +2632,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="7"/>
       <c r="N7" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C7:C117 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1004b.jpg</v>
       </c>
       <c r="O7" s="11" t="s">
@@ -2667,7 +2679,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C8:C118 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1005b.jpg</v>
       </c>
       <c r="O8" t="s">
@@ -2714,7 +2726,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C9:C119 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1084b.jpg</v>
       </c>
       <c r="O9" s="37" t="s">
@@ -2759,15 +2771,15 @@
         <v>1006.html</v>
       </c>
       <c r="L10" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C10:C97 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C10:C98 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1006.jpg</v>
       </c>
       <c r="M10" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C10:C97 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C10:C98 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1006a.jpg</v>
       </c>
       <c r="N10" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C10:C120 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1006b.jpg</v>
       </c>
       <c r="O10" t="s">
@@ -2812,15 +2824,15 @@
         <v>1007.html</v>
       </c>
       <c r="L11" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C11:C98 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C11:C99 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1007.jpg</v>
       </c>
       <c r="M11" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C11:C98 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C11:C99 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1007a.jpg</v>
       </c>
       <c r="N11" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C11:C121 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1007b.jpg</v>
       </c>
       <c r="O11" t="s">
@@ -2865,12 +2877,12 @@
         <v>1008.html</v>
       </c>
       <c r="L12" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C12:C99 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C12:C100 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1008.jpg</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C12:C122 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1008b.jpg</v>
       </c>
       <c r="O12" t="s">
@@ -2915,15 +2927,15 @@
         <v>1010.html</v>
       </c>
       <c r="L13" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C101 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C102 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1010.jpg</v>
       </c>
       <c r="M13" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C101 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C102 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1010a.jpg</v>
       </c>
       <c r="N13" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C124 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C125 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1010b.jpg</v>
       </c>
       <c r="O13" t="s">
@@ -2968,12 +2980,12 @@
         <v>1009.html</v>
       </c>
       <c r="L14" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C14:C100 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C14:C101 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1009.jpg</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C14:C122 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C14:C123 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1009b.jpg</v>
       </c>
       <c r="O14" t="s">
@@ -3018,15 +3030,15 @@
         <v>1082.html</v>
       </c>
       <c r="L15" s="9" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C94 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C95 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1082.jpg</v>
       </c>
       <c r="M15" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C94 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C95 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1082a.jpg</v>
       </c>
       <c r="N15" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C113 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C114 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1082b.jpg</v>
       </c>
       <c r="O15" s="6" t="s">
@@ -3071,15 +3083,15 @@
         <v>1076.html</v>
       </c>
       <c r="L16" s="9" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C101 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C102 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1076.jpg</v>
       </c>
       <c r="M16" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C101 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C102 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1076a.jpg</v>
       </c>
       <c r="N16" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C123 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C124 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1076b.jpg</v>
       </c>
       <c r="O16" s="6" t="s">
@@ -3124,15 +3136,15 @@
         <v>1011.html</v>
       </c>
       <c r="L17" s="31" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C17:C102 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C17:C103 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1011.jpg</v>
       </c>
       <c r="M17" s="17" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C17:C102 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C17:C103 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1011a.jpg</v>
       </c>
       <c r="N17" s="17" t="str">
-        <f t="shared" ref="N17:N25" si="4" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C17:C125 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C17:C126 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1011b.jpg</v>
       </c>
       <c r="O17" s="19" t="s">
@@ -3177,12 +3189,12 @@
         <v>1012.html</v>
       </c>
       <c r="L18" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C18:C103 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C18:C104 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1012.jpg</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C18:C127 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1012b.jpg</v>
       </c>
       <c r="O18" t="s">
@@ -3227,15 +3239,15 @@
         <v>1078.html</v>
       </c>
       <c r="L19" s="9" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C19:C104 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C19:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1078.jpg</v>
       </c>
       <c r="M19" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C19:C104 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C19:C105 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1078a.jpg</v>
       </c>
       <c r="N19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C19:C128 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1078b.jpg</v>
       </c>
       <c r="O19" s="6" t="s">
@@ -3280,12 +3292,12 @@
         <v>1013.html</v>
       </c>
       <c r="L20" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C20:C104 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C20:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1013.jpg</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C20:C129 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1013b.jpg</v>
       </c>
       <c r="O20" t="s">
@@ -3330,12 +3342,12 @@
         <v>1014.html</v>
       </c>
       <c r="L21" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C21:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C21:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1014.jpg</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C21:C130 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1014b.jpg</v>
       </c>
       <c r="O21" s="16" t="s">
@@ -3380,15 +3392,15 @@
         <v>1015.html</v>
       </c>
       <c r="L22" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C22:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C22:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1015.jpg</v>
       </c>
       <c r="M22" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C22:C105 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C22:C106 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1015a.jpg</v>
       </c>
       <c r="N22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C22:C131 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1015b.jpg</v>
       </c>
       <c r="O22" t="s">
@@ -3433,12 +3445,12 @@
         <v>1016.html</v>
       </c>
       <c r="L23" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C23:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C23:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1016.jpg</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C23:C132 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1016b.jpg</v>
       </c>
       <c r="O23" t="s">
@@ -3483,12 +3495,12 @@
         <v>1017.html</v>
       </c>
       <c r="L24" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C24:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C24:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1017.jpg</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C24:C133 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1017b.jpg</v>
       </c>
       <c r="O24" t="s">
@@ -3533,12 +3545,12 @@
         <v>1018.html</v>
       </c>
       <c r="L25" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C25:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C25:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1018.jpg</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C25:C134 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1018b.jpg</v>
       </c>
       <c r="O25" t="s">
@@ -3583,12 +3595,12 @@
         <v>1026.html</v>
       </c>
       <c r="L26" s="9" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C26:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C26:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1026.jpg</v>
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C26:C142 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C26:C143 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1026b.jpg</v>
       </c>
       <c r="O26" s="6" t="s">
@@ -3633,15 +3645,15 @@
         <v>1114.html</v>
       </c>
       <c r="L27" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C27:C110 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C27:C111 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1114.jpg</v>
       </c>
       <c r="M27" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C27:C110 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C27:C111 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1114a.jpg</v>
       </c>
       <c r="N27" s="12" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C27:C143 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C27:C144 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1114b.jpg</v>
       </c>
       <c r="O27" s="16" t="s">
@@ -3686,12 +3698,12 @@
         <v>1019.html</v>
       </c>
       <c r="L28" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C28:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C28:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1019.jpg</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1" t="str">
-        <f t="shared" ref="N28:N37" si="5" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C28:C134 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C28:C135 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1019b.jpg</v>
       </c>
       <c r="O28" t="s">
@@ -3738,7 +3750,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C29:C136 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1020b.jpg</v>
       </c>
       <c r="O29" t="s">
@@ -3783,12 +3795,12 @@
         <v>1021.html</v>
       </c>
       <c r="L30" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C30:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C30:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1021.jpg</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C30:C137 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1021b.jpg</v>
       </c>
       <c r="O30" t="s">
@@ -3833,15 +3845,15 @@
         <v>1099.html</v>
       </c>
       <c r="L31" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C31:C114 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C31:C115 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1099.jpg</v>
       </c>
       <c r="M31" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C31:C114 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C31:C115 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1099a.jpg</v>
       </c>
       <c r="N31" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C31:C138 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1099b.jpg</v>
       </c>
       <c r="O31" s="16" t="s">
@@ -3886,12 +3898,12 @@
         <v>1100.html</v>
       </c>
       <c r="L32" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C32:C115 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C32:C116 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1100.jpg</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C32:C139 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1100b.jpg</v>
       </c>
       <c r="O32" s="16" t="s">
@@ -3936,15 +3948,15 @@
         <v>1101.html</v>
       </c>
       <c r="L33" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C33:C116 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C33:C117 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1101.jpg</v>
       </c>
       <c r="M33" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C33:C116 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C33:C117 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1101a.jpg</v>
       </c>
       <c r="N33" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C33:C140 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1101b.jpg</v>
       </c>
       <c r="O33" s="16" t="s">
@@ -3985,13 +3997,13 @@
         <v>22.448999999999998</v>
       </c>
       <c r="K34" s="15" t="str">
-        <f t="shared" ref="K34:K65" si="6">C34 &amp; ".html"</f>
+        <f t="shared" ref="K34:K65" si="3">C34 &amp; ".html"</f>
         <v>1102.html</v>
       </c>
       <c r="L34" s="14"/>
       <c r="M34" s="12"/>
       <c r="N34" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C34:C141 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1102b.jpg</v>
       </c>
       <c r="O34" s="16" t="s">
@@ -4032,19 +4044,19 @@
         <v>33.271000000000001</v>
       </c>
       <c r="K35" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1103.html</v>
       </c>
       <c r="L35" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C35:C118 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C35:C119 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1103.jpg</v>
       </c>
       <c r="M35" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C35:C118 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C35:C119 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1103a.jpg</v>
       </c>
       <c r="N35" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C35:C142 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1103b.jpg</v>
       </c>
       <c r="O35" s="16" t="s">
@@ -4085,13 +4097,13 @@
         <v>29.252999999999997</v>
       </c>
       <c r="K36" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1104.html</v>
       </c>
       <c r="L36" s="14"/>
       <c r="M36" s="12"/>
       <c r="N36" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C36:C143 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1104b.jpg</v>
       </c>
       <c r="O36" s="16" t="s">
@@ -4132,16 +4144,16 @@
         <v>52.905999999999999</v>
       </c>
       <c r="K37" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1105.html</v>
       </c>
       <c r="L37" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C37:C120 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C37:C121 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1105.jpg</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C37:C144 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1105b.jpg</v>
       </c>
       <c r="O37" s="16" t="s">
@@ -4182,16 +4194,16 @@
         <v>10.43</v>
       </c>
       <c r="K38" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1085.html</v>
       </c>
       <c r="L38" s="9" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C38:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C38:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1085.jpg</v>
       </c>
       <c r="M38" s="7"/>
       <c r="N38" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C38:C137 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C38:C138 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1085b.jpg</v>
       </c>
       <c r="O38" s="40" t="s">
@@ -4232,19 +4244,19 @@
         <v>59.282999999999994</v>
       </c>
       <c r="K39" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1022.html</v>
       </c>
       <c r="L39" s="9" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C39:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C39:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1022.jpg</v>
       </c>
       <c r="M39" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C39:C105 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C39:C106 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1022a.jpg</v>
       </c>
       <c r="N39" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C39:C138 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C39:C139 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1022b.jpg</v>
       </c>
       <c r="O39" s="6" t="s">
@@ -4285,16 +4297,16 @@
         <v>56.083999999999996</v>
       </c>
       <c r="K40" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1023.html</v>
       </c>
       <c r="L40" s="9" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C40:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C40:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1023.jpg</v>
       </c>
       <c r="M40" s="7"/>
       <c r="N40" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C40:C139 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C40:C140 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1023b.jpg</v>
       </c>
       <c r="O40" s="6" t="s">
@@ -4335,13 +4347,13 @@
         <v>48.076000000000001</v>
       </c>
       <c r="K41" s="42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1097.html</v>
       </c>
       <c r="L41" s="9"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C41:C206 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C41:C207 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1097b.jpg</v>
       </c>
       <c r="O41" s="37" t="s">
@@ -4382,19 +4394,19 @@
         <v>48.488999999999997</v>
       </c>
       <c r="K42" s="42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1098.html</v>
       </c>
       <c r="L42" s="9" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C42:C142 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C42:C143 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1098.jpg</v>
       </c>
       <c r="M42" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C42:C142 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C42:C143 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1098a.jpg</v>
       </c>
       <c r="N42" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C42:C206 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C42:C207 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1098b.jpg</v>
       </c>
       <c r="O42" s="37" t="s">
@@ -4435,19 +4447,19 @@
         <v>130.99799999999999</v>
       </c>
       <c r="K43" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1024.html</v>
       </c>
       <c r="L43" s="9" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C43:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C43:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1024.jpg</v>
       </c>
       <c r="M43" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C43:C105 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C43:C106 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1024a.jpg</v>
       </c>
       <c r="N43" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C43:C140 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C43:C141 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1024b.jpg</v>
       </c>
       <c r="O43" s="6" t="s">
@@ -4488,19 +4500,19 @@
         <v>42.475999999999999</v>
       </c>
       <c r="K44" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1025.html</v>
       </c>
       <c r="L44" s="9" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C44:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C44:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1025.jpg</v>
       </c>
       <c r="M44" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C44:C105 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C44:C106 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1025a.jpg</v>
       </c>
       <c r="N44" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C44:C141 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C44:C142 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1025b.jpg</v>
       </c>
       <c r="O44" s="6" t="s">
@@ -4541,19 +4553,19 @@
         <v>61.683999999999997</v>
       </c>
       <c r="K45" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1027.html</v>
       </c>
       <c r="L45" s="9" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C45:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C45:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1027.jpg</v>
       </c>
       <c r="M45" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C45:C105 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C45:C106 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1027a.jpg</v>
       </c>
       <c r="N45" s="7" t="str">
-        <f t="shared" ref="N45:N63" si="7" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C45:C143 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C45:C144 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1027b.jpg</v>
       </c>
       <c r="O45" s="6" t="s">
@@ -4594,16 +4606,16 @@
         <v>48.076000000000001</v>
       </c>
       <c r="K46" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1028.html</v>
       </c>
       <c r="L46" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C46:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C46:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1028.jpg</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C46:C145 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1028b.jpg</v>
       </c>
       <c r="O46" t="s">
@@ -4644,16 +4656,16 @@
         <v>50.876000000000005</v>
       </c>
       <c r="K47" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1029.html</v>
       </c>
       <c r="L47" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C47:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C47:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1029.jpg</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C47:C146 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1029b.jpg</v>
       </c>
       <c r="O47" t="s">
@@ -4694,19 +4706,19 @@
         <v>82.921999999999997</v>
       </c>
       <c r="K48" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1030.html</v>
       </c>
       <c r="L48" s="31" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C48:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C48:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1030.jpg</v>
       </c>
       <c r="M48" s="17" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C48:C105 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C48:C106 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1030a.jpg</v>
       </c>
       <c r="N48" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C48:C147 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1030b.jpg</v>
       </c>
       <c r="O48" s="19" t="s">
@@ -4747,19 +4759,19 @@
         <v>25.626999999999999</v>
       </c>
       <c r="K49" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1031.html</v>
       </c>
       <c r="L49" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C49:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C49:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1031.jpg</v>
       </c>
       <c r="M49" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C49:C105 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C49:C106 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1031a.jpg</v>
       </c>
       <c r="N49" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C49:C148 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1031b.jpg</v>
       </c>
       <c r="O49" t="s">
@@ -4800,19 +4812,19 @@
         <v>29.252999999999997</v>
       </c>
       <c r="K50" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1032.html</v>
       </c>
       <c r="L50" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C50:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C50:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1032.jpg</v>
       </c>
       <c r="M50" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C50:C105 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C50:C106 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1032a.jpg</v>
       </c>
       <c r="N50" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C50:C149 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1032b.jpg</v>
       </c>
       <c r="O50" t="s">
@@ -4853,19 +4865,19 @@
         <v>34.845999999999997</v>
       </c>
       <c r="K51" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1033.html</v>
       </c>
       <c r="L51" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C51:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C51:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1033.jpg</v>
       </c>
       <c r="M51" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C51:C105 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C51:C106 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1033a.jpg</v>
       </c>
       <c r="N51" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C51:C150 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1033b.jpg</v>
       </c>
       <c r="O51" t="s">
@@ -4906,19 +4918,19 @@
         <v>50.876000000000005</v>
       </c>
       <c r="K52" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1077.html</v>
       </c>
       <c r="L52" s="9" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C52:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C52:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1077.jpg</v>
       </c>
       <c r="M52" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C52:C105 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C52:C106 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1077a.jpg</v>
       </c>
       <c r="N52" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C52:C151 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1077b.jpg</v>
       </c>
       <c r="O52" s="6" t="s">
@@ -4959,16 +4971,16 @@
         <v>5.6</v>
       </c>
       <c r="K53" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1034.html</v>
       </c>
       <c r="L53" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C53:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C53:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1034.jpg</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C53:C152 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1034b.jpg</v>
       </c>
       <c r="O53" t="s">
@@ -5009,16 +5021,16 @@
         <v>25.255999999999997</v>
       </c>
       <c r="K54" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1035.html</v>
       </c>
       <c r="L54" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C54:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C54:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1035.jpg</v>
       </c>
       <c r="M54" s="1"/>
       <c r="N54" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C54:C153 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1035b.jpg</v>
       </c>
       <c r="O54" t="s">
@@ -5059,19 +5071,19 @@
         <v>280.44799999999998</v>
       </c>
       <c r="K55" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1036.html</v>
       </c>
       <c r="L55" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C55:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C55:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1036.jpg</v>
       </c>
       <c r="M55" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C55:C105 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C55:C106 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1036a.jpg</v>
       </c>
       <c r="N55" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C55:C154 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1036b.jpg</v>
       </c>
       <c r="O55" t="s">
@@ -5112,19 +5124,19 @@
         <v>56.083999999999996</v>
       </c>
       <c r="K56" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1037.html</v>
       </c>
       <c r="L56" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C56:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C56:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1037.jpg</v>
       </c>
       <c r="M56" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C56:C105 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C56:C106 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1037a.jpg</v>
       </c>
       <c r="N56" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C56:C155 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1037b.jpg</v>
       </c>
       <c r="O56" t="s">
@@ -5165,16 +5177,16 @@
         <v>83.334999999999994</v>
       </c>
       <c r="K57" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1038.html</v>
       </c>
       <c r="L57" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C57:C105 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C57:C106 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1038.jpg</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C57:C156 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1038b.jpg</v>
       </c>
       <c r="O57" t="s">
@@ -5215,19 +5227,19 @@
         <v>42.076999999999998</v>
       </c>
       <c r="K58" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1039.html</v>
       </c>
       <c r="L58" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C58:C112 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C58:C113 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1039.jpg</v>
       </c>
       <c r="M58" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C58:C112 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C58:C113 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1039a.jpg</v>
       </c>
       <c r="N58" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C58:C157 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1039b.jpg</v>
       </c>
       <c r="O58" t="s">
@@ -5268,19 +5280,19 @@
         <v>92.939000000000007</v>
       </c>
       <c r="K59" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1040.html</v>
       </c>
       <c r="L59" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C59:C112 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C59:C113 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1040.jpg</v>
       </c>
       <c r="M59" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C59:C112 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C59:C113 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1040a.jpg</v>
       </c>
       <c r="N59" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C59:C158 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1040b.jpg</v>
       </c>
       <c r="O59" t="s">
@@ -5321,19 +5333,19 @@
         <v>48.488999999999997</v>
       </c>
       <c r="K60" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1106.html</v>
       </c>
       <c r="L60" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C60:C113 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C60:C114 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1106.jpg</v>
       </c>
       <c r="M60" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C60:C113 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C60:C114 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1106a.jpg</v>
       </c>
       <c r="N60" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C60:C159 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1106b.jpg</v>
       </c>
       <c r="O60" s="16" t="s">
@@ -5374,19 +5386,19 @@
         <v>53.290999999999997</v>
       </c>
       <c r="K61" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1107.html</v>
       </c>
       <c r="L61" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C61:C114 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C61:C115 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1107.jpg</v>
       </c>
       <c r="M61" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C61:C114 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C61:C115 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1107a.jpg</v>
       </c>
       <c r="N61" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C61:C160 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1107b.jpg</v>
       </c>
       <c r="O61" s="16" t="s">
@@ -5427,13 +5439,13 @@
         <v>52.905999999999999</v>
       </c>
       <c r="K62" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1108.html</v>
       </c>
       <c r="L62" s="14"/>
       <c r="M62" s="12"/>
       <c r="N62" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C62:C161 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1108b.jpg</v>
       </c>
       <c r="O62" s="16" t="s">
@@ -5474,16 +5486,16 @@
         <v>30.442999999999998</v>
       </c>
       <c r="K63" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1109.html</v>
       </c>
       <c r="L63" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C63:C116 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C63:C117 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1109.jpg</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C63:C162 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1109b.jpg</v>
       </c>
       <c r="O63" s="16" t="s">
@@ -5524,19 +5536,19 @@
         <v>58.498999999999988</v>
       </c>
       <c r="K64" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1041.html</v>
       </c>
       <c r="L64" s="3" t="str">
-        <f t="shared" ref="L64:L76" si="8" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C112 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C113 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1041.jpg</v>
       </c>
       <c r="M64" s="1" t="str">
-        <f t="shared" ref="M64:M76" si="9" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C112 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C113 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1041a.jpg</v>
       </c>
       <c r="N64" s="1" t="str">
-        <f t="shared" ref="N64:N76" si="10" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C158 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C159 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1041b.jpg</v>
       </c>
       <c r="O64" t="s">
@@ -5577,19 +5589,19 @@
         <v>29.252999999999997</v>
       </c>
       <c r="K65" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1042.html</v>
       </c>
       <c r="L65" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C65:C114 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1042.jpg</v>
       </c>
       <c r="M65" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C65:C114 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1042a.jpg</v>
       </c>
       <c r="N65" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C65:C160 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1042b.jpg</v>
       </c>
       <c r="O65" t="s">
@@ -5630,19 +5642,19 @@
         <v>136.626</v>
       </c>
       <c r="K66" s="4" t="str">
-        <f t="shared" ref="K66:K97" si="11">C66 &amp; ".html"</f>
+        <f t="shared" ref="K66:K98" si="4">C66 &amp; ".html"</f>
         <v>1043.html</v>
       </c>
       <c r="L66" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C66:C115 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1043.jpg</v>
       </c>
       <c r="M66" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C66:C115 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1043a.jpg</v>
       </c>
       <c r="N66" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C66:C161 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1043b.jpg</v>
       </c>
       <c r="O66" t="s">
@@ -5683,19 +5695,19 @@
         <v>35.643999999999998</v>
       </c>
       <c r="K67" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>1044.html</v>
       </c>
       <c r="L67" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C67:C116 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1044.jpg</v>
       </c>
       <c r="M67" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C67:C116 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1044a.jpg</v>
       </c>
       <c r="N67" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C67:C162 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1044b.jpg</v>
       </c>
       <c r="O67" t="s">
@@ -5728,7 +5740,7 @@
         <v>53.82</v>
       </c>
       <c r="I68" s="5">
-        <f t="shared" ref="I68:I127" si="12">H68 * 0.85</f>
+        <f t="shared" ref="I68:I128" si="5">H68 * 0.85</f>
         <v>45.747</v>
       </c>
       <c r="J68" s="5">
@@ -5736,19 +5748,19 @@
         <v>37.673999999999999</v>
       </c>
       <c r="K68" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>1045.html</v>
       </c>
       <c r="L68" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C68:C117 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1045.jpg</v>
       </c>
       <c r="M68" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C68:C117 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1045a.jpg</v>
       </c>
       <c r="N68" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C68:C163 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1045b.jpg</v>
       </c>
       <c r="O68" t="s">
@@ -5781,7 +5793,7 @@
         <v>53.82</v>
       </c>
       <c r="I69" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>45.747</v>
       </c>
       <c r="J69" s="5">
@@ -5789,19 +5801,19 @@
         <v>37.673999999999999</v>
       </c>
       <c r="K69" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>1046.html</v>
       </c>
       <c r="L69" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C69:C118 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1046.jpg</v>
       </c>
       <c r="M69" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C69:C118 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1046a.jpg</v>
       </c>
       <c r="N69" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C69:C164 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1046b.jpg</v>
       </c>
       <c r="O69" t="s">
@@ -5834,7 +5846,7 @@
         <v>58.96</v>
       </c>
       <c r="I70" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>50.116</v>
       </c>
       <c r="J70" s="32">
@@ -5842,19 +5854,19 @@
         <v>41.271999999999998</v>
       </c>
       <c r="K70" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>1047.html</v>
       </c>
       <c r="L70" s="31" t="str">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C70:C119 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1047.jpg</v>
       </c>
       <c r="M70" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C70:C119 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1047a.jpg</v>
       </c>
       <c r="N70" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C70:C165 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1047b.jpg</v>
       </c>
       <c r="O70" s="19" t="s">
@@ -5887,7 +5899,7 @@
         <v>34.340000000000003</v>
       </c>
       <c r="I71" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>29.189000000000004</v>
       </c>
       <c r="J71" s="5">
@@ -5895,19 +5907,19 @@
         <v>24.038</v>
       </c>
       <c r="K71" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>1048.html</v>
       </c>
       <c r="L71" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C71:C120 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1048.jpg</v>
       </c>
       <c r="M71" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C71:C120 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1048a.jpg</v>
       </c>
       <c r="N71" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C71:C166 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1048b.jpg</v>
       </c>
       <c r="O71" t="s">
@@ -5940,7 +5952,7 @@
         <v>34.340000000000003</v>
       </c>
       <c r="I72" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>29.189000000000004</v>
       </c>
       <c r="J72" s="5">
@@ -5948,19 +5960,19 @@
         <v>24.038</v>
       </c>
       <c r="K72" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>1049.html</v>
       </c>
       <c r="L72" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C72:C121 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1049.jpg</v>
       </c>
       <c r="M72" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C72:C121 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1049a.jpg</v>
       </c>
       <c r="N72" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C72:C167 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1049b.jpg</v>
       </c>
       <c r="O72" t="s">
@@ -5993,7 +6005,7 @@
         <v>45.24</v>
       </c>
       <c r="I73" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>38.454000000000001</v>
       </c>
       <c r="J73" s="5">
@@ -6001,19 +6013,19 @@
         <v>31.667999999999999</v>
       </c>
       <c r="K73" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>1050.html</v>
       </c>
       <c r="L73" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C73:C122 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1050.jpg</v>
       </c>
       <c r="M73" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C73:C122 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1050a.jpg</v>
       </c>
       <c r="N73" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C73:C168 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1050b.jpg</v>
       </c>
       <c r="O73" s="16" t="s">
@@ -6046,7 +6058,7 @@
         <v>52.68</v>
       </c>
       <c r="I74" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>44.777999999999999</v>
       </c>
       <c r="J74" s="5">
@@ -6054,19 +6066,19 @@
         <v>36.875999999999998</v>
       </c>
       <c r="K74" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>1051.html</v>
       </c>
       <c r="L74" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C74:C123 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1051.jpg</v>
       </c>
       <c r="M74" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C74:C123 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1051a.jpg</v>
       </c>
       <c r="N74" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C74:C169 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1051b.jpg</v>
       </c>
       <c r="O74" t="s">
@@ -6099,7 +6111,7 @@
         <v>45.24</v>
       </c>
       <c r="I75" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>38.454000000000001</v>
       </c>
       <c r="J75" s="5">
@@ -6107,19 +6119,19 @@
         <v>31.667999999999999</v>
       </c>
       <c r="K75" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>1052.html</v>
       </c>
       <c r="L75" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C75:C124 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1052.jpg</v>
       </c>
       <c r="M75" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C75:C124 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1052a.jpg</v>
       </c>
       <c r="N75" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C75:C170 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1052b.jpg</v>
       </c>
       <c r="O75" t="s">
@@ -6152,7 +6164,7 @@
         <v>34.340000000000003</v>
       </c>
       <c r="I76" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>29.189000000000004</v>
       </c>
       <c r="J76" s="20">
@@ -6160,19 +6172,19 @@
         <v>24.038</v>
       </c>
       <c r="K76" s="15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>1110.html</v>
       </c>
       <c r="L76" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C76:C125 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1110.jpg</v>
       </c>
       <c r="M76" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C76:C125 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1110a.jpg</v>
       </c>
       <c r="N76" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C76:C171 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1110b.jpg</v>
       </c>
       <c r="O76" s="16" t="s">
@@ -6205,7 +6217,7 @@
         <v>47.53</v>
       </c>
       <c r="I77" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>40.400500000000001</v>
       </c>
       <c r="J77" s="5">
@@ -6213,19 +6225,19 @@
         <v>33.271000000000001</v>
       </c>
       <c r="K77" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>1053.html</v>
       </c>
       <c r="L77" s="3" t="str">
-        <f t="shared" ref="L77:L82" si="13" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C77:C124 &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C77:C125 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1053.jpg</v>
       </c>
       <c r="M77" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C77:C124 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C77:C125 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1053a.jpg</v>
       </c>
       <c r="N77" s="1" t="str">
-        <f t="shared" ref="N77:N89" si="14" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C77:C170 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C77:C171 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1053b.jpg</v>
       </c>
       <c r="O77" t="s">
@@ -6258,7 +6270,7 @@
         <v>34.340000000000003</v>
       </c>
       <c r="I78" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>29.189000000000004</v>
       </c>
       <c r="J78" s="32">
@@ -6266,19 +6278,19 @@
         <v>24.038</v>
       </c>
       <c r="K78" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>1054.html</v>
       </c>
       <c r="L78" s="31" t="str">
-        <f t="shared" si="13"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C78:C126 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1054.jpg</v>
       </c>
       <c r="M78" s="17" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C78:C125 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C78:C126 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1054a.jpg</v>
       </c>
       <c r="N78" s="17" t="str">
-        <f t="shared" si="14"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C78:C172 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1054b.jpg</v>
       </c>
       <c r="O78" s="19" t="s">
@@ -6311,7 +6323,7 @@
         <v>13.76</v>
       </c>
       <c r="I79" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>11.696</v>
       </c>
       <c r="J79" s="5">
@@ -6319,16 +6331,16 @@
         <v>9.6319999999999997</v>
       </c>
       <c r="K79" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>1055.html</v>
       </c>
       <c r="L79" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C79:C127 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1055.jpg</v>
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C79:C173 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1055b.jpg</v>
       </c>
       <c r="O79" t="s">
@@ -6361,7 +6373,7 @@
         <v>76.69</v>
       </c>
       <c r="I80" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>65.186499999999995</v>
       </c>
       <c r="J80" s="5">
@@ -6369,19 +6381,19 @@
         <v>53.682999999999993</v>
       </c>
       <c r="K80" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>1079.html</v>
       </c>
       <c r="L80" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C80:C128 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1079.jpg</v>
       </c>
       <c r="M80" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C80:C127 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C80:C128 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1079a.jpg</v>
       </c>
       <c r="N80" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C80:C174 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1079b.jpg</v>
       </c>
       <c r="O80" s="6" t="s">
@@ -6414,7 +6426,7 @@
         <v>76.69</v>
       </c>
       <c r="I81" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>65.186499999999995</v>
       </c>
       <c r="J81" s="5">
@@ -6422,19 +6434,19 @@
         <v>53.682999999999993</v>
       </c>
       <c r="K81" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>1080.html</v>
       </c>
       <c r="L81" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C81:C129 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1080.jpg</v>
       </c>
       <c r="M81" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C81:C128 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C81:C129 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1080a.jpg</v>
       </c>
       <c r="N81" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C81:C175 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1080b.jpg</v>
       </c>
       <c r="O81" s="6" t="s">
@@ -6467,84 +6479,81 @@
         <v>63.52</v>
       </c>
       <c r="I82" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>53.992000000000004</v>
       </c>
       <c r="J82" s="5">
-        <f t="shared" ref="J82:J115" si="15">H82 * 0.7</f>
+        <f t="shared" ref="J82:J116" si="6">H82 * 0.7</f>
         <v>44.463999999999999</v>
       </c>
       <c r="K82" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>1081.html</v>
       </c>
       <c r="L82" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C82:C130 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1081.jpg</v>
       </c>
       <c r="M82" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C82:C129 &amp;"a" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C82:C130 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1081a.jpg</v>
       </c>
       <c r="N82" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C82:C176 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1081b.jpg</v>
       </c>
       <c r="O82" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83">
+    <row r="83" spans="1:15" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="22">
         <v>82</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="C83" s="2">
-        <v>1056</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="H83" s="4">
-        <v>51.49</v>
-      </c>
-      <c r="I83" s="5">
-        <f t="shared" si="12"/>
-        <v>43.766500000000001</v>
-      </c>
-      <c r="J83" s="5">
-        <f t="shared" si="15"/>
-        <v>36.042999999999999</v>
-      </c>
-      <c r="K83" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>1056.html</v>
-      </c>
-      <c r="L83" s="3" t="str">
-        <f t="shared" ref="L83:L89" si="16" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C83:C127 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1056.jpg</v>
-      </c>
-      <c r="M83" s="1" t="str">
-        <f t="shared" ref="M83:M88" si="17" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C83:C127 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1056a.jpg</v>
-      </c>
-      <c r="N83" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1056b.jpg</v>
-      </c>
-      <c r="O83" t="s">
-        <v>206</v>
+      <c r="C83" s="13">
+        <v>1115</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="F83" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="H83" s="15">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I83" s="20">
+        <f t="shared" si="5"/>
+        <v>14.110000000000001</v>
+      </c>
+      <c r="J83" s="20">
+        <f t="shared" si="6"/>
+        <v>11.620000000000001</v>
+      </c>
+      <c r="K83" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>1115.html</v>
+      </c>
+      <c r="L83" s="14" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C83:C131 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1115.jpg</v>
+      </c>
+      <c r="M83" s="12" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C83:C131 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1115a.jpg</v>
+      </c>
+      <c r="N83" s="12" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C83:C177 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1115b.jpg</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6555,49 +6564,49 @@
         <v>375</v>
       </c>
       <c r="C84" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H84" s="4">
-        <v>42.92</v>
+        <v>51.49</v>
       </c>
       <c r="I84" s="5">
-        <f t="shared" si="12"/>
-        <v>36.481999999999999</v>
+        <f t="shared" si="5"/>
+        <v>43.766500000000001</v>
       </c>
       <c r="J84" s="5">
-        <f t="shared" si="15"/>
-        <v>30.044</v>
+        <f t="shared" si="6"/>
+        <v>36.042999999999999</v>
       </c>
       <c r="K84" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>1057.html</v>
+        <f t="shared" si="4"/>
+        <v>1056.html</v>
       </c>
       <c r="L84" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1057.jpg</v>
+        <f t="shared" ref="L84:L90" si="7" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C84:C128 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1056.jpg</v>
       </c>
       <c r="M84" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1057a.jpg</v>
+        <f t="shared" ref="M84:M89" si="8" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C84:C128 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1056a.jpg</v>
       </c>
       <c r="N84" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1057b.jpg</v>
+        <f t="shared" ref="N84:N90" si="9" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C84:C177 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1056b.jpg</v>
       </c>
       <c r="O84" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6608,49 +6617,49 @@
         <v>375</v>
       </c>
       <c r="C85" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H85" s="4">
-        <v>49.78</v>
+        <v>42.92</v>
       </c>
       <c r="I85" s="5">
-        <f t="shared" si="12"/>
-        <v>42.313000000000002</v>
+        <f t="shared" si="5"/>
+        <v>36.481999999999999</v>
       </c>
       <c r="J85" s="5">
-        <f t="shared" si="15"/>
-        <v>34.845999999999997</v>
+        <f t="shared" si="6"/>
+        <v>30.044</v>
       </c>
       <c r="K85" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>1058.html</v>
+        <f t="shared" si="4"/>
+        <v>1057.html</v>
       </c>
       <c r="L85" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1058.jpg</v>
+        <f t="shared" si="7"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1057.jpg</v>
       </c>
       <c r="M85" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1058a.jpg</v>
+        <f t="shared" si="8"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1057a.jpg</v>
       </c>
       <c r="N85" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1058b.jpg</v>
+        <f t="shared" si="9"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1057b.jpg</v>
       </c>
       <c r="O85" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6661,49 +6670,49 @@
         <v>375</v>
       </c>
       <c r="C86" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H86" s="4">
-        <v>53.25</v>
+        <v>49.78</v>
       </c>
       <c r="I86" s="5">
-        <f t="shared" si="12"/>
-        <v>45.262499999999996</v>
+        <f t="shared" si="5"/>
+        <v>42.313000000000002</v>
       </c>
       <c r="J86" s="5">
-        <f t="shared" si="15"/>
-        <v>37.274999999999999</v>
+        <f t="shared" si="6"/>
+        <v>34.845999999999997</v>
       </c>
       <c r="K86" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>1059.html</v>
+        <f t="shared" si="4"/>
+        <v>1058.html</v>
       </c>
       <c r="L86" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1059.jpg</v>
+        <f t="shared" si="7"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1058.jpg</v>
       </c>
       <c r="M86" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1059a.jpg</v>
+        <f t="shared" si="8"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1058a.jpg</v>
       </c>
       <c r="N86" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1059b.jpg</v>
+        <f t="shared" si="9"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1058b.jpg</v>
       </c>
       <c r="O86" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6714,296 +6723,302 @@
         <v>375</v>
       </c>
       <c r="C87" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H87" s="4">
-        <v>17.739999999999998</v>
+        <v>53.25</v>
       </c>
       <c r="I87" s="5">
-        <f t="shared" si="12"/>
-        <v>15.078999999999999</v>
+        <f t="shared" si="5"/>
+        <v>45.262499999999996</v>
       </c>
       <c r="J87" s="5">
-        <f t="shared" si="15"/>
-        <v>12.417999999999997</v>
+        <f t="shared" si="6"/>
+        <v>37.274999999999999</v>
       </c>
       <c r="K87" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>1060.html</v>
+        <f t="shared" si="4"/>
+        <v>1059.html</v>
       </c>
       <c r="L87" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1060.jpg</v>
+        <f t="shared" si="7"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1059.jpg</v>
       </c>
       <c r="M87" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1060a.jpg</v>
+        <f t="shared" si="8"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1059a.jpg</v>
       </c>
       <c r="N87" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1060b.jpg</v>
+        <f t="shared" si="9"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1059b.jpg</v>
       </c>
       <c r="O87" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C88" s="30">
-        <v>1061</v>
-      </c>
-      <c r="D88" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="E88" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="F88" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="G88" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="H88" s="18">
-        <v>34.340000000000003</v>
+      <c r="C88" s="2">
+        <v>1060</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H88" s="4">
+        <v>17.739999999999998</v>
       </c>
       <c r="I88" s="5">
-        <f t="shared" si="12"/>
-        <v>29.189000000000004</v>
-      </c>
-      <c r="J88" s="32">
-        <f t="shared" si="15"/>
-        <v>24.038</v>
-      </c>
-      <c r="K88" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>1061.html</v>
-      </c>
-      <c r="L88" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1061.jpg</v>
-      </c>
-      <c r="M88" s="17" t="str">
-        <f t="shared" si="17"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1061a.jpg</v>
-      </c>
-      <c r="N88" s="17" t="str">
-        <f t="shared" si="14"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1061b.jpg</v>
-      </c>
-      <c r="O88" s="19" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>15.078999999999999</v>
+      </c>
+      <c r="J88" s="5">
+        <f t="shared" si="6"/>
+        <v>12.417999999999997</v>
+      </c>
+      <c r="K88" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>1060.html</v>
+      </c>
+      <c r="L88" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1060.jpg</v>
+      </c>
+      <c r="M88" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1060a.jpg</v>
+      </c>
+      <c r="N88" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1060b.jpg</v>
+      </c>
+      <c r="O88" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="C89" s="2">
-        <v>1063</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="H89" s="4">
-        <v>1116.3399999999999</v>
+      <c r="B89" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C89" s="30">
+        <v>1061</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="G89" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="H89" s="18">
+        <v>34.340000000000003</v>
       </c>
       <c r="I89" s="5">
-        <f t="shared" si="12"/>
-        <v>948.8889999999999</v>
-      </c>
-      <c r="J89" s="5">
-        <f t="shared" si="15"/>
-        <v>781.43799999999987</v>
-      </c>
-      <c r="K89" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>1063.html</v>
-      </c>
-      <c r="L89" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1063.jpg</v>
-      </c>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1063b.jpg</v>
-      </c>
-      <c r="O89" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>29.189000000000004</v>
+      </c>
+      <c r="J89" s="32">
+        <f t="shared" si="6"/>
+        <v>24.038</v>
+      </c>
+      <c r="K89" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>1061.html</v>
+      </c>
+      <c r="L89" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1061.jpg</v>
+      </c>
+      <c r="M89" s="17" t="str">
+        <f t="shared" si="8"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1061a.jpg</v>
+      </c>
+      <c r="N89" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1061b.jpg</v>
+      </c>
+      <c r="O89" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C90" s="8">
-        <v>1065</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10">
-        <v>823.36</v>
+      <c r="C90" s="2">
+        <v>1063</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H90" s="4">
+        <v>1116.3399999999999</v>
       </c>
       <c r="I90" s="5">
-        <f t="shared" si="12"/>
-        <v>699.85599999999999</v>
-      </c>
-      <c r="J90" s="39">
-        <v>823.36</v>
-      </c>
-      <c r="K90" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>1065.html</v>
-      </c>
-      <c r="L90" s="9" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C90:C135 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1065.jpg</v>
-      </c>
-      <c r="M90" s="7"/>
+        <f t="shared" si="5"/>
+        <v>948.8889999999999</v>
+      </c>
+      <c r="J90" s="5">
+        <f t="shared" si="6"/>
+        <v>781.43799999999987</v>
+      </c>
+      <c r="K90" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>1063.html</v>
+      </c>
+      <c r="L90" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1063.jpg</v>
+      </c>
+      <c r="M90" s="1"/>
       <c r="N90" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C90:C184 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1065b.jpg</v>
-      </c>
-      <c r="O90" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1063b.jpg</v>
+      </c>
+      <c r="O90" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="C91" s="2">
-        <v>1064</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="H91" s="4">
-        <v>75.19</v>
+      <c r="C91" s="8">
+        <v>1065</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10">
+        <v>823.36</v>
       </c>
       <c r="I91" s="5">
-        <f t="shared" si="12"/>
-        <v>63.911499999999997</v>
-      </c>
-      <c r="J91" s="5">
-        <f>H91 * 0.7</f>
-        <v>52.632999999999996</v>
-      </c>
-      <c r="K91" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>1064.html</v>
-      </c>
-      <c r="L91" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C90:C134 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1064.jpg</v>
-      </c>
-      <c r="M91" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C90:C134 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1064a.jpg</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>699.85599999999999</v>
+      </c>
+      <c r="J91" s="39">
+        <v>823.36</v>
+      </c>
+      <c r="K91" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>1065.html</v>
+      </c>
+      <c r="L91" s="9" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C91:C136 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1065.jpg</v>
+      </c>
+      <c r="M91" s="7"/>
       <c r="N91" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C90:C183 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1064b.jpg</v>
-      </c>
-      <c r="O91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C91:C185 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1065b.jpg</v>
+      </c>
+      <c r="O91" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="38" t="s">
+      <c r="B92" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C92" s="8">
-        <v>1083</v>
+      <c r="C92" s="2">
+        <v>1064</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G92" s="38" t="s">
-        <v>362</v>
-      </c>
-      <c r="H92" s="10">
-        <v>555.54</v>
+        <v>465</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H92" s="4">
+        <v>75.19</v>
       </c>
       <c r="I92" s="5">
-        <f t="shared" si="12"/>
-        <v>472.20899999999995</v>
-      </c>
-      <c r="J92" s="39">
-        <f t="shared" si="15"/>
-        <v>388.87799999999993</v>
-      </c>
-      <c r="K92" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>1083.html</v>
-      </c>
-      <c r="L92" s="9"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C92:C185 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1083b.jpg</v>
-      </c>
-      <c r="O92" s="6" t="s">
-        <v>254</v>
+        <f t="shared" si="5"/>
+        <v>63.911499999999997</v>
+      </c>
+      <c r="J92" s="5">
+        <f>H92 * 0.7</f>
+        <v>52.632999999999996</v>
+      </c>
+      <c r="K92" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>1064.html</v>
+      </c>
+      <c r="L92" s="3" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C91:C135 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1064.jpg</v>
+      </c>
+      <c r="M92" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C91:C135 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1064a.jpg</v>
+      </c>
+      <c r="N92" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C91:C184 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1064b.jpg</v>
+      </c>
+      <c r="O92" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7014,16 +7029,16 @@
         <v>371</v>
       </c>
       <c r="C93" s="8">
-        <v>1096</v>
+        <v>1083</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G93" s="38" t="s">
         <v>362</v>
@@ -7032,25 +7047,25 @@
         <v>555.54</v>
       </c>
       <c r="I93" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>472.20899999999995</v>
       </c>
       <c r="J93" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>388.87799999999993</v>
       </c>
       <c r="K93" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>1096.html</v>
+        <f t="shared" si="4"/>
+        <v>1083.html</v>
       </c>
       <c r="L93" s="9"/>
       <c r="M93" s="7"/>
       <c r="N93" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C93:C186 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1096b.jpg</v>
+        <v>https://iglika.me/products_img/Product_details_JPG/1083b.jpg</v>
       </c>
       <c r="O93" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="94" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7061,43 +7076,43 @@
         <v>371</v>
       </c>
       <c r="C94" s="8">
-        <v>1074</v>
+        <v>1096</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G94" s="38" t="s">
         <v>362</v>
       </c>
       <c r="H94" s="10">
-        <v>337.32</v>
+        <v>555.54</v>
       </c>
       <c r="I94" s="5">
-        <f t="shared" si="12"/>
-        <v>286.72199999999998</v>
+        <f t="shared" si="5"/>
+        <v>472.20899999999995</v>
       </c>
       <c r="J94" s="39">
-        <f t="shared" si="15"/>
-        <v>236.12399999999997</v>
+        <f t="shared" si="6"/>
+        <v>388.87799999999993</v>
       </c>
       <c r="K94" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>1074.html</v>
+        <f t="shared" si="4"/>
+        <v>1096.html</v>
       </c>
       <c r="L94" s="9"/>
       <c r="M94" s="7"/>
       <c r="N94" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C94:C187 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1074b.jpg</v>
+        <v>https://iglika.me/products_img/Product_details_JPG/1096b.jpg</v>
       </c>
       <c r="O94" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7108,16 +7123,16 @@
         <v>371</v>
       </c>
       <c r="C95" s="8">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G95" s="38" t="s">
         <v>362</v>
@@ -7126,25 +7141,25 @@
         <v>337.32</v>
       </c>
       <c r="I95" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J95" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K95" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>1086.html</v>
+        <f t="shared" si="4"/>
+        <v>1074.html</v>
       </c>
       <c r="L95" s="9"/>
       <c r="M95" s="7"/>
       <c r="N95" s="7" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C95:C188 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1086b.jpg</v>
+        <v>https://iglika.me/products_img/Product_details_JPG/1074b.jpg</v>
       </c>
       <c r="O95" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7155,42 +7170,43 @@
         <v>371</v>
       </c>
       <c r="C96" s="8">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G96" s="38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H96" s="10">
         <v>337.32</v>
       </c>
       <c r="I96" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J96" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K96" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>1087.html</v>
+        <f t="shared" si="4"/>
+        <v>1086.html</v>
       </c>
       <c r="L96" s="9"/>
       <c r="M96" s="7"/>
-      <c r="N96" s="40" t="s">
-        <v>377</v>
+      <c r="N96" s="7" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C96:C189 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1086b.jpg</v>
       </c>
       <c r="O96" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="97" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7201,16 +7217,16 @@
         <v>371</v>
       </c>
       <c r="C97" s="8">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G97" s="38" t="s">
         <v>363</v>
@@ -7219,24 +7235,24 @@
         <v>337.32</v>
       </c>
       <c r="I97" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J97" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K97" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>1088.html</v>
+        <f t="shared" si="4"/>
+        <v>1087.html</v>
       </c>
       <c r="L97" s="9"/>
       <c r="M97" s="7"/>
       <c r="N97" s="40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O97" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7247,16 +7263,16 @@
         <v>371</v>
       </c>
       <c r="C98" s="8">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G98" s="38" t="s">
         <v>363</v>
@@ -7265,24 +7281,24 @@
         <v>337.32</v>
       </c>
       <c r="I98" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J98" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K98" s="10" t="str">
-        <f t="shared" ref="K98:K127" si="18">C98 &amp; ".html"</f>
-        <v>1089.html</v>
+        <f t="shared" si="4"/>
+        <v>1088.html</v>
       </c>
       <c r="L98" s="9"/>
       <c r="M98" s="7"/>
       <c r="N98" s="40" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O98" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="99" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7293,16 +7309,16 @@
         <v>371</v>
       </c>
       <c r="C99" s="8">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G99" s="38" t="s">
         <v>363</v>
@@ -7311,24 +7327,24 @@
         <v>337.32</v>
       </c>
       <c r="I99" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J99" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K99" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>1090.html</v>
+        <f t="shared" ref="K99:K128" si="10">C99 &amp; ".html"</f>
+        <v>1089.html</v>
       </c>
       <c r="L99" s="9"/>
       <c r="M99" s="7"/>
       <c r="N99" s="40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O99" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="100" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7339,43 +7355,42 @@
         <v>371</v>
       </c>
       <c r="C100" s="8">
-        <v>1073</v>
+        <v>1090</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G100" s="38" t="s">
         <v>363</v>
       </c>
       <c r="H100" s="10">
-        <v>270.32</v>
+        <v>337.32</v>
       </c>
       <c r="I100" s="5">
-        <f t="shared" si="12"/>
-        <v>229.77199999999999</v>
+        <f t="shared" si="5"/>
+        <v>286.72199999999998</v>
       </c>
       <c r="J100" s="39">
-        <f t="shared" si="15"/>
-        <v>189.22399999999999</v>
+        <f t="shared" si="6"/>
+        <v>236.12399999999997</v>
       </c>
       <c r="K100" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>1073.html</v>
+        <f t="shared" si="10"/>
+        <v>1090.html</v>
       </c>
       <c r="L100" s="9"/>
       <c r="M100" s="7"/>
-      <c r="N100" s="7" t="str">
-        <f t="shared" ref="N100:N117" si="19" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C100:C193 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
+      <c r="N100" s="40" t="s">
+        <v>378</v>
       </c>
       <c r="O100" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="101" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7386,16 +7401,16 @@
         <v>371</v>
       </c>
       <c r="C101" s="8">
-        <v>1091</v>
+        <v>1073</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G101" s="38" t="s">
         <v>363</v>
@@ -7404,25 +7419,25 @@
         <v>270.32</v>
       </c>
       <c r="I101" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>229.77199999999999</v>
       </c>
       <c r="J101" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K101" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>1091.html</v>
+        <f t="shared" si="10"/>
+        <v>1073.html</v>
       </c>
       <c r="L101" s="9"/>
       <c r="M101" s="7"/>
       <c r="N101" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1091b.jpg</v>
+        <f t="shared" ref="N101:N118" si="11" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C101:C194 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
       </c>
       <c r="O101" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7433,43 +7448,43 @@
         <v>371</v>
       </c>
       <c r="C102" s="8">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G102" s="38" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H102" s="10">
         <v>270.32</v>
       </c>
       <c r="I102" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>229.77199999999999</v>
       </c>
       <c r="J102" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K102" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>1092.html</v>
+        <f t="shared" si="10"/>
+        <v>1091.html</v>
       </c>
       <c r="L102" s="9"/>
       <c r="M102" s="7"/>
       <c r="N102" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1092b.jpg</v>
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1091b.jpg</v>
       </c>
       <c r="O102" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7480,43 +7495,43 @@
         <v>371</v>
       </c>
       <c r="C103" s="8">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G103" s="38" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H103" s="10">
         <v>270.32</v>
       </c>
       <c r="I103" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>229.77199999999999</v>
       </c>
       <c r="J103" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K103" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>1093.html</v>
+        <f t="shared" si="10"/>
+        <v>1092.html</v>
       </c>
       <c r="L103" s="9"/>
       <c r="M103" s="7"/>
       <c r="N103" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1093b.jpg</v>
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1092b.jpg</v>
       </c>
       <c r="O103" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7527,43 +7542,43 @@
         <v>371</v>
       </c>
       <c r="C104" s="8">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G104" s="38" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H104" s="10">
         <v>270.32</v>
       </c>
       <c r="I104" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>229.77199999999999</v>
       </c>
       <c r="J104" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K104" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>1094.html</v>
+        <f t="shared" si="10"/>
+        <v>1093.html</v>
       </c>
       <c r="L104" s="9"/>
       <c r="M104" s="7"/>
       <c r="N104" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1094b.jpg</v>
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1093b.jpg</v>
       </c>
       <c r="O104" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="105" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7574,146 +7589,143 @@
         <v>371</v>
       </c>
       <c r="C105" s="8">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G105" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H105" s="10">
         <v>270.32</v>
       </c>
       <c r="I105" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>229.77199999999999</v>
       </c>
       <c r="J105" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K105" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>1095.html</v>
+        <f t="shared" si="10"/>
+        <v>1094.html</v>
       </c>
       <c r="L105" s="9"/>
       <c r="M105" s="7"/>
       <c r="N105" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1095b.jpg</v>
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1094b.jpg</v>
       </c>
       <c r="O105" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="33" t="s">
+      <c r="B106" s="38" t="s">
         <v>371</v>
       </c>
-      <c r="C106" s="30">
-        <v>1072</v>
-      </c>
-      <c r="D106" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="E106" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="F106" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="G106" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="H106" s="18">
-        <v>320.5</v>
+      <c r="C106" s="8">
+        <v>1095</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G106" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="H106" s="10">
+        <v>270.32</v>
       </c>
       <c r="I106" s="5">
-        <f t="shared" si="12"/>
-        <v>272.42500000000001</v>
-      </c>
-      <c r="J106" s="32">
-        <f t="shared" ref="J106" si="20">H106 * 0.7</f>
-        <v>224.35</v>
-      </c>
-      <c r="K106" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>1072.html</v>
-      </c>
-      <c r="L106" s="31" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C106:C135 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1072.jpg</v>
-      </c>
-      <c r="M106" s="17" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C106:C135 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1072a.jpg</v>
-      </c>
-      <c r="N106" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1072b.jpg</v>
-      </c>
-      <c r="O106" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="J106" s="39">
+        <f t="shared" si="6"/>
+        <v>189.22399999999999</v>
+      </c>
+      <c r="K106" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>1095.html</v>
+      </c>
+      <c r="L106" s="9"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1095b.jpg</v>
+      </c>
+      <c r="O106" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C107" s="2">
-        <v>1066</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="H107" s="4">
-        <v>57.23</v>
+      <c r="B107" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="C107" s="30">
+        <v>1072</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="G107" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="H107" s="18">
+        <v>320.5</v>
       </c>
       <c r="I107" s="5">
-        <f t="shared" si="12"/>
-        <v>48.645499999999998</v>
-      </c>
-      <c r="J107" s="5">
-        <f t="shared" si="15"/>
-        <v>40.060999999999993</v>
-      </c>
-      <c r="K107" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>1066.html</v>
-      </c>
-      <c r="L107" s="3" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C92:C136 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1066.jpg</v>
-      </c>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1066b.jpg</v>
-      </c>
-      <c r="O107" t="s">
-        <v>233</v>
+        <f t="shared" si="5"/>
+        <v>272.42500000000001</v>
+      </c>
+      <c r="J107" s="32">
+        <f t="shared" ref="J107" si="12">H107 * 0.7</f>
+        <v>224.35</v>
+      </c>
+      <c r="K107" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v>1072.html</v>
+      </c>
+      <c r="L107" s="31" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C107:C136 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1072.jpg</v>
+      </c>
+      <c r="M107" s="17" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C107:C136 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1072a.jpg</v>
+      </c>
+      <c r="N107" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1072b.jpg</v>
+      </c>
+      <c r="O107" s="19" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7724,46 +7736,46 @@
         <v>376</v>
       </c>
       <c r="C108" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>359</v>
+        <v>300</v>
       </c>
       <c r="H108" s="4">
         <v>57.23</v>
       </c>
       <c r="I108" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>48.645499999999998</v>
       </c>
       <c r="J108" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>40.060999999999993</v>
       </c>
       <c r="K108" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>1067.html</v>
+        <f t="shared" si="10"/>
+        <v>1066.html</v>
       </c>
       <c r="L108" s="3" t="str">
-        <f t="shared" ref="L108:L115" si="21" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C108:C137 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1067.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C93:C137 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1066.jpg</v>
       </c>
       <c r="M108" s="1"/>
       <c r="N108" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1067b.jpg</v>
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1066b.jpg</v>
       </c>
       <c r="O108" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7774,49 +7786,46 @@
         <v>376</v>
       </c>
       <c r="C109" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H109" s="4">
-        <v>127.62</v>
+        <v>57.23</v>
       </c>
       <c r="I109" s="5">
-        <f t="shared" si="12"/>
-        <v>108.477</v>
+        <f t="shared" si="5"/>
+        <v>48.645499999999998</v>
       </c>
       <c r="J109" s="5">
-        <f t="shared" si="15"/>
-        <v>89.334000000000003</v>
+        <f t="shared" si="6"/>
+        <v>40.060999999999993</v>
       </c>
       <c r="K109" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>1068.html</v>
+        <f t="shared" si="10"/>
+        <v>1067.html</v>
       </c>
       <c r="L109" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1068.jpg</v>
-      </c>
-      <c r="M109" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C109:C138 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1068a.jpg</v>
-      </c>
+        <f t="shared" ref="L109:L116" si="13" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C109:C138 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1067.jpg</v>
+      </c>
+      <c r="M109" s="1"/>
       <c r="N109" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1068b.jpg</v>
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1067b.jpg</v>
       </c>
       <c r="O109" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7827,49 +7836,49 @@
         <v>376</v>
       </c>
       <c r="C110" s="2">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H110" s="4">
-        <v>60.11</v>
+        <v>127.62</v>
       </c>
       <c r="I110" s="5">
-        <f t="shared" si="12"/>
-        <v>51.093499999999999</v>
+        <f t="shared" si="5"/>
+        <v>108.477</v>
       </c>
       <c r="J110" s="5">
-        <f t="shared" si="15"/>
-        <v>42.076999999999998</v>
+        <f t="shared" si="6"/>
+        <v>89.334000000000003</v>
       </c>
       <c r="K110" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>1069.html</v>
+        <f t="shared" si="10"/>
+        <v>1068.html</v>
       </c>
       <c r="L110" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1069.jpg</v>
+        <f t="shared" si="13"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1068.jpg</v>
       </c>
       <c r="M110" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C110:C139 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1069a.jpg</v>
+        <v>https://iglika.me/products_img/Product_details_JPG/1068a.jpg</v>
       </c>
       <c r="N110" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1069b.jpg</v>
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1068b.jpg</v>
       </c>
       <c r="O110" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7880,49 +7889,49 @@
         <v>376</v>
       </c>
       <c r="C111" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>361</v>
       </c>
       <c r="H111" s="4">
-        <v>86.44</v>
+        <v>60.11</v>
       </c>
       <c r="I111" s="5">
-        <f t="shared" si="12"/>
-        <v>73.47399999999999</v>
+        <f t="shared" si="5"/>
+        <v>51.093499999999999</v>
       </c>
       <c r="J111" s="5">
-        <f t="shared" si="15"/>
-        <v>60.507999999999996</v>
+        <f t="shared" si="6"/>
+        <v>42.076999999999998</v>
       </c>
       <c r="K111" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>1070.html</v>
+        <f t="shared" si="10"/>
+        <v>1069.html</v>
       </c>
       <c r="L111" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1070.jpg</v>
+        <f t="shared" si="13"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1069.jpg</v>
       </c>
       <c r="M111" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C111:C140 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1070a.jpg</v>
+        <v>https://iglika.me/products_img/Product_details_JPG/1069a.jpg</v>
       </c>
       <c r="N111" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1070b.jpg</v>
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1069b.jpg</v>
       </c>
       <c r="O111" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7933,98 +7942,102 @@
         <v>376</v>
       </c>
       <c r="C112" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H112" s="4">
-        <v>10.31</v>
+        <v>86.44</v>
       </c>
       <c r="I112" s="5">
-        <f t="shared" si="12"/>
-        <v>8.7635000000000005</v>
+        <f t="shared" si="5"/>
+        <v>73.47399999999999</v>
       </c>
       <c r="J112" s="5">
-        <f t="shared" si="15"/>
-        <v>7.2169999999999996</v>
+        <f t="shared" si="6"/>
+        <v>60.507999999999996</v>
       </c>
       <c r="K112" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>1071.html</v>
+        <f t="shared" si="10"/>
+        <v>1070.html</v>
       </c>
       <c r="L112" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1071.jpg</v>
+        <f t="shared" si="13"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1070.jpg</v>
       </c>
       <c r="M112" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C112:C141 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1071a.jpg</v>
+        <v>https://iglika.me/products_img/Product_details_JPG/1070a.jpg</v>
       </c>
       <c r="N112" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1071b.jpg</v>
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1070b.jpg</v>
       </c>
       <c r="O112" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B113" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C113" s="36">
-        <v>1111</v>
-      </c>
-      <c r="D113" s="22" t="s">
-        <v>558</v>
-      </c>
-      <c r="E113" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="G113" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="H113" s="35">
-        <v>79.540000000000006</v>
+      <c r="C113" s="2">
+        <v>1071</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="H113" s="4">
+        <v>10.31</v>
       </c>
       <c r="I113" s="5">
-        <f t="shared" si="12"/>
-        <v>67.609000000000009</v>
-      </c>
-      <c r="J113" s="44">
-        <f t="shared" si="15"/>
-        <v>55.678000000000004</v>
-      </c>
-      <c r="K113" s="36" t="str">
-        <f t="shared" si="18"/>
-        <v>1111.html</v>
-      </c>
-      <c r="L113" s="22" t="str">
-        <f t="shared" si="21"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1111.jpg</v>
-      </c>
-      <c r="N113" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1111b.jpg</v>
-      </c>
-      <c r="O113" s="16" t="s">
-        <v>574</v>
+        <f t="shared" si="5"/>
+        <v>8.7635000000000005</v>
+      </c>
+      <c r="J113" s="5">
+        <f t="shared" si="6"/>
+        <v>7.2169999999999996</v>
+      </c>
+      <c r="K113" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>1071.html</v>
+      </c>
+      <c r="L113" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1071.jpg</v>
+      </c>
+      <c r="M113" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C113:C142 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1071a.jpg</v>
+      </c>
+      <c r="N113" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1071b.jpg</v>
+      </c>
+      <c r="O113" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="114" spans="1:15" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8035,45 +8048,45 @@
         <v>376</v>
       </c>
       <c r="C114" s="36">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D114" s="22" t="s">
-        <v>559</v>
-      </c>
-      <c r="E114" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="F114" s="22" t="s">
-        <v>514</v>
+        <v>558</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>512</v>
       </c>
       <c r="G114" s="22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H114" s="35">
-        <v>75.58</v>
+        <v>79.540000000000006</v>
       </c>
       <c r="I114" s="5">
-        <f t="shared" si="12"/>
-        <v>64.242999999999995</v>
+        <f t="shared" si="5"/>
+        <v>67.609000000000009</v>
       </c>
       <c r="J114" s="44">
-        <f t="shared" si="15"/>
-        <v>52.905999999999999</v>
+        <f t="shared" si="6"/>
+        <v>55.678000000000004</v>
       </c>
       <c r="K114" s="36" t="str">
-        <f t="shared" si="18"/>
-        <v>1112.html</v>
+        <f t="shared" si="10"/>
+        <v>1111.html</v>
       </c>
       <c r="L114" s="22" t="str">
-        <f t="shared" si="21"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1112.jpg</v>
+        <f t="shared" si="13"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1111.jpg</v>
       </c>
       <c r="N114" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1112b.jpg</v>
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1111b.jpg</v>
       </c>
       <c r="O114" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="115" spans="1:15" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8084,92 +8097,94 @@
         <v>376</v>
       </c>
       <c r="C115" s="36">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F115" s="22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G115" s="22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H115" s="35">
-        <v>51.51</v>
+        <v>75.58</v>
       </c>
       <c r="I115" s="5">
-        <f t="shared" si="12"/>
-        <v>43.783499999999997</v>
+        <f t="shared" si="5"/>
+        <v>64.242999999999995</v>
       </c>
       <c r="J115" s="44">
-        <f t="shared" si="15"/>
-        <v>36.056999999999995</v>
+        <f t="shared" si="6"/>
+        <v>52.905999999999999</v>
       </c>
       <c r="K115" s="36" t="str">
-        <f t="shared" si="18"/>
-        <v>1113.html</v>
+        <f t="shared" si="10"/>
+        <v>1112.html</v>
       </c>
       <c r="L115" s="22" t="str">
-        <f t="shared" si="21"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1113.jpg</v>
+        <f t="shared" si="13"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1112.jpg</v>
       </c>
       <c r="N115" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1113b.jpg</v>
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1112b.jpg</v>
       </c>
       <c r="O115" s="16" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="C116" s="8">
-        <v>1074</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G116" s="38" t="s">
-        <v>362</v>
-      </c>
-      <c r="H116" s="10">
-        <v>337.32</v>
+      <c r="C116" s="36">
+        <v>1113</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="F116" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="G116" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="H116" s="35">
+        <v>51.51</v>
       </c>
       <c r="I116" s="5">
-        <f t="shared" si="12"/>
-        <v>286.72199999999998</v>
-      </c>
-      <c r="J116" s="39">
-        <f t="shared" ref="J116:J127" si="22">H116 * 0.7</f>
-        <v>236.12399999999997</v>
-      </c>
-      <c r="K116" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>1074.html</v>
-      </c>
-      <c r="L116" s="9"/>
-      <c r="M116" s="7"/>
-      <c r="N116" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1074b.jpg</v>
-      </c>
-      <c r="O116" s="6" t="s">
-        <v>260</v>
+        <f t="shared" si="5"/>
+        <v>43.783499999999997</v>
+      </c>
+      <c r="J116" s="44">
+        <f t="shared" si="6"/>
+        <v>36.056999999999995</v>
+      </c>
+      <c r="K116" s="36" t="str">
+        <f t="shared" si="10"/>
+        <v>1113.html</v>
+      </c>
+      <c r="L116" s="22" t="str">
+        <f t="shared" si="13"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1113.jpg</v>
+      </c>
+      <c r="N116" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1113b.jpg</v>
+      </c>
+      <c r="O116" s="16" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="117" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8180,16 +8195,16 @@
         <v>376</v>
       </c>
       <c r="C117" s="8">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G117" s="38" t="s">
         <v>362</v>
@@ -8198,25 +8213,25 @@
         <v>337.32</v>
       </c>
       <c r="I117" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J117" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="J117:J128" si="14">H117 * 0.7</f>
         <v>236.12399999999997</v>
       </c>
       <c r="K117" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>1086.html</v>
+        <f t="shared" si="10"/>
+        <v>1074.html</v>
       </c>
       <c r="L117" s="9"/>
       <c r="M117" s="7"/>
       <c r="N117" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1086b.jpg</v>
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1074b.jpg</v>
       </c>
       <c r="O117" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8227,42 +8242,43 @@
         <v>376</v>
       </c>
       <c r="C118" s="8">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G118" s="38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H118" s="10">
         <v>337.32</v>
       </c>
       <c r="I118" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J118" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K118" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>1087.html</v>
+        <f t="shared" si="10"/>
+        <v>1086.html</v>
       </c>
       <c r="L118" s="9"/>
       <c r="M118" s="7"/>
-      <c r="N118" s="40" t="s">
-        <v>377</v>
+      <c r="N118" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1086b.jpg</v>
       </c>
       <c r="O118" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="119" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8273,16 +8289,16 @@
         <v>376</v>
       </c>
       <c r="C119" s="8">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G119" s="38" t="s">
         <v>363</v>
@@ -8291,24 +8307,24 @@
         <v>337.32</v>
       </c>
       <c r="I119" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J119" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K119" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>1088.html</v>
+        <f t="shared" si="10"/>
+        <v>1087.html</v>
       </c>
       <c r="L119" s="9"/>
       <c r="M119" s="7"/>
       <c r="N119" s="40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O119" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="120" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8319,16 +8335,16 @@
         <v>376</v>
       </c>
       <c r="C120" s="8">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G120" s="38" t="s">
         <v>363</v>
@@ -8337,24 +8353,24 @@
         <v>337.32</v>
       </c>
       <c r="I120" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J120" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K120" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>1089.html</v>
+        <f t="shared" si="10"/>
+        <v>1088.html</v>
       </c>
       <c r="L120" s="9"/>
       <c r="M120" s="7"/>
       <c r="N120" s="40" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O120" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="121" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8365,16 +8381,16 @@
         <v>376</v>
       </c>
       <c r="C121" s="8">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G121" s="38" t="s">
         <v>363</v>
@@ -8383,24 +8399,24 @@
         <v>337.32</v>
       </c>
       <c r="I121" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J121" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K121" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>1090.html</v>
+        <f t="shared" si="10"/>
+        <v>1089.html</v>
       </c>
       <c r="L121" s="9"/>
       <c r="M121" s="7"/>
       <c r="N121" s="40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O121" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="122" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8411,43 +8427,42 @@
         <v>376</v>
       </c>
       <c r="C122" s="8">
-        <v>1073</v>
+        <v>1090</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G122" s="38" t="s">
         <v>363</v>
       </c>
       <c r="H122" s="10">
-        <v>270.32</v>
+        <v>337.32</v>
       </c>
       <c r="I122" s="5">
-        <f t="shared" si="12"/>
-        <v>229.77199999999999</v>
+        <f t="shared" si="5"/>
+        <v>286.72199999999998</v>
       </c>
       <c r="J122" s="39">
-        <f t="shared" si="22"/>
-        <v>189.22399999999999</v>
+        <f t="shared" si="14"/>
+        <v>236.12399999999997</v>
       </c>
       <c r="K122" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>1073.html</v>
+        <f t="shared" si="10"/>
+        <v>1090.html</v>
       </c>
       <c r="L122" s="9"/>
       <c r="M122" s="7"/>
-      <c r="N122" s="7" t="str">
-        <f t="shared" ref="N122:N127" si="23" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C122:C215 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
+      <c r="N122" s="40" t="s">
+        <v>378</v>
       </c>
       <c r="O122" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="123" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8458,16 +8473,16 @@
         <v>376</v>
       </c>
       <c r="C123" s="8">
-        <v>1091</v>
+        <v>1073</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G123" s="38" t="s">
         <v>363</v>
@@ -8476,25 +8491,25 @@
         <v>270.32</v>
       </c>
       <c r="I123" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>229.77199999999999</v>
       </c>
       <c r="J123" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K123" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>1091.html</v>
+        <f t="shared" si="10"/>
+        <v>1073.html</v>
       </c>
       <c r="L123" s="9"/>
       <c r="M123" s="7"/>
       <c r="N123" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1091b.jpg</v>
+        <f t="shared" ref="N123:N128" si="15" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C123:C216 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
       </c>
       <c r="O123" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="124" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8505,43 +8520,43 @@
         <v>376</v>
       </c>
       <c r="C124" s="8">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G124" s="38" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H124" s="10">
         <v>270.32</v>
       </c>
       <c r="I124" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>229.77199999999999</v>
       </c>
       <c r="J124" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K124" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>1092.html</v>
+        <f t="shared" si="10"/>
+        <v>1091.html</v>
       </c>
       <c r="L124" s="9"/>
       <c r="M124" s="7"/>
       <c r="N124" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1092b.jpg</v>
+        <f t="shared" si="15"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1091b.jpg</v>
       </c>
       <c r="O124" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="125" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8552,43 +8567,43 @@
         <v>376</v>
       </c>
       <c r="C125" s="8">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G125" s="38" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H125" s="10">
         <v>270.32</v>
       </c>
       <c r="I125" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>229.77199999999999</v>
       </c>
       <c r="J125" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K125" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>1093.html</v>
+        <f t="shared" si="10"/>
+        <v>1092.html</v>
       </c>
       <c r="L125" s="9"/>
       <c r="M125" s="7"/>
       <c r="N125" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1093b.jpg</v>
+        <f t="shared" si="15"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1092b.jpg</v>
       </c>
       <c r="O125" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="126" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8599,43 +8614,43 @@
         <v>376</v>
       </c>
       <c r="C126" s="8">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G126" s="38" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H126" s="10">
         <v>270.32</v>
       </c>
       <c r="I126" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>229.77199999999999</v>
       </c>
       <c r="J126" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K126" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>1094.html</v>
+        <f t="shared" si="10"/>
+        <v>1093.html</v>
       </c>
       <c r="L126" s="9"/>
       <c r="M126" s="7"/>
       <c r="N126" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1094b.jpg</v>
+        <f t="shared" si="15"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1093b.jpg</v>
       </c>
       <c r="O126" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="127" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8646,42 +8661,89 @@
         <v>376</v>
       </c>
       <c r="C127" s="8">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G127" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H127" s="10">
         <v>270.32</v>
       </c>
       <c r="I127" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>229.77199999999999</v>
       </c>
       <c r="J127" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K127" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>1095.html</v>
+        <f t="shared" si="10"/>
+        <v>1094.html</v>
       </c>
       <c r="L127" s="9"/>
       <c r="M127" s="7"/>
       <c r="N127" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1094b.jpg</v>
+      </c>
+      <c r="O127" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C128" s="8">
+        <v>1095</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G128" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="H128" s="10">
+        <v>270.32</v>
+      </c>
+      <c r="I128" s="5">
+        <f t="shared" si="5"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="J128" s="39">
+        <f t="shared" si="14"/>
+        <v>189.22399999999999</v>
+      </c>
+      <c r="K128" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>1095.html</v>
+      </c>
+      <c r="L128" s="9"/>
+      <c r="M128" s="7"/>
+      <c r="N128" s="7" t="str">
+        <f t="shared" si="15"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1095b.jpg</v>
       </c>
-      <c r="O127" s="6" t="s">
+      <c r="O128" s="6" t="s">
         <v>293</v>
       </c>
     </row>
@@ -8691,16 +8753,16 @@
     <hyperlink ref="O21" r:id="rId2"/>
     <hyperlink ref="O38" r:id="rId3"/>
     <hyperlink ref="O9" r:id="rId4"/>
-    <hyperlink ref="N96" r:id="rId5"/>
-    <hyperlink ref="N97" r:id="rId6"/>
-    <hyperlink ref="N98" r:id="rId7"/>
-    <hyperlink ref="N99" r:id="rId8"/>
+    <hyperlink ref="N97" r:id="rId5"/>
+    <hyperlink ref="N98" r:id="rId6"/>
+    <hyperlink ref="N99" r:id="rId7"/>
+    <hyperlink ref="N100" r:id="rId8"/>
     <hyperlink ref="O41" r:id="rId9"/>
     <hyperlink ref="O42" r:id="rId10"/>
-    <hyperlink ref="N118" r:id="rId11"/>
-    <hyperlink ref="N119" r:id="rId12"/>
-    <hyperlink ref="N120" r:id="rId13"/>
-    <hyperlink ref="N121" r:id="rId14"/>
+    <hyperlink ref="N119" r:id="rId11"/>
+    <hyperlink ref="N120" r:id="rId12"/>
+    <hyperlink ref="N121" r:id="rId13"/>
+    <hyperlink ref="N122" r:id="rId14"/>
     <hyperlink ref="O27" r:id="rId15"/>
     <hyperlink ref="O31" r:id="rId16"/>
     <hyperlink ref="O32" r:id="rId17"/>
@@ -8714,9 +8776,9 @@
     <hyperlink ref="O62" r:id="rId25"/>
     <hyperlink ref="O63" r:id="rId26"/>
     <hyperlink ref="O76" r:id="rId27"/>
-    <hyperlink ref="O113" r:id="rId28"/>
-    <hyperlink ref="O114" r:id="rId29"/>
-    <hyperlink ref="O115" r:id="rId30"/>
+    <hyperlink ref="O114" r:id="rId28"/>
+    <hyperlink ref="O115" r:id="rId29"/>
+    <hyperlink ref="O116" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId31"/>

--- a/products_categories/Merge.xlsx
+++ b/products_categories/Merge.xlsx
@@ -2245,8 +2245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="E104" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5432,15 +5432,15 @@
         <v>341</v>
       </c>
       <c r="H71" s="3">
-        <v>34.340000000000003</v>
+        <v>52.04</v>
       </c>
       <c r="I71" s="4">
         <f t="shared" si="10"/>
-        <v>29.189000000000004</v>
+        <v>44.233999999999995</v>
       </c>
       <c r="J71" s="4">
         <f t="shared" si="1"/>
-        <v>24.038</v>
+        <v>36.427999999999997</v>
       </c>
       <c r="K71" s="3" t="str">
         <f t="shared" si="9"/>

--- a/products_categories/Merge.xlsx
+++ b/products_categories/Merge.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="583">
   <si>
     <t>h1</t>
   </si>
@@ -1760,6 +1760,15 @@
   </si>
   <si>
     <t>067-ALOE-EVER-SHIELD-DEODORANT</t>
+  </si>
+  <si>
+    <t>DX4™ Body Balancing System</t>
+  </si>
+  <si>
+    <t>DX4™ балансираща програма</t>
+  </si>
+  <si>
+    <t>Четиридневна система, която ти помага да рестартираш тялото и ума си!</t>
   </si>
 </sst>
 </file>
@@ -1770,7 +1779,7 @@
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;лв.&quot;;[Red]\-#,##0.00\ &quot;лв.&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;лв.&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1836,6 +1845,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1858,7 +1874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1961,6 +1977,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2243,10 +2275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E104" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2338,11 +2370,11 @@
         <v>41.677999999999997</v>
       </c>
       <c r="K2" s="3" t="str">
-        <f t="shared" ref="K2:K33" si="0">C2 &amp; ".html"</f>
+        <f t="shared" ref="K2:K34" si="0">C2 &amp; ".html"</f>
         <v>1000.html</v>
       </c>
       <c r="L2" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C2:C113 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C2:C115 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1000b.jpg</v>
       </c>
       <c r="M2" t="s">
@@ -2379,7 +2411,7 @@
         <v>50.608999999999995</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" ref="J3:J81" si="1">H3 * 0.7</f>
+        <f t="shared" ref="J3:J82" si="1">H3 * 0.7</f>
         <v>41.677999999999997</v>
       </c>
       <c r="K3" s="3" t="str">
@@ -2387,7 +2419,7 @@
         <v>1001.html</v>
       </c>
       <c r="L3" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C3:C113 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C3:C115 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1001b.jpg</v>
       </c>
       <c r="M3" t="s">
@@ -2420,7 +2452,7 @@
         <v>59.54</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I67" si="2">H4 * 0.85</f>
+        <f t="shared" ref="I4:I68" si="2">H4 * 0.85</f>
         <v>50.608999999999995</v>
       </c>
       <c r="J4" s="4">
@@ -2432,7 +2464,7 @@
         <v>1075.html</v>
       </c>
       <c r="L4" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C4:C113 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C4:C115 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1075b.jpg</v>
       </c>
       <c r="M4" s="5" t="s">
@@ -2477,7 +2509,7 @@
         <v>1002.html</v>
       </c>
       <c r="L5" s="1" t="str">
-        <f t="shared" ref="L5:L12" si="3" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C115 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C117 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1002b.jpg</v>
       </c>
       <c r="M5" t="s">
@@ -2522,7 +2554,7 @@
         <v>1003.html</v>
       </c>
       <c r="L6" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C6:C118 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1003b.jpg</v>
       </c>
       <c r="M6" t="s">
@@ -2567,7 +2599,7 @@
         <v>1004.html</v>
       </c>
       <c r="L7" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C7:C119 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1004b.jpg</v>
       </c>
       <c r="M7" s="9" t="s">
@@ -2612,7 +2644,7 @@
         <v>1005.html</v>
       </c>
       <c r="L8" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C8:C120 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1005b.jpg</v>
       </c>
       <c r="M8" t="s">
@@ -2657,7 +2689,7 @@
         <v>1084.html</v>
       </c>
       <c r="L9" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C9:C121 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1084b.jpg</v>
       </c>
       <c r="M9" s="32" t="s">
@@ -2702,7 +2734,7 @@
         <v>1006.html</v>
       </c>
       <c r="L10" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C10:C122 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1006b.jpg</v>
       </c>
       <c r="M10" t="s">
@@ -2747,7 +2779,7 @@
         <v>1007.html</v>
       </c>
       <c r="L11" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C11:C123 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1007b.jpg</v>
       </c>
       <c r="M11" t="s">
@@ -2792,7 +2824,7 @@
         <v>1008.html</v>
       </c>
       <c r="L12" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C12:C124 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1008b.jpg</v>
       </c>
       <c r="M12" t="s">
@@ -2837,7 +2869,7 @@
         <v>1010.html</v>
       </c>
       <c r="L13" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C125 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C127 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1010b.jpg</v>
       </c>
       <c r="M13" t="s">
@@ -2882,7 +2914,7 @@
         <v>1009.html</v>
       </c>
       <c r="L14" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C14:C123 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C14:C125 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1009b.jpg</v>
       </c>
       <c r="M14" t="s">
@@ -2927,7 +2959,7 @@
         <v>1082.html</v>
       </c>
       <c r="L15" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C114 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C116 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1082b.jpg</v>
       </c>
       <c r="M15" s="5" t="s">
@@ -2972,7 +3004,7 @@
         <v>1076.html</v>
       </c>
       <c r="L16" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C124 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C126 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1076b.jpg</v>
       </c>
       <c r="M16" s="5" t="s">
@@ -3017,7 +3049,7 @@
         <v>1011.html</v>
       </c>
       <c r="L17" s="14" t="str">
-        <f t="shared" ref="L17:L25" si="4" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C17:C126 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C17:C128 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1011b.jpg</v>
       </c>
       <c r="M17" s="16" t="s">
@@ -3062,7 +3094,7 @@
         <v>1012.html</v>
       </c>
       <c r="L18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C18:C129 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1012b.jpg</v>
       </c>
       <c r="M18" t="s">
@@ -3107,7 +3139,7 @@
         <v>1078.html</v>
       </c>
       <c r="L19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C19:C130 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1078b.jpg</v>
       </c>
       <c r="M19" s="5" t="s">
@@ -3152,7 +3184,7 @@
         <v>1013.html</v>
       </c>
       <c r="L20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C20:C131 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1013b.jpg</v>
       </c>
       <c r="M20" t="s">
@@ -3197,7 +3229,7 @@
         <v>1014.html</v>
       </c>
       <c r="L21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C21:C132 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1014b.jpg</v>
       </c>
       <c r="M21" s="13" t="s">
@@ -3242,7 +3274,7 @@
         <v>1015.html</v>
       </c>
       <c r="L22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C22:C133 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1015b.jpg</v>
       </c>
       <c r="M22" t="s">
@@ -3287,7 +3319,7 @@
         <v>1016.html</v>
       </c>
       <c r="L23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C23:C134 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1016b.jpg</v>
       </c>
       <c r="M23" t="s">
@@ -3332,7 +3364,7 @@
         <v>1017.html</v>
       </c>
       <c r="L24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C24:C135 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1017b.jpg</v>
       </c>
       <c r="M24" t="s">
@@ -3377,7 +3409,7 @@
         <v>1018.html</v>
       </c>
       <c r="L25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C25:C136 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1018b.jpg</v>
       </c>
       <c r="M25" t="s">
@@ -3422,7 +3454,7 @@
         <v>1026.html</v>
       </c>
       <c r="L26" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C26:C143 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C26:C145 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1026b.jpg</v>
       </c>
       <c r="M26" s="5" t="s">
@@ -3467,7 +3499,7 @@
         <v>1114.html</v>
       </c>
       <c r="L27" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C27:C144 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C27:C146 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1114b.jpg</v>
       </c>
       <c r="M27" s="13" t="s">
@@ -3512,7 +3544,7 @@
         <v>1019.html</v>
       </c>
       <c r="L28" s="1" t="str">
-        <f t="shared" ref="L28:L37" si="5" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C28:C135 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C28:C137 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1019b.jpg</v>
       </c>
       <c r="M28" t="s">
@@ -3557,7 +3589,7 @@
         <v>1020.html</v>
       </c>
       <c r="L29" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C29:C138 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1020b.jpg</v>
       </c>
       <c r="M29" t="s">
@@ -3602,56 +3634,53 @@
         <v>1021.html</v>
       </c>
       <c r="L30" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C30:C139 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1021b.jpg</v>
       </c>
       <c r="M30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="41" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C31" s="11">
-        <v>1099</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>543</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="H31" s="12">
-        <v>191.18</v>
-      </c>
-      <c r="I31" s="4">
+      <c r="C31" s="43">
+        <v>1117</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>580</v>
+      </c>
+      <c r="F31" s="44" t="s">
+        <v>581</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="H31" s="45">
+        <v>320.5</v>
+      </c>
+      <c r="I31" s="46">
         <f t="shared" si="2"/>
-        <v>162.50300000000001</v>
-      </c>
-      <c r="J31" s="17">
+        <v>272.42500000000001</v>
+      </c>
+      <c r="J31" s="46">
         <f t="shared" si="1"/>
-        <v>133.82599999999999</v>
-      </c>
-      <c r="K31" s="12" t="str">
+        <v>224.35</v>
+      </c>
+      <c r="K31" s="45" t="str">
         <f t="shared" si="0"/>
-        <v>1099.html</v>
-      </c>
-      <c r="L31" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1099b.jpg</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>560</v>
+        <v>1117.html</v>
+      </c>
+      <c r="L31" s="6" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C31:C125 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1117b.jpg</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3662,41 +3691,41 @@
         <v>370</v>
       </c>
       <c r="C32" s="11">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="H32" s="12">
-        <v>143.1</v>
+        <v>191.18</v>
       </c>
       <c r="I32" s="4">
         <f t="shared" si="2"/>
-        <v>121.63499999999999</v>
+        <v>162.50300000000001</v>
       </c>
       <c r="J32" s="17">
         <f t="shared" si="1"/>
-        <v>100.16999999999999</v>
+        <v>133.82599999999999</v>
       </c>
       <c r="K32" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>1100.html</v>
+        <v>1099.html</v>
       </c>
       <c r="L32" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1100b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C32:C140 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1099b.jpg</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3707,41 +3736,41 @@
         <v>370</v>
       </c>
       <c r="C33" s="11">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H33" s="12">
-        <v>84.12</v>
+        <v>143.1</v>
       </c>
       <c r="I33" s="4">
         <f t="shared" si="2"/>
-        <v>71.501999999999995</v>
+        <v>121.63499999999999</v>
       </c>
       <c r="J33" s="17">
         <f t="shared" si="1"/>
-        <v>58.884</v>
+        <v>100.16999999999999</v>
       </c>
       <c r="K33" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>1101.html</v>
+        <v>1100.html</v>
       </c>
       <c r="L33" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1101b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C33:C141 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1100b.jpg</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3752,41 +3781,41 @@
         <v>370</v>
       </c>
       <c r="C34" s="11">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H34" s="12">
-        <v>32.07</v>
+        <v>84.12</v>
       </c>
       <c r="I34" s="4">
         <f t="shared" si="2"/>
-        <v>27.259499999999999</v>
+        <v>71.501999999999995</v>
       </c>
       <c r="J34" s="17">
         <f t="shared" si="1"/>
-        <v>22.448999999999998</v>
+        <v>58.884</v>
       </c>
       <c r="K34" s="12" t="str">
-        <f t="shared" ref="K34:K65" si="6">C34 &amp; ".html"</f>
-        <v>1102.html</v>
+        <f t="shared" si="0"/>
+        <v>1101.html</v>
       </c>
       <c r="L34" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1102b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C34:C142 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1101b.jpg</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3797,41 +3826,41 @@
         <v>370</v>
       </c>
       <c r="C35" s="11">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H35" s="12">
-        <v>47.53</v>
+        <v>32.07</v>
       </c>
       <c r="I35" s="4">
         <f t="shared" si="2"/>
-        <v>40.400500000000001</v>
+        <v>27.259499999999999</v>
       </c>
       <c r="J35" s="17">
         <f t="shared" si="1"/>
-        <v>33.271000000000001</v>
+        <v>22.448999999999998</v>
       </c>
       <c r="K35" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>1103.html</v>
+        <f t="shared" ref="K35:K66" si="3">C35 &amp; ".html"</f>
+        <v>1102.html</v>
       </c>
       <c r="L35" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1103b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C35:C143 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1102b.jpg</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3842,41 +3871,41 @@
         <v>370</v>
       </c>
       <c r="C36" s="11">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H36" s="12">
-        <v>41.79</v>
+        <v>47.53</v>
       </c>
       <c r="I36" s="4">
         <f t="shared" si="2"/>
-        <v>35.521499999999996</v>
+        <v>40.400500000000001</v>
       </c>
       <c r="J36" s="17">
         <f t="shared" si="1"/>
-        <v>29.252999999999997</v>
+        <v>33.271000000000001</v>
       </c>
       <c r="K36" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>1104.html</v>
+        <f t="shared" si="3"/>
+        <v>1103.html</v>
       </c>
       <c r="L36" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1104b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C36:C144 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1103b.jpg</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3887,86 +3916,86 @@
         <v>370</v>
       </c>
       <c r="C37" s="11">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H37" s="12">
-        <v>75.58</v>
+        <v>41.79</v>
       </c>
       <c r="I37" s="4">
         <f t="shared" si="2"/>
-        <v>64.242999999999995</v>
+        <v>35.521499999999996</v>
       </c>
       <c r="J37" s="17">
         <f t="shared" si="1"/>
-        <v>52.905999999999999</v>
+        <v>29.252999999999997</v>
       </c>
       <c r="K37" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>1105.html</v>
+        <f t="shared" si="3"/>
+        <v>1104.html</v>
       </c>
       <c r="L37" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1105b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C37:C145 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1104b.jpg</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="C38" s="7">
-        <v>1085</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="H38" s="8">
-        <v>14.9</v>
+      <c r="C38" s="11">
+        <v>1105</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="H38" s="12">
+        <v>75.58</v>
       </c>
       <c r="I38" s="4">
         <f t="shared" si="2"/>
-        <v>12.664999999999999</v>
-      </c>
-      <c r="J38" s="34">
+        <v>64.242999999999995</v>
+      </c>
+      <c r="J38" s="17">
         <f t="shared" si="1"/>
-        <v>10.43</v>
-      </c>
-      <c r="K38" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>1085.html</v>
-      </c>
-      <c r="L38" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C38:C138 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1085b.jpg</v>
-      </c>
-      <c r="M38" s="35" t="s">
-        <v>88</v>
+        <v>52.905999999999999</v>
+      </c>
+      <c r="K38" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>1105.html</v>
+      </c>
+      <c r="L38" s="10" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C38:C146 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1105b.jpg</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3977,41 +4006,41 @@
         <v>370</v>
       </c>
       <c r="C39" s="7">
-        <v>1022</v>
+        <v>1085</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>315</v>
+        <v>534</v>
       </c>
       <c r="H39" s="8">
-        <v>84.69</v>
+        <v>14.9</v>
       </c>
       <c r="I39" s="4">
         <f t="shared" si="2"/>
-        <v>71.986499999999992</v>
+        <v>12.664999999999999</v>
       </c>
       <c r="J39" s="34">
         <f t="shared" si="1"/>
-        <v>59.282999999999994</v>
+        <v>10.43</v>
       </c>
       <c r="K39" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>1022.html</v>
+        <f t="shared" si="3"/>
+        <v>1085.html</v>
       </c>
       <c r="L39" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C39:C139 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1022b.jpg</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>91</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C39:C140 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1085b.jpg</v>
+      </c>
+      <c r="M39" s="35" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4022,41 +4051,41 @@
         <v>370</v>
       </c>
       <c r="C40" s="7">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H40" s="8">
-        <v>80.12</v>
+        <v>84.69</v>
       </c>
       <c r="I40" s="4">
         <f t="shared" si="2"/>
-        <v>68.102000000000004</v>
+        <v>71.986499999999992</v>
       </c>
       <c r="J40" s="34">
         <f t="shared" si="1"/>
-        <v>56.083999999999996</v>
+        <v>59.282999999999994</v>
       </c>
       <c r="K40" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>1023.html</v>
+        <f t="shared" si="3"/>
+        <v>1022.html</v>
       </c>
       <c r="L40" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C40:C140 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1023b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C40:C141 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1022b.jpg</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4067,41 +4096,41 @@
         <v>370</v>
       </c>
       <c r="C41" s="7">
-        <v>1097</v>
+        <v>1023</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>380</v>
+        <v>92</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="H41" s="36">
-        <v>68.680000000000007</v>
+        <v>93</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="H41" s="8">
+        <v>80.12</v>
       </c>
       <c r="I41" s="4">
         <f t="shared" si="2"/>
-        <v>58.378000000000007</v>
+        <v>68.102000000000004</v>
       </c>
       <c r="J41" s="34">
-        <f>H41 * 0.7</f>
-        <v>48.076000000000001</v>
-      </c>
-      <c r="K41" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v>1097.html</v>
+        <f t="shared" si="1"/>
+        <v>56.083999999999996</v>
+      </c>
+      <c r="K41" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>1023.html</v>
       </c>
       <c r="L41" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C41:C207 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1097b.jpg</v>
-      </c>
-      <c r="M41" s="32" t="s">
-        <v>382</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C41:C142 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1023b.jpg</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4112,41 +4141,41 @@
         <v>370</v>
       </c>
       <c r="C42" s="7">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>386</v>
+        <v>381</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>383</v>
       </c>
       <c r="H42" s="36">
-        <v>69.27</v>
+        <v>68.680000000000007</v>
       </c>
       <c r="I42" s="4">
         <f t="shared" si="2"/>
-        <v>58.879499999999993</v>
+        <v>58.378000000000007</v>
       </c>
       <c r="J42" s="34">
         <f>H42 * 0.7</f>
-        <v>48.488999999999997</v>
+        <v>48.076000000000001</v>
       </c>
       <c r="K42" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v>1098.html</v>
+        <f t="shared" si="3"/>
+        <v>1097.html</v>
       </c>
       <c r="L42" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C42:C207 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1098b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C42:C209 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1097b.jpg</v>
       </c>
       <c r="M42" s="32" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4157,41 +4186,41 @@
         <v>370</v>
       </c>
       <c r="C43" s="7">
-        <v>1024</v>
+        <v>1098</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>95</v>
+        <v>384</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>96</v>
+        <v>385</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="H43" s="8">
-        <v>187.14</v>
+        <v>386</v>
+      </c>
+      <c r="H43" s="36">
+        <v>69.27</v>
       </c>
       <c r="I43" s="4">
         <f t="shared" si="2"/>
-        <v>159.06899999999999</v>
+        <v>58.879499999999993</v>
       </c>
       <c r="J43" s="34">
-        <f t="shared" si="1"/>
-        <v>130.99799999999999</v>
-      </c>
-      <c r="K43" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>1024.html</v>
+        <f>H43 * 0.7</f>
+        <v>48.488999999999997</v>
+      </c>
+      <c r="K43" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>1098.html</v>
       </c>
       <c r="L43" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C43:C141 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1024b.jpg</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>97</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C43:C209 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1098b.jpg</v>
+      </c>
+      <c r="M43" s="32" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4202,41 +4231,41 @@
         <v>370</v>
       </c>
       <c r="C44" s="7">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H44" s="8">
-        <v>60.68</v>
+        <v>187.14</v>
       </c>
       <c r="I44" s="4">
         <f t="shared" si="2"/>
-        <v>51.577999999999996</v>
+        <v>159.06899999999999</v>
       </c>
       <c r="J44" s="34">
         <f t="shared" si="1"/>
-        <v>42.475999999999999</v>
+        <v>130.99799999999999</v>
       </c>
       <c r="K44" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>1025.html</v>
+        <f t="shared" si="3"/>
+        <v>1024.html</v>
       </c>
       <c r="L44" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C44:C142 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1025b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C44:C143 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1024b.jpg</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4247,86 +4276,86 @@
         <v>370</v>
       </c>
       <c r="C45" s="7">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>539</v>
+        <v>318</v>
       </c>
       <c r="H45" s="8">
-        <v>88.12</v>
+        <v>60.68</v>
       </c>
       <c r="I45" s="4">
         <f t="shared" si="2"/>
-        <v>74.902000000000001</v>
+        <v>51.577999999999996</v>
       </c>
       <c r="J45" s="34">
         <f t="shared" si="1"/>
-        <v>61.683999999999997</v>
+        <v>42.475999999999999</v>
       </c>
       <c r="K45" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>1027.html</v>
+        <f t="shared" si="3"/>
+        <v>1025.html</v>
       </c>
       <c r="L45" s="6" t="str">
-        <f t="shared" ref="L45:L63" si="7" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C45:C144 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1027b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C45:C144 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1025b.jpg</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C46" s="2">
-        <v>1028</v>
+      <c r="C46" s="7">
+        <v>1027</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="H46" s="3">
-        <v>68.680000000000007</v>
+        <v>423</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="H46" s="8">
+        <v>88.12</v>
       </c>
       <c r="I46" s="4">
         <f t="shared" si="2"/>
-        <v>58.378000000000007</v>
-      </c>
-      <c r="J46" s="4">
+        <v>74.902000000000001</v>
+      </c>
+      <c r="J46" s="34">
         <f t="shared" si="1"/>
-        <v>48.076000000000001</v>
-      </c>
-      <c r="K46" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>1028.html</v>
-      </c>
-      <c r="L46" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1028b.jpg</v>
-      </c>
-      <c r="M46" t="s">
-        <v>109</v>
+        <v>61.683999999999997</v>
+      </c>
+      <c r="K46" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>1027.html</v>
+      </c>
+      <c r="L46" s="6" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C46:C146 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1027b.jpg</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4337,131 +4366,131 @@
         <v>370</v>
       </c>
       <c r="C47" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H47" s="3">
-        <v>72.680000000000007</v>
+        <v>68.680000000000007</v>
       </c>
       <c r="I47" s="4">
         <f t="shared" si="2"/>
-        <v>61.778000000000006</v>
+        <v>58.378000000000007</v>
       </c>
       <c r="J47" s="4">
         <f t="shared" si="1"/>
-        <v>50.876000000000005</v>
+        <v>48.076000000000001</v>
       </c>
       <c r="K47" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>1029.html</v>
+        <f t="shared" si="3"/>
+        <v>1028.html</v>
       </c>
       <c r="L47" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1029b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C47:C147 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1028b.jpg</v>
       </c>
       <c r="M47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="16" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C48" s="26">
-        <v>1030</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="H48" s="15">
-        <v>118.46</v>
+      <c r="C48" s="2">
+        <v>1029</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H48" s="3">
+        <v>72.680000000000007</v>
       </c>
       <c r="I48" s="4">
         <f t="shared" si="2"/>
+        <v>61.778000000000006</v>
+      </c>
+      <c r="J48" s="4">
+        <f t="shared" si="1"/>
+        <v>50.876000000000005</v>
+      </c>
+      <c r="K48" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1029.html</v>
+      </c>
+      <c r="L48" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C48:C148 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1029b.jpg</v>
+      </c>
+      <c r="M48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="16" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="C49" s="26">
+        <v>1030</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="H49" s="15">
+        <v>118.46</v>
+      </c>
+      <c r="I49" s="4">
+        <f t="shared" si="2"/>
         <v>100.69099999999999</v>
       </c>
-      <c r="J48" s="27">
+      <c r="J49" s="27">
         <f t="shared" si="1"/>
         <v>82.921999999999997</v>
       </c>
-      <c r="K48" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="K49" s="15" t="str">
+        <f t="shared" si="3"/>
         <v>1030.html</v>
       </c>
-      <c r="L48" s="14" t="str">
-        <f t="shared" si="7"/>
+      <c r="L49" s="14" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C49:C149 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1030b.jpg</v>
       </c>
-      <c r="M48" s="16" t="s">
+      <c r="M49" s="16" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C49" s="2">
-        <v>1031</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="H49" s="3">
-        <v>36.61</v>
-      </c>
-      <c r="I49" s="4">
-        <f t="shared" si="2"/>
-        <v>31.118499999999997</v>
-      </c>
-      <c r="J49" s="4">
-        <f t="shared" si="1"/>
-        <v>25.626999999999999</v>
-      </c>
-      <c r="K49" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>1031.html</v>
-      </c>
-      <c r="L49" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1031b.jpg</v>
-      </c>
-      <c r="M49" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4472,41 +4501,41 @@
         <v>371</v>
       </c>
       <c r="C50" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H50" s="3">
-        <v>41.79</v>
+        <v>36.61</v>
       </c>
       <c r="I50" s="4">
         <f t="shared" si="2"/>
-        <v>35.521499999999996</v>
+        <v>31.118499999999997</v>
       </c>
       <c r="J50" s="4">
         <f t="shared" si="1"/>
-        <v>29.252999999999997</v>
+        <v>25.626999999999999</v>
       </c>
       <c r="K50" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>1032.html</v>
+        <f t="shared" si="3"/>
+        <v>1031.html</v>
       </c>
       <c r="L50" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1032b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C50:C150 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1031b.jpg</v>
       </c>
       <c r="M50" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4517,131 +4546,131 @@
         <v>371</v>
       </c>
       <c r="C51" s="2">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H51" s="3">
-        <v>49.78</v>
+        <v>41.79</v>
       </c>
       <c r="I51" s="4">
         <f t="shared" si="2"/>
-        <v>42.313000000000002</v>
+        <v>35.521499999999996</v>
       </c>
       <c r="J51" s="4">
         <f t="shared" si="1"/>
-        <v>34.845999999999997</v>
+        <v>29.252999999999997</v>
       </c>
       <c r="K51" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>1033.html</v>
+        <f t="shared" si="3"/>
+        <v>1032.html</v>
       </c>
       <c r="L51" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1033b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C51:C151 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1032b.jpg</v>
       </c>
       <c r="M51" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C52" s="7">
-        <v>1077</v>
+      <c r="C52" s="2">
+        <v>1033</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="H52" s="8">
-        <v>72.680000000000007</v>
+        <v>429</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H52" s="3">
+        <v>49.78</v>
       </c>
       <c r="I52" s="4">
         <f t="shared" si="2"/>
-        <v>61.778000000000006</v>
+        <v>42.313000000000002</v>
       </c>
       <c r="J52" s="4">
         <f t="shared" si="1"/>
-        <v>50.876000000000005</v>
+        <v>34.845999999999997</v>
       </c>
       <c r="K52" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>1077.html</v>
+        <f t="shared" si="3"/>
+        <v>1033.html</v>
       </c>
       <c r="L52" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1077b.jpg</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>127</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C52:C152 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1033b.jpg</v>
+      </c>
+      <c r="M52" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C53" s="2">
-        <v>1034</v>
+      <c r="C53" s="7">
+        <v>1077</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="H53" s="3">
-        <v>8</v>
+        <v>430</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="H53" s="8">
+        <v>72.680000000000007</v>
       </c>
       <c r="I53" s="4">
         <f t="shared" si="2"/>
-        <v>6.8</v>
+        <v>61.778000000000006</v>
       </c>
       <c r="J53" s="4">
         <f t="shared" si="1"/>
-        <v>5.6</v>
+        <v>50.876000000000005</v>
       </c>
       <c r="K53" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>1034.html</v>
+        <f t="shared" si="3"/>
+        <v>1077.html</v>
       </c>
       <c r="L53" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1034b.jpg</v>
-      </c>
-      <c r="M53" t="s">
-        <v>130</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C53:C153 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1077b.jpg</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4652,41 +4681,41 @@
         <v>371</v>
       </c>
       <c r="C54" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H54" s="3">
-        <v>36.08</v>
+        <v>8</v>
       </c>
       <c r="I54" s="4">
         <f t="shared" si="2"/>
-        <v>30.667999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="J54" s="4">
         <f t="shared" si="1"/>
-        <v>25.255999999999997</v>
+        <v>5.6</v>
       </c>
       <c r="K54" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>1035.html</v>
+        <f t="shared" si="3"/>
+        <v>1034.html</v>
       </c>
       <c r="L54" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1035b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C54:C154 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1034b.jpg</v>
       </c>
       <c r="M54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4697,41 +4726,41 @@
         <v>371</v>
       </c>
       <c r="C55" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H55" s="3">
-        <v>400.64</v>
+        <v>36.08</v>
       </c>
       <c r="I55" s="4">
         <f t="shared" si="2"/>
-        <v>340.54399999999998</v>
+        <v>30.667999999999999</v>
       </c>
       <c r="J55" s="4">
         <f t="shared" si="1"/>
-        <v>280.44799999999998</v>
+        <v>25.255999999999997</v>
       </c>
       <c r="K55" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>1036.html</v>
+        <f t="shared" si="3"/>
+        <v>1035.html</v>
       </c>
       <c r="L55" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1036b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C55:C155 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1035b.jpg</v>
       </c>
       <c r="M55" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4742,41 +4771,41 @@
         <v>371</v>
       </c>
       <c r="C56" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H56" s="3">
-        <v>80.12</v>
+        <v>400.64</v>
       </c>
       <c r="I56" s="4">
         <f t="shared" si="2"/>
-        <v>68.102000000000004</v>
+        <v>340.54399999999998</v>
       </c>
       <c r="J56" s="4">
         <f t="shared" si="1"/>
-        <v>56.083999999999996</v>
+        <v>280.44799999999998</v>
       </c>
       <c r="K56" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>1037.html</v>
+        <f t="shared" si="3"/>
+        <v>1036.html</v>
       </c>
       <c r="L56" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1037b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C56:C156 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1036b.jpg</v>
       </c>
       <c r="M56" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4787,41 +4816,41 @@
         <v>371</v>
       </c>
       <c r="C57" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H57" s="3">
-        <v>119.05</v>
+        <v>80.12</v>
       </c>
       <c r="I57" s="4">
         <f t="shared" si="2"/>
-        <v>101.1925</v>
+        <v>68.102000000000004</v>
       </c>
       <c r="J57" s="4">
         <f t="shared" si="1"/>
-        <v>83.334999999999994</v>
+        <v>56.083999999999996</v>
       </c>
       <c r="K57" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>1038.html</v>
+        <f t="shared" si="3"/>
+        <v>1037.html</v>
       </c>
       <c r="L57" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1038b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C57:C157 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1037b.jpg</v>
       </c>
       <c r="M57" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4832,41 +4861,41 @@
         <v>371</v>
       </c>
       <c r="C58" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H58" s="3">
-        <v>60.11</v>
+        <v>119.05</v>
       </c>
       <c r="I58" s="4">
         <f t="shared" si="2"/>
-        <v>51.093499999999999</v>
+        <v>101.1925</v>
       </c>
       <c r="J58" s="4">
         <f t="shared" si="1"/>
-        <v>42.076999999999998</v>
+        <v>83.334999999999994</v>
       </c>
       <c r="K58" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>1039.html</v>
+        <f t="shared" si="3"/>
+        <v>1038.html</v>
       </c>
       <c r="L58" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1039b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C58:C158 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1038b.jpg</v>
       </c>
       <c r="M58" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4877,86 +4906,86 @@
         <v>371</v>
       </c>
       <c r="C59" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H59" s="3">
-        <v>132.77000000000001</v>
+        <v>60.11</v>
       </c>
       <c r="I59" s="4">
         <f t="shared" si="2"/>
-        <v>112.8545</v>
+        <v>51.093499999999999</v>
       </c>
       <c r="J59" s="4">
         <f t="shared" si="1"/>
-        <v>92.939000000000007</v>
+        <v>42.076999999999998</v>
       </c>
       <c r="K59" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>1040.html</v>
+        <f t="shared" si="3"/>
+        <v>1039.html</v>
       </c>
       <c r="L59" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1040b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C59:C159 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1039b.jpg</v>
       </c>
       <c r="M59" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C60" s="11">
-        <v>1106</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>551</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="H60" s="12">
-        <v>69.27</v>
+      <c r="C60" s="2">
+        <v>1040</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H60" s="3">
+        <v>132.77000000000001</v>
       </c>
       <c r="I60" s="4">
         <f t="shared" si="2"/>
-        <v>58.879499999999993</v>
-      </c>
-      <c r="J60" s="17">
+        <v>112.8545</v>
+      </c>
+      <c r="J60" s="4">
         <f t="shared" si="1"/>
-        <v>48.488999999999997</v>
-      </c>
-      <c r="K60" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>1106.html</v>
-      </c>
-      <c r="L60" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1106b.jpg</v>
-      </c>
-      <c r="M60" s="13" t="s">
-        <v>567</v>
+        <v>92.939000000000007</v>
+      </c>
+      <c r="K60" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1040.html</v>
+      </c>
+      <c r="L60" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C60:C160 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1040b.jpg</v>
+      </c>
+      <c r="M60" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4967,41 +4996,41 @@
         <v>371</v>
       </c>
       <c r="C61" s="11">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H61" s="12">
-        <v>76.13</v>
+        <v>69.27</v>
       </c>
       <c r="I61" s="4">
         <f t="shared" si="2"/>
-        <v>64.710499999999996</v>
+        <v>58.879499999999993</v>
       </c>
       <c r="J61" s="17">
         <f t="shared" si="1"/>
-        <v>53.290999999999997</v>
+        <v>48.488999999999997</v>
       </c>
       <c r="K61" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>1107.html</v>
+        <f t="shared" si="3"/>
+        <v>1106.html</v>
       </c>
       <c r="L61" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1107b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C61:C161 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1106b.jpg</v>
       </c>
       <c r="M61" s="13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="62" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5012,41 +5041,41 @@
         <v>371</v>
       </c>
       <c r="C62" s="11">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="H62" s="12">
-        <v>75.58</v>
+        <v>76.13</v>
       </c>
       <c r="I62" s="4">
         <f t="shared" si="2"/>
-        <v>64.242999999999995</v>
+        <v>64.710499999999996</v>
       </c>
       <c r="J62" s="17">
         <f t="shared" si="1"/>
-        <v>52.905999999999999</v>
+        <v>53.290999999999997</v>
       </c>
       <c r="K62" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>1108.html</v>
+        <f t="shared" si="3"/>
+        <v>1107.html</v>
       </c>
       <c r="L62" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1108b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C62:C162 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1107b.jpg</v>
       </c>
       <c r="M62" s="13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="63" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5057,86 +5086,86 @@
         <v>371</v>
       </c>
       <c r="C63" s="11">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H63" s="12">
-        <v>43.49</v>
+        <v>75.58</v>
       </c>
       <c r="I63" s="4">
         <f t="shared" si="2"/>
-        <v>36.966500000000003</v>
+        <v>64.242999999999995</v>
       </c>
       <c r="J63" s="17">
         <f t="shared" si="1"/>
-        <v>30.442999999999998</v>
+        <v>52.905999999999999</v>
       </c>
       <c r="K63" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>1109.html</v>
+        <f t="shared" si="3"/>
+        <v>1108.html</v>
       </c>
       <c r="L63" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1109b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C63:C163 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1108b.jpg</v>
       </c>
       <c r="M63" s="13" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="C64" s="2">
-        <v>1041</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="H64" s="3">
-        <v>83.57</v>
+      <c r="C64" s="11">
+        <v>1109</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="H64" s="12">
+        <v>43.49</v>
       </c>
       <c r="I64" s="4">
         <f t="shared" si="2"/>
-        <v>71.034499999999994</v>
-      </c>
-      <c r="J64" s="4">
+        <v>36.966500000000003</v>
+      </c>
+      <c r="J64" s="17">
         <f t="shared" si="1"/>
-        <v>58.498999999999988</v>
-      </c>
-      <c r="K64" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>1041.html</v>
-      </c>
-      <c r="L64" s="1" t="str">
-        <f t="shared" ref="L64:L76" si="8" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C159 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1041b.jpg</v>
-      </c>
-      <c r="M64" t="s">
-        <v>151</v>
+        <v>30.442999999999998</v>
+      </c>
+      <c r="K64" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>1109.html</v>
+      </c>
+      <c r="L64" s="10" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C164 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1109b.jpg</v>
+      </c>
+      <c r="M64" s="13" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5147,41 +5176,41 @@
         <v>371</v>
       </c>
       <c r="C65" s="2">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H65" s="3">
-        <v>41.79</v>
+        <v>83.57</v>
       </c>
       <c r="I65" s="4">
         <f t="shared" si="2"/>
-        <v>35.521499999999996</v>
+        <v>71.034499999999994</v>
       </c>
       <c r="J65" s="4">
         <f t="shared" si="1"/>
-        <v>29.252999999999997</v>
+        <v>58.498999999999988</v>
       </c>
       <c r="K65" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>1042.html</v>
+        <f t="shared" si="3"/>
+        <v>1041.html</v>
       </c>
       <c r="L65" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1042b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C65:C161 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1041b.jpg</v>
       </c>
       <c r="M65" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5192,41 +5221,41 @@
         <v>371</v>
       </c>
       <c r="C66" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H66" s="3">
-        <v>195.18</v>
+        <v>41.79</v>
       </c>
       <c r="I66" s="4">
         <f t="shared" si="2"/>
-        <v>165.90299999999999</v>
+        <v>35.521499999999996</v>
       </c>
       <c r="J66" s="4">
         <f t="shared" si="1"/>
-        <v>136.626</v>
+        <v>29.252999999999997</v>
       </c>
       <c r="K66" s="3" t="str">
-        <f t="shared" ref="K66:K98" si="9">C66 &amp; ".html"</f>
-        <v>1043.html</v>
+        <f t="shared" si="3"/>
+        <v>1042.html</v>
       </c>
       <c r="L66" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1043b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C66:C162 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1042b.jpg</v>
       </c>
       <c r="M66" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5237,41 +5266,41 @@
         <v>371</v>
       </c>
       <c r="C67" s="2">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H67" s="3">
-        <v>50.92</v>
+        <v>195.18</v>
       </c>
       <c r="I67" s="4">
         <f t="shared" si="2"/>
-        <v>43.282000000000004</v>
+        <v>165.90299999999999</v>
       </c>
       <c r="J67" s="4">
         <f t="shared" si="1"/>
-        <v>35.643999999999998</v>
+        <v>136.626</v>
       </c>
       <c r="K67" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>1044.html</v>
+        <f t="shared" ref="K67:K100" si="4">C67 &amp; ".html"</f>
+        <v>1043.html</v>
       </c>
       <c r="L67" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1044b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C67:C163 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1043b.jpg</v>
       </c>
       <c r="M67" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5282,41 +5311,41 @@
         <v>371</v>
       </c>
       <c r="C68" s="2">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H68" s="3">
-        <v>53.82</v>
+        <v>50.92</v>
       </c>
       <c r="I68" s="4">
-        <f t="shared" ref="I68:I128" si="10">H68 * 0.85</f>
-        <v>45.747</v>
+        <f t="shared" si="2"/>
+        <v>43.282000000000004</v>
       </c>
       <c r="J68" s="4">
         <f t="shared" si="1"/>
-        <v>37.673999999999999</v>
+        <v>35.643999999999998</v>
       </c>
       <c r="K68" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>1045.html</v>
+        <f t="shared" si="4"/>
+        <v>1044.html</v>
       </c>
       <c r="L68" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1045b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C68:C164 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1044b.jpg</v>
       </c>
       <c r="M68" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5327,25 +5356,25 @@
         <v>371</v>
       </c>
       <c r="C69" s="2">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H69" s="3">
         <v>53.82</v>
       </c>
       <c r="I69" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I69:I130" si="5">H69 * 0.85</f>
         <v>45.747</v>
       </c>
       <c r="J69" s="4">
@@ -5353,105 +5382,105 @@
         <v>37.673999999999999</v>
       </c>
       <c r="K69" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>1046.html</v>
+        <f t="shared" si="4"/>
+        <v>1045.html</v>
       </c>
       <c r="L69" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1046b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C69:C165 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1045b.jpg</v>
       </c>
       <c r="M69" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" s="16" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C70" s="26">
+      <c r="C70" s="2">
+        <v>1046</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H70" s="3">
+        <v>53.82</v>
+      </c>
+      <c r="I70" s="4">
+        <f t="shared" si="5"/>
+        <v>45.747</v>
+      </c>
+      <c r="J70" s="4">
+        <f t="shared" si="1"/>
+        <v>37.673999999999999</v>
+      </c>
+      <c r="K70" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1046.html</v>
+      </c>
+      <c r="L70" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C70:C166 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1046b.jpg</v>
+      </c>
+      <c r="M70" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="16" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C71" s="26">
         <v>1047</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D71" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E71" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="F70" s="14" t="s">
+      <c r="F71" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="G70" s="15" t="s">
+      <c r="G71" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="H70" s="15">
+      <c r="H71" s="15">
         <v>58.96</v>
       </c>
-      <c r="I70" s="4">
-        <f t="shared" si="10"/>
+      <c r="I71" s="4">
+        <f t="shared" si="5"/>
         <v>50.116</v>
       </c>
-      <c r="J70" s="27">
+      <c r="J71" s="27">
         <f t="shared" si="1"/>
         <v>41.271999999999998</v>
       </c>
-      <c r="K70" s="15" t="str">
-        <f t="shared" si="9"/>
+      <c r="K71" s="15" t="str">
+        <f t="shared" si="4"/>
         <v>1047.html</v>
       </c>
-      <c r="L70" s="14" t="str">
-        <f t="shared" si="8"/>
+      <c r="L71" s="14" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C71:C167 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1047b.jpg</v>
       </c>
-      <c r="M70" s="16" t="s">
+      <c r="M71" s="16" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="C71" s="2">
-        <v>1048</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="H71" s="3">
-        <v>52.04</v>
-      </c>
-      <c r="I71" s="4">
-        <f t="shared" si="10"/>
-        <v>44.233999999999995</v>
-      </c>
-      <c r="J71" s="4">
-        <f t="shared" si="1"/>
-        <v>36.427999999999997</v>
-      </c>
-      <c r="K71" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>1048.html</v>
-      </c>
-      <c r="L71" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1048b.jpg</v>
-      </c>
-      <c r="M71" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5462,41 +5491,41 @@
         <v>372</v>
       </c>
       <c r="C72" s="2">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H72" s="3">
-        <v>34.340000000000003</v>
+        <v>52.04</v>
       </c>
       <c r="I72" s="4">
-        <f t="shared" si="10"/>
-        <v>29.189000000000004</v>
+        <f t="shared" si="5"/>
+        <v>44.233999999999995</v>
       </c>
       <c r="J72" s="4">
         <f t="shared" si="1"/>
-        <v>24.038</v>
+        <v>36.427999999999997</v>
       </c>
       <c r="K72" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>1049.html</v>
+        <f t="shared" si="4"/>
+        <v>1048.html</v>
       </c>
       <c r="L72" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1049b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C72:C168 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1048b.jpg</v>
       </c>
       <c r="M72" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5507,41 +5536,41 @@
         <v>372</v>
       </c>
       <c r="C73" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H73" s="3">
-        <v>45.24</v>
+        <v>34.340000000000003</v>
       </c>
       <c r="I73" s="4">
-        <f t="shared" si="10"/>
-        <v>38.454000000000001</v>
+        <f t="shared" si="5"/>
+        <v>29.189000000000004</v>
       </c>
       <c r="J73" s="4">
         <f t="shared" si="1"/>
-        <v>31.667999999999999</v>
+        <v>24.038</v>
       </c>
       <c r="K73" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>1050.html</v>
+        <f t="shared" si="4"/>
+        <v>1049.html</v>
       </c>
       <c r="L73" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1050b.jpg</v>
-      </c>
-      <c r="M73" s="13" t="s">
-        <v>178</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C73:C169 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1049b.jpg</v>
+      </c>
+      <c r="M73" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5552,41 +5581,41 @@
         <v>372</v>
       </c>
       <c r="C74" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H74" s="3">
-        <v>52.68</v>
+        <v>45.24</v>
       </c>
       <c r="I74" s="4">
-        <f t="shared" si="10"/>
-        <v>44.777999999999999</v>
+        <f t="shared" si="5"/>
+        <v>38.454000000000001</v>
       </c>
       <c r="J74" s="4">
         <f t="shared" si="1"/>
-        <v>36.875999999999998</v>
+        <v>31.667999999999999</v>
       </c>
       <c r="K74" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>1051.html</v>
+        <f t="shared" si="4"/>
+        <v>1050.html</v>
       </c>
       <c r="L74" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1051b.jpg</v>
-      </c>
-      <c r="M74" t="s">
-        <v>181</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C74:C170 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1050b.jpg</v>
+      </c>
+      <c r="M74" s="13" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5597,266 +5626,266 @@
         <v>372</v>
       </c>
       <c r="C75" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H75" s="3">
-        <v>45.24</v>
+        <v>52.68</v>
       </c>
       <c r="I75" s="4">
-        <f t="shared" si="10"/>
-        <v>38.454000000000001</v>
+        <f t="shared" si="5"/>
+        <v>44.777999999999999</v>
       </c>
       <c r="J75" s="4">
         <f t="shared" si="1"/>
-        <v>31.667999999999999</v>
+        <v>36.875999999999998</v>
       </c>
       <c r="K75" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>1052.html</v>
+        <f t="shared" si="4"/>
+        <v>1051.html</v>
       </c>
       <c r="L75" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1052b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C75:C171 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1051b.jpg</v>
       </c>
       <c r="M75" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C76" s="2">
+        <v>1052</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H76" s="3">
+        <v>45.24</v>
+      </c>
+      <c r="I76" s="4">
+        <f t="shared" si="5"/>
+        <v>38.454000000000001</v>
+      </c>
+      <c r="J76" s="4">
+        <f t="shared" si="1"/>
+        <v>31.667999999999999</v>
+      </c>
+      <c r="K76" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1052.html</v>
+      </c>
+      <c r="L76" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C76:C172 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1052b.jpg</v>
+      </c>
+      <c r="M76" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C77" s="11">
         <v>1110</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D77" s="19" t="s">
         <v>555</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E77" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="F76" s="10" t="s">
+      <c r="F77" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="G76" s="12" t="s">
+      <c r="G77" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="H76" s="12">
+      <c r="H77" s="12">
         <v>34.340000000000003</v>
       </c>
-      <c r="I76" s="4">
-        <f t="shared" si="10"/>
+      <c r="I77" s="4">
+        <f t="shared" si="5"/>
         <v>29.189000000000004</v>
       </c>
-      <c r="J76" s="17">
+      <c r="J77" s="17">
         <f t="shared" si="1"/>
         <v>24.038</v>
       </c>
-      <c r="K76" s="12" t="str">
-        <f t="shared" si="9"/>
+      <c r="K77" s="12" t="str">
+        <f t="shared" si="4"/>
         <v>1110.html</v>
       </c>
-      <c r="L76" s="10" t="str">
-        <f t="shared" si="8"/>
+      <c r="L77" s="10" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C77:C173 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1110b.jpg</v>
       </c>
-      <c r="M76" s="13" t="s">
+      <c r="M77" s="13" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" s="3" t="s">
+    <row r="78" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C78" s="2">
         <v>1053</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G78" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H78" s="3">
         <v>47.53</v>
       </c>
-      <c r="I77" s="4">
-        <f t="shared" si="10"/>
+      <c r="I78" s="4">
+        <f t="shared" si="5"/>
         <v>40.400500000000001</v>
       </c>
-      <c r="J77" s="4">
+      <c r="J78" s="4">
         <f t="shared" si="1"/>
         <v>33.271000000000001</v>
       </c>
-      <c r="K77" s="3" t="str">
-        <f t="shared" si="9"/>
+      <c r="K78" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>1053.html</v>
       </c>
-      <c r="L77" s="1" t="str">
-        <f t="shared" ref="L77:L83" si="11" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C77:C171 &amp;"b" &amp;".jpg"</f>
+      <c r="L78" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C78:C173 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1053b.jpg</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M78" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="16" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" s="15" t="s">
+    <row r="79" spans="1:13" s="16" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="C78" s="26">
+      <c r="C79" s="26">
         <v>1054</v>
       </c>
-      <c r="D78" s="16" t="s">
+      <c r="D79" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E79" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="F78" s="14" t="s">
+      <c r="F79" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="G78" s="15" t="s">
+      <c r="G79" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="H78" s="15">
+      <c r="H79" s="15">
         <v>34.340000000000003</v>
       </c>
-      <c r="I78" s="4">
-        <f t="shared" si="10"/>
+      <c r="I79" s="4">
+        <f t="shared" si="5"/>
         <v>29.189000000000004</v>
       </c>
-      <c r="J78" s="27">
+      <c r="J79" s="27">
         <f t="shared" si="1"/>
         <v>24.038</v>
       </c>
-      <c r="K78" s="15" t="str">
-        <f t="shared" si="9"/>
+      <c r="K79" s="15" t="str">
+        <f t="shared" si="4"/>
         <v>1054.html</v>
       </c>
-      <c r="L78" s="14" t="str">
-        <f t="shared" si="11"/>
+      <c r="L79" s="14" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C79:C174 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1054b.jpg</v>
       </c>
-      <c r="M78" s="16" t="s">
+      <c r="M79" s="16" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C79" s="2">
-        <v>1055</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="H79" s="3">
-        <v>13.76</v>
-      </c>
-      <c r="I79" s="4">
-        <f t="shared" si="10"/>
-        <v>11.696</v>
-      </c>
-      <c r="J79" s="4">
-        <f t="shared" si="1"/>
-        <v>9.6319999999999997</v>
-      </c>
-      <c r="K79" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>1055.html</v>
-      </c>
-      <c r="L79" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1055b.jpg</v>
-      </c>
-      <c r="M79" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C80" s="7">
-        <v>1079</v>
+      <c r="C80" s="2">
+        <v>1055</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="H80" s="8">
-        <v>76.69</v>
+        <v>452</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="H80" s="3">
+        <v>13.76</v>
       </c>
       <c r="I80" s="4">
-        <f t="shared" si="10"/>
-        <v>65.186499999999995</v>
+        <f t="shared" si="5"/>
+        <v>11.696</v>
       </c>
       <c r="J80" s="4">
         <f t="shared" si="1"/>
-        <v>53.682999999999993</v>
+        <v>9.6319999999999997</v>
       </c>
       <c r="K80" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>1079.html</v>
+        <f t="shared" si="4"/>
+        <v>1055.html</v>
       </c>
       <c r="L80" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1079b.jpg</v>
-      </c>
-      <c r="M80" s="5" t="s">
-        <v>195</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C80:C175 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1055b.jpg</v>
+      </c>
+      <c r="M80" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5867,16 +5896,16 @@
         <v>373</v>
       </c>
       <c r="C81" s="7">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="F81" s="18" t="s">
-        <v>197</v>
+        <v>193</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>349</v>
@@ -5885,7 +5914,7 @@
         <v>76.69</v>
       </c>
       <c r="I81" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>65.186499999999995</v>
       </c>
       <c r="J81" s="4">
@@ -5893,15 +5922,15 @@
         <v>53.682999999999993</v>
       </c>
       <c r="K81" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>1080.html</v>
+        <f t="shared" si="4"/>
+        <v>1079.html</v>
       </c>
       <c r="L81" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1080b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C81:C176 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1079b.jpg</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5912,128 +5941,128 @@
         <v>373</v>
       </c>
       <c r="C82" s="7">
+        <v>1080</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="H82" s="8">
+        <v>76.69</v>
+      </c>
+      <c r="I82" s="4">
+        <f t="shared" si="5"/>
+        <v>65.186499999999995</v>
+      </c>
+      <c r="J82" s="4">
+        <f t="shared" si="1"/>
+        <v>53.682999999999993</v>
+      </c>
+      <c r="K82" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1080.html</v>
+      </c>
+      <c r="L82" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C82:C177 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1080b.jpg</v>
+      </c>
+      <c r="M82" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C83" s="7">
         <v>1081</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E83" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F83" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="G82" s="8" t="s">
+      <c r="G83" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="H82" s="8">
+      <c r="H83" s="8">
         <v>63.52</v>
       </c>
-      <c r="I82" s="4">
-        <f t="shared" si="10"/>
+      <c r="I83" s="4">
+        <f t="shared" si="5"/>
         <v>53.992000000000004</v>
       </c>
-      <c r="J82" s="4">
-        <f t="shared" ref="J82:J116" si="12">H82 * 0.7</f>
+      <c r="J83" s="4">
+        <f t="shared" ref="J83:J118" si="6">H83 * 0.7</f>
         <v>44.463999999999999</v>
       </c>
-      <c r="K82" s="3" t="str">
-        <f t="shared" si="9"/>
+      <c r="K83" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>1081.html</v>
       </c>
-      <c r="L82" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="L83" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C83:C178 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1081b.jpg</v>
       </c>
-      <c r="M82" s="5" t="s">
+      <c r="M83" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="19">
-        <v>82</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="C83" s="11">
-        <v>1115</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>579</v>
-      </c>
-      <c r="E83" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="F83" s="19" t="s">
-        <v>577</v>
-      </c>
-      <c r="G83" s="12" t="s">
-        <v>578</v>
-      </c>
-      <c r="H83" s="12">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="I83" s="17">
-        <f t="shared" si="10"/>
-        <v>14.110000000000001</v>
-      </c>
-      <c r="J83" s="17">
-        <f t="shared" si="12"/>
-        <v>11.620000000000001</v>
-      </c>
-      <c r="K83" s="12" t="str">
-        <f t="shared" si="9"/>
-        <v>1115.html</v>
-      </c>
-      <c r="L83" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1115b.jpg</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="C84" s="2">
-        <v>1056</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="H84" s="3">
-        <v>51.49</v>
-      </c>
-      <c r="I84" s="4">
-        <f t="shared" si="10"/>
-        <v>43.766500000000001</v>
-      </c>
-      <c r="J84" s="4">
-        <f t="shared" si="12"/>
-        <v>36.042999999999999</v>
-      </c>
-      <c r="K84" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>1056.html</v>
-      </c>
-      <c r="L84" s="1" t="str">
-        <f t="shared" ref="L84:L90" si="13" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C84:C177 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1056b.jpg</v>
-      </c>
-      <c r="M84" t="s">
-        <v>204</v>
+      <c r="C84" s="11">
+        <v>1115</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="H84" s="12">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I84" s="17">
+        <f t="shared" si="5"/>
+        <v>14.110000000000001</v>
+      </c>
+      <c r="J84" s="17">
+        <f t="shared" si="6"/>
+        <v>11.620000000000001</v>
+      </c>
+      <c r="K84" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>1115.html</v>
+      </c>
+      <c r="L84" s="10" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C84:C179 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1115b.jpg</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6044,41 +6073,41 @@
         <v>373</v>
       </c>
       <c r="C85" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H85" s="3">
-        <v>42.92</v>
+        <v>51.49</v>
       </c>
       <c r="I85" s="4">
-        <f t="shared" si="10"/>
-        <v>36.481999999999999</v>
+        <f t="shared" si="5"/>
+        <v>43.766500000000001</v>
       </c>
       <c r="J85" s="4">
-        <f t="shared" si="12"/>
-        <v>30.044</v>
+        <f t="shared" si="6"/>
+        <v>36.042999999999999</v>
       </c>
       <c r="K85" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>1057.html</v>
+        <f t="shared" si="4"/>
+        <v>1056.html</v>
       </c>
       <c r="L85" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1057b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C85:C179 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1056b.jpg</v>
       </c>
       <c r="M85" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6089,41 +6118,41 @@
         <v>373</v>
       </c>
       <c r="C86" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H86" s="3">
-        <v>49.78</v>
+        <v>42.92</v>
       </c>
       <c r="I86" s="4">
-        <f t="shared" si="10"/>
-        <v>42.313000000000002</v>
+        <f t="shared" si="5"/>
+        <v>36.481999999999999</v>
       </c>
       <c r="J86" s="4">
-        <f t="shared" si="12"/>
-        <v>34.845999999999997</v>
+        <f t="shared" si="6"/>
+        <v>30.044</v>
       </c>
       <c r="K86" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>1058.html</v>
+        <f t="shared" si="4"/>
+        <v>1057.html</v>
       </c>
       <c r="L86" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1058b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C86:C180 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1057b.jpg</v>
       </c>
       <c r="M86" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6134,41 +6163,41 @@
         <v>373</v>
       </c>
       <c r="C87" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H87" s="3">
-        <v>53.25</v>
+        <v>49.78</v>
       </c>
       <c r="I87" s="4">
-        <f t="shared" si="10"/>
-        <v>45.262499999999996</v>
+        <f t="shared" si="5"/>
+        <v>42.313000000000002</v>
       </c>
       <c r="J87" s="4">
-        <f t="shared" si="12"/>
-        <v>37.274999999999999</v>
+        <f t="shared" si="6"/>
+        <v>34.845999999999997</v>
       </c>
       <c r="K87" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>1059.html</v>
+        <f t="shared" si="4"/>
+        <v>1058.html</v>
       </c>
       <c r="L87" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1059b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C87:C181 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1058b.jpg</v>
       </c>
       <c r="M87" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6179,260 +6208,260 @@
         <v>373</v>
       </c>
       <c r="C88" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H88" s="3">
-        <v>17.739999999999998</v>
+        <v>53.25</v>
       </c>
       <c r="I88" s="4">
-        <f t="shared" si="10"/>
-        <v>15.078999999999999</v>
+        <f t="shared" si="5"/>
+        <v>45.262499999999996</v>
       </c>
       <c r="J88" s="4">
-        <f t="shared" si="12"/>
-        <v>12.417999999999997</v>
+        <f t="shared" si="6"/>
+        <v>37.274999999999999</v>
       </c>
       <c r="K88" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>1060.html</v>
+        <f t="shared" si="4"/>
+        <v>1059.html</v>
       </c>
       <c r="L88" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1060b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C88:C182 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1059b.jpg</v>
       </c>
       <c r="M88" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" s="16" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C89" s="26">
-        <v>1061</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="E89" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="F89" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="G89" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="H89" s="15">
-        <v>34.340000000000003</v>
+      <c r="C89" s="2">
+        <v>1060</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H89" s="3">
+        <v>17.739999999999998</v>
       </c>
       <c r="I89" s="4">
-        <f t="shared" si="10"/>
-        <v>29.189000000000004</v>
-      </c>
-      <c r="J89" s="27">
-        <f t="shared" si="12"/>
-        <v>24.038</v>
-      </c>
-      <c r="K89" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v>1061.html</v>
-      </c>
-      <c r="L89" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1061b.jpg</v>
-      </c>
-      <c r="M89" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>15.078999999999999</v>
+      </c>
+      <c r="J89" s="4">
+        <f t="shared" si="6"/>
+        <v>12.417999999999997</v>
+      </c>
+      <c r="K89" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1060.html</v>
+      </c>
+      <c r="L89" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C89:C183 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1060b.jpg</v>
+      </c>
+      <c r="M89" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" s="16" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C90" s="2">
-        <v>1063</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="H90" s="3">
-        <v>1116.3399999999999</v>
+      <c r="B90" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="C90" s="26">
+        <v>1061</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="H90" s="15">
+        <v>34.340000000000003</v>
       </c>
       <c r="I90" s="4">
-        <f t="shared" si="10"/>
-        <v>948.8889999999999</v>
-      </c>
-      <c r="J90" s="4">
-        <f t="shared" si="12"/>
-        <v>781.43799999999987</v>
-      </c>
-      <c r="K90" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>1063.html</v>
-      </c>
-      <c r="L90" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1063b.jpg</v>
-      </c>
-      <c r="M90" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>29.189000000000004</v>
+      </c>
+      <c r="J90" s="27">
+        <f t="shared" si="6"/>
+        <v>24.038</v>
+      </c>
+      <c r="K90" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>1061.html</v>
+      </c>
+      <c r="L90" s="14" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C90:C184 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1061b.jpg</v>
+      </c>
+      <c r="M90" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C91" s="7">
-        <v>1065</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8">
-        <v>823.36</v>
+      <c r="C91" s="2">
+        <v>1063</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H91" s="3">
+        <v>1116.3399999999999</v>
       </c>
       <c r="I91" s="4">
-        <f t="shared" si="10"/>
-        <v>699.85599999999999</v>
-      </c>
-      <c r="J91" s="34">
-        <v>823.36</v>
-      </c>
-      <c r="K91" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>1065.html</v>
+        <f t="shared" si="5"/>
+        <v>948.8889999999999</v>
+      </c>
+      <c r="J91" s="4">
+        <f t="shared" si="6"/>
+        <v>781.43799999999987</v>
+      </c>
+      <c r="K91" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1063.html</v>
       </c>
       <c r="L91" s="1" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C91:C185 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1065b.jpg</v>
-      </c>
-      <c r="M91" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>https://iglika.me/products_img/Product_details_JPG/1063b.jpg</v>
+      </c>
+      <c r="M91" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="C92" s="2">
-        <v>1064</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="H92" s="3">
-        <v>75.19</v>
+      <c r="C92" s="7">
+        <v>1065</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8">
+        <v>823.36</v>
       </c>
       <c r="I92" s="4">
-        <f t="shared" si="10"/>
-        <v>63.911499999999997</v>
-      </c>
-      <c r="J92" s="4">
-        <f>H92 * 0.7</f>
-        <v>52.632999999999996</v>
-      </c>
-      <c r="K92" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>1064.html</v>
+        <f t="shared" si="5"/>
+        <v>699.85599999999999</v>
+      </c>
+      <c r="J92" s="34">
+        <v>823.36</v>
+      </c>
+      <c r="K92" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>1065.html</v>
       </c>
       <c r="L92" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C91:C184 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1064b.jpg</v>
-      </c>
-      <c r="M92" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C92:C187 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1065b.jpg</v>
+      </c>
+      <c r="M92" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="33" t="s">
+      <c r="B93" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C93" s="7">
-        <v>1083</v>
+      <c r="C93" s="2">
+        <v>1064</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="G93" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="H93" s="8">
-        <v>555.54</v>
+        <v>463</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="H93" s="3">
+        <v>75.19</v>
       </c>
       <c r="I93" s="4">
-        <f t="shared" si="10"/>
-        <v>472.20899999999995</v>
-      </c>
-      <c r="J93" s="34">
-        <f t="shared" si="12"/>
-        <v>388.87799999999993</v>
-      </c>
-      <c r="K93" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>1083.html</v>
-      </c>
-      <c r="L93" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C93:C186 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1083b.jpg</v>
-      </c>
-      <c r="M93" s="5" t="s">
-        <v>252</v>
+        <f t="shared" si="5"/>
+        <v>63.911499999999997</v>
+      </c>
+      <c r="J93" s="4">
+        <f>H93 * 0.7</f>
+        <v>52.632999999999996</v>
+      </c>
+      <c r="K93" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1064.html</v>
+      </c>
+      <c r="L93" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C92:C186 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1064b.jpg</v>
+      </c>
+      <c r="M93" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="94" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6443,16 +6472,16 @@
         <v>369</v>
       </c>
       <c r="C94" s="7">
-        <v>1096</v>
+        <v>1083</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G94" s="33" t="s">
         <v>360</v>
@@ -6461,23 +6490,23 @@
         <v>555.54</v>
       </c>
       <c r="I94" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>472.20899999999995</v>
       </c>
       <c r="J94" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>388.87799999999993</v>
       </c>
       <c r="K94" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>1096.html</v>
+        <f t="shared" si="4"/>
+        <v>1083.html</v>
       </c>
       <c r="L94" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C94:C187 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1096b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C94:C188 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1083b.jpg</v>
       </c>
       <c r="M94" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="95" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6488,86 +6517,83 @@
         <v>369</v>
       </c>
       <c r="C95" s="7">
-        <v>1074</v>
+        <v>1096</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G95" s="33" t="s">
         <v>360</v>
       </c>
       <c r="H95" s="8">
-        <v>337.32</v>
+        <v>555.54</v>
       </c>
       <c r="I95" s="4">
-        <f t="shared" si="10"/>
-        <v>286.72199999999998</v>
+        <f t="shared" si="5"/>
+        <v>472.20899999999995</v>
       </c>
       <c r="J95" s="34">
-        <f t="shared" si="12"/>
-        <v>236.12399999999997</v>
+        <f t="shared" si="6"/>
+        <v>388.87799999999993</v>
       </c>
       <c r="K95" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>1074.html</v>
+        <f t="shared" si="4"/>
+        <v>1096.html</v>
       </c>
       <c r="L95" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C95:C188 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1074b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C95:C189 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1096b.jpg</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="41" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="33" t="s">
+      <c r="B96" s="42" t="s">
         <v>369</v>
       </c>
-      <c r="C96" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="G96" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="H96" s="8">
-        <v>337.32</v>
-      </c>
-      <c r="I96" s="4">
-        <f t="shared" si="10"/>
-        <v>286.72199999999998</v>
-      </c>
-      <c r="J96" s="34">
-        <f t="shared" si="12"/>
-        <v>236.12399999999997</v>
-      </c>
-      <c r="K96" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>1086.html</v>
+      <c r="C96" s="43">
+        <v>1116</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="E96" s="41" t="s">
+        <v>580</v>
+      </c>
+      <c r="F96" s="44" t="s">
+        <v>581</v>
+      </c>
+      <c r="G96" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="H96" s="45">
+        <v>320.5</v>
+      </c>
+      <c r="I96" s="46">
+        <f t="shared" si="5"/>
+        <v>272.42500000000001</v>
+      </c>
+      <c r="J96" s="46">
+        <f t="shared" si="6"/>
+        <v>224.35</v>
+      </c>
+      <c r="K96" s="45" t="str">
+        <f t="shared" si="4"/>
+        <v>1116.html</v>
       </c>
       <c r="L96" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C96:C189 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1086b.jpg</v>
-      </c>
-      <c r="M96" s="5" t="s">
-        <v>261</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C96:C190 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1116b.jpg</v>
       </c>
     </row>
     <row r="97" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6578,40 +6604,41 @@
         <v>369</v>
       </c>
       <c r="C97" s="7">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G97" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H97" s="8">
         <v>337.32</v>
       </c>
       <c r="I97" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J97" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K97" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>1087.html</v>
-      </c>
-      <c r="L97" s="35" t="s">
-        <v>375</v>
+        <f t="shared" si="4"/>
+        <v>1074.html</v>
+      </c>
+      <c r="L97" s="6" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C97:C190 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1074b.jpg</v>
       </c>
       <c r="M97" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6622,40 +6649,41 @@
         <v>369</v>
       </c>
       <c r="C98" s="7">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G98" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H98" s="8">
         <v>337.32</v>
       </c>
       <c r="I98" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J98" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K98" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>1088.html</v>
-      </c>
-      <c r="L98" s="35" t="s">
-        <v>376</v>
+        <f t="shared" si="4"/>
+        <v>1086.html</v>
+      </c>
+      <c r="L98" s="6" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C98:C191 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1086b.jpg</v>
       </c>
       <c r="M98" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6666,16 +6694,16 @@
         <v>369</v>
       </c>
       <c r="C99" s="7">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G99" s="33" t="s">
         <v>361</v>
@@ -6684,22 +6712,22 @@
         <v>337.32</v>
       </c>
       <c r="I99" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J99" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K99" s="8" t="str">
-        <f t="shared" ref="K99:K128" si="14">C99 &amp; ".html"</f>
-        <v>1089.html</v>
+        <f t="shared" si="4"/>
+        <v>1087.html</v>
       </c>
       <c r="L99" s="35" t="s">
         <v>375</v>
       </c>
       <c r="M99" s="5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6710,16 +6738,16 @@
         <v>369</v>
       </c>
       <c r="C100" s="7">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G100" s="33" t="s">
         <v>361</v>
@@ -6728,22 +6756,22 @@
         <v>337.32</v>
       </c>
       <c r="I100" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J100" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K100" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>1090.html</v>
+        <f t="shared" si="4"/>
+        <v>1088.html</v>
       </c>
       <c r="L100" s="35" t="s">
         <v>376</v>
       </c>
       <c r="M100" s="5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6754,41 +6782,40 @@
         <v>369</v>
       </c>
       <c r="C101" s="7">
-        <v>1073</v>
+        <v>1089</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G101" s="33" t="s">
         <v>361</v>
       </c>
       <c r="H101" s="8">
-        <v>270.32</v>
+        <v>337.32</v>
       </c>
       <c r="I101" s="4">
-        <f t="shared" si="10"/>
-        <v>229.77199999999999</v>
+        <f t="shared" si="5"/>
+        <v>286.72199999999998</v>
       </c>
       <c r="J101" s="34">
-        <f t="shared" si="12"/>
-        <v>189.22399999999999</v>
+        <f t="shared" si="6"/>
+        <v>236.12399999999997</v>
       </c>
       <c r="K101" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>1073.html</v>
-      </c>
-      <c r="L101" s="6" t="str">
-        <f t="shared" ref="L101:L118" si="15" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C101:C194 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
+        <f t="shared" ref="K101:K130" si="7">C101 &amp; ".html"</f>
+        <v>1089.html</v>
+      </c>
+      <c r="L101" s="35" t="s">
+        <v>375</v>
       </c>
       <c r="M101" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="102" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6799,41 +6826,40 @@
         <v>369</v>
       </c>
       <c r="C102" s="7">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G102" s="33" t="s">
         <v>361</v>
       </c>
       <c r="H102" s="8">
-        <v>270.32</v>
+        <v>337.32</v>
       </c>
       <c r="I102" s="4">
-        <f t="shared" si="10"/>
-        <v>229.77199999999999</v>
+        <f t="shared" si="5"/>
+        <v>286.72199999999998</v>
       </c>
       <c r="J102" s="34">
-        <f t="shared" si="12"/>
-        <v>189.22399999999999</v>
+        <f t="shared" si="6"/>
+        <v>236.12399999999997</v>
       </c>
       <c r="K102" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>1091.html</v>
-      </c>
-      <c r="L102" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1091b.jpg</v>
+        <f t="shared" si="7"/>
+        <v>1090.html</v>
+      </c>
+      <c r="L102" s="35" t="s">
+        <v>376</v>
       </c>
       <c r="M102" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="103" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6844,41 +6870,41 @@
         <v>369</v>
       </c>
       <c r="C103" s="7">
-        <v>1092</v>
+        <v>1073</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G103" s="33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H103" s="8">
         <v>270.32</v>
       </c>
       <c r="I103" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>229.77199999999999</v>
       </c>
       <c r="J103" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K103" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>1092.html</v>
+        <f t="shared" si="7"/>
+        <v>1073.html</v>
       </c>
       <c r="L103" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1092b.jpg</v>
+        <f t="shared" ref="L103:L120" si="8" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C103:C196 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
       </c>
       <c r="M103" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="104" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6889,41 +6915,41 @@
         <v>369</v>
       </c>
       <c r="C104" s="7">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G104" s="33" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H104" s="8">
         <v>270.32</v>
       </c>
       <c r="I104" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>229.77199999999999</v>
       </c>
       <c r="J104" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K104" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>1093.html</v>
+        <f t="shared" si="7"/>
+        <v>1091.html</v>
       </c>
       <c r="L104" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1093b.jpg</v>
+        <f t="shared" si="8"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1091b.jpg</v>
       </c>
       <c r="M104" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="105" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6934,41 +6960,41 @@
         <v>369</v>
       </c>
       <c r="C105" s="7">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G105" s="33" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H105" s="8">
         <v>270.32</v>
       </c>
       <c r="I105" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>229.77199999999999</v>
       </c>
       <c r="J105" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K105" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>1094.html</v>
+        <f t="shared" si="7"/>
+        <v>1092.html</v>
       </c>
       <c r="L105" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1094b.jpg</v>
+        <f t="shared" si="8"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1092b.jpg</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="106" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6979,176 +7005,176 @@
         <v>369</v>
       </c>
       <c r="C106" s="7">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G106" s="33" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H106" s="8">
         <v>270.32</v>
       </c>
       <c r="I106" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>229.77199999999999</v>
       </c>
       <c r="J106" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K106" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>1095.html</v>
+        <f t="shared" si="7"/>
+        <v>1093.html</v>
       </c>
       <c r="L106" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1095b.jpg</v>
+        <f t="shared" si="8"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1093b.jpg</v>
       </c>
       <c r="M106" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" s="16" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="28" t="s">
+      <c r="B107" s="33" t="s">
         <v>369</v>
       </c>
-      <c r="C107" s="26">
-        <v>1072</v>
-      </c>
-      <c r="D107" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="E107" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F107" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G107" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="H107" s="15">
-        <v>320.5</v>
+      <c r="C107" s="7">
+        <v>1094</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G107" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="H107" s="8">
+        <v>270.32</v>
       </c>
       <c r="I107" s="4">
-        <f t="shared" si="10"/>
-        <v>272.42500000000001</v>
-      </c>
-      <c r="J107" s="27">
-        <f t="shared" ref="J107" si="16">H107 * 0.7</f>
-        <v>224.35</v>
-      </c>
-      <c r="K107" s="15" t="str">
-        <f t="shared" si="14"/>
-        <v>1072.html</v>
-      </c>
-      <c r="L107" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1072b.jpg</v>
-      </c>
-      <c r="M107" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="J107" s="34">
+        <f t="shared" si="6"/>
+        <v>189.22399999999999</v>
+      </c>
+      <c r="K107" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>1094.html</v>
+      </c>
+      <c r="L107" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1094b.jpg</v>
+      </c>
+      <c r="M107" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C108" s="2">
-        <v>1066</v>
+      <c r="B108" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="C108" s="7">
+        <v>1095</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="H108" s="3">
-        <v>57.23</v>
+        <v>477</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="G108" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="H108" s="8">
+        <v>270.32</v>
       </c>
       <c r="I108" s="4">
-        <f t="shared" si="10"/>
-        <v>48.645499999999998</v>
-      </c>
-      <c r="J108" s="4">
-        <f t="shared" si="12"/>
-        <v>40.060999999999993</v>
-      </c>
-      <c r="K108" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>1066.html</v>
-      </c>
-      <c r="L108" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1066b.jpg</v>
-      </c>
-      <c r="M108" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="J108" s="34">
+        <f t="shared" si="6"/>
+        <v>189.22399999999999</v>
+      </c>
+      <c r="K108" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>1095.html</v>
+      </c>
+      <c r="L108" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1095b.jpg</v>
+      </c>
+      <c r="M108" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" s="16" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C109" s="2">
-        <v>1067</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="H109" s="3">
-        <v>57.23</v>
+      <c r="B109" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="C109" s="26">
+        <v>1072</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="G109" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="H109" s="15">
+        <v>320.5</v>
       </c>
       <c r="I109" s="4">
-        <f t="shared" si="10"/>
-        <v>48.645499999999998</v>
-      </c>
-      <c r="J109" s="4">
-        <f t="shared" si="12"/>
-        <v>40.060999999999993</v>
-      </c>
-      <c r="K109" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>1067.html</v>
-      </c>
-      <c r="L109" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1067b.jpg</v>
-      </c>
-      <c r="M109" t="s">
-        <v>234</v>
+        <f t="shared" si="5"/>
+        <v>272.42500000000001</v>
+      </c>
+      <c r="J109" s="27">
+        <f t="shared" ref="J109" si="9">H109 * 0.7</f>
+        <v>224.35</v>
+      </c>
+      <c r="K109" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>1072.html</v>
+      </c>
+      <c r="L109" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1072b.jpg</v>
+      </c>
+      <c r="M109" s="16" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7159,41 +7185,41 @@
         <v>374</v>
       </c>
       <c r="C110" s="2">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>358</v>
+        <v>298</v>
       </c>
       <c r="H110" s="3">
-        <v>127.62</v>
+        <v>57.23</v>
       </c>
       <c r="I110" s="4">
-        <f t="shared" si="10"/>
-        <v>108.477</v>
+        <f t="shared" si="5"/>
+        <v>48.645499999999998</v>
       </c>
       <c r="J110" s="4">
-        <f t="shared" si="12"/>
-        <v>89.334000000000003</v>
+        <f t="shared" si="6"/>
+        <v>40.060999999999993</v>
       </c>
       <c r="K110" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>1068.html</v>
+        <f t="shared" si="7"/>
+        <v>1066.html</v>
       </c>
       <c r="L110" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1068b.jpg</v>
+        <f t="shared" si="8"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1066b.jpg</v>
       </c>
       <c r="M110" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7204,41 +7230,41 @@
         <v>374</v>
       </c>
       <c r="C111" s="2">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H111" s="3">
-        <v>60.11</v>
+        <v>57.23</v>
       </c>
       <c r="I111" s="4">
-        <f t="shared" si="10"/>
-        <v>51.093499999999999</v>
+        <f t="shared" si="5"/>
+        <v>48.645499999999998</v>
       </c>
       <c r="J111" s="4">
-        <f t="shared" si="12"/>
-        <v>42.076999999999998</v>
+        <f t="shared" si="6"/>
+        <v>40.060999999999993</v>
       </c>
       <c r="K111" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>1069.html</v>
+        <f t="shared" si="7"/>
+        <v>1067.html</v>
       </c>
       <c r="L111" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1069b.jpg</v>
+        <f t="shared" si="8"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1067b.jpg</v>
       </c>
       <c r="M111" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7249,41 +7275,41 @@
         <v>374</v>
       </c>
       <c r="C112" s="2">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H112" s="3">
-        <v>86.44</v>
+        <v>127.62</v>
       </c>
       <c r="I112" s="4">
-        <f t="shared" si="10"/>
-        <v>73.47399999999999</v>
+        <f t="shared" si="5"/>
+        <v>108.477</v>
       </c>
       <c r="J112" s="4">
-        <f t="shared" si="12"/>
-        <v>60.507999999999996</v>
+        <f t="shared" si="6"/>
+        <v>89.334000000000003</v>
       </c>
       <c r="K112" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>1070.html</v>
+        <f t="shared" si="7"/>
+        <v>1068.html</v>
       </c>
       <c r="L112" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1070b.jpg</v>
+        <f t="shared" si="8"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1068b.jpg</v>
       </c>
       <c r="M112" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7294,131 +7320,131 @@
         <v>374</v>
       </c>
       <c r="C113" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H113" s="3">
-        <v>10.31</v>
+        <v>60.11</v>
       </c>
       <c r="I113" s="4">
-        <f t="shared" si="10"/>
-        <v>8.7635000000000005</v>
+        <f t="shared" si="5"/>
+        <v>51.093499999999999</v>
       </c>
       <c r="J113" s="4">
-        <f t="shared" si="12"/>
-        <v>7.2169999999999996</v>
+        <f t="shared" si="6"/>
+        <v>42.076999999999998</v>
       </c>
       <c r="K113" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>1071.html</v>
+        <f t="shared" si="7"/>
+        <v>1069.html</v>
       </c>
       <c r="L113" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1071b.jpg</v>
+        <f t="shared" si="8"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1069b.jpg</v>
       </c>
       <c r="M113" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C114" s="31">
-        <v>1111</v>
-      </c>
-      <c r="D114" s="19" t="s">
-        <v>556</v>
-      </c>
-      <c r="E114" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="F114" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="G114" s="19" t="s">
-        <v>515</v>
-      </c>
-      <c r="H114" s="30">
-        <v>79.540000000000006</v>
+      <c r="C114" s="2">
+        <v>1070</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="H114" s="3">
+        <v>86.44</v>
       </c>
       <c r="I114" s="4">
-        <f t="shared" si="10"/>
-        <v>67.609000000000009</v>
-      </c>
-      <c r="J114" s="39">
-        <f t="shared" si="12"/>
-        <v>55.678000000000004</v>
-      </c>
-      <c r="K114" s="31" t="str">
-        <f t="shared" si="14"/>
-        <v>1111.html</v>
-      </c>
-      <c r="L114" s="19" t="str">
-        <f t="shared" si="15"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1111b.jpg</v>
-      </c>
-      <c r="M114" s="13" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>73.47399999999999</v>
+      </c>
+      <c r="J114" s="4">
+        <f t="shared" si="6"/>
+        <v>60.507999999999996</v>
+      </c>
+      <c r="K114" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>1070.html</v>
+      </c>
+      <c r="L114" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1070b.jpg</v>
+      </c>
+      <c r="M114" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C115" s="31">
-        <v>1112</v>
-      </c>
-      <c r="D115" s="19" t="s">
-        <v>557</v>
-      </c>
-      <c r="E115" s="19" t="s">
-        <v>511</v>
-      </c>
-      <c r="F115" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="G115" s="19" t="s">
-        <v>516</v>
-      </c>
-      <c r="H115" s="30">
-        <v>75.58</v>
+      <c r="C115" s="2">
+        <v>1071</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H115" s="3">
+        <v>10.31</v>
       </c>
       <c r="I115" s="4">
-        <f t="shared" si="10"/>
-        <v>64.242999999999995</v>
-      </c>
-      <c r="J115" s="39">
-        <f t="shared" si="12"/>
-        <v>52.905999999999999</v>
-      </c>
-      <c r="K115" s="31" t="str">
-        <f t="shared" si="14"/>
-        <v>1112.html</v>
-      </c>
-      <c r="L115" s="19" t="str">
-        <f t="shared" si="15"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1112b.jpg</v>
-      </c>
-      <c r="M115" s="13" t="s">
-        <v>573</v>
+        <f t="shared" si="5"/>
+        <v>8.7635000000000005</v>
+      </c>
+      <c r="J115" s="4">
+        <f t="shared" si="6"/>
+        <v>7.2169999999999996</v>
+      </c>
+      <c r="K115" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>1071.html</v>
+      </c>
+      <c r="L115" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1071b.jpg</v>
+      </c>
+      <c r="M115" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="116" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7429,131 +7455,131 @@
         <v>374</v>
       </c>
       <c r="C116" s="31">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>558</v>
-      </c>
-      <c r="E116" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="F116" s="19" t="s">
-        <v>514</v>
+        <v>556</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="F116" s="10" t="s">
+        <v>510</v>
       </c>
       <c r="G116" s="19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H116" s="30">
-        <v>51.51</v>
+        <v>79.540000000000006</v>
       </c>
       <c r="I116" s="4">
-        <f t="shared" si="10"/>
-        <v>43.783499999999997</v>
+        <f t="shared" si="5"/>
+        <v>67.609000000000009</v>
       </c>
       <c r="J116" s="39">
-        <f t="shared" si="12"/>
-        <v>36.056999999999995</v>
+        <f t="shared" si="6"/>
+        <v>55.678000000000004</v>
       </c>
       <c r="K116" s="31" t="str">
-        <f t="shared" si="14"/>
-        <v>1113.html</v>
+        <f t="shared" si="7"/>
+        <v>1111.html</v>
       </c>
       <c r="L116" s="19" t="str">
-        <f t="shared" si="15"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1113b.jpg</v>
+        <f t="shared" si="8"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1111b.jpg</v>
       </c>
       <c r="M116" s="13" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="C117" s="7">
-        <v>1074</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="G117" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="H117" s="8">
-        <v>337.32</v>
+      <c r="C117" s="31">
+        <v>1112</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="F117" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="G117" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="H117" s="30">
+        <v>75.58</v>
       </c>
       <c r="I117" s="4">
-        <f t="shared" si="10"/>
-        <v>286.72199999999998</v>
-      </c>
-      <c r="J117" s="34">
-        <f t="shared" ref="J117:J128" si="17">H117 * 0.7</f>
-        <v>236.12399999999997</v>
-      </c>
-      <c r="K117" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>1074.html</v>
-      </c>
-      <c r="L117" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1074b.jpg</v>
-      </c>
-      <c r="M117" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>64.242999999999995</v>
+      </c>
+      <c r="J117" s="39">
+        <f t="shared" si="6"/>
+        <v>52.905999999999999</v>
+      </c>
+      <c r="K117" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>1112.html</v>
+      </c>
+      <c r="L117" s="19" t="str">
+        <f t="shared" si="8"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1112b.jpg</v>
+      </c>
+      <c r="M117" s="13" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="C118" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="G118" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="H118" s="8">
-        <v>337.32</v>
+      <c r="C118" s="31">
+        <v>1113</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="F118" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="G118" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="H118" s="30">
+        <v>51.51</v>
       </c>
       <c r="I118" s="4">
-        <f t="shared" si="10"/>
-        <v>286.72199999999998</v>
-      </c>
-      <c r="J118" s="34">
-        <f t="shared" si="17"/>
-        <v>236.12399999999997</v>
-      </c>
-      <c r="K118" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>1086.html</v>
-      </c>
-      <c r="L118" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1086b.jpg</v>
-      </c>
-      <c r="M118" s="5" t="s">
-        <v>261</v>
+        <f t="shared" si="5"/>
+        <v>43.783499999999997</v>
+      </c>
+      <c r="J118" s="39">
+        <f t="shared" si="6"/>
+        <v>36.056999999999995</v>
+      </c>
+      <c r="K118" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>1113.html</v>
+      </c>
+      <c r="L118" s="19" t="str">
+        <f t="shared" si="8"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1113b.jpg</v>
+      </c>
+      <c r="M118" s="13" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="119" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7564,40 +7590,41 @@
         <v>374</v>
       </c>
       <c r="C119" s="7">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G119" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H119" s="8">
         <v>337.32</v>
       </c>
       <c r="I119" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J119" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="J119:J130" si="10">H119 * 0.7</f>
         <v>236.12399999999997</v>
       </c>
       <c r="K119" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>1087.html</v>
-      </c>
-      <c r="L119" s="35" t="s">
-        <v>375</v>
+        <f t="shared" si="7"/>
+        <v>1074.html</v>
+      </c>
+      <c r="L119" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1074b.jpg</v>
       </c>
       <c r="M119" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="120" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7608,40 +7635,41 @@
         <v>374</v>
       </c>
       <c r="C120" s="7">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G120" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H120" s="8">
         <v>337.32</v>
       </c>
       <c r="I120" s="4">
+        <f t="shared" si="5"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="J120" s="34">
         <f t="shared" si="10"/>
-        <v>286.72199999999998</v>
-      </c>
-      <c r="J120" s="34">
-        <f t="shared" si="17"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K120" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>1088.html</v>
-      </c>
-      <c r="L120" s="35" t="s">
-        <v>376</v>
+        <f t="shared" si="7"/>
+        <v>1086.html</v>
+      </c>
+      <c r="L120" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1086b.jpg</v>
       </c>
       <c r="M120" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7652,16 +7680,16 @@
         <v>374</v>
       </c>
       <c r="C121" s="7">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G121" s="33" t="s">
         <v>361</v>
@@ -7670,22 +7698,22 @@
         <v>337.32</v>
       </c>
       <c r="I121" s="4">
+        <f t="shared" si="5"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="J121" s="34">
         <f t="shared" si="10"/>
-        <v>286.72199999999998</v>
-      </c>
-      <c r="J121" s="34">
-        <f t="shared" si="17"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K121" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>1089.html</v>
+        <f t="shared" si="7"/>
+        <v>1087.html</v>
       </c>
       <c r="L121" s="35" t="s">
         <v>375</v>
       </c>
       <c r="M121" s="5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="122" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7696,16 +7724,16 @@
         <v>374</v>
       </c>
       <c r="C122" s="7">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G122" s="33" t="s">
         <v>361</v>
@@ -7714,22 +7742,22 @@
         <v>337.32</v>
       </c>
       <c r="I122" s="4">
+        <f t="shared" si="5"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="J122" s="34">
         <f t="shared" si="10"/>
-        <v>286.72199999999998</v>
-      </c>
-      <c r="J122" s="34">
-        <f t="shared" si="17"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K122" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>1090.html</v>
+        <f t="shared" si="7"/>
+        <v>1088.html</v>
       </c>
       <c r="L122" s="35" t="s">
         <v>376</v>
       </c>
       <c r="M122" s="5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="123" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7740,41 +7768,40 @@
         <v>374</v>
       </c>
       <c r="C123" s="7">
-        <v>1073</v>
+        <v>1089</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G123" s="33" t="s">
         <v>361</v>
       </c>
       <c r="H123" s="8">
-        <v>270.32</v>
+        <v>337.32</v>
       </c>
       <c r="I123" s="4">
+        <f t="shared" si="5"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="J123" s="34">
         <f t="shared" si="10"/>
-        <v>229.77199999999999</v>
-      </c>
-      <c r="J123" s="34">
-        <f t="shared" si="17"/>
-        <v>189.22399999999999</v>
+        <v>236.12399999999997</v>
       </c>
       <c r="K123" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>1073.html</v>
-      </c>
-      <c r="L123" s="6" t="str">
-        <f t="shared" ref="L123:L128" si="18" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C123:C216 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
+        <f t="shared" si="7"/>
+        <v>1089.html</v>
+      </c>
+      <c r="L123" s="35" t="s">
+        <v>375</v>
       </c>
       <c r="M123" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="124" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7785,41 +7812,40 @@
         <v>374</v>
       </c>
       <c r="C124" s="7">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G124" s="33" t="s">
         <v>361</v>
       </c>
       <c r="H124" s="8">
-        <v>270.32</v>
+        <v>337.32</v>
       </c>
       <c r="I124" s="4">
+        <f t="shared" si="5"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="J124" s="34">
         <f t="shared" si="10"/>
-        <v>229.77199999999999</v>
-      </c>
-      <c r="J124" s="34">
-        <f t="shared" si="17"/>
-        <v>189.22399999999999</v>
+        <v>236.12399999999997</v>
       </c>
       <c r="K124" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>1091.html</v>
-      </c>
-      <c r="L124" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1091b.jpg</v>
+        <f t="shared" si="7"/>
+        <v>1090.html</v>
+      </c>
+      <c r="L124" s="35" t="s">
+        <v>376</v>
       </c>
       <c r="M124" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="125" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7830,41 +7856,41 @@
         <v>374</v>
       </c>
       <c r="C125" s="7">
-        <v>1092</v>
+        <v>1073</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G125" s="33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H125" s="8">
         <v>270.32</v>
       </c>
       <c r="I125" s="4">
+        <f t="shared" si="5"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="J125" s="34">
         <f t="shared" si="10"/>
-        <v>229.77199999999999</v>
-      </c>
-      <c r="J125" s="34">
-        <f t="shared" si="17"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K125" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>1092.html</v>
+        <f t="shared" si="7"/>
+        <v>1073.html</v>
       </c>
       <c r="L125" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1092b.jpg</v>
+        <f t="shared" ref="L125:L130" si="11" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C125:C218 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
       </c>
       <c r="M125" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7875,41 +7901,41 @@
         <v>374</v>
       </c>
       <c r="C126" s="7">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G126" s="33" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H126" s="8">
         <v>270.32</v>
       </c>
       <c r="I126" s="4">
+        <f t="shared" si="5"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="J126" s="34">
         <f t="shared" si="10"/>
-        <v>229.77199999999999</v>
-      </c>
-      <c r="J126" s="34">
-        <f t="shared" si="17"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K126" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>1093.html</v>
+        <f t="shared" si="7"/>
+        <v>1091.html</v>
       </c>
       <c r="L126" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1093b.jpg</v>
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1091b.jpg</v>
       </c>
       <c r="M126" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="127" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7920,41 +7946,41 @@
         <v>374</v>
       </c>
       <c r="C127" s="7">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G127" s="33" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H127" s="8">
         <v>270.32</v>
       </c>
       <c r="I127" s="4">
+        <f t="shared" si="5"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="J127" s="34">
         <f t="shared" si="10"/>
-        <v>229.77199999999999</v>
-      </c>
-      <c r="J127" s="34">
-        <f t="shared" si="17"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K127" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>1094.html</v>
+        <f t="shared" si="7"/>
+        <v>1092.html</v>
       </c>
       <c r="L127" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1094b.jpg</v>
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1092b.jpg</v>
       </c>
       <c r="M127" s="5" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="128" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7965,75 +7991,165 @@
         <v>374</v>
       </c>
       <c r="C128" s="7">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G128" s="33" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H128" s="8">
         <v>270.32</v>
       </c>
       <c r="I128" s="4">
+        <f t="shared" si="5"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="J128" s="34">
         <f t="shared" si="10"/>
+        <v>189.22399999999999</v>
+      </c>
+      <c r="K128" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>1093.html</v>
+      </c>
+      <c r="L128" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1093b.jpg</v>
+      </c>
+      <c r="M128" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C129" s="7">
+        <v>1094</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G129" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="H129" s="8">
+        <v>270.32</v>
+      </c>
+      <c r="I129" s="4">
+        <f t="shared" si="5"/>
         <v>229.77199999999999</v>
       </c>
-      <c r="J128" s="34">
-        <f t="shared" si="17"/>
+      <c r="J129" s="34">
+        <f t="shared" si="10"/>
         <v>189.22399999999999</v>
       </c>
-      <c r="K128" s="8" t="str">
-        <f t="shared" si="14"/>
+      <c r="K129" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>1094.html</v>
+      </c>
+      <c r="L129" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1094b.jpg</v>
+      </c>
+      <c r="M129" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C130" s="7">
+        <v>1095</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="G130" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="H130" s="8">
+        <v>270.32</v>
+      </c>
+      <c r="I130" s="4">
+        <f t="shared" si="5"/>
+        <v>229.77199999999999</v>
+      </c>
+      <c r="J130" s="34">
+        <f t="shared" si="10"/>
+        <v>189.22399999999999</v>
+      </c>
+      <c r="K130" s="8" t="str">
+        <f t="shared" si="7"/>
         <v>1095.html</v>
       </c>
-      <c r="L128" s="6" t="str">
-        <f t="shared" si="18"/>
+      <c r="L130" s="6" t="str">
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1095b.jpg</v>
       </c>
-      <c r="M128" s="5" t="s">
+      <c r="M130" s="5" t="s">
         <v>291</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M73" r:id="rId1"/>
+    <hyperlink ref="M74" r:id="rId1"/>
     <hyperlink ref="M21" r:id="rId2"/>
-    <hyperlink ref="M38" r:id="rId3"/>
+    <hyperlink ref="M39" r:id="rId3"/>
     <hyperlink ref="M9" r:id="rId4"/>
-    <hyperlink ref="L97" r:id="rId5"/>
-    <hyperlink ref="L98" r:id="rId6"/>
-    <hyperlink ref="L99" r:id="rId7"/>
-    <hyperlink ref="L100" r:id="rId8"/>
-    <hyperlink ref="M41" r:id="rId9"/>
-    <hyperlink ref="M42" r:id="rId10"/>
-    <hyperlink ref="L119" r:id="rId11"/>
-    <hyperlink ref="L120" r:id="rId12"/>
-    <hyperlink ref="L121" r:id="rId13"/>
-    <hyperlink ref="L122" r:id="rId14"/>
+    <hyperlink ref="L99" r:id="rId5"/>
+    <hyperlink ref="L100" r:id="rId6"/>
+    <hyperlink ref="L101" r:id="rId7"/>
+    <hyperlink ref="L102" r:id="rId8"/>
+    <hyperlink ref="M42" r:id="rId9"/>
+    <hyperlink ref="M43" r:id="rId10"/>
+    <hyperlink ref="L121" r:id="rId11"/>
+    <hyperlink ref="L122" r:id="rId12"/>
+    <hyperlink ref="L123" r:id="rId13"/>
+    <hyperlink ref="L124" r:id="rId14"/>
     <hyperlink ref="M27" r:id="rId15"/>
-    <hyperlink ref="M31" r:id="rId16"/>
-    <hyperlink ref="M32" r:id="rId17"/>
-    <hyperlink ref="M33" r:id="rId18"/>
-    <hyperlink ref="M34" r:id="rId19"/>
-    <hyperlink ref="M35" r:id="rId20"/>
-    <hyperlink ref="M36" r:id="rId21"/>
-    <hyperlink ref="M37" r:id="rId22"/>
-    <hyperlink ref="M60" r:id="rId23"/>
-    <hyperlink ref="M61" r:id="rId24"/>
-    <hyperlink ref="M62" r:id="rId25"/>
-    <hyperlink ref="M63" r:id="rId26"/>
-    <hyperlink ref="M76" r:id="rId27"/>
-    <hyperlink ref="M114" r:id="rId28"/>
-    <hyperlink ref="M115" r:id="rId29"/>
-    <hyperlink ref="M116" r:id="rId30"/>
+    <hyperlink ref="M32" r:id="rId16"/>
+    <hyperlink ref="M33" r:id="rId17"/>
+    <hyperlink ref="M34" r:id="rId18"/>
+    <hyperlink ref="M35" r:id="rId19"/>
+    <hyperlink ref="M36" r:id="rId20"/>
+    <hyperlink ref="M37" r:id="rId21"/>
+    <hyperlink ref="M38" r:id="rId22"/>
+    <hyperlink ref="M61" r:id="rId23"/>
+    <hyperlink ref="M62" r:id="rId24"/>
+    <hyperlink ref="M63" r:id="rId25"/>
+    <hyperlink ref="M64" r:id="rId26"/>
+    <hyperlink ref="M77" r:id="rId27"/>
+    <hyperlink ref="M116" r:id="rId28"/>
+    <hyperlink ref="M117" r:id="rId29"/>
+    <hyperlink ref="M118" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId31"/>

--- a/products_categories/Merge.xlsx
+++ b/products_categories/Merge.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="583">
   <si>
     <t>h1</t>
   </si>
@@ -2275,10 +2275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M130"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2374,7 +2374,7 @@
         <v>1000.html</v>
       </c>
       <c r="L2" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C2:C115 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C2:C114 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1000b.jpg</v>
       </c>
       <c r="M2" t="s">
@@ -2419,7 +2419,7 @@
         <v>1001.html</v>
       </c>
       <c r="L3" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C3:C115 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C3:C114 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1001b.jpg</v>
       </c>
       <c r="M3" t="s">
@@ -2464,7 +2464,7 @@
         <v>1075.html</v>
       </c>
       <c r="L4" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C4:C115 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C4:C114 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1075b.jpg</v>
       </c>
       <c r="M4" s="5" t="s">
@@ -2509,7 +2509,7 @@
         <v>1002.html</v>
       </c>
       <c r="L5" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C117 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" ref="L5:L12" si="3" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C116 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1002b.jpg</v>
       </c>
       <c r="M5" t="s">
@@ -2554,7 +2554,7 @@
         <v>1003.html</v>
       </c>
       <c r="L6" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C6:C118 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="3"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1003b.jpg</v>
       </c>
       <c r="M6" t="s">
@@ -2599,7 +2599,7 @@
         <v>1004.html</v>
       </c>
       <c r="L7" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C7:C119 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="3"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1004b.jpg</v>
       </c>
       <c r="M7" s="9" t="s">
@@ -2644,7 +2644,7 @@
         <v>1005.html</v>
       </c>
       <c r="L8" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C8:C120 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="3"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1005b.jpg</v>
       </c>
       <c r="M8" t="s">
@@ -2689,7 +2689,7 @@
         <v>1084.html</v>
       </c>
       <c r="L9" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C9:C121 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="3"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1084b.jpg</v>
       </c>
       <c r="M9" s="32" t="s">
@@ -2734,7 +2734,7 @@
         <v>1006.html</v>
       </c>
       <c r="L10" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C10:C122 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="3"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1006b.jpg</v>
       </c>
       <c r="M10" t="s">
@@ -2779,7 +2779,7 @@
         <v>1007.html</v>
       </c>
       <c r="L11" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C11:C123 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="3"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1007b.jpg</v>
       </c>
       <c r="M11" t="s">
@@ -2824,7 +2824,7 @@
         <v>1008.html</v>
       </c>
       <c r="L12" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C12:C124 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="3"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1008b.jpg</v>
       </c>
       <c r="M12" t="s">
@@ -2869,7 +2869,7 @@
         <v>1010.html</v>
       </c>
       <c r="L13" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C127 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C126 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1010b.jpg</v>
       </c>
       <c r="M13" t="s">
@@ -2914,7 +2914,7 @@
         <v>1009.html</v>
       </c>
       <c r="L14" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C14:C125 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C14:C124 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1009b.jpg</v>
       </c>
       <c r="M14" t="s">
@@ -2959,7 +2959,7 @@
         <v>1082.html</v>
       </c>
       <c r="L15" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C116 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C115 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1082b.jpg</v>
       </c>
       <c r="M15" s="5" t="s">
@@ -3004,7 +3004,7 @@
         <v>1076.html</v>
       </c>
       <c r="L16" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C126 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C125 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1076b.jpg</v>
       </c>
       <c r="M16" s="5" t="s">
@@ -3049,7 +3049,7 @@
         <v>1011.html</v>
       </c>
       <c r="L17" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C17:C128 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" ref="L17:L25" si="4" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C17:C127 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1011b.jpg</v>
       </c>
       <c r="M17" s="16" t="s">
@@ -3094,7 +3094,7 @@
         <v>1012.html</v>
       </c>
       <c r="L18" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C18:C129 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1012b.jpg</v>
       </c>
       <c r="M18" t="s">
@@ -3139,7 +3139,7 @@
         <v>1078.html</v>
       </c>
       <c r="L19" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C19:C130 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1078b.jpg</v>
       </c>
       <c r="M19" s="5" t="s">
@@ -3184,7 +3184,7 @@
         <v>1013.html</v>
       </c>
       <c r="L20" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C20:C131 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1013b.jpg</v>
       </c>
       <c r="M20" t="s">
@@ -3229,7 +3229,7 @@
         <v>1014.html</v>
       </c>
       <c r="L21" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C21:C132 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1014b.jpg</v>
       </c>
       <c r="M21" s="13" t="s">
@@ -3274,7 +3274,7 @@
         <v>1015.html</v>
       </c>
       <c r="L22" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C22:C133 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1015b.jpg</v>
       </c>
       <c r="M22" t="s">
@@ -3319,7 +3319,7 @@
         <v>1016.html</v>
       </c>
       <c r="L23" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C23:C134 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1016b.jpg</v>
       </c>
       <c r="M23" t="s">
@@ -3364,7 +3364,7 @@
         <v>1017.html</v>
       </c>
       <c r="L24" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C24:C135 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1017b.jpg</v>
       </c>
       <c r="M24" t="s">
@@ -3409,7 +3409,7 @@
         <v>1018.html</v>
       </c>
       <c r="L25" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C25:C136 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1018b.jpg</v>
       </c>
       <c r="M25" t="s">
@@ -3454,7 +3454,7 @@
         <v>1026.html</v>
       </c>
       <c r="L26" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C26:C145 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C26:C144 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1026b.jpg</v>
       </c>
       <c r="M26" s="5" t="s">
@@ -3499,7 +3499,7 @@
         <v>1114.html</v>
       </c>
       <c r="L27" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C27:C146 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C27:C145 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1114b.jpg</v>
       </c>
       <c r="M27" s="13" t="s">
@@ -3544,7 +3544,7 @@
         <v>1019.html</v>
       </c>
       <c r="L28" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C28:C137 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C28:C136 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1019b.jpg</v>
       </c>
       <c r="M28" t="s">
@@ -3589,7 +3589,7 @@
         <v>1020.html</v>
       </c>
       <c r="L29" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C29:C138 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C29:C137 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1020b.jpg</v>
       </c>
       <c r="M29" t="s">
@@ -3634,7 +3634,7 @@
         <v>1021.html</v>
       </c>
       <c r="L30" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C30:C139 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C30:C138 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1021b.jpg</v>
       </c>
       <c r="M30" t="s">
@@ -3649,7 +3649,7 @@
         <v>370</v>
       </c>
       <c r="C31" s="43">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D31" s="41" t="s">
         <v>478</v>
@@ -3676,11 +3676,11 @@
       </c>
       <c r="K31" s="45" t="str">
         <f t="shared" si="0"/>
-        <v>1117.html</v>
+        <v>1116.html</v>
       </c>
       <c r="L31" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C31:C125 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1117b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C31:C124 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1116b.jpg</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3721,7 +3721,7 @@
         <v>1099.html</v>
       </c>
       <c r="L32" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C32:C140 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" ref="L32:L38" si="5" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C32:C139 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1099b.jpg</v>
       </c>
       <c r="M32" s="13" t="s">
@@ -3766,7 +3766,7 @@
         <v>1100.html</v>
       </c>
       <c r="L33" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C33:C141 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1100b.jpg</v>
       </c>
       <c r="M33" s="13" t="s">
@@ -3811,7 +3811,7 @@
         <v>1101.html</v>
       </c>
       <c r="L34" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C34:C142 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1101b.jpg</v>
       </c>
       <c r="M34" s="13" t="s">
@@ -3852,11 +3852,11 @@
         <v>22.448999999999998</v>
       </c>
       <c r="K35" s="12" t="str">
-        <f t="shared" ref="K35:K66" si="3">C35 &amp; ".html"</f>
+        <f t="shared" ref="K35:K66" si="6">C35 &amp; ".html"</f>
         <v>1102.html</v>
       </c>
       <c r="L35" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C35:C143 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1102b.jpg</v>
       </c>
       <c r="M35" s="13" t="s">
@@ -3897,11 +3897,11 @@
         <v>33.271000000000001</v>
       </c>
       <c r="K36" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1103.html</v>
       </c>
       <c r="L36" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C36:C144 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1103b.jpg</v>
       </c>
       <c r="M36" s="13" t="s">
@@ -3942,11 +3942,11 @@
         <v>29.252999999999997</v>
       </c>
       <c r="K37" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1104.html</v>
       </c>
       <c r="L37" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C37:C145 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1104b.jpg</v>
       </c>
       <c r="M37" s="13" t="s">
@@ -3987,11 +3987,11 @@
         <v>52.905999999999999</v>
       </c>
       <c r="K38" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1105.html</v>
       </c>
       <c r="L38" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C38:C146 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1105b.jpg</v>
       </c>
       <c r="M38" s="13" t="s">
@@ -4032,11 +4032,11 @@
         <v>10.43</v>
       </c>
       <c r="K39" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1085.html</v>
       </c>
       <c r="L39" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C39:C140 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C39:C139 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1085b.jpg</v>
       </c>
       <c r="M39" s="35" t="s">
@@ -4077,11 +4077,11 @@
         <v>59.282999999999994</v>
       </c>
       <c r="K40" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1022.html</v>
       </c>
       <c r="L40" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C40:C141 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C40:C140 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1022b.jpg</v>
       </c>
       <c r="M40" s="5" t="s">
@@ -4122,11 +4122,11 @@
         <v>56.083999999999996</v>
       </c>
       <c r="K41" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1023.html</v>
       </c>
       <c r="L41" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C41:C142 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C41:C141 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1023b.jpg</v>
       </c>
       <c r="M41" s="5" t="s">
@@ -4167,11 +4167,11 @@
         <v>48.076000000000001</v>
       </c>
       <c r="K42" s="37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1097.html</v>
       </c>
       <c r="L42" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C42:C209 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C42:C208 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1097b.jpg</v>
       </c>
       <c r="M42" s="32" t="s">
@@ -4212,11 +4212,11 @@
         <v>48.488999999999997</v>
       </c>
       <c r="K43" s="37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1098.html</v>
       </c>
       <c r="L43" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C43:C209 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C43:C208 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1098b.jpg</v>
       </c>
       <c r="M43" s="32" t="s">
@@ -4257,11 +4257,11 @@
         <v>130.99799999999999</v>
       </c>
       <c r="K44" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1024.html</v>
       </c>
       <c r="L44" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C44:C143 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C44:C142 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1024b.jpg</v>
       </c>
       <c r="M44" s="5" t="s">
@@ -4302,11 +4302,11 @@
         <v>42.475999999999999</v>
       </c>
       <c r="K45" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1025.html</v>
       </c>
       <c r="L45" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C45:C144 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C45:C143 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1025b.jpg</v>
       </c>
       <c r="M45" s="5" t="s">
@@ -4347,11 +4347,11 @@
         <v>61.683999999999997</v>
       </c>
       <c r="K46" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1027.html</v>
       </c>
       <c r="L46" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C46:C146 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" ref="L46:L64" si="7" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C46:C145 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1027b.jpg</v>
       </c>
       <c r="M46" s="5" t="s">
@@ -4392,11 +4392,11 @@
         <v>48.076000000000001</v>
       </c>
       <c r="K47" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1028.html</v>
       </c>
       <c r="L47" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C47:C147 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1028b.jpg</v>
       </c>
       <c r="M47" t="s">
@@ -4437,11 +4437,11 @@
         <v>50.876000000000005</v>
       </c>
       <c r="K48" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1029.html</v>
       </c>
       <c r="L48" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C48:C148 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1029b.jpg</v>
       </c>
       <c r="M48" t="s">
@@ -4482,11 +4482,11 @@
         <v>82.921999999999997</v>
       </c>
       <c r="K49" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1030.html</v>
       </c>
       <c r="L49" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C49:C149 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1030b.jpg</v>
       </c>
       <c r="M49" s="16" t="s">
@@ -4527,11 +4527,11 @@
         <v>25.626999999999999</v>
       </c>
       <c r="K50" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1031.html</v>
       </c>
       <c r="L50" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C50:C150 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1031b.jpg</v>
       </c>
       <c r="M50" t="s">
@@ -4572,11 +4572,11 @@
         <v>29.252999999999997</v>
       </c>
       <c r="K51" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1032.html</v>
       </c>
       <c r="L51" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C51:C151 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1032b.jpg</v>
       </c>
       <c r="M51" t="s">
@@ -4617,11 +4617,11 @@
         <v>34.845999999999997</v>
       </c>
       <c r="K52" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1033.html</v>
       </c>
       <c r="L52" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C52:C152 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1033b.jpg</v>
       </c>
       <c r="M52" t="s">
@@ -4662,11 +4662,11 @@
         <v>50.876000000000005</v>
       </c>
       <c r="K53" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1077.html</v>
       </c>
       <c r="L53" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C53:C153 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1077b.jpg</v>
       </c>
       <c r="M53" s="5" t="s">
@@ -4707,11 +4707,11 @@
         <v>5.6</v>
       </c>
       <c r="K54" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1034.html</v>
       </c>
       <c r="L54" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C54:C154 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1034b.jpg</v>
       </c>
       <c r="M54" t="s">
@@ -4752,11 +4752,11 @@
         <v>25.255999999999997</v>
       </c>
       <c r="K55" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1035.html</v>
       </c>
       <c r="L55" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C55:C155 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1035b.jpg</v>
       </c>
       <c r="M55" t="s">
@@ -4797,11 +4797,11 @@
         <v>280.44799999999998</v>
       </c>
       <c r="K56" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1036.html</v>
       </c>
       <c r="L56" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C56:C156 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1036b.jpg</v>
       </c>
       <c r="M56" t="s">
@@ -4842,11 +4842,11 @@
         <v>56.083999999999996</v>
       </c>
       <c r="K57" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1037.html</v>
       </c>
       <c r="L57" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C57:C157 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1037b.jpg</v>
       </c>
       <c r="M57" t="s">
@@ -4887,11 +4887,11 @@
         <v>83.334999999999994</v>
       </c>
       <c r="K58" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1038.html</v>
       </c>
       <c r="L58" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C58:C158 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1038b.jpg</v>
       </c>
       <c r="M58" t="s">
@@ -4932,11 +4932,11 @@
         <v>42.076999999999998</v>
       </c>
       <c r="K59" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1039.html</v>
       </c>
       <c r="L59" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C59:C159 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1039b.jpg</v>
       </c>
       <c r="M59" t="s">
@@ -4977,11 +4977,11 @@
         <v>92.939000000000007</v>
       </c>
       <c r="K60" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1040.html</v>
       </c>
       <c r="L60" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C60:C160 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1040b.jpg</v>
       </c>
       <c r="M60" t="s">
@@ -5022,11 +5022,11 @@
         <v>48.488999999999997</v>
       </c>
       <c r="K61" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1106.html</v>
       </c>
       <c r="L61" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C61:C161 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1106b.jpg</v>
       </c>
       <c r="M61" s="13" t="s">
@@ -5067,11 +5067,11 @@
         <v>53.290999999999997</v>
       </c>
       <c r="K62" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1107.html</v>
       </c>
       <c r="L62" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C62:C162 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1107b.jpg</v>
       </c>
       <c r="M62" s="13" t="s">
@@ -5112,11 +5112,11 @@
         <v>52.905999999999999</v>
       </c>
       <c r="K63" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1108.html</v>
       </c>
       <c r="L63" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C63:C163 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1108b.jpg</v>
       </c>
       <c r="M63" s="13" t="s">
@@ -5157,11 +5157,11 @@
         <v>30.442999999999998</v>
       </c>
       <c r="K64" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1109.html</v>
       </c>
       <c r="L64" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C164 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1109b.jpg</v>
       </c>
       <c r="M64" s="13" t="s">
@@ -5202,11 +5202,11 @@
         <v>58.498999999999988</v>
       </c>
       <c r="K65" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1041.html</v>
       </c>
       <c r="L65" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C65:C161 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" ref="L65:L77" si="8" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C65:C160 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1041b.jpg</v>
       </c>
       <c r="M65" t="s">
@@ -5247,11 +5247,11 @@
         <v>29.252999999999997</v>
       </c>
       <c r="K66" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1042.html</v>
       </c>
       <c r="L66" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C66:C162 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1042b.jpg</v>
       </c>
       <c r="M66" t="s">
@@ -5292,11 +5292,11 @@
         <v>136.626</v>
       </c>
       <c r="K67" s="3" t="str">
-        <f t="shared" ref="K67:K100" si="4">C67 &amp; ".html"</f>
+        <f t="shared" ref="K67:K99" si="9">C67 &amp; ".html"</f>
         <v>1043.html</v>
       </c>
       <c r="L67" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C67:C163 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1043b.jpg</v>
       </c>
       <c r="M67" t="s">
@@ -5337,11 +5337,11 @@
         <v>35.643999999999998</v>
       </c>
       <c r="K68" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1044.html</v>
       </c>
       <c r="L68" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C68:C164 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1044b.jpg</v>
       </c>
       <c r="M68" t="s">
@@ -5374,7 +5374,7 @@
         <v>53.82</v>
       </c>
       <c r="I69" s="4">
-        <f t="shared" ref="I69:I130" si="5">H69 * 0.85</f>
+        <f t="shared" ref="I69:I129" si="10">H69 * 0.85</f>
         <v>45.747</v>
       </c>
       <c r="J69" s="4">
@@ -5382,11 +5382,11 @@
         <v>37.673999999999999</v>
       </c>
       <c r="K69" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1045.html</v>
       </c>
       <c r="L69" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C69:C165 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1045b.jpg</v>
       </c>
       <c r="M69" t="s">
@@ -5419,7 +5419,7 @@
         <v>53.82</v>
       </c>
       <c r="I70" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>45.747</v>
       </c>
       <c r="J70" s="4">
@@ -5427,11 +5427,11 @@
         <v>37.673999999999999</v>
       </c>
       <c r="K70" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1046.html</v>
       </c>
       <c r="L70" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C70:C166 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1046b.jpg</v>
       </c>
       <c r="M70" t="s">
@@ -5464,7 +5464,7 @@
         <v>58.96</v>
       </c>
       <c r="I71" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>50.116</v>
       </c>
       <c r="J71" s="27">
@@ -5472,11 +5472,11 @@
         <v>41.271999999999998</v>
       </c>
       <c r="K71" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1047.html</v>
       </c>
       <c r="L71" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C71:C167 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1047b.jpg</v>
       </c>
       <c r="M71" s="16" t="s">
@@ -5509,7 +5509,7 @@
         <v>52.04</v>
       </c>
       <c r="I72" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>44.233999999999995</v>
       </c>
       <c r="J72" s="4">
@@ -5517,11 +5517,11 @@
         <v>36.427999999999997</v>
       </c>
       <c r="K72" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1048.html</v>
       </c>
       <c r="L72" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C72:C168 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1048b.jpg</v>
       </c>
       <c r="M72" t="s">
@@ -5554,7 +5554,7 @@
         <v>34.340000000000003</v>
       </c>
       <c r="I73" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>29.189000000000004</v>
       </c>
       <c r="J73" s="4">
@@ -5562,11 +5562,11 @@
         <v>24.038</v>
       </c>
       <c r="K73" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1049.html</v>
       </c>
       <c r="L73" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C73:C169 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1049b.jpg</v>
       </c>
       <c r="M73" t="s">
@@ -5599,7 +5599,7 @@
         <v>45.24</v>
       </c>
       <c r="I74" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>38.454000000000001</v>
       </c>
       <c r="J74" s="4">
@@ -5607,11 +5607,11 @@
         <v>31.667999999999999</v>
       </c>
       <c r="K74" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1050.html</v>
       </c>
       <c r="L74" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C74:C170 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1050b.jpg</v>
       </c>
       <c r="M74" s="13" t="s">
@@ -5644,7 +5644,7 @@
         <v>52.68</v>
       </c>
       <c r="I75" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>44.777999999999999</v>
       </c>
       <c r="J75" s="4">
@@ -5652,11 +5652,11 @@
         <v>36.875999999999998</v>
       </c>
       <c r="K75" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1051.html</v>
       </c>
       <c r="L75" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C75:C171 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1051b.jpg</v>
       </c>
       <c r="M75" t="s">
@@ -5689,7 +5689,7 @@
         <v>45.24</v>
       </c>
       <c r="I76" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>38.454000000000001</v>
       </c>
       <c r="J76" s="4">
@@ -5697,11 +5697,11 @@
         <v>31.667999999999999</v>
       </c>
       <c r="K76" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1052.html</v>
       </c>
       <c r="L76" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C76:C172 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1052b.jpg</v>
       </c>
       <c r="M76" t="s">
@@ -5734,7 +5734,7 @@
         <v>34.340000000000003</v>
       </c>
       <c r="I77" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>29.189000000000004</v>
       </c>
       <c r="J77" s="17">
@@ -5742,11 +5742,11 @@
         <v>24.038</v>
       </c>
       <c r="K77" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1110.html</v>
       </c>
       <c r="L77" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C77:C173 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1110b.jpg</v>
       </c>
       <c r="M77" s="13" t="s">
@@ -5779,7 +5779,7 @@
         <v>47.53</v>
       </c>
       <c r="I78" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>40.400500000000001</v>
       </c>
       <c r="J78" s="4">
@@ -5787,11 +5787,11 @@
         <v>33.271000000000001</v>
       </c>
       <c r="K78" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1053.html</v>
       </c>
       <c r="L78" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C78:C173 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" ref="L78:L84" si="11" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C78:C172 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1053b.jpg</v>
       </c>
       <c r="M78" t="s">
@@ -5824,7 +5824,7 @@
         <v>34.340000000000003</v>
       </c>
       <c r="I79" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>29.189000000000004</v>
       </c>
       <c r="J79" s="27">
@@ -5832,11 +5832,11 @@
         <v>24.038</v>
       </c>
       <c r="K79" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1054.html</v>
       </c>
       <c r="L79" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C79:C174 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1054b.jpg</v>
       </c>
       <c r="M79" s="16" t="s">
@@ -5869,7 +5869,7 @@
         <v>13.76</v>
       </c>
       <c r="I80" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>11.696</v>
       </c>
       <c r="J80" s="4">
@@ -5877,11 +5877,11 @@
         <v>9.6319999999999997</v>
       </c>
       <c r="K80" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1055.html</v>
       </c>
       <c r="L80" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C80:C175 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1055b.jpg</v>
       </c>
       <c r="M80" t="s">
@@ -5914,7 +5914,7 @@
         <v>76.69</v>
       </c>
       <c r="I81" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>65.186499999999995</v>
       </c>
       <c r="J81" s="4">
@@ -5922,11 +5922,11 @@
         <v>53.682999999999993</v>
       </c>
       <c r="K81" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1079.html</v>
       </c>
       <c r="L81" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C81:C176 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1079b.jpg</v>
       </c>
       <c r="M81" s="5" t="s">
@@ -5959,7 +5959,7 @@
         <v>76.69</v>
       </c>
       <c r="I82" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>65.186499999999995</v>
       </c>
       <c r="J82" s="4">
@@ -5967,11 +5967,11 @@
         <v>53.682999999999993</v>
       </c>
       <c r="K82" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1080.html</v>
       </c>
       <c r="L82" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C82:C177 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1080b.jpg</v>
       </c>
       <c r="M82" s="5" t="s">
@@ -6004,19 +6004,19 @@
         <v>63.52</v>
       </c>
       <c r="I83" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>53.992000000000004</v>
       </c>
       <c r="J83" s="4">
-        <f t="shared" ref="J83:J118" si="6">H83 * 0.7</f>
+        <f t="shared" ref="J83:J117" si="12">H83 * 0.7</f>
         <v>44.463999999999999</v>
       </c>
       <c r="K83" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1081.html</v>
       </c>
       <c r="L83" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C83:C178 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1081b.jpg</v>
       </c>
       <c r="M83" s="5" t="s">
@@ -6049,19 +6049,19 @@
         <v>16.600000000000001</v>
       </c>
       <c r="I84" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>14.110000000000001</v>
       </c>
       <c r="J84" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>11.620000000000001</v>
       </c>
       <c r="K84" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1115.html</v>
       </c>
       <c r="L84" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C84:C179 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="11"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1115b.jpg</v>
       </c>
     </row>
@@ -6091,19 +6091,19 @@
         <v>51.49</v>
       </c>
       <c r="I85" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>43.766500000000001</v>
       </c>
       <c r="J85" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>36.042999999999999</v>
       </c>
       <c r="K85" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1056.html</v>
       </c>
       <c r="L85" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C85:C179 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" ref="L85:L91" si="13" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C85:C178 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1056b.jpg</v>
       </c>
       <c r="M85" t="s">
@@ -6136,19 +6136,19 @@
         <v>42.92</v>
       </c>
       <c r="I86" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>36.481999999999999</v>
       </c>
       <c r="J86" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>30.044</v>
       </c>
       <c r="K86" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1057.html</v>
       </c>
       <c r="L86" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C86:C180 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="13"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1057b.jpg</v>
       </c>
       <c r="M86" t="s">
@@ -6181,19 +6181,19 @@
         <v>49.78</v>
       </c>
       <c r="I87" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>42.313000000000002</v>
       </c>
       <c r="J87" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>34.845999999999997</v>
       </c>
       <c r="K87" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1058.html</v>
       </c>
       <c r="L87" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C87:C181 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="13"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1058b.jpg</v>
       </c>
       <c r="M87" t="s">
@@ -6226,19 +6226,19 @@
         <v>53.25</v>
       </c>
       <c r="I88" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>45.262499999999996</v>
       </c>
       <c r="J88" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>37.274999999999999</v>
       </c>
       <c r="K88" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1059.html</v>
       </c>
       <c r="L88" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C88:C182 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="13"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1059b.jpg</v>
       </c>
       <c r="M88" t="s">
@@ -6271,19 +6271,19 @@
         <v>17.739999999999998</v>
       </c>
       <c r="I89" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>15.078999999999999</v>
       </c>
       <c r="J89" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>12.417999999999997</v>
       </c>
       <c r="K89" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1060.html</v>
       </c>
       <c r="L89" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C89:C183 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="13"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1060b.jpg</v>
       </c>
       <c r="M89" t="s">
@@ -6316,19 +6316,19 @@
         <v>34.340000000000003</v>
       </c>
       <c r="I90" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>29.189000000000004</v>
       </c>
       <c r="J90" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>24.038</v>
       </c>
       <c r="K90" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1061.html</v>
       </c>
       <c r="L90" s="14" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C90:C184 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="13"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1061b.jpg</v>
       </c>
       <c r="M90" s="16" t="s">
@@ -6361,19 +6361,19 @@
         <v>1116.3399999999999</v>
       </c>
       <c r="I91" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>948.8889999999999</v>
       </c>
       <c r="J91" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>781.43799999999987</v>
       </c>
       <c r="K91" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1063.html</v>
       </c>
       <c r="L91" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C91:C185 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="13"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1063b.jpg</v>
       </c>
       <c r="M91" t="s">
@@ -6401,18 +6401,18 @@
         <v>823.36</v>
       </c>
       <c r="I92" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>699.85599999999999</v>
       </c>
       <c r="J92" s="34">
         <v>823.36</v>
       </c>
       <c r="K92" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1065.html</v>
       </c>
       <c r="L92" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C92:C187 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C92:C186 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1065b.jpg</v>
       </c>
       <c r="M92" s="5" t="s">
@@ -6445,7 +6445,7 @@
         <v>75.19</v>
       </c>
       <c r="I93" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>63.911499999999997</v>
       </c>
       <c r="J93" s="4">
@@ -6453,11 +6453,11 @@
         <v>52.632999999999996</v>
       </c>
       <c r="K93" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1064.html</v>
       </c>
       <c r="L93" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C92:C186 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C92:C185 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1064b.jpg</v>
       </c>
       <c r="M93" t="s">
@@ -6490,19 +6490,19 @@
         <v>555.54</v>
       </c>
       <c r="I94" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>472.20899999999995</v>
       </c>
       <c r="J94" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>388.87799999999993</v>
       </c>
       <c r="K94" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1083.html</v>
       </c>
       <c r="L94" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C94:C188 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C94:C187 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1083b.jpg</v>
       </c>
       <c r="M94" s="5" t="s">
@@ -6535,85 +6535,88 @@
         <v>555.54</v>
       </c>
       <c r="I95" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>472.20899999999995</v>
       </c>
       <c r="J95" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>388.87799999999993</v>
       </c>
       <c r="K95" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1096.html</v>
       </c>
       <c r="L95" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C95:C189 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C95:C188 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1096b.jpg</v>
       </c>
       <c r="M95" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="41" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="33" t="s">
         <v>369</v>
       </c>
-      <c r="C96" s="43">
-        <v>1116</v>
-      </c>
-      <c r="D96" s="41" t="s">
-        <v>478</v>
-      </c>
-      <c r="E96" s="41" t="s">
-        <v>580</v>
-      </c>
-      <c r="F96" s="44" t="s">
-        <v>581</v>
-      </c>
-      <c r="G96" s="42" t="s">
-        <v>582</v>
-      </c>
-      <c r="H96" s="45">
-        <v>320.5</v>
-      </c>
-      <c r="I96" s="46">
-        <f t="shared" si="5"/>
-        <v>272.42500000000001</v>
-      </c>
-      <c r="J96" s="46">
-        <f t="shared" si="6"/>
-        <v>224.35</v>
-      </c>
-      <c r="K96" s="45" t="str">
-        <f t="shared" si="4"/>
-        <v>1116.html</v>
+      <c r="C96" s="7">
+        <v>1074</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G96" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="H96" s="8">
+        <v>337.32</v>
+      </c>
+      <c r="I96" s="4">
+        <f t="shared" si="10"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="J96" s="34">
+        <f t="shared" si="12"/>
+        <v>236.12399999999997</v>
+      </c>
+      <c r="K96" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>1074.html</v>
       </c>
       <c r="L96" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C96:C190 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1116b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C96:C189 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1074b.jpg</v>
+      </c>
+      <c r="M96" s="5" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" s="33" t="s">
         <v>369</v>
       </c>
       <c r="C97" s="7">
-        <v>1074</v>
+        <v>1086</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G97" s="33" t="s">
         <v>360</v>
@@ -6622,88 +6625,87 @@
         <v>337.32</v>
       </c>
       <c r="I97" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J97" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K97" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>1074.html</v>
+        <f t="shared" si="9"/>
+        <v>1086.html</v>
       </c>
       <c r="L97" s="6" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C97:C190 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1074b.jpg</v>
+        <v>https://iglika.me/products_img/Product_details_JPG/1086b.jpg</v>
       </c>
       <c r="M97" s="5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" s="33" t="s">
         <v>369</v>
       </c>
       <c r="C98" s="7">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G98" s="33" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H98" s="8">
         <v>337.32</v>
       </c>
       <c r="I98" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J98" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K98" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>1086.html</v>
-      </c>
-      <c r="L98" s="6" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C98:C191 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1086b.jpg</v>
+        <f t="shared" si="9"/>
+        <v>1087.html</v>
+      </c>
+      <c r="L98" s="35" t="s">
+        <v>375</v>
       </c>
       <c r="M98" s="5" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" s="33" t="s">
         <v>369</v>
       </c>
       <c r="C99" s="7">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G99" s="33" t="s">
         <v>361</v>
@@ -6712,42 +6714,42 @@
         <v>337.32</v>
       </c>
       <c r="I99" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J99" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K99" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>1087.html</v>
+        <f t="shared" si="9"/>
+        <v>1088.html</v>
       </c>
       <c r="L99" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M99" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" s="33" t="s">
         <v>369</v>
       </c>
       <c r="C100" s="7">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G100" s="33" t="s">
         <v>361</v>
@@ -6756,42 +6758,42 @@
         <v>337.32</v>
       </c>
       <c r="I100" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J100" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K100" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>1088.html</v>
+        <f t="shared" ref="K100:K129" si="14">C100 &amp; ".html"</f>
+        <v>1089.html</v>
       </c>
       <c r="L100" s="35" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M100" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" s="33" t="s">
         <v>369</v>
       </c>
       <c r="C101" s="7">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G101" s="33" t="s">
         <v>361</v>
@@ -6800,86 +6802,87 @@
         <v>337.32</v>
       </c>
       <c r="I101" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J101" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K101" s="8" t="str">
-        <f t="shared" ref="K101:K130" si="7">C101 &amp; ".html"</f>
-        <v>1089.html</v>
+        <f t="shared" si="14"/>
+        <v>1090.html</v>
       </c>
       <c r="L101" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M101" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" s="33" t="s">
         <v>369</v>
       </c>
       <c r="C102" s="7">
-        <v>1090</v>
+        <v>1073</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G102" s="33" t="s">
         <v>361</v>
       </c>
       <c r="H102" s="8">
-        <v>337.32</v>
+        <v>270.32</v>
       </c>
       <c r="I102" s="4">
-        <f t="shared" si="5"/>
-        <v>286.72199999999998</v>
+        <f t="shared" si="10"/>
+        <v>229.77199999999999</v>
       </c>
       <c r="J102" s="34">
-        <f t="shared" si="6"/>
-        <v>236.12399999999997</v>
+        <f t="shared" si="12"/>
+        <v>189.22399999999999</v>
       </c>
       <c r="K102" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>1090.html</v>
-      </c>
-      <c r="L102" s="35" t="s">
-        <v>376</v>
+        <f t="shared" si="14"/>
+        <v>1073.html</v>
+      </c>
+      <c r="L102" s="6" t="str">
+        <f t="shared" ref="L102:L119" si="15" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C102:C195 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
       </c>
       <c r="M102" s="5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103" s="33" t="s">
         <v>369</v>
       </c>
       <c r="C103" s="7">
-        <v>1073</v>
+        <v>1091</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G103" s="33" t="s">
         <v>361</v>
@@ -6888,718 +6891,718 @@
         <v>270.32</v>
       </c>
       <c r="I103" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>229.77199999999999</v>
       </c>
       <c r="J103" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K103" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>1073.html</v>
+        <f t="shared" si="14"/>
+        <v>1091.html</v>
       </c>
       <c r="L103" s="6" t="str">
-        <f t="shared" ref="L103:L120" si="8" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C103:C196 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
+        <f t="shared" si="15"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1091b.jpg</v>
       </c>
       <c r="M103" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="104" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" s="33" t="s">
         <v>369</v>
       </c>
       <c r="C104" s="7">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G104" s="33" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H104" s="8">
         <v>270.32</v>
       </c>
       <c r="I104" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>229.77199999999999</v>
       </c>
       <c r="J104" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K104" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>1091.html</v>
+        <f t="shared" si="14"/>
+        <v>1092.html</v>
       </c>
       <c r="L104" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1091b.jpg</v>
+        <f t="shared" si="15"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1092b.jpg</v>
       </c>
       <c r="M104" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="105" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" s="33" t="s">
         <v>369</v>
       </c>
       <c r="C105" s="7">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G105" s="33" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H105" s="8">
         <v>270.32</v>
       </c>
       <c r="I105" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>229.77199999999999</v>
       </c>
       <c r="J105" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K105" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>1092.html</v>
+        <f t="shared" si="14"/>
+        <v>1093.html</v>
       </c>
       <c r="L105" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1092b.jpg</v>
+        <f t="shared" si="15"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1093b.jpg</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106" s="33" t="s">
         <v>369</v>
       </c>
       <c r="C106" s="7">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G106" s="33" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H106" s="8">
         <v>270.32</v>
       </c>
       <c r="I106" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>229.77199999999999</v>
       </c>
       <c r="J106" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K106" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>1093.html</v>
+        <f t="shared" si="14"/>
+        <v>1094.html</v>
       </c>
       <c r="L106" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1093b.jpg</v>
+        <f t="shared" si="15"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1094b.jpg</v>
       </c>
       <c r="M106" s="5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107" s="33" t="s">
         <v>369</v>
       </c>
       <c r="C107" s="7">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G107" s="33" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H107" s="8">
         <v>270.32</v>
       </c>
       <c r="I107" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>229.77199999999999</v>
       </c>
       <c r="J107" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K107" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>1094.html</v>
+        <f t="shared" si="14"/>
+        <v>1095.html</v>
       </c>
       <c r="L107" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1094b.jpg</v>
+        <f t="shared" si="15"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1095b.jpg</v>
       </c>
       <c r="M107" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" s="16" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="C108" s="7">
-        <v>1095</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="G108" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="H108" s="8">
-        <v>270.32</v>
+      <c r="C108" s="26">
+        <v>1072</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="G108" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="H108" s="15">
+        <v>320.5</v>
       </c>
       <c r="I108" s="4">
-        <f t="shared" si="5"/>
-        <v>229.77199999999999</v>
-      </c>
-      <c r="J108" s="34">
-        <f t="shared" si="6"/>
-        <v>189.22399999999999</v>
-      </c>
-      <c r="K108" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>1095.html</v>
-      </c>
-      <c r="L108" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1095b.jpg</v>
-      </c>
-      <c r="M108" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" s="16" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>272.42500000000001</v>
+      </c>
+      <c r="J108" s="27">
+        <f t="shared" ref="J108" si="16">H108 * 0.7</f>
+        <v>224.35</v>
+      </c>
+      <c r="K108" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v>1072.html</v>
+      </c>
+      <c r="L108" s="14" t="str">
+        <f t="shared" si="15"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1072b.jpg</v>
+      </c>
+      <c r="M108" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="C109" s="26">
-        <v>1072</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="E109" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F109" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G109" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="H109" s="15">
-        <v>320.5</v>
+        <v>109</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C109" s="2">
+        <v>1066</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H109" s="3">
+        <v>57.23</v>
       </c>
       <c r="I109" s="4">
-        <f t="shared" si="5"/>
-        <v>272.42500000000001</v>
-      </c>
-      <c r="J109" s="27">
-        <f t="shared" ref="J109" si="9">H109 * 0.7</f>
-        <v>224.35</v>
-      </c>
-      <c r="K109" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v>1072.html</v>
-      </c>
-      <c r="L109" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1072b.jpg</v>
-      </c>
-      <c r="M109" s="16" t="s">
-        <v>249</v>
+        <f t="shared" si="10"/>
+        <v>48.645499999999998</v>
+      </c>
+      <c r="J109" s="4">
+        <f t="shared" si="12"/>
+        <v>40.060999999999993</v>
+      </c>
+      <c r="K109" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>1066.html</v>
+      </c>
+      <c r="L109" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1066b.jpg</v>
+      </c>
+      <c r="M109" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>374</v>
       </c>
       <c r="C110" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>298</v>
+        <v>357</v>
       </c>
       <c r="H110" s="3">
         <v>57.23</v>
       </c>
       <c r="I110" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>48.645499999999998</v>
       </c>
       <c r="J110" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>40.060999999999993</v>
       </c>
       <c r="K110" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>1066.html</v>
+        <f t="shared" si="14"/>
+        <v>1067.html</v>
       </c>
       <c r="L110" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1066b.jpg</v>
+        <f t="shared" si="15"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1067b.jpg</v>
       </c>
       <c r="M110" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>374</v>
       </c>
       <c r="C111" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H111" s="3">
-        <v>57.23</v>
+        <v>127.62</v>
       </c>
       <c r="I111" s="4">
-        <f t="shared" si="5"/>
-        <v>48.645499999999998</v>
+        <f t="shared" si="10"/>
+        <v>108.477</v>
       </c>
       <c r="J111" s="4">
-        <f t="shared" si="6"/>
-        <v>40.060999999999993</v>
+        <f t="shared" si="12"/>
+        <v>89.334000000000003</v>
       </c>
       <c r="K111" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>1067.html</v>
+        <f t="shared" si="14"/>
+        <v>1068.html</v>
       </c>
       <c r="L111" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1067b.jpg</v>
+        <f t="shared" si="15"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1068b.jpg</v>
       </c>
       <c r="M111" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>374</v>
       </c>
       <c r="C112" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H112" s="3">
-        <v>127.62</v>
+        <v>60.11</v>
       </c>
       <c r="I112" s="4">
-        <f t="shared" si="5"/>
-        <v>108.477</v>
+        <f t="shared" si="10"/>
+        <v>51.093499999999999</v>
       </c>
       <c r="J112" s="4">
-        <f t="shared" si="6"/>
-        <v>89.334000000000003</v>
+        <f t="shared" si="12"/>
+        <v>42.076999999999998</v>
       </c>
       <c r="K112" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>1068.html</v>
+        <f t="shared" si="14"/>
+        <v>1069.html</v>
       </c>
       <c r="L112" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1068b.jpg</v>
+        <f t="shared" si="15"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1069b.jpg</v>
       </c>
       <c r="M112" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>374</v>
       </c>
       <c r="C113" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>359</v>
       </c>
       <c r="H113" s="3">
-        <v>60.11</v>
+        <v>86.44</v>
       </c>
       <c r="I113" s="4">
-        <f t="shared" si="5"/>
-        <v>51.093499999999999</v>
+        <f t="shared" si="10"/>
+        <v>73.47399999999999</v>
       </c>
       <c r="J113" s="4">
-        <f t="shared" si="6"/>
-        <v>42.076999999999998</v>
+        <f t="shared" si="12"/>
+        <v>60.507999999999996</v>
       </c>
       <c r="K113" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>1069.html</v>
+        <f t="shared" si="14"/>
+        <v>1070.html</v>
       </c>
       <c r="L113" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1069b.jpg</v>
+        <f t="shared" si="15"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1070b.jpg</v>
       </c>
       <c r="M113" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>374</v>
       </c>
       <c r="C114" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H114" s="3">
-        <v>86.44</v>
+        <v>10.31</v>
       </c>
       <c r="I114" s="4">
-        <f t="shared" si="5"/>
-        <v>73.47399999999999</v>
+        <f t="shared" si="10"/>
+        <v>8.7635000000000005</v>
       </c>
       <c r="J114" s="4">
-        <f t="shared" si="6"/>
-        <v>60.507999999999996</v>
+        <f t="shared" si="12"/>
+        <v>7.2169999999999996</v>
       </c>
       <c r="K114" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>1070.html</v>
+        <f t="shared" si="14"/>
+        <v>1071.html</v>
       </c>
       <c r="L114" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1070b.jpg</v>
+        <f t="shared" si="15"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1071b.jpg</v>
       </c>
       <c r="M114" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="C115" s="2">
-        <v>1071</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="H115" s="3">
-        <v>10.31</v>
+      <c r="C115" s="31">
+        <v>1111</v>
+      </c>
+      <c r="D115" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="G115" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="H115" s="30">
+        <v>79.540000000000006</v>
       </c>
       <c r="I115" s="4">
-        <f t="shared" si="5"/>
-        <v>8.7635000000000005</v>
-      </c>
-      <c r="J115" s="4">
-        <f t="shared" si="6"/>
-        <v>7.2169999999999996</v>
-      </c>
-      <c r="K115" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>1071.html</v>
-      </c>
-      <c r="L115" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1071b.jpg</v>
-      </c>
-      <c r="M115" t="s">
-        <v>246</v>
+        <f t="shared" si="10"/>
+        <v>67.609000000000009</v>
+      </c>
+      <c r="J115" s="39">
+        <f t="shared" si="12"/>
+        <v>55.678000000000004</v>
+      </c>
+      <c r="K115" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>1111.html</v>
+      </c>
+      <c r="L115" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1111b.jpg</v>
+      </c>
+      <c r="M115" s="13" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="116" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116" s="12" t="s">
         <v>374</v>
       </c>
       <c r="C116" s="31">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>556</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="F116" s="10" t="s">
-        <v>510</v>
+        <v>557</v>
+      </c>
+      <c r="E116" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="F116" s="19" t="s">
+        <v>512</v>
       </c>
       <c r="G116" s="19" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H116" s="30">
-        <v>79.540000000000006</v>
+        <v>75.58</v>
       </c>
       <c r="I116" s="4">
-        <f t="shared" si="5"/>
-        <v>67.609000000000009</v>
+        <f t="shared" si="10"/>
+        <v>64.242999999999995</v>
       </c>
       <c r="J116" s="39">
-        <f t="shared" si="6"/>
-        <v>55.678000000000004</v>
+        <f t="shared" si="12"/>
+        <v>52.905999999999999</v>
       </c>
       <c r="K116" s="31" t="str">
-        <f t="shared" si="7"/>
-        <v>1111.html</v>
+        <f t="shared" si="14"/>
+        <v>1112.html</v>
       </c>
       <c r="L116" s="19" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1111b.jpg</v>
+        <f t="shared" si="15"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1112b.jpg</v>
       </c>
       <c r="M116" s="13" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="117" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117" s="12" t="s">
         <v>374</v>
       </c>
       <c r="C117" s="31">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E117" s="19" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G117" s="19" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H117" s="30">
-        <v>75.58</v>
+        <v>51.51</v>
       </c>
       <c r="I117" s="4">
-        <f t="shared" si="5"/>
-        <v>64.242999999999995</v>
+        <f t="shared" si="10"/>
+        <v>43.783499999999997</v>
       </c>
       <c r="J117" s="39">
-        <f t="shared" si="6"/>
-        <v>52.905999999999999</v>
+        <f t="shared" si="12"/>
+        <v>36.056999999999995</v>
       </c>
       <c r="K117" s="31" t="str">
-        <f t="shared" si="7"/>
-        <v>1112.html</v>
+        <f t="shared" si="14"/>
+        <v>1113.html</v>
       </c>
       <c r="L117" s="19" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1112b.jpg</v>
+        <f t="shared" si="15"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1113b.jpg</v>
       </c>
       <c r="M117" s="13" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" s="19" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C118" s="31">
-        <v>1113</v>
-      </c>
-      <c r="D118" s="19" t="s">
-        <v>558</v>
-      </c>
-      <c r="E118" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="F118" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="G118" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="H118" s="30">
-        <v>51.51</v>
+      <c r="C118" s="7">
+        <v>1074</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G118" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="H118" s="8">
+        <v>337.32</v>
       </c>
       <c r="I118" s="4">
-        <f t="shared" si="5"/>
-        <v>43.783499999999997</v>
-      </c>
-      <c r="J118" s="39">
-        <f t="shared" si="6"/>
-        <v>36.056999999999995</v>
-      </c>
-      <c r="K118" s="31" t="str">
-        <f t="shared" si="7"/>
-        <v>1113.html</v>
-      </c>
-      <c r="L118" s="19" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1113b.jpg</v>
-      </c>
-      <c r="M118" s="13" t="s">
-        <v>574</v>
+        <f t="shared" si="10"/>
+        <v>286.72199999999998</v>
+      </c>
+      <c r="J118" s="34">
+        <f t="shared" ref="J118:J129" si="17">H118 * 0.7</f>
+        <v>236.12399999999997</v>
+      </c>
+      <c r="K118" s="8" t="str">
+        <f t="shared" si="14"/>
+        <v>1074.html</v>
+      </c>
+      <c r="L118" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1074b.jpg</v>
+      </c>
+      <c r="M118" s="5" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="119" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>374</v>
       </c>
       <c r="C119" s="7">
-        <v>1074</v>
+        <v>1086</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G119" s="33" t="s">
         <v>360</v>
@@ -7608,88 +7611,87 @@
         <v>337.32</v>
       </c>
       <c r="I119" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J119" s="34">
-        <f t="shared" ref="J119:J130" si="10">H119 * 0.7</f>
+        <f t="shared" si="17"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K119" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>1074.html</v>
+        <f t="shared" si="14"/>
+        <v>1086.html</v>
       </c>
       <c r="L119" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1074b.jpg</v>
+        <f t="shared" si="15"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1086b.jpg</v>
       </c>
       <c r="M119" s="5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="120" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>374</v>
       </c>
       <c r="C120" s="7">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G120" s="33" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H120" s="8">
         <v>337.32</v>
       </c>
       <c r="I120" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J120" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K120" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>1086.html</v>
-      </c>
-      <c r="L120" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1086b.jpg</v>
+        <f t="shared" si="14"/>
+        <v>1087.html</v>
+      </c>
+      <c r="L120" s="35" t="s">
+        <v>375</v>
       </c>
       <c r="M120" s="5" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>374</v>
       </c>
       <c r="C121" s="7">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G121" s="33" t="s">
         <v>361</v>
@@ -7698,42 +7700,42 @@
         <v>337.32</v>
       </c>
       <c r="I121" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J121" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K121" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>1087.html</v>
+        <f t="shared" si="14"/>
+        <v>1088.html</v>
       </c>
       <c r="L121" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M121" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="122" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>374</v>
       </c>
       <c r="C122" s="7">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G122" s="33" t="s">
         <v>361</v>
@@ -7742,42 +7744,42 @@
         <v>337.32</v>
       </c>
       <c r="I122" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J122" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K122" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>1088.html</v>
+        <f t="shared" si="14"/>
+        <v>1089.html</v>
       </c>
       <c r="L122" s="35" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M122" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="123" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>374</v>
       </c>
       <c r="C123" s="7">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G123" s="33" t="s">
         <v>361</v>
@@ -7786,86 +7788,87 @@
         <v>337.32</v>
       </c>
       <c r="I123" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>286.72199999999998</v>
       </c>
       <c r="J123" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>236.12399999999997</v>
       </c>
       <c r="K123" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>1089.html</v>
+        <f t="shared" si="14"/>
+        <v>1090.html</v>
       </c>
       <c r="L123" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M123" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="124" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>374</v>
       </c>
       <c r="C124" s="7">
-        <v>1090</v>
+        <v>1073</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G124" s="33" t="s">
         <v>361</v>
       </c>
       <c r="H124" s="8">
-        <v>337.32</v>
+        <v>270.32</v>
       </c>
       <c r="I124" s="4">
-        <f t="shared" si="5"/>
-        <v>286.72199999999998</v>
+        <f t="shared" si="10"/>
+        <v>229.77199999999999</v>
       </c>
       <c r="J124" s="34">
-        <f t="shared" si="10"/>
-        <v>236.12399999999997</v>
+        <f t="shared" si="17"/>
+        <v>189.22399999999999</v>
       </c>
       <c r="K124" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>1090.html</v>
-      </c>
-      <c r="L124" s="35" t="s">
-        <v>376</v>
+        <f t="shared" si="14"/>
+        <v>1073.html</v>
+      </c>
+      <c r="L124" s="6" t="str">
+        <f t="shared" ref="L124:L129" si="18" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C124:C217 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
       </c>
       <c r="M124" s="5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="125" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>374</v>
       </c>
       <c r="C125" s="7">
-        <v>1073</v>
+        <v>1091</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G125" s="33" t="s">
         <v>361</v>
@@ -7874,247 +7877,202 @@
         <v>270.32</v>
       </c>
       <c r="I125" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>229.77199999999999</v>
       </c>
       <c r="J125" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K125" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>1073.html</v>
+        <f t="shared" si="14"/>
+        <v>1091.html</v>
       </c>
       <c r="L125" s="6" t="str">
-        <f t="shared" ref="L125:L130" si="11" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C125:C218 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
+        <f t="shared" si="18"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1091b.jpg</v>
       </c>
       <c r="M125" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="126" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>374</v>
       </c>
       <c r="C126" s="7">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G126" s="33" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H126" s="8">
         <v>270.32</v>
       </c>
       <c r="I126" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>229.77199999999999</v>
       </c>
       <c r="J126" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K126" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>1091.html</v>
+        <f t="shared" si="14"/>
+        <v>1092.html</v>
       </c>
       <c r="L126" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1091b.jpg</v>
+        <f t="shared" si="18"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1092b.jpg</v>
       </c>
       <c r="M126" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="127" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>374</v>
       </c>
       <c r="C127" s="7">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G127" s="33" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H127" s="8">
         <v>270.32</v>
       </c>
       <c r="I127" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>229.77199999999999</v>
       </c>
       <c r="J127" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K127" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>1092.html</v>
+        <f t="shared" si="14"/>
+        <v>1093.html</v>
       </c>
       <c r="L127" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1092b.jpg</v>
+        <f t="shared" si="18"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1093b.jpg</v>
       </c>
       <c r="M127" s="5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="128" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>374</v>
       </c>
       <c r="C128" s="7">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G128" s="33" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H128" s="8">
         <v>270.32</v>
       </c>
       <c r="I128" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>229.77199999999999</v>
       </c>
       <c r="J128" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K128" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>1093.html</v>
+        <f t="shared" si="14"/>
+        <v>1094.html</v>
       </c>
       <c r="L128" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1093b.jpg</v>
+        <f t="shared" si="18"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1094b.jpg</v>
       </c>
       <c r="M128" s="5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="129" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>374</v>
       </c>
       <c r="C129" s="7">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G129" s="33" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H129" s="8">
         <v>270.32</v>
       </c>
       <c r="I129" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>229.77199999999999</v>
       </c>
       <c r="J129" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>189.22399999999999</v>
       </c>
       <c r="K129" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>1094.html</v>
+        <f t="shared" si="14"/>
+        <v>1095.html</v>
       </c>
       <c r="L129" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1094b.jpg</v>
+        <f t="shared" si="18"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1095b.jpg</v>
       </c>
       <c r="M129" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C130" s="7">
-        <v>1095</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="G130" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="H130" s="8">
-        <v>270.32</v>
-      </c>
-      <c r="I130" s="4">
-        <f t="shared" si="5"/>
-        <v>229.77199999999999</v>
-      </c>
-      <c r="J130" s="34">
-        <f t="shared" si="10"/>
-        <v>189.22399999999999</v>
-      </c>
-      <c r="K130" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>1095.html</v>
-      </c>
-      <c r="L130" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>https://iglika.me/products_img/Product_details_JPG/1095b.jpg</v>
-      </c>
-      <c r="M130" s="5" t="s">
         <v>291</v>
       </c>
     </row>
@@ -8124,16 +8082,16 @@
     <hyperlink ref="M21" r:id="rId2"/>
     <hyperlink ref="M39" r:id="rId3"/>
     <hyperlink ref="M9" r:id="rId4"/>
-    <hyperlink ref="L99" r:id="rId5"/>
-    <hyperlink ref="L100" r:id="rId6"/>
-    <hyperlink ref="L101" r:id="rId7"/>
-    <hyperlink ref="L102" r:id="rId8"/>
+    <hyperlink ref="L98" r:id="rId5"/>
+    <hyperlink ref="L99" r:id="rId6"/>
+    <hyperlink ref="L100" r:id="rId7"/>
+    <hyperlink ref="L101" r:id="rId8"/>
     <hyperlink ref="M42" r:id="rId9"/>
     <hyperlink ref="M43" r:id="rId10"/>
-    <hyperlink ref="L121" r:id="rId11"/>
-    <hyperlink ref="L122" r:id="rId12"/>
-    <hyperlink ref="L123" r:id="rId13"/>
-    <hyperlink ref="L124" r:id="rId14"/>
+    <hyperlink ref="L120" r:id="rId11"/>
+    <hyperlink ref="L121" r:id="rId12"/>
+    <hyperlink ref="L122" r:id="rId13"/>
+    <hyperlink ref="L123" r:id="rId14"/>
     <hyperlink ref="M27" r:id="rId15"/>
     <hyperlink ref="M32" r:id="rId16"/>
     <hyperlink ref="M33" r:id="rId17"/>
@@ -8147,9 +8105,9 @@
     <hyperlink ref="M63" r:id="rId25"/>
     <hyperlink ref="M64" r:id="rId26"/>
     <hyperlink ref="M77" r:id="rId27"/>
-    <hyperlink ref="M116" r:id="rId28"/>
-    <hyperlink ref="M117" r:id="rId29"/>
-    <hyperlink ref="M118" r:id="rId30"/>
+    <hyperlink ref="M115" r:id="rId28"/>
+    <hyperlink ref="M116" r:id="rId29"/>
+    <hyperlink ref="M117" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId31"/>

--- a/products_categories/Merge.xlsx
+++ b/products_categories/Merge.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="578">
   <si>
     <t>h1</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>ФАБ- Енергийна напитка</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/lI9qE166</t>
   </si>
   <si>
     <t xml:space="preserve">Fields of Greens
@@ -247,9 +244,6 @@
     <t>Forever AloeTurm</t>
   </si>
   <si>
-    <t>Форевър АЛОЕТУРМ</t>
-  </si>
-  <si>
     <t>https://thealoeveraco.shop/wP6hdOv4</t>
   </si>
   <si>
@@ -298,15 +292,6 @@
     <t>https://thealoeveraco.shop/gYkB46tG</t>
   </si>
   <si>
-    <t>Forever Supergreens</t>
-  </si>
-  <si>
-    <t>Форевър Супергрийнс</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/DCi4yrWn</t>
-  </si>
-  <si>
     <t>Vitolize men</t>
   </si>
   <si>
@@ -469,24 +454,6 @@
     <t>https://thealoeveraco.shop/7FQA31Yt</t>
   </si>
   <si>
-    <t>Sonya refining gel mask</t>
-  </si>
-  <si>
-    <t>Усъвършенстваща гел маска</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/oQqqQ6Qd</t>
-  </si>
-  <si>
-    <t>Sonya refreshing gel cleanser</t>
-  </si>
-  <si>
-    <t>Освежаващ почистващ гел</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/yuqyGUvl</t>
-  </si>
-  <si>
     <t>Sonya soothing gel moisturizer</t>
   </si>
   <si>
@@ -664,15 +631,6 @@
     <t>https://thealoeveraco.shop/Q1izQaIu</t>
   </si>
   <si>
-    <t>Start Your Journey Pack</t>
-  </si>
-  <si>
-    <t>Пакет „Стартирай пътешествието си“</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/hIVFXEwG</t>
-  </si>
-  <si>
     <t>Forever Lite Ultra with Aminotein chocolate</t>
   </si>
   <si>
@@ -988,12 +946,6 @@
     <t>Помага за хармонизация на тена на кожата и намаляване на пигментните петна.</t>
   </si>
   <si>
-    <t>Поддържа външния вид на кожата, контролира мазнините и озарява тена.</t>
-  </si>
-  <si>
-    <t>Иновативен почистващ гел за лице, специално разработен за комбинирана кожа.</t>
-  </si>
-  <si>
     <t>Осигурява мощно успокояващо и овлажняващо действие за комбинирана кожа.</t>
   </si>
   <si>
@@ -1171,9 +1123,6 @@
     <t>822-FAB-X-ENERGY-DRINK</t>
   </si>
   <si>
-    <t>721-FAB-ENERGY-DRINK</t>
-  </si>
-  <si>
     <t>068-FIELDS-OF-GREENS</t>
   </si>
   <si>
@@ -1231,9 +1180,6 @@
     <t>036-FOREVER-ROYAL-JELLY</t>
   </si>
   <si>
-    <t>621-SUPERGREENS</t>
-  </si>
-  <si>
     <t>374-VITOLIZE-MEN</t>
   </si>
   <si>
@@ -1288,12 +1234,6 @@
     <t>606-SONYA-ILLUMINATING-GEL</t>
   </si>
   <si>
-    <t>607-SONYA-REFINING-GEL-MASK</t>
-  </si>
-  <si>
-    <t>605-SONYA-REFRESHING-GEL-CLEANSER</t>
-  </si>
-  <si>
     <t>608-SONYA-SOOTHING-GEL-MOISTURIZER</t>
   </si>
   <si>
@@ -1573,9 +1513,6 @@
     <t>Подобрете храносмилането си с 84.5%  чисто алое вера и сочни праскови.</t>
   </si>
   <si>
-    <t>Стимулира естествените нива на енергия и метаболизма и е богат на антиоксидантните витамини C и E.</t>
-  </si>
-  <si>
     <t>Forever Bee Honey</t>
   </si>
   <si>
@@ -1615,9 +1552,6 @@
     <t>651-DEEP-MOISTURIZING-CREAM</t>
   </si>
   <si>
-    <t>069-R3-FACTOR-SKIN-CRÈME</t>
-  </si>
-  <si>
     <t>341-MASK-POWDER</t>
   </si>
   <si>
@@ -1663,9 +1597,6 @@
     <t>https://thealoeveraco.shop/AIRUExZl</t>
   </si>
   <si>
-    <t>https://thealoeveraco.shop/LzBV8QvV</t>
-  </si>
-  <si>
     <t>https://thealoeveraco.shop/wjYmanXz</t>
   </si>
   <si>
@@ -1790,6 +1721,39 @@
   </si>
   <si>
     <t>https://thealoeveraco.shop/VelTBweE</t>
+  </si>
+  <si>
+    <t>069-R3-FACTOR-SKIN-CREME</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/iS9lr5gI</t>
+  </si>
+  <si>
+    <t>821-FAB-ENERGY-DRINK</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/gBehjCqU</t>
+  </si>
+  <si>
+    <t>Nature-Min</t>
+  </si>
+  <si>
+    <t>Forever AloeTurm 10-pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Форевър АЛОЕТУРМ </t>
+  </si>
+  <si>
+    <t>Форевър АЛОЕТУРМ пакет от 10бр.</t>
+  </si>
+  <si>
+    <t>Изгоден пакет от 10 опаковки АЛОЕТУРМ.</t>
+  </si>
+  <si>
+    <t>67610-FOREVER-TURM-10-PACK</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/mjLRBKvA</t>
   </si>
 </sst>
 </file>
@@ -1881,7 +1845,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1948,6 +1912,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -2229,10 +2196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O129"/>
+  <dimension ref="A1:O126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2251,16 +2218,16 @@
   <sheetData>
     <row r="1" spans="1:15" s="17" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>0</v>
@@ -2269,31 +2236,31 @@
         <v>1</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>562</v>
+        <v>539</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>561</v>
+        <v>538</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="L1" s="18" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2301,13 +2268,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C2" s="2">
         <v>1000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -2316,7 +2283,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="H2" s="3">
         <f>I2*1.04</f>
@@ -2338,11 +2305,11 @@
         <v>43.345119999999994</v>
       </c>
       <c r="M2" s="3" t="str">
-        <f>C2 &amp; ".html"</f>
+        <f t="shared" ref="M2:M7" si="0">C2 &amp; ".html"</f>
         <v>1000.html</v>
       </c>
       <c r="N2" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C2:C114 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C2:C111 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1000b.jpg</v>
       </c>
       <c r="O2" t="s">
@@ -2354,13 +2321,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C3" s="2">
         <v>1001</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -2369,7 +2336,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="H3" s="3">
         <f>I3*1.04</f>
@@ -2379,23 +2346,23 @@
         <v>59.54</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J67" si="0">H3*0.95</f>
+        <f t="shared" ref="J3:J67" si="1">H3*0.95</f>
         <v>58.825519999999997</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K67" si="1">H3*0.85</f>
+        <f t="shared" ref="K3:K67" si="2">H3*0.85</f>
         <v>52.633359999999996</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L67" si="2">H3*0.7</f>
+        <f t="shared" ref="L3:L67" si="3">H3*0.7</f>
         <v>43.345119999999994</v>
       </c>
       <c r="M3" s="3" t="str">
-        <f>C3 &amp; ".html"</f>
+        <f t="shared" si="0"/>
         <v>1001.html</v>
       </c>
       <c r="N3" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C3:C114 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C3:C111 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1001b.jpg</v>
       </c>
       <c r="O3" t="s">
@@ -2407,13 +2374,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C4" s="6">
         <v>1075</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>12</v>
@@ -2422,7 +2389,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="H4" s="3">
         <f>I4*1.04</f>
@@ -2432,23 +2399,23 @@
         <v>59.54</v>
       </c>
       <c r="J4" s="3">
+        <f t="shared" si="1"/>
+        <v>58.825519999999997</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="2"/>
+        <v>52.633359999999996</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="3"/>
+        <v>43.345119999999994</v>
+      </c>
+      <c r="M4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>58.825519999999997</v>
-      </c>
-      <c r="K4" s="3">
-        <f t="shared" si="1"/>
-        <v>52.633359999999996</v>
-      </c>
-      <c r="L4" s="3">
-        <f t="shared" si="2"/>
-        <v>43.345119999999994</v>
-      </c>
-      <c r="M4" s="3" t="str">
-        <f>C4 &amp; ".html"</f>
         <v>1075.html</v>
       </c>
       <c r="N4" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C4:C114 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C4:C111 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1075b.jpg</v>
       </c>
       <c r="O4" s="4" t="s">
@@ -2460,13 +2427,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C5" s="2">
         <v>1002</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
@@ -2475,7 +2442,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="H5" s="3">
         <f>I5*1.04</f>
@@ -2485,23 +2452,23 @@
         <v>59.54</v>
       </c>
       <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>58.825519999999997</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="2"/>
+        <v>52.633359999999996</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="3"/>
+        <v>43.345119999999994</v>
+      </c>
+      <c r="M5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>58.825519999999997</v>
-      </c>
-      <c r="K5" s="3">
-        <f t="shared" si="1"/>
-        <v>52.633359999999996</v>
-      </c>
-      <c r="L5" s="3">
-        <f t="shared" si="2"/>
-        <v>43.345119999999994</v>
-      </c>
-      <c r="M5" s="3" t="str">
-        <f>C5 &amp; ".html"</f>
         <v>1002.html</v>
       </c>
       <c r="N5" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C116 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C113 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1002b.jpg</v>
       </c>
       <c r="O5" t="s">
@@ -2513,22 +2480,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C6" s="2">
         <v>1117</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>568</v>
+        <v>545</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>573</v>
+        <v>550</v>
       </c>
       <c r="H6" s="3">
         <f>I6</f>
@@ -2538,27 +2505,27 @@
         <v>247.72</v>
       </c>
       <c r="J6" s="3">
+        <f t="shared" si="1"/>
+        <v>235.33399999999997</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="2"/>
+        <v>210.56199999999998</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="3"/>
+        <v>173.404</v>
+      </c>
+      <c r="M6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>235.33399999999997</v>
-      </c>
-      <c r="K6" s="3">
-        <f t="shared" si="1"/>
-        <v>210.56199999999998</v>
-      </c>
-      <c r="L6" s="3">
-        <f t="shared" si="2"/>
-        <v>173.404</v>
-      </c>
-      <c r="M6" s="3" t="str">
-        <f>C6 &amp; ".html"</f>
         <v>1117.html</v>
       </c>
       <c r="N6" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C6:C117 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C6:C114 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1117b.jpg</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>586</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2566,52 +2533,52 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C7" s="6">
         <v>1118</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>569</v>
+        <v>546</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>574</v>
+        <v>551</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" ref="H7:H10" si="3">I7</f>
+        <f t="shared" ref="H7:H10" si="4">I7</f>
         <v>247.72</v>
       </c>
       <c r="I7" s="3">
         <v>247.72</v>
       </c>
       <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>235.33399999999997</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="2"/>
+        <v>210.56199999999998</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="3"/>
+        <v>173.404</v>
+      </c>
+      <c r="M7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>235.33399999999997</v>
-      </c>
-      <c r="K7" s="3">
-        <f t="shared" si="1"/>
-        <v>210.56199999999998</v>
-      </c>
-      <c r="L7" s="3">
-        <f t="shared" si="2"/>
-        <v>173.404</v>
-      </c>
-      <c r="M7" s="3" t="str">
-        <f>C7 &amp; ".html"</f>
         <v>1118.html</v>
       </c>
       <c r="N7" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C7:C118 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C7:C115 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1118b.jpg</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2619,52 +2586,52 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C8" s="2">
         <v>1119</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>570</v>
+        <v>547</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>575</v>
+        <v>552</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>247.72</v>
       </c>
       <c r="I8" s="3">
         <v>247.72</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>235.33399999999997</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210.56199999999998</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>173.404</v>
       </c>
       <c r="M8" s="3" t="str">
-        <f t="shared" ref="M8:M10" si="4">C8 &amp; ".html"</f>
+        <f t="shared" ref="M8:M10" si="5">C8 &amp; ".html"</f>
         <v>1119.html</v>
       </c>
       <c r="N8" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C8:C119 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C8:C116 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1119b.jpg</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2672,52 +2639,52 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C9" s="6">
         <v>1120</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>581</v>
+        <v>558</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>571</v>
+        <v>548</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>576</v>
+        <v>553</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>247.72</v>
       </c>
       <c r="I9" s="3">
         <v>247.72</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>235.33399999999997</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210.56199999999998</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>173.404</v>
       </c>
       <c r="M9" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1120.html</v>
       </c>
       <c r="N9" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C9:C120 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C9:C117 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1120b.jpg</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>588</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2725,52 +2692,52 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C10" s="2">
         <v>1121</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>582</v>
+        <v>559</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>577</v>
+        <v>554</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>247.72</v>
       </c>
       <c r="I10" s="3">
         <v>247.72</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>235.33399999999997</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210.56199999999998</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>173.404</v>
       </c>
       <c r="M10" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1121.html</v>
       </c>
       <c r="N10" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C10:C121 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C10:C118 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1121b.jpg</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>589</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2778,13 +2745,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C11" s="2">
         <v>1006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>20</v>
@@ -2793,7 +2760,7 @@
         <v>21</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="H11" s="3">
         <f>I11*1.04</f>
@@ -2803,23 +2770,23 @@
         <v>238.12</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>235.26255999999998</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210.49807999999999</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>173.35136</v>
       </c>
       <c r="M11" s="3" t="str">
-        <f>C11 &amp; ".html"</f>
+        <f t="shared" ref="M11:M43" si="6">C11 &amp; ".html"</f>
         <v>1006.html</v>
       </c>
       <c r="N11" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C11:C121 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C11:C118 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1006b.jpg</v>
       </c>
       <c r="O11" t="s">
@@ -2831,13 +2798,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C12" s="2">
         <v>1007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
@@ -2846,7 +2813,7 @@
         <v>24</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="H12" s="3">
         <f>I12*1.04</f>
@@ -2856,23 +2823,23 @@
         <v>238.12</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>235.26255999999998</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210.49807999999999</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>173.35136</v>
       </c>
       <c r="M12" s="3" t="str">
-        <f>C12 &amp; ".html"</f>
+        <f t="shared" si="6"/>
         <v>1007.html</v>
       </c>
       <c r="N12" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C12:C122 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C12:C119 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1007b.jpg</v>
       </c>
       <c r="O12" t="s">
@@ -2884,13 +2851,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C13" s="2">
         <v>1008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>26</v>
@@ -2899,7 +2866,7 @@
         <v>27</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="H13" s="3">
         <f>I13*1.04</f>
@@ -2909,23 +2876,23 @@
         <v>238.12</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>235.26255999999998</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210.49807999999999</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>173.35136</v>
       </c>
       <c r="M13" s="3" t="str">
-        <f>C13 &amp; ".html"</f>
+        <f t="shared" si="6"/>
         <v>1008.html</v>
       </c>
       <c r="N13" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C123 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C120 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1008b.jpg</v>
       </c>
       <c r="O13" t="s">
@@ -2937,13 +2904,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C14" s="2">
         <v>1010</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>35</v>
@@ -2952,7 +2919,7 @@
         <v>36</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="H14" s="3">
         <f>I14* 1.075</f>
@@ -2962,23 +2929,23 @@
         <v>40.06</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40.911275000000003</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.604824999999998</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30.145150000000001</v>
       </c>
       <c r="M14" s="3" t="str">
-        <f>C14 &amp; ".html"</f>
+        <f t="shared" si="6"/>
         <v>1010.html</v>
       </c>
       <c r="N14" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C14:C126 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C14:C123 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1010b.jpg</v>
       </c>
       <c r="O14" t="s">
@@ -2990,13 +2957,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C15" s="2">
         <v>1009</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>29</v>
@@ -3005,33 +2972,33 @@
         <v>30</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="H15" s="3">
-        <f>I15*1.04</f>
+        <f t="shared" ref="H15:H21" si="7">I15*1.04</f>
         <v>84.614400000000003</v>
       </c>
       <c r="I15" s="3">
         <v>81.36</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80.383679999999998</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71.922240000000002</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59.230080000000001</v>
       </c>
       <c r="M15" s="3" t="str">
-        <f>C15 &amp; ".html"</f>
+        <f t="shared" si="6"/>
         <v>1009.html</v>
       </c>
       <c r="N15" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C15:C124 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C15:C121 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1009b.jpg</v>
       </c>
       <c r="O15" t="s">
@@ -3043,48 +3010,48 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C16" s="6">
         <v>1082</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="H16" s="3">
-        <f>I16*1.04</f>
-        <v>57.730400000000003</v>
+        <f>I16</f>
+        <v>28.32</v>
       </c>
       <c r="I16" s="7">
-        <v>55.51</v>
+        <v>28.32</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="0"/>
-        <v>54.843879999999999</v>
+        <f t="shared" si="1"/>
+        <v>26.904</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="1"/>
-        <v>49.070840000000004</v>
+        <f t="shared" si="2"/>
+        <v>24.071999999999999</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="2"/>
-        <v>40.411279999999998</v>
+        <f t="shared" si="3"/>
+        <v>19.823999999999998</v>
       </c>
       <c r="M16" s="3" t="str">
-        <f>C16 &amp; ".html"</f>
+        <f t="shared" si="6"/>
         <v>1082.html</v>
       </c>
       <c r="N16" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C115 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C112 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1082b.jpg</v>
       </c>
       <c r="O16" s="4" t="s">
@@ -3096,13 +3063,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C17" s="6">
         <v>1076</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>32</v>
@@ -3111,33 +3078,33 @@
         <v>33</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="H17" s="3">
-        <f>I17*1.04</f>
+        <f t="shared" si="7"/>
         <v>8.9231999999999996</v>
       </c>
       <c r="I17" s="7">
         <v>8.58</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4770399999999988</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.584719999999999</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.2462399999999993</v>
       </c>
       <c r="M17" s="3" t="str">
-        <f>C17 &amp; ".html"</f>
+        <f t="shared" si="6"/>
         <v>1076.html</v>
       </c>
       <c r="N17" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C14:C125 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C14:C122 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1076b.jpg</v>
       </c>
       <c r="O17" s="4" t="s">
@@ -3149,13 +3116,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C18" s="19">
         <v>1011</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>383</v>
+        <v>569</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>38</v>
@@ -3164,37 +3131,37 @@
         <v>39</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="H18" s="3">
-        <f>I18*1.04</f>
+        <f t="shared" si="7"/>
         <v>8.9231999999999996</v>
       </c>
       <c r="I18" s="10">
         <v>8.58</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4770399999999988</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.584719999999999</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.2462399999999993</v>
       </c>
       <c r="M18" s="10" t="str">
-        <f>C18 &amp; ".html"</f>
+        <f t="shared" si="6"/>
         <v>1011.html</v>
       </c>
       <c r="N18" s="9" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C18:C127 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C18:C124 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1011b.jpg</v>
       </c>
-      <c r="O18" s="11" t="s">
-        <v>40</v>
+      <c r="O18" s="8" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3202,52 +3169,52 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C19" s="2">
         <v>1012</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="H19" s="3">
-        <f>I19*1.04</f>
+        <f t="shared" si="7"/>
         <v>28.5792</v>
       </c>
       <c r="I19" s="3">
         <v>27.48</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.15024</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.29232</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.00544</v>
       </c>
       <c r="M19" s="3" t="str">
-        <f>C19 &amp; ".html"</f>
+        <f t="shared" si="6"/>
         <v>1012.html</v>
       </c>
       <c r="N19" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C19:C128 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C19:C125 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1012b.jpg</v>
       </c>
       <c r="O19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3255,52 +3222,52 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C20" s="6">
         <v>1078</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="H20" s="3">
-        <f>I20*1.04</f>
+        <f t="shared" si="7"/>
         <v>33.914400000000001</v>
       </c>
       <c r="I20" s="7">
         <v>32.61</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32.218679999999999</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28.82724</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.740079999999999</v>
       </c>
       <c r="M20" s="3" t="str">
-        <f>C20 &amp; ".html"</f>
+        <f t="shared" si="6"/>
         <v>1078.html</v>
       </c>
       <c r="N20" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C20:C129 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C20:C126 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1078b.jpg</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3308,52 +3275,52 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C21" s="2">
         <v>1013</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="H21" s="3">
-        <f>I21*1.04</f>
+        <f t="shared" si="7"/>
         <v>41.662400000000005</v>
       </c>
       <c r="I21" s="3">
         <v>40.06</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39.579280000000004</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.413040000000002</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.163680000000003</v>
       </c>
       <c r="M21" s="3" t="str">
-        <f>C21 &amp; ".html"</f>
+        <f t="shared" si="6"/>
         <v>1013.html</v>
       </c>
       <c r="N21" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C21:C130 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C21:C127 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1013b.jpg</v>
       </c>
       <c r="O21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3361,22 +3328,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C22" s="2">
         <v>1014</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G22" s="3" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="H22" s="3">
         <f>I22* 1.075</f>
@@ -3386,27 +3353,27 @@
         <v>72.680000000000007</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74.22444999999999</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66.411349999999999</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54.691699999999997</v>
       </c>
       <c r="M22" s="3" t="str">
-        <f>C22 &amp; ".html"</f>
+        <f t="shared" si="6"/>
         <v>1014.html</v>
       </c>
       <c r="N22" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C22:C131 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C22:C128 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1014b.jpg</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3414,52 +3381,52 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C23" s="2">
         <v>1015</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="G23" s="3" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="H23" s="3">
-        <f>I23*1.04</f>
+        <f t="shared" ref="H23:H42" si="8">I23*1.04</f>
         <v>163.11360000000002</v>
       </c>
       <c r="I23" s="3">
         <v>156.84</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>154.95792</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>138.64656000000002</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>114.17952000000001</v>
       </c>
       <c r="M23" s="3" t="str">
-        <f>C23 &amp; ".html"</f>
+        <f t="shared" si="6"/>
         <v>1015.html</v>
       </c>
       <c r="N23" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C23:C132 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C23:C129 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1015b.jpg</v>
       </c>
       <c r="O23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3467,52 +3434,52 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C24" s="2">
         <v>1016</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="G24" s="3" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="H24" s="3">
-        <f>I24*1.04</f>
+        <f t="shared" si="8"/>
         <v>36.92</v>
       </c>
       <c r="I24" s="3">
         <v>35.5</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.073999999999998</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.382000000000001</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.844000000000001</v>
       </c>
       <c r="M24" s="3" t="str">
-        <f>C24 &amp; ".html"</f>
+        <f t="shared" si="6"/>
         <v>1016.html</v>
       </c>
       <c r="N24" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C24:C133 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C24:C130 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1016b.jpg</v>
       </c>
       <c r="O24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3520,52 +3487,52 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C25" s="2">
         <v>1017</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="G25" s="3" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="H25" s="3">
-        <f>I25*1.04</f>
+        <f t="shared" si="8"/>
         <v>36.306399999999996</v>
       </c>
       <c r="I25" s="3">
         <v>34.909999999999997</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34.491079999999997</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.860439999999997</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.414479999999998</v>
       </c>
       <c r="M25" s="3" t="str">
-        <f>C25 &amp; ".html"</f>
+        <f t="shared" si="6"/>
         <v>1017.html</v>
       </c>
       <c r="N25" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C25:C134 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C25:C131 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1017b.jpg</v>
       </c>
       <c r="O25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3573,52 +3540,52 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C26" s="2">
         <v>1018</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="G26" s="3" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="H26" s="3">
-        <f>I26*1.04</f>
+        <f t="shared" si="8"/>
         <v>75.58720000000001</v>
       </c>
       <c r="I26" s="3">
         <v>72.680000000000007</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71.807840000000013</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64.249120000000005</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52.911040000000007</v>
       </c>
       <c r="M26" s="3" t="str">
-        <f>C26 &amp; ".html"</f>
+        <f t="shared" si="6"/>
         <v>1018.html</v>
       </c>
       <c r="N26" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C26:C135 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C26:C132 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1018b.jpg</v>
       </c>
       <c r="O26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3626,52 +3593,52 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C27" s="6">
         <v>1026</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="H27" s="3">
-        <f>I27*1.04</f>
+        <f t="shared" si="8"/>
         <v>78.603200000000001</v>
       </c>
       <c r="I27" s="7">
         <v>75.58</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74.67304</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66.812719999999999</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55.022239999999996</v>
       </c>
       <c r="M27" s="7" t="str">
-        <f>C27 &amp; ".html"</f>
+        <f t="shared" si="6"/>
         <v>1026.html</v>
       </c>
       <c r="N27" s="5" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C27:C144 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C27:C141 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1026b.jpg</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3679,52 +3646,52 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C28" s="6">
         <v>1114</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="H28" s="7">
-        <f>I28*1.04</f>
+        <f t="shared" si="8"/>
         <v>39.894399999999997</v>
       </c>
       <c r="I28" s="7">
         <v>38.36</v>
       </c>
       <c r="J28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37.899679999999996</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.910239999999995</v>
       </c>
       <c r="L28" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27.926079999999995</v>
       </c>
       <c r="M28" s="7" t="str">
-        <f>C28 &amp; ".html"</f>
+        <f t="shared" si="6"/>
         <v>1114.html</v>
       </c>
       <c r="N28" s="5" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C28:C145 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C28:C142 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1114b.jpg</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3732,52 +3699,52 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C29" s="6">
         <v>1019</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="E29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="H29" s="7">
-        <f>I29*1.04</f>
+        <f t="shared" si="8"/>
         <v>57.137599999999999</v>
       </c>
       <c r="I29" s="7">
         <v>54.94</v>
       </c>
       <c r="J29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.280719999999995</v>
       </c>
       <c r="K29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48.566959999999995</v>
       </c>
       <c r="L29" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39.996319999999997</v>
       </c>
       <c r="M29" s="7" t="str">
-        <f>C29 &amp; ".html"</f>
+        <f t="shared" si="6"/>
         <v>1019.html</v>
       </c>
       <c r="N29" s="5" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C29:C136 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C29:C133 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1019b.jpg</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3785,52 +3752,52 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C30" s="6">
         <v>1020</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="E30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="G30" s="7" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="H30" s="7">
-        <f>I30*1.04</f>
+        <f t="shared" si="8"/>
         <v>43.461599999999997</v>
       </c>
       <c r="I30" s="7">
         <v>41.79</v>
       </c>
       <c r="J30" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41.288519999999998</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.942359999999994</v>
       </c>
       <c r="L30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30.423119999999997</v>
       </c>
       <c r="M30" s="7" t="str">
-        <f>C30 &amp; ".html"</f>
+        <f t="shared" si="6"/>
         <v>1020.html</v>
       </c>
       <c r="N30" s="5" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C30:C137 &amp;"b" &amp;".jpg"</f>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C30:C134 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1020b.jpg</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3838,52 +3805,52 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C31" s="6">
         <v>1021</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="E31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="H31" s="7">
-        <f>I31*1.04</f>
+        <f t="shared" si="8"/>
         <v>63.7</v>
       </c>
       <c r="I31" s="7">
         <v>61.25</v>
       </c>
       <c r="J31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60.515000000000001</v>
       </c>
       <c r="K31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.145000000000003